--- a/data/02_intermediate/cleaned_H_Magnum_songs.xlsx
+++ b/data/02_intermediate/cleaned_H_Magnum_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Paraît qujai changé Jentends les langues ici et là se délier Paraît quon se connaît En vérité on ne sest jamais croisés Et tu le sais, tu le sais, tu le sais Et cest plus fort que toi dinventer Des liens qui te font rêver Et tu le fais, tu le fais, tu le fais Soudain les gens te prêtent de lattention Cest XXX vers ce que tu cherchais Quest-cque tu cherchais ? You might also like Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Arrête de sourire, tu fais semblant On le sait, la roue tourne, tout se sait Tout se dit, tôt ou tard Ils nsarrêteront jamais Je vois des gens qui parlent, sans arrêt Prêts à tout pour déformer la vérité Cest la même, tous les jours cest la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Yeah, H dream, Vitaa Tes pas prêt Tous les jours cest la même Jsuis désolé dinnover Jsuis désolé dinnover Ça spasse, tu connais Tous les jours cest la même Ça bouge pas XXX Quoi quon mdise Cqui mmotive cest de foutre le seum aux loux-ja</t>
+          <t>Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Paraît qujai changé Jentends les langues ici et là se délier Paraît quon se connaît En vérité on ne sest jamais croisés Et tu le sais, tu le sais, tu le sais Et cest plus fort que toi dinventer Des liens qui te font rêver Et tu le fais, tu le fais, tu le fais Soudain les gens te prêtent de lattention Cest XXX vers ce que tu cherchais Quest-cque tu cherchais ? Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Arrête de sourire, tu fais semblant On le sait, la roue tourne, tout se sait Tout se dit, tôt ou tard Ils nsarrêteront jamais Je vois des gens qui parlent, sans arrêt Prêts à tout pour déformer la vérité Cest la même, tous les jours cest la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Yeah, H dream, Vitaa Tes pas prêt Tous les jours cest la même Jsuis désolé dinnover Jsuis désolé dinnover Ça spasse, tu connais Tous les jours cest la même Ça bouge pas XXX Quoi quon mdise Cqui mmotive cest de foutre le seum aux loux-ja</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro You might also like J'veux une Audemars sur l'poignet du Padre Mais c'est pas l'but frèro faut bien cadrer J'suis pas une lumière mais j'sais que j'finirai pas à l'ombre On s'contente de ce qu'on a, la vie n'est pas à Londres Laisse pas traîner ton fils la rue est pédophile Psychopathe, psychologue, car elle t'aide aussi Résultat j'vais m'en sortir et crois pas qu'on est peu Mais on est soudés comme les doigts de la main d'un lépreux J'avoue j'ai des milliers d'idées, oui mon style est inégalable Moi et tous mes gars là, on a fait un carnage Éliminé, illuminé, plus d'un millier d'MCs J'veux des millions ralsi pour ma lignée J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Venez venez, j'vais vous montrez mon environnement les amis Ici y'a des fous, des génies, des mecs qui tombent pour des années J'suis pas là pour faire le Damné, si c'est l'royaume des invalides J'aimerais juste avoir un Vélib, ONE MILLIONS D'DOLLARS BABY Désolé j'ai des idées indécentes, j'vais pas t'faire un dessin Glige-né comme un gitan, y'a cette voix incessante La richesse est tentante, le doigt sur la détente C'est un hold up, LET'S GO ! J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Mon premier seize, akhi j'étais sous ke-skun J'n'avais même pas de quoi me payer rien qu'un putain de kefta Des MCs en guise de casse-dalle Bande de fils de... On vise le cristal J'veux changer d'vie moi, putain de villa Trop d'de-mon sur la ligne 4, oui je le vis mal Ne m'appelez pas la re-sta, j'ai rien d'un Busta Mais j'suis pas fait pour les restes, ni pour être en guest star Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine, j'le dédicace à Nicolas Sirkis Smiley, smehli, les gros yeu-z en personne J'comprends tout à fait pourquoi ton équipe a un tel seum C'est Maître Gim's en direct du bled french kiss Toujours rien à foutre de c'que les gens pensent, disent Mon entourage vise bédo, go, cash, tise Pendant qu'oi-m j'fais des tubes à la Black Eyed Peas J'veux changer d'i-ve, crick crick .. FREEZE ! Classe E Merco, Audi, tchu, tchu... DREAM Oops ! J'suis dans Closer, on m'a Entrevue en Public J'suis Le Parisien qui fait trembler Le Monde J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Oui forcément on t'fera des sons d'bâtard Comme les trois frères, on veut les cent patates Oui forcément on t'fera des sons d'bâtard Comme les trois frères, on veut les cent patates Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine j'le dédicace à Nicolas Sirkis Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine j'le dédicace à Nicolas Sirkis -Eh, mais les gars, c'est-c'est-c'est qui Nicolas Sirkis en fait ? -Oh, j'sais même pas, poto, en vrai. On s'en tape ! Rires - Allez circule !</t>
+          <t>J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro J'veux une Audemars sur l'poignet du Padre Mais c'est pas l'but frèro faut bien cadrer J'suis pas une lumière mais j'sais que j'finirai pas à l'ombre On s'contente de ce qu'on a, la vie n'est pas à Londres Laisse pas traîner ton fils la rue est pédophile Psychopathe, psychologue, car elle t'aide aussi Résultat j'vais m'en sortir et crois pas qu'on est peu Mais on est soudés comme les doigts de la main d'un lépreux J'avoue j'ai des milliers d'idées, oui mon style est inégalable Moi et tous mes gars là, on a fait un carnage Éliminé, illuminé, plus d'un millier d'MCs J'veux des millions ralsi pour ma lignée J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Venez venez, j'vais vous montrez mon environnement les amis Ici y'a des fous, des génies, des mecs qui tombent pour des années J'suis pas là pour faire le Damné, si c'est l'royaume des invalides J'aimerais juste avoir un Vélib, ONE MILLIONS D'DOLLARS BABY Désolé j'ai des idées indécentes, j'vais pas t'faire un dessin Glige-né comme un gitan, y'a cette voix incessante La richesse est tentante, le doigt sur la détente C'est un hold up, LET'S GO ! J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Mon premier seize, akhi j'étais sous ke-skun J'n'avais même pas de quoi me payer rien qu'un putain de kefta Des MCs en guise de casse-dalle Bande de fils de... On vise le cristal J'veux changer d'vie moi, putain de villa Trop d'de-mon sur la ligne 4, oui je le vis mal Ne m'appelez pas la re-sta, j'ai rien d'un Busta Mais j'suis pas fait pour les restes, ni pour être en guest star Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine, j'le dédicace à Nicolas Sirkis Smiley, smehli, les gros yeu-z en personne J'comprends tout à fait pourquoi ton équipe a un tel seum C'est Maître Gim's en direct du bled french kiss Toujours rien à foutre de c'que les gens pensent, disent Mon entourage vise bédo, go, cash, tise Pendant qu'oi-m j'fais des tubes à la Black Eyed Peas J'veux changer d'i-ve, crick crick .. FREEZE ! Classe E Merco, Audi, tchu, tchu... DREAM Oops ! J'suis dans Closer, on m'a Entrevue en Public J'suis Le Parisien qui fait trembler Le Monde J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Oui forcément on t'fera des sons d'bâtard Comme les trois frères, on veut les cent patates Oui forcément on t'fera des sons d'bâtard Comme les trois frères, on veut les cent patates Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine j'le dédicace à Nicolas Sirkis Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine j'le dédicace à Nicolas Sirkis -Eh, mais les gars, c'est-c'est-c'est qui Nicolas Sirkis en fait ? -Oh, j'sais même pas, poto, en vrai. On s'en tape ! Rires - Allez circule !</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>J'pense que j'pourrais plaire à Rell-o, Medhi Nem, Jo Hell, Cheef, Nelson, Espy, Saminem, OD, puis Zed, Brrown, Eris, Lezko, Sedj, Deel N'Joy, Airjee, meme Obelix Si j'm'en battais pas les couilles de m'faire sucer par trop d'MC La, j'deconne, mec, oui, Maadou Live, la chaine trop epique T'aimes bien les YouTubeurs qui renaissent de leurs cendres mais, là, c'est trop penible Lors de mon jugement au ROAR Selection, c'etait Maadou Gangseleu et N'Joy phenix T'es aphone mais faut qu't'ecrives des gros récits, c'est faux, mais j'dis Qu't'es pas a cheval sur les phonetiques, les phonemes, les rimes T'es le pire Hamid, comme un depot d'Egypte Tu peux rugir, t'es pas un sphynx, t'es pas Leo mais tigre Les vents qu'tu t'prends, c'est l'apocalypse, pour moi, t'es trompettiste Le lion pourrait se faire tuer dans l'arene par des Roms aigris Tu veux rentrer dans la legende comme une chimère mais vois qu'une mere lionne féline Faut pas que tu régén' trop tes vies, j'vais te dissoudre plein d'fois Tu begayes trop tes rimes ça, c'est le discours d'un ROAR T'es a la tete de ta ligue et tu t'prends pour un vrai gros messie Mais arrete d'insulter ou de rabaisser les autres parce que, la, tu fais trop l'mec street J'ai dit Le Discours d'un roi, j'vais t'apprendre a parler comme un neo messire Trouve les mots justes, moi, j'aimerais voir ce sir concis comme des peau d'penis Et, si t'es Obelix, j't'encule avec des sex-toys menhirs Faut que tu m'obeisses, tes tampons seront des obélisques Je survole tous les bas vux comme un heros, genie Eh, vielle branche, toi, tu dis pas les ados baisent mais les corps s'déciment J'vais ecarter mes bar' haut, sur ses notes, Bellick, Theodor et Link T'es pas de l'or noir, t'es pas Kaaris, tu suis pas la bonne melo épique J'te laisse au fond du trou, dans la fosse aux lions comme Daniel, respecte les propheties Tu vas crever a la surface, on refait tout avec des si, moi, quand j'ai tort, j'hesite A chaque fin d'inspi', tu laches des puits sans fond, donc je laisse le petrole gesir You might also like Tu t'appelles Naïl mais j'te calcule pas Si j'te voyais du mauvais il, je dirais tu portes l'aïn comme la plupart Naïl, j't'ai pas vu, ce soir J'sors le nine, shoot les Nike pour que Naïl n'aille nulle part Coupe-moi ces cheveux, on dirait un vieux tahr Les Forbans T'es si précieux, c'est forcé, c'est tordant T'es des deux sortes, nan ? Ce bi joue, je vais le soulever sans jamais porter de l'or blanc Attends que Maadou s'y mette, dis-moi Merci, maître J'arrive salé, gras comme ton épiderme, j'vide chargeur dans ta boîte comme si t'avais six mails Ta mèche fait six mètres, tu ressembles à une chimère Je dirais t'es moitié homme, moitié shemale J'suis chef de chantier, on me remercie pour les travaux T'es le chef pour changer, on te remercie pour les travelos Je me fous de ta vie, j'te baise jusqu'à ce que tu dises Je t'aime Tu es seul reubeu avec la face de Marine Le Pen Homme, femme ton cur balance, p'tit con On dirait qu'on vous force, c'est une étrange fiction Moi, je crois que j'ai capté ce qu'ils pensent vision Promotionner le mélange des genres, c'est leur transmission Ma mission à moi mon pote, de facto, tu prends la porte, c'est cadeau Ton art est factice et c'est pas drôle, depuis l'âge de pierre, on joue pas de rôle J'ai les crocs, magnons-nous de fuck le fiasco D'après l'histoire, t'as ma trace dans ta gorge c'est une glotte de Lascaux Je cherche à faire the score, j'aime les Fugees Les lignes défilent sur ta tête, ici, on aime les sous-titres J'suis de la race des tigres, t'es de celles des sous-fifres J'vais te labourer comme si j'étais sous tise J'te crève l'il avec un livre, oui, lis le Borgne, j'aime les Goonies Tu vas manger la pépite, je sais que t'aimes les cookies J'te cook easy, brise ton cou, j't'ai choisi car j'aime les rookies Tous disent que j'ai pris un p'tit pari c'est vrai, j'aime les sous mises T'es dead et faible, tu peux commencer à chercher de l'aide Je suis venu te fumer, j'ai même pas commander de l'herbe Une dégaine de bac L, ça, c'est une vraie merde On dirait que t'as un Bescherelle entre les fesses ça, c'est une raie verbe En vrai, tu nages dans le miel, j'suis une étoile, pas le temps de check Les guns fonctionnent, l'air est froid comme par temps de gel Ta démarche chancelle Shoot l'intello dans la gorge, pas la faute météore, y a un énarque en ciel Je peux faire le savant publiquement, c'est tout confort Tu seras le mec le plus intelligent uniquement si tout le monde sort J'ai vie de king comme viking de cité d'Asgard Ta vie victime dans ta cité, le shit, c'est ce que ton ass garde Je suis le best de ce jeu Tes potes t'ont menti quand ils t'ont dit Teste-le Phases, flow, bars, joke je fais ce que je veux, mes lines pètent le feu T'as pas ce qu'il faut pour être au niveau du Gangseuleu Maadou, viens, on s'décale et on s'parle entre couilles Tu parles souvent de ta bite mais, la, c'est gravement fourbe C'est surement un complexe, t'as plus d'erection depuis qu'tes parents t'touchent Et, meme si, la, moi, j'm'en fous de la grosseur ou du poids de ta teub J'tenais a dire qu'a part Cheef et Lamanif t'as pas d'membre lourd Puis tu fais tout payer, les nouveaux du LC, les gerants de terrains, meme tes gars, j'm'en doute C'est lachement fourbe et gravement flou Tu ferais payer tes parents pour qu'ils t'passent de l'argent, dude Tu ferais payer des garces en soum, des cadrans d'Mouv' Pour de la pub' ou faire ta campagne, sans doute Tu vendrais ton cul pour du ble cash sans doute Faire des crasses en douce sur tes pactes en cours J'ai juste un truc a dire les gars, profitez des battles avant que le ROAR win et parte en bourse Ici, y a que des snipers, et le cameraman t'a dans l'cadran, cours J'ai des armes en coups par cou J'vise la jugulaire, coupure, sang sur la cam, comme s'il y avait des blames en cours T'es pas une strip-teaseuse, mais j'te mets des balles dans l'boule J'suis pas mathematicien mais tireur, j'ai quarante douze Toi gangster ? Ton flingue sans khey, pas d'akimo comme s'il avait pas d'grand cous' Toi Gangseleu ? J'te defonce, t'es seul, bang, tu les cales en douille Pourtant, dans les battles, t'as engendré deces sur des c, comme un Crip Mais les vrais parlent entre Bloods Donc c'est pas l'ivresse mais l'vertige quand il voit les bar' entre nous Puis tu t'es fait peter avec ta cons' au RC 11, j'regrettais ca dans l'12 Au comico, à force de chercher tes mots, on aurait dit qu'y avait un Scrabble en cours J'ai rien fait, j'ai rien fait, t'as surement invite Esope, Wolff, pour faire croire sans l'loup Tu disais J'ai rien fait, j'ai rien fait, le flic te demandait Pourquoi tu m'parles en Groot ? Moi, les poulets, a l'inverse d'un vegan, j'en fourre J'pourrais venir penard, pantoufles, petard en bouche Parce que j'viens avec des bars en crew, j'sais pas, j'm'en fous Là, t'es comme chaque acteur qui quitte un tournage mort dans le scénar en cours Kazuhira, j'vais te casser la bouche, là, t'oublieras Ce nom tout bizarre quand tu t'assoupiras Ce battle n'aboutira à rien, Maadou te pliera, t'as l'air d'un clafoutis gras J'te la mets en douceur, Kazuhira, ta mère en scooter, La Zoubida P'tite bouille, minois Une couille, mi noix Mais, dis-moi, t'as une ligue de battle à Nîmes, c'est un p'tit ROAR J'tire dessus de façon frénétique, c'est un tiroir Tu le fais mal, façon contrefaçon chinois Mime-moi, même si t'avais mis moi avec mille moi pendant mille mois avec tes fiottes Nîmois, vous serez ni mes potes ni moi Dis-toi, tu prends une sale dose, p'tit noir dans ta gueule, c'est l'heure de ta pause Je fais craquer tes os comme si j'étais l'arthrose Je comprends pas bien que ce lâche ose T'es pas de la famille à Dam's, je vais te couper la main comme si c'était La Chose Bigre, bon sang, y a odeur de bite, t'es pas clean, on le sent J'te tire par les cheveux sur le lino, cent coups, pas de blabla, j'suis pas innocent J'te tranche le cou au-dessus de ton verre, je lie ton lean au sang J'mets en sang ce fayot Toi, quand tu mouilles le maillot, bah tu te mouilles de mayo Va me chercher un pack, man, j'te punch c'est Manny Pacquiao J'ai les skills de Sangoku, toi, tu manies pas Kaio T'es venu faire la guerre, tu repars en paix Chargé h vingt-quatre sans veille Balle dans la tête avant que l'arme s'enraille Tu montes au ciel sans ami, t'es une âme sans rhey Je t'abats, p'tite merde Un autre tome de ton texte, c'est un cache-misère Sur quatre seize, on n'entend que des balivernes C'était le printemps de ta vie, déjà dans ton crâne, la balle hiverne Masque-moi ce toupet de bâtard bourré C'est rien, j'vais te 3agar, pour toi, pas de playa, poupée J'te shoot en R1, la balle va tourner Au milieu de tes reins, j'suis Yaya Touré Les autres ligues, j'ai le AK des Balkans, ils sont de Bulgarie J'leur donne ni repris ni crédit, j'ai plus d'amis C'est bad, ça me tue, ils vont avaler, z'ont perdu le pari Je répète le Aka ouvre le bal quand ils ont bu le Gary Tu passes ton temps sur YouTube a faire des lives où tu pars exprimer tes vux La verite, ca serait plus instructif si tu streamais des jeux Me sous-estime pas, c'est pas parce que j'hesite que j'fais rimer des euh J'vais devoir te faire fermer ta bouche, te coller les levres comme si j'excisait des teuchs Tu t'prends pour un philosophe comme Épictete et Freud Mais tu t'appelles Maadou, tu fais du battle rap et tu fais des flips de mes deux Faire payer les nouveaux du LC pour les repayer au ROAR ca, c'est un deal de véreux Prendre de l'argent pour en rendre le triple t'es quoi ? Un juif genereux ? Ta femme, elle se maquille, elle est cheum, sans lifting, elle est fripée, degueu' Quand elle a de la tristesse, elle pleure du Rimmel des yeux Mais, quand elle a un ventre petit et tres creux, tu fais la cuisine et c'est l'zbeul Prepare gaziniere et skeud, prends la marmite et mets l'feu Tu mets des radis et des ufs, des frites et des bleus Des vaches bovines et des bufs, mijote leurs cuisses genereuses Oublie pas les poitrines et des queues, pour s'empiffrer, c'est mieux Rajoute le chibre des émeus, du cidre et des meules Mets tout ca dans de l'huile tres neigeuse, quand tu le fais frire, c'est cremeux Assaisonne-le d'un fond de thym pour que ca devienne le clip des make-up J'te mets a l'amende comme si t'etais chleuh Tu passes ton temps a boire des bieres et draguer des pauvres, à tiser les gueuses Dans mes seize, j'y mets mes tripes, comme un champi' veneneux Decouper des morceaux d'merde avec courage, c'est le seul moyen de faire tripper les lepreux J'vis pas dans c'monde, j'cohabite avec antithèses et zeugmes Toi, tu peux faire de beaux reves, loin de mes entites, serieux Moi, ma pilule rouge a matrixe mes feutres toi, t'as pilule bleue sert a exciter les vieux J'leve la main, pour le mjolnir, attirer la foudre et decimer les nerds J'fais plus de raids qu'un viking qui part au large exprimer ses meurtres J'ai la confession des nordiques, j'aime estimer les feux T'as pas les croyances d'un Ragnar rock, t'es pas l'heritier des Dieux Sur tes stories, tu penses avoir raison mais t'as Thor Prends ta dose de méthadone pour eriger des gueux Te battle, c'est pas mon apogee, j'aborde le Bifröst, alors J'pars accomplir ma destinee, serieux Je suis le Dieu du tonnerre, j't'accorde Ma foudre et ma force, et ce meme si t'es Zeus Si j't'offre c'te guerre, c'est pour que t'étoffes et récoltes des éloges J'veux qu'tu t'portes fier, je ferai de toi un homme J'suis àl, chie le mystère, y a de l'or qui sort quand je frotte le fer Respecte-moi, en un battle, je fais plus pour toi que ton propre père Je te donne d'autres repères Dans la vie, quand tu gagnes, un autre perd Tu vas le répéter à ta mère, je suis ton autre père Tu vas te dépêcher à la messe, il te faut un Notre Père Qu'est-ce tu comptes me faire ? Quand j'te vois, j'ai le stress T'as un corps de go, des cheveux de go Fait que, quand t'es de dos, les gens regardent tes fesses J'te charge, t'es dead, et tous mes gars acquiescent T'es fou, t'es de la jaquette, tu dois bouffer de la braguette Je vais pas louper la tapette J'te rafale jusqu'à ce que tu sois habillé de plomb Full Metal Jacket J'ai sorti le parabellum Personne m'arrête devant ta femme, j'suis imparable bel homme Vise-moi, dis pas Je déconne, la prune dans le visage détonne Le flash t'envoie sur la Lune, je t'allume comme le village d'Akon Non, négro, je tombe pas Ces p'tits-là, ils font trop les chauds, bombent pas T'as des gros défauts, on le voit, retourne étudier l'Empire austro-hongrois Je brise le dos de ta bitch comme seuls les ostéo' ont l'droit J'vais te marcher dessus comme si t'étais la scène Ta bitch pue du bassin comme si c'était la Seine Action, réaction, retour, ça, c'est le larsen J'suis pas dans le son, ça, c'est la flemme Si t'es pas bon, c'est la dernière fois que tu vois le Lyon ça, c'est Bassem J'te gère facilement comme si t'étais le trac Le chargeur est plein, t'en prends six dans l'bide comme si c'était le pack J'te frappe dessus comme si t'étais le sac Ça fait round sur ton crâne comme si t'étais le pape Je suis le best de ce jeu Tes potes t'ont menti quand ils t'ont dit Teste-le Phases, flow, bars, joke je fais ce que je veux, mes lines pètent le feu T'as pas ce qu'il faut pour être au niveau du Gangseuleu</t>
+          <t>J'pense que j'pourrais plaire à Rell-o, Medhi Nem, Jo Hell, Cheef, Nelson, Espy, Saminem, OD, puis Zed, Brrown, Eris, Lezko, Sedj, Deel N'Joy, Airjee, meme Obelix Si j'm'en battais pas les couilles de m'faire sucer par trop d'MC La, j'deconne, mec, oui, Maadou Live, la chaine trop epique T'aimes bien les YouTubeurs qui renaissent de leurs cendres mais, là, c'est trop penible Lors de mon jugement au ROAR Selection, c'etait Maadou Gangseleu et N'Joy phenix T'es aphone mais faut qu't'ecrives des gros récits, c'est faux, mais j'dis Qu't'es pas a cheval sur les phonetiques, les phonemes, les rimes T'es le pire Hamid, comme un depot d'Egypte Tu peux rugir, t'es pas un sphynx, t'es pas Leo mais tigre Les vents qu'tu t'prends, c'est l'apocalypse, pour moi, t'es trompettiste Le lion pourrait se faire tuer dans l'arene par des Roms aigris Tu veux rentrer dans la legende comme une chimère mais vois qu'une mere lionne féline Faut pas que tu régén' trop tes vies, j'vais te dissoudre plein d'fois Tu begayes trop tes rimes ça, c'est le discours d'un ROAR T'es a la tete de ta ligue et tu t'prends pour un vrai gros messie Mais arrete d'insulter ou de rabaisser les autres parce que, la, tu fais trop l'mec street J'ai dit Le Discours d'un roi, j'vais t'apprendre a parler comme un neo messire Trouve les mots justes, moi, j'aimerais voir ce sir concis comme des peau d'penis Et, si t'es Obelix, j't'encule avec des sex-toys menhirs Faut que tu m'obeisses, tes tampons seront des obélisques Je survole tous les bas vux comme un heros, genie Eh, vielle branche, toi, tu dis pas les ados baisent mais les corps s'déciment J'vais ecarter mes bar' haut, sur ses notes, Bellick, Theodor et Link T'es pas de l'or noir, t'es pas Kaaris, tu suis pas la bonne melo épique J'te laisse au fond du trou, dans la fosse aux lions comme Daniel, respecte les propheties Tu vas crever a la surface, on refait tout avec des si, moi, quand j'ai tort, j'hesite A chaque fin d'inspi', tu laches des puits sans fond, donc je laisse le petrole gesir Tu t'appelles Naïl mais j'te calcule pas Si j'te voyais du mauvais il, je dirais tu portes l'aïn comme la plupart Naïl, j't'ai pas vu, ce soir J'sors le nine, shoot les Nike pour que Naïl n'aille nulle part Coupe-moi ces cheveux, on dirait un vieux tahr Les Forbans T'es si précieux, c'est forcé, c'est tordant T'es des deux sortes, nan ? Ce bi joue, je vais le soulever sans jamais porter de l'or blanc Attends que Maadou s'y mette, dis-moi Merci, maître J'arrive salé, gras comme ton épiderme, j'vide chargeur dans ta boîte comme si t'avais six mails Ta mèche fait six mètres, tu ressembles à une chimère Je dirais t'es moitié homme, moitié shemale J'suis chef de chantier, on me remercie pour les travaux T'es le chef pour changer, on te remercie pour les travelos Je me fous de ta vie, j'te baise jusqu'à ce que tu dises Je t'aime Tu es seul reubeu avec la face de Marine Le Pen Homme, femme ton cur balance, p'tit con On dirait qu'on vous force, c'est une étrange fiction Moi, je crois que j'ai capté ce qu'ils pensent vision Promotionner le mélange des genres, c'est leur transmission Ma mission à moi mon pote, de facto, tu prends la porte, c'est cadeau Ton art est factice et c'est pas drôle, depuis l'âge de pierre, on joue pas de rôle J'ai les crocs, magnons-nous de fuck le fiasco D'après l'histoire, t'as ma trace dans ta gorge c'est une glotte de Lascaux Je cherche à faire the score, j'aime les Fugees Les lignes défilent sur ta tête, ici, on aime les sous-titres J'suis de la race des tigres, t'es de celles des sous-fifres J'vais te labourer comme si j'étais sous tise J'te crève l'il avec un livre, oui, lis le Borgne, j'aime les Goonies Tu vas manger la pépite, je sais que t'aimes les cookies J'te cook easy, brise ton cou, j't'ai choisi car j'aime les rookies Tous disent que j'ai pris un p'tit pari c'est vrai, j'aime les sous mises T'es dead et faible, tu peux commencer à chercher de l'aide Je suis venu te fumer, j'ai même pas commander de l'herbe Une dégaine de bac L, ça, c'est une vraie merde On dirait que t'as un Bescherelle entre les fesses ça, c'est une raie verbe En vrai, tu nages dans le miel, j'suis une étoile, pas le temps de check Les guns fonctionnent, l'air est froid comme par temps de gel Ta démarche chancelle Shoot l'intello dans la gorge, pas la faute météore, y a un énarque en ciel Je peux faire le savant publiquement, c'est tout confort Tu seras le mec le plus intelligent uniquement si tout le monde sort J'ai vie de king comme viking de cité d'Asgard Ta vie victime dans ta cité, le shit, c'est ce que ton ass garde Je suis le best de ce jeu Tes potes t'ont menti quand ils t'ont dit Teste-le Phases, flow, bars, joke je fais ce que je veux, mes lines pètent le feu T'as pas ce qu'il faut pour être au niveau du Gangseuleu Maadou, viens, on s'décale et on s'parle entre couilles Tu parles souvent de ta bite mais, la, c'est gravement fourbe C'est surement un complexe, t'as plus d'erection depuis qu'tes parents t'touchent Et, meme si, la, moi, j'm'en fous de la grosseur ou du poids de ta teub J'tenais a dire qu'a part Cheef et Lamanif t'as pas d'membre lourd Puis tu fais tout payer, les nouveaux du LC, les gerants de terrains, meme tes gars, j'm'en doute C'est lachement fourbe et gravement flou Tu ferais payer tes parents pour qu'ils t'passent de l'argent, dude Tu ferais payer des garces en soum, des cadrans d'Mouv' Pour de la pub' ou faire ta campagne, sans doute Tu vendrais ton cul pour du ble cash sans doute Faire des crasses en douce sur tes pactes en cours J'ai juste un truc a dire les gars, profitez des battles avant que le ROAR win et parte en bourse Ici, y a que des snipers, et le cameraman t'a dans l'cadran, cours J'ai des armes en coups par cou J'vise la jugulaire, coupure, sang sur la cam, comme s'il y avait des blames en cours T'es pas une strip-teaseuse, mais j'te mets des balles dans l'boule J'suis pas mathematicien mais tireur, j'ai quarante douze Toi gangster ? Ton flingue sans khey, pas d'akimo comme s'il avait pas d'grand cous' Toi Gangseleu ? J'te defonce, t'es seul, bang, tu les cales en douille Pourtant, dans les battles, t'as engendré deces sur des c, comme un Crip Mais les vrais parlent entre Bloods Donc c'est pas l'ivresse mais l'vertige quand il voit les bar' entre nous Puis tu t'es fait peter avec ta cons' au RC 11, j'regrettais ca dans l'12 Au comico, à force de chercher tes mots, on aurait dit qu'y avait un Scrabble en cours J'ai rien fait, j'ai rien fait, t'as surement invite Esope, Wolff, pour faire croire sans l'loup Tu disais J'ai rien fait, j'ai rien fait, le flic te demandait Pourquoi tu m'parles en Groot ? Moi, les poulets, a l'inverse d'un vegan, j'en fourre J'pourrais venir penard, pantoufles, petard en bouche Parce que j'viens avec des bars en crew, j'sais pas, j'm'en fous Là, t'es comme chaque acteur qui quitte un tournage mort dans le scénar en cours Kazuhira, j'vais te casser la bouche, là, t'oublieras Ce nom tout bizarre quand tu t'assoupiras Ce battle n'aboutira à rien, Maadou te pliera, t'as l'air d'un clafoutis gras J'te la mets en douceur, Kazuhira, ta mère en scooter, La Zoubida P'tite bouille, minois Une couille, mi noix Mais, dis-moi, t'as une ligue de battle à Nîmes, c'est un p'tit ROAR J'tire dessus de façon frénétique, c'est un tiroir Tu le fais mal, façon contrefaçon chinois Mime-moi, même si t'avais mis moi avec mille moi pendant mille mois avec tes fiottes Nîmois, vous serez ni mes potes ni moi Dis-toi, tu prends une sale dose, p'tit noir dans ta gueule, c'est l'heure de ta pause Je fais craquer tes os comme si j'étais l'arthrose Je comprends pas bien que ce lâche ose T'es pas de la famille à Dam's, je vais te couper la main comme si c'était La Chose Bigre, bon sang, y a odeur de bite, t'es pas clean, on le sent J'te tire par les cheveux sur le lino, cent coups, pas de blabla, j'suis pas innocent J'te tranche le cou au-dessus de ton verre, je lie ton lean au sang J'mets en sang ce fayot Toi, quand tu mouilles le maillot, bah tu te mouilles de mayo Va me chercher un pack, man, j'te punch c'est Manny Pacquiao J'ai les skills de Sangoku, toi, tu manies pas Kaio T'es venu faire la guerre, tu repars en paix Chargé h vingt-quatre sans veille Balle dans la tête avant que l'arme s'enraille Tu montes au ciel sans ami, t'es une âme sans rhey Je t'abats, p'tite merde Un autre tome de ton texte, c'est un cache-misère Sur quatre seize, on n'entend que des balivernes C'était le printemps de ta vie, déjà dans ton crâne, la balle hiverne Masque-moi ce toupet de bâtard bourré C'est rien, j'vais te 3agar, pour toi, pas de playa, poupée J'te shoot en R1, la balle va tourner Au milieu de tes reins, j'suis Yaya Touré Les autres ligues, j'ai le AK des Balkans, ils sont de Bulgarie J'leur donne ni repris ni crédit, j'ai plus d'amis C'est bad, ça me tue, ils vont avaler, z'ont perdu le pari Je répète le Aka ouvre le bal quand ils ont bu le Gary Tu passes ton temps sur YouTube a faire des lives où tu pars exprimer tes vux La verite, ca serait plus instructif si tu streamais des jeux Me sous-estime pas, c'est pas parce que j'hesite que j'fais rimer des euh J'vais devoir te faire fermer ta bouche, te coller les levres comme si j'excisait des teuchs Tu t'prends pour un philosophe comme Épictete et Freud Mais tu t'appelles Maadou, tu fais du battle rap et tu fais des flips de mes deux Faire payer les nouveaux du LC pour les repayer au ROAR ca, c'est un deal de véreux Prendre de l'argent pour en rendre le triple t'es quoi ? Un juif genereux ? Ta femme, elle se maquille, elle est cheum, sans lifting, elle est fripée, degueu' Quand elle a de la tristesse, elle pleure du Rimmel des yeux Mais, quand elle a un ventre petit et tres creux, tu fais la cuisine et c'est l'zbeul Prepare gaziniere et skeud, prends la marmite et mets l'feu Tu mets des radis et des ufs, des frites et des bleus Des vaches bovines et des bufs, mijote leurs cuisses genereuses Oublie pas les poitrines et des queues, pour s'empiffrer, c'est mieux Rajoute le chibre des émeus, du cidre et des meules Mets tout ca dans de l'huile tres neigeuse, quand tu le fais frire, c'est cremeux Assaisonne-le d'un fond de thym pour que ca devienne le clip des make-up J'te mets a l'amende comme si t'etais chleuh Tu passes ton temps a boire des bieres et draguer des pauvres, à tiser les gueuses Dans mes seize, j'y mets mes tripes, comme un champi' veneneux Decouper des morceaux d'merde avec courage, c'est le seul moyen de faire tripper les lepreux J'vis pas dans c'monde, j'cohabite avec antithèses et zeugmes Toi, tu peux faire de beaux reves, loin de mes entites, serieux Moi, ma pilule rouge a matrixe mes feutres toi, t'as pilule bleue sert a exciter les vieux J'leve la main, pour le mjolnir, attirer la foudre et decimer les nerds J'fais plus de raids qu'un viking qui part au large exprimer ses meurtres J'ai la confession des nordiques, j'aime estimer les feux T'as pas les croyances d'un Ragnar rock, t'es pas l'heritier des Dieux Sur tes stories, tu penses avoir raison mais t'as Thor Prends ta dose de méthadone pour eriger des gueux Te battle, c'est pas mon apogee, j'aborde le Bifröst, alors J'pars accomplir ma destinee, serieux Je suis le Dieu du tonnerre, j't'accorde Ma foudre et ma force, et ce meme si t'es Zeus Si j't'offre c'te guerre, c'est pour que t'étoffes et récoltes des éloges J'veux qu'tu t'portes fier, je ferai de toi un homme J'suis àl, chie le mystère, y a de l'or qui sort quand je frotte le fer Respecte-moi, en un battle, je fais plus pour toi que ton propre père Je te donne d'autres repères Dans la vie, quand tu gagnes, un autre perd Tu vas le répéter à ta mère, je suis ton autre père Tu vas te dépêcher à la messe, il te faut un Notre Père Qu'est-ce tu comptes me faire ? Quand j'te vois, j'ai le stress T'as un corps de go, des cheveux de go Fait que, quand t'es de dos, les gens regardent tes fesses J'te charge, t'es dead, et tous mes gars acquiescent T'es fou, t'es de la jaquette, tu dois bouffer de la braguette Je vais pas louper la tapette J'te rafale jusqu'à ce que tu sois habillé de plomb Full Metal Jacket J'ai sorti le parabellum Personne m'arrête devant ta femme, j'suis imparable bel homme Vise-moi, dis pas Je déconne, la prune dans le visage détonne Le flash t'envoie sur la Lune, je t'allume comme le village d'Akon Non, négro, je tombe pas Ces p'tits-là, ils font trop les chauds, bombent pas T'as des gros défauts, on le voit, retourne étudier l'Empire austro-hongrois Je brise le dos de ta bitch comme seuls les ostéo' ont l'droit J'vais te marcher dessus comme si t'étais la scène Ta bitch pue du bassin comme si c'était la Seine Action, réaction, retour, ça, c'est le larsen J'suis pas dans le son, ça, c'est la flemme Si t'es pas bon, c'est la dernière fois que tu vois le Lyon ça, c'est Bassem J'te gère facilement comme si t'étais le trac Le chargeur est plein, t'en prends six dans l'bide comme si c'était le pack J'te frappe dessus comme si t'étais le sac Ça fait round sur ton crâne comme si t'étais le pape Je suis le best de ce jeu Tes potes t'ont menti quand ils t'ont dit Teste-le Phases, flow, bars, joke je fais ce que je veux, mes lines pètent le feu T'as pas ce qu'il faut pour être au niveau du Gangseuleu</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Je suis sous les ordres de personne En dehors de ceux du Tout-Puissant C'est pour ça que peu de gens me résonnent Et que peu de choses me donnent des frissons Je n'ai pas chauffé le banc de l'école Mais plutôt mes mains sous mon blouson Ce n'est pas l'acné qui me désole Mais dormir dehors me donne des boutons Ça fait un bout de temps qu'j'ai les mêmes baskets Et le bonhomme a bien trop d'honneur, simule le bonheur Je n'crie pas Mayday Et des gens biens sont venus m'aider souvent Oui, souvent Oui, souvent Oui, souvent Oui You might also like Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Je ne suis pas né en Occident Je suis arrivé par accident Maman voulait que son fils ait un avenir Obligé de quitter le navire Papa, lui, est resté impuissant Difficile de retenir son fiston Lui proposant le rêve africain Mais ici tous mes rêves ont pris fin Et j'enchaîne les petits boulots Eux qui me voyaient derrière un bureau J'ai la tête sous l'eau, me transforme en bourreau Sauvé par le dîn, mais noyé dans l'son,meskine Mais j'suis là Mais j'suis là Mais j'suis là Mais... Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? J'ai grandi dans l'horreur des expulsions J'ai dû m'adapter sous la pression Il a fallu qu'mon père quitte la maison Et que le grand-frère parte en prison La daronne disait Le prends pas pour exemple Tu n'es pas mauvais garçon Et t'es la fierté Gandhi, fais-nous rêver Donc il a fallu sortir les classeurs J'me suis concentré, je n'ai pas pu le faire Le majeur pointé vers le système Pourvu qu'mes sons te sortent de la misère, j'espère Donc j'essaie Donc j'essaie Donc j'essaie Donc... Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom2</t>
+          <t>Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Je suis sous les ordres de personne En dehors de ceux du Tout-Puissant C'est pour ça que peu de gens me résonnent Et que peu de choses me donnent des frissons Je n'ai pas chauffé le banc de l'école Mais plutôt mes mains sous mon blouson Ce n'est pas l'acné qui me désole Mais dormir dehors me donne des boutons Ça fait un bout de temps qu'j'ai les mêmes baskets Et le bonhomme a bien trop d'honneur, simule le bonheur Je n'crie pas Mayday Et des gens biens sont venus m'aider souvent Oui, souvent Oui, souvent Oui, souvent Oui Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Je ne suis pas né en Occident Je suis arrivé par accident Maman voulait que son fils ait un avenir Obligé de quitter le navire Papa, lui, est resté impuissant Difficile de retenir son fiston Lui proposant le rêve africain Mais ici tous mes rêves ont pris fin Et j'enchaîne les petits boulots Eux qui me voyaient derrière un bureau J'ai la tête sous l'eau, me transforme en bourreau Sauvé par le dîn, mais noyé dans l'son,meskine Mais j'suis là Mais j'suis là Mais j'suis là Mais... Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? J'ai grandi dans l'horreur des expulsions J'ai dû m'adapter sous la pression Il a fallu qu'mon père quitte la maison Et que le grand-frère parte en prison La daronne disait Le prends pas pour exemple Tu n'es pas mauvais garçon Et t'es la fierté Gandhi, fais-nous rêver Donc il a fallu sortir les classeurs J'me suis concentré, je n'ai pas pu le faire Le majeur pointé vers le système Pourvu qu'mes sons te sortent de la misère, j'espère Donc j'essaie Donc j'essaie Donc j'essaie Donc... Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom2</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? You might also like Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
+          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dounia hania De leasing en leasing, un virage, un looping La mort fait son listing, tarrache de ton living Scène triste anodine, un linceul sans le Din Burning Khaleddine tu msuis pas ? Fais reset De looping en looping, on sécroule sous nos peines Donc on arme le flingue pour changer dmise en scène Suis la Seine, assassine, où ça saigne cest dingue Létincelle celle-ci, un ient-cli, une seringue Jvous épargne les suicides sous acides Les peines lourdes aux Assises, la C.C, le V.I.H si si On rêve dêtre clean, court après lestime Argent sale, sexe, crime linstinct de mort sexprime Jsuis venu faire mon shopping jsuis ni lAs, ni le King Ni Apache, ni le Viking, pour le cash cest fucking Police comme Sting dans les coulisses stress File un bolide, feu rouge, ça sbarre en car-jacking Jcontinue mon meeting, sous le signe du Yin Dounia fait son lifting, cramée comme un tunning Seul en scène sur le ring, jsuis Rocky et John Rambo Les couche à chaque rumble, que la concurrence remballe Jsuis paré au combat, jviens den bas Vlà le come-back donc fermez vos grandes gueules Bref, pé-fra pas lingé, ton rap est flingué, nveut rien dire Blindé de lacunes comme un CM2 Ça parle sur mon dos, cement-dou, c'est de l'indé Bande de petits merdeux, handek ça fait bang yeah ! Jtourne en rond comme un single Oups et je dégueule un mélange de MC et de Pringles Ma gueule, ma gueule ! Ta gueule, tas un gun ? Vas-y tire ! Jte donne une couille si tas perdu lune delles Bref, Dounia cette salope elle venu me voir dans mon salon Ma dit H ! Moi jai le bras long, tinquiètes tiras pas au ballon Vends du pilon, reste en bas, longe les murs, tu prendras du galon Comme chez nous jamais on sdéballonne, donc on tombe dans lpiège, on galope Sur le terrain y a trop de salopes, ça alors y en a dans le Hip Hop Qui commencent en caleçon et qui finissent avec une culotte yeah ! Mon login 7.5.0.X exit Jdéboule super chic, ces relous jexcise Les rageux sexcitent, tas reconnu le style Moins 1 sur 76, D.S.L jexcelle Jacte et check ça, cest hassé, je lsais Tasspés ? Jbaise pas ! Beyoncé ? Khanza Entouré dcal-cha, loin dla vie dpacha Hechem ! Khabat, tas même pas fais la 'Icha Des fois jveux cher-lâ, jme demande Quest-ce tu fais là ? Tu seras pas Rockefeller dans ce pe-ra pas très hallal ! Anti-chalab, me propose pas ton chalal Petite chérie sur mes épaules, trop de halam, craint les flammes ! Microphone check, wesh wesh, cest toujours Paname À tous ceux qui se pavanent, 2-3 pavés fils de yeah ! Big up à Saddam, on vient passer le Salam et le Shalom Coup dsavate et je tétrangle avec une cravate Ptit coup dCB, jrêve plus depuis le CP Rappe même plus pour cer-per, pourquoi alors ? Jsais pas Si tu sais, chapeau ! Peut-être pour faire les 100 pas Et mbarrer comme un sans-pap', en plus ce game jle sens pas Jsuis paradoxal comme Bettencourt qui rêve dun sche-Por Ou Jeannot Sarkozy qui traîne au tier-quar sous un che-por Pire, comme ce MC qui smet des comm' sur Booska Oh ! Ton front au sol ? Oh ! Accroché sur un Raptor Mais putain mais putain, cest pas tout Les petites nont plus ltemps, ça tapine à mi-temps à mi-temps ! À mi-temps jen ai vu ce matin le visage tuméfié Dounia faut sen méfier sen méfier Sen méfier bref, lyoum al-Qiyamah mattend On nvit pas plus de 100 ans, Dounia la meuf de Satan Moi jchangerai pas le monde avec mon statut dintermittent Je marche avec des mutants qui smaintiennent sans métier Jveux voir Besson à mes pieds, les cistes-ra aiment nous épier Ma religion, la défier, en sont fiers, perdront pied Cest dans leurs cauchemars que le haq ex justice fait son effet Tapes, c'est sans effet, chaque jour un décès Quant aux femmes elles sont sacrées, ton corps nest pas quun escalier Qui fait monter au 7ème, on scomprend ? ... À moitié Trop machô jprendrai une 4ème nan jrigole... À moitié Sous ma douche un émetteur, putain y a plus dpudeur Moi, loin dêtre un héros, jviens des zones sous l'gyro Tplante pour 500 , trop dshit plus dneurones Loin dêtre pieux, pas yép, jaime pas puer des ieds-p Jaime le confort cest pas ienb, jme comporte comme un païen Paris la nuit ça caille hein ? Quand tas les moyens, tu pilonnes Après ça, tavais quà pas prendre un Cayenne ! Re-fré le monde est cynique et le cool-al nous désinhibe Merde le Diable embellit Zin, cet enculé siège au Sénat Esprit vénal, affaire pénale, petite cavale, pris en tenaille Bé-tom sans maille car Dounia nous baise au final, instinct de fauve You might also like Dounia hania Factor, la sauce 7.5 Gotham City H Magnum Loudschool, Criminel au bon son Sexion d'Assaut 9ème zone Paroles rédigées et expliquées par la communauté RapGenius France5</t>
+          <t>Dounia hania De leasing en leasing, un virage, un looping La mort fait son listing, tarrache de ton living Scène triste anodine, un linceul sans le Din Burning Khaleddine tu msuis pas ? Fais reset De looping en looping, on sécroule sous nos peines Donc on arme le flingue pour changer dmise en scène Suis la Seine, assassine, où ça saigne cest dingue Létincelle celle-ci, un ient-cli, une seringue Jvous épargne les suicides sous acides Les peines lourdes aux Assises, la C.C, le V.I.H si si On rêve dêtre clean, court après lestime Argent sale, sexe, crime linstinct de mort sexprime Jsuis venu faire mon shopping jsuis ni lAs, ni le King Ni Apache, ni le Viking, pour le cash cest fucking Police comme Sting dans les coulisses stress File un bolide, feu rouge, ça sbarre en car-jacking Jcontinue mon meeting, sous le signe du Yin Dounia fait son lifting, cramée comme un tunning Seul en scène sur le ring, jsuis Rocky et John Rambo Les couche à chaque rumble, que la concurrence remballe Jsuis paré au combat, jviens den bas Vlà le come-back donc fermez vos grandes gueules Bref, pé-fra pas lingé, ton rap est flingué, nveut rien dire Blindé de lacunes comme un CM2 Ça parle sur mon dos, cement-dou, c'est de l'indé Bande de petits merdeux, handek ça fait bang yeah ! Jtourne en rond comme un single Oups et je dégueule un mélange de MC et de Pringles Ma gueule, ma gueule ! Ta gueule, tas un gun ? Vas-y tire ! Jte donne une couille si tas perdu lune delles Bref, Dounia cette salope elle venu me voir dans mon salon Ma dit H ! Moi jai le bras long, tinquiètes tiras pas au ballon Vends du pilon, reste en bas, longe les murs, tu prendras du galon Comme chez nous jamais on sdéballonne, donc on tombe dans lpiège, on galope Sur le terrain y a trop de salopes, ça alors y en a dans le Hip Hop Qui commencent en caleçon et qui finissent avec une culotte yeah ! Mon login 7.5.0.X exit Jdéboule super chic, ces relous jexcise Les rageux sexcitent, tas reconnu le style Moins 1 sur 76, D.S.L jexcelle Jacte et check ça, cest hassé, je lsais Tasspés ? Jbaise pas ! Beyoncé ? Khanza Entouré dcal-cha, loin dla vie dpacha Hechem ! Khabat, tas même pas fais la 'Icha Des fois jveux cher-lâ, jme demande Quest-ce tu fais là ? Tu seras pas Rockefeller dans ce pe-ra pas très hallal ! Anti-chalab, me propose pas ton chalal Petite chérie sur mes épaules, trop de halam, craint les flammes ! Microphone check, wesh wesh, cest toujours Paname À tous ceux qui se pavanent, 2-3 pavés fils de yeah ! Big up à Saddam, on vient passer le Salam et le Shalom Coup dsavate et je tétrangle avec une cravate Ptit coup dCB, jrêve plus depuis le CP Rappe même plus pour cer-per, pourquoi alors ? Jsais pas Si tu sais, chapeau ! Peut-être pour faire les 100 pas Et mbarrer comme un sans-pap', en plus ce game jle sens pas Jsuis paradoxal comme Bettencourt qui rêve dun sche-Por Ou Jeannot Sarkozy qui traîne au tier-quar sous un che-por Pire, comme ce MC qui smet des comm' sur Booska Oh ! Ton front au sol ? Oh ! Accroché sur un Raptor Mais putain mais putain, cest pas tout Les petites nont plus ltemps, ça tapine à mi-temps à mi-temps ! À mi-temps jen ai vu ce matin le visage tuméfié Dounia faut sen méfier sen méfier Sen méfier bref, lyoum al-Qiyamah mattend On nvit pas plus de 100 ans, Dounia la meuf de Satan Moi jchangerai pas le monde avec mon statut dintermittent Je marche avec des mutants qui smaintiennent sans métier Jveux voir Besson à mes pieds, les cistes-ra aiment nous épier Ma religion, la défier, en sont fiers, perdront pied Cest dans leurs cauchemars que le haq ex justice fait son effet Tapes, c'est sans effet, chaque jour un décès Quant aux femmes elles sont sacrées, ton corps nest pas quun escalier Qui fait monter au 7ème, on scomprend ? ... À moitié Trop machô jprendrai une 4ème nan jrigole... À moitié Sous ma douche un émetteur, putain y a plus dpudeur Moi, loin dêtre un héros, jviens des zones sous l'gyro Tplante pour 500 , trop dshit plus dneurones Loin dêtre pieux, pas yép, jaime pas puer des ieds-p Jaime le confort cest pas ienb, jme comporte comme un païen Paris la nuit ça caille hein ? Quand tas les moyens, tu pilonnes Après ça, tavais quà pas prendre un Cayenne ! Re-fré le monde est cynique et le cool-al nous désinhibe Merde le Diable embellit Zin, cet enculé siège au Sénat Esprit vénal, affaire pénale, petite cavale, pris en tenaille Bé-tom sans maille car Dounia nous baise au final, instinct de fauve Dounia hania Factor, la sauce 7.5 Gotham City H Magnum Loudschool, Criminel au bon son Sexion d'Assaut 9ème zone Paroles rédigées et expliquées par la communauté RapGenius France5</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0101 Jwles - Ticket Gagnant Freestyle - 0101 San-Nom - Les plus beaux - 0201 BEN plg - Freestyle Bateau dans le ciel - 0301 Kalash Criminel - Une bonne santé et grave des lards - 0401 Dany Dan Kyo Itachi - Mon territoire - 0401 thaHomey - Grove - 0401 T.I.S - Action Man - 0501 ADVM - .olala. - 0501 Bavaz - Jeunes Beaux - 0501 Bob Marlich - Apaise ton cur - 0501 D. Ace - Nostalgique - 0501 Dexter HMC - Vendeur de stup IGTV 8 - 0501 Kaza - CONNEXION - 0501 Kerchak - 2006 Opps qui court - 0501 Larry - BATMAN - 0501 Liim's - Gobelet ft. Ibrak - 0501 Roméo Elvis - Tadumal ft. dreamcastmoe - 0501 Sheu - Pascal OP - 0501 V2 Almz - 10G - 0501 VVES - Fin de vie - 1001 2C Tali - Bank Acc - 1001 8ruki - OK LETs go!! - 1001 Kepler - T'es fou ou quoi ? ft. Frsh laDouille - 1001 Saïf - Instanonymat 5 - 1001 Sokuu - MORTELLE - 1001 YL - Larlar 10 Pardon - 1001 Yvnnis - LE PIÈGE - 1101 Benjamin Epps - RESTE DANS TA MERDE - 1101 BEN plg - Colorier ds HLM ft .Georgio - 1101 DosPunto - POISON ft. SCH - 1101 Ry's - Téléphérique - 1101 Spider ZED - En légende - 1101 Uzibinski - Hoodtsar - 1101 Yassine Stein - taj mahal - 1101 Zamdane - Mélancolie criminelle ft. Sofiane Pamart - 1101 Zkr - Freestyle 5min 13 - 1201 ADÉS THE PLANET - BI - 1201 Benab - Motaz Azaiza - 1201 Cheval Blanc - JERSEY NOIRE - 1201 Demi Portion - Gangstarr ft. Souffrance - 1201 Féfé - Baladeur ft. Akhenaton - 1201 Gama Boonta - AFRICAN HUULIGAN - 1201 Kima - BBL - 1201 KLM - ADN - 1201 Kofs - XADV - 1201 KPoint - Solide - 1201 La Crapule - Sa passe en i ft. Zitoune 1201 Lamatrix - MODE RACE - 1201 Meryl - Ton ami ft. Josman - 1201 MC Solaar - Pierre-feuille - 1201 Misa - Facettes - 1201 Obia le Chef - Oseille des françs-maçons ft. Rowjay - 1201 Skefre - TRAPULEUX 2 - 1201 Slimka - Mystico - 1201 Uzi - CITÉS DE FRANCE - 1201 Zola Koba LaD - Temps en temps - 1501 Teklam - Roadtrip - 1601 S-Tee - THERAPY - 1701 404Billy - PINOCCHIO EPEMBIA - 1701 Amine D1 - Dans le vide ft. Many Santana - 1701 Jaymee - 3K - 1701 Le Juiice - Gospel - 1701 Papi Teddy Bear Pense - Qishui - 1701 sean - FEUILLE SHIT CLOPE - 1701 Yovo DIOGENES - Clara M. - 1801 Badrito - Nether - 1801 Dau - MOSHPIT - 1801 Jäde - Tranquille - 1801 Lesram - Question 1801 Nyda - C'est pas comme ça ! ft. Cinco 1901 Andos - Ensemble - 1901 Doria - Déter ft. Soolking - 1901 Emkal - Pépita - 1901 Espiiem - ROI DU SILENCE 1901 Fresh - PROBLEM - 1901 Fresh laDouille - Ganté - 1901 Gambino La MG - 91 - 1901 Gips - Prototype - 1901 Hayce Lemsi - Quinte Flush 1901 KR Malsain - Cómo te llamas - 1901 Lala ce - Jalouse - 1901 Lazzio - BIRKIN - 1901 Le Juiice - Gospel - 1901 Loud - Prime ft. EDGE - 1901 Mac Tyer - Dope Boyz - 1901 Naza - Lamborghini 1901 N'seven7 - Racaille - 1901 Reda - En interne ft. Sadek - 1901 Roshi Shaz - Black Pearl - 1901 Ruff - AIGRI DOUX - 1901 CO - DE L'AUTRE COTÉ ft. AAMO Moe DAmour - 1901 Sokra - GTA - 1901 S.Pri Noir - Kawasaki ft. Laylow - 1901 TH - OVNI - 1901 Zaky - ELEMENT - 2001 Saïf - Instanonymat 6 Hors-Série - 2101 Drosan - ZIN1 XAVIER - 2101 Vîrus - Mouton Cadet - 2201 Sherifflazone - AMIRI - 2301 L2B - Hors la loi ft. La Mano 1.9 - 2301 Lucio Bukowski Mani Deïz - Grande Vie - 2301 Pato - LFP 3 Brigade Fantôme ft. Saïf - 2401 Batbat - Dopé - 2401 Celestino, Damlif Toboë - g perdu - 2401 Farloski - NORMAL - 2401 Good Bana - Encore - 2401 LEVELSANTANA - 0 flash - 2401 menace Santana - Adrenalean - 2401 Pato - LFP 4 Tentations - 2401 Rounhaa - LOVE DEATH ROBOTS - 2401 slump. - P.I.L.M. - 2501 Cheval Blanc - CARTE POSTALE 2501 F.L.O - SPACE CAKE - 2501 Hotel Paradisio - CULEBRA PEAK - 2501 J2LASTEU - Grenata - 2501 Le Règlement - Stadium ft. Kerchak 2601 2 Mètres - Hwasong 17 - 2601 Cellulaire - BELLE BRUNE - 2601 Gambino - Picoler - 2601 GIMS - LOCO ft. LOSSA - 2601 Heuss L'enfoiré - Souvenir ft. DYSTINCT Unleaded - 2601 Jeune Morty - Souljah - 2601 JKSN - Seine-Saint-Denis - 2601 KESPAR - Massai ft. L'apprenti - 2601 Keuchei - Position d'attente - 2601 Lamatrix - VDM ft. Leto - 2601 Lester - messes basses - 2601 Livaï Cosmo - la torche - 2601 Luciano Niska - Blue Porsche - 2601 Nusky - Ciment - 2601 PURP - Minimat - 2601 Roshi Shaz - CODE 9 - 2601 Sirap - Princess - 2601 Stavo - ETC - 2601 Steban - Hazi Life - 2701 Livaï Cosmo - La torche - 2801 Beeby - HIVER 2020 4 - 2801 Lp2.0 - Mentale 2 Batard 4 - 2901 Yovo DIOGENES - CODE BRZ - 3101 Folie's - Nymphomaniac - 3101 GEMEN - GoneSouth 1 - BIENVENUE À LYON - 3101 Henri Bleu - 2 Corbeaux ft. M le Maudit - 3101 JYEUHAIR - ÇA VA ALLER - 3101 Ninho - 3 MAI 2025 - 3101 Rim'K - Jour de pluie - 3101 S-TEE - JEEP You might also likeFévrier - 0102 AnNie .Adaa - SATURÉ - 0102 Liim's - Shatta 0102 Triplego - Huracán - 0102 Vin's - Météores - 0102 Zamdane - Printemps - 0202 Booba - 6G - 0202 CHAM rapper - Scénario ft. Tedax Max Akhenaton - 0202 Doria - Porte Maillot - 0202 Fresh laDouille - Indigent - 0202 Genesys MOB - Dernière fois - 0202 GLK - OK - 0202 Hatik - JUNGLE - 0202 Jungeli - T'étais où ? ft. Vegendream, Alonzo Zaho - 0202 Lapostroz - GRAVVITE - 0202 Misa - ZOOM X4 - 0202 Rafal - ROMEO - 0202 Soleil Noir - La Moisson - 0202 Soolking - Tiki Taka ft. SCH - 0202 Venom Cz - ETHER - 0202 SOPA - TOUT SEUL DANS LE NEANT - 0302 La Hasba22 - Freestyle COPS - 0302 Sheng - DIS-MOI PK ?! - 0502 Luther - ROUGE GORON - 0702 GEMEN - GoneSouth 2 - UBER FUME - 0702 Nobodylikesbirdie - RX Birdie - 0702 sean - LÈVE TON DOIGT - 0702 Theodora - FNG - 0702 Werenoi - 16.02.2024 - 0702 YL - Dommage ft. Anas 0802 AM La Scampia - Comme en 2007 - 0802 BKRBABYBOY - DREAM - 0802 Elyon - Ouverture 0802 GR OMEGA - CYCLOPE 0802 J2LASTEU - King - 0802 Sto - BERLIN DriftMusic2 - 0902 34murphy - 2424 - 0902 arøne - en - 0902 Benab - Potentiel 0902 Brav - Reste au lit - 0902 Chany Z - FAM - 0902 Cheval Blanc - PAS D'ACCORD - 0902 Deadi - Courave ft. L'uZine 0902 Dofla - A RISQUE ft. Lyre - 0902 Elh Kmer - Police Tue - 0902 Fresh - FUMAR MATA ft. Gotti Maras - 0902 H.LA DROGUE - Seklenland - Pt.9 - 0902 Infinit' - 888 FREESTYLE - 0902 Kalash Criminel - VIENS QUE J'TE FRAPPE 0902 Kima - SALACE - 0902 kobzx2z - dans tes bras ft. mikeeysmind 0902 KPoint - PLT 0902 KR Malsain - Remontada - 0902 La F - Appel masqué 11 - 0902 La Mano 1.9 - GRAAH ! - 0902 La Plaie - En Méchant - 0902 Sasso - Livraisons ft. Mig - 0902 WarEnd - Froid - 1002 Furlax - .Libre. vide ft. Advm - 1302 Chanceko - ILY - 1302 Eline - Si demain je t'aime - 1302 FEDALL - SPIRIT OF - 1302 Sameer Ahmad - Vivarium - 1402 Amine D1 - Temps que je perds ft. Abou Tall - 1402 Daej Phantom - Joel Gwadada - 1402 Gemen - GoneSouth 3 - FEEL GOOD - 1402 Grems - Vie Compte - 1402 Infinit' - Mc Gregor ft. Alpha Wann Rim'K 1402 Ymer - Porte-bonheur - 1502 Elyon - Ne m'aimez pas - 1502 Heykel - Participer - 1502 KLM - À fond - 1502 RK - 38 Freestyle - 1602 Big Ben - Changement - 1602 Davodka - S au S - 1602 FXLL - OHx3 ft. Cashmire - 1602 Gen - Polaire - 1602 Jaïa Rose - Poster - 1602 Kamas Skuh - J'disparais dans l'noir ft. Lamatrix - 1602 Kofs - Désolé ft. Miami Yacine Stef Becker - 1602 Leys - Jeudi FTC - 1602 Mac Tyer - DERRIÈRE TOUT ÇA - 1602 Misa - 2 Épaules 1 Tête 1602 Mortalla - Can-Am ft. Mougli - 1602 MVSHY - Si il fallait faire ft. Arso911 - 1602 Sazamyzy - Boss Life ft. Enima - 1602 Skefre - TRAPULEUX 3 1602 Skima - MVP - 1602 Soala - Premier - 1802 NDO Runway - Rocky - 2002 nelick - POLAIRE - 2102 3arbi - La Zip La Zik ft. Diddi Trix - 2102 Gemen - GoneSouth 4 - LES YEUX QUI BRILLENT - 2102 Keuchei - Crapuleux ft. Fresh laDouille - 2102 Malo - PAS DE SEMBLANT - 2102 Sherifflazone - TRAPMONEYBIGGIE - 2102 Squall P - LYN TO SOHO - 2202 ADÉS THE PLANET - PIRATE 2202 AM la Scampia - Vatos - 2202 Buhi - What We Doing!? Qu'est-ce qu'on fait!? ft. Quavo - 2202 Enima - Noise ft. ASHE 22 - 2202 Luther - MOSSY COBBLESTONE - 2202 Malty 2BZ - Boombap - 2202 Prime - Fame 2202 PURP - BAG - 2202 Rsko - BOOM BOOM ft. IDS - 2202 Toam - Les Vitres et Les Plafonds - 2202 Vin's - Little Boy - 2302 Absolem - hors de moi ft. JeanJass - 2302 Bekar - Plus fort - 2302 Cheval Blanc - RAT RACE - 2302 Farloski - LA MÈCHE 2302 FAYV - YAMAHA ft. Kofs - 2302 Gambino - Street - 2302 GIMS - MA DOUCE ft. Baby Gang - 2302 Gros Mo - Prédatrice - 2302 H Magnum - Afro binks - 2302 Kery James - JE NE PLAISANTE PAS - 2302 Lamatrix - MAUVAIS PROFIL ft. Ninho - 2302 Légendes Industries - Boussa ft. Nayra - 2302 MC Solaar - Ils dansent - 2302 Mitch - STAYA - 2302 Sokra - Roska - 2302 Steban - Skimask - 2302 Suzuya - Mort-vivant - 2302 Tyranik - La Cause - 2402 Black Jack - Stratagème ft. Madrane - 2402 Josman - My love ft. Tayc - 2502 Mandyspie - COOL KID 2602 HoussBad - Gas ft. Take A Mic - 2602 Teklam - Ost ft. AAMO - 2702 Jeune Lion - Molly Dolly - 2702 Zamdane - Monstres - 2802 AAMO - DANS L'TRAP - 2802 Batbat - Voyou 2802 Fresh laDouille - ADN - 2802 Gemen - GoneSouth 5 - PAS UN MOT D'ANGLAIS - 2802 Jayel - Habiba - 2802 Many Santana - Paname c'est tragique - 2802 Sabuu - toxique - 2802 TVMO - Tiger Woods - 2902 Daej Phantom - Baby Boy 2902 Elso - Nerveux - 2902 Josué - Fils de 2902 JRK 19 - SUBMVRINER - 2902 Leys - Je suis - 2902 Maes - 4MOTION ft. PLK 2902 Nessbeal - Ecchymose - 2902 Shien - Obsession - 2902 Smeels - GOLDIE Mars - 0103 34murphy - gunz 0103 Andos - Mal luné 7 - 0103 AYMCE - PROBLEMS 0103 Dima - pas présentable - 0103 Hatik - LE FOND ft. Zokush - 0103 Leys - Je suis - 0103 Liim's - P.A.M.P ft. La Mano 1.9 - 0103 Lyele - ft. La Fève - 0103 OSO - L.A - 0103 Pex - ASTRONAUTE - 0103 Rafal - ONE ONE - 0103 Raplume - Bois-Colombes ft. Kerchak, Jolagreen23, Mitch, Kabbsky, Buû Ydasevic - 0103 Rim'K - Tant pis ft. TIF Sofiane Pamart 0103 Rouge Carmin - ROUGE TAGADA - 0103 Sameer Ahmad - LVBF ft. okis 0103 The Free - 3-4 sa mère - 0403 Peet - Aquemini - 0503 Drosan - ZIN2 CAGE - 0603 Falcko - Yeux rouges - 0603 Gemen - GoneSouth 6 - SCHOOL SHOOTER ft. okis - 0603 Henri Bleu - Vagues - 0603 Iss - Salvatore - 0603 Lacrim - CORLEONE II - 0603 Yassine Stein - bouskoura - 0603 Zitoune - La mentale ft. Mecra - 0603 zonmai - Boom Boom - 0703 AnNie .Adaa - GLACÉ 0703 Dadinho - Coeur Nwar - 0703 gapman - Step ft. ASHE 22 - 0703 Josas - Insuline - 0703 La Hasba22 - IMPACT ft. KLS - 0703 Nobodylikesbirdie - Ariel Helwani - 0703 Ratu - LARMÉE DES RATS - 0703 Stavo - Mallette - 0703 Venti - makila - 0803 CAPUH - J'VOULAIS DES NIKES - 0803 DA Uzi - Michael Jordan - 0803 DIL - DEATH ROW ft. Chakir - 0803 Dr. Yaro La Folie - Bizari 0803 Ekloz - 7Shit 0803 Gambino La MG - Nord-Kivu - 0803 Kaaris - Clique - 0803 KPoint - Stone ft. L2B - 0803 Kpri - L.C.E - 0803 La F - Plata ft. Jozii - 0803 MadeInParis - No cap ft. Draco Dans Ta Face - 0803 Mola - Ice Spice - 0803 Naza - J'ai mal - 0803 Nono La Grinta - 6AM 0803 Skefre - TRAPULEUX 4 ft. Oldpee 0803 Slkrack - Rentrée d'argent - 0803 Tedax Max - BBL - 0803 Vacra - Yoga ft. Josman 1003 Andos - Malsain - 1003 Sheu - BTC - 1003 Yorssy - Pop mok - 1303 Jäde - Get out ft. Zamdane - 1303 Keroué JeanJass - Okocha - 1303 Meryl - Dernière Escale - 1303 Rowjay - ROWZIN 2 ft. Jwles - 1403 Ibepds - deadline ft. BUHI Mussy - 1403 Keeqaid - Pics - 1403 Sadandsolo - KODAK - 1403 Soprano - C24 - 1503 Absolem - abso skit part 2 - 1503 Cheval Blanc - TÉLÉPHONE PIÉGÉ - 1503 Davodka - Arc en ciel - 1503 Deadi - Repeat - 1503 Djibso - Zombie - 1503 Hotel Paradisio - ALCHIMISTE ft. Ashh - 1503 Jok'Air - Cramer - 1503 La Famax - Autour de moi - 1503 LEVELSANTANA - MI AMOR ft. Bianca Costa - 1503 Saiba - JET ! - 1503 Spider ZED - Prends le bien - 1503 Strano - YTP FLOW - 1703 La Mano 1.9 - La Mano dans la mallette ft. DVGZ 1803 Kima - Survivre - 2003 Coton Blanc - Selfmade - 2003 Farloski - MODE SPORT - 2003 Jeune Observateur - G LA N - 2003 Jey Brownie - Mélodie céleste - 2003 Sherifflazone - WHITE - 2003 Theodora - Blues d'hiver - 2103 AAMO - CHARBONNER OU PRIER - 2103 BEN plg - Guerres de pissenlits - 2103 Dau - JE N'SAIS PAS - 2103 Green Montana - phileas fogg - 2103 Loud - C'est pas ce que tu penses ft. Lary Kidd Ajust - 2103 Peet - Toucher du bois - 2103 Shien - Flou - 2203 Cellulaire - VISION CLAIRE - 2203 Malty 2BZ - Détail - 2203 Nakry - Dans le Réseau - 2203 Prinzly - OBSCENE - 2203 RESELL - BIG JOUJOU - 2203 Rouge Carmin - NOUVEAU HENDRIX - 2603 Bob Marlich - Kiwi 2703 Coyote Jo Bastard - FIER - 2803 AYMCE - P!NK - 2803 Green Montana - ishtar - 2803 Gros Mo - L.A - 2803 V3RTIGO - 21 21 - 2803 Vîrus - La Cour - 2903 GRËJ - Pas mal pour un immigré - 2903 HD La Relève - Mauve - 2903 Hugo TSR - La Pluie 2903 Jwles - J'ai ça - 2903 LUMJR - BAG - 2903 Michel - Jeudi minuit - 2903 Surprise - Pas différente - 2903 Tedax Max - Dernier prêche - 2903 Vegedream - Matata ft. Kaaris Kerchak Avril - 0204 Elyon - L'autre toi - 0304 Henri Bleu - Si il caille - 0304 HIBA Lyes Kaci - plantes grasses - 0304 Zoomy - BRIGANTÉ - 0404 AnNie .Adaa - DOGMAN - 0404 Sadandsolo - SI JE PARS - 0504 Bolémvn - C'est toi ft. Wareen Saada - 0504 Linton - 2019 - 0504 Max D. Carter - Si Sexy - 0504 Momsii - YSL Polo - 0504 paulvitesse! - anyway - 0504 Rafal - ELLES M'AIMENT - 0704 Beeby - Le Cycle Eternel - 1004 Kahra - NAPOLÉON III - 1004 Realo - BORDERLINE ft. Deelee S - 1104 Enima - Go Mode - 1104 gapman - B.A.B - 1104 Guy2Bezbar - TAPIE - 1104 Jaywill - OCARINA FOREST - 1104 Kima - En Balade ft. Kalash 1104 Le Lij - 9 sur 10 ft. Jwles - 1104 Ratu - DEMAIN - 1104 Zequin - Bora Bora - 1204 Akkai - LVNFPDC - 1204 Big Ben - Besoin - 1204 Chily - Radio au tarmi - 1204 GAZY MP - Money Fast - 1204 Hooss - L'épreuve du feu - 1204 Keeqaid - Chose 1204 K.S.A - Intercite - 1204 LATATPA1.3 - DFB - 1204 LY - Eden - 1204 Misa - Go! 1204 Rouge Carmin - APPEL MANQUÉ - 1204 SOPA - J'CONNAIS PAS LE SOLEIL - 1404 Stavo - Bipolarité - 1504 Deadi - 78 - 1504 Drosan - ZIN3 TRAP2ZIN - 1504 Zitoune - Ce jeune part. 3 ft. Iyad - 1604 Myth Syzer - 19 FÉVRIER NYC - 1704 8ruki - JEFF BEZOS!! - 1704 Baby Neelou - Copernic - 1704 Batbat - Les vitesses ft. La Honda 19 - 1704 Jaymee - Bright - 1704 Jey Brownie - J'en ai pas - 1704 La F - Colère ft. Shelby 1704 SIMONY - Silex - 1704 your.nash - demain - 1704 Zed - ZEDEUDÉ 60 - 1704 Zuukou Mayzie - Sanni McCandless vers 19h19 1804 Cacahouete - Banlieue Parisienne 4 - 1804 Iss - Favori - 1804 Many Santana - Méchant - 1804 Teklam - Par où on passe - 1804 Zinée - MEZZEL - 1904 Baksooz - 10k FREESTYLE - 1904 Djibso - SMOG 1904 JaySoCold - COLDEST IN THE WORLD - 1904 Jok'air - Dans la Benz - 1904 Lacrim - 7 VIES ft. Sofiane Pamart - 1904 Légendes Industries - Mauvais Garçons ft. Tuerie - 1904 Naps - RSQ3 - 1904 Naza - Kulule - 1904 Osirus Jack - Kyrie Irving - 1904 RK - COFFIO - 1904 Saïf - Le taf du loup - 1904 Vacra - Agent Secret - 2104 Wit. - OBSESSION - 2404 Advm - .DEMAIN C'EST MIEUX. - 2404 Chanceko - Le déhanché assassin - 2404 J9ueve - SHE LIT ft. Green Montana - 2404 La F - Life - 2404 Le Juiice - Money Dance - 2404 Lord Esperanza - Différent 2404 Raous Gang - Terrain miné 12 ft. Mola - 2404 Sherifflazone - FUTURAMA - 2504 A2H - Honey - 2504 Deemax - JPARS DE LÀ - 2504 KeBlack - Boucan - 2504 Lesram - Rebellion - 2504 Niro - Polémique 2504 PURP - Actif ft. Savage Toddy - 2604 AMOON - LUDACRIS - 2604 Davodka - Libre comme l'art - 2604 GIMS - JOE PESCI ft. Inso Le Véritable - 2604 Harley - Ça va pour nous ft. MadeInParis - 2604 KLM - Parapluie - 2604 L2B - Touché Coulé - 2604 La Hasba22 - Extinction 3 - 2604 La Mano 1.9 - J'coupe tout ft. Musto 2604 Leith - FOCUS ft. Smeels - 2604 Loko Martin Gal - À la carte ft. Alkpote Deadi - 2604 Magnim - Blanc et Bleu - 2604 Mig - La ligne - 2604 Mola - Freestyle 2 mi-temps - 2604 Mosty - En tas ft. Lala ce - 2604 Prinzly - NIGHT HIFT ft. YG Pablo - 2604 Rohff - Fraude ft. Intouchable AP du 113 - 2604 SAF - JE QUITTE LA ZONE - 2604 Slim C - ADN - 2604 Stony Stone - Himalaya - 2604 Surprise - Méchant dans les films - 2604 Timal - RR Phantom - 2704 Black Jack - La Mentale ft. Evil P - 2804 Yaya D - 0.xo - 2904 JohnFckingNada - Winning - 2904 T.I.S - Dans la ville - 2904 Zeu - ALEX KID Mai - 0105 Genezio - ROYAL PALACE - 0105 LUMJR - NEW CHOPPA - 0105 Saturn Citizen - EXPORT 1 - 0105 Zokush - Lebara - 0205 Mapess - Zéro Battle - 0205 Rsko - 12 coups - 0305 63OG Skuna - ZUSHI REMIX ft. Jolagreen23, thaHomey, Sherifflazone 8ruki - 0305 Benab - Sakina - 0305 Carbonne - Imagine - 0305 Douze Déluge - MAUVAIS SANG - 0305 F430 - Comme tout le monde - 0305 Heuss L'enfoiré - Mélanine ft. Werenoi - 0305 iTo - Émotif5 - Coupé Cabriolet - 0305 La Kadrilla - Tomar ft. Osirus Jack - 0305 Laskiiz - VACARME - 0305 Rim'K - Demain - 0305 Rim'K - Trap house ft. Alpha Wann - 0305 Rsko - PCC ft. Franglish - 0305 Soolking - Otra - 0305 Soprano - Facile à danser - 0305 Take A Mic - Le film - 0305 Yuzmv - Illusion - 0305 Zed - Celle ci - 0305 zonmai - Birthday Zouh - 0705 JRK 19 - BOOYAKASHA - 0705 RK - MOUSSA PART.1 - 0705 Vilk - Soleil - 0705 Yzu - NOEUD - 0805 Deemax - SHOW - 0805 Folie's - Nosleeve - 0805 Genezio - NIA - 0805 JuL - J'ai pris le mic - 0805 Keeqaid - OffWhite 0805 K.S.A - Motion ft. thaHomey - 0805 Mandyspie - Shadow - 0905 Le Risque - Go 2 - 0905 Leto - Enlève tes pes-sa ft. Kaaris, La Mano 1.9 JKSN - 0905 Slkrack - Maman pleure pas - 0905 TIF - Nothing Personal - 0905 Voleur2Voleur - POUR CEUX ft. Mola Keuchei - 1005 Benjamin Epps - JOHN Q - 1005 Di-Meh - Ténébreux - 1005 GIMS - SPIDER ft. DYSTINCT - 1005 Huntrill Hologram Lo' - Le biff et moi - 1005 La F - Vie d'artiste - 1005 Loveni - MOODSWING - 1005 Malty 2BZ - Giltos - 1005 Mitch - C'EST PAS MES POTES ft. Mougli - 1005 Naza - Quillé ft. Ninho - 1005 Rafal - LA FEMME EN ROUGE - 1005 Soso Maness - DLB13014 - 1005 Vacra - Confidences ft. PLK - 1005 Zakaria Springer - Caméléon - 1105 MVSHY - Feel lucky - 1205 Kerchak - HOODTRAP 1 CAM 1305 Ben.C - CAH BENNY - 1305 TK - Hakim ft. YL 1405 Seth Gueko - Barrio ft. Kanoé Kyzi - 1505 Batbat - Chromer ft. Saamou - 1505 Genezio - DOULEURS - 1505 Good Bana - Habitué - 1505 Izar - Kasparov - 1505 Pbl - À la Hauteur ft. Jewel Usain - 1505 Rowjay - ORIGINAL FINESSEUR - 1605 Myth Syzer - PLAZA - 1605 DMS - BELLES CHOSES - 1605 RK - TACHE DE SANG - 1605 SCH - Cannelloni - 1605 Sheng - KIT-KAT - 1605 VEN1 - Bougie - 1705 arone - garder le sourire - 1705 Elias B4C - Attireur De Foudre - 1705 Gaulois - Sens interdit ft. Ninho - 1705 Gemen - MAISON DE CAMPAGNE - 1705 Gemen - SMS - 1705 HMZ - Pas fiable - 1705 Hornet La Frappe - Malaga ft. Dwen La Plaie - 1705 JKSN - Drogba - 1705 Kaneki - Mentalité - 1705 Lacrim - Colisée ft. SDM - 1705 Landy - G8 - 1705 Maydo - Noubti - 1705 Moha MMZ - Agoraphobe - 1705 Teklam - Questionnement - 1705 thaHomey - HORS JEU - 1705 Zequin - FLEX - 1705 Spider ZED - Cinq du mat - 2005 Advm - .QLQCHOSE. - 2005 Bluume Triple Nine - CUSTOMS DETECTOR DOG - 2005 Ibé - Regrets ft. Koba LaD Sno - 2005 Jwles - ahhhh 2005 TK - à l'écart - 2105 8ruki - Methadone - 2105 Toam - LINER 2205 Chily - Calculer x2 - 2205 Dexter HMC - Freestyle GramTélé 1 - 2205 Genezio - GÉ SAIT PAS - 2205 JEUNESAINT - Amy Berry ft. Pacho Diño - 2205 Norsacce - No Diddy - 2205 Papi Teddy Bear Pense - BOOBA EN 99 - 2305 Famille Nombreuse Slime Castro- Intéressant - 2305 Folie's - BAD! - 2305 Maes - SURVIE ft. Ninho - 2305 S-Pion - SOUROUGUAP - 2305 TH - ABKA 2305 TiBab - Hot ft. gapman 2305 Wood - GUTEN TAG - 2405 6rano - la BM La Bohème - Street Parody - 2405 Anas - Napoli - 2405 GS - À quoi ça sert - 2405 H Magnum - Mauvais djo 2405 Houari - Dis khamsa ft. Morad - 2405 Josas - Vanille - 2405 Kerchak - HOODTRAP 2 TOUCHÉ - 2405 Kore - Lalla ft. Hamza 2405 KR Malsain - Akkari City ft. W - 2405 La Famax - Jenny - 2405 Le Juiice - PAPILLON 2405 LEVELSANTANA - DAEMON5 - 2405 Nusky - Soké - 2405 OSO - Heart Beat - 2405 Princesse - Fifty Fifty - 2405 Raplume - 2 Cartouches ft. 410 - 2405 Soalo - Bubble up - 2405 Sokra - Ghetto Youth - 2405 Soprano - Freedom - 2405 Warren Saada - Déjà - 2605 MVSHY - STEP 2705 Doulkha - Météo - 2705 La Mano 1.9 - 51 Block - 2805 La Fouine - Chalgoumi - 2805 Toam - VIE PRECIEUSE - 2905 Genezio - DANS MON MONDE - 2905 Hippocampe Fou - Demi-Vieux - 2905 Jeune Morty - HORSE BLACK YOUNG NIGGA - 2905 Izar - 10 000 PORTES - 2905 Jaymee - TOUT LE MONDE AUTOUR - 2905 JRK 19 - BALADE - 2905 La Kadrilla - Machine A Production - 2905 Selug - X100 - SOS FREESTYLE - 3005 BRKBABYBOY - 529 - 3005 Gris Anthracite - Après l'hiver II ft. Ekloz - 3005 Saamou - Terrain d'herbe 1 - 3005 wasting shit - les fourmis - 3105 33mello - les livres que j'ai lus ft. Lester - 3105 abel31 - Impala - 3105 Diddi Trix - BAH OUAIS FREESTYLE - 3105 DIL - POUR EUX - 3105 HVmanyy - Ephémère - 3105 iTo - La fabuleuse histoire d'un rêve décadent - 3105 Kerchak - Sentiments - 3105 KLM - Sang - 3105 La Plaie - Je m'isole - 3105 Légendes Industries - Tribal King ft. Di-Meh - 3105 Leto - Tout gâché - 3105 Meryl - Mauvaise Élève - 3105 Poupy - Goyard - 3105 Zeu - WAGNER Juin - 0306 NDO Runway - Parler Pour Rien Dire - 0506 Alonzo - HASTA LA VISTA - 0506 Genezio - CHANGER LES IDÉES - 0506 Malo - PORSCHE 0506 Many Santana - Petit frère - 0506 Osmoz - Bonnes manières - 0506 Wallace Cleaver - plus rien n'est grave - 0606 A2H - Message pour son ex - 0606 Heuss L'enfoiré - La Raclure - 0606 MAPESS - Plans - 0606 Myth Syzer - SHAGGY - 0606 paulvitesse! - spaceship - 0606 SCH - Booska Prequel - 0606 Slkrack - Cristaline - 0606 TH - ISUZU ft. Alpha Wann - 0606 TripleGo - Ocean - 0606 winnterzuko - NORTH2 0706 Andos - Mannschaft ft. Mous-K - 0706 Caballero - Rose orangé - 0706 Davodka - Avec des mots ft. Sinik 0706 Elh Kmer - OKOCHA - 0706 ISK - Vérité 7 - 0706 Koba LaD - Freestyle BMF 1 - 0706 Krody - Frozen Jacquemus ft. Leto Kepler - 0706 Malko - Aaliyah - 0706 Malty 2BZ - Scammers ft. KLM - 0706 Mecra - Cendrillon - 0706 Niaks - Cagoulé ft. Maes - 0706 Nosnow - Dolo Introduction - 0706 Rohff - Fitna - 0706 Take A Mic - DRIVE 0806 Guizmo - Attention quand tu causes ! - 0906 Jeune Morty - MOTO - 0906 Neskoo - UHQ - 1006 808NOCHE - Gala - 1006 Strano - TRAMADOL - 1106 DOC OVG - Vendre - 1106 Mougli - Freestyle Hors-série 4 - 1206 Genezio - OFÉLÉ PÉLÉLÉ - 1206 HD La Relève - C'est un délire - 1206 Kebe Hyma - Wazz 3 1206 KR Malsain - Gueliz 1206 LUMJR - WALK - 1206 Selug - CERCLE FERMÉ - SOS FREESTYLE - 1206 Sherifflazone - JUGGIN 1206 Youssef Swatt's - Ancienne Belgique 1206 Zokush - Dès l'matin - 1306 Chanje - MERRICK - 1306 La Mano 1.9 - Canon ft. Niska 1306 Tovaritch - Fedor - 1306 TVMO - Abel Cain - 1306 Wallace Cleaver - le bus 1406 2R - 2ème Dose - 1406 404Billy - NAZI IS REAL! 1406 Bruni - SHOPPING - 1406 Danyl - Ti amo ft. Stony Stone 1406 FAYV - AMULETTE - 1406 Futur Bandit - Donjons 1406 Gambino la MG - Pass Secur' - 1406 Gradur - TI TI TI ft. SDM Rsko - 1406 HALO - Tour du Monde - 1406 Hornet la Frappe - Samira - 1406 Jeune Austin - SANS RETOUR - 1406 K2S - Dougie - 1406 La Famax - La vie de généraux - 1406 Laylow - DOGZ In the Studio - 1406 Liim's - Business Man - 1406 Lyonzon - Arah 4 - 1406 Maydo - 925 1406 MC Solaar - Okay ft. Marie-Flore - 1406 Moji x Sboy - 1, 2, 3 - 1406 Nahir - OTOMOTO - 1406 Naps - CUR DE ICE ft. Gazo - 1406 Rohff - Cardio - 1406 Rowjay - YOUNG JEEZY EN 2005 - 1406 Sasso - Ça traine la night - 1406 Spider ZED - Pansement 1406 Timal - Près du binks - 1406 Todiefor - kiss ft. Luv Resval 1506 Beeby - BITCH A - 1706 Yovo - ZIGOUILLE RACISME - 1906 7ETH - Bulletproof - 1906 7ETH - München - 1906 BKRBABYBOY - NONEWFRIEND - 1906 Connaisseur Ticaso - Rap Life 1906 Dadi - 4X Filtré - 1906 Genezio - NO LIMIT - 1906 Jwles - Redescend - 1906 Maes - MAGIE - 1906 Prototype - ENVIE - 1906 Souffrance - Death Metal 1906 Zequin - BANDO - 2006 Jeebs - 747 2006 Hache-P - Vanessa - 2006 La Hasba22 - MAYBACH - 2006 Nono La Grinta - Kelly freestyle - 2006 Sadandsolo - W - 2106 Beendo Z - BEENDO Z FREESTYLE SPONGE - 2106 Djadja Dinaz - Miss France 2106 Doums - Makaveli - 2106 GLK - Xavi Simons - 2106 Gotti Maras - La Vérité - 2106 Kaaris - QUÉ LO QUE ft. ElGrandeToto - 2106 La Famax - Sombrero ft. Biwaï - 2106 LauCarré - Merci la vie pour les douleurs 2106 Leto - Remontada ft. Mister You - 2106 Ponko - Mes Lovés ft. Hamza - 2106 RK - LIAES ft. La Fouine 2106 So' - EN BAS - 2106 The Strangers - Radiant Future ft. KT-Gorique - 2106 Zeg P - Juste une minute ft. SCH, Alonzo Josman 2206 Koorama Kamö - Compter ft. thaHomey - 2406 1D1R - Mona Lisa - 2406 Dexter HMC - Brandão - 2506 Max D. Carter - Pantoufles aux pommes - 2606 Deelee S - J'aurais dû naître à LA - 2606 Giuseppe - DOPEMAN - 2606 Good Bana - Ma Gang - 2606 ISK - BRAV-M ft. KLM Mola - 2606 Koba LaD - Freestyle BMF 2 - 2606 LUMJR - OFFICIAL - 2606 Sherifflazone - Abeille - 2706 HOUDI - RAP CONSCIENT - 2706 Theodora - JTM 1 PEU - 2706 Theodora - MON CASQUE - 2806 34murphy - la tour - 2806 Asdek - J'te Kiffe ft. Mara Sto - 2806 Beendo Z - INSPIRÉ DE FAITS RÉELS 7 2806 Bramsito - I Love You - 2806 Djadja Dinaz - Continents 2806 Elh Kmer - MILLA 2806 Fresh laDouille - La calle - 2806 Gambino - GTA 6 2806 Gemen - CERTIFIED HOOD CLASSIC - 2806 GRËJ - Les adlibs de Gunn Interlude - 2806 Hornet La Frappe - Ballon d'or - 2806 Jolagreen23 - 4BULLDOG - 2806 Kerchak - Play - 2806 KLM - NICKI - 2806 Landy - Changer ft. Guy2Bezbar - 2806 Lester - pierre lune - 2806 Moha MMZ - Ivre - 2806 MVSHY - MAGIE - 2806 Saïf - L'avalanche - 2806 Souldia - Fausse note ft. A2H - 2906 63OG - cé pour les ft. 63KLUF - 2906 Gazo Tiakola - NOTRE DAME ft. Angèle - 2906 Zitoune - Pour les sous Juillet - 0107 Artistes divers - NO PASARÁN - 0107 Zola - CSL EP. 1 - 0307 Hippocampe Fou - J'ai fini le taf - 0307 H Magnum - Knysna - 0307 Sheu - Petit ou grand - 0307 YUNG POOR ALO - La paume - 0407 Hotel Blue - Collé à lAmour - 0407 Draviss - Leroy Sané - 0407 LEVELSANTANA - ENCORE - 0407 Swing - Mérite - 0507 Brav - Un jour de plus au paradis - 0507 Gambi - HÉHÉ HÉ - 0507 GIMS - MAMACITA ft. Sfera Ebbasta - 0507 GRËJ - J'le mets pas sur lalbum gl0rilla - 0507 IDS - 3 X 1 - 0507 ihatemed Dofla - NPMV - 0507 Jayel - 3h du mat - 0507 Koba LaD - Un peu d'amour - 0507 L'Algérino - Roméo ft. Soolking - 0507 Le Dé - Cervôlan ft. Rhum One - 0507 Loko Martin Gal - Emoji - 0507 Mandyspie - Pretty Betty ft. Jaymee - 0507 Nakry - Premier pas - 0507 Rémy - Galérer - 0507 Savage Toddy - Vision floutée - 0507 Sheng - FCK SCHOOL - 0507 Sokra - Santa Monica - 0607 Allebou - TRANQUILO DE QUOI - 0907 Deelee S - Restaurant chic ft. Realo - 1007 Dalí - Détestable - 1007 Donkey - DOJA ft. Yona - 1007 Giuseppe - TOUT MISER 1007 Liim's - PROBLÈMES 1007 Owen - FREESTYLE LA PIECE - 1007 Serane - Dis moi - 1107 1PLIKÉ140 - CALMEZ-VOUS - 1107 Deelay - Chirurgie quantique ft. Adjectif - 1107 Guy2Bezbar - Monaco - 1207 A2H - La nuit où 1207 Amsi - Sans toi - 1207 Dadi - Dvm Freestyle - 1207 Hatik - Choré - 1207 La Hasba22 - CROSS - 1207 Loki Gonzales - WEEZY - 1207 Ninho Niska - Coco - 1207 OBOY - Tout y est ft. Jozii La Mano 1.9 - 1207 Rafal - L'ENFER C'EST MOI - 1207 Soso Maness - Allez ft. PLK Naps - 1207 Steban - Motown 1 - 1407 Anton Serra, Lucio Bukowski Oster Lapwass - Écriture automatique - 1407 LUMJR - NO HOOK 1 - 1507 Cheu-B - Gava - 1507 James Loup - 3 DÉFAUTS - 1707 Booska-P - Nouvelle École - Booska Freestyle - 1707 Jeune Morty - We Alive - 1707 Kai du M - Black On Black - 1707 Seth Gueko - Le marginal - 1810 FXLL Tonio 8cho - Omotunde - 1807 GLK - CARTEL DZ - 1807 Leto - J'ai l'impression - 1807 Lovarran - Morning Routine - 1907 Djadja Dinaz - La même histoire - 1907 GIMS - SOIS PAS TIMIDE - 1907 Jayel - Tatiana - 1907 Malty 2BZ - Nanas - 1907 Mécra - NO LOVE - 1907 OldPee - ANAKIN - 1907 SDM - MERCI - 1907 VEN1 - SD Night - 2107 LUMJR - NO HOOK 2 - 2207 DADI - Bah Ouais - 2207 JYEUHAIR - Misaotra - 2207 Youssef Swatt's - Générique de fin - 2307 HOUDI - TOTALLY SPIES - 2407 Lucci - Ten - 2407 Rounhaa - killa ft. Stormy - 2407 Sto - LAPTOP - 2507 Niaks - Darement - 2507 Tiakola - T.I.A - 2607 Didi B - 2025 - 2607 Gros Mo - Napoli ft. Alkpote - 2607 MadeInParis - las vegas 2607 Madrane - La valise ft. Stavo - 2807 1D1R - Caroline - 2807 H.E.M - Zinzin - 2907 TK - La trace - 3107 Afro S - LM - 3107 Genezio - EL GEMANO ft. La Mano 1.9 - 3107 Serane - Petit à petit Août - 0108 AMK - Règle No. 1 - 0108 Damys - Accélère - 0108 slump. - def jam. - 0108 TIF - Maylin - 0208 Dajak - Rayons ft. Swing 0208 Elh Kmer - WEAH 0208 Franglish - SHAKE - 0208 Maureen - TOC ft. JYEUHAIR - 0208 MHD - Full - 0208 Misa - Liens Cubains - 0208 Saamou - Jr Vini - 0408 daklaoma - petit navire - 0808 A2H - Jamais - 0808 Jwles - Bollywood ft. Slimesito - 0908 Baby Neelou - Rapporteur Vert - 0908 BLOODYSANJI - L.R. DEFENDER - 0908 Elias B4C - Cole Palmer - 0908 Lester - Faille Mystique ft. 33mello 0908 Malty 2BZ - En attendant Solitaire - 0908 Yonidas - Donne - 0908 ZKR - X-ADV 1008 Mahdi Ba - BDP ft. Norsacce Criminls - 1108 Futur Bandit - La Planète Sauvage - 1208 Chavi - BYN - 1208 Cheu-B - Block 67 - 1208 Norsacce - Trapistan - 1408 Godson Anybxdy - C'EST MZI - 1508 Lovarran - I Wanna See The Beach - 1608 13 Organisé - Bande organisée 2 ft. SCH, Kofs, JuL, Alonzo, Naps, Soso Maness, Elams, Solda Houari - 1608 D2 - Salaire de Zidane - 1608 GIMS - Terminal 2F ft. Dadju - 1608 GRËJ - Cage - 1708 Teklam - Face ID - 2008 Jeune Morty - King Troup - 2208 Deemax - UNIVERS SONS - 2208 Deemax - VILLAGE NATAL ft. Lyre - 2208 Lost - 20 Benz ft. Kekra - 2308 410 - Barbie ft. Mitch Ladrogua - 2308 Furlax - Maybach - 2308 Gambi - Tentation ft. Hamza - 2308 JYEUHAIR - VAULT - 2308 Moha MMZ - Only you - 2308 Saïf - Le bonheur est triste - 2308 T.I.S Lando - City Hope - 2308 XXXXMLZ - La ashe - 2608 Norsacce - Mirmillon - 2808 Folie's - Instinct Animal - 2808 Giuseppe - EYES ft. Twinsmatic - 2908 Advm - .SNEP. - 2908 Hotel Blue - KAIDO - 2908 Ratu - Décathlon - 3008 Ajna - MYTIME! - 3008 Brav - Liverpool ft. Youssef Swatt's - 3008 Coyote Jo Bastard - Website - 3008 Django - t'appelles ça vivre ? - 3008 Jester SHF - Centre du ring - 3008 Kaki Santana - Money Boy II - 3008 PRIME - Pourquoi - 3008 RD - Plaie ft. Mécra - 3008 Says'z - CALAPA - 3008 Tiakola - MANON B ft. Ryflo Oskoow - 3008 Trankil Trankil - Comment on surf ft. thaHomey Skuna - 3008 your.nash - leurs yeux ternis - 3008 VEN1 - Vanilla - 3108 ANTHA Jeune Ras - Pataugeoire Septembre - 0209 Diddi Trix - Les affaires - 0209 Jwles - Mon Bol - 0309 Dirlo - 140 kmh - 0309 Lucio Bukowski Tcheep - Des Siècles Des Poussières - 0309 The Strangers - Rise Together - 0409 8ruki - SWAG - 0409 Good Bana - Chez toi - 0409 Lucio Bukowski Tcheep - Les Songes que nous pouvons - 0409 Mécra - Moovie - 0409 Savage Toddy - Wife - 0509 joysad - Enfers - 0609 13 Organisé - Sous le soleil ft. JuL, LAlgérino, Alonzo, Fahar, Menzo, Le Rat Luciano, Don Choa, A.S., Vincenzo, Soprano Sat - 0609 AKISSI - PQ TU QUÉMANDES?? - 0609 babyxi - MAISON BLANCHE - 0609 B.B. Jacques - BITCHES RYADS - 0609 GIMS - Vent du Nord - 0609 James Loup - ROCKSTAROUIGO - 0609 JYEUHAIR - QUOIPOURQUOI - 0609 N3MS - LE BRUIT DES VAGUES - 0609 Ninho Niska - 911 ft. Koba LaD - 0609 Saïf - La bohème. - 0609 Spider ZED - 30 secondes - 0609 Trankil Trankil - Philosophe ft. Nicholas Craven - 0609 Zbig - Zanekkk - 0809 Farloski - Trading - 0809 Nobodylikesbirdie - Missed In Action - 0909 Triple Nine - Le Béton Le Ciel - 0909 Yovo - TROUBADOUR EN DURAG ROUGE - 1009 Khali - FREE - 1009 LEDOUBLE - MTP ANTHEM ft. OgLounis - 1109 2C - MENTALE ft. Lucci - 1109 Heloïm - ROMANCE - 1109 HOUDI - CONTRE LA GALERE - 1209 Chanje - SANG DE GREC - 1209 EDGE - Pas pour rien - 1209 Giuseppe - NCAA - 1209 Jolagreen23 - 360TrickShot - 1209 Lovarran - M. Yamamoto - 1309 Davodka - Héritage ft. Deadi Cenza 1309 Didi B - Aladji toutouya - 1309 Dosseh - Yezzir - 1309 FEDALL - CE RISQUE - 1309 Gemen - LA MAIN SUR LE COEUR - 1309 Gringe - Confession d'un hypersensible - 1309 Jeune Lion - Rozin - 1309 Josué - Raison 1309 La Famax - Ma poupée - 1309 Légendes Industries - Primo Piatto ft. JeanJass - 1309 Le Lij - Monkey 47 1309 MHD - Kata - 1309 OBOY - Un peu - 1309 Rowjay - GENERAL FINESSE FREESTYLE - 1309 Scylla - Répondez-moi 2024 Humains - 1309 SDM - TOKA ft. Hamza - 1309 Slkrack - Putain de mood ft. IDS - 1309 Tedax Max Ismayyyel - POUR LA VIE 1309 thaHomey - ALL NIGHT ft. Sonny Rave - 1309 Tri Minh - Dernier Domino - 1309 USKY - Hades - 1309 Youv Dee - 2017 - 1309 Zkr - Cur lourd ft. Massine - 1509 Khali - KHALI IL SAIT - 1609 Tiakola - FORMIDABLE - 1809 Dexter HMC - Wilder 1809 Tisma - MONOPODIUM - 1909 Dooz Kawa - Sisyphe 1909 Mola - 80 zedou - 1909 Niaks - 'Ndrangheta ft. Maes 1909 Zek - Localisable 2009 Bramsito - My Baby - 2009 Chily - Je la connais Na Yébi Yo - 2009 Gambino - Dans ta fête - 2009 Itsyaboykp - Sans Moi ft. Ashh - 2009 La F - ROCKET LEAGUE - 2009 Timal - La 17 - 2309 Khali - FOREVER 2509 77 Degrés - 77 degrés ft. RK, ISK, Negrito, Timal, UZI SenSey' - 2509 Ajna - 20 - 2509 err walou - FROZEN - 2509 gapman - B.A.B Remix ft. Enima VT - 2509 Hippocampe Fou - Respire - 2509 Implaccable - BOSS l'argent n'est </t>
+          <t>Janvier - 0101 Jwles - Ticket Gagnant Freestyle - 0101 San-Nom - Les plus beaux - 0201 BEN plg - Freestyle Bateau dans le ciel - 0301 Kalash Criminel - Une bonne santé et grave des lards - 0401 Dany Dan Kyo Itachi - Mon territoire - 0401 thaHomey - Grove - 0401 T.I.S - Action Man - 0501 ADVM - .olala. - 0501 Bavaz - Jeunes Beaux - 0501 Bob Marlich - Apaise ton cur - 0501 D. Ace - Nostalgique - 0501 Dexter HMC - Vendeur de stup IGTV 8 - 0501 Kaza - CONNEXION - 0501 Kerchak - 2006 Opps qui court - 0501 Larry - BATMAN - 0501 Liim's - Gobelet ft. Ibrak - 0501 Roméo Elvis - Tadumal ft. dreamcastmoe - 0501 Sheu - Pascal OP - 0501 V2 Almz - 10G - 0501 VVES - Fin de vie - 1001 2C Tali - Bank Acc - 1001 8ruki - OK LETs go!! - 1001 Kepler - T'es fou ou quoi ? ft. Frsh laDouille - 1001 Saïf - Instanonymat 5 - 1001 Sokuu - MORTELLE - 1001 YL - Larlar 10 Pardon - 1001 Yvnnis - LE PIÈGE - 1101 Benjamin Epps - RESTE DANS TA MERDE - 1101 BEN plg - Colorier ds HLM ft .Georgio - 1101 DosPunto - POISON ft. SCH - 1101 Ry's - Téléphérique - 1101 Spider ZED - En légende - 1101 Uzibinski - Hoodtsar - 1101 Yassine Stein - taj mahal - 1101 Zamdane - Mélancolie criminelle ft. Sofiane Pamart - 1101 Zkr - Freestyle 5min 13 - 1201 ADÉS THE PLANET - BI - 1201 Benab - Motaz Azaiza - 1201 Cheval Blanc - JERSEY NOIRE - 1201 Demi Portion - Gangstarr ft. Souffrance - 1201 Féfé - Baladeur ft. Akhenaton - 1201 Gama Boonta - AFRICAN HUULIGAN - 1201 Kima - BBL - 1201 KLM - ADN - 1201 Kofs - XADV - 1201 KPoint - Solide - 1201 La Crapule - Sa passe en i ft. Zitoune 1201 Lamatrix - MODE RACE - 1201 Meryl - Ton ami ft. Josman - 1201 MC Solaar - Pierre-feuille - 1201 Misa - Facettes - 1201 Obia le Chef - Oseille des françs-maçons ft. Rowjay - 1201 Skefre - TRAPULEUX 2 - 1201 Slimka - Mystico - 1201 Uzi - CITÉS DE FRANCE - 1201 Zola Koba LaD - Temps en temps - 1501 Teklam - Roadtrip - 1601 S-Tee - THERAPY - 1701 404Billy - PINOCCHIO EPEMBIA - 1701 Amine D1 - Dans le vide ft. Many Santana - 1701 Jaymee - 3K - 1701 Le Juiice - Gospel - 1701 Papi Teddy Bear Pense - Qishui - 1701 sean - FEUILLE SHIT CLOPE - 1701 Yovo DIOGENES - Clara M. - 1801 Badrito - Nether - 1801 Dau - MOSHPIT - 1801 Jäde - Tranquille - 1801 Lesram - Question 1801 Nyda - C'est pas comme ça ! ft. Cinco 1901 Andos - Ensemble - 1901 Doria - Déter ft. Soolking - 1901 Emkal - Pépita - 1901 Espiiem - ROI DU SILENCE 1901 Fresh - PROBLEM - 1901 Fresh laDouille - Ganté - 1901 Gambino La MG - 91 - 1901 Gips - Prototype - 1901 Hayce Lemsi - Quinte Flush 1901 KR Malsain - Cómo te llamas - 1901 Lala ce - Jalouse - 1901 Lazzio - BIRKIN - 1901 Le Juiice - Gospel - 1901 Loud - Prime ft. EDGE - 1901 Mac Tyer - Dope Boyz - 1901 Naza - Lamborghini 1901 N'seven7 - Racaille - 1901 Reda - En interne ft. Sadek - 1901 Roshi Shaz - Black Pearl - 1901 Ruff - AIGRI DOUX - 1901 CO - DE L'AUTRE COTÉ ft. AAMO Moe DAmour - 1901 Sokra - GTA - 1901 S.Pri Noir - Kawasaki ft. Laylow - 1901 TH - OVNI - 1901 Zaky - ELEMENT - 2001 Saïf - Instanonymat 6 Hors-Série - 2101 Drosan - ZIN1 XAVIER - 2101 Vîrus - Mouton Cadet - 2201 Sherifflazone - AMIRI - 2301 L2B - Hors la loi ft. La Mano 1.9 - 2301 Lucio Bukowski Mani Deïz - Grande Vie - 2301 Pato - LFP 3 Brigade Fantôme ft. Saïf - 2401 Batbat - Dopé - 2401 Celestino, Damlif Toboë - g perdu - 2401 Farloski - NORMAL - 2401 Good Bana - Encore - 2401 LEVELSANTANA - 0 flash - 2401 menace Santana - Adrenalean - 2401 Pato - LFP 4 Tentations - 2401 Rounhaa - LOVE DEATH ROBOTS - 2401 slump. - P.I.L.M. - 2501 Cheval Blanc - CARTE POSTALE 2501 F.L.O - SPACE CAKE - 2501 Hotel Paradisio - CULEBRA PEAK - 2501 J2LASTEU - Grenata - 2501 Le Règlement - Stadium ft. Kerchak 2601 2 Mètres - Hwasong 17 - 2601 Cellulaire - BELLE BRUNE - 2601 Gambino - Picoler - 2601 GIMS - LOCO ft. LOSSA - 2601 Heuss L'enfoiré - Souvenir ft. DYSTINCT Unleaded - 2601 Jeune Morty - Souljah - 2601 JKSN - Seine-Saint-Denis - 2601 KESPAR - Massai ft. L'apprenti - 2601 Keuchei - Position d'attente - 2601 Lamatrix - VDM ft. Leto - 2601 Lester - messes basses - 2601 Livaï Cosmo - la torche - 2601 Luciano Niska - Blue Porsche - 2601 Nusky - Ciment - 2601 PURP - Minimat - 2601 Roshi Shaz - CODE 9 - 2601 Sirap - Princess - 2601 Stavo - ETC - 2601 Steban - Hazi Life - 2701 Livaï Cosmo - La torche - 2801 Beeby - HIVER 2020 4 - 2801 Lp2.0 - Mentale 2 Batard 4 - 2901 Yovo DIOGENES - CODE BRZ - 3101 Folie's - Nymphomaniac - 3101 GEMEN - GoneSouth 1 - BIENVENUE À LYON - 3101 Henri Bleu - 2 Corbeaux ft. M le Maudit - 3101 JYEUHAIR - ÇA VA ALLER - 3101 Ninho - 3 MAI 2025 - 3101 Rim'K - Jour de pluie - 3101 S-TEE - JEEP Février - 0102 AnNie .Adaa - SATURÉ - 0102 Liim's - Shatta 0102 Triplego - Huracán - 0102 Vin's - Météores - 0102 Zamdane - Printemps - 0202 Booba - 6G - 0202 CHAM rapper - Scénario ft. Tedax Max Akhenaton - 0202 Doria - Porte Maillot - 0202 Fresh laDouille - Indigent - 0202 Genesys MOB - Dernière fois - 0202 GLK - OK - 0202 Hatik - JUNGLE - 0202 Jungeli - T'étais où ? ft. Vegendream, Alonzo Zaho - 0202 Lapostroz - GRAVVITE - 0202 Misa - ZOOM X4 - 0202 Rafal - ROMEO - 0202 Soleil Noir - La Moisson - 0202 Soolking - Tiki Taka ft. SCH - 0202 Venom Cz - ETHER - 0202 SOPA - TOUT SEUL DANS LE NEANT - 0302 La Hasba22 - Freestyle COPS - 0302 Sheng - DIS-MOI PK ?! - 0502 Luther - ROUGE GORON - 0702 GEMEN - GoneSouth 2 - UBER FUME - 0702 Nobodylikesbirdie - RX Birdie - 0702 sean - LÈVE TON DOIGT - 0702 Theodora - FNG - 0702 Werenoi - 16.02.2024 - 0702 YL - Dommage ft. Anas 0802 AM La Scampia - Comme en 2007 - 0802 BKRBABYBOY - DREAM - 0802 Elyon - Ouverture 0802 GR OMEGA - CYCLOPE 0802 J2LASTEU - King - 0802 Sto - BERLIN DriftMusic2 - 0902 34murphy - 2424 - 0902 arøne - en - 0902 Benab - Potentiel 0902 Brav - Reste au lit - 0902 Chany Z - FAM - 0902 Cheval Blanc - PAS D'ACCORD - 0902 Deadi - Courave ft. L'uZine 0902 Dofla - A RISQUE ft. Lyre - 0902 Elh Kmer - Police Tue - 0902 Fresh - FUMAR MATA ft. Gotti Maras - 0902 H.LA DROGUE - Seklenland - Pt.9 - 0902 Infinit' - 888 FREESTYLE - 0902 Kalash Criminel - VIENS QUE J'TE FRAPPE 0902 Kima - SALACE - 0902 kobzx2z - dans tes bras ft. mikeeysmind 0902 KPoint - PLT 0902 KR Malsain - Remontada - 0902 La F - Appel masqué 11 - 0902 La Mano 1.9 - GRAAH ! - 0902 La Plaie - En Méchant - 0902 Sasso - Livraisons ft. Mig - 0902 WarEnd - Froid - 1002 Furlax - .Libre. vide ft. Advm - 1302 Chanceko - ILY - 1302 Eline - Si demain je t'aime - 1302 FEDALL - SPIRIT OF - 1302 Sameer Ahmad - Vivarium - 1402 Amine D1 - Temps que je perds ft. Abou Tall - 1402 Daej Phantom - Joel Gwadada - 1402 Gemen - GoneSouth 3 - FEEL GOOD - 1402 Grems - Vie Compte - 1402 Infinit' - Mc Gregor ft. Alpha Wann Rim'K 1402 Ymer - Porte-bonheur - 1502 Elyon - Ne m'aimez pas - 1502 Heykel - Participer - 1502 KLM - À fond - 1502 RK - 38 Freestyle - 1602 Big Ben - Changement - 1602 Davodka - S au S - 1602 FXLL - OHx3 ft. Cashmire - 1602 Gen - Polaire - 1602 Jaïa Rose - Poster - 1602 Kamas Skuh - J'disparais dans l'noir ft. Lamatrix - 1602 Kofs - Désolé ft. Miami Yacine Stef Becker - 1602 Leys - Jeudi FTC - 1602 Mac Tyer - DERRIÈRE TOUT ÇA - 1602 Misa - 2 Épaules 1 Tête 1602 Mortalla - Can-Am ft. Mougli - 1602 MVSHY - Si il fallait faire ft. Arso911 - 1602 Sazamyzy - Boss Life ft. Enima - 1602 Skefre - TRAPULEUX 3 1602 Skima - MVP - 1602 Soala - Premier - 1802 NDO Runway - Rocky - 2002 nelick - POLAIRE - 2102 3arbi - La Zip La Zik ft. Diddi Trix - 2102 Gemen - GoneSouth 4 - LES YEUX QUI BRILLENT - 2102 Keuchei - Crapuleux ft. Fresh laDouille - 2102 Malo - PAS DE SEMBLANT - 2102 Sherifflazone - TRAPMONEYBIGGIE - 2102 Squall P - LYN TO SOHO - 2202 ADÉS THE PLANET - PIRATE 2202 AM la Scampia - Vatos - 2202 Buhi - What We Doing!? Qu'est-ce qu'on fait!? ft. Quavo - 2202 Enima - Noise ft. ASHE 22 - 2202 Luther - MOSSY COBBLESTONE - 2202 Malty 2BZ - Boombap - 2202 Prime - Fame 2202 PURP - BAG - 2202 Rsko - BOOM BOOM ft. IDS - 2202 Toam - Les Vitres et Les Plafonds - 2202 Vin's - Little Boy - 2302 Absolem - hors de moi ft. JeanJass - 2302 Bekar - Plus fort - 2302 Cheval Blanc - RAT RACE - 2302 Farloski - LA MÈCHE 2302 FAYV - YAMAHA ft. Kofs - 2302 Gambino - Street - 2302 GIMS - MA DOUCE ft. Baby Gang - 2302 Gros Mo - Prédatrice - 2302 H Magnum - Afro binks - 2302 Kery James - JE NE PLAISANTE PAS - 2302 Lamatrix - MAUVAIS PROFIL ft. Ninho - 2302 Légendes Industries - Boussa ft. Nayra - 2302 MC Solaar - Ils dansent - 2302 Mitch - STAYA - 2302 Sokra - Roska - 2302 Steban - Skimask - 2302 Suzuya - Mort-vivant - 2302 Tyranik - La Cause - 2402 Black Jack - Stratagème ft. Madrane - 2402 Josman - My love ft. Tayc - 2502 Mandyspie - COOL KID 2602 HoussBad - Gas ft. Take A Mic - 2602 Teklam - Ost ft. AAMO - 2702 Jeune Lion - Molly Dolly - 2702 Zamdane - Monstres - 2802 AAMO - DANS L'TRAP - 2802 Batbat - Voyou 2802 Fresh laDouille - ADN - 2802 Gemen - GoneSouth 5 - PAS UN MOT D'ANGLAIS - 2802 Jayel - Habiba - 2802 Many Santana - Paname c'est tragique - 2802 Sabuu - toxique - 2802 TVMO - Tiger Woods - 2902 Daej Phantom - Baby Boy 2902 Elso - Nerveux - 2902 Josué - Fils de 2902 JRK 19 - SUBMVRINER - 2902 Leys - Je suis - 2902 Maes - 4MOTION ft. PLK 2902 Nessbeal - Ecchymose - 2902 Shien - Obsession - 2902 Smeels - GOLDIE Mars - 0103 34murphy - gunz 0103 Andos - Mal luné 7 - 0103 AYMCE - PROBLEMS 0103 Dima - pas présentable - 0103 Hatik - LE FOND ft. Zokush - 0103 Leys - Je suis - 0103 Liim's - P.A.M.P ft. La Mano 1.9 - 0103 Lyele - ft. La Fève - 0103 OSO - L.A - 0103 Pex - ASTRONAUTE - 0103 Rafal - ONE ONE - 0103 Raplume - Bois-Colombes ft. Kerchak, Jolagreen23, Mitch, Kabbsky, Buû Ydasevic - 0103 Rim'K - Tant pis ft. TIF Sofiane Pamart 0103 Rouge Carmin - ROUGE TAGADA - 0103 Sameer Ahmad - LVBF ft. okis 0103 The Free - 3-4 sa mère - 0403 Peet - Aquemini - 0503 Drosan - ZIN2 CAGE - 0603 Falcko - Yeux rouges - 0603 Gemen - GoneSouth 6 - SCHOOL SHOOTER ft. okis - 0603 Henri Bleu - Vagues - 0603 Iss - Salvatore - 0603 Lacrim - CORLEONE II - 0603 Yassine Stein - bouskoura - 0603 Zitoune - La mentale ft. Mecra - 0603 zonmai - Boom Boom - 0703 AnNie .Adaa - GLACÉ 0703 Dadinho - Coeur Nwar - 0703 gapman - Step ft. ASHE 22 - 0703 Josas - Insuline - 0703 La Hasba22 - IMPACT ft. KLS - 0703 Nobodylikesbirdie - Ariel Helwani - 0703 Ratu - LARMÉE DES RATS - 0703 Stavo - Mallette - 0703 Venti - makila - 0803 CAPUH - J'VOULAIS DES NIKES - 0803 DA Uzi - Michael Jordan - 0803 DIL - DEATH ROW ft. Chakir - 0803 Dr. Yaro La Folie - Bizari 0803 Ekloz - 7Shit 0803 Gambino La MG - Nord-Kivu - 0803 Kaaris - Clique - 0803 KPoint - Stone ft. L2B - 0803 Kpri - L.C.E - 0803 La F - Plata ft. Jozii - 0803 MadeInParis - No cap ft. Draco Dans Ta Face - 0803 Mola - Ice Spice - 0803 Naza - J'ai mal - 0803 Nono La Grinta - 6AM 0803 Skefre - TRAPULEUX 4 ft. Oldpee 0803 Slkrack - Rentrée d'argent - 0803 Tedax Max - BBL - 0803 Vacra - Yoga ft. Josman 1003 Andos - Malsain - 1003 Sheu - BTC - 1003 Yorssy - Pop mok - 1303 Jäde - Get out ft. Zamdane - 1303 Keroué JeanJass - Okocha - 1303 Meryl - Dernière Escale - 1303 Rowjay - ROWZIN 2 ft. Jwles - 1403 Ibepds - deadline ft. BUHI Mussy - 1403 Keeqaid - Pics - 1403 Sadandsolo - KODAK - 1403 Soprano - C24 - 1503 Absolem - abso skit part 2 - 1503 Cheval Blanc - TÉLÉPHONE PIÉGÉ - 1503 Davodka - Arc en ciel - 1503 Deadi - Repeat - 1503 Djibso - Zombie - 1503 Hotel Paradisio - ALCHIMISTE ft. Ashh - 1503 Jok'Air - Cramer - 1503 La Famax - Autour de moi - 1503 LEVELSANTANA - MI AMOR ft. Bianca Costa - 1503 Saiba - JET ! - 1503 Spider ZED - Prends le bien - 1503 Strano - YTP FLOW - 1703 La Mano 1.9 - La Mano dans la mallette ft. DVGZ 1803 Kima - Survivre - 2003 Coton Blanc - Selfmade - 2003 Farloski - MODE SPORT - 2003 Jeune Observateur - G LA N - 2003 Jey Brownie - Mélodie céleste - 2003 Sherifflazone - WHITE - 2003 Theodora - Blues d'hiver - 2103 AAMO - CHARBONNER OU PRIER - 2103 BEN plg - Guerres de pissenlits - 2103 Dau - JE N'SAIS PAS - 2103 Green Montana - phileas fogg - 2103 Loud - C'est pas ce que tu penses ft. Lary Kidd Ajust - 2103 Peet - Toucher du bois - 2103 Shien - Flou - 2203 Cellulaire - VISION CLAIRE - 2203 Malty 2BZ - Détail - 2203 Nakry - Dans le Réseau - 2203 Prinzly - OBSCENE - 2203 RESELL - BIG JOUJOU - 2203 Rouge Carmin - NOUVEAU HENDRIX - 2603 Bob Marlich - Kiwi 2703 Coyote Jo Bastard - FIER - 2803 AYMCE - P!NK - 2803 Green Montana - ishtar - 2803 Gros Mo - L.A - 2803 V3RTIGO - 21 21 - 2803 Vîrus - La Cour - 2903 GRËJ - Pas mal pour un immigré - 2903 HD La Relève - Mauve - 2903 Hugo TSR - La Pluie 2903 Jwles - J'ai ça - 2903 LUMJR - BAG - 2903 Michel - Jeudi minuit - 2903 Surprise - Pas différente - 2903 Tedax Max - Dernier prêche - 2903 Vegedream - Matata ft. Kaaris Kerchak Avril - 0204 Elyon - L'autre toi - 0304 Henri Bleu - Si il caille - 0304 HIBA Lyes Kaci - plantes grasses - 0304 Zoomy - BRIGANTÉ - 0404 AnNie .Adaa - DOGMAN - 0404 Sadandsolo - SI JE PARS - 0504 Bolémvn - C'est toi ft. Wareen Saada - 0504 Linton - 2019 - 0504 Max D. Carter - Si Sexy - 0504 Momsii - YSL Polo - 0504 paulvitesse! - anyway - 0504 Rafal - ELLES M'AIMENT - 0704 Beeby - Le Cycle Eternel - 1004 Kahra - NAPOLÉON III - 1004 Realo - BORDERLINE ft. Deelee S - 1104 Enima - Go Mode - 1104 gapman - B.A.B - 1104 Guy2Bezbar - TAPIE - 1104 Jaywill - OCARINA FOREST - 1104 Kima - En Balade ft. Kalash 1104 Le Lij - 9 sur 10 ft. Jwles - 1104 Ratu - DEMAIN - 1104 Zequin - Bora Bora - 1204 Akkai - LVNFPDC - 1204 Big Ben - Besoin - 1204 Chily - Radio au tarmi - 1204 GAZY MP - Money Fast - 1204 Hooss - L'épreuve du feu - 1204 Keeqaid - Chose 1204 K.S.A - Intercite - 1204 LATATPA1.3 - DFB - 1204 LY - Eden - 1204 Misa - Go! 1204 Rouge Carmin - APPEL MANQUÉ - 1204 SOPA - J'CONNAIS PAS LE SOLEIL - 1404 Stavo - Bipolarité - 1504 Deadi - 78 - 1504 Drosan - ZIN3 TRAP2ZIN - 1504 Zitoune - Ce jeune part. 3 ft. Iyad - 1604 Myth Syzer - 19 FÉVRIER NYC - 1704 8ruki - JEFF BEZOS!! - 1704 Baby Neelou - Copernic - 1704 Batbat - Les vitesses ft. La Honda 19 - 1704 Jaymee - Bright - 1704 Jey Brownie - J'en ai pas - 1704 La F - Colère ft. Shelby 1704 SIMONY - Silex - 1704 your.nash - demain - 1704 Zed - ZEDEUDÉ 60 - 1704 Zuukou Mayzie - Sanni McCandless vers 19h19 1804 Cacahouete - Banlieue Parisienne 4 - 1804 Iss - Favori - 1804 Many Santana - Méchant - 1804 Teklam - Par où on passe - 1804 Zinée - MEZZEL - 1904 Baksooz - 10k FREESTYLE - 1904 Djibso - SMOG 1904 JaySoCold - COLDEST IN THE WORLD - 1904 Jok'air - Dans la Benz - 1904 Lacrim - 7 VIES ft. Sofiane Pamart - 1904 Légendes Industries - Mauvais Garçons ft. Tuerie - 1904 Naps - RSQ3 - 1904 Naza - Kulule - 1904 Osirus Jack - Kyrie Irving - 1904 RK - COFFIO - 1904 Saïf - Le taf du loup - 1904 Vacra - Agent Secret - 2104 Wit. - OBSESSION - 2404 Advm - .DEMAIN C'EST MIEUX. - 2404 Chanceko - Le déhanché assassin - 2404 J9ueve - SHE LIT ft. Green Montana - 2404 La F - Life - 2404 Le Juiice - Money Dance - 2404 Lord Esperanza - Différent 2404 Raous Gang - Terrain miné 12 ft. Mola - 2404 Sherifflazone - FUTURAMA - 2504 A2H - Honey - 2504 Deemax - JPARS DE LÀ - 2504 KeBlack - Boucan - 2504 Lesram - Rebellion - 2504 Niro - Polémique 2504 PURP - Actif ft. Savage Toddy - 2604 AMOON - LUDACRIS - 2604 Davodka - Libre comme l'art - 2604 GIMS - JOE PESCI ft. Inso Le Véritable - 2604 Harley - Ça va pour nous ft. MadeInParis - 2604 KLM - Parapluie - 2604 L2B - Touché Coulé - 2604 La Hasba22 - Extinction 3 - 2604 La Mano 1.9 - J'coupe tout ft. Musto 2604 Leith - FOCUS ft. Smeels - 2604 Loko Martin Gal - À la carte ft. Alkpote Deadi - 2604 Magnim - Blanc et Bleu - 2604 Mig - La ligne - 2604 Mola - Freestyle 2 mi-temps - 2604 Mosty - En tas ft. Lala ce - 2604 Prinzly - NIGHT HIFT ft. YG Pablo - 2604 Rohff - Fraude ft. Intouchable AP du 113 - 2604 SAF - JE QUITTE LA ZONE - 2604 Slim C - ADN - 2604 Stony Stone - Himalaya - 2604 Surprise - Méchant dans les films - 2604 Timal - RR Phantom - 2704 Black Jack - La Mentale ft. Evil P - 2804 Yaya D - 0.xo - 2904 JohnFckingNada - Winning - 2904 T.I.S - Dans la ville - 2904 Zeu - ALEX KID Mai - 0105 Genezio - ROYAL PALACE - 0105 LUMJR - NEW CHOPPA - 0105 Saturn Citizen - EXPORT 1 - 0105 Zokush - Lebara - 0205 Mapess - Zéro Battle - 0205 Rsko - 12 coups - 0305 63OG Skuna - ZUSHI REMIX ft. Jolagreen23, thaHomey, Sherifflazone 8ruki - 0305 Benab - Sakina - 0305 Carbonne - Imagine - 0305 Douze Déluge - MAUVAIS SANG - 0305 F430 - Comme tout le monde - 0305 Heuss L'enfoiré - Mélanine ft. Werenoi - 0305 iTo - Émotif5 - Coupé Cabriolet - 0305 La Kadrilla - Tomar ft. Osirus Jack - 0305 Laskiiz - VACARME - 0305 Rim'K - Demain - 0305 Rim'K - Trap house ft. Alpha Wann - 0305 Rsko - PCC ft. Franglish - 0305 Soolking - Otra - 0305 Soprano - Facile à danser - 0305 Take A Mic - Le film - 0305 Yuzmv - Illusion - 0305 Zed - Celle ci - 0305 zonmai - Birthday Zouh - 0705 JRK 19 - BOOYAKASHA - 0705 RK - MOUSSA PART.1 - 0705 Vilk - Soleil - 0705 Yzu - NOEUD - 0805 Deemax - SHOW - 0805 Folie's - Nosleeve - 0805 Genezio - NIA - 0805 JuL - J'ai pris le mic - 0805 Keeqaid - OffWhite 0805 K.S.A - Motion ft. thaHomey - 0805 Mandyspie - Shadow - 0905 Le Risque - Go 2 - 0905 Leto - Enlève tes pes-sa ft. Kaaris, La Mano 1.9 JKSN - 0905 Slkrack - Maman pleure pas - 0905 TIF - Nothing Personal - 0905 Voleur2Voleur - POUR CEUX ft. Mola Keuchei - 1005 Benjamin Epps - JOHN Q - 1005 Di-Meh - Ténébreux - 1005 GIMS - SPIDER ft. DYSTINCT - 1005 Huntrill Hologram Lo' - Le biff et moi - 1005 La F - Vie d'artiste - 1005 Loveni - MOODSWING - 1005 Malty 2BZ - Giltos - 1005 Mitch - C'EST PAS MES POTES ft. Mougli - 1005 Naza - Quillé ft. Ninho - 1005 Rafal - LA FEMME EN ROUGE - 1005 Soso Maness - DLB13014 - 1005 Vacra - Confidences ft. PLK - 1005 Zakaria Springer - Caméléon - 1105 MVSHY - Feel lucky - 1205 Kerchak - HOODTRAP 1 CAM 1305 Ben.C - CAH BENNY - 1305 TK - Hakim ft. YL 1405 Seth Gueko - Barrio ft. Kanoé Kyzi - 1505 Batbat - Chromer ft. Saamou - 1505 Genezio - DOULEURS - 1505 Good Bana - Habitué - 1505 Izar - Kasparov - 1505 Pbl - À la Hauteur ft. Jewel Usain - 1505 Rowjay - ORIGINAL FINESSEUR - 1605 Myth Syzer - PLAZA - 1605 DMS - BELLES CHOSES - 1605 RK - TACHE DE SANG - 1605 SCH - Cannelloni - 1605 Sheng - KIT-KAT - 1605 VEN1 - Bougie - 1705 arone - garder le sourire - 1705 Elias B4C - Attireur De Foudre - 1705 Gaulois - Sens interdit ft. Ninho - 1705 Gemen - MAISON DE CAMPAGNE - 1705 Gemen - SMS - 1705 HMZ - Pas fiable - 1705 Hornet La Frappe - Malaga ft. Dwen La Plaie - 1705 JKSN - Drogba - 1705 Kaneki - Mentalité - 1705 Lacrim - Colisée ft. SDM - 1705 Landy - G8 - 1705 Maydo - Noubti - 1705 Moha MMZ - Agoraphobe - 1705 Teklam - Questionnement - 1705 thaHomey - HORS JEU - 1705 Zequin - FLEX - 1705 Spider ZED - Cinq du mat - 2005 Advm - .QLQCHOSE. - 2005 Bluume Triple Nine - CUSTOMS DETECTOR DOG - 2005 Ibé - Regrets ft. Koba LaD Sno - 2005 Jwles - ahhhh 2005 TK - à l'écart - 2105 8ruki - Methadone - 2105 Toam - LINER 2205 Chily - Calculer x2 - 2205 Dexter HMC - Freestyle GramTélé 1 - 2205 Genezio - GÉ SAIT PAS - 2205 JEUNESAINT - Amy Berry ft. Pacho Diño - 2205 Norsacce - No Diddy - 2205 Papi Teddy Bear Pense - BOOBA EN 99 - 2305 Famille Nombreuse Slime Castro- Intéressant - 2305 Folie's - BAD! - 2305 Maes - SURVIE ft. Ninho - 2305 S-Pion - SOUROUGUAP - 2305 TH - ABKA 2305 TiBab - Hot ft. gapman 2305 Wood - GUTEN TAG - 2405 6rano - la BM La Bohème - Street Parody - 2405 Anas - Napoli - 2405 GS - À quoi ça sert - 2405 H Magnum - Mauvais djo 2405 Houari - Dis khamsa ft. Morad - 2405 Josas - Vanille - 2405 Kerchak - HOODTRAP 2 TOUCHÉ - 2405 Kore - Lalla ft. Hamza 2405 KR Malsain - Akkari City ft. W - 2405 La Famax - Jenny - 2405 Le Juiice - PAPILLON 2405 LEVELSANTANA - DAEMON5 - 2405 Nusky - Soké - 2405 OSO - Heart Beat - 2405 Princesse - Fifty Fifty - 2405 Raplume - 2 Cartouches ft. 410 - 2405 Soalo - Bubble up - 2405 Sokra - Ghetto Youth - 2405 Soprano - Freedom - 2405 Warren Saada - Déjà - 2605 MVSHY - STEP 2705 Doulkha - Météo - 2705 La Mano 1.9 - 51 Block - 2805 La Fouine - Chalgoumi - 2805 Toam - VIE PRECIEUSE - 2905 Genezio - DANS MON MONDE - 2905 Hippocampe Fou - Demi-Vieux - 2905 Jeune Morty - HORSE BLACK YOUNG NIGGA - 2905 Izar - 10 000 PORTES - 2905 Jaymee - TOUT LE MONDE AUTOUR - 2905 JRK 19 - BALADE - 2905 La Kadrilla - Machine A Production - 2905 Selug - X100 - SOS FREESTYLE - 3005 BRKBABYBOY - 529 - 3005 Gris Anthracite - Après l'hiver II ft. Ekloz - 3005 Saamou - Terrain d'herbe 1 - 3005 wasting shit - les fourmis - 3105 33mello - les livres que j'ai lus ft. Lester - 3105 abel31 - Impala - 3105 Diddi Trix - BAH OUAIS FREESTYLE - 3105 DIL - POUR EUX - 3105 HVmanyy - Ephémère - 3105 iTo - La fabuleuse histoire d'un rêve décadent - 3105 Kerchak - Sentiments - 3105 KLM - Sang - 3105 La Plaie - Je m'isole - 3105 Légendes Industries - Tribal King ft. Di-Meh - 3105 Leto - Tout gâché - 3105 Meryl - Mauvaise Élève - 3105 Poupy - Goyard - 3105 Zeu - WAGNER Juin - 0306 NDO Runway - Parler Pour Rien Dire - 0506 Alonzo - HASTA LA VISTA - 0506 Genezio - CHANGER LES IDÉES - 0506 Malo - PORSCHE 0506 Many Santana - Petit frère - 0506 Osmoz - Bonnes manières - 0506 Wallace Cleaver - plus rien n'est grave - 0606 A2H - Message pour son ex - 0606 Heuss L'enfoiré - La Raclure - 0606 MAPESS - Plans - 0606 Myth Syzer - SHAGGY - 0606 paulvitesse! - spaceship - 0606 SCH - Booska Prequel - 0606 Slkrack - Cristaline - 0606 TH - ISUZU ft. Alpha Wann - 0606 TripleGo - Ocean - 0606 winnterzuko - NORTH2 0706 Andos - Mannschaft ft. Mous-K - 0706 Caballero - Rose orangé - 0706 Davodka - Avec des mots ft. Sinik 0706 Elh Kmer - OKOCHA - 0706 ISK - Vérité 7 - 0706 Koba LaD - Freestyle BMF 1 - 0706 Krody - Frozen Jacquemus ft. Leto Kepler - 0706 Malko - Aaliyah - 0706 Malty 2BZ - Scammers ft. KLM - 0706 Mecra - Cendrillon - 0706 Niaks - Cagoulé ft. Maes - 0706 Nosnow - Dolo Introduction - 0706 Rohff - Fitna - 0706 Take A Mic - DRIVE 0806 Guizmo - Attention quand tu causes ! - 0906 Jeune Morty - MOTO - 0906 Neskoo - UHQ - 1006 808NOCHE - Gala - 1006 Strano - TRAMADOL - 1106 DOC OVG - Vendre - 1106 Mougli - Freestyle Hors-série 4 - 1206 Genezio - OFÉLÉ PÉLÉLÉ - 1206 HD La Relève - C'est un délire - 1206 Kebe Hyma - Wazz 3 1206 KR Malsain - Gueliz 1206 LUMJR - WALK - 1206 Selug - CERCLE FERMÉ - SOS FREESTYLE - 1206 Sherifflazone - JUGGIN 1206 Youssef Swatt's - Ancienne Belgique 1206 Zokush - Dès l'matin - 1306 Chanje - MERRICK - 1306 La Mano 1.9 - Canon ft. Niska 1306 Tovaritch - Fedor - 1306 TVMO - Abel Cain - 1306 Wallace Cleaver - le bus 1406 2R - 2ème Dose - 1406 404Billy - NAZI IS REAL! 1406 Bruni - SHOPPING - 1406 Danyl - Ti amo ft. Stony Stone 1406 FAYV - AMULETTE - 1406 Futur Bandit - Donjons 1406 Gambino la MG - Pass Secur' - 1406 Gradur - TI TI TI ft. SDM Rsko - 1406 HALO - Tour du Monde - 1406 Hornet la Frappe - Samira - 1406 Jeune Austin - SANS RETOUR - 1406 K2S - Dougie - 1406 La Famax - La vie de généraux - 1406 Laylow - DOGZ In the Studio - 1406 Liim's - Business Man - 1406 Lyonzon - Arah 4 - 1406 Maydo - 925 1406 MC Solaar - Okay ft. Marie-Flore - 1406 Moji x Sboy - 1, 2, 3 - 1406 Nahir - OTOMOTO - 1406 Naps - CUR DE ICE ft. Gazo - 1406 Rohff - Cardio - 1406 Rowjay - YOUNG JEEZY EN 2005 - 1406 Sasso - Ça traine la night - 1406 Spider ZED - Pansement 1406 Timal - Près du binks - 1406 Todiefor - kiss ft. Luv Resval 1506 Beeby - BITCH A - 1706 Yovo - ZIGOUILLE RACISME - 1906 7ETH - Bulletproof - 1906 7ETH - München - 1906 BKRBABYBOY - NONEWFRIEND - 1906 Connaisseur Ticaso - Rap Life 1906 Dadi - 4X Filtré - 1906 Genezio - NO LIMIT - 1906 Jwles - Redescend - 1906 Maes - MAGIE - 1906 Prototype - ENVIE - 1906 Souffrance - Death Metal 1906 Zequin - BANDO - 2006 Jeebs - 747 2006 Hache-P - Vanessa - 2006 La Hasba22 - MAYBACH - 2006 Nono La Grinta - Kelly freestyle - 2006 Sadandsolo - W - 2106 Beendo Z - BEENDO Z FREESTYLE SPONGE - 2106 Djadja Dinaz - Miss France 2106 Doums - Makaveli - 2106 GLK - Xavi Simons - 2106 Gotti Maras - La Vérité - 2106 Kaaris - QUÉ LO QUE ft. ElGrandeToto - 2106 La Famax - Sombrero ft. Biwaï - 2106 LauCarré - Merci la vie pour les douleurs 2106 Leto - Remontada ft. Mister You - 2106 Ponko - Mes Lovés ft. Hamza - 2106 RK - LIAES ft. La Fouine 2106 So' - EN BAS - 2106 The Strangers - Radiant Future ft. KT-Gorique - 2106 Zeg P - Juste une minute ft. SCH, Alonzo Josman 2206 Koorama Kamö - Compter ft. thaHomey - 2406 1D1R - Mona Lisa - 2406 Dexter HMC - Brandão - 2506 Max D. Carter - Pantoufles aux pommes - 2606 Deelee S - J'aurais dû naître à LA - 2606 Giuseppe - DOPEMAN - 2606 Good Bana - Ma Gang - 2606 ISK - BRAV-M ft. KLM Mola - 2606 Koba LaD - Freestyle BMF 2 - 2606 LUMJR - OFFICIAL - 2606 Sherifflazone - Abeille - 2706 HOUDI - RAP CONSCIENT - 2706 Theodora - JTM 1 PEU - 2706 Theodora - MON CASQUE - 2806 34murphy - la tour - 2806 Asdek - J'te Kiffe ft. Mara Sto - 2806 Beendo Z - INSPIRÉ DE FAITS RÉELS 7 2806 Bramsito - I Love You - 2806 Djadja Dinaz - Continents 2806 Elh Kmer - MILLA 2806 Fresh laDouille - La calle - 2806 Gambino - GTA 6 2806 Gemen - CERTIFIED HOOD CLASSIC - 2806 GRËJ - Les adlibs de Gunn Interlude - 2806 Hornet La Frappe - Ballon d'or - 2806 Jolagreen23 - 4BULLDOG - 2806 Kerchak - Play - 2806 KLM - NICKI - 2806 Landy - Changer ft. Guy2Bezbar - 2806 Lester - pierre lune - 2806 Moha MMZ - Ivre - 2806 MVSHY - MAGIE - 2806 Saïf - L'avalanche - 2806 Souldia - Fausse note ft. A2H - 2906 63OG - cé pour les ft. 63KLUF - 2906 Gazo Tiakola - NOTRE DAME ft. Angèle - 2906 Zitoune - Pour les sous Juillet - 0107 Artistes divers - NO PASARÁN - 0107 Zola - CSL EP. 1 - 0307 Hippocampe Fou - J'ai fini le taf - 0307 H Magnum - Knysna - 0307 Sheu - Petit ou grand - 0307 YUNG POOR ALO - La paume - 0407 Hotel Blue - Collé à lAmour - 0407 Draviss - Leroy Sané - 0407 LEVELSANTANA - ENCORE - 0407 Swing - Mérite - 0507 Brav - Un jour de plus au paradis - 0507 Gambi - HÉHÉ HÉ - 0507 GIMS - MAMACITA ft. Sfera Ebbasta - 0507 GRËJ - J'le mets pas sur lalbum gl0rilla - 0507 IDS - 3 X 1 - 0507 ihatemed Dofla - NPMV - 0507 Jayel - 3h du mat - 0507 Koba LaD - Un peu d'amour - 0507 L'Algérino - Roméo ft. Soolking - 0507 Le Dé - Cervôlan ft. Rhum One - 0507 Loko Martin Gal - Emoji - 0507 Mandyspie - Pretty Betty ft. Jaymee - 0507 Nakry - Premier pas - 0507 Rémy - Galérer - 0507 Savage Toddy - Vision floutée - 0507 Sheng - FCK SCHOOL - 0507 Sokra - Santa Monica - 0607 Allebou - TRANQUILO DE QUOI - 0907 Deelee S - Restaurant chic ft. Realo - 1007 Dalí - Détestable - 1007 Donkey - DOJA ft. Yona - 1007 Giuseppe - TOUT MISER 1007 Liim's - PROBLÈMES 1007 Owen - FREESTYLE LA PIECE - 1007 Serane - Dis moi - 1107 1PLIKÉ140 - CALMEZ-VOUS - 1107 Deelay - Chirurgie quantique ft. Adjectif - 1107 Guy2Bezbar - Monaco - 1207 A2H - La nuit où 1207 Amsi - Sans toi - 1207 Dadi - Dvm Freestyle - 1207 Hatik - Choré - 1207 La Hasba22 - CROSS - 1207 Loki Gonzales - WEEZY - 1207 Ninho Niska - Coco - 1207 OBOY - Tout y est ft. Jozii La Mano 1.9 - 1207 Rafal - L'ENFER C'EST MOI - 1207 Soso Maness - Allez ft. PLK Naps - 1207 Steban - Motown 1 - 1407 Anton Serra, Lucio Bukowski Oster Lapwass - Écriture automatique - 1407 LUMJR - NO HOOK 1 - 1507 Cheu-B - Gava - 1507 James Loup - 3 DÉFAUTS - 1707 Booska-P - Nouvelle École - Booska Freestyle - 1707 Jeune Morty - We Alive - 1707 Kai du M - Black On Black - 1707 Seth Gueko - Le marginal - 1810 FXLL Tonio 8cho - Omotunde - 1807 GLK - CARTEL DZ - 1807 Leto - J'ai l'impression - 1807 Lovarran - Morning Routine - 1907 Djadja Dinaz - La même histoire - 1907 GIMS - SOIS PAS TIMIDE - 1907 Jayel - Tatiana - 1907 Malty 2BZ - Nanas - 1907 Mécra - NO LOVE - 1907 OldPee - ANAKIN - 1907 SDM - MERCI - 1907 VEN1 - SD Night - 2107 LUMJR - NO HOOK 2 - 2207 DADI - Bah Ouais - 2207 JYEUHAIR - Misaotra - 2207 Youssef Swatt's - Générique de fin - 2307 HOUDI - TOTALLY SPIES - 2407 Lucci - Ten - 2407 Rounhaa - killa ft. Stormy - 2407 Sto - LAPTOP - 2507 Niaks - Darement - 2507 Tiakola - T.I.A - 2607 Didi B - 2025 - 2607 Gros Mo - Napoli ft. Alkpote - 2607 MadeInParis - las vegas 2607 Madrane - La valise ft. Stavo - 2807 1D1R - Caroline - 2807 H.E.M - Zinzin - 2907 TK - La trace - 3107 Afro S - LM - 3107 Genezio - EL GEMANO ft. La Mano 1.9 - 3107 Serane - Petit à petit Août - 0108 AMK - Règle No. 1 - 0108 Damys - Accélère - 0108 slump. - def jam. - 0108 TIF - Maylin - 0208 Dajak - Rayons ft. Swing 0208 Elh Kmer - WEAH 0208 Franglish - SHAKE - 0208 Maureen - TOC ft. JYEUHAIR - 0208 MHD - Full - 0208 Misa - Liens Cubains - 0208 Saamou - Jr Vini - 0408 daklaoma - petit navire - 0808 A2H - Jamais - 0808 Jwles - Bollywood ft. Slimesito - 0908 Baby Neelou - Rapporteur Vert - 0908 BLOODYSANJI - L.R. DEFENDER - 0908 Elias B4C - Cole Palmer - 0908 Lester - Faille Mystique ft. 33mello 0908 Malty 2BZ - En attendant Solitaire - 0908 Yonidas - Donne - 0908 ZKR - X-ADV 1008 Mahdi Ba - BDP ft. Norsacce Criminls - 1108 Futur Bandit - La Planète Sauvage - 1208 Chavi - BYN - 1208 Cheu-B - Block 67 - 1208 Norsacce - Trapistan - 1408 Godson Anybxdy - C'EST MZI - 1508 Lovarran - I Wanna See The Beach - 1608 13 Organisé - Bande organisée 2 ft. SCH, Kofs, JuL, Alonzo, Naps, Soso Maness, Elams, Solda Houari - 1608 D2 - Salaire de Zidane - 1608 GIMS - Terminal 2F ft. Dadju - 1608 GRËJ - Cage - 1708 Teklam - Face ID - 2008 Jeune Morty - King Troup - 2208 Deemax - UNIVERS SONS - 2208 Deemax - VILLAGE NATAL ft. Lyre - 2208 Lost - 20 Benz ft. Kekra - 2308 410 - Barbie ft. Mitch Ladrogua - 2308 Furlax - Maybach - 2308 Gambi - Tentation ft. Hamza - 2308 JYEUHAIR - VAULT - 2308 Moha MMZ - Only you - 2308 Saïf - Le bonheur est triste - 2308 T.I.S Lando - City Hope - 2308 XXXXMLZ - La ashe - 2608 Norsacce - Mirmillon - 2808 Folie's - Instinct Animal - 2808 Giuseppe - EYES ft. Twinsmatic - 2908 Advm - .SNEP. - 2908 Hotel Blue - KAIDO - 2908 Ratu - Décathlon - 3008 Ajna - MYTIME! - 3008 Brav - Liverpool ft. Youssef Swatt's - 3008 Coyote Jo Bastard - Website - 3008 Django - t'appelles ça vivre ? - 3008 Jester SHF - Centre du ring - 3008 Kaki Santana - Money Boy II - 3008 PRIME - Pourquoi - 3008 RD - Plaie ft. Mécra - 3008 Says'z - CALAPA - 3008 Tiakola - MANON B ft. Ryflo Oskoow - 3008 Trankil Trankil - Comment on surf ft. thaHomey Skuna - 3008 your.nash - leurs yeux ternis - 3008 VEN1 - Vanilla - 3108 ANTHA Jeune Ras - Pataugeoire Septembre - 0209 Diddi Trix - Les affaires - 0209 Jwles - Mon Bol - 0309 Dirlo - 140 kmh - 0309 Lucio Bukowski Tcheep - Des Siècles Des Poussières - 0309 The Strangers - Rise Together - 0409 8ruki - SWAG - 0409 Good Bana - Chez toi - 0409 Lucio Bukowski Tcheep - Les Songes que nous pouvons - 0409 Mécra - Moovie - 0409 Savage Toddy - Wife - 0509 joysad - Enfers - 0609 13 Organisé - Sous le soleil ft. JuL, LAlgérino, Alonzo, Fahar, Menzo, Le Rat Luciano, Don Choa, A.S., Vincenzo, Soprano Sat - 0609 AKISSI - PQ TU QUÉMANDES?? - 0609 babyxi - MAISON BLANCHE - 0609 B.B. Jacques - BITCHES RYADS - 0609 GIMS - Vent du Nord - 0609 James Loup - ROCKSTAROUIGO - 0609 JYEUHAIR - QUOIPOURQUOI - 0609 N3MS - LE BRUIT DES VAGUES - 0609 Ninho Niska - 911 ft. Koba LaD - 0609 Saïf - La bohème. - 0609 Spider ZED - 30 secondes - 0609 Trankil Trankil - Philosophe ft. Nicholas Craven - 0609 Zbig - Zanekkk - 0809 Farloski - Trading - 0809 Nobodylikesbirdie - Missed In Action - 0909 Triple Nine - Le Béton Le Ciel - 0909 Yovo - TROUBADOUR EN DURAG ROUGE - 1009 Khali - FREE - 1009 LEDOUBLE - MTP ANTHEM ft. OgLounis - 1109 2C - MENTALE ft. Lucci - 1109 Heloïm - ROMANCE - 1109 HOUDI - CONTRE LA GALERE - 1209 Chanje - SANG DE GREC - 1209 EDGE - Pas pour rien - 1209 Giuseppe - NCAA - 1209 Jolagreen23 - 360TrickShot - 1209 Lovarran - M. Yamamoto - 1309 Davodka - Héritage ft. Deadi Cenza 1309 Didi B - Aladji toutouya - 1309 Dosseh - Yezzir - 1309 FEDALL - CE RISQUE - 1309 Gemen - LA MAIN SUR LE COEUR - 1309 Gringe - Confession d'un hypersensible - 1309 Jeune Lion - Rozin - 1309 Josué - Raison 1309 La Famax - Ma poupée - 1309 Légendes Industries - Primo Piatto ft. JeanJass - 1309 Le Lij - Monkey 47 1309 MHD - Kata - 1309 OBOY - Un peu - 1309 Rowjay - GENERAL FINESSE FREESTYLE - 1309 Scylla - Répondez-moi 2024 Humains - 1309 SDM - TOKA ft. Hamza - 1309 Slkrack - Putain de mood ft. IDS - 1309 Tedax Max Ismayyyel - POUR LA VIE 1309 thaHomey - ALL NIGHT ft. Sonny Rave - 1309 Tri Minh - Dernier Domino - 1309 USKY - Hades - 1309 Youv Dee - 2017 - 1309 Zkr - Cur lourd ft. Massine - 1509 Khali - KHALI IL SAIT - 1609 Tiakola - FORMIDABLE - 1809 Dexter HMC - Wilder 1809 Tisma - MONOPODIUM - 1909 Dooz Kawa - Sisyphe 1909 Mola - 80 zedou - 1909 Niaks - 'Ndrangheta ft. Maes 1909 Zek - Localisable 2009 Bramsito - My Baby - 2009 Chily - Je la connais Na Yébi Yo - 2009 Gambino - Dans ta fête - 2009 Itsyaboykp - Sans Moi ft. Ashh - 2009 La F - ROCKET LEAGUE - 2009 Timal - La 17 - 2309 Khali - FOREVER 2509 77 Degrés - 77 degrés ft. RK, ISK, Negrito, Timal, UZI SenSey' - 2509 Ajna - 20 - 2509 err walou - FROZEN - 2509 gapman - B.A.B Remix ft. Enima VT - 2509 Hippocampe Fou - Respire - 2509 Implaccable - BOSS l'argent n'est rien pour moi ft. O</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres You might also like J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
+          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Verse 1 H Magnum Elle se balade dans la ville rouge à lèvres et faux cils Louboutins pour mieux toucher le ciel Ya dellali Tu la veux dans ta vie, elle demande l'impossible Casse-toi si tu roules en 107 Ya dellali Les chics type qui veulent épouser l'ennuie Tant pis elle préfère les you-voi Ya dellali En dix secondes elle tue tes économies Elle kiffe sur les hommes de pouvoir Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 2 Youcef Raifi Elle aime les magasins, les boutiques de shopping Tout pour que bébé se sente belle Encore un sac à main, jalouse entre copines Manipulatrice et sensuelle Elle kiffe les clubs et le monde de la nuit Elle danse, elle n'a jamais sommeil Tu cliques sur ses photos, sur ses selfies Quand elle tape la pose au soleil You might also like Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm yu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 3 H Magnum Elle n'est pas timide, non elle n'est pas timide Elle sait se faire désirer Elle veut une vie clean Pas faire de lèche vitrine On la regarde défiler T'as pas bien compris Si t'as pas d'oseille, si t'as pas fait de son-pri Elle va pas te calculer, pour elle t'est comme un zombie Pan lui a tout dit, tout essayé tant pis Elle a serré son footeux Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyeux du monde</t>
+          <t>Verse 1 H Magnum Elle se balade dans la ville rouge à lèvres et faux cils Louboutins pour mieux toucher le ciel Ya dellali Tu la veux dans ta vie, elle demande l'impossible Casse-toi si tu roules en 107 Ya dellali Les chics type qui veulent épouser l'ennuie Tant pis elle préfère les you-voi Ya dellali En dix secondes elle tue tes économies Elle kiffe sur les hommes de pouvoir Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 2 Youcef Raifi Elle aime les magasins, les boutiques de shopping Tout pour que bébé se sente belle Encore un sac à main, jalouse entre copines Manipulatrice et sensuelle Elle kiffe les clubs et le monde de la nuit Elle danse, elle n'a jamais sommeil Tu cliques sur ses photos, sur ses selfies Quand elle tape la pose au soleil Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm yu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 3 H Magnum Elle n'est pas timide, non elle n'est pas timide Elle sait se faire désirer Elle veut une vie clean Pas faire de lèche vitrine On la regarde défiler T'as pas bien compris Si t'as pas d'oseille, si t'as pas fait de son-pri Elle va pas te calculer, pour elle t'est comme un zombie Pan lui a tout dit, tout essayé tant pis Elle a serré son footeux Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyeux du monde</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Le Dream est là Un petit dream avant Gotham City H Magnum Dream Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Tu m'as vu à une terrasse sur les Champs man Tu voudrais bien avoir mon numéro de chambre et J'suis dans ta ville oukhty t'as trop de chance Comme un virement qui efface ton découvert Dream Tes libérable, tu passes le dernier maton Dream Ta meuf tattend pour rattraper le temps Dream Dream tendresse, fini les pâtes au thon Dans ta caisse, sur les ondes, cest mon son Dream Viens ma go sûre, ce soir on va à Galsen Non non tas pas grossis, tas lallure dune gazelle Appelle-moi Dhalsim, jtouche mes pieds en dansant Ce quil y a en dessous, bébé faudra que tassumes Cauche ! Ce soir cest le classico Real-Barça Ramène ta meuf quelle prépare les pizzas Dream Quand la zermi te dit hasta la vista Tchutchu Y a un deublé-man qui vient davoir son visa Dream You might also like Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? TchuTchu Dream Jsuis gênant gênant Jvais les traumât Ils sont pas prêts 12 du mat jme réveil, pompes, douche, gym Tablettes de chocolat, ptit jean Dream Paire de baskets, jhésite, jen ai mille Dream Jenfile les JoJo DreamSwagg Tas pris ton vol pour nous rejoindre en Thaïlande Dream Tas pas doseille, tinquiète mon pote on sarrange Dream Transat sur la plage on sallonge DreamVacances Capte une meuf dans tes bails DreamRencontre Rendez-vous dans sa chambre DreamMassage Elle est sérieuse, avec elle plus de mensonge De retour sur Bérize DreamMariage Ça cest un gros dream ça Mais la vie est un dream Dites aux MCs que jsuis leur dream Jsuis gênant Jvais les traumât Ils sont pas prêt Jsuis gênant Jvais les traumât Ils sont pas prêt Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Jsuis gênant Jvais les traumât Ils sont pas prêts Jsuis gênant Jvais les traumât Tchutchu Dream</t>
+          <t>Le Dream est là Un petit dream avant Gotham City H Magnum Dream Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Tu m'as vu à une terrasse sur les Champs man Tu voudrais bien avoir mon numéro de chambre et J'suis dans ta ville oukhty t'as trop de chance Comme un virement qui efface ton découvert Dream Tes libérable, tu passes le dernier maton Dream Ta meuf tattend pour rattraper le temps Dream Dream tendresse, fini les pâtes au thon Dans ta caisse, sur les ondes, cest mon son Dream Viens ma go sûre, ce soir on va à Galsen Non non tas pas grossis, tas lallure dune gazelle Appelle-moi Dhalsim, jtouche mes pieds en dansant Ce quil y a en dessous, bébé faudra que tassumes Cauche ! Ce soir cest le classico Real-Barça Ramène ta meuf quelle prépare les pizzas Dream Quand la zermi te dit hasta la vista Tchutchu Y a un deublé-man qui vient davoir son visa Dream Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? TchuTchu Dream Jsuis gênant gênant Jvais les traumât Ils sont pas prêts 12 du mat jme réveil, pompes, douche, gym Tablettes de chocolat, ptit jean Dream Paire de baskets, jhésite, jen ai mille Dream Jenfile les JoJo DreamSwagg Tas pris ton vol pour nous rejoindre en Thaïlande Dream Tas pas doseille, tinquiète mon pote on sarrange Dream Transat sur la plage on sallonge DreamVacances Capte une meuf dans tes bails DreamRencontre Rendez-vous dans sa chambre DreamMassage Elle est sérieuse, avec elle plus de mensonge De retour sur Bérize DreamMariage Ça cest un gros dream ça Mais la vie est un dream Dites aux MCs que jsuis leur dream Jsuis gênant Jvais les traumât Ils sont pas prêt Jsuis gênant Jvais les traumât Ils sont pas prêt Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Jsuis gênant Jvais les traumât Ils sont pas prêts Jsuis gênant Jvais les traumât Tchutchu Dream</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi J'te fais tourner la tête autant qu'un bon spliff J'ai connu la hess, igo, j'suis invincible Quand ça parle en milliers d'euros, aucune panne d'inspi H Dream, Warano, encore un bon feat Elle me dit que tous ses frères veulent me brutaliser Malgré ma politesse, j'suis pas le fils d'Hallyday Je connais la fin du film, j'suis déjà triste à l'idée Quand elle verra ma SACEM, elle va m'officialiser Tu connais l'écurie, laisse les sous tomber Fais pas semblant, c'est d'la tuerie que t'écoutes, te-bê J'suis un enfant de Gotham City, j'connais l'système D J'suis avec mon frère du Congo, dis-leur que, nous, on compte You might also like Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi Dans ce monde, rien n'est gratos À six du, les keufs te ver-le Tu connais la procédure Dénonce ou reste à l'ombre un moment Elle cherchait ce genre de mec à la fois gentil et comique Il lui dit Ok, mais promets-moi d'être jolie et soumise Affirmatif, elle bouge la tête comme dans les concerts d'Raggasonic Comme 80 des garçons, il lui dit qu'il est célib' Elle cherchait ce genre de mec à la fois gentil et comique Il lui dit Ok, mais promets-moi d'être jolie et soumise Affirmatif, elle bouge la tête comme dans les concerts d'Raggasonic Comme 80 des garçons, il lui dit qu'il est célib' Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi Millionnaire, j'dormirai pas sans mon 9 millimètres J'aurai des meilleurs amis par milliers Mais j'n'oublierai pas les vrais qui m'ont aimé Quand j'avais rien Millionnaire, j'dormirai pas sans mon 9 millimètres J'aurai des meilleurs amis par milliers Mais j'n'oublierai pas les vrais qui m'ont aimé Quand j'avais rien Ici, on ramasse des cerises, là-bas, des grosses bastos Les chefs d'État français dans des maisons closes Elle m'a pris dans ses bras, ça m'a rendu claustro' J'ai négocié la taxe, on m'a dit j'cause trop Ici, on ramasse des cerises, là-bas, des grosses bastos Les chefs d'État français dans des maisons closes Elle m'a pris dans ses bras, ça m'a rendu claustro' J'ai négocié la taxe, on m'a dit j'cause trop Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi9</t>
+          <t>Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi J'te fais tourner la tête autant qu'un bon spliff J'ai connu la hess, igo, j'suis invincible Quand ça parle en milliers d'euros, aucune panne d'inspi H Dream, Warano, encore un bon feat Elle me dit que tous ses frères veulent me brutaliser Malgré ma politesse, j'suis pas le fils d'Hallyday Je connais la fin du film, j'suis déjà triste à l'idée Quand elle verra ma SACEM, elle va m'officialiser Tu connais l'écurie, laisse les sous tomber Fais pas semblant, c'est d'la tuerie que t'écoutes, te-bê J'suis un enfant de Gotham City, j'connais l'système D J'suis avec mon frère du Congo, dis-leur que, nous, on compte Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi Dans ce monde, rien n'est gratos À six du, les keufs te ver-le Tu connais la procédure Dénonce ou reste à l'ombre un moment Elle cherchait ce genre de mec à la fois gentil et comique Il lui dit Ok, mais promets-moi d'être jolie et soumise Affirmatif, elle bouge la tête comme dans les concerts d'Raggasonic Comme 80 des garçons, il lui dit qu'il est célib' Elle cherchait ce genre de mec à la fois gentil et comique Il lui dit Ok, mais promets-moi d'être jolie et soumise Affirmatif, elle bouge la tête comme dans les concerts d'Raggasonic Comme 80 des garçons, il lui dit qu'il est célib' Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi Millionnaire, j'dormirai pas sans mon 9 millimètres J'aurai des meilleurs amis par milliers Mais j'n'oublierai pas les vrais qui m'ont aimé Quand j'avais rien Millionnaire, j'dormirai pas sans mon 9 millimètres J'aurai des meilleurs amis par milliers Mais j'n'oublierai pas les vrais qui m'ont aimé Quand j'avais rien Ici, on ramasse des cerises, là-bas, des grosses bastos Les chefs d'État français dans des maisons closes Elle m'a pris dans ses bras, ça m'a rendu claustro' J'ai négocié la taxe, on m'a dit j'cause trop Ici, on ramasse des cerises, là-bas, des grosses bastos Les chefs d'État français dans des maisons closes Elle m'a pris dans ses bras, ça m'a rendu claustro' J'ai négocié la taxe, on m'a dit j'cause trop Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi9</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>J'mettant comme la gale et j'fais mal XX Lance moi comme une pierre de Gaza face aux blindés Ma fierté qu'un jour ma XX XX Eva Mendes J'ai cramé la philosophie qu'on nous injecte La vie n'est qu'un XX que défie XX Fais pas le mec qui tangue XX J'prends le micro 10 secondes, j'te choc la France pendant 10 ans Fuck De Gaulle, et que les States le ressuscite s'ils sont XX élégant Si tu veux me toucher dans mon amour propre Pour la fierté de nos proches qui provoquent l'embrouille entre potes Dans l'7.8 ton sport de combat te servira pas XX J'ai vu des ceintures noir s'faire niquer par des ceintures G-Star XX Comme les sunnites, pour fumer du schit, jamais trop tard Nos fierté craint que la paix XX XX mais c'est c'que dise les putes et les travelos Oh pire on vendra lorsque ton marché XX, on a pas finit d'kebla Développer nos pecs, nos bras C'est la raison pour laquelle on s'tape Pour un regard qui se croisent Et croit pas que parce qu'on a les mêmes origines on est frère Elle se fou pas mal d'aller au paradis ou en enfer Du moment qu'elle y va en Porch Carrera You might also like Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur Le H vient d'sortir d'ses gonds Et j'vois que la conqu s'dégonfle Commencer le décompte La bête a quitté les décombres Sont halal comme le bacon J'fais des pompes en touchant les tétons Oui j't'étonne, le son je le découpe Dans les 2 sens j'te laisse la dépouille Question d'honneur, jhonore les mecs du sud au nord T'inquiète la hess m'a nourrit Je n'aurais que ce que j'mérite Mes frères n'ont plu le moral, veulent mourir comme Jack Mesrine Les jaloux jactent mais dans leurs têtes je sais qu'ils XX mes rimes J'avance dans un désir de 10 ans, pour les reufs en prison XX le business est devenu bizarre Ça s'vante d'avoir des joujous Ça s'prend pour Steven XX Ton pote qui t'fais des bisous Que d'sortir un désert Eagle J'marche pas avec des poulets, ni XX Mais des mecs solides, toujours là quand ça doit s'bouger Qu'on pas peur d'voir le sang couler Regarde moi dans les yeux quand tu m'sert la main enculé On n'fait pas d'omelette s'en sortir les ufs du cul d'un poulet Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur On rêve de mourir martyr Calibré dans une Aston Martin Mélange pas le rap et le deal Tu salis notre honneur Nos ego préfèrent se fournir à Nanterre qu'au Resto du Cur Confond pas fierté, orgueil Ou t'étonnes pas de te faire niquer ta gueule On met tout le peu qu'on a sur l'apparence pour cacher le reste Tu peux pas test Ils tiennent que les murs, je tiens les promesses Question d'honneur C'est calibré que nos fiertés discutent pour une question d'honneur Une question d'honneur Juste une question d'honneur Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur XX à la prod Sabry Mjnoon H Magnum</t>
+          <t>J'mettant comme la gale et j'fais mal XX Lance moi comme une pierre de Gaza face aux blindés Ma fierté qu'un jour ma XX XX Eva Mendes J'ai cramé la philosophie qu'on nous injecte La vie n'est qu'un XX que défie XX Fais pas le mec qui tangue XX J'prends le micro 10 secondes, j'te choc la France pendant 10 ans Fuck De Gaulle, et que les States le ressuscite s'ils sont XX élégant Si tu veux me toucher dans mon amour propre Pour la fierté de nos proches qui provoquent l'embrouille entre potes Dans l'7.8 ton sport de combat te servira pas XX J'ai vu des ceintures noir s'faire niquer par des ceintures G-Star XX Comme les sunnites, pour fumer du schit, jamais trop tard Nos fierté craint que la paix XX XX mais c'est c'que dise les putes et les travelos Oh pire on vendra lorsque ton marché XX, on a pas finit d'kebla Développer nos pecs, nos bras C'est la raison pour laquelle on s'tape Pour un regard qui se croisent Et croit pas que parce qu'on a les mêmes origines on est frère Elle se fou pas mal d'aller au paradis ou en enfer Du moment qu'elle y va en Porch Carrera Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur Le H vient d'sortir d'ses gonds Et j'vois que la conqu s'dégonfle Commencer le décompte La bête a quitté les décombres Sont halal comme le bacon J'fais des pompes en touchant les tétons Oui j't'étonne, le son je le découpe Dans les 2 sens j'te laisse la dépouille Question d'honneur, jhonore les mecs du sud au nord T'inquiète la hess m'a nourrit Je n'aurais que ce que j'mérite Mes frères n'ont plu le moral, veulent mourir comme Jack Mesrine Les jaloux jactent mais dans leurs têtes je sais qu'ils XX mes rimes J'avance dans un désir de 10 ans, pour les reufs en prison XX le business est devenu bizarre Ça s'vante d'avoir des joujous Ça s'prend pour Steven XX Ton pote qui t'fais des bisous Que d'sortir un désert Eagle J'marche pas avec des poulets, ni XX Mais des mecs solides, toujours là quand ça doit s'bouger Qu'on pas peur d'voir le sang couler Regarde moi dans les yeux quand tu m'sert la main enculé On n'fait pas d'omelette s'en sortir les ufs du cul d'un poulet Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur On rêve de mourir martyr Calibré dans une Aston Martin Mélange pas le rap et le deal Tu salis notre honneur Nos ego préfèrent se fournir à Nanterre qu'au Resto du Cur Confond pas fierté, orgueil Ou t'étonnes pas de te faire niquer ta gueule On met tout le peu qu'on a sur l'apparence pour cacher le reste Tu peux pas test Ils tiennent que les murs, je tiens les promesses Question d'honneur C'est calibré que nos fiertés discutent pour une question d'honneur Une question d'honneur Juste une question d'honneur Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur XX à la prod Sabry Mjnoon H Magnum</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>H Magnum Rentrez chez vous Big Black M Rentrez chez vous Fin de Dream Big Black M, H Magnum TPP T'as trop de swag Black M Arrête de bire poto Comment tu fais ? Arrête D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt You might also like J'ai fais des gosses à la Critique, je les ai appelé Disques d'Or Ferme ta gueule akhi parce que mon fils dort Gotham City, H Magnum a buté Batman C'est pas une punch'... C'est une blackline ! Attends, attends, rimes aiguisées, flow c'est qui ça ? Peggy déguisée, heu non c'est trop bizarre ! Inimitable, j'me limite pas aux MCs Mais ché-la ton idole, tu l'imites mal J'vais sponsoriser ta mif', ton clan, ta te-tan T'as le seum, t'aimerais ne pas bouger, mais le son fait que t'es dedans One shot, here we go ! Appelle moi Black Luigi C'que j'vois c'est trop gros, personne n'a le budget T'es pas prêt, sur le beat je slalome Chacun pour sa peau, en 2013, akhi c'est ça l'Homme Les cles-on au foyer, faut pas les renvoyer La vie c'est pas nos clips, ça se passe pas comme vous le voyez Problèmes, loyers, j'veux arrêter de vouvoyer T'es pas prêt Black M est malade, personne pour le soigner T'es pas prêt M'sieur l'agent, tu m'fais mal au poignet T'es pas prêt Je l'ai d'ja roulé, c'est entre moi et le douanier Laissez-moi dans mon délire, j'suis atteint j'ai pas le temps J'ai v'là le flow j'ai déjà bossé, explosé l'Apogée Attend j'vais te décomplexer, à tout jamais Tu vas ger-bou ta te-tê sur mon texte les mains en l'air Maudis Game, ils finiront tous intérimaires Oh dis-moi, mais tu n'as pas la gueule du winner ! Qu'est-ce tu racontes ? Ferme ta gueule TeddyRiner Le but c'est de taper les ventes de celui qui chantait Thriller Ça bosse, ça fait des lustres Portes et fenêtres scellées, oui la famille j'ai dû m'incruster ! D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Si tout le monde arrête de courir, vouloir être riche Je me dis qu'on pourrait profiter de nos êtres chers Le monde appartient aux gens qui ont la meilleure literie Mais qui n'ont pas plus de sentiments que Dexter Très cher, passe-moi le cro-mi qu'on en finisse, que je les punisse Tellement génie, j'peux faire rimer Dream, Nutella et Pénis Oups ! T'es pas prêt, efface mon num, retrouve moi sur la Lune BOOM je suis là ! Girl what you gonna do ? Toi qui connait tout, je vois qu't'es dans le doute Et ma douce on a vu ton boule LaureManaudou Désolé, c'est vrai que mon cerveau m'écoute peu J'ai remarqué ce truc depuis que j'suis tit-pe Issu du petit-peuple, non j'suis pas un people J'suis banal comme un renoi qui meurt d'un coup d'feu J'rappe trop bien, pas besoin d'être validé Vous m'avez négligé, j'viens vous faire valiser MC fais le tour, la prod' est balisée L'album attendu comme la mort de Johnny Hallyday C'est pas une punchline... mais c'est une bourde Donc je me désavoue mademoiselle, après vous Paris c'est fini, y a de la folie, viens me follow Petite souris, moi je serai Tom, et toi tu seras Jerry Appelle-moi H-Smith Wesson J.M Weston, j'kick sur WhatsApp T'es pas prêt, j'massacre, j'suis en mission J'ai tranché le son FleuryMichon Oups Trop de bâtons dans les roues, donc j'ai décidé de marcher MC y a du flow ici, viens faire ton marché J'suis un vrai tueur un vrai de vrai Si t'as les crocs, quand tu croquais, moi je mâchais J'tiens ma rage sous les jupons d'une meute yeah M.C.'s j'vous fais rapper mieux qu'hier D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Paroles rédigées et expliquées par la communauté RapGenius France2</t>
+          <t>H Magnum Rentrez chez vous Big Black M Rentrez chez vous Fin de Dream Big Black M, H Magnum TPP T'as trop de swag Black M Arrête de bire poto Comment tu fais ? Arrête D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt J'ai fais des gosses à la Critique, je les ai appelé Disques d'Or Ferme ta gueule akhi parce que mon fils dort Gotham City, H Magnum a buté Batman C'est pas une punch'... C'est une blackline ! Attends, attends, rimes aiguisées, flow c'est qui ça ? Peggy déguisée, heu non c'est trop bizarre ! Inimitable, j'me limite pas aux MCs Mais ché-la ton idole, tu l'imites mal J'vais sponsoriser ta mif', ton clan, ta te-tan T'as le seum, t'aimerais ne pas bouger, mais le son fait que t'es dedans One shot, here we go ! Appelle moi Black Luigi C'que j'vois c'est trop gros, personne n'a le budget T'es pas prêt, sur le beat je slalome Chacun pour sa peau, en 2013, akhi c'est ça l'Homme Les cles-on au foyer, faut pas les renvoyer La vie c'est pas nos clips, ça se passe pas comme vous le voyez Problèmes, loyers, j'veux arrêter de vouvoyer T'es pas prêt Black M est malade, personne pour le soigner T'es pas prêt M'sieur l'agent, tu m'fais mal au poignet T'es pas prêt Je l'ai d'ja roulé, c'est entre moi et le douanier Laissez-moi dans mon délire, j'suis atteint j'ai pas le temps J'ai v'là le flow j'ai déjà bossé, explosé l'Apogée Attend j'vais te décomplexer, à tout jamais Tu vas ger-bou ta te-tê sur mon texte les mains en l'air Maudis Game, ils finiront tous intérimaires Oh dis-moi, mais tu n'as pas la gueule du winner ! Qu'est-ce tu racontes ? Ferme ta gueule TeddyRiner Le but c'est de taper les ventes de celui qui chantait Thriller Ça bosse, ça fait des lustres Portes et fenêtres scellées, oui la famille j'ai dû m'incruster ! D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Si tout le monde arrête de courir, vouloir être riche Je me dis qu'on pourrait profiter de nos êtres chers Le monde appartient aux gens qui ont la meilleure literie Mais qui n'ont pas plus de sentiments que Dexter Très cher, passe-moi le cro-mi qu'on en finisse, que je les punisse Tellement génie, j'peux faire rimer Dream, Nutella et Pénis Oups ! T'es pas prêt, efface mon num, retrouve moi sur la Lune BOOM je suis là ! Girl what you gonna do ? Toi qui connait tout, je vois qu't'es dans le doute Et ma douce on a vu ton boule LaureManaudou Désolé, c'est vrai que mon cerveau m'écoute peu J'ai remarqué ce truc depuis que j'suis tit-pe Issu du petit-peuple, non j'suis pas un people J'suis banal comme un renoi qui meurt d'un coup d'feu J'rappe trop bien, pas besoin d'être validé Vous m'avez négligé, j'viens vous faire valiser MC fais le tour, la prod' est balisée L'album attendu comme la mort de Johnny Hallyday C'est pas une punchline... mais c'est une bourde Donc je me désavoue mademoiselle, après vous Paris c'est fini, y a de la folie, viens me follow Petite souris, moi je serai Tom, et toi tu seras Jerry Appelle-moi H-Smith Wesson J.M Weston, j'kick sur WhatsApp T'es pas prêt, j'massacre, j'suis en mission J'ai tranché le son FleuryMichon Oups Trop de bâtons dans les roues, donc j'ai décidé de marcher MC y a du flow ici, viens faire ton marché J'suis un vrai tueur un vrai de vrai Si t'as les crocs, quand tu croquais, moi je mâchais J'tiens ma rage sous les jupons d'une meute yeah M.C.'s j'vous fais rapper mieux qu'hier D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? You might also like Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
+          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Intro Discussion en arabe Drobt minou joj Tad a3li Papa Tad a3li Papa zid yak Wach oudi gouli a3di yal hmar Ana sidi lkher ta3dak ma3 el fstish Chkoun hada Li 7wak ya weld el 9a7ba Ta3la oujdi amouk Yallah Tfarga3 daba a zamal Wahed el Zero ya weld el 9a7ba La maille me motive une meilleure vie comme motif Sort pas d'chez toi sans y laisser c'que t'as d'plus émotif Ils veulent jouer dans notre div' sur ma mère c'est qu'des pitres Pour calmer tous ces nerfs j'dois en fumer des litres A-L Bandit gros scar-la, j'veux qu'des carats Faut que je sois parer à m'barrer d'ici, et bon débarras Sans gêne dans les escaliers, ça découpe des 100g Si ton pote d'enfance te parle plus c'est peut-être toi qui as changé Les grands de la cité sont rangés, y'en a au placard Egoïste j'vais voir ma sale gueule sur ma Blackcard Les p'tits d'chez moi bah ils te séquestrent pour ta gold Quand tu sèmes le vent c'est des bastos que tu récoltes You might also like Pour les gens pieux la vie est moche mais la mort est si belle Des fois j'aimerais être une mouche pour ressentir les décibels J'représente ville-Belle comme Halimoush et Bebel J'resterais vrais, frais et prêt jusqu'à ce que le Seigneur m'appelle Quand on s'y met tu peux faire une croix, on vient pas pacifier Demande à tonton Bruler, j'taille vif et l'compte est pillé On vient pas pactiser mais putain qu'est ce qu'on va tiser Tu m'allumes, j'te rallumes avant d'avoir cicatriser Au bled le prix du visa il coûte les yeux d'la Mona Lisa C'est Yougataga on m'commande pas j'suis pas une pizza J'rap français, je l'ai froissé j'en ai fait de la rfissa La cavale, le hebs, la gloire c'est pas arriver fissa-fissa J'suis comme l'eau qui dort, j'ai les dent qui poussent Il m'faut mes kilos d'or avant que je les liquides tous Qu'il m'avance un mètre carré j'ai envie d'me barrer J'ai vingt ans on dirait que j'en ai pris 5 cette année Tout est carré, pour la mama faire des sous fallait Sur l'terrain armé quand ça risque de rafallé Paris 5 sur le pavé, y'a des chose que t'as pas vu Toxicomane j'avoue, j'pète un garde à vue Au bistrot on m'ressert un cocktail de rue J'sais m'tenir même face à une gazelle en p'tite tenue On veut l'plein comme Phillip, rouler en 6 litres 3 On fume le game comme une tulipe, on y est tant qu'on s'y crois Woogataga, j'ai c'qui faut dans la cabeza J'pourrais acheter un Lamborghini si j'vendais l'tiers de ma pe-sa Doigt sur la gâchette, la main dans que-sa Les 3aineurs j'les prend par qu-cin niquer des mères je n'demande que ça No Times Records, j'ai à peine le temps d'niquer des 9a7' tranchant, masteriser j'suis blinder d'équerres T'allumes ta mère, j'viens à tes obsèques et j'fais semblant d'rer-pleu Comme dit XXX des mecs comme lui darwa il en reste très peu Decorticant mon seize y'a d'quoi prendre 5-6 années Crois moi qu'on va t'perdre et qu'personne ne va gagner Où est-ce que t'as planqué ton tos-ma ? m'a demandé l'douanier J'lui ai dis j'ai tout mis dans l'crâne j'avais trop besoin d'me soigner Et ouai la rue c'est paro, ma poto elle m'a rendu fou Les keufs nous prennent en photo, ces schmeta s'prennent pour fifou Paranoïaque, j'arrive une heure avant chaque rendez-vous Si t'es un brave j'allume pour oit, gratuitement j'me dévoue Entre contrôle incessant et actes insensés Tu deviens plus sain une fois blesser ou t'es mort arrosé Sous whisky coca-cola on passe du coq à l'âne On voit la coka khoya toute notre vie c'est une cavale On a du seum's et du caviar, on a d'la pers et de l'écaille Si t'as un plan laisses nous l'temps juste qu'on déniche les faille Souvent éméché tous de sacré buveur Aucun d'mes potes à la cité pourra t'raconter c'que j'ai pu faire Rien qu'ça blablate na-na-ni-na-na-nère Moi c'est Al Bandit j'baise leur mères et leur grand-mères Celui qui s'en sort Al hamdoulillah après la pluie y'a l'tonnerre Cinq dans les veujs une dans les molaires fallait pas nous mettre en colère STA-IVE Music, on va tout refroidir dans ce système solaire On va faire du biff' et puis finir dans l'rif actionnaire Investit dans une goule-ca, poushka, une bécane XXX Laisse du wari pour l'avocat dahwa en cas d'caution Khey j'suis cramé comme un keuf sur un varadero A croire qu'à mon âge j'suis devenu un parain de l'héro Ok on a pas les mêmes buts quand t'oses y aller on n'y allait plus Quand ils sont arrivés, ils leurs ont tous dis qu'on leurs a baisé leurs mères les putes T'es charmante, t'es sexy, t'es marrante suis moi Khabta j'vais t'ken comme un taulard sorti d'46 mois Woogataga rhum-pom-pom-pom-pomme J'te dis te méfier de Eve car le vice naquit par la pomme Mais ou est passer ton oseille, sérieux tu te rappelles pas En te-boi avec dix bouteilles, en train d'frotter deux p'tites kahba Aie-aie-aie, on agit avec extravagance C'est vrais qu'des fois même en prison on a l'impression d'être en vacance Ils veulent causer avec moi mais moi j'cause pas avec des brêles Tout les p'tits reufs du rap game moi j'leur remonte les bretelles L'enquêteur il m'sort une vie que j'cache à ma meuf Un kilo d'weed si tu veux qu'avec les reufs on s'plait à ta teuf T'inquiètes pas on va t'atteindre si tu joue la folle Les 3aineurs comme les groupies bah y jouissent à la demi-molle Si t'as un plan ro-ro mon soce passe au quartier Avec You on gère que des bombes appelle nous les bombardiers B-r-r-r-a-a-a le cauchemar du rectorat Si tu fais l'malin ahah ! une rafale direct aux reins Vendredi 9 Aôut reprise du championnat J'suis déréglé moi ouai j'suis tout l'contraire de ma Daytona C'est l'anniversaire à XXXX, soir-ce on nique le 7okoma Les suceurs sont dans l'coma Ils avaient trop d'sperme dans l'estomac J'vous l'avais promis bande de schmeta J'pète le million et j'quitte la France Nique l'état vive le bled, j'ai la nostalgie d'mon enfance Discussion Outro Al Bandit Raaah You faut prendre des pépètes, faut s'barrer Mister You Aaahh ! tu connais Eh! Eh! Al Bandit J'connais la banlieue d'Bériz Toutes ses avarices Quand j'ai besoin d'tendresse j'passe une nuit avec mon khalis Mister You Ahahah ! Oh le con! Woogataga, Al Bandit B-r-r-r-r-r-a-a-a-a-h !</t>
+          <t>Intro Discussion en arabe Drobt minou joj Tad a3li Papa Tad a3li Papa zid yak Wach oudi gouli a3di yal hmar Ana sidi lkher ta3dak ma3 el fstish Chkoun hada Li 7wak ya weld el 9a7ba Ta3la oujdi amouk Yallah Tfarga3 daba a zamal Wahed el Zero ya weld el 9a7ba La maille me motive une meilleure vie comme motif Sort pas d'chez toi sans y laisser c'que t'as d'plus émotif Ils veulent jouer dans notre div' sur ma mère c'est qu'des pitres Pour calmer tous ces nerfs j'dois en fumer des litres A-L Bandit gros scar-la, j'veux qu'des carats Faut que je sois parer à m'barrer d'ici, et bon débarras Sans gêne dans les escaliers, ça découpe des 100g Si ton pote d'enfance te parle plus c'est peut-être toi qui as changé Les grands de la cité sont rangés, y'en a au placard Egoïste j'vais voir ma sale gueule sur ma Blackcard Les p'tits d'chez moi bah ils te séquestrent pour ta gold Quand tu sèmes le vent c'est des bastos que tu récoltes Pour les gens pieux la vie est moche mais la mort est si belle Des fois j'aimerais être une mouche pour ressentir les décibels J'représente ville-Belle comme Halimoush et Bebel J'resterais vrais, frais et prêt jusqu'à ce que le Seigneur m'appelle Quand on s'y met tu peux faire une croix, on vient pas pacifier Demande à tonton Bruler, j'taille vif et l'compte est pillé On vient pas pactiser mais putain qu'est ce qu'on va tiser Tu m'allumes, j'te rallumes avant d'avoir cicatriser Au bled le prix du visa il coûte les yeux d'la Mona Lisa C'est Yougataga on m'commande pas j'suis pas une pizza J'rap français, je l'ai froissé j'en ai fait de la rfissa La cavale, le hebs, la gloire c'est pas arriver fissa-fissa J'suis comme l'eau qui dort, j'ai les dent qui poussent Il m'faut mes kilos d'or avant que je les liquides tous Qu'il m'avance un mètre carré j'ai envie d'me barrer J'ai vingt ans on dirait que j'en ai pris 5 cette année Tout est carré, pour la mama faire des sous fallait Sur l'terrain armé quand ça risque de rafallé Paris 5 sur le pavé, y'a des chose que t'as pas vu Toxicomane j'avoue, j'pète un garde à vue Au bistrot on m'ressert un cocktail de rue J'sais m'tenir même face à une gazelle en p'tite tenue On veut l'plein comme Phillip, rouler en 6 litres 3 On fume le game comme une tulipe, on y est tant qu'on s'y crois Woogataga, j'ai c'qui faut dans la cabeza J'pourrais acheter un Lamborghini si j'vendais l'tiers de ma pe-sa Doigt sur la gâchette, la main dans que-sa Les 3aineurs j'les prend par qu-cin niquer des mères je n'demande que ça No Times Records, j'ai à peine le temps d'niquer des 9a7' tranchant, masteriser j'suis blinder d'équerres T'allumes ta mère, j'viens à tes obsèques et j'fais semblant d'rer-pleu Comme dit XXX des mecs comme lui darwa il en reste très peu Decorticant mon seize y'a d'quoi prendre 5-6 années Crois moi qu'on va t'perdre et qu'personne ne va gagner Où est-ce que t'as planqué ton tos-ma ? m'a demandé l'douanier J'lui ai dis j'ai tout mis dans l'crâne j'avais trop besoin d'me soigner Et ouai la rue c'est paro, ma poto elle m'a rendu fou Les keufs nous prennent en photo, ces schmeta s'prennent pour fifou Paranoïaque, j'arrive une heure avant chaque rendez-vous Si t'es un brave j'allume pour oit, gratuitement j'me dévoue Entre contrôle incessant et actes insensés Tu deviens plus sain une fois blesser ou t'es mort arrosé Sous whisky coca-cola on passe du coq à l'âne On voit la coka khoya toute notre vie c'est une cavale On a du seum's et du caviar, on a d'la pers et de l'écaille Si t'as un plan laisses nous l'temps juste qu'on déniche les faille Souvent éméché tous de sacré buveur Aucun d'mes potes à la cité pourra t'raconter c'que j'ai pu faire Rien qu'ça blablate na-na-ni-na-na-nère Moi c'est Al Bandit j'baise leur mères et leur grand-mères Celui qui s'en sort Al hamdoulillah après la pluie y'a l'tonnerre Cinq dans les veujs une dans les molaires fallait pas nous mettre en colère STA-IVE Music, on va tout refroidir dans ce système solaire On va faire du biff' et puis finir dans l'rif actionnaire Investit dans une goule-ca, poushka, une bécane XXX Laisse du wari pour l'avocat dahwa en cas d'caution Khey j'suis cramé comme un keuf sur un varadero A croire qu'à mon âge j'suis devenu un parain de l'héro Ok on a pas les mêmes buts quand t'oses y aller on n'y allait plus Quand ils sont arrivés, ils leurs ont tous dis qu'on leurs a baisé leurs mères les putes T'es charmante, t'es sexy, t'es marrante suis moi Khabta j'vais t'ken comme un taulard sorti d'46 mois Woogataga rhum-pom-pom-pom-pomme J'te dis te méfier de Eve car le vice naquit par la pomme Mais ou est passer ton oseille, sérieux tu te rappelles pas En te-boi avec dix bouteilles, en train d'frotter deux p'tites kahba Aie-aie-aie, on agit avec extravagance C'est vrais qu'des fois même en prison on a l'impression d'être en vacance Ils veulent causer avec moi mais moi j'cause pas avec des brêles Tout les p'tits reufs du rap game moi j'leur remonte les bretelles L'enquêteur il m'sort une vie que j'cache à ma meuf Un kilo d'weed si tu veux qu'avec les reufs on s'plait à ta teuf T'inquiètes pas on va t'atteindre si tu joue la folle Les 3aineurs comme les groupies bah y jouissent à la demi-molle Si t'as un plan ro-ro mon soce passe au quartier Avec You on gère que des bombes appelle nous les bombardiers B-r-r-r-a-a-a le cauchemar du rectorat Si tu fais l'malin ahah ! une rafale direct aux reins Vendredi 9 Aôut reprise du championnat J'suis déréglé moi ouai j'suis tout l'contraire de ma Daytona C'est l'anniversaire à XXXX, soir-ce on nique le 7okoma Les suceurs sont dans l'coma Ils avaient trop d'sperme dans l'estomac J'vous l'avais promis bande de schmeta J'pète le million et j'quitte la France Nique l'état vive le bled, j'ai la nostalgie d'mon enfance Discussion Outro Al Bandit Raaah You faut prendre des pépètes, faut s'barrer Mister You Aaahh ! tu connais Eh! Eh! Al Bandit J'connais la banlieue d'Bériz Toutes ses avarices Quand j'ai besoin d'tendresse j'passe une nuit avec mon khalis Mister You Ahahah ! Oh le con! Woogataga, Al Bandit B-r-r-r-r-r-a-a-a-a-h !</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tú, tú, tú, tú tú, tú, tú, tú Quizá fue un error confiar en ti Solo me quieres cuando estás mal La última opción en tu lista Me cuesta creerte que por fin Luego de tanto, me quiere' Y ahora no creo en mujere' Viene' y va' cada ve' que sale mal Tú sabe' quién te va a ayudar Oh Ya yo no sé si lo pueda tolerar No te conozco nada como ante' Teníamo' una excusa Me quería y ahora, solo me usa Respóndeme bien Esta vez, quién s que eres tú? Tú, tú, tú, tú No soy tu muñco voodoo Tú, tú, tú, tú Pa' que hagas lo que quiera' a tu antojo A tu antojo Un día, verde después otro, rojo Rojo Sé que algo malo esconden tus ojos Tus ojos Quiere' hacer lo que quiere', pero no puede' Eh, eh, eh, eh You might also like No, baby, no lie Y aprovecha que me tiene loco to' ese style Wuh Junto', tenemo' una connection y es size Pero luego, algo te pasa y se pierde el Wi-Fi Así que, dime, mami, qué es lo que vamo' a hacer? Si nadie gana, si todo se llega a perder No to' se arregla con sexo luego de beber Cambia, si tú quiere', pero aquí no va a ser Porque no soy santo pa' que tú me pida' Pero luego de hacerme daño, mi vida Si hay problema, le buscamo' la salida Si no quiere', entonce', sigue con tu vida, mami Porque no voy a seguir jugando Ajá Con esto, que no' está matando Nah-nah Y que no haces nada pa' arreglar Esta vez, quién es que eres tú? Tú, tú, tú, tú No soy tu muñeco voodoo Tú, tú, tú, tú Pa' que hagas lo que quiera' a tu antojo A tu antojo Un día, verde después otro, rojo Rojo Sé que algo malo esconden tus ojos Tus ojos Quiere' hacer lo que quiere', pero no puede' Eh, eh, eh, eh Viene' y va' cada ve' que sale mal Tú sabe' quién te va a ayudar Oh Ya yo no sé si lo pueda tolerar No te conozco nada como ante' Teníamo' una excusa Me quería y ahora, solo me usa Respóndeme bien Esta vez, quién es que eres tú? Tú, tú, tú, tú yo no sé! No soy tu muñeco voodoo Oh, no tú, tú, tú, tú muñeco voodoo Pa' que hagas lo que quiera' a tu antojo Lo que quiera' a tu antojo Un día, verde después otro, rojo Rojo, oh Sé que algo malo esconden tus ojos En tus ojos Quiere' hacer lo que quiere', pero no puede' N-O-R-E-H Noreh, ah Kid Fresh Kid Fresco Mangus IVDA IVDA El Chico de la Mafia, ah Lo' mismo' bandido' Yo' que le gustan a tu chica</t>
+          <t>Tú, tú, tú, tú tú, tú, tú, tú Quizá fue un error confiar en ti Solo me quieres cuando estás mal La última opción en tu lista Me cuesta creerte que por fin Luego de tanto, me quiere' Y ahora no creo en mujere' Viene' y va' cada ve' que sale mal Tú sabe' quién te va a ayudar Oh Ya yo no sé si lo pueda tolerar No te conozco nada como ante' Teníamo' una excusa Me quería y ahora, solo me usa Respóndeme bien Esta vez, quién s que eres tú? Tú, tú, tú, tú No soy tu muñco voodoo Tú, tú, tú, tú Pa' que hagas lo que quiera' a tu antojo A tu antojo Un día, verde después otro, rojo Rojo Sé que algo malo esconden tus ojos Tus ojos Quiere' hacer lo que quiere', pero no puede' Eh, eh, eh, eh No, baby, no lie Y aprovecha que me tiene loco to' ese style Wuh Junto', tenemo' una connection y es size Pero luego, algo te pasa y se pierde el Wi-Fi Así que, dime, mami, qué es lo que vamo' a hacer? Si nadie gana, si todo se llega a perder No to' se arregla con sexo luego de beber Cambia, si tú quiere', pero aquí no va a ser Porque no soy santo pa' que tú me pida' Pero luego de hacerme daño, mi vida Si hay problema, le buscamo' la salida Si no quiere', entonce', sigue con tu vida, mami Porque no voy a seguir jugando Ajá Con esto, que no' está matando Nah-nah Y que no haces nada pa' arreglar Esta vez, quién es que eres tú? Tú, tú, tú, tú No soy tu muñeco voodoo Tú, tú, tú, tú Pa' que hagas lo que quiera' a tu antojo A tu antojo Un día, verde después otro, rojo Rojo Sé que algo malo esconden tus ojos Tus ojos Quiere' hacer lo que quiere', pero no puede' Eh, eh, eh, eh Viene' y va' cada ve' que sale mal Tú sabe' quién te va a ayudar Oh Ya yo no sé si lo pueda tolerar No te conozco nada como ante' Teníamo' una excusa Me quería y ahora, solo me usa Respóndeme bien Esta vez, quién es que eres tú? Tú, tú, tú, tú yo no sé! No soy tu muñeco voodoo Oh, no tú, tú, tú, tú muñeco voodoo Pa' que hagas lo que quiera' a tu antojo Lo que quiera' a tu antojo Un día, verde después otro, rojo Rojo, oh Sé que algo malo esconden tus ojos En tus ojos Quiere' hacer lo que quiere', pero no puede' N-O-R-E-H Noreh, ah Kid Fresh Kid Fresco Mangus IVDA IVDA El Chico de la Mafia, ah Lo' mismo' bandido' Yo' que le gustan a tu chica</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice Maître Gims s'en va, très loin quelque part Si tu jactes sur moi, je n'serai qu'à quelques pas Tu n'existes pas... krr, paw ! Ne me teste pas, casquette, lunettes, be-bar J'ai grandi sur l'ciment, entouré d'caïmans Dans l'noir, quasiment une balle avec des sentiments J'sais rien faire correctement, j'peux pas faire autrement Sept-Cinq-Double-Zéro-Neuf EmpireOttoman Dans l'hall on fumait, mal de crâne, trop d'fumée Tout ça pour oublier qu'chez moi c'est p'tit comme un comprimé Malgré ça, pas d'remède, les flics à quelques mètres Quand tu seras maître, j'serai sûrement à des kilomètres Dans l'noir on s'camoufle, plus d'deux mètres, on t'cafouille Fuck la hiérarchie je suis le champion de Capou Le chanteur de ta douce femme qui met son flouze à la Fnac Pour écouter du meu-Gui sous sa douche You might also like Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice On n'demande pas l'avis d'un mort, ni son chemin à un aveugle J'vis dans l'noir tu veux m'voir ? Fais un vu J'suis difficile à comprendre comme Hamdoulah chez les envieux Tu capteras mes punch' du mois d'mars au mois d'janvier Bande de cons, que des grandes enjambées J'suis dans l'coin, ressentez-vous l'danger ? J'vous bande les yeux vous verrez qu'j'ai pas changé J'fume pas d'shit, dans mon crâne j'ai un 100G J'fais du rap satirique, sur tes ondes satellites Et je sais qu'ça t'irrite, une gâterie ça mérite Laisse-moi juste cinq minutes, préviens ceux qui m'imitent Style, flow sans limite, pour le feat 200.000 eu' Pas d'swag Kamini, 20ème hood, Hara Kiri Quartiers Est Germanie, Wanted ChebMami Appelle-moi loi de gravité j'vais t'faire tomber Putain d'rap game moins d'salaire qu'un plombier Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice</t>
+          <t>Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice Maître Gims s'en va, très loin quelque part Si tu jactes sur moi, je n'serai qu'à quelques pas Tu n'existes pas... krr, paw ! Ne me teste pas, casquette, lunettes, be-bar J'ai grandi sur l'ciment, entouré d'caïmans Dans l'noir, quasiment une balle avec des sentiments J'sais rien faire correctement, j'peux pas faire autrement Sept-Cinq-Double-Zéro-Neuf EmpireOttoman Dans l'hall on fumait, mal de crâne, trop d'fumée Tout ça pour oublier qu'chez moi c'est p'tit comme un comprimé Malgré ça, pas d'remède, les flics à quelques mètres Quand tu seras maître, j'serai sûrement à des kilomètres Dans l'noir on s'camoufle, plus d'deux mètres, on t'cafouille Fuck la hiérarchie je suis le champion de Capou Le chanteur de ta douce femme qui met son flouze à la Fnac Pour écouter du meu-Gui sous sa douche Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice On n'demande pas l'avis d'un mort, ni son chemin à un aveugle J'vis dans l'noir tu veux m'voir ? Fais un vu J'suis difficile à comprendre comme Hamdoulah chez les envieux Tu capteras mes punch' du mois d'mars au mois d'janvier Bande de cons, que des grandes enjambées J'suis dans l'coin, ressentez-vous l'danger ? J'vous bande les yeux vous verrez qu'j'ai pas changé J'fume pas d'shit, dans mon crâne j'ai un 100G J'fais du rap satirique, sur tes ondes satellites Et je sais qu'ça t'irrite, une gâterie ça mérite Laisse-moi juste cinq minutes, préviens ceux qui m'imitent Style, flow sans limite, pour le feat 200.000 eu' Pas d'swag Kamini, 20ème hood, Hara Kiri Quartiers Est Germanie, Wanted ChebMami Appelle-moi loi de gravité j'vais t'faire tomber Putain d'rap game moins d'salaire qu'un plombier Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Juste marcher sur les chemins de la dignité Les thugs et les caille-ra sont les plus faciles à imiter Les frères et surs pensent que leur avenir est limité Que juste le crime paie qu'ils n'auront jamais ce qu'ils auraient mérité Alors on se détruit en enflammant nos propres ruelles Brulons nos propres voitures, incendions nos propres poubelles On sort les armes face à des frères issus de quartier similaire Aux nôtres, G.A.V, fourgon cellulaire et autres Nos idoles Zinedine Zidane, Henry ou Barthez Tony Parker, Joey, Nino Brown ou Scarface J'avoue que c'est dur pour tout le monde d'Evry à Barbès Trop de gâchis de génie et de potentiel par tèce Plus facile de fuck la bac que d'avoir le bac Mon père me disait si Vincent taffe jusqu'à 10h, taffe jusqu'à 2h du mat Tellement d'espoir et tellement de jeunes au périmètre Hey ! Scar-la relève la tête comme le dirait Kery James Scar-la lève la tête, la honte n'est pas que sur toi C'est dur mon salaud, nos père se sont battus pour quoi ? Pour les jeunes du ghetto fleur du béton Frères tous bé-tom ou partis partis Y a 10 tit-pe sur la place Sur les 10 y'en a 5 qui sont 100 street life Et 5 qui squattent toujours en classe 4 qui fument mais les 6 autres vont pas tarder Tous sont intelligents mais parlent comme des attardés Tous rêvent de cash et sont indécis sur leur avenir Tous adorent leur cité, y'en a aucun qui rêve de partir Tous les 10 ont les capacités de devenir grand mais Dans le hood les jeunes ne flashent que sur les chant-mé Ça devient un style, les boulettes et l'haleine alcoolisé Motivés à aller à l'encontre du non-autorisé Préfèrent la street life que la parentale autorité C'est trop niqué si t'es pas gangsta, t'es pas o.p connerie Les embrouilles, le cash, le bloc, les magnums C'est pas dans le mauvais, la vraie définition d'un homme Plusieurs fois perdu en solo dans ma merde Je me suis relevé pour honorer le vécu de mon père You might also like Scar-la lève la tête, la honte n'est pas que sur toi C'est dur mon salaud, nos père se sont battus pour quoi ? Pour les jeunes du ghetto fleur du béton Frères tous bé-tom ou partis partis Tu fais quoi papa ? Je travaille, j'écris des textes, des nouvelles chansons Enfin des trucs que tu comprendras plus tard C'est pour les grandes personnes ? Pas vraiment mais pour beaucoup de jeunes dans la street Qui errent et qui se réveillent trop tard C'est pour les petites filles et petits garçons dans la street ? Ou c'est pour chez nous au pays et tous les ghettos de la terre Quand je serais grand c'est comme toi que je veux faire J'sais pas, tu choisiras en tout cas faudra honorer ton père</t>
+          <t>Juste marcher sur les chemins de la dignité Les thugs et les caille-ra sont les plus faciles à imiter Les frères et surs pensent que leur avenir est limité Que juste le crime paie qu'ils n'auront jamais ce qu'ils auraient mérité Alors on se détruit en enflammant nos propres ruelles Brulons nos propres voitures, incendions nos propres poubelles On sort les armes face à des frères issus de quartier similaire Aux nôtres, G.A.V, fourgon cellulaire et autres Nos idoles Zinedine Zidane, Henry ou Barthez Tony Parker, Joey, Nino Brown ou Scarface J'avoue que c'est dur pour tout le monde d'Evry à Barbès Trop de gâchis de génie et de potentiel par tèce Plus facile de fuck la bac que d'avoir le bac Mon père me disait si Vincent taffe jusqu'à 10h, taffe jusqu'à 2h du mat Tellement d'espoir et tellement de jeunes au périmètre Hey ! Scar-la relève la tête comme le dirait Kery James Scar-la lève la tête, la honte n'est pas que sur toi C'est dur mon salaud, nos père se sont battus pour quoi ? Pour les jeunes du ghetto fleur du béton Frères tous bé-tom ou partis partis Y a 10 tit-pe sur la place Sur les 10 y'en a 5 qui sont 100 street life Et 5 qui squattent toujours en classe 4 qui fument mais les 6 autres vont pas tarder Tous sont intelligents mais parlent comme des attardés Tous rêvent de cash et sont indécis sur leur avenir Tous adorent leur cité, y'en a aucun qui rêve de partir Tous les 10 ont les capacités de devenir grand mais Dans le hood les jeunes ne flashent que sur les chant-mé Ça devient un style, les boulettes et l'haleine alcoolisé Motivés à aller à l'encontre du non-autorisé Préfèrent la street life que la parentale autorité C'est trop niqué si t'es pas gangsta, t'es pas o.p connerie Les embrouilles, le cash, le bloc, les magnums C'est pas dans le mauvais, la vraie définition d'un homme Plusieurs fois perdu en solo dans ma merde Je me suis relevé pour honorer le vécu de mon père Scar-la lève la tête, la honte n'est pas que sur toi C'est dur mon salaud, nos père se sont battus pour quoi ? Pour les jeunes du ghetto fleur du béton Frères tous bé-tom ou partis partis Tu fais quoi papa ? Je travaille, j'écris des textes, des nouvelles chansons Enfin des trucs que tu comprendras plus tard C'est pour les grandes personnes ? Pas vraiment mais pour beaucoup de jeunes dans la street Qui errent et qui se réveillent trop tard C'est pour les petites filles et petits garçons dans la street ? Ou c'est pour chez nous au pays et tous les ghettos de la terre Quand je serais grand c'est comme toi que je veux faire J'sais pas, tu choisiras en tout cas faudra honorer ton père</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Les magnums sont juste derrière les ceintures H Skurt Fouiny Yeah yeah, yeah yeah Yeah, jai fait un rêve jles shootais tous, pas d'Fervex quand les guns toussent Ouais, renoi les temps sont bizarres, bicrave la dure oublie la drogue douce Ouais baise les Brunes, les Blondes et les Rousses, des barrettes de shit dans la trousse En tournée aux quatre coins du monde, ces renois s'sont tournés les pouces Jai fais du biff mesdames et messieurs, ma carrière nest pas de tout repos Jai tourné jai mangé chez eux au 5 bis Alexandre Turpault Et ouais reubeu jsuis pas de leur monde et ça gros ne loublie jamais Mes blessures sont à lintérieur, ouais juste derrière mon polo Chanel Élevé au tajine, au sombi, attieké, kefta et bissap Nan, nan, cest pas moi quai changé, ces bâtards sont devenus bizarres Tfaçon un jour tout se payera, on sdéfouraille pour un terrain Yesterday les keufs mont soulevé, javais limpression dêtre un R1 Ouais pas dmandat, très peu dcourrier, quun parloir le long de ma peine Aujourdhui sur mon répertoire, jai sûrement lnumber dta chienne Nan renoi sois pas goûte-dé, ouais que Dieu soit loué Ma voiture nest pas louée, mon pare-balles nest pas troué Paraît qutas bicrave quelques barrettes, ouais tu tes trouvé en zonz' Donc tu prépares ta maquette, mais sur lterrain tes pas dans les onze Et puis jvois pas pourquoi ils sla pètent, ils nont pas la médaille de bronze Les balances appellent le 17 et moi jme barre en 911 Parler pour parler à quoi ça sert reufré ? Et pourtant quand venait le moment dallumer Les bâtards engrainaient, les voitures ont freiné, les ratatatata, les daronnes affolées Rafale énervée, les balances ont craqué, confidences avouées, les condés défilaient Le terrain est miné les petits ont filé, enlevez vos sapes et venez les écrouer You might also like Chacun son rôle chacun sa merde, que Dieu soit loué Si on a lmonopole, cest quon est pas troués Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain Yeah, ils disent que jsuis Illuminati, ils ont tord mais bon jles comprends Plus javance plus ma monnaie grandit, Dieu pardonne mais Fouiny Babe nan Jai fait un rêve comme Martin Luther, banque de France jétais duper À cquil paraît tu mas pas vu, cest normal jétais ché-per Envoie les sous, fils de pute, arrête de tweeter, renoi, agis Mon son tourne dans toutes les prisons, comme les Kub Or Maggi Comme en Ukraine, le terrain brûle, madame la juge, on t'encule Brûle les draps les chauffes les PQ, CDC 4 dans ta cellule Ceinture H avec mon pote H, on pose les magnums sur les bles-ta Jcrois quta meuf est sur mes genoux, à en croire la gueule que tas Dans mon allemande jmangeais kefta, dans la boîte à gants jai dla peufra Et si les keufs me contrôlent, jcrois qujleur signerai un autographe Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain3</t>
+          <t>Les magnums sont juste derrière les ceintures H Skurt Fouiny Yeah yeah, yeah yeah Yeah, jai fait un rêve jles shootais tous, pas d'Fervex quand les guns toussent Ouais, renoi les temps sont bizarres, bicrave la dure oublie la drogue douce Ouais baise les Brunes, les Blondes et les Rousses, des barrettes de shit dans la trousse En tournée aux quatre coins du monde, ces renois s'sont tournés les pouces Jai fais du biff mesdames et messieurs, ma carrière nest pas de tout repos Jai tourné jai mangé chez eux au 5 bis Alexandre Turpault Et ouais reubeu jsuis pas de leur monde et ça gros ne loublie jamais Mes blessures sont à lintérieur, ouais juste derrière mon polo Chanel Élevé au tajine, au sombi, attieké, kefta et bissap Nan, nan, cest pas moi quai changé, ces bâtards sont devenus bizarres Tfaçon un jour tout se payera, on sdéfouraille pour un terrain Yesterday les keufs mont soulevé, javais limpression dêtre un R1 Ouais pas dmandat, très peu dcourrier, quun parloir le long de ma peine Aujourdhui sur mon répertoire, jai sûrement lnumber dta chienne Nan renoi sois pas goûte-dé, ouais que Dieu soit loué Ma voiture nest pas louée, mon pare-balles nest pas troué Paraît qutas bicrave quelques barrettes, ouais tu tes trouvé en zonz' Donc tu prépares ta maquette, mais sur lterrain tes pas dans les onze Et puis jvois pas pourquoi ils sla pètent, ils nont pas la médaille de bronze Les balances appellent le 17 et moi jme barre en 911 Parler pour parler à quoi ça sert reufré ? Et pourtant quand venait le moment dallumer Les bâtards engrainaient, les voitures ont freiné, les ratatatata, les daronnes affolées Rafale énervée, les balances ont craqué, confidences avouées, les condés défilaient Le terrain est miné les petits ont filé, enlevez vos sapes et venez les écrouer Chacun son rôle chacun sa merde, que Dieu soit loué Si on a lmonopole, cest quon est pas troués Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain Yeah, ils disent que jsuis Illuminati, ils ont tord mais bon jles comprends Plus javance plus ma monnaie grandit, Dieu pardonne mais Fouiny Babe nan Jai fait un rêve comme Martin Luther, banque de France jétais duper À cquil paraît tu mas pas vu, cest normal jétais ché-per Envoie les sous, fils de pute, arrête de tweeter, renoi, agis Mon son tourne dans toutes les prisons, comme les Kub Or Maggi Comme en Ukraine, le terrain brûle, madame la juge, on t'encule Brûle les draps les chauffes les PQ, CDC 4 dans ta cellule Ceinture H avec mon pote H, on pose les magnums sur les bles-ta Jcrois quta meuf est sur mes genoux, à en croire la gueule que tas Dans mon allemande jmangeais kefta, dans la boîte à gants jai dla peufra Et si les keufs me contrôlent, jcrois qujleur signerai un autographe Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain3</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Re-fré c'est la guerre, guerre Tu peux me retrouver à l'after J'm'en bats les reins du game, game J'suis plus doué que ses amateurs Comment se fait-il qu'il soit aussi bon ? Va-t-il prendre la fève ? Tu crois m'connaître, tu me connais pas donc, ne m'prend pas la tête J'vais t'faire planer même sans pilon enfoiré Pas la même planète, pas le même filon enfoiré Aucun mytho, dis leur que chez nous y'a aucun mytho Aucun mytho, dis leur que chez nous y'a aucun mytho Petit millésime, te fait pas d'illusion Ne m'compare pas aux autres ils sont nullissimes Que des inédits, ne fait pas d'allusion Ne parle pas dans mon dos j'vais te fermer les cils J'fais mes propres mélodies bon j'avoue c'est pas Billie Jean Petit si mon album était une go ce serait Lady Di Les vrais me félicitent et pour ceux qui me sollicitent J'vous l'ai écris sur ma page je ne fais plus de feats Guette la folie, j'ai des fans dans la police Guette la folie, elle veut qu'on joue aux cartes dans son lit You might also like Tu connais l'usine, mate la finition Je ne ferais pas d'cadeaux à part à ma fille J'suis un érudit, j'ai des munitions Ici c'est de l'inspi pure aucun mimétisme Le rap c'est politique, ils veulent étouffer mon équipe et monétiser mon étique L'album est d'humeur olympique J'manie les mots, les filles oui venez toucher mon épée J'vous l'ai écris sur la page Je vis sur un fil Tu te demandes pourquoi j'suis si différent ? Aucun mytho, va leur dire que chez nous y'a aucun mytho Aucun mytho, va leur dire que chez nous y'a aucun mytho Je suis bien le fils de mon padre, j'suis un vrai nombo J'me suis libéré d'mes chaines comme mon poto Django Mon son fait le tour de l'Afrique de Conakry au Congo En remontant par l'Espagne chez les danseurs de Tango Mais tu peux m'voir au tieks en caisse ou à iep' Malgré mes centaines de millions de vues sur le net Quand le soleil frappe le t-shirt, les lunettes Va dire aux serveurs du Fouquet's maintenant j'peux les yape3</t>
+          <t>Re-fré c'est la guerre, guerre Tu peux me retrouver à l'after J'm'en bats les reins du game, game J'suis plus doué que ses amateurs Comment se fait-il qu'il soit aussi bon ? Va-t-il prendre la fève ? Tu crois m'connaître, tu me connais pas donc, ne m'prend pas la tête J'vais t'faire planer même sans pilon enfoiré Pas la même planète, pas le même filon enfoiré Aucun mytho, dis leur que chez nous y'a aucun mytho Aucun mytho, dis leur que chez nous y'a aucun mytho Petit millésime, te fait pas d'illusion Ne m'compare pas aux autres ils sont nullissimes Que des inédits, ne fait pas d'allusion Ne parle pas dans mon dos j'vais te fermer les cils J'fais mes propres mélodies bon j'avoue c'est pas Billie Jean Petit si mon album était une go ce serait Lady Di Les vrais me félicitent et pour ceux qui me sollicitent J'vous l'ai écris sur ma page je ne fais plus de feats Guette la folie, j'ai des fans dans la police Guette la folie, elle veut qu'on joue aux cartes dans son lit Tu connais l'usine, mate la finition Je ne ferais pas d'cadeaux à part à ma fille J'suis un érudit, j'ai des munitions Ici c'est de l'inspi pure aucun mimétisme Le rap c'est politique, ils veulent étouffer mon équipe et monétiser mon étique L'album est d'humeur olympique J'manie les mots, les filles oui venez toucher mon épée J'vous l'ai écris sur la page Je vis sur un fil Tu te demandes pourquoi j'suis si différent ? Aucun mytho, va leur dire que chez nous y'a aucun mytho Aucun mytho, va leur dire que chez nous y'a aucun mytho Je suis bien le fils de mon padre, j'suis un vrai nombo J'me suis libéré d'mes chaines comme mon poto Django Mon son fait le tour de l'Afrique de Conakry au Congo En remontant par l'Espagne chez les danseurs de Tango Mais tu peux m'voir au tieks en caisse ou à iep' Malgré mes centaines de millions de vues sur le net Quand le soleil frappe le t-shirt, les lunettes Va dire aux serveurs du Fouquet's maintenant j'peux les yape3</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hey, boucle-la, t'es pas mon père Yeah Excellent flow, excellent H, excellent Excellent flow, excellent H, excellent Excellent flow, excellent H, excellent Excellent flow, excellent H, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh ! Qui veut me caner, me saigner, me voir dévaler ? Rafale de plomb dans leur palais et les jaloux ne pourront plus parler Yes Chialer, c't'année sera salée Dans c'game trop d'salopes, quand j'rappe ça sent l'homme Quand tu m'vois, akhi passe-moi l'salam Reste pas là c'est plus chaud que le hammam Paname, le trône s'trouve par là A.D. passe-moi ta lame que j'les rende tous hallal Ma vérité sort de ta che-bou comme une glace Tu veux un feat' ? Va prendre ta che-dou, rien n'est gratos J'vais vous faire avorter Rhaap... Tfou ! Hassoul, poussez vous j'arrive en char d'assaut J'suis trop haut bouffon, comment m'suriner ? Ceux qui nous crachent dessus reçoivent les gouttes sur le nez J'côtoie des haramistes, des mecs sans limite Qui t'serrent la main et juste après t'éliminent You might also like Excellent flow, excellent Fall, excellent Excellent flow, excellent Fall, excellent Excellent flow, excellent Fall, excellent Excellent flow, excellent Fall, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh ! J'vais pas faire l'orgueilleux mais franchement tester qui peut ? Quand y'en a un qui s'rate derrière y'a l'reste de l'équipe Les mecs ils s'croient trop forts mais wesh c'est tous des tits-pe Ils parlent, ils parlent mais s'barrent en douce dès qu'ils peuvent Me compare à ceux qui faisaient la teuf' pendant qu'on taffait À côté de mon parcours akhi leurs bluffs c'est des contes de fée On s'place en tête des charts, en fait c'est pour ça qu'ils nous détestent Mais si le rap était un diplôme tout le monde devrait repasser des tests Yes, I speak English motherfucker Pas d'soucis j'comprends si tu iè-ch dans ton froc Wouah, bah dis donc j'ai du swag Pour les autres candidats, disons que ça dissuade Faut pas qu'j'me la raconte, on va m'jeter l'il Mais si sur un skeud' y'a mon nom achetez-le Han Wati B, excellent Excellent flow, excellent, excellent Excellent flow, excellent Gims, excellent Excellent flow, excellent Gims, excellent Excellent flow, excellent Gims, excellent Excellent flow, excellent Gims, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh ! Tu veux des sons caliente, des tas d'featurings, demande au Wati Boss Ici rien qu'ça bosse, t'es tombé sur un os, fuck tes fêtes de noces Voilà l'monstre du Loch Ness, où sont passé vos loc' ? Pour mon zin-cou Noko on a la vida loca J'suis sur la voie d'bus, me parle pas de piste cyclable T'inquiète pas la mif, j'suis encore à faire des ssique-cla Ils se demandent tous Maître Gims mais qu'est-ce qui se passe ? J'deviens impoli comme les Simpsons ou South Park Ouais les gens j'vais vous crever, rafale chavaud dans les cavus Qu'est-ce qui se passe ? Ambiancé que si là c'est Me-gi, l'perso stique-my Ambiance canicule, j'viens vous péter la clavicule Ça va grave vite j'vais tout gravir comme c't'enfoiré d'Mister Kravitz Ose me dire qu'on a pas percé, puis faire du sale c'est la vocation Bande d'enfoirés, retenez bien, y'a pas que Bruel qu'a la voix cassée D'un côté t'as Maître Gims, la rivière, les rivaux Tu m'as vu, pleins phares, voie d'bus, rue Rivo Excellent flow, excellent Wa, excellent Excellent flow, excellent Wa, excellent Excellent flow, excellent Wa, excellent Excellent flow, excellent Wa, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh !3</t>
+          <t>Hey, boucle-la, t'es pas mon père Yeah Excellent flow, excellent H, excellent Excellent flow, excellent H, excellent Excellent flow, excellent H, excellent Excellent flow, excellent H, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh ! Qui veut me caner, me saigner, me voir dévaler ? Rafale de plomb dans leur palais et les jaloux ne pourront plus parler Yes Chialer, c't'année sera salée Dans c'game trop d'salopes, quand j'rappe ça sent l'homme Quand tu m'vois, akhi passe-moi l'salam Reste pas là c'est plus chaud que le hammam Paname, le trône s'trouve par là A.D. passe-moi ta lame que j'les rende tous hallal Ma vérité sort de ta che-bou comme une glace Tu veux un feat' ? Va prendre ta che-dou, rien n'est gratos J'vais vous faire avorter Rhaap... Tfou ! Hassoul, poussez vous j'arrive en char d'assaut J'suis trop haut bouffon, comment m'suriner ? Ceux qui nous crachent dessus reçoivent les gouttes sur le nez J'côtoie des haramistes, des mecs sans limite Qui t'serrent la main et juste après t'éliminent Excellent flow, excellent Fall, excellent Excellent flow, excellent Fall, excellent Excellent flow, excellent Fall, excellent Excellent flow, excellent Fall, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh ! J'vais pas faire l'orgueilleux mais franchement tester qui peut ? Quand y'en a un qui s'rate derrière y'a l'reste de l'équipe Les mecs ils s'croient trop forts mais wesh c'est tous des tits-pe Ils parlent, ils parlent mais s'barrent en douce dès qu'ils peuvent Me compare à ceux qui faisaient la teuf' pendant qu'on taffait À côté de mon parcours akhi leurs bluffs c'est des contes de fée On s'place en tête des charts, en fait c'est pour ça qu'ils nous détestent Mais si le rap était un diplôme tout le monde devrait repasser des tests Yes, I speak English motherfucker Pas d'soucis j'comprends si tu iè-ch dans ton froc Wouah, bah dis donc j'ai du swag Pour les autres candidats, disons que ça dissuade Faut pas qu'j'me la raconte, on va m'jeter l'il Mais si sur un skeud' y'a mon nom achetez-le Han Wati B, excellent Excellent flow, excellent, excellent Excellent flow, excellent Gims, excellent Excellent flow, excellent Gims, excellent Excellent flow, excellent Gims, excellent Excellent flow, excellent Gims, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh ! Tu veux des sons caliente, des tas d'featurings, demande au Wati Boss Ici rien qu'ça bosse, t'es tombé sur un os, fuck tes fêtes de noces Voilà l'monstre du Loch Ness, où sont passé vos loc' ? Pour mon zin-cou Noko on a la vida loca J'suis sur la voie d'bus, me parle pas de piste cyclable T'inquiète pas la mif, j'suis encore à faire des ssique-cla Ils se demandent tous Maître Gims mais qu'est-ce qui se passe ? J'deviens impoli comme les Simpsons ou South Park Ouais les gens j'vais vous crever, rafale chavaud dans les cavus Qu'est-ce qui se passe ? Ambiancé que si là c'est Me-gi, l'perso stique-my Ambiance canicule, j'viens vous péter la clavicule Ça va grave vite j'vais tout gravir comme c't'enfoiré d'Mister Kravitz Ose me dire qu'on a pas percé, puis faire du sale c'est la vocation Bande d'enfoirés, retenez bien, y'a pas que Bruel qu'a la voix cassée D'un côté t'as Maître Gims, la rivière, les rivaux Tu m'as vu, pleins phares, voie d'bus, rue Rivo Excellent flow, excellent Wa, excellent Excellent flow, excellent Wa, excellent Excellent flow, excellent Wa, excellent Excellent flow, excellent Wa, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh !3</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>75, Capitale du rap ! H Magnum, Sexion dAssaut on t'tue dans luf Cest encore nous bâtard Sexion dAssaut a.k.a léquipe qui tfout le cafard Fais pas lfou ça part deuss un coup d'sabate Tu veux savoir quand est-ce quon a formé l'groupe, ça date Jpratique des techniques interdites Jpéra pour le palace au bled, pas pour une baraque en terre cuite Demande à Barack Adama, gros ça kick lourd sur tous les titres Rassures-moi, tu rigoles quand tu dis quon est quittes ? J'te présente plus mon équipe, cest des dingues pour qui céder Est impossible, jveux pas vendre mille mais un llion-mi dCD Ya H-Magnum, donc ça kicke façon sale Explique-moi c'que vont faire des couteaux suisses face aux sabres akhi Moi jpé-fra dans les points vitaux Jsuis l'désert quest-ce tu vas faire avec ta teille dun litre deau ? akhi On va pas s'mytho tas pas létoffe Cette fois-ci j'te l'dis les élèves rattraperont pas les profs Une blessure bénigne, tout dabord que Dieu nous bénisse J'suis sur une péniche élabore ainsi le périple Jme barre à Tunis v'nez à bord que je vous bénisse J'suis pas net aux manettes, 75 une autre planète ! Ça plus que jamais, nous tester ne venez jamais J'ramène un flow très amer pour les vrais pas pour les zamel Ceux qui trahissent leurs amis pour le seille-o se font saigner You might also like Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo J'suis pas dans mon assiette, me raconte pas trop d'salades Parlons comme à lépoque où ça chantait sous haya Oui, sous haya f-faya, ça parlait de playa De stars et du catch et des flyers de la gente féminine en tailleur Ça cest lépoque où jétais fou Et p't-être lépoque où j'voyais flou Jfréquente des gens qui prennent des décisions sous rabta Malgré tout mes acolytes sont aptes à Mettre des coups avec le flow la tech' le fond la forme quoi tout y est Tous les coups sont permis, guette comment jmempare de Facebook Que Dieu nous préserve de tomber dans le gouffre H Magnum, faut pas tomber dans le gouffre On vise le front la tête la ferme on compte bien toublier Un taf de pro la fête est finie, jai dégoupillé Dans lgame ya plus déthique que des ptits cons qui louvrent Stressent quand on fait bouh ! Pas ltemps dbrailler, on est là pour mailler, grailler Mouiller le maillot ne sert à rien, cest nous les meilleurs Paris gars cest New-York, chez la concurrence cest l'néant Jles hante, viens dans les méandres puantes des MC brillants Mi-homme, mi-hyène yo, dans le ciel on rayonne Rage de lion caméléon vos rappeurs sont sous Valium Sexion que des phénomènes, on a le polo Ralph Badman Bomboclaat Ba-Badman ! Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo Cest pour mes maliens qui ont dla mala qui bouffent hallal à la maison Malheur à ceux qui parlent fort ou mal à mes oncles Jveux rouler, arpenter les rues avec ou sans hard-top Arr do afin dte montrer quon peut être hardcore Akhi regarde , y'a une équipe de chacals Dès qu'y a pas de , quand tu vois tout ça, ça tcalme Chez nous le tchouraï est à la mode plus que Ushaïa Pousse-toi ya Sexion dAssaut soyez tous loyaux En manque de ous moins ya dflouss plus cest lgouffre Noyade apnée, on sétouffe crois-moi cest brouillard secousses khouya A.D. ! Yeetodi Diallo comme Black M On fera un come-back dans les villes du bled comme Bakel Si tu mtrouves tête en lair cest p't'être que jcrois qu'largent tombe du ciel Les ptites surs sont plus saines certaines dentre elles sont plus pucelles La scène française est épuisée, pour qu'tu puisses régner faut qu'tu saignes Le succès sboit cul sec dévoile tes parties les plus zen Comme une sape qui tserre, la BAC te plaque, discerne Les putes des bons quand tous tes gars s'dispersent et te laissent en hass Le pe-ra donne son flow, faut pas quil sbaisse en dessous des fesses Tfaçon ya tout un tas de business Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo Jaurais aimé tparler damour comme tonton Petiello Mais jme sens comme si on m'devait un putain d'million deuros Serait-ce la faute dun bout-mara ou celle du petit bout marron ? Jen rigole mais cest pas marrant tout mrevient dessus comme un boomerang Nerveux avec mon petit galbe, jai Vu un tas dpetits petits petits jouer les gadjos Demande-moi quest-ce quun homme jte répondrai mon daron Touche à la famille et cest la guerre que nous déclarons Cest mon quart dheure de folie, bien sûr qu'la foule est affolée Chez nous on dit stade rempli, Black M reprise de volée LAfrique qui fait la ola, lOccident en guise de pickpocket Akhi cest mieux faut pas tmoquer ok ! Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo1</t>
+          <t>75, Capitale du rap ! H Magnum, Sexion dAssaut on t'tue dans luf Cest encore nous bâtard Sexion dAssaut a.k.a léquipe qui tfout le cafard Fais pas lfou ça part deuss un coup d'sabate Tu veux savoir quand est-ce quon a formé l'groupe, ça date Jpratique des techniques interdites Jpéra pour le palace au bled, pas pour une baraque en terre cuite Demande à Barack Adama, gros ça kick lourd sur tous les titres Rassures-moi, tu rigoles quand tu dis quon est quittes ? J'te présente plus mon équipe, cest des dingues pour qui céder Est impossible, jveux pas vendre mille mais un llion-mi dCD Ya H-Magnum, donc ça kicke façon sale Explique-moi c'que vont faire des couteaux suisses face aux sabres akhi Moi jpé-fra dans les points vitaux Jsuis l'désert quest-ce tu vas faire avec ta teille dun litre deau ? akhi On va pas s'mytho tas pas létoffe Cette fois-ci j'te l'dis les élèves rattraperont pas les profs Une blessure bénigne, tout dabord que Dieu nous bénisse J'suis sur une péniche élabore ainsi le périple Jme barre à Tunis v'nez à bord que je vous bénisse J'suis pas net aux manettes, 75 une autre planète ! Ça plus que jamais, nous tester ne venez jamais J'ramène un flow très amer pour les vrais pas pour les zamel Ceux qui trahissent leurs amis pour le seille-o se font saigner Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo J'suis pas dans mon assiette, me raconte pas trop d'salades Parlons comme à lépoque où ça chantait sous haya Oui, sous haya f-faya, ça parlait de playa De stars et du catch et des flyers de la gente féminine en tailleur Ça cest lépoque où jétais fou Et p't-être lépoque où j'voyais flou Jfréquente des gens qui prennent des décisions sous rabta Malgré tout mes acolytes sont aptes à Mettre des coups avec le flow la tech' le fond la forme quoi tout y est Tous les coups sont permis, guette comment jmempare de Facebook Que Dieu nous préserve de tomber dans le gouffre H Magnum, faut pas tomber dans le gouffre On vise le front la tête la ferme on compte bien toublier Un taf de pro la fête est finie, jai dégoupillé Dans lgame ya plus déthique que des ptits cons qui louvrent Stressent quand on fait bouh ! Pas ltemps dbrailler, on est là pour mailler, grailler Mouiller le maillot ne sert à rien, cest nous les meilleurs Paris gars cest New-York, chez la concurrence cest l'néant Jles hante, viens dans les méandres puantes des MC brillants Mi-homme, mi-hyène yo, dans le ciel on rayonne Rage de lion caméléon vos rappeurs sont sous Valium Sexion que des phénomènes, on a le polo Ralph Badman Bomboclaat Ba-Badman ! Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo Cest pour mes maliens qui ont dla mala qui bouffent hallal à la maison Malheur à ceux qui parlent fort ou mal à mes oncles Jveux rouler, arpenter les rues avec ou sans hard-top Arr do afin dte montrer quon peut être hardcore Akhi regarde , y'a une équipe de chacals Dès qu'y a pas de , quand tu vois tout ça, ça tcalme Chez nous le tchouraï est à la mode plus que Ushaïa Pousse-toi ya Sexion dAssaut soyez tous loyaux En manque de ous moins ya dflouss plus cest lgouffre Noyade apnée, on sétouffe crois-moi cest brouillard secousses khouya A.D. ! Yeetodi Diallo comme Black M On fera un come-back dans les villes du bled comme Bakel Si tu mtrouves tête en lair cest p't'être que jcrois qu'largent tombe du ciel Les ptites surs sont plus saines certaines dentre elles sont plus pucelles La scène française est épuisée, pour qu'tu puisses régner faut qu'tu saignes Le succès sboit cul sec dévoile tes parties les plus zen Comme une sape qui tserre, la BAC te plaque, discerne Les putes des bons quand tous tes gars s'dispersent et te laissent en hass Le pe-ra donne son flow, faut pas quil sbaisse en dessous des fesses Tfaçon ya tout un tas de business Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo Jaurais aimé tparler damour comme tonton Petiello Mais jme sens comme si on m'devait un putain d'million deuros Serait-ce la faute dun bout-mara ou celle du petit bout marron ? Jen rigole mais cest pas marrant tout mrevient dessus comme un boomerang Nerveux avec mon petit galbe, jai Vu un tas dpetits petits petits jouer les gadjos Demande-moi quest-ce quun homme jte répondrai mon daron Touche à la famille et cest la guerre que nous déclarons Cest mon quart dheure de folie, bien sûr qu'la foule est affolée Chez nous on dit stade rempli, Black M reprise de volée LAfrique qui fait la ola, lOccident en guise de pickpocket Akhi cest mieux faut pas tmoquer ok ! Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo1</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres You might also like J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
+          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jungle Beats, Holla at me I don't like the look of it Ich spitte crazy Shit Magnum in der Hand, thats my Lady Bitch Ich und MBeezy driven im Merzedes Benz Und wenn du Whack-MC mich noch nicht erkennst Muss ich mich erstmal Vorstellen, Ladys and Gentlemen Hello World, mein Name ist Tejay Der Codein-sippende, Blunt-spiffende Trizzy Ich bin die Revolution, ich bin New School Stirling meine Uhr, wie ein Spieler aus Liverpool Money over Bitches Mich interessiert nur Moola Das ich sowieso Ausgebe bei Jacob Da Jewla Man, ich trag die Snapback Von meinem Hals hängen mehr als nur Two Chains Ich hab mehr Eis um meinem hals als dieser Yu-Gi-Oh Mir fehlt die Whacknes, wer sie findet kriegt nen guten Finderlohn Ich ficke Pussys in der Sorte von Karmen Electra Die Bitch war genau so juicy wie Orangennektar Für mein Talent bedank ich mich bei Gott Ich kenn keiner der Dope ist, die Ausnahme ist mein Bra Ich mache was ich will, nenn mich Beatkiller Ich flowe cooler als ne Pittsburgh-Nacht, Mac Miller Ich bin Higher wie die Schreie von Karatemeistern Meine Gs gibts nicht zu kaufen, die sind maßgeschneidert Du machst auf überkrassen G in den Streets Doch deine Klamotten sind wie Kükenlaute, ziemlich Cheep Ich und Flirt sind ein Team wie Miami Vice Fliegen mit dem Koks nach Miami und machen Miami weiß You might also likeEy warte ich muss kurz an meinem Blunt ziehen Back to the future, die Zukuft ist am Mic In diesem Raum sind alle wie Bodybuilder, überkrass breit Und in der Innentasche der Jeansjacke von Zara befinden sich 300 die so draufgehen wie Sparta Ich bin so Dope, mein Dopingtest war positiv Ich bin kein Mörder, aber kille den Beat von Jungle Beats Ich kandidiere für die nächste Präsidentenwahl Tejay und Money Boy die Macs wie im Fernsehkanal Ich bin back auf meinem Grizzly Und ich stacke meine Jipsy Kartenspieler im Casino Money älter als ein Vino Guck mal mein leben ist ein Movie so wie Spielfilme im Kino Und mein Video sieht aus als wäre es von Quentin Tarantino Guck ich chille jetzt in Philli und esse dort bei Ginos Chilly chease steaks und mach Drogen im Ghetto mit Latinos Ich erschieß dich wie Young Vito Mache Party, sippe Kiko Und das Koka was ich ziehe ist mucho bien Ey ich zahl sieben für ein Kilo, hol es ab in Puerto Rico Fliege weiter nach Jamaica und kauf Weed dort in Montego Ich rock Jeans von Valentino und trag T-Shirts von Marc Und die Chikas lutschen meinen Schwanz in Bad wie ein Cornetto Ich wuchs auf in einem Ghetto Musste klauen wie bei Netto Heute zahl ich meinen Jet Bar Mein Haus mit hundert Hektar Hab ein Indoorpool im Haus drin Einen Autopool und Knete Einen Basketball und Tennisballplatz Den ich niemals betrete Ich bin auf der Jagd nach Mäusen Und zwar ähnlich so wie Katzen, Partner Und mache mehr Umsatz als das Dänische Matratzenlager Rapper legen die Karriere jetzt auf Eis wie Wayne Denn wenn nicht dann bringe ich sie um wie in Itchy und Scratchy Wenn ich sage ich hab Chips und Cheese Dann meine ich nicht Doritos Homeboy, Ich bin cooler als die Fischstäbchen des Captain Iglos Hater sind am haten, was erwartest du von Haters Player Ich hingegen mache jetzt mein Paper als ein Lakers Player Kobe Was du siehst in meinem Mund sind Grills und kein Zahnersatz Und mein Schwanz ist lang und zwar ähnlich wie ein Fahnenmast Sheesh Ich fick geile Modelbitches, so wie die Irina Shayk Und will ne Million für die Buchstaben im Alphabet A, B, C, D, E, F, G, H, I , J, K, L, M, N, O, P, Q, R, S, T, U, V, W, X, Y, Z Fly wie ein Zeppelin Fly wie ein Schmetterling Es gibt keinen Zweifel Mister Money ist Swagger King Yessur</t>
+          <t>Jungle Beats, Holla at me I don't like the look of it Ich spitte crazy Shit Magnum in der Hand, thats my Lady Bitch Ich und MBeezy driven im Merzedes Benz Und wenn du Whack-MC mich noch nicht erkennst Muss ich mich erstmal Vorstellen, Ladys and Gentlemen Hello World, mein Name ist Tejay Der Codein-sippende, Blunt-spiffende Trizzy Ich bin die Revolution, ich bin New School Stirling meine Uhr, wie ein Spieler aus Liverpool Money over Bitches Mich interessiert nur Moola Das ich sowieso Ausgebe bei Jacob Da Jewla Man, ich trag die Snapback Von meinem Hals hängen mehr als nur Two Chains Ich hab mehr Eis um meinem hals als dieser Yu-Gi-Oh Mir fehlt die Whacknes, wer sie findet kriegt nen guten Finderlohn Ich ficke Pussys in der Sorte von Karmen Electra Die Bitch war genau so juicy wie Orangennektar Für mein Talent bedank ich mich bei Gott Ich kenn keiner der Dope ist, die Ausnahme ist mein Bra Ich mache was ich will, nenn mich Beatkiller Ich flowe cooler als ne Pittsburgh-Nacht, Mac Miller Ich bin Higher wie die Schreie von Karatemeistern Meine Gs gibts nicht zu kaufen, die sind maßgeschneidert Du machst auf überkrassen G in den Streets Doch deine Klamotten sind wie Kükenlaute, ziemlich Cheep Ich und Flirt sind ein Team wie Miami Vice Fliegen mit dem Koks nach Miami und machen Miami weiß Ey warte ich muss kurz an meinem Blunt ziehen Back to the future, die Zukuft ist am Mic In diesem Raum sind alle wie Bodybuilder, überkrass breit Und in der Innentasche der Jeansjacke von Zara befinden sich 300 die so draufgehen wie Sparta Ich bin so Dope, mein Dopingtest war positiv Ich bin kein Mörder, aber kille den Beat von Jungle Beats Ich kandidiere für die nächste Präsidentenwahl Tejay und Money Boy die Macs wie im Fernsehkanal Ich bin back auf meinem Grizzly Und ich stacke meine Jipsy Kartenspieler im Casino Money älter als ein Vino Guck mal mein leben ist ein Movie so wie Spielfilme im Kino Und mein Video sieht aus als wäre es von Quentin Tarantino Guck ich chille jetzt in Philli und esse dort bei Ginos Chilly chease steaks und mach Drogen im Ghetto mit Latinos Ich erschieß dich wie Young Vito Mache Party, sippe Kiko Und das Koka was ich ziehe ist mucho bien Ey ich zahl sieben für ein Kilo, hol es ab in Puerto Rico Fliege weiter nach Jamaica und kauf Weed dort in Montego Ich rock Jeans von Valentino und trag T-Shirts von Marc Und die Chikas lutschen meinen Schwanz in Bad wie ein Cornetto Ich wuchs auf in einem Ghetto Musste klauen wie bei Netto Heute zahl ich meinen Jet Bar Mein Haus mit hundert Hektar Hab ein Indoorpool im Haus drin Einen Autopool und Knete Einen Basketball und Tennisballplatz Den ich niemals betrete Ich bin auf der Jagd nach Mäusen Und zwar ähnlich so wie Katzen, Partner Und mache mehr Umsatz als das Dänische Matratzenlager Rapper legen die Karriere jetzt auf Eis wie Wayne Denn wenn nicht dann bringe ich sie um wie in Itchy und Scratchy Wenn ich sage ich hab Chips und Cheese Dann meine ich nicht Doritos Homeboy, Ich bin cooler als die Fischstäbchen des Captain Iglos Hater sind am haten, was erwartest du von Haters Player Ich hingegen mache jetzt mein Paper als ein Lakers Player Kobe Was du siehst in meinem Mund sind Grills und kein Zahnersatz Und mein Schwanz ist lang und zwar ähnlich wie ein Fahnenmast Sheesh Ich fick geile Modelbitches, so wie die Irina Shayk Und will ne Million für die Buchstaben im Alphabet A, B, C, D, E, F, G, H, I , J, K, L, M, N, O, P, Q, R, S, T, U, V, W, X, Y, Z Fly wie ein Zeppelin Fly wie ein Schmetterling Es gibt keinen Zweifel Mister Money ist Swagger King Yessur</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>La mode, ça tourne en rond, j'suis en Fila T'inquiète pas, j'connais très bien ces filles-là Elle va t'pomper le sang, comme Dracula Dégagez-moi l'passage, j'vais vous ver-la Tu viens d'voir Warano, petit veinard Toujours à 160 dans les virages Tu mourras si tu as vu mon vrai visage Un survivant pour faire passer le message La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game You might also like Un café pimenté, j'suis en terrasse Tu voulais piloter, oui, mais hélas Tu t'es fait siroter dans un bel axe Tu cries au coup monté mais c'est tenace Tu kiffes l'Avenue Montaigne et les villas Les gros bonnets, oh, la vilaine Sans commentaire ma che bella Y'a pas de romancier à Marbella Les tits-pe ne connaissent pas Mandela Ils préfèrent le dernier Panamera Je chanterai pour ton umbrella Mwen ké fend' tchou aw Angela Mon cur est si monté, j'ai le dos large Dès que j'ai pris mon pied, je tire deux lattes Belek, les îlotiers parlent au barman J'suis plus proche de Guy Môquet que d'Obama La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Me laissez pas sortir, oh Pour moi, c'est toujours la pleine lune, oh J'suis dans tous les endroits sordides, oh La nuit, j'cherche des problèmes, la journée, des excuses Dites à vos agents d'arrêter d'm'appeler T'as cru qu'j'rappais pour jouer dans ton navet ? Ma mère se demande si j'suis toujours en vie J'ai dû lui faire croire que j'étais Banksy Tellement déchiré, faut m'sous-titrer Sapé comme jamais, personne devrait s'habiller À mon meilleur, comme ta meuf avant la soirée J'fais ça salement, comme ta meuf après la soirée ok Si tu m'vois près d'un distributeur à billets Après vingt-deux heures, c'est pas pour faire un truc bien En fait, la nuit, c'est seulement pour me fatiguer Cernes sous les yeux tellement grosses que j'y vois plus rien La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game3</t>
+          <t>La mode, ça tourne en rond, j'suis en Fila T'inquiète pas, j'connais très bien ces filles-là Elle va t'pomper le sang, comme Dracula Dégagez-moi l'passage, j'vais vous ver-la Tu viens d'voir Warano, petit veinard Toujours à 160 dans les virages Tu mourras si tu as vu mon vrai visage Un survivant pour faire passer le message La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Un café pimenté, j'suis en terrasse Tu voulais piloter, oui, mais hélas Tu t'es fait siroter dans un bel axe Tu cries au coup monté mais c'est tenace Tu kiffes l'Avenue Montaigne et les villas Les gros bonnets, oh, la vilaine Sans commentaire ma che bella Y'a pas de romancier à Marbella Les tits-pe ne connaissent pas Mandela Ils préfèrent le dernier Panamera Je chanterai pour ton umbrella Mwen ké fend' tchou aw Angela Mon cur est si monté, j'ai le dos large Dès que j'ai pris mon pied, je tire deux lattes Belek, les îlotiers parlent au barman J'suis plus proche de Guy Môquet que d'Obama La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Me laissez pas sortir, oh Pour moi, c'est toujours la pleine lune, oh J'suis dans tous les endroits sordides, oh La nuit, j'cherche des problèmes, la journée, des excuses Dites à vos agents d'arrêter d'm'appeler T'as cru qu'j'rappais pour jouer dans ton navet ? Ma mère se demande si j'suis toujours en vie J'ai dû lui faire croire que j'étais Banksy Tellement déchiré, faut m'sous-titrer Sapé comme jamais, personne devrait s'habiller À mon meilleur, comme ta meuf avant la soirée J'fais ça salement, comme ta meuf après la soirée ok Si tu m'vois près d'un distributeur à billets Après vingt-deux heures, c'est pas pour faire un truc bien En fait, la nuit, c'est seulement pour me fatiguer Cernes sous les yeux tellement grosses que j'y vois plus rien La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game3</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Une balle dans le crâne parce que tu n'en fais qu'à ta tête Intouchable comme le mari d'Bernadette Trop d'écart qui nous sépare grosso modo T'as échoué sur l'île de Komodo ! What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man J'vis sur le fil du rasoir, tu sais ça donc fais pas zerma Proche de l'état du dass et des liasses que les tasses amassent Oui c'est bien moi khouya, j'cascade toujours de squat en squat Le mic là-bas là, passe le moi que j'en place une petite pour Gassama Dans le Jeu trop t'agacent, faut que je sois le premier de la classe T'as pris du level, mash'Allah, c'est grâce à eux ou grâce à moi ? Tu m'as vu en guest ce mois, les groupies veulent me cker-sma Qu'on fasse un tour à Châtelet pour que j'leur pé-cho des keuss à mains Dingue j'le suis quasiment, surtout quand ça parle Casamance Chauffe nous encore un peu si tu veux vraiment qu'on s'amorce Rien qu'on s'clashe, rien qu'on stagne Putain rien qu'on se cane et rien qu'on s'tape Mon flow parle toutes les langues Mboté na yo Sayonara, Hello puis Guten tag Et des sons comme ça, j'en tente un tas J'suis dans tes contacts et qu't'appelles dès que t'as le time Pas de beats flingués, j'veux m'distinguer, couz' t'inquiète Pas de clip de... J'ai bonne dégaine, bien fringué Minute, quoi minute ? Mais trop de gens t'imitent Marlich j'suis sinistre, sinistre tah l'sinus ! Des gueush qui si-niff hum hum Subissez ma rage ça sévit c'est la merde ça simmisce Dans le rap trop de pénis, salope tu simules J'innove, dis ci-mer j'suis le Samsung, t'es l'Siemens You might also like What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man Pas de chance mon frère, ce soir y'a pas de démineurs Messieurs, enchanté, j'vous ai ramené des minerves 'Tain j'plains ton père de pas pouvoir coker Demi Moore Douleurs abdominales, t'es comme ton rap, t'es minable Allez, tous en selle j'vous emmène dans le Nouveau Monde On est tous sincère jusqu'au partage du million On te saucissone si tu donnes un de nos noms Les flics me passent les menottes, un gars trépasse à minuit C'est miné car j'innove avoue le à demi-mot T'es grillé, tu minaudes, Paris-Est, la minette Petit, passe la manette, j'te mets une baffe dans la lèvre Si tu tapes sur ma reus' tu te manges une balle à ailette À deux, une infanterie j'ai coupé le robinet Sois pas infantile comme Titi et Gros minet T'as braqué un Franprix et tu t'prends pour un gros bonnet Mais tu craches ton binôme, t'as juste, de l'âne, le bonnet Ça kicke un cran au dessus, tiens qu'on suce Tu rappes bien concis, consciencieux J'rappe pour les incompris, les bonnes compil' Les zup assombries, les zincs au trou Et si les astres brillent, c'est pour qu'on troue Pas là pour t'attendrir, fuck tout ton crew J'hésite à m'accomplir dans l'art d'écrire Ou bien le kiff d'un premier rôle dans un Gondry Dream What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man</t>
+          <t>Une balle dans le crâne parce que tu n'en fais qu'à ta tête Intouchable comme le mari d'Bernadette Trop d'écart qui nous sépare grosso modo T'as échoué sur l'île de Komodo ! What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man J'vis sur le fil du rasoir, tu sais ça donc fais pas zerma Proche de l'état du dass et des liasses que les tasses amassent Oui c'est bien moi khouya, j'cascade toujours de squat en squat Le mic là-bas là, passe le moi que j'en place une petite pour Gassama Dans le Jeu trop t'agacent, faut que je sois le premier de la classe T'as pris du level, mash'Allah, c'est grâce à eux ou grâce à moi ? Tu m'as vu en guest ce mois, les groupies veulent me cker-sma Qu'on fasse un tour à Châtelet pour que j'leur pé-cho des keuss à mains Dingue j'le suis quasiment, surtout quand ça parle Casamance Chauffe nous encore un peu si tu veux vraiment qu'on s'amorce Rien qu'on s'clashe, rien qu'on stagne Putain rien qu'on se cane et rien qu'on s'tape Mon flow parle toutes les langues Mboté na yo Sayonara, Hello puis Guten tag Et des sons comme ça, j'en tente un tas J'suis dans tes contacts et qu't'appelles dès que t'as le time Pas de beats flingués, j'veux m'distinguer, couz' t'inquiète Pas de clip de... J'ai bonne dégaine, bien fringué Minute, quoi minute ? Mais trop de gens t'imitent Marlich j'suis sinistre, sinistre tah l'sinus ! Des gueush qui si-niff hum hum Subissez ma rage ça sévit c'est la merde ça simmisce Dans le rap trop de pénis, salope tu simules J'innove, dis ci-mer j'suis le Samsung, t'es l'Siemens What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man Pas de chance mon frère, ce soir y'a pas de démineurs Messieurs, enchanté, j'vous ai ramené des minerves 'Tain j'plains ton père de pas pouvoir coker Demi Moore Douleurs abdominales, t'es comme ton rap, t'es minable Allez, tous en selle j'vous emmène dans le Nouveau Monde On est tous sincère jusqu'au partage du million On te saucissone si tu donnes un de nos noms Les flics me passent les menottes, un gars trépasse à minuit C'est miné car j'innove avoue le à demi-mot T'es grillé, tu minaudes, Paris-Est, la minette Petit, passe la manette, j'te mets une baffe dans la lèvre Si tu tapes sur ma reus' tu te manges une balle à ailette À deux, une infanterie j'ai coupé le robinet Sois pas infantile comme Titi et Gros minet T'as braqué un Franprix et tu t'prends pour un gros bonnet Mais tu craches ton binôme, t'as juste, de l'âne, le bonnet Ça kicke un cran au dessus, tiens qu'on suce Tu rappes bien concis, consciencieux J'rappe pour les incompris, les bonnes compil' Les zup assombries, les zincs au trou Et si les astres brillent, c'est pour qu'on troue Pas là pour t'attendrir, fuck tout ton crew J'hésite à m'accomplir dans l'art d'écrire Ou bien le kiff d'un premier rôle dans un Gondry Dream What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A nigga really went and turned a quid into a Q-M Now I've more than doubled it, it's like they're wishing that I knew them So they could miss me with their two pents No new friends Only thing new here's the coupe Benz Every L I took a bounce back Most these cappers gonna be brass when it's time to pay their bounce back My Arab baddie got a round back Hella sexy when she say my name, mad when she pronounce that I rally came up from the bottom Nah, a nigga really cam up off of bottoms Mazza with the crawler every time it hit the bottom Now I'm buying all these kettles, got me feeling spot rotten I'm a dough stacker, known trapper, I'm no slacker Really cut from different cloths than known cappers Try come with chatter then doing up Mo Farah If the convo ain't paper I told them it don't matter I swear them man there just talk loads Only time they've seen six figures' on their sort code There's no comparison, I'm colder than the North Pole I've really spent over a oner on my wardrobe I played a fool to almost everyone, nah, fuck that, everyone Came up doing both like Headie One Ask about me, I made the line fire, fire I did a mazza with the grease like H Maguire They're talking paper but trust me they don't see bills Ask the hood I did a mazza off of C bills Remember when the tops used to be 26 Now I'm flying Brum to check my bros in B26 I've seen all different kind of stamps on the coke Now it's different Monclers and Diors for the coat Getting busy down in Oxford and busy up in Sloan Put a monkey on my neck, that's Clive Christian cologne I can wear a different kettle every day From my whips to the wrist, you can tell I'm getting paid So it's obvious why they hate Lunch with their missus only time them niggas day date You see me changing up the whips like car, wow So you wonder why your bitch got her guard down Tk butch come with black dots, hit it like jackpots Now she won't ride me like The AscotYou might also like</t>
+          <t>A nigga really went and turned a quid into a Q-M Now I've more than doubled it, it's like they're wishing that I knew them So they could miss me with their two pents No new friends Only thing new here's the coupe Benz Every L I took a bounce back Most these cappers gonna be brass when it's time to pay their bounce back My Arab baddie got a round back Hella sexy when she say my name, mad when she pronounce that I rally came up from the bottom Nah, a nigga really cam up off of bottoms Mazza with the crawler every time it hit the bottom Now I'm buying all these kettles, got me feeling spot rotten I'm a dough stacker, known trapper, I'm no slacker Really cut from different cloths than known cappers Try come with chatter then doing up Mo Farah If the convo ain't paper I told them it don't matter I swear them man there just talk loads Only time they've seen six figures' on their sort code There's no comparison, I'm colder than the North Pole I've really spent over a oner on my wardrobe I played a fool to almost everyone, nah, fuck that, everyone Came up doing both like Headie One Ask about me, I made the line fire, fire I did a mazza with the grease like H Maguire They're talking paper but trust me they don't see bills Ask the hood I did a mazza off of C bills Remember when the tops used to be 26 Now I'm flying Brum to check my bros in B26 I've seen all different kind of stamps on the coke Now it's different Monclers and Diors for the coat Getting busy down in Oxford and busy up in Sloan Put a monkey on my neck, that's Clive Christian cologne I can wear a different kettle every day From my whips to the wrist, you can tell I'm getting paid So it's obvious why they hate Lunch with their missus only time them niggas day date You see me changing up the whips like car, wow So you wonder why your bitch got her guard down Tk butch come with black dots, hit it like jackpots Now she won't ride me like The Ascot</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Avant toute chose, la foule, j'fais tout pour la faire crier, bars et flow rapide comme un lévrier Fuck mon image de raciste, RAF de la couleur, sauf quand on parle de mes billets Ouais, pas d'raciste, là, on est au dit ROAR, donc j'sors mon plus gros calibre de mon tiroir Parce que, ce soir, j'viens m'faire votre Blanc comme si j'sortais d'l'isoloir Après Esope et Bramzo, on m'envoie encore un gros morceau, mais j'vais esquiver un autre coup dur J'vais m'appliquer sur mes lignes comme si j'pratiquais de la haute couture Donc, crois-moi, j'te parle pas d'mon cachet quand j'te dis que j'viens faire des grosses coupures Bah ouais, pour t'attaquer, des mots, j'en ai plus d'un dans mon lexique Malheureusement, tu rejettes rien, t'es tout fade, il faut que quelqu'un t'explique Le fait que tous tes adversaires parlent de ta taille t'a pas rendu sceptique ? Parce que c'est la seule chose marquante chez toi Donc, pour te clash, on n'a pas trop l'Ochoa, et j'suis pas en train d'copier Cheef Jdis qu'on n'a pas trop l'Ochoa, comme le gardien du Mexique J'suis venu débusquer le gros gibier comme si j'menais la battue Si, ce soir, il fait preuve de sang-froid, c'est juste que j'l'ai abattu Parce qu'il va finir derrière mes bars, comme dans une putain d'garde à vue Parce que, ouais, j'suis assez costaud mais, face à lui, j'suis une allumette Donc j'vais t'foutre le feu, comme quand l'sniper a sa cible dans sa lunette Mais, en vérité, N'Joy, t'as aucun big skill T'es qu'un putain d'miskine Tu vas où l'vent te mène comme un pistil Moi, j'envoie des missiles sur tous les gens d'la pièce, comme au mariage de Kill Bill Mais, ma mission, aujourdhui, c'est d'éclater N'Joy J'vais tellement lui mettre de cartouches, on va croire qu'c'est ma Game Boy Paw, une cartouche dans l'oreille, comme quand t'as découvert Temps mort Et, vu qu'tu mendors, tu vas finir le coffre plein de cartouches, comme une caisse qui rentre d'Andorre Te retrouver contre moi, c'est comme foncer contre un platane dans une caisse sans airbag Car j'vais dire tout haut c'que tout le monde pense, fuck les messes basses J'suis venu t'prouver qu'on n'a pas les mêmes tracks Qu'on marchera pas dans les mêmes traces Car t'arriveras jamais à ma cheville, comme mes Air Max J'fais plus d'erreur, j'reste dans le contrôle, comme Zidane dans le mid J'me retrouve face à lui, forcément, mon Magnum je vide Là, j'te parle de gun, pas des bouteilles qu'tu peux voir dans l'VIP Face au Zite, tu t'es vexé de ses phases, mais t'as aucune couille, on a vu ton regard dans le vide Ça prouve que t'es qu'un bourgeois qui s'engraisse, on n'a pas le temps d'se vexer pour des jokes quand on n'a rien dans le bide J'prouve que j'ai pas besoin de jeter mon ancre pour te faire chavirer Parce que tout le monde commence à sfaire à lidée que t'es peut-être un grand homme, mais t'auras toujours une p'tite mentalité You might also like Respire, essaye d'éviter l'drame, quoi Quand je leur ai dit Les gars, j'affronte qui après Taïpan et Aparzite ?, ils m'ont dit Calme-toi Ton match up va pas pas tarder Deux jours plus tard, je suis dans ma caisse J'ai fini l'taf, j'vais bientôt m'aérer Quand je reçois un coup d'fil de Buenos Aires On m'annonce Rotka Je dis Rotka, pourquoi pas ? Et puis j'me dis Rotka, c'est pour ça qu'ils ont pas voulu m'le dire, l'autre fois Tu t'appelles Rotka, pourquoi, gars ? Genre c'est la classe Pourquoi Rotka et pas Potka ou Vodka Glace ? J'veux dire, à quel moment tu te dis J'vais faire du battle rap, mon blaze, c'est Carotte, ça passe ? Heureusement qu'on est à Lisbonne car T'es pas une raison suffisante pour que j'quitte mon canapé Paraît qu'ici la bouffe est bonne, j'te jure que personne n'est venu pour entendre Carotte rapper Pour les nôtres, tu n'es pas un pair T'as commis des impairs Mais t'es pas plus pertinent Moitié mythomane, moitié affligeant T'es visiblement le fruit d'une mère nymphomane et d'un père til-gen' C'est pas parce qu'ils défoncent le cul de ta frangine que tu peux les appeler mes frères gitans Mon succès est assuré, le tien n'est qu'éventuel Ce battle, c'est sûr, je l'ai Sachez-le, mes efforts sont continuels T'es un p'tit poids et, affronter Carotte Je trouve pas que c'est un bon duel Ton parcours est underground T'es sorti d'ta grotte Pour traverser un long tunnel Mais, le plus bizarre, c'est pas qu'avec un blaze comme ça, tu penses faire un carton Non, concrètement, moi, ce qui m'inquiète, garçon, c'est qu'tu trouves La Guêpe canon Cheef, parle-lui de vraies femmes, non ? Au lieu de chercher la merde, tu devrais demander pardon Tu manquais de motiv' quand t'as choisi c'blaze T'hésitais entre La Carotte et L'Bâton La Carotte ? C'est parce que t'as les cheveux oranges ? Pour un boulet, t'es rapide Non, tu t'appelles Carotte parce que j'vais t'faire bouffer tes racines Tu vomis dans l'cro-mi' mais t'apportes rien de neuf, Carotte J'm'introduis dans ton logis avec une boîte de neuf capotes J'te vois comme le plus poli des thos-my' T'as une tête d'uf, Carotte Je rectifie ton écriture, comme la police des polices ça, c't un buf, Carotte On va rien miser sur toi, t'es pas assez stable Redescends, arrête de crier, on t'a crée, t'es malléable J'te remercie d'avance pour ce moment, tu vas voir, ça va être très agréable Je suis vulgaire, hein ? Mais, si je te bouffe, Carotte, p't-être que ça m'rendra aimable Je suis venu chercher mon dû, même si c'battle n'est pas l'plus attendu Profites-en, mon grand, en temps normal, j't'aurais même pas répondu N'aie pas l'seum si je suis le meilleur toutes catégories confondues Une carotte et une flaque sur le sol tout ce que t'avais d'un vrai bonhomme a fondu Tout est dit, ce soir, tu vas prendre cher Je garde espoir, j'espère que t'es prêt à croiser l'fer Je te jure, c'est naze, il faut qu'tu changes de blaze Parce que, frère Des carottes, que t'en aies pris ou que t'en aies mise, dans les deux cas, il y a pas de quoi être fier Après mon ROAR 003 où j'ai sorti la tête de l'eau, on m'dit Rotka, t'affrontes ce grand penaud Pas de problème, parce qu'on m'a toujours dit que, plus c'est grand, plus ça tombe de haut T'es grand et c'est pas un problème pour moi, j'ai toujours visé haut J'suis venu briser ton p'tit ego pour la moitié d'un billet mauve J'ai l'dix à la Diego, et j'vais en sortir vingt-trois balles comme si j'payais l'Vimeo Puis, ta taille, c'est ta carapace, en vrai, t'es friable Et on a vu, face à Yessouf, ta personne véritable Quand tu t'essouffles, t'as un comportement méprisable Parler des parents morts ne sera jamais quelque chose d'excusable T'as des failles, tu coules vite sous la pression exercée On t'parle un peu dans la bouche, tu chokes et tu dérapes, vu que t'es vexé Quand t'étais en milieu hostile au RC On a capté que tu tournais vite en rond comme les chevaux du tiercé Parce que t'es pas plus talentueux qu'un autre Tu manques d'humilité et tu reconnais pas tes fautes T'as manqué d'respect à un mort, et t'es reparti la tête haute On devrait y balancer ton corps depuis que t'as parlé d'la Mer Morte Mais on comprend que tu sois rappelé partout, toi, t'es toujours d'accord lorsque Cheef parle Puis t'as dû passer cinquante soirées chez Maadou, moi zéro, on peut dire qu'les chiffres parlent Ouais, contrairement à toi, j'me suis fait seul avec ma team Mais j'ai bien capté qu'au ROAR, plus tu suces, plus on t'aligne Et, cet acte, on le banalise pour certains, c'en est maladif Paraît que, pour être intègre au ROAR, faut tout dire comme Lamanif En plus, chez P-H, tu dis qu't'as roulé sur tous tes adversaires Mais, si tu passais pas tes rées-s' chez Maadou, tu traînerais dans les ligues secondaires Et, ça, c'est vrai Tu te diriges toujours vers là où t'es en lumière, comme un tournesol Mais tu vas un peu vite en besogne, tu devrais t'entraîner à spit des bars alone Parce que, malgré qu'tu sois dans l'jeu depuis longtemps T'es toujours en construction, comme la cathédrale de Barcelone Parce que, ouais, on va parler des sujets qui fâchent J'sais pourquoi il est pas sorti, ton clash contre Baboukas Ils avaient prévu de te faire monter au RC à l'issu d'ce match Mais tu t'es fait péter les seufs, donc t'as demandé au cameraman de supprimer les rushs Alors, ce soir, j'vais p't-être pas gagner Mais j'vais t'apprendre un truc qu'on appelle l'humilité Toi, tu l'as pas, c'est flagrant Pourtant, tu fais deux mètres de haut, et c'est la marque des plus grands Espèce de sale wack, j'ai très vite capté que t'étais un MC qu'on surestimait Parce qu'avant le ROAR et les battles non jugés, les gros matchups, tu les as toujours esquivés Tu te plains de Slider qui a pas eu les couilles de t'affronter Mais tu les as jamais eu pour affronter Espiway Et, ça, c'est fucking vrai, tu choisis tes matchs quand t'es sûr de la win T'as tellement peur des grosses têtes que tu les découpes que quand t'es sur d'la weed Tu t'prends pour le roi du nord Je sais pas c'que tes potes t'ont dit Mais t'es pas l'roi du nord, bolosse, tu ressembles au Justin Timberlake de Basse-Normandie Alors écoute-moi bien, Fifi Brindacier Sérieux, tu devrais t'méfier Parce qu'en attendant qu'Luc Besson t'appelle pour faire Tintin Il va falloir que tu t'trouves un vrai métier Parce que, là, pour faire du buzz, faudrait qu'tu viennes avec des boots en croco' C'est pas avec ton blaze sur la carte qu'on va s'étendre en promo Pourquoi tu cries alors qu'nous on s'moque tant ? C'est tendre en propos T'auras des bras d'homme, mon pote, quand t'arrêteras de les prendre en photo Je suis allé à Lille, Paris, Marseille, Lyon, déjà remporté une bonne dizaine d'oppositions Apprends d'abord à tenir ta langue, je t'apprendrai à faire taire les suppositions Et, si tu veux savoir pourquoi, depuis l'ROAR, t'as pas eu plus de propositions C'est parce que, tes rounds, c'est comme tes selfies toujours le même angle, toujours la même position Entre racisme, foot et gun bars, tu suis continuellement la tendance Voila ce qu'il se passe quand on crée des MC de rien, qu'on en fait des expériences T'as réussi à t'relever d'une bataille, ça t'donne de l'espérance Tellement de charisme, quand tu dis Time, Maadou, il t'dit Non, pas time, tu recommences Mais, quand on voit le résultat, on peut douter d'l'expertise Ce que vous voyez là, c'est la tête d'un cobaye lorsque l'expert tise Rotka, c'est l'genre de mec qui, même entouré d'femmes, aurait une vie sexuelle de prêtre C'est l'genre d'MC qui envoie à bloc d'énergie mais dans une gestuelle de merde C'est sombre mais, l'départ de c'duel, j'te pète C'est l'comble pour un gars qui fait des gun bars de n'avoir aucune cartouche textuelle de prête Hostie d'roux Ta première sortie, c'était une sortie d'route Pas étonnant qu'on s'foute d'ta gueule La prochaine fois, chard-clo', inch'Allah, tu battles Marco roux battle, trou d'balle C'est grâce à moi que t'es dans la lumière, alors mets-la en veilleuse Arrête de flatter ton ego même si ton pote Crapaud a l'air de faire des pipes merveilleuses Parce que, oui, ça vire au Walt Disney quand vous vous gobez les couilles Rotka et Crapaud, en deux éditions, c'est devenu la princesse et la grenouille Pussy, tes histoires de flingues, ça l'ferait si tu venais disons de Russie Mais, tout c'que t'as, mon gars, c'est du sang d'pigeon, et j'parle pas de ruby J'humilie Taïpan au basket et, toi, face à moi, t'es rien en battle, comme sur un terrain d'rugby À ce stade de ta vie, t'as l'honneur de m'affronter Mes rimes sont en or massif, les tiennes sont en or plaqué J'deviens un pilier de ce truc si je décide de m'en mêler Dès la deuxième ou troisième ligne, tu vas prendre une pénalité Ta ligne de défense recule, tu subis l'raffut, ta ligne d'en-but est à portée C'est vrai, on t'a crée dans un seul but, bouffon, ça fait quatre éditions que t'étais censé transformer l'essai Ta ligne d'en-but est à portée, écoute, il y a que si je ramène la coupe qu'on pourra transformer les C De toutes façons, on a bien capté qu'c'est pas ta taille mais ton ego qui rentre pas dans le grand plan Selon lui, c'est un requin, j'en ai eu des échos, moi, j'suis un pêcheur irlandais venu tuer le grand blanc Non, j'te jure, t'as rien d'une squale et, ça, c'est clair, bitch Toi, juste personne dit que tu clashes mal, donc tu persistes Mais c'est fini, sans qu'il s'passe rien, j'suis venu t'faire mal ça, c'est Blair Witch T'as rien d'un requin, car j'ai vu l'interview chez P-H Grâce à ça, j'peux t'monter en l'air comme une barrière de péage Non, t'as rien d'un requin, parce que t'avoues recycler tes phases Donc descends ton étage, normalement, c'est pas le rookie qui doit t'expliquer les bases Non, sérieux, reprendre ses phases, c'est wack Est-ce que tu sais que, le seul à faire ça, c'est oi-t' ? T'as rien d'un requin car, quand tu m'as jugé au LC, j't'ai mis sur un piédestal Mais j'ai capté qu't'es juste un être détestable Tu dis avoir installé un siège sur le battle rap Mon gars, le siège dont tu parles est un siège éjectable Non, sérieux, check-moi Est-ce que j'ai repris mes phases du LC qui t'ont fait tant crier ? Non, car j'ai toujours de l'inspi quand j'trempe ma plume dans son encrier Sans crier, j'suis venu faire une croix sur toi, comme sur le torse d'un templier Entre toi et moi, y a clairement une diff' sur l'papier Tu fais que des lignes de mères, mais les gens disent que tu fais que surclasser Tes phases de mères, sérieux, N'Joy, j'en ai plus qu'assez J'suis venu briser ta carapace, frérot, t'es mon crustacé Contrairement à ce qu'on peut croire, j'suis pas venu m'battre J'en ai pas besoin car, moi, les Requins, j'les traîne à mes pattes dans le hall du bât' Les Requins est-ce que, là, tas capté qu'j'te parle de pompes ? Quand j'te dis qu'j'vais mettre tes yeux en face des trous, est-ce que t'as capté que j'te parle de pompe ? Non, j'déc', si j'dis que j'sors les pompes 45, j'parle juste de mes Asics Là, je vais parler d'ta zik' j'ai écouté, c'est vraiment du bullshit J'vais t'faire écouter la mienne pour que t'aies plus des goûts d'shit J'suis pas sûr que ça marche mais, au moins, j'essaie, comme le logo Gucci En plus, les gens nous comparent et, ça, ça m'rend fou Parce que, contrairement à toi, j'veux être respecté en posant mes couilles sur la table, pas en passant dessous T'as rien d'un requin parce qu'au ROAR 001, tu dis être un pêcheur chinois, RAF, c'est moi qui décide quand est-ce qu'il canne J'vais mettre le Chinois à genoux, appelle-moi Gengis Khan Non, t'as rien d'un requin, t'es même pas proche d'la carpe P't-être un long poisson parce qu'à cinquante mètres de l'objectif, on voit ta tête en gros comme si t'étais proche d'la cam' C'est vrai que t'es un grand du BR, t'es sorti de face à Taïpan en étant intact Au ROAR 003, t'hochais la tête à toutes mes phases comme si j'mettais un jab Mais, là, c'est fini J'suis venu soulever l'poids lourd comme si j'étais un diable Au ROAR 001, on t'a mis contre Ésope, mais ça a pas marché Au ROAR 002, c'était mieux, vu qu'on t'avait pas matché Pour le reste, on a du mal à suivre la Rotka dance À Marseille, c'était l'édition 003, t'en étais déjà à ta deuxième chance Contre Ésope, c'est chaud, on a tous cru que t'étais dé-p' Quand t'as commencé avec ton Ok, yo, moi, j'ai su que t'étais dead Ésope MVP, c'est légit' mais, toi, tu casses pas d'brique, Ésope nous fait un match classique Dommage qu'en face de lui, il y ait rien d'plus qu'une conasse d'asmatique T'as voulu jouer les loubards Ce coup-là, j'te loupe pas T'as dit J'te roule dessus avec une caisse sans essieux Formidable, sauf qu'une caisse sans essieux, ça roule pas Cheef était triste, pire, Lamanif a dit Qu'on vire ce pitre La meuf à côté d'moi m'a dit C'est rigolo, hein ? Il y a pas qu'en battle qu'il a du mal à suivre le rythme Pourquoi tu t'accroches ? Ça me fascine Poto, si tu t'approches, j'te calcine Dès qu'ça devient chaud, tu vacilles T'étais bon en battle face cam' Parce que, les battles face cam', c'est facile Ton heure a sonné, l'animal, c'est l'heure de la tonte Quand le ROAR a connu le succès, t'as connu que le frisson d'la honte Alors tu peux m'sucer ou retourner forcer la fonte Ton cur de glace, poto, j'viens d'en amorcer la fonte Il y a que pendant tes exercices de muscu' que tu restes bien droit Bramzo a attendu ses frères, tu serais rien sans les tiens, t'aurais mieux fait d'respecter ça Tu manques d'éducation, miskine, elle est un peu fine, ton estime de soi Tu peux soulever toutes les barres du monde, tu seras jamais carré comme moi Quand je rentre, le soir, ta daronne m'attend à la fenêtre Elle me fait beaucoup rire quand elle se déshabille, j'trouve ses bourrelets burlesques Elle est chaude comme le soleil quand l'horizon est sombre, funeste Ta mère, elle me suce jusqu'à la mort, c'est une vraie pompe funèbre Quand t'es venu au monde, c'était un moment plein de tendresse Sauf pour ta mère, la pauvre, elle cherchait ton daron dans toute la tess' Le soir venu, personne ne l'a revue, elle était un peu en détresse Le médecin est arrivé, elle a lui a dit Laissez tomber, j'crois qu'ce bâtard fait un déni de grossesse Ironiquement, vingt ans plus tard, toi aussi, t'as eu du mal à tenir ses promesses Enlève tes mains de ton caleçon lâche du mou Rotka, à chaque battle, c'est un carton pas du tout Tu vas encore demander pardon, marre du roux Ce soir, j'ai enterré la vie d'ce jeune garçon Marc Dutroux</t>
+          <t>Avant toute chose, la foule, j'fais tout pour la faire crier, bars et flow rapide comme un lévrier Fuck mon image de raciste, RAF de la couleur, sauf quand on parle de mes billets Ouais, pas d'raciste, là, on est au dit ROAR, donc j'sors mon plus gros calibre de mon tiroir Parce que, ce soir, j'viens m'faire votre Blanc comme si j'sortais d'l'isoloir Après Esope et Bramzo, on m'envoie encore un gros morceau, mais j'vais esquiver un autre coup dur J'vais m'appliquer sur mes lignes comme si j'pratiquais de la haute couture Donc, crois-moi, j'te parle pas d'mon cachet quand j'te dis que j'viens faire des grosses coupures Bah ouais, pour t'attaquer, des mots, j'en ai plus d'un dans mon lexique Malheureusement, tu rejettes rien, t'es tout fade, il faut que quelqu'un t'explique Le fait que tous tes adversaires parlent de ta taille t'a pas rendu sceptique ? Parce que c'est la seule chose marquante chez toi Donc, pour te clash, on n'a pas trop l'Ochoa, et j'suis pas en train d'copier Cheef Jdis qu'on n'a pas trop l'Ochoa, comme le gardien du Mexique J'suis venu débusquer le gros gibier comme si j'menais la battue Si, ce soir, il fait preuve de sang-froid, c'est juste que j'l'ai abattu Parce qu'il va finir derrière mes bars, comme dans une putain d'garde à vue Parce que, ouais, j'suis assez costaud mais, face à lui, j'suis une allumette Donc j'vais t'foutre le feu, comme quand l'sniper a sa cible dans sa lunette Mais, en vérité, N'Joy, t'as aucun big skill T'es qu'un putain d'miskine Tu vas où l'vent te mène comme un pistil Moi, j'envoie des missiles sur tous les gens d'la pièce, comme au mariage de Kill Bill Mais, ma mission, aujourdhui, c'est d'éclater N'Joy J'vais tellement lui mettre de cartouches, on va croire qu'c'est ma Game Boy Paw, une cartouche dans l'oreille, comme quand t'as découvert Temps mort Et, vu qu'tu mendors, tu vas finir le coffre plein de cartouches, comme une caisse qui rentre d'Andorre Te retrouver contre moi, c'est comme foncer contre un platane dans une caisse sans airbag Car j'vais dire tout haut c'que tout le monde pense, fuck les messes basses J'suis venu t'prouver qu'on n'a pas les mêmes tracks Qu'on marchera pas dans les mêmes traces Car t'arriveras jamais à ma cheville, comme mes Air Max J'fais plus d'erreur, j'reste dans le contrôle, comme Zidane dans le mid J'me retrouve face à lui, forcément, mon Magnum je vide Là, j'te parle de gun, pas des bouteilles qu'tu peux voir dans l'VIP Face au Zite, tu t'es vexé de ses phases, mais t'as aucune couille, on a vu ton regard dans le vide Ça prouve que t'es qu'un bourgeois qui s'engraisse, on n'a pas le temps d'se vexer pour des jokes quand on n'a rien dans le bide J'prouve que j'ai pas besoin de jeter mon ancre pour te faire chavirer Parce que tout le monde commence à sfaire à lidée que t'es peut-être un grand homme, mais t'auras toujours une p'tite mentalité Respire, essaye d'éviter l'drame, quoi Quand je leur ai dit Les gars, j'affronte qui après Taïpan et Aparzite ?, ils m'ont dit Calme-toi Ton match up va pas pas tarder Deux jours plus tard, je suis dans ma caisse J'ai fini l'taf, j'vais bientôt m'aérer Quand je reçois un coup d'fil de Buenos Aires On m'annonce Rotka Je dis Rotka, pourquoi pas ? Et puis j'me dis Rotka, c'est pour ça qu'ils ont pas voulu m'le dire, l'autre fois Tu t'appelles Rotka, pourquoi, gars ? Genre c'est la classe Pourquoi Rotka et pas Potka ou Vodka Glace ? J'veux dire, à quel moment tu te dis J'vais faire du battle rap, mon blaze, c'est Carotte, ça passe ? Heureusement qu'on est à Lisbonne car T'es pas une raison suffisante pour que j'quitte mon canapé Paraît qu'ici la bouffe est bonne, j'te jure que personne n'est venu pour entendre Carotte rapper Pour les nôtres, tu n'es pas un pair T'as commis des impairs Mais t'es pas plus pertinent Moitié mythomane, moitié affligeant T'es visiblement le fruit d'une mère nymphomane et d'un père til-gen' C'est pas parce qu'ils défoncent le cul de ta frangine que tu peux les appeler mes frères gitans Mon succès est assuré, le tien n'est qu'éventuel Ce battle, c'est sûr, je l'ai Sachez-le, mes efforts sont continuels T'es un p'tit poids et, affronter Carotte Je trouve pas que c'est un bon duel Ton parcours est underground T'es sorti d'ta grotte Pour traverser un long tunnel Mais, le plus bizarre, c'est pas qu'avec un blaze comme ça, tu penses faire un carton Non, concrètement, moi, ce qui m'inquiète, garçon, c'est qu'tu trouves La Guêpe canon Cheef, parle-lui de vraies femmes, non ? Au lieu de chercher la merde, tu devrais demander pardon Tu manquais de motiv' quand t'as choisi c'blaze T'hésitais entre La Carotte et L'Bâton La Carotte ? C'est parce que t'as les cheveux oranges ? Pour un boulet, t'es rapide Non, tu t'appelles Carotte parce que j'vais t'faire bouffer tes racines Tu vomis dans l'cro-mi' mais t'apportes rien de neuf, Carotte J'm'introduis dans ton logis avec une boîte de neuf capotes J'te vois comme le plus poli des thos-my' T'as une tête d'uf, Carotte Je rectifie ton écriture, comme la police des polices ça, c't un buf, Carotte On va rien miser sur toi, t'es pas assez stable Redescends, arrête de crier, on t'a crée, t'es malléable J'te remercie d'avance pour ce moment, tu vas voir, ça va être très agréable Je suis vulgaire, hein ? Mais, si je te bouffe, Carotte, p't-être que ça m'rendra aimable Je suis venu chercher mon dû, même si c'battle n'est pas l'plus attendu Profites-en, mon grand, en temps normal, j't'aurais même pas répondu N'aie pas l'seum si je suis le meilleur toutes catégories confondues Une carotte et une flaque sur le sol tout ce que t'avais d'un vrai bonhomme a fondu Tout est dit, ce soir, tu vas prendre cher Je garde espoir, j'espère que t'es prêt à croiser l'fer Je te jure, c'est naze, il faut qu'tu changes de blaze Parce que, frère Des carottes, que t'en aies pris ou que t'en aies mise, dans les deux cas, il y a pas de quoi être fier Après mon ROAR 003 où j'ai sorti la tête de l'eau, on m'dit Rotka, t'affrontes ce grand penaud Pas de problème, parce qu'on m'a toujours dit que, plus c'est grand, plus ça tombe de haut T'es grand et c'est pas un problème pour moi, j'ai toujours visé haut J'suis venu briser ton p'tit ego pour la moitié d'un billet mauve J'ai l'dix à la Diego, et j'vais en sortir vingt-trois balles comme si j'payais l'Vimeo Puis, ta taille, c'est ta carapace, en vrai, t'es friable Et on a vu, face à Yessouf, ta personne véritable Quand tu t'essouffles, t'as un comportement méprisable Parler des parents morts ne sera jamais quelque chose d'excusable T'as des failles, tu coules vite sous la pression exercée On t'parle un peu dans la bouche, tu chokes et tu dérapes, vu que t'es vexé Quand t'étais en milieu hostile au RC On a capté que tu tournais vite en rond comme les chevaux du tiercé Parce que t'es pas plus talentueux qu'un autre Tu manques d'humilité et tu reconnais pas tes fautes T'as manqué d'respect à un mort, et t'es reparti la tête haute On devrait y balancer ton corps depuis que t'as parlé d'la Mer Morte Mais on comprend que tu sois rappelé partout, toi, t'es toujours d'accord lorsque Cheef parle Puis t'as dû passer cinquante soirées chez Maadou, moi zéro, on peut dire qu'les chiffres parlent Ouais, contrairement à toi, j'me suis fait seul avec ma team Mais j'ai bien capté qu'au ROAR, plus tu suces, plus on t'aligne Et, cet acte, on le banalise pour certains, c'en est maladif Paraît que, pour être intègre au ROAR, faut tout dire comme Lamanif En plus, chez P-H, tu dis qu't'as roulé sur tous tes adversaires Mais, si tu passais pas tes rées-s' chez Maadou, tu traînerais dans les ligues secondaires Et, ça, c'est vrai Tu te diriges toujours vers là où t'es en lumière, comme un tournesol Mais tu vas un peu vite en besogne, tu devrais t'entraîner à spit des bars alone Parce que, malgré qu'tu sois dans l'jeu depuis longtemps T'es toujours en construction, comme la cathédrale de Barcelone Parce que, ouais, on va parler des sujets qui fâchent J'sais pourquoi il est pas sorti, ton clash contre Baboukas Ils avaient prévu de te faire monter au RC à l'issu d'ce match Mais tu t'es fait péter les seufs, donc t'as demandé au cameraman de supprimer les rushs Alors, ce soir, j'vais p't-être pas gagner Mais j'vais t'apprendre un truc qu'on appelle l'humilité Toi, tu l'as pas, c'est flagrant Pourtant, tu fais deux mètres de haut, et c'est la marque des plus grands Espèce de sale wack, j'ai très vite capté que t'étais un MC qu'on surestimait Parce qu'avant le ROAR et les battles non jugés, les gros matchups, tu les as toujours esquivés Tu te plains de Slider qui a pas eu les couilles de t'affronter Mais tu les as jamais eu pour affronter Espiway Et, ça, c'est fucking vrai, tu choisis tes matchs quand t'es sûr de la win T'as tellement peur des grosses têtes que tu les découpes que quand t'es sur d'la weed Tu t'prends pour le roi du nord Je sais pas c'que tes potes t'ont dit Mais t'es pas l'roi du nord, bolosse, tu ressembles au Justin Timberlake de Basse-Normandie Alors écoute-moi bien, Fifi Brindacier Sérieux, tu devrais t'méfier Parce qu'en attendant qu'Luc Besson t'appelle pour faire Tintin Il va falloir que tu t'trouves un vrai métier Parce que, là, pour faire du buzz, faudrait qu'tu viennes avec des boots en croco' C'est pas avec ton blaze sur la carte qu'on va s'étendre en promo Pourquoi tu cries alors qu'nous on s'moque tant ? C'est tendre en propos T'auras des bras d'homme, mon pote, quand t'arrêteras de les prendre en photo Je suis allé à Lille, Paris, Marseille, Lyon, déjà remporté une bonne dizaine d'oppositions Apprends d'abord à tenir ta langue, je t'apprendrai à faire taire les suppositions Et, si tu veux savoir pourquoi, depuis l'ROAR, t'as pas eu plus de propositions C'est parce que, tes rounds, c'est comme tes selfies toujours le même angle, toujours la même position Entre racisme, foot et gun bars, tu suis continuellement la tendance Voila ce qu'il se passe quand on crée des MC de rien, qu'on en fait des expériences T'as réussi à t'relever d'une bataille, ça t'donne de l'espérance Tellement de charisme, quand tu dis Time, Maadou, il t'dit Non, pas time, tu recommences Mais, quand on voit le résultat, on peut douter d'l'expertise Ce que vous voyez là, c'est la tête d'un cobaye lorsque l'expert tise Rotka, c'est l'genre de mec qui, même entouré d'femmes, aurait une vie sexuelle de prêtre C'est l'genre d'MC qui envoie à bloc d'énergie mais dans une gestuelle de merde C'est sombre mais, l'départ de c'duel, j'te pète C'est l'comble pour un gars qui fait des gun bars de n'avoir aucune cartouche textuelle de prête Hostie d'roux Ta première sortie, c'était une sortie d'route Pas étonnant qu'on s'foute d'ta gueule La prochaine fois, chard-clo', inch'Allah, tu battles Marco roux battle, trou d'balle C'est grâce à moi que t'es dans la lumière, alors mets-la en veilleuse Arrête de flatter ton ego même si ton pote Crapaud a l'air de faire des pipes merveilleuses Parce que, oui, ça vire au Walt Disney quand vous vous gobez les couilles Rotka et Crapaud, en deux éditions, c'est devenu la princesse et la grenouille Pussy, tes histoires de flingues, ça l'ferait si tu venais disons de Russie Mais, tout c'que t'as, mon gars, c'est du sang d'pigeon, et j'parle pas de ruby J'humilie Taïpan au basket et, toi, face à moi, t'es rien en battle, comme sur un terrain d'rugby À ce stade de ta vie, t'as l'honneur de m'affronter Mes rimes sont en or massif, les tiennes sont en or plaqué J'deviens un pilier de ce truc si je décide de m'en mêler Dès la deuxième ou troisième ligne, tu vas prendre une pénalité Ta ligne de défense recule, tu subis l'raffut, ta ligne d'en-but est à portée C'est vrai, on t'a crée dans un seul but, bouffon, ça fait quatre éditions que t'étais censé transformer l'essai Ta ligne d'en-but est à portée, écoute, il y a que si je ramène la coupe qu'on pourra transformer les C De toutes façons, on a bien capté qu'c'est pas ta taille mais ton ego qui rentre pas dans le grand plan Selon lui, c'est un requin, j'en ai eu des échos, moi, j'suis un pêcheur irlandais venu tuer le grand blanc Non, j'te jure, t'as rien d'une squale et, ça, c'est clair, bitch Toi, juste personne dit que tu clashes mal, donc tu persistes Mais c'est fini, sans qu'il s'passe rien, j'suis venu t'faire mal ça, c'est Blair Witch T'as rien d'un requin, car j'ai vu l'interview chez P-H Grâce à ça, j'peux t'monter en l'air comme une barrière de péage Non, t'as rien d'un requin, parce que t'avoues recycler tes phases Donc descends ton étage, normalement, c'est pas le rookie qui doit t'expliquer les bases Non, sérieux, reprendre ses phases, c'est wack Est-ce que tu sais que, le seul à faire ça, c'est oi-t' ? T'as rien d'un requin car, quand tu m'as jugé au LC, j't'ai mis sur un piédestal Mais j'ai capté qu't'es juste un être détestable Tu dis avoir installé un siège sur le battle rap Mon gars, le siège dont tu parles est un siège éjectable Non, sérieux, check-moi Est-ce que j'ai repris mes phases du LC qui t'ont fait tant crier ? Non, car j'ai toujours de l'inspi quand j'trempe ma plume dans son encrier Sans crier, j'suis venu faire une croix sur toi, comme sur le torse d'un templier Entre toi et moi, y a clairement une diff' sur l'papier Tu fais que des lignes de mères, mais les gens disent que tu fais que surclasser Tes phases de mères, sérieux, N'Joy, j'en ai plus qu'assez J'suis venu briser ta carapace, frérot, t'es mon crustacé Contrairement à ce qu'on peut croire, j'suis pas venu m'battre J'en ai pas besoin car, moi, les Requins, j'les traîne à mes pattes dans le hall du bât' Les Requins est-ce que, là, tas capté qu'j'te parle de pompes ? Quand j'te dis qu'j'vais mettre tes yeux en face des trous, est-ce que t'as capté que j'te parle de pompe ? Non, j'déc', si j'dis que j'sors les pompes 45, j'parle juste de mes Asics Là, je vais parler d'ta zik' j'ai écouté, c'est vraiment du bullshit J'vais t'faire écouter la mienne pour que t'aies plus des goûts d'shit J'suis pas sûr que ça marche mais, au moins, j'essaie, comme le logo Gucci En plus, les gens nous comparent et, ça, ça m'rend fou Parce que, contrairement à toi, j'veux être respecté en posant mes couilles sur la table, pas en passant dessous T'as rien d'un requin parce qu'au ROAR 001, tu dis être un pêcheur chinois, RAF, c'est moi qui décide quand est-ce qu'il canne J'vais mettre le Chinois à genoux, appelle-moi Gengis Khan Non, t'as rien d'un requin, t'es même pas proche d'la carpe P't-être un long poisson parce qu'à cinquante mètres de l'objectif, on voit ta tête en gros comme si t'étais proche d'la cam' C'est vrai que t'es un grand du BR, t'es sorti de face à Taïpan en étant intact Au ROAR 003, t'hochais la tête à toutes mes phases comme si j'mettais un jab Mais, là, c'est fini J'suis venu soulever l'poids lourd comme si j'étais un diable Au ROAR 001, on t'a mis contre Ésope, mais ça a pas marché Au ROAR 002, c'était mieux, vu qu'on t'avait pas matché Pour le reste, on a du mal à suivre la Rotka dance À Marseille, c'était l'édition 003, t'en étais déjà à ta deuxième chance Contre Ésope, c'est chaud, on a tous cru que t'étais dé-p' Quand t'as commencé avec ton Ok, yo, moi, j'ai su que t'étais dead Ésope MVP, c'est légit' mais, toi, tu casses pas d'brique, Ésope nous fait un match classique Dommage qu'en face de lui, il y ait rien d'plus qu'une conasse d'asmatique T'as voulu jouer les loubards Ce coup-là, j'te loupe pas T'as dit J'te roule dessus avec une caisse sans essieux Formidable, sauf qu'une caisse sans essieux, ça roule pas Cheef était triste, pire, Lamanif a dit Qu'on vire ce pitre La meuf à côté d'moi m'a dit C'est rigolo, hein ? Il y a pas qu'en battle qu'il a du mal à suivre le rythme Pourquoi tu t'accroches ? Ça me fascine Poto, si tu t'approches, j'te calcine Dès qu'ça devient chaud, tu vacilles T'étais bon en battle face cam' Parce que, les battles face cam', c'est facile Ton heure a sonné, l'animal, c'est l'heure de la tonte Quand le ROAR a connu le succès, t'as connu que le frisson d'la honte Alors tu peux m'sucer ou retourner forcer la fonte Ton cur de glace, poto, j'viens d'en amorcer la fonte Il y a que pendant tes exercices de muscu' que tu restes bien droit Bramzo a attendu ses frères, tu serais rien sans les tiens, t'aurais mieux fait d'respecter ça Tu manques d'éducation, miskine, elle est un peu fine, ton estime de soi Tu peux soulever toutes les barres du monde, tu seras jamais carré comme moi Quand je rentre, le soir, ta daronne m'attend à la fenêtre Elle me fait beaucoup rire quand elle se déshabille, j'trouve ses bourrelets burlesques Elle est chaude comme le soleil quand l'horizon est sombre, funeste Ta mère, elle me suce jusqu'à la mort, c'est une vraie pompe funèbre Quand t'es venu au monde, c'était un moment plein de tendresse Sauf pour ta mère, la pauvre, elle cherchait ton daron dans toute la tess' Le soir venu, personne ne l'a revue, elle était un peu en détresse Le médecin est arrivé, elle a lui a dit Laissez tomber, j'crois qu'ce bâtard fait un déni de grossesse Ironiquement, vingt ans plus tard, toi aussi, t'as eu du mal à tenir ses promesses Enlève tes mains de ton caleçon lâche du mou Rotka, à chaque battle, c'est un carton pas du tout Tu vas encore demander pardon, marre du roux Ce soir, j'ai enterré la vie d'ce jeune garçon Marc Dutroux</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>H Magnum Rentrez chez vous Big Black M Rentrez chez vous Fin de Dream Big Black M, H Magnum TPP T'as trop de swag Black M Arrête de bire poto Comment tu fais ? Arrête D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt You might also like J'ai fais des gosses à la Critique, je les ai appelé Disques d'Or Ferme ta gueule akhi parce que mon fils dort Gotham City, H Magnum a buté Batman C'est pas une punch'... C'est une blackline ! Attends, attends, rimes aiguisées, flow c'est qui ça ? Peggy déguisée, heu non c'est trop bizarre ! Inimitable, j'me limite pas aux MCs Mais ché-la ton idole, tu l'imites mal J'vais sponsoriser ta mif', ton clan, ta te-tan T'as le seum, t'aimerais ne pas bouger, mais le son fait que t'es dedans One shot, here we go ! Appelle moi Black Luigi C'que j'vois c'est trop gros, personne n'a le budget T'es pas prêt, sur le beat je slalome Chacun pour sa peau, en 2013, akhi c'est ça l'Homme Les cles-on au foyer, faut pas les renvoyer La vie c'est pas nos clips, ça se passe pas comme vous le voyez Problèmes, loyers, j'veux arrêter de vouvoyer T'es pas prêt Black M est malade, personne pour le soigner T'es pas prêt M'sieur l'agent, tu m'fais mal au poignet T'es pas prêt Je l'ai d'ja roulé, c'est entre moi et le douanier Laissez-moi dans mon délire, j'suis atteint j'ai pas le temps J'ai v'là le flow j'ai déjà bossé, explosé l'Apogée Attend j'vais te décomplexer, à tout jamais Tu vas ger-bou ta te-tê sur mon texte les mains en l'air Maudis Game, ils finiront tous intérimaires Oh dis-moi, mais tu n'as pas la gueule du winner ! Qu'est-ce tu racontes ? Ferme ta gueule TeddyRiner Le but c'est de taper les ventes de celui qui chantait Thriller Ça bosse, ça fait des lustres Portes et fenêtres scellées, oui la famille j'ai dû m'incruster ! D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Si tout le monde arrête de courir, vouloir être riche Je me dis qu'on pourrait profiter de nos êtres chers Le monde appartient aux gens qui ont la meilleure literie Mais qui n'ont pas plus de sentiments que Dexter Très cher, passe-moi le cro-mi qu'on en finisse, que je les punisse Tellement génie, j'peux faire rimer Dream, Nutella et Pénis Oups ! T'es pas prêt, efface mon num, retrouve moi sur la Lune BOOM je suis là ! Girl what you gonna do ? Toi qui connait tout, je vois qu't'es dans le doute Et ma douce on a vu ton boule LaureManaudou Désolé, c'est vrai que mon cerveau m'écoute peu J'ai remarqué ce truc depuis que j'suis tit-pe Issu du petit-peuple, non j'suis pas un people J'suis banal comme un renoi qui meurt d'un coup d'feu J'rappe trop bien, pas besoin d'être validé Vous m'avez négligé, j'viens vous faire valiser MC fais le tour, la prod' est balisée L'album attendu comme la mort de Johnny Hallyday C'est pas une punchline... mais c'est une bourde Donc je me désavoue mademoiselle, après vous Paris c'est fini, y a de la folie, viens me follow Petite souris, moi je serai Tom, et toi tu seras Jerry Appelle-moi H-Smith Wesson J.M Weston, j'kick sur WhatsApp T'es pas prêt, j'massacre, j'suis en mission J'ai tranché le son FleuryMichon Oups Trop de bâtons dans les roues, donc j'ai décidé de marcher MC y a du flow ici, viens faire ton marché J'suis un vrai tueur un vrai de vrai Si t'as les crocs, quand tu croquais, moi je mâchais J'tiens ma rage sous les jupons d'une meute yeah M.C.'s j'vous fais rapper mieux qu'hier D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Paroles rédigées et expliquées par la communauté RapGenius France2</t>
+          <t>H Magnum Rentrez chez vous Big Black M Rentrez chez vous Fin de Dream Big Black M, H Magnum TPP T'as trop de swag Black M Arrête de bire poto Comment tu fais ? Arrête D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt J'ai fais des gosses à la Critique, je les ai appelé Disques d'Or Ferme ta gueule akhi parce que mon fils dort Gotham City, H Magnum a buté Batman C'est pas une punch'... C'est une blackline ! Attends, attends, rimes aiguisées, flow c'est qui ça ? Peggy déguisée, heu non c'est trop bizarre ! Inimitable, j'me limite pas aux MCs Mais ché-la ton idole, tu l'imites mal J'vais sponsoriser ta mif', ton clan, ta te-tan T'as le seum, t'aimerais ne pas bouger, mais le son fait que t'es dedans One shot, here we go ! Appelle moi Black Luigi C'que j'vois c'est trop gros, personne n'a le budget T'es pas prêt, sur le beat je slalome Chacun pour sa peau, en 2013, akhi c'est ça l'Homme Les cles-on au foyer, faut pas les renvoyer La vie c'est pas nos clips, ça se passe pas comme vous le voyez Problèmes, loyers, j'veux arrêter de vouvoyer T'es pas prêt Black M est malade, personne pour le soigner T'es pas prêt M'sieur l'agent, tu m'fais mal au poignet T'es pas prêt Je l'ai d'ja roulé, c'est entre moi et le douanier Laissez-moi dans mon délire, j'suis atteint j'ai pas le temps J'ai v'là le flow j'ai déjà bossé, explosé l'Apogée Attend j'vais te décomplexer, à tout jamais Tu vas ger-bou ta te-tê sur mon texte les mains en l'air Maudis Game, ils finiront tous intérimaires Oh dis-moi, mais tu n'as pas la gueule du winner ! Qu'est-ce tu racontes ? Ferme ta gueule TeddyRiner Le but c'est de taper les ventes de celui qui chantait Thriller Ça bosse, ça fait des lustres Portes et fenêtres scellées, oui la famille j'ai dû m'incruster ! D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Si tout le monde arrête de courir, vouloir être riche Je me dis qu'on pourrait profiter de nos êtres chers Le monde appartient aux gens qui ont la meilleure literie Mais qui n'ont pas plus de sentiments que Dexter Très cher, passe-moi le cro-mi qu'on en finisse, que je les punisse Tellement génie, j'peux faire rimer Dream, Nutella et Pénis Oups ! T'es pas prêt, efface mon num, retrouve moi sur la Lune BOOM je suis là ! Girl what you gonna do ? Toi qui connait tout, je vois qu't'es dans le doute Et ma douce on a vu ton boule LaureManaudou Désolé, c'est vrai que mon cerveau m'écoute peu J'ai remarqué ce truc depuis que j'suis tit-pe Issu du petit-peuple, non j'suis pas un people J'suis banal comme un renoi qui meurt d'un coup d'feu J'rappe trop bien, pas besoin d'être validé Vous m'avez négligé, j'viens vous faire valiser MC fais le tour, la prod' est balisée L'album attendu comme la mort de Johnny Hallyday C'est pas une punchline... mais c'est une bourde Donc je me désavoue mademoiselle, après vous Paris c'est fini, y a de la folie, viens me follow Petite souris, moi je serai Tom, et toi tu seras Jerry Appelle-moi H-Smith Wesson J.M Weston, j'kick sur WhatsApp T'es pas prêt, j'massacre, j'suis en mission J'ai tranché le son FleuryMichon Oups Trop de bâtons dans les roues, donc j'ai décidé de marcher MC y a du flow ici, viens faire ton marché J'suis un vrai tueur un vrai de vrai Si t'as les crocs, quand tu croquais, moi je mâchais J'tiens ma rage sous les jupons d'une meute yeah M.C.'s j'vous fais rapper mieux qu'hier D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>H Magnum m'a dit ne fait confiance à personne, Vegedream Ils sont là juste parce que tu t'appelles Vegedream Ne te laisse pas le temps de gagner du temps, Vegedream Car le temps c'est de l'argent, n'oublie jamais d'où tu viens, Vegedream Donc pour ça j'dois niquer des mères Pour me faire respecter je vais tout casser eh eh eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je sais d'où tu viens on est tous fière de toi, Vegedream Tu t'es beaucoup battu pour devenir une re, Vegedream Tu connais mon histoire fait trés attention, Vegedream Les gens sont mauvais ils n'attendent que ta chute, Vegedream Oh Vegedream, on va tout casser eh dream eh eh You might also like Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh2</t>
+          <t>H Magnum m'a dit ne fait confiance à personne, Vegedream Ils sont là juste parce que tu t'appelles Vegedream Ne te laisse pas le temps de gagner du temps, Vegedream Car le temps c'est de l'argent, n'oublie jamais d'où tu viens, Vegedream Donc pour ça j'dois niquer des mères Pour me faire respecter je vais tout casser eh eh eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je sais d'où tu viens on est tous fière de toi, Vegedream Tu t'es beaucoup battu pour devenir une re, Vegedream Tu connais mon histoire fait trés attention, Vegedream Les gens sont mauvais ils n'attendent que ta chute, Vegedream Oh Vegedream, on va tout casser eh dream eh eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh2</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Submariner sur le poignet Chute de reins sous les palmiers Ouais le diamant il est taillé Tout a coulé dans l'sablier J'ai eu c'que j'voulais, j't'unfollow Parle en dirhams, parle en euros Si j'dois te faire, j'le fais solo solo Le jour se lèvera avec ou sans toi poto Échec et mat tu ne restes qu'un roi Tous les jours moi je priais pour toi J'ai déjà tout dis, moi j'ai besoin de quoi? Eh eh, la vie qu'on mène Eh eh, c'est pas la tienne Eh eh, tu veux la paie Eh eh, on veut la monnaie Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito You might also like L'inspi vient du benks, tu vas te faire rafaler J'ai de quoi te faire crier, de quoi te faire cavaler Si tu sais pas qui j'suis, tu n'as qu'à me Shazamer Si quelqu'un l'a piner, frérot dis-lui A jamais Poto, poto, poto, 60 chevaux, j'suis dans l'auto Loco, loco, loco, verre de Chivas ? potos Ghetto, ghetto, ghetto, ride de cheval sur le capot Coco, coco Chanel, faire des sous comme Samuel Eto'o - Refrain Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito J'voulais juste briller Et là d'où je viens, poto j'ai rien oublié Mais à qui s'fier? J'voulais juste briller Mais là d'où je viens, poto j'ai rien oublié Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito</t>
+          <t>Submariner sur le poignet Chute de reins sous les palmiers Ouais le diamant il est taillé Tout a coulé dans l'sablier J'ai eu c'que j'voulais, j't'unfollow Parle en dirhams, parle en euros Si j'dois te faire, j'le fais solo solo Le jour se lèvera avec ou sans toi poto Échec et mat tu ne restes qu'un roi Tous les jours moi je priais pour toi J'ai déjà tout dis, moi j'ai besoin de quoi? Eh eh, la vie qu'on mène Eh eh, c'est pas la tienne Eh eh, tu veux la paie Eh eh, on veut la monnaie Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito L'inspi vient du benks, tu vas te faire rafaler J'ai de quoi te faire crier, de quoi te faire cavaler Si tu sais pas qui j'suis, tu n'as qu'à me Shazamer Si quelqu'un l'a piner, frérot dis-lui A jamais Poto, poto, poto, 60 chevaux, j'suis dans l'auto Loco, loco, loco, verre de Chivas ? potos Ghetto, ghetto, ghetto, ride de cheval sur le capot Coco, coco Chanel, faire des sous comme Samuel Eto'o - Refrain Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito J'voulais juste briller Et là d'où je viens, poto j'ai rien oublié Mais à qui s'fier? J'voulais juste briller Mais là d'où je viens, poto j'ai rien oublié Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Hey, Aznvr Toujour binks, moi j'suis resté toujours binks J'veux tout d'un coup, vas-y me rend pas fou sin-cou Ça charbonne, oui, ma chérie ça charbonne Un truc de fou, ça peut t'rafaler dans ton bain J'veux du cash comme aux Antilles J'ai pas la tête de l'emploi, j'suis pas gentil Non, non, j'suis pas gentil Si tu te casses, bébé, tant pis, c'est ta meilleure amie que j'enquille Ouais, ouais, ouais Mon avocate, mon banquier, j'côtoie aussi deux-trois bandits Insaisissable comme Banksy, les murs ont des oreilles comme à Baangui Mais oui, j'te comprends, t'as la pression T'as la pression Tu sais très bien qu'c'est moi qui ai la potion Bah ouais, bah ouais Elle me vient des champs de coton, du coltan Ça danse, mais c'est profond Beaucoup d'âmes dans mes fresques Dans mes fresques Et y a beaucoup d'inspi' dans mes cessions Ouais, ouais La police pose trop de questions C'est choquant, la violence est custom, ouais, ouais You might also like Toujour binks, moi j'suis resté toujours binks J'veux tout d'un coup, vas-y me rend pas fou sin-cou Ça charbonne Oh, oui, ma chérie ça charbonne Un truc de fou, ça peut t'rafaler dans ton bain J'arrive dans l'club en jogging Joggo Mais les bracelets coûte un building Y a plus la place dans mon dressing Comme dans les contes fous, y a un messi Lionel Messi Quand tu me parles, soit bien précis Bien précis Pas l'temps de faire ami-ami Je n'ai pas ton time La malagang aujourd'hui, on l'a construit, mais petit à petit Ra-ta-ta Le miel a beaucoup d'inspi' Ra-ta-ta Que les abeilles apprécient Ra-ta-ta J'ai montré qu'j'pouvais l'faire et tu cherches si j'dit la vérité dans mes récits Oh, ra-ta-ta J'suis toujours l'même sur le principe Ra-ta-ta Avec l'oseille et les certifs' Ra-ta-ta Elle veut me voir en vrai, me parler d'écologie, avec un boule en plastique Ra-ta-ta Toujour binks Oh yeah, oh, moi j'suis resté toujours binks Oh, oh J'veux tout d'un coup Tout, tout, vas-y me rend pas fou sin-cou Rend pas mehboul Ça charbonne Oh, oui, ma chérie ça charbonne Le jour, la nuit Un truc de fou, ça peut t'rafaler dans ton bain Ra-ta-ta H Magnum, on a souffert comme personne H Magnum, dit leur qu'on a souffert comme personne Aujourd'hui, on va fêter comme personne Aujourd'hui, dit leur qu'on va fêter comme personne Ra-ta-ta H Magnum, on a souffert comme personne Ra-ta-ta H Magnum, dit leur qu'on a souffert comme personne Ra-ta-ta Aujourd'hui, on va fêter comme personne Ra-ta-ta Aujourd'hui, dit leur qu'on va fêter comme personne Oh, oh, ah</t>
+          <t>Hey, Aznvr Toujour binks, moi j'suis resté toujours binks J'veux tout d'un coup, vas-y me rend pas fou sin-cou Ça charbonne, oui, ma chérie ça charbonne Un truc de fou, ça peut t'rafaler dans ton bain J'veux du cash comme aux Antilles J'ai pas la tête de l'emploi, j'suis pas gentil Non, non, j'suis pas gentil Si tu te casses, bébé, tant pis, c'est ta meilleure amie que j'enquille Ouais, ouais, ouais Mon avocate, mon banquier, j'côtoie aussi deux-trois bandits Insaisissable comme Banksy, les murs ont des oreilles comme à Baangui Mais oui, j'te comprends, t'as la pression T'as la pression Tu sais très bien qu'c'est moi qui ai la potion Bah ouais, bah ouais Elle me vient des champs de coton, du coltan Ça danse, mais c'est profond Beaucoup d'âmes dans mes fresques Dans mes fresques Et y a beaucoup d'inspi' dans mes cessions Ouais, ouais La police pose trop de questions C'est choquant, la violence est custom, ouais, ouais Toujour binks, moi j'suis resté toujours binks J'veux tout d'un coup, vas-y me rend pas fou sin-cou Ça charbonne Oh, oui, ma chérie ça charbonne Un truc de fou, ça peut t'rafaler dans ton bain J'arrive dans l'club en jogging Joggo Mais les bracelets coûte un building Y a plus la place dans mon dressing Comme dans les contes fous, y a un messi Lionel Messi Quand tu me parles, soit bien précis Bien précis Pas l'temps de faire ami-ami Je n'ai pas ton time La malagang aujourd'hui, on l'a construit, mais petit à petit Ra-ta-ta Le miel a beaucoup d'inspi' Ra-ta-ta Que les abeilles apprécient Ra-ta-ta J'ai montré qu'j'pouvais l'faire et tu cherches si j'dit la vérité dans mes récits Oh, ra-ta-ta J'suis toujours l'même sur le principe Ra-ta-ta Avec l'oseille et les certifs' Ra-ta-ta Elle veut me voir en vrai, me parler d'écologie, avec un boule en plastique Ra-ta-ta Toujour binks Oh yeah, oh, moi j'suis resté toujours binks Oh, oh J'veux tout d'un coup Tout, tout, vas-y me rend pas fou sin-cou Rend pas mehboul Ça charbonne Oh, oui, ma chérie ça charbonne Le jour, la nuit Un truc de fou, ça peut t'rafaler dans ton bain Ra-ta-ta H Magnum, on a souffert comme personne H Magnum, dit leur qu'on a souffert comme personne Aujourd'hui, on va fêter comme personne Aujourd'hui, dit leur qu'on va fêter comme personne Ra-ta-ta H Magnum, on a souffert comme personne Ra-ta-ta H Magnum, dit leur qu'on a souffert comme personne Ra-ta-ta Aujourd'hui, on va fêter comme personne Ra-ta-ta Aujourd'hui, dit leur qu'on va fêter comme personne Oh, oh, ah</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Je sais que t'es sous pression, j'fais pas les choses à moitié Je vais te baiser devant chez toi, non je ne m'arrêterai pas à Poitiers Si si le Dream en sonne-per, les re-nois qui ressemblent à Sean Penn Qui évoluent dans ce monde où les cheums peinent, à serrer de la meuf sans le champagne H est là c'est la bonne paire, je me fais rare comme une bonne soeur Je te fais penser à ton père, normal car je t'ai niqué ta...hum Fais pas le malin, tu vas te faire mêler, je viens faire le ménage, trop d'illuminés Ne confonds pas le Jack, la limonade, si t'as pas vu la baffe, j'y vais mollo Trouve moi dans le tiek', mais pourquoi tu t'entêtes ? Moi j'suis l'Ghetto high-tech, ça bicrave sous iPad Pour le feat ? Okay c'est bon, fais moi voir ton CV T'as jamais fait de tête à tête, je ne pense pas pouvoir t'aider Oh oui my nigga, mes rimes sont codées Crie pas, mets des Pas de bras, pas d'CD Puis merde tant pis, j'veux des milliards d'centimes Quand j'arrive ça sent l'crime comme Kim Jong Il Tu vas nous respecter comme Kim Jong Il J'viens d'là où les p'tits jeunes friment Respecte nous comme Kim Jong Il Ici y a peu d'gens clean, pères de mif' junkie Kim-Kim-Kim-Kim Jong Il Kim, Kim-Kim-Kim-Kim Jong Il Kim Jong Il, Kim-Kim-Kim Jong Il Kim-Kim Jong Il You might also like 7.5.Double 0.9, mais qui voilà ? Ça serait pas c't'enflure d'Meugiwara? Pour qui tu t'prends ? Kadhafi, Che Guevara ? Un pas de plus, on va t'niquer ta race Stylé lomalama, normal là c'est Paname, 4.S Panamera turbo petit malin Allez viens j'vais t'vé-la, vé-le toi, j'fais du pera qui décoiffe, les rends pas, j'ai le truc, j'fais des dégâts J'suis dans les magazines, au cinéma de Belleville, j'fais mal comme la cocaïne qui vient de Philippines, Bolivie Aston Martin, merci Martin, t'inquiètes, je sais ce qu'ils attendent Ils veulent des buts de Zlatan, dormir dans des draps de satins, tasspés l'matin Skyrock, NRJ de septembre à septembre J'big Up les 4 Chemins, les mecs d'en bas de chez moi Danube, les bouts de chemin C'est Paris forcément 9ème la compte, ça crie Arts métiers, bébé oui c'est moi, tu veux ma tof ? Laisse moi passer Qu'est-ce qu'il s'est passé ? Pourquoi t'es caché ? Meugui postiché,steu-vé Versace Frère faut pas s'facher, j'en ai plus qu'assez, j'ai pas besoin d'sucer 1 million d'CD Est-ce que j'peux avoir ton p'tit code PIN ? Non ! T'es moche et j'ai pas besoin d'copine Toc-toc C'est qui ? Donne tous tes centimes J'suis avec des gars stick genre Tchin Tchong et Tching Tu vas nous respecter comme Kim Jong Il J'viens d'là où les p'tits jeunes friment Respecte nous comme Kim Jong Il Ici y a peu d'gens clean, pères de mif' junkie Kim-Kim-Kim-Kim Jong Il Kim, Kim-Kim-Kim-Kim Jong Il Kim Jong Il, Kim-Kim-Kim Jong Il Kim-Kim Jong Il Tu vas nous respecter comme Kim Jong Il J'viens d'là où les p'tits jeunes friment Respecte nous comme Kim Jong Il Ici y a peu d'gens clean, pères de mif' junkie Kim-Kim-Kim-Kim Jong Il Kim, Kim-Kim-Kim-Kim Jong Il Kim Jong Il, Kim-Kim-Kim Jong Il Kim-Kim Jong Il Tu vas nous respecter comme Kim Jong Il J'viens d'là où les p'tits jeunes friment Respecte nous comme Kim Jong Il Ici y a peu d'gens clean, pères de mif' junkie Kim-Kim-Kim-Kim Jong Il Kim, Kim-Kim-Kim-Kim Jong Il Kim Jong Il, Kim-Kim-Kim Jong Il Kim-Kim Jong Il Ahah T.P.P Tchu tchu DREAM Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Je sais que t'es sous pression, j'fais pas les choses à moitié Je vais te baiser devant chez toi, non je ne m'arrêterai pas à Poitiers Si si le Dream en sonne-per, les re-nois qui ressemblent à Sean Penn Qui évoluent dans ce monde où les cheums peinent, à serrer de la meuf sans le champagne H est là c'est la bonne paire, je me fais rare comme une bonne soeur Je te fais penser à ton père, normal car je t'ai niqué ta...hum Fais pas le malin, tu vas te faire mêler, je viens faire le ménage, trop d'illuminés Ne confonds pas le Jack, la limonade, si t'as pas vu la baffe, j'y vais mollo Trouve moi dans le tiek', mais pourquoi tu t'entêtes ? Moi j'suis l'Ghetto high-tech, ça bicrave sous iPad Pour le feat ? Okay c'est bon, fais moi voir ton CV T'as jamais fait de tête à tête, je ne pense pas pouvoir t'aider Oh oui my nigga, mes rimes sont codées Crie pas, mets des Pas de bras, pas d'CD Puis merde tant pis, j'veux des milliards d'centimes Quand j'arrive ça sent l'crime comme Kim Jong Il Tu vas nous respecter comme Kim Jong Il J'viens d'là où les p'tits jeunes friment Respecte nous comme Kim Jong Il Ici y a peu d'gens clean, pères de mif' junkie Kim-Kim-Kim-Kim Jong Il Kim, Kim-Kim-Kim-Kim Jong Il Kim Jong Il, Kim-Kim-Kim Jong Il Kim-Kim Jong Il 7.5.Double 0.9, mais qui voilà ? Ça serait pas c't'enflure d'Meugiwara? Pour qui tu t'prends ? Kadhafi, Che Guevara ? Un pas de plus, on va t'niquer ta race Stylé lomalama, normal là c'est Paname, 4.S Panamera turbo petit malin Allez viens j'vais t'vé-la, vé-le toi, j'fais du pera qui décoiffe, les rends pas, j'ai le truc, j'fais des dégâts J'suis dans les magazines, au cinéma de Belleville, j'fais mal comme la cocaïne qui vient de Philippines, Bolivie Aston Martin, merci Martin, t'inquiètes, je sais ce qu'ils attendent Ils veulent des buts de Zlatan, dormir dans des draps de satins, tasspés l'matin Skyrock, NRJ de septembre à septembre J'big Up les 4 Chemins, les mecs d'en bas de chez moi Danube, les bouts de chemin C'est Paris forcément 9ème la compte, ça crie Arts métiers, bébé oui c'est moi, tu veux ma tof ? Laisse moi passer Qu'est-ce qu'il s'est passé ? Pourquoi t'es caché ? Meugui postiché,steu-vé Versace Frère faut pas s'facher, j'en ai plus qu'assez, j'ai pas besoin d'sucer 1 million d'CD Est-ce que j'peux avoir ton p'tit code PIN ? Non ! T'es moche et j'ai pas besoin d'copine Toc-toc C'est qui ? Donne tous tes centimes J'suis avec des gars stick genre Tchin Tchong et Tching Tu vas nous respecter comme Kim Jong Il J'viens d'là où les p'tits jeunes friment Respecte nous comme Kim Jong Il Ici y a peu d'gens clean, pères de mif' junkie Kim-Kim-Kim-Kim Jong Il Kim, Kim-Kim-Kim-Kim Jong Il Kim Jong Il, Kim-Kim-Kim Jong Il Kim-Kim Jong Il Tu vas nous respecter comme Kim Jong Il J'viens d'là où les p'tits jeunes friment Respecte nous comme Kim Jong Il Ici y a peu d'gens clean, pères de mif' junkie Kim-Kim-Kim-Kim Jong Il Kim, Kim-Kim-Kim-Kim Jong Il Kim Jong Il, Kim-Kim-Kim Jong Il Kim-Kim Jong Il Tu vas nous respecter comme Kim Jong Il J'viens d'là où les p'tits jeunes friment Respecte nous comme Kim Jong Il Ici y a peu d'gens clean, pères de mif' junkie Kim-Kim-Kim-Kim Jong Il Kim, Kim-Kim-Kim-Kim Jong Il Kim Jong Il, Kim-Kim-Kim Jong Il Kim-Kim Jong Il Ahah T.P.P Tchu tchu DREAM Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tu veux de l'info' ? J'vais t'en donner Toutes les semaines des tonnes d'actualités Tu caches tes fautes ! J'aimerai dire un truc aux politicos ! J'vous préviens vous allez perdre vos chicos ! Tu t'abonnes à la chaîne tu finis accroc ! Tu calcules plus ta go, mais... Wesh poto ! Tu m'as pas dit qu't'étais dans les info' ! Moi j'pensais que tu faisais que des morceaux ! Fin De Dream, Violent et Komodo ! Alors viens fréro, ça c'est de la punch' d'info' ! Tranquille, tranquille, tranquille... Les ministres débarquent quelque part Vont déclarer tous leurs patrimoines, leurs avoirs Ah ! J'y crois... Pas ! Pas ! Pas ! Appelez Copperfield ou suppliez Médiapart Flot au gouvernement, tout le monde veut être transparent P.S - U.M.P - F.N ça pue le remaniement You might also like Quitte à tout montrer, admirez donc mon coffret Mon Picasso, mon pistolet, ma femme, ma cuisine équipée Mon yacht et ma villa d'été Mes 600 000e épargnés, et mon I-Pad préféré Mais vous n'aurez pas... ma liberté d'dépenser Oui, ça fait des années qu'c'est rempli Qu'il n'y a plus de C.D.I Cette odeur de SMIC Cette odeur de crise Pôle Emploi prévoit 1 million de recrutements Le changement c'est maintenant, les prévisions dans longtemps Jean-Paul Belmondo 80 ans pour Be-Bel Hé, Derka, je fais toujours mes cascades moi-même tac-tac-badaboom Fin de connexion pour M.S.N Plus de bruit, plus de bruit, plus de bruit Une ville japonaise annonce un tir de missile, sur Twitter La Corée du Nord à été coupable par erreur - Ah mais à Yokohama faut arrêter l'saké hein - Non, mais on a confondu étoile filante avec missile - Ah d'accord Wesley Snipes sort de cryogénie carcérale Il s'était pris trois ans ferme pour fraude fiscale Folie en Turquie, le Réal se qualifie, yeah Dortmund passe, Malaga pur en Qatari, yeah Sans oublier la qualif' du poto Ribéry, yeah P.S.G éliminé, Barcelone une autre planète Ici c'est Paris Un jour t'es au top, un jour tu subis Ça pleure en équipe On a le championnat, on a presque le titre A part ça, j'suis un pur parigo, pur parigo, go Pur parigo, pur parigo, go Parce que l'info' se doit d'être claire Pom Pom Derka pour vous servir Pom Pom Tranquille, tranquille Tranquille, tranquille Haaaa ! Efface mon phone - Hé, Derka pour le feat' 200 000e - Ah d'accord, tiens H Magnum Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Tu veux de l'info' ? J'vais t'en donner Toutes les semaines des tonnes d'actualités Tu caches tes fautes ! J'aimerai dire un truc aux politicos ! J'vous préviens vous allez perdre vos chicos ! Tu t'abonnes à la chaîne tu finis accroc ! Tu calcules plus ta go, mais... Wesh poto ! Tu m'as pas dit qu't'étais dans les info' ! Moi j'pensais que tu faisais que des morceaux ! Fin De Dream, Violent et Komodo ! Alors viens fréro, ça c'est de la punch' d'info' ! Tranquille, tranquille, tranquille... Les ministres débarquent quelque part Vont déclarer tous leurs patrimoines, leurs avoirs Ah ! J'y crois... Pas ! Pas ! Pas ! Appelez Copperfield ou suppliez Médiapart Flot au gouvernement, tout le monde veut être transparent P.S - U.M.P - F.N ça pue le remaniement Quitte à tout montrer, admirez donc mon coffret Mon Picasso, mon pistolet, ma femme, ma cuisine équipée Mon yacht et ma villa d'été Mes 600 000e épargnés, et mon I-Pad préféré Mais vous n'aurez pas... ma liberté d'dépenser Oui, ça fait des années qu'c'est rempli Qu'il n'y a plus de C.D.I Cette odeur de SMIC Cette odeur de crise Pôle Emploi prévoit 1 million de recrutements Le changement c'est maintenant, les prévisions dans longtemps Jean-Paul Belmondo 80 ans pour Be-Bel Hé, Derka, je fais toujours mes cascades moi-même tac-tac-badaboom Fin de connexion pour M.S.N Plus de bruit, plus de bruit, plus de bruit Une ville japonaise annonce un tir de missile, sur Twitter La Corée du Nord à été coupable par erreur - Ah mais à Yokohama faut arrêter l'saké hein - Non, mais on a confondu étoile filante avec missile - Ah d'accord Wesley Snipes sort de cryogénie carcérale Il s'était pris trois ans ferme pour fraude fiscale Folie en Turquie, le Réal se qualifie, yeah Dortmund passe, Malaga pur en Qatari, yeah Sans oublier la qualif' du poto Ribéry, yeah P.S.G éliminé, Barcelone une autre planète Ici c'est Paris Un jour t'es au top, un jour tu subis Ça pleure en équipe On a le championnat, on a presque le titre A part ça, j'suis un pur parigo, pur parigo, go Pur parigo, pur parigo, go Parce que l'info' se doit d'être claire Pom Pom Derka pour vous servir Pom Pom Tranquille, tranquille Tranquille, tranquille Haaaa ! Efface mon phone - Hé, Derka pour le feat' 200 000e - Ah d'accord, tiens H Magnum Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tu veux de l'info' ? J'vais t'en donner Toutes les semaines des tonnes d'actualités Tu caches tes fautes ! J'aimerai dire un truc aux politicos ! J'vous préviens vous allez perdre vos chicos ! Tu t'abonnes à la chaîne tu finis accroc ! Tu calcules plus ta go, mais... Wesh poto ! Tu m'as pas dit qu't'étais dans les info' ! Moi j'pensais que tu faisais que des morceaux ! Fin De Dream, Violent et Komodo ! Alors viens fréro, ça c'est de la punch' d'info' ! Tranquille, tranquille, tranquille... Les ministres débarquent quelque part Vont déclarer tous leurs patrimoines, leurs avoirs Ah ! J'y crois... Pas ! Pas ! Pas ! Appelez Copperfield ou suppliez Médiapart Flot au gouvernement, tout le monde veut être transparent P.S - U.M.P - F.N ça pue le remaniement You might also like Quitte à tout montrer, admirez donc mon coffret Mon Picasso, mon pistolet, ma femme, ma cuisine équipée Mon yacht et ma villa d'été Mes 600 000e épargnés, et mon I-Pad préféré Mais vous n'aurez pas... ma liberté d'dépenser Oui, ça fait des années qu'c'est rempli Qu'il n'y a plus de C.D.I Cette odeur de SMIC Cette odeur de crise Pôle Emploi prévoit 1 million de recrutements Le changement c'est maintenant, les prévisions dans longtemps Jean-Paul Belmondo 80 ans pour Be-Bel Hé, Derka, je fais toujours mes cascades moi-même tac-tac-badaboom Fin de connexion pour M.S.N Plus de bruit, plus de bruit, plus de bruit Une ville japonaise annonce un tir de missile, sur Twitter La Corée du Nord à été coupable par erreur - Ah mais à Yokohama faut arrêter l'saké hein - Non, mais on a confondu étoile filante avec missile - Ah d'accord Wesley Snipes sort de cryogénie carcérale Il s'était pris trois ans ferme pour fraude fiscale Folie en Turquie, le Réal se qualifie, yeah Dortmund passe, Malaga pur en Qatari, yeah Sans oublier la qualif' du poto Ribéry, yeah P.S.G éliminé, Barcelone une autre planète Ici c'est Paris Un jour t'es au top, un jour tu subis Ça pleure en équipe On a le championnat, on a presque le titre A part ça, j'suis un pur parigo, pur parigo, go Pur parigo, pur parigo, go Parce que l'info' se doit d'être claire Pom Pom Derka pour vous servir Pom Pom Tranquille, tranquille Tranquille, tranquille Haaaa ! Efface mon phone - Hé, Derka pour le feat' 200 000e - Ah d'accord, tiens H Magnum Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Tu veux de l'info' ? J'vais t'en donner Toutes les semaines des tonnes d'actualités Tu caches tes fautes ! J'aimerai dire un truc aux politicos ! J'vous préviens vous allez perdre vos chicos ! Tu t'abonnes à la chaîne tu finis accroc ! Tu calcules plus ta go, mais... Wesh poto ! Tu m'as pas dit qu't'étais dans les info' ! Moi j'pensais que tu faisais que des morceaux ! Fin De Dream, Violent et Komodo ! Alors viens fréro, ça c'est de la punch' d'info' ! Tranquille, tranquille, tranquille... Les ministres débarquent quelque part Vont déclarer tous leurs patrimoines, leurs avoirs Ah ! J'y crois... Pas ! Pas ! Pas ! Appelez Copperfield ou suppliez Médiapart Flot au gouvernement, tout le monde veut être transparent P.S - U.M.P - F.N ça pue le remaniement Quitte à tout montrer, admirez donc mon coffret Mon Picasso, mon pistolet, ma femme, ma cuisine équipée Mon yacht et ma villa d'été Mes 600 000e épargnés, et mon I-Pad préféré Mais vous n'aurez pas... ma liberté d'dépenser Oui, ça fait des années qu'c'est rempli Qu'il n'y a plus de C.D.I Cette odeur de SMIC Cette odeur de crise Pôle Emploi prévoit 1 million de recrutements Le changement c'est maintenant, les prévisions dans longtemps Jean-Paul Belmondo 80 ans pour Be-Bel Hé, Derka, je fais toujours mes cascades moi-même tac-tac-badaboom Fin de connexion pour M.S.N Plus de bruit, plus de bruit, plus de bruit Une ville japonaise annonce un tir de missile, sur Twitter La Corée du Nord à été coupable par erreur - Ah mais à Yokohama faut arrêter l'saké hein - Non, mais on a confondu étoile filante avec missile - Ah d'accord Wesley Snipes sort de cryogénie carcérale Il s'était pris trois ans ferme pour fraude fiscale Folie en Turquie, le Réal se qualifie, yeah Dortmund passe, Malaga pur en Qatari, yeah Sans oublier la qualif' du poto Ribéry, yeah P.S.G éliminé, Barcelone une autre planète Ici c'est Paris Un jour t'es au top, un jour tu subis Ça pleure en équipe On a le championnat, on a presque le titre A part ça, j'suis un pur parigo, pur parigo, go Pur parigo, pur parigo, go Parce que l'info' se doit d'être claire Pom Pom Derka pour vous servir Pom Pom Tranquille, tranquille Tranquille, tranquille Haaaa ! Efface mon phone - Hé, Derka pour le feat' 200 000e - Ah d'accord, tiens H Magnum Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Albums 98Squad - Ep Notif 213 - cake season EP Adel Sweezy - Album Help Bougu - EP Gasoline DAK - Vécu Sale Part.02 Dex - Asil EL NRV - Ep El 3in Escobar - Album Eymas - Ep 777 Fasla - Immoral Logic EP Flood - Album Rap Gimm - The Hills EP Gourbilas - Album Fadda Funk Icowesh - Baya Icowesh - Epilogue Album Icowesh - Make a Wash Album Icowesh - Album New Era Islem 23 - Skywalker IKeen - Coeur Noir Jee - HoodBoy EP Klam - Album The Dusk Lama23i - Album Abonnè Lamou - El Khamsa EP La Sain - Obvie Album La Sain - Obvie Album Réédition LIntouchable - The Phoenix Album LMarin - Album Caviar L'RK - Trap Cartel EP NC - Minuit Sombre NLS - EP Six Paranoia - El-Arrab Ritm Side - Air Bag EP Syc - EP Labo Zako - Monster Album You might also like Mixtapes 213 - Mixtape 16 Altos - Driller V 0.1 Mixtape Capo Trono - Gaz Boom Cinou - Al Filo DAK - Tropico DAK - Vécu Sale Mixtape Dill - Vision Dirty - Out The Mud Tape Dirty - Dirty Tape Vol 1 Dirty - Drill or Die Tape Dirty - Mixtape Ta3erfini Legende DreamBigMusic - The Mixtape Ransome 02 The Mad teste Don Klaymore - Parano-Rap Mixtape Doseur - ' Mixtape El Guapo - Cameleon Fethi Smailo - 250 G Mixtape Fusee - Fuseeloading H-Flowd - Death Note Izakos - Nostalgic Mixtape K1LLAM - Kubilai Mixtape L'Adrinaline - 'Pour Ceux Qui Savent' Mixtape Mirvana - 1Min2Reve Mixtape Mizou - La Street ND2M - Andromeda Mixtape Savag Plug - Savag Park Skorp - Riot Mixtape Solo Gang - LSD T.H - Mixtape Dark Side Z-Zone B - Amaz-Zon Mixtape Z-Zone B - Contre Attaque Mixtape Série Freestyle Fada Vex - El 3arboune BeatTapes Air3ad Beat Tape Ghost Beatz - Alexithymia Juzx - SkyWalker MP Beats - N.F.C Santo Beats - Medcine BeatTape Shxdai - Kora Shxdai X Syxon - Sky Legends Shxdai - La Flame Syxon Beat Xley - In Time 29-04-2020 Syxon Beat - Raiboomin 29-05-2020 Syxon Beat - BROKEN V 1 01-07-2020 Syxon Beat - BROKEN V 2 01-08-2020 0101 El Guapo - Ghazeli 0101 Altos - EgoVibes 0101 Pouliano - Lost 0101 Magnum - La Fierté 0101 Bigi X Kami Phénoméne - Lollipop 0101 Willson X Isserois - Hwali Prod Respo 0201 Izakos - Regret 0201 54.Rime - Pile ou Face 0201 54.Rime - 2emeTemps 0301 54.Rime - Roll Up 0301 Lotch - El 3asiir 0401 54.Rime - F.O.S Freestyle 0401 Ven - Peace 'Freestyle' Xley Prod 0401 HB7 - Weekend 2 0501 Blanco - Darblé 2020 0601 Willy - Menace 2 ft Othman RSP X Sam Dex X Shawn X CSR X CJ X Mido X Zahhman 0601 Doseur - Freestyle Act 1 0601 SOH - Hermosa 0701 Dak - Bared 0701 El Ghayes - Win 0801 Alterego - Napoli 0901 MD - My Way 0901 Izakos - Loup 0901 Golden Gun - We Dont Give a Fuck 0901 Darko D.S - Garo Mrouli 0901 Typhon - Fluoroantimonic 1001 BBM - Pérdu 1001 RaffTheReal - Radical 1101 Escobar - Bravo 1201 Dry X Sko - Hyatna 1201 Mak - Internal 1201 Fada Vex X DProd - El 3arboune Paroles 1201 54.Rime - Vara Folisohie 1201 SC Empire - Djihti 1301 Casanova X Yorsin - Scusa Mama 1401 213 - On S'En Sort ft Zako x IcoWesh 1401 MBK - Pain 1501 TFK - Dababa 1501 Wildy - La Base Paroles 1501 SOH - Réflexion 1601 La Sain - Vrai Titre Enregistré en 2015 1601 Z-Zone B - Deep Emotion 1701 Rbh - Grand Roue 1801 Largo X Exo - Karah 1801 Bakama - I See 1801 L'RK - Loco Paroles 1901 MTL - Sorry 2101 IcoWesh - Cke Je Veux A.W.A Beats 2101 IcoWesh - Denya Prod By Drogua 2201 Klam - Esp'War ft Youppi 2201 Typhon - Damn 2301 Oualide X Dey - Isserois I Baki 2301 Freestyle NSP 01 - Kibou X RD X MVSS X Dodi X TFK 2301 SOH - Rass Ytir 2301 L'Adrinaline - 3ayta Prod By Marshal 2301 L'Orage - N.O.D.A 2401 El Sancho X SK Fly Gang - 1609 2501 BBM - Mexico 2601 Dill - Dilline 2 2601 Z-Zone B - Amaz-Zon 2 2701 Blanco - 23.76 ft Hakra Smoke140.prod 2701 El Ghayes - Monologue V1 2701 Enemy - PS feat Xan La Magic 2701 Mak - Pulse Freestyle 2801 Lil Bra - Shot 2901 213 - Big Dawg 2901 Kibou - OLa 2901 TRB - Facile 3001 Khaled Yakuza X Black Oudini - Dima Nayda 3001 Dirty - All Eyes On Me ft Zako 213 3001 Raouf BKL - Cataphote Clach Boulitique 3101 Xsane - You Gon Learn Remix Eminem 3101 YRGR X F.F - Voices In My Head EL8 3101 SC Empire - Money 7aram 3101 DreamBigMusic - Cyclone Freestyle 0102 Scuty - Truquer 0102 Savag Plug - Darmany 0102 Ven X DLF - Erreue V2 0202 BlackGuns - 0302 Massita La Mass - Demon Slayer DDT DZ 0402 Aymen - Memorie 0602 Doseur - Chapeau de Paille Part 3 CDP3 0602 HB7 - Freedome 0602 Zako - OFF 0602 El Sancho X NLS - Amiral 0702 Mc Artisan X Khaled Yakuza - Yubitsume 0702 Skyzo - Nico Robin 0702 Xsane - Premonition Godzilla Remix Eminem 0702 Bigi - Maria 0702 Sk Uzi - Next Level 0702 Dry - Khebta 0802 Ill Yes - Candela 0802 Lwino - Cabina Awwed L Weed Freestyle part 1 0902 Dak - God Bless 0902 Scuty - Zone Rouge 1002 Islem 23 - B3ad ft Rania 1102 Freestyle 1 Tchista Remix by DJ TTH Freestyle sur 7 Mesures 1102 TFK - HH 1102 Pouliano - The Beast 1102 Sohaib RFA - Eternel Struggle 1302 IcoWesh - Besmeleh 1302 Escobar X Loco - Joker 1302 Izakos - Acrro-Y-ouppi Drouppi 1402 Flenn - Meryoula 1402 Xsane - Not Yet Prod Lunai 1402 IKeen - Mask Freestyle 1502 Khaled Yakuza - Sombre 1502 Aimen - Level Up 1502 Skyzo - Vol 3 ft Ali Ghorba 1502 Blanco - L'Mor ft Ramzy 1502 Badii X B.M.T - Oh Back Prod by Toxic Beats 1502 STH - Double V2 1602 EL NRV - Freetyle 1 1702 Mc Artisan X Largo - Icon 1702 Savag Plug - Disque Dor 1802 MZA X MC Walid - Rosa 1902 HB7 - WTF 2 Fucking Demon CB4BITCH 2002 Adnan - Mbappé 2002 WLD - Freestyle 1 2002 Brut Dassi Dassi - Maktoub 2002 Youss - Wlidi ft Elyas Seddas 2102 Imed - Bassi6 Prod Baileydaniel 2102 Natlos - Lghalta Fiya Na prod by Moz'Art 2102 El Hass - Chitana Prod By Raval 2102 SOH - Fight 4 2102 Dak - Dédoncé 2102 Matadore X MD - Hmoumi 2202 Sohaib RFA - 22 Février 2202 Islem 23 - Hooligans ft Cr23 2302 Youppi - Nostalgine Cronick Prod Beat 'Nas - Affirmative Action Rénovation' 2302 MTL - Demons 2302 Aimen - Virus 2402 TFK - Lonely ft Dodi X RD 2502 NLS X El Sancho - Calma Prod by Riley X Ysos 2502 Lunn - Ding Prod by Persia 2502 Dak - Bloqué 2.0 2502 Mak - Ultra 2602 Dry - Slave 2702 Scuty - Indien 2702 Mok Saib - El Ghorba -Algerie- ft Phobia Isaac JowRadio 2702 Dak - Des Fois 2702 Lyrix Boy - Villain Freestyle Prod by DBM 2802 Fada Vex - El 3arboune 2 Paroles 2802 Dirty - No Pain ft Spirit 2802 ND2M - Intro Balls 2902 Largo - M.K 2902 Islem 23 - Shoot 2902 K1llam - 3labali 2902 T.N.M.M 0103 MBK - 7kaya 0303 Dak - La Droga ft Sayko 0303 Escobar X Harir - Ghedara 0303 Siife Elklam - Liberta 0403 MBM - fxxxxxxxt Zwax Malificent 0403 HB7 - Mary 0503 MLK - Bounedjah WahranStory2 0503 Lozko - Freestyle Challenge 0503 Sko - Roh Brk 4 Prod By FreezyBeats 0503 Youppi X NWAR - Sot Deal Freestyle 0603 Paka - Back 0603 MZA - Essemhili LMima ft Chiekh Djelloul Chelfi X A Junior 0603 El Sancho - LM 0703 Dak - La Vie Du Charbon 0703 Islem 23 - Tafi 0703 Aimen - Rendez-Vous 0703 Low.i - Limitless 0703 Scuty - Ma Vie Noir 0803 Mak - Pain Freestyle 0803 Golden Gun - Blia 0803 Youppi - Last Message 2 0903 AB Black - Back In Black 0903 MNR - Mama 1003 Dak - Street Filo 3.0 1003 Altos - Melly Rock 1103 IcoWesh - Wesh L'Houma 1203 Bab El Oued Street - Differnet Vision 1203 El Hass X Psychotronom - Hasta La Vista Part 1 Air3adEp01 1203 MC Artisan - Faith Evans 1203 La Sain - Brille ft Blanco Prod by Bro Connexion 1203 Cinou - Infierno Prod by Marshal 1203 Lyrix Boy x DBM - Shimmy Remix 1203 Syc - Freestyle Prod By Layks 1203 SOH - Fellaga 1203 Magnum - MSix 1303 IcoWesh - Freestyle 21 Mesure 1 Corona 1303 DonK13 - El 3iyada 1303 Listi - La Sicile 1303 SC Empire - Mia Khalifa 1303 Skyzo - on est la 1403 Islem 23 - Bad 1403 SC Empire - Snin K7oula Prod Absaroth 1503 Xsane X Mc Lama - Not Yet 1503 Gimm - Purple Links Freestyle Prod bi Lil Chick 1503 Youppi X Abdou HK - Harba beat by A.WA 1603 IcoWesh - Freestyle 21 Mesure 2 Corona 1703 TFK - GDC 5 GhirDirGolV5 1703 DreamBigMusic - Poker Face 1803 Cinou X Jamca - CoolBaba Freestyle 1803 Flenn - Mchat Liem 1803 DMD - Dakar -remix- Loyalty Means Everything 1903 Syc - Go Prod by Nota 1903 IcoWesh - L'Un De Moi 1903 SL X FNCK - T.R.M.F 1903 Boug - Do Re Mi 2003 L'Mad - Facts 2003 SOH - Anamorphic 2003 Xsane - Grave Audio Cured The LP 2103 Tokyou - Ki Twali Pord by Tokyou 2103 IcoWesh - Album Make a Wash 2203 Largo - Slae Coup Freestyle 2203 SC Empire - Corona 2203 Golden Gun - 2203 Moha MC - Déception 2203 El Guapo - Favela ft LTS X MCM 2303 Moh - Allo ft Zako Prod by SN Beat 2303 Dirty - Freestyle Prod Absaroth 2303 Dirty - Yugo Prod Absaroth 2303 213 - Cake Season Ep 2403 Golden Gun - Virus 2403 Oualide - Nomade 2503 Don Didotchi - Kash Sel3a Zina Beat By Danson 2603 Cinou - Al Filo 2603 MTL - Go Hard 2603 Savag Plug X NVST - Fact Prod by Diaboulik X ProdbyGin 2603 Dill - Absolon Prod by Hlbak 2603 Magnum - 2603 BBM - Machi Sahl 2703 DMD - MowFucking D 2703 Pouliano - Shinobi 2703 IcoWesh - Freestyle Sad 2803 Z-Zone B - Amaz-Zon 2 2803 H-Flowd - Ctrl A 2803 La Sain - Clean 2803 Dirty - Dirty Tape Vol 1 2903 Xsane - Will Remix Joyner Lucas -ADHD- 2903 Golden Gun - Sorry Mama 2903 Aimen - Loco 3103 Khaled Yakuza - OverKill III 3103 Wegz - Asyad El Balad ft Savage Plug 0104 L'Adrinaline - 3ars El Diib 0104 Rabah Donquishoot El Oued 0104 Redzo Intik - Les Mots Armes 0104 Lozko - Do Re Mi 0204 MBK - 3ayech Lile 0204 HD Crew - The Hurting 0204 SL - Erreurs 0204 Dark - Sauvage 0204 IcoWesh - A 2 Doigts 0204 WLD - 0204 Mirvana - Ana w Chitani 0304 Mc Artisan - Daredevil Freestyle Stay Home 0404 El Hass - Chitana Vol2 0404 EL NRV - Eclipse 0404 Raouf BKL X 3éme Oeil BossOne - Le Monde Va Mal By DJ SK 0404 Oualide - 11 Remix ADM 0504 Moh - Ntoub Remix Brille 0504 L'intouchable - Tafassil ft Mood Loud 0604 Xsane - Poppin Remix 0704 Exotik - Weed Bloc-Notes ft Mc Artisan Paroles 0704 Brut Son Dassi - Can't Stop Won't Stop 0704 Dak - Echec et Mat 0704 Naks - 0804 Rbh - Mala 0804 MD X Breazi - Rockstar 0904 Fada Vex - Laghrib Paroles 1004 Xsane - Payments Prod by Lunai 1004 Altos - Chi 1104 Hood BT - Glory 1104 Cinou - Makash EL Caresse Paranoia Music Prod 1104 La Sain - Chaos 1204 RSP - Astrokcie 1204 Brut Son Dassi - Panic Attack 1204 TFK - Alpha R 1204 BBM - P.G.N 1304 Khaled Yakuza - Solitaire 1304 Aimen - Anarchy 1404 Aimen - LSD 1404 L'Orage - 3alami 1404 MC Pissco X SOH - Covid-18 1404 Youssef Djerbir - SKRT 1504 Dill - Tiha Prod by Ysos 1504 Flenn - LiveStyle 1604 L'Adrinaline - Floki ft Moh 4x4 X IcoWesh Prod by Marshal 1604 MC Medium X - The Comback Freestyle 1604 Mak - Who Am I 1704 Kouss D - Vendetta 1704 Gabonè - Freestyle Covidéo! 1704 Scuty - Normal 1704 H-Flowd - Magnet 1704 Fada Vex - Loom Paroles 1704 B.Mouss X El Dey Blast X The Crown - A We3likom Freestyle vol 3 1704 Ztella - Aychin Ghaya Freestyle 1804 KB - Bugatti by Tunder Beats 1804 MNR - Street Art 1804 WS - Cocaine 1904 Massita - Diangle 1904 LBig - Tharek 1904 Moh - Annaba 1904 Adnan - Vréalité 2004 Izakos - K.O Vid 16 2004 Siife Elklam - Death Ceremony 2004 Altos - Darba Freestyle 2004 Lyrix Boy - Sin City Prod by Yakuzy 2104 DonK13 - Depart 2104 El Badman Adel Sweezy - Nada 2104 Cinou - Infierno Bonus Track 2104 L'Wew X Exotik - La Casa De Papel By El Sancho 2104 HB7 - 8Mai 2104 ND2M - Hetari. 2204 DLF X Xley - Baze 2204 El Fire - Feather of Crow Prod by Ali Ossama 2204 Chainz - Can't Love Prod by Boyfifty 2304 Soh - Double S ft S-Boy 2304 Mirvana - Sourire 2404 Dry - Monstre 2404 Dak - Vécu Sale Medley 2404 Sko - SafeZone 2404 Lozko - Freestyle Concurrence 2804 IcoWesh - Replay 2804 le General - Dagi D Leqbayel 2 3004 Ghetto 16 - LockDown 1 3004 Largo - Tinariwen 3004 Eymas - Wait on It ft Young Taz 0305 Mc Artisan - H-Symphony Prod by Artisan 0405 Dak - Rijel Wa9ifoun ft Cr23 0505 TGR X Ztella - King of The Jingle 0605 Fada Vex - El 3arboune 3 Paroles 0605 Wahab Flood - B22 0705 Nawres - Camaro 0805 L'Mad - Error 'Freestyle' 0805 Massita La Mass - 0905 MD X Avem - Phoenix 0905 WS - La Panique ft Fadavex 1205 L'intouchable - F.L ft TMZ X Assin 1205 Jok - El Flack ft Sontcha 1305 Dak - Rabi Yhdina ft Islem 23 1705 RaffTheReal - Eastide Story Skit 2105 Tokyou - Aarakill Prod by Tokyou 2305 Islem 23 - Karkabu ft DAK Cr23 2305 IcoWesh - Longtime 2305 Adem - Y.D.W 2305 Escobar - RPG 7 2305 Pro X Timey - Bilingue 2405 IKeen - Drink ft LK 2405 L'intouchable - Valium ft Deagle Freezy Beats 2405 Golden Gun - Ibada 2405 Staryo - One Milli 2505 SOH - Nike 2505 Hichem DN X Adil Taouil - MADZ 2505 Darko D.S - Chérie bye bye 2605 Bad-Id - 1-4 de Note Prod Chak 2605 HB7 - One Day 2605 Ghetto 16 - LockDown 2 2605 WLD X LFeat - El Mensi 2705 Cinou - M.W.M.A 2705 Lamou Moula - Sourire 2705 Mc Artisan - Pateras Freestyle Mixdown Prod by MC Artisan 2705 Dirty - D.O.D 2805 Brut Son Dassi - K.O.F The King Of Fighters 2805 Lyrix Boy - Ash 2805 Thug O - 5050 2905 Ill Yes - Tol Lil 2905 Xsane - Wild Life Freestyle Prod Xsane 2905 SC Empire - Shut'Up 3005 Adnan - Mytho 0106 MBK - Alone 0106 Lpatron - Mon Algeria 0106 MZA - Freestyle Molotove V1 0106 Doseur - ' Mixtape 0206 Flenn - Kiffe Ca Beat By A.W.A Beats 0206 Golden Gun X Master A - Re-Up Load 0406 Fethi Smailo - 250 G Mixtape 0406 Brahim Makaveli - 24hrs ft Ouskey Dextah Prod 0406 Def Scott X Fioco - I Can Move 0406 BBM - Realidad 2 0506 Dry - Ow Man! 0506 Alpa X Walid - Jauné Remix 0506 Tokyou - Claviha 0506 MD X Lozko - LAmoure et La Mort 0506 Chainz - Night Mode ft Xsane 0506 S'lam x Hood BT - Mamacita 0606 Golden Gun X Master A - Tmenite 0706 Islem 23 - Purple 0706 Skyzo - 0806 TFK X Dodi X RD - Mwskha 0806 Mak - Echo 0906 Gourbilas - Album Fadda Funk Paroles 1006 Méricano - La Zone 1006 Aimen - Ghost 1106 Typhon - Sbab Blaya 1106 Flenn - Surprise Prod by Diias 1106 Savage Plug - Kagou-Lee 1206 MTL - Left The Love Behind 1306 El Ghayes - Monologue V2 1306 Bad10 - Same 1406 HB7 - Point My Story 1606 Youppi - Pirana Freestyle Cronick Studio 1606 Mak - Melody 1806 Khaled Yakuza X Dak - Black Flag 1806 Siife Elklam - K-Goulé 1806 Altos - LBM 1806 SOH - Voyou 1807 Grinta X Looky - Life is Bitch 1806 Bigi - My Way 1906 Pouliano X Enemy - Alone 1906 Eymas - Fuck Off 2006 Ous Key - Ta7t Saytara 2006 Lpatron - N.R Freestyle 2106 IcoWesh - Album Epilougue 2206 DreamBigMusic - Freestyle Thoughts 'Recap' 2206 LT - La West 2206 Shaoline NightMare - La Street 2206 EL NRV - Sale Vie 2206 Gabonè - Freestyle D-aqvayli 2206 Kouss D - Mirage 2306 Mak - Vip 2406 TFK - Aya N9olek Kolsh Pt.2 2406 Savage Plug - K6 2506 Fada Vex - El 3arboune 4 Paroles 2506 BlackGuns - Guillotine ft Cinou 2506 Méricano - Ya Rayah ft Alish 2506 Nirmou - Boxer 2606 H-Flowd - La Morgue 2606 TL - Brume 2606 Nesyou - Hennessy 2606 Zako X NeyBi - On S'arréte Pas Prod 213 2706 YRGR - BFG Remix by BIGB 2806 Lost Soul - Im Fine Pendo Prod - Contest 2806 MTL - Fist Up 2806 LWino X KoukStyle X Reda - Ri Rihh 2906 Mirvana - 1Min2Reve 3006 Mak - Twins 3006 Sko - Ash Prod by Sancho 0107 SL X T.H - HRar 0107 El Ghayes X LBig - Paléstrap 1 0107 Naks - Freestyle MC 0207 Gabonè - Freestyle Black List prt ! 0207 Youppi - Pauvrichesse Prod by A.W.A Beats 0207 Staryo- Rolex 0207 Adem - System X 0207 Styler - Void 0207 Sido La Dose - Aller Oh 0307 Bakama - Fate 0307 MC Artisan - Pull Up 0307 IAB X Mario - Win Rani 0307 El Guapo - Maghreb United ft RedOne'B X Ragnar 0307 Dami - Dark 1 0407 LAD - Ra3da 0407 Eymas - Chaos ft Cabo 0507 Eymas - Dz Gang 0507 Linda Black hard X Hamorabi X Badii - Death Step 0507 Alterego - FlashBack 0507 MTL - Algerie Mi Amor 0507 Wiserap - Be Algerian or Die 0507 HB7 - Freestle Flashback 0507 Xl9 - No Se Come Fa1 0607 Youcif - Creed 0607 EnigmaSoul - Vision 0607 Kouss S - Tekhmem Lil 0707 Brut Son Dassi - Zin El Gawri ft Omar Filki 0707 Bakama - Life 0707 YRGR - Forssa Prod by Syxon FreeShot 0707 WZoo - Routine Ghabara 0707 Mc Boy - Meme Galère ft Soumeya Prod by Anisobaz 0807 Flenn - Dali 0807 Altos - Decisions 0807 Mak - Low 0907 LT - La Mara 0907 RSP X KoukStyle - Ndopik 0907 Savage Plug - Trampoline 0907 Kader Japonais X Savage Plug - Twahachtek Omri Remix Master-T 0907 DreamBigMusic - Selfmade 0907 Youcif - Ghardaia 0907 Def Scott - La Racine 0907 Lahcen Attalah - Traitre 0907 El Dey Blast X B.Mouss X The Crown - Pote Glavez 0907 LBig - Roo7 1007 TL - Loin Loin Loin 1007 Xsane - Quarantine Bars Audio Prod Xsane 1007 Islem 23 - Mowgli 1107 Bigi - Lange De Mal 1107 Sef - Ghost 1107 Capo Trono - Gaz Boom 1107 Bakama - No Body 1107 Pera - Alone ft Mula 1107 Aimen - Hara Kiri 1207 Shadex - Avant Gout 1207 Lunn X Youssef - Semmini Dib Prod by Youssef 1207 Ven - Old Style ft DLF 1307 T.H - Lila 1307 Lwino - Bob Marley 1307 MK - Neklati 1307 Koukstyle X Cheb Rochdi - Ma Bella 1407 Tokyou - Auto Disslike Prod by Syxon Beat 1407 Lozko X MD - La Peuf 1407 Mostadox - 1407 Da Killa - Why !! 1407 Lozko X MD - La Peuf 1407 Koukstyle X RSP X Cheb Rochdi - Hmama 1507 FLK X MC Lama - Autour de Moi 1507 Gourbllas - Mirror ft Kazzey Tia Ronnie King 1507 MTL - Hyati 1507 Gabonè - Freestyle Black List prt II 1607 Mak - Climax 1607 Magnum - Dopamine 1607 Kibou - Pirates ft Sam Anti Hagra prod by Miko 1607 Adnan - Ya Sahbi ft Cheb Imad Japonais 1607 SK Man - Halali 1607 Jamca - Jim Jones Paroles 1607 LBig - Malinois 1707 Xsane - Still Sick 1707 SL X Mounir Attia - Herdj El Monde 1707 MC Pissco - Sombrèro 1807 Tchikou - Pistola 1807 Youppi - Rgo-trib 1807 Pera - Amigo 1807 DR Jay - Denya ft SOH 1807 Moha MC - kolch Ydoor 2007 Wiserap - Vide Lyrical 2007 Roofa - calmos 2007 Alkazzer - Ma3labalich 2007 Trzz - LArgent 2107 Othman RSP X KoukStyle - Cyanide 2107 213 - Plafond ft Zako 2107 Pouliano - 23 2107 DAK - Le Gout du Haram 2107 NLS X L'RK - UZI Prod by Ysos 2207 LOrage - SL Freestyle 2207 Alkazzer - Nigba 2307 TFK - Origin 2307 El Brave - Head Shot 2 2307 RT Crew - Testarossa 2307 KoukStyle - Demon Beats 2307 Lozko - Freestyle Rabha 2307 KoukStyle X 2S X RSP - Rihet LEuroupe 2307 Dami - N.L.N.W 2307 HD Crew - Welcome To Hell 2307 GLP - Kush et Lean -remix-Dinero Icowesh X Klam -ProdBy Dawee- 2307 Lpatron - Trap Queen 2307 IzzakO - Covid 2307 Grinta X Looky - La Sacoche 2307 Mak - Tair Prod by Mak 2307 Fasla - Madara 2407 Lotch - FreeDasveer 2407 Fasla - One Piece 2407 Xsane - Popstar -Remix- DJ Khaled X Drake 2407 MZA - Za3fan 2407 Baggy - V2 2407 Diablo Solo - Papa 2507 Enemy - Fact 2507 Sohaib RFA X Abdou BN - Florida 2607 Adlen X ItsYolf - Fake 2607 MBK - Heroshima II 2607 RaffTheReal - Ballin Prod Damien Alter 2707 El Brave - Temps Mort 2807 Bizzare Yow - 2807 Don Klaymore - MA 2807 El Hass - Belaili 2807 Naks - Caligula 2907 Dodi - Dwa9mi 2907 Alkazzer - Alpha 2907 Pane - O Seven Twenty Nine 3007 Icowesh X GLP - Quotidien 3007 Mak - Climax 2 3107 Xsane - Sheep ft Themicpharaoh 3107 Mass - Lm3izz Session Therapy 3107 EL H - Medusa 3107 Phobia Isaac - Por Favor 3107 Prince Polo - Bin Laden 3107 HB7 X Wlatan - Demort 3rd F..King MP Prod 3107 Altos - Drip 0108 Golden Gun - Vida 0108 Magnum X Asdebo Berlusconi Live a La Coupole DAlger 0108 SOH - Katana 0108 Alpa - La Cause 0108 Aimen - Stay High Slowed Version 0108 Nazdix - JTF 0108 Savage Plug - 2Pac 0201 Chance - Next Level 0308 Red L'Alerte - MBGH 0308 Savage Plug - Ard Ard 0408 Casanova - Evry Night 0408 T.H - Ego Tarbag 0408 WS - Yasmina 0408 Shadex X ItsRomeo - High 0508 Nesyou - Flashback 0608 Yoko X Chance - Chwakerz 0608 Joe Batoury - A Labass 0608 Lyrix Boy - Paranoid ft Dreambigmusic 0608 TSK - Ana W Ghzali 0608 Grinta - Cheb Hasni 0708 Xsane - No Breaks Prod Xsane 0708 EL NRV - Carretera 240 0708 MBK - Freedom 0708 Mak - Days 0708 LAD - Pas Les Memes 0708 RMD - La Starda 0808 Savage Plug - Moudja 0808 L'Marin X Mano - L'Harraz 0808 Loco - Lwin 0908 Loco - Mali 1008 Fada Vex - Riguel Paroles 1008 Icowesh X NC - Lovés 1108 Cinou - Dysphoria 1108 El Guapo - Sket 1108 Lotch - Kazakhstan 1108 Oualid - Yema 1208 Savage Plug - Exit 1208 El Sancho Délire 1208 Lunn X Wad - La Tess 1308 T.H X Systeman - R.I.P 1308 RSP - Bockscar 1308 FTSminou X AJ Dynamite - Makla Sif 1408 Xsane - Too Loyal 1408 NC - Baila 1408 Savage Plug - Dondada 1408 Savage Plug - Astronaute 1408 Lotch - Alah Akbar 1408 Soh - Mode Nuit 1408 Dill - Ego-Drible Freestyle 1408 LBig - Coca Héro 1508 LPatron - Trap Queen 2 1508 Nazdix - Babe 1508 Royal Kami - ZPN 1508 Lwino - Ai Ai Ai Ai 1508 Walid X Alpa - 10ans 1608 Youppi - MezToul 1608 Traf - Wash LEquipe 1708 RSP - Just Story 1708 Adlen - Omerta ft Sifou 1708 Xenos - Ballon Dor 1808 Tokyou - Aarakil Remix 1808 Dee.A - Parabellum Ep01 1808 Lotch - Cow Boy KJH Beatz 1908 Nirmou - Coté Sombre ft Psychonce 1908 Farid Kalamity X Amine Titi X Mo Black X Adel Sweezy - Aouama 1908 YGRG X Def Scott - Incompris 1908 Naks - Spandero 1908 Pro X Vanya - Nuit Blanche Vol3 2008 LMarin - Album Caviar 2008 RSP - C Personnel 2008 213 - Balotelli Freestyle 2008 Dirty - Mixtape Ta3erfini Legende 2108 Youppi - Freestyle Khabib 2108 Soh - Klay Freestyle 2108 Xsane - I Can't Allow Me 2208 HB7 - havier by Jango Diss Youppi 2208 DRY - DWH Drunk Walk Home 2208 Mak - My Stars 2308 Mass - DissTrucktion 2308 L'AD - Netfli-X Prod by ABR 2308 Koukstyle - Machi 2408 DAK - 4Puce 2408 Abdo Harb - ft La Sain 2408 YGRG X Dee - VNB 2508 Hoofer - DzMaroquino ft Klam 2508 Tchista - Navigui 2508 HB7 - You PD ak Tched 2508 Dee.A - Parabellum Ep02 2508 Lotch X DKN - Freemontada 2508 Ejoo - Le Gout de La Haine 2608 HDZ - Madrid 2708 La Sain - Obvie Album 2708 Linda Black Hard X A-Free Rhyming Shooter - Laissez passer 2708 LT - Valide Freestyle 2708 Don Klaymore - Ep02 Moral 2808 Lotch x DKN - Free Ali Baba 2808 Icowesh X GLP - Remix Dinos on Meurt Bientot 2808 Xsane - Blinders On 2808 BBM - Crystal 2908 Low.I - May7boch Rjal 2908 Paryos - Dama Beat RoyalOnTheTrack 2908 NC - Terd Le Soir 3008 Ali Big Show - Monika 3008 SC Empire - SitDown 3108 Redzo - Welad El Qala3 Les Enfants Du Chateaux 3108 Lar X Lkow - H.W.B 3108 DAK - Mouv 3108 Khaled Yakuza - S3 3108 Pine X Dill - Démarrer 0109 Dee.A - Parabellum Ep03 0109 Kibou - Grrr 0109 Za3il BLZ - Le Retour 0209 HDZ - FreeStreet 0309 98Squad - La Loi 0309 Mizou illi - Datni Zan9a 0309 Syc - Déjà Vu 0309 Youppi X Djalil Taibi - Mama 0309 Sido La Dose - Yasmine 0309 Mizou Illi - Datni Zan9a 0409 El Hass - Daft Funk 0409 Kami Phenomene - Mektoub 0409 Lotch x DKN - BMW F90 YZ 0409 Doseur X Polska - Harami 0509 Mak - Space 0509 Willy - Menace 03 ft Klam X IcoWesh X Neymar X Paryos 0509 Nes-You - Wach Dani 0509 Adlene X ItsYolf - Fuego 0509 Gabonè - Avarice 0509 El PX - Bouché Wednik 0509 ZedK - L'bat Y3oum 0609 Ikaz - Sog Lil 0609 ZedK - Sab Diss MC Artisan 0609 Islem 23 - Ki Zman 0709 LPatron - Rasengan 0809 Nazdix - Solo 0809 Dee.A - Parabellum Ep04 0809 MC Medium X - Ila Nsit 0809 K1LLAM - Mraya 0909 MC Artisan - Arbazz Diss Zedk 0909 Zedk - Kinder Diss Arisan 0909 Aimen - Stay High 0909 SMR Cagoule - Algerie 1994 0909 Phobia Issac X Fouzi Torino - Dawama 0909 Pro X Black B - En Fait 0909 WLD - Realitè 1009 KoukStyle X 2S X Lyrix X Kef Jim X RSP X Mano X LMarin - Rak Khales 1009 JPS 7abib - Mayday 1009 Reda Lax X Theeb - Inta Win Ana Win 1009 Mirvana - El Hassol ft HDZ 1009 Mass - Surprise 1009 Bakama - Echar'9 1009 Red - East Ghost 1009 Fasla - Hurrican 1009 Solo Nation - Ok My Nigga 1009 Soh - Jib Eljawi 1009 Rbh - 1991 1009 Dr.Eminou - Chkoune Nti 1009 L'Haj YB - Round 7 1109 Loco - Cest La Base ft Jee 1109 Koukstyle - Liyam 1109 Flenn - Nessi 1109 MBK - El Jany 1109 Moroo23 X Nasro Mani - 500 Harag Fi Lila 1109 Xsane - Only Human 1109 Moroo23 X Nasro Mani - 500 Harag fi Lila 1109 Bakama - Wow 1209 Bakama - Fine 1209 Mc Deman X Job X G2M X Abdou KBD X Le Prince - Mode Lil 1309 Bakama - Full 1409 Miydu X Kero - Je M'en Fou 1409 El Hozzi - Freestyle La Rime El Hozziya 1409 MZA X El Paso 089 - The Party 1509 Loco - Noudjoum Lil 1509 Typhon - M3a9ad 3 1509 DAK - Bandolera ft AKMS 1709 Prince Polo - 7araga ft DAK 1709 Koukstyle X 2S X Amine MCS - Mi Amor 1709 Art d'une Manif El Dey Blast X B.Mouss X Master K X The Crown - A.W.A Abbabissa With Attitude 1809 SEF - Freestyle 'Plan B' 1809 Hakra - Ana M3ak ft Blanco Ramzy AD 1909 Mass - 3chiri 1909 Kami Phenomen - Maria 1909 HDZ - Ma Life 2009 Mc Artisan - Bushido Freestyle 2009 Mouh Milano X Zako - Wech Ya Les Zhommes 2009 DRY - Dans La Ville 2009 MLK - Maria Prod by Ricci 2009 Skyzo - Haki 2109 Mass - Game of Trolls 2109 Darko - Yea Yea 2109 Xsane - That Simple! Freestyle 2109 NLS - 16000 2209 Raouf BKL - Matkhafich Ya Lomima 2209 Icowesh - Album New Era 2209 TFK - Arfed Blek 2209 El Nova - Datni Sekra ft MT 2209 Golden Gun - Tiktok 2309 El Sancho - Aladdin 2409 Ill Yes - Keyser Soze 2409 Soh - Cobra 2409 ZedK - Hunter 2409 Flenn - Normal 2409 Largo X Lkow - Ya Jafi 2409 L'Patron - Throne Conneuse 2509 MZA X Compton - Ki Tesma3ni 2509 Mehdi X Dak X Khaled - Yakuza 2509 Internet Kids - Japan 2609 Nirmou - L'Effet ft RI 2609 Dak - Karti Telling ft Khaled Yakuza 2609 Shadex x LilGod x Rage x Bro - Garagan 2709 Massita - C4CB4 2709 Youppi - 2909 Sef - Freestyle Plan B.2 2909 Ous Key - TGV ft Siife Elklam 2909 D-ami - Power Feat The Estranged Intellectual Prod.by Mr.Kayas 0110 N - Pillz ft D50 0110 Youppi - Freestyle 'Dir Dora' 0110 Mc Pissco - Bye 0210 Alterego - Ultras ft Nazdix Paroles 0210 Dry x Sko - Yell 0210 ZedK - Peace From God 0210 Adlene x Rewbad - Zone 0310 Klam - Rapsychologue 9 Paroles 0310 Massita - X-Calabos 04 0410 Savag Plug - Hzani 0510 YGRG - Peace War 0510 El Sancho X Pikro - Sipping Lean 0610 LT - Coca! La Mazal 0710 RSP - Chkoun Nta? Ft Fada Vex 0810 TFK - Jrima pt.01 0810 MC Artisan - Bendo ft Exotik L'Wew Paroles 0810 Sef - Vécu 0810 PN X Big NT - Karaah 0910 DAK - Wolves 0910 Xsane - Hunger Talk! 0910 DEX - Wakha Khooya 1010 MOH - Freestyle Clash Moro 1110 Skyzo - 8eme bb 1110 Cinou - Dinar 2.0 ft Jam Ca 1210 Massita - WAW We Are We 1310 Fada Vex - El 3arboune 5 Paroles 1310 ZedK - F'90'S Paroles 1310 Massita - WAW We Are We 1510 MOH - Mkawda III 1510 MOH - Donkey Clash 1510 Largo - Valise 1610 Sancho X AFRO - Freestyle Cali 1710 TFK - Kareh el Koun Pt.2 1710 DRY - CJ 2110 MOH - Donkey Clash II 2110 Da-Killa - UzI 2210 Darko - Khab Dhani 2210 MOH - Donkey Clash II 2310 Blanco - Zlatan 2310 24So - Next Round ft Mirvana 2310 El Mask - Pilot 2510 El Hass - Dangerous Paroles 2610 DAK - C'est Magnifique ft MC Pissco 2610 Nazdix - Warning 2610 Massita Demon Slayer II 2910 Dee.A - Nada ft BBM Djeff 3010 L'Caractère - Bounty Hunter 3010 SOH - Nuit Rouge 3 Braquage 3110 L'intouchable - Dr.house 3110 Solo Gang - Jordan 0111 MC Artisan - Cartel Paroles 0111 RSP X 2S - Horrible 0111 TFK - Ta39ima 0211 Tokyou - Psycho 0211 Internet Kids - Harragas Paroles 0211 Molotof X Savage Plug - Bora Bora Paroles 0411 MC Artisan - Nostalgia ft Paris Paroles 0511 Fada Vex - Paroles 0511 Blanco - Hogra 0511 Jam Ca - Still TNT ft Cinou 0511 El Sancho - Freestyle tyson 0611 Nazdix - Track One 0611 Koukstyle - Blood 0711 L'Wew - Loco ft Syc Paroles 0711 Islem 23 - Anyway 0711 Capo Trono - Bâtiment C 0811 TFK - EgoGhrib 0811 DEX - à L'époque 1011 Mc Medium X - S.O.S El Fen Sauvo El Fen 1011 Solo Gang - LSD Mixtape 1211 SkoRap - So Amazing Paroles 1211 El Wert - Fierté ft souha abid 1311 Jamca - Bradva ft Hool Adn Thugz 1411 Anka Dassi Brut Son - S.D.O Schleich di, Du Oaschloch Paroles 1411 IcoWesh - Tour Du Monde Paroles 1411 Natlos - Ntfacker 1511 Dry - Njoum Lil 1611 L'RK - Trap Cartel EP Paroles 1711 SkoRap - Voodoo Paroles 1711 H Flowd - Vortex Paroles 1711 7bib - Yamaha 1711 Anis Znk - La Luna Del Pescatore 1911 N - Beware Paroles 1911 Savage Plug - Linking 1911 Moh X Houssem Zain - Guelbi Tkoda 2011 TSK X Youppi X Dee - Marijane 2011 Skorap - Skorpatomik Paroles 2011 TFK - Ulac 2011 KLogic - Maduro Paroles 2111 Darko - Amir Dhalam 2211 Flenn - B3ida Paroles 2311 Lotch X DKN - 3aychin Lil Paroles 2411 Soh - Sbabi Rayi 2411 Cinou - Algerianisme ft Largo 2411 Fusee - Swing Paroles 2411 Ice H - Blanca 2511 Dodi - Bakhira 2511 El Wert - Ma Vie 2611 Roofa - El Keya 2611 SL X FNCK - Oulala 2711 NC - Album Minuit Sombre 2811 Seyf X Jiren X RedBoss X Adlene - Les Loups de La Tess 3011 Lotch X DKN - Rouh Bark Paroles 3011 24So X TRB - Hood 0202 Nazdix - Vitamine 0202 Massita - V3 Veni Vidi Vici Paroles 0312 Fada Vex - Freestyle CleDuRap Paroles 0412 Jee - HoodBoy EP 0412 Anis Znk - Expérience 0512 Fyanso paranoïa X Klam - F.F.F 0512 Lferda - Ifri9i ft Phobia Issac 0612 Youppi - Time 0712 Skorp - Mout Paroles 0712 Sanzo X L'youk - 7sabat 0712 Hood - Défaut Fik 0812 Syc - Jewal Paroles 0812 Lünn - Callin on You 0812 H Flowd - Shinigami Paroles 0912 Fada Vex - El 3arboune 6 Paroles 1012 El Hass X Psychotronome - Dangerouse II Paroles 1012 Cinou - NL 1012 Raouf BKL - El Houma ft Dee Paroles 1012 Flenn - One Shot 9 Paroles 1012 Dawee - Hada Win ft Klam Icowesh 1212 Bakama - Patria 1612 Massita - Black House Paroles 1812 La Sain - Les Dieses ft Alpa 1812 MC Pissco - Ya 7mamti 1812 Youppi - Pirana 2 Paroles 1812 Anis ZNK - Paroles 1812 Echari3 feat. Loco 420, Mc Boy, Sido La Dose, El Brave, Zako, Riad Bouroubaz, Neymar, Icowesh 2112 Icowesh - Album Baya Paroles 2112 La Sain - Album Obvie Réédition Paroles 2112 DMD - East Ghosts II ft Anwr TMH Tripzak Makaveli IDH 2212 Sido La Dose - Skol 2312 LT - Didi 2312 LT - Skuza 2412 Skorp - Bird Remix 2412 Zako - La Pression ft Moh 2412 Red - Bara3im Thugs 2412 Big Hik - Wesh Darou 2412 Anis ZNK - Andoria 2412 24So - Thérapy 2412 Hood - Moulaha 2412 Cinou - X 2512 Rooofa - Madrassa Paroles 2512 Lotch X DKN - Kazekage Gaara 2612 Flenn - Alerte Paroles 2612 Darko DS - Manensach 2607 DEX - Papa Noël 2712 Lünn - Afroraibian EP 2912 Bakama - Mood 3012 Largo -Traficante 3112 Bakama - Never 3112 Dark x LT La West - S.W.A.T 3112 Whoiznbl - 7or 3112 DMD - D'Accord 3112 MLK - Salam Alaykum Remix 3112 Darko X Hood X l'intouchable Psychiatrap - Sergio Tacchini 3112 Lorage - We Need 3112 L'haj YB - 23 3112 Redzo - Hna DZ -On Est Les DZ- ft MSEZ M16 3112 Nawres - Cactus Paroles 7bib - Jouska Anis ZNK - Genius Mind BlackGuns - Album VantaBlack Cinou - EP 'Next Level' DAK - Harami de Luxe Fada Vex - Dystopia Flenn - Album Flou JPS - Monachopsis Largo - Largo 20202021 L'intouchable - El 9ssayed LT - Ep Skat LT - Mixtape TX.6 Lünn - Afroraibian EP L'Wew - Ep Caballero Nirmou Album Coté Son Rabah Donquishoot - Psychotrip Raouf BKL - Redzo Intik - New Album Roofa MC - EP No Mode Sef - Album Nuit Blanche Xenos - Vae Victis5</t>
+          <t>Albums 98Squad - Ep Notif 213 - cake season EP Adel Sweezy - Album Help Bougu - EP Gasoline DAK - Vécu Sale Part.02 Dex - Asil EL NRV - Ep El 3in Escobar - Album Eymas - Ep 777 Fasla - Immoral Logic EP Flood - Album Rap Gimm - The Hills EP Gourbilas - Album Fadda Funk Icowesh - Baya Icowesh - Epilogue Album Icowesh - Make a Wash Album Icowesh - Album New Era Islem 23 - Skywalker IKeen - Coeur Noir Jee - HoodBoy EP Klam - Album The Dusk Lama23i - Album Abonnè Lamou - El Khamsa EP La Sain - Obvie Album La Sain - Obvie Album Réédition LIntouchable - The Phoenix Album LMarin - Album Caviar L'RK - Trap Cartel EP NC - Minuit Sombre NLS - EP Six Paranoia - El-Arrab Ritm Side - Air Bag EP Syc - EP Labo Zako - Monster Album Mixtapes 213 - Mixtape 16 Altos - Driller V 0.1 Mixtape Capo Trono - Gaz Boom Cinou - Al Filo DAK - Tropico DAK - Vécu Sale Mixtape Dill - Vision Dirty - Out The Mud Tape Dirty - Dirty Tape Vol 1 Dirty - Drill or Die Tape Dirty - Mixtape Ta3erfini Legende DreamBigMusic - The Mixtape Ransome 02 The Mad teste Don Klaymore - Parano-Rap Mixtape Doseur - ' Mixtape El Guapo - Cameleon Fethi Smailo - 250 G Mixtape Fusee - Fuseeloading H-Flowd - Death Note Izakos - Nostalgic Mixtape K1LLAM - Kubilai Mixtape L'Adrinaline - 'Pour Ceux Qui Savent' Mixtape Mirvana - 1Min2Reve Mixtape Mizou - La Street ND2M - Andromeda Mixtape Savag Plug - Savag Park Skorp - Riot Mixtape Solo Gang - LSD T.H - Mixtape Dark Side Z-Zone B - Amaz-Zon Mixtape Z-Zone B - Contre Attaque Mixtape Série Freestyle Fada Vex - El 3arboune BeatTapes Air3ad Beat Tape Ghost Beatz - Alexithymia Juzx - SkyWalker MP Beats - N.F.C Santo Beats - Medcine BeatTape Shxdai - Kora Shxdai X Syxon - Sky Legends Shxdai - La Flame Syxon Beat Xley - In Time 29-04-2020 Syxon Beat - Raiboomin 29-05-2020 Syxon Beat - BROKEN V 1 01-07-2020 Syxon Beat - BROKEN V 2 01-08-2020 0101 El Guapo - Ghazeli 0101 Altos - EgoVibes 0101 Pouliano - Lost 0101 Magnum - La Fierté 0101 Bigi X Kami Phénoméne - Lollipop 0101 Willson X Isserois - Hwali Prod Respo 0201 Izakos - Regret 0201 54.Rime - Pile ou Face 0201 54.Rime - 2emeTemps 0301 54.Rime - Roll Up 0301 Lotch - El 3asiir 0401 54.Rime - F.O.S Freestyle 0401 Ven - Peace 'Freestyle' Xley Prod 0401 HB7 - Weekend 2 0501 Blanco - Darblé 2020 0601 Willy - Menace 2 ft Othman RSP X Sam Dex X Shawn X CSR X CJ X Mido X Zahhman 0601 Doseur - Freestyle Act 1 0601 SOH - Hermosa 0701 Dak - Bared 0701 El Ghayes - Win 0801 Alterego - Napoli 0901 MD - My Way 0901 Izakos - Loup 0901 Golden Gun - We Dont Give a Fuck 0901 Darko D.S - Garo Mrouli 0901 Typhon - Fluoroantimonic 1001 BBM - Pérdu 1001 RaffTheReal - Radical 1101 Escobar - Bravo 1201 Dry X Sko - Hyatna 1201 Mak - Internal 1201 Fada Vex X DProd - El 3arboune Paroles 1201 54.Rime - Vara Folisohie 1201 SC Empire - Djihti 1301 Casanova X Yorsin - Scusa Mama 1401 213 - On S'En Sort ft Zako x IcoWesh 1401 MBK - Pain 1501 TFK - Dababa 1501 Wildy - La Base Paroles 1501 SOH - Réflexion 1601 La Sain - Vrai Titre Enregistré en 2015 1601 Z-Zone B - Deep Emotion 1701 Rbh - Grand Roue 1801 Largo X Exo - Karah 1801 Bakama - I See 1801 L'RK - Loco Paroles 1901 MTL - Sorry 2101 IcoWesh - Cke Je Veux A.W.A Beats 2101 IcoWesh - Denya Prod By Drogua 2201 Klam - Esp'War ft Youppi 2201 Typhon - Damn 2301 Oualide X Dey - Isserois I Baki 2301 Freestyle NSP 01 - Kibou X RD X MVSS X Dodi X TFK 2301 SOH - Rass Ytir 2301 L'Adrinaline - 3ayta Prod By Marshal 2301 L'Orage - N.O.D.A 2401 El Sancho X SK Fly Gang - 1609 2501 BBM - Mexico 2601 Dill - Dilline 2 2601 Z-Zone B - Amaz-Zon 2 2701 Blanco - 23.76 ft Hakra Smoke140.prod 2701 El Ghayes - Monologue V1 2701 Enemy - PS feat Xan La Magic 2701 Mak - Pulse Freestyle 2801 Lil Bra - Shot 2901 213 - Big Dawg 2901 Kibou - OLa 2901 TRB - Facile 3001 Khaled Yakuza X Black Oudini - Dima Nayda 3001 Dirty - All Eyes On Me ft Zako 213 3001 Raouf BKL - Cataphote Clach Boulitique 3101 Xsane - You Gon Learn Remix Eminem 3101 YRGR X F.F - Voices In My Head EL8 3101 SC Empire - Money 7aram 3101 DreamBigMusic - Cyclone Freestyle 0102 Scuty - Truquer 0102 Savag Plug - Darmany 0102 Ven X DLF - Erreue V2 0202 BlackGuns - 0302 Massita La Mass - Demon Slayer DDT DZ 0402 Aymen - Memorie 0602 Doseur - Chapeau de Paille Part 3 CDP3 0602 HB7 - Freedome 0602 Zako - OFF 0602 El Sancho X NLS - Amiral 0702 Mc Artisan X Khaled Yakuza - Yubitsume 0702 Skyzo - Nico Robin 0702 Xsane - Premonition Godzilla Remix Eminem 0702 Bigi - Maria 0702 Sk Uzi - Next Level 0702 Dry - Khebta 0802 Ill Yes - Candela 0802 Lwino - Cabina Awwed L Weed Freestyle part 1 0902 Dak - God Bless 0902 Scuty - Zone Rouge 1002 Islem 23 - B3ad ft Rania 1102 Freestyle 1 Tchista Remix by DJ TTH Freestyle sur 7 Mesures 1102 TFK - HH 1102 Pouliano - The Beast 1102 Sohaib RFA - Eternel Struggle 1302 IcoWesh - Besmeleh 1302 Escobar X Loco - Joker 1302 Izakos - Acrro-Y-ouppi Drouppi 1402 Flenn - Meryoula 1402 Xsane - Not Yet Prod Lunai 1402 IKeen - Mask Freestyle 1502 Khaled Yakuza - Sombre 1502 Aimen - Level Up 1502 Skyzo - Vol 3 ft Ali Ghorba 1502 Blanco - L'Mor ft Ramzy 1502 Badii X B.M.T - Oh Back Prod by Toxic Beats 1502 STH - Double V2 1602 EL NRV - Freetyle 1 1702 Mc Artisan X Largo - Icon 1702 Savag Plug - Disque Dor 1802 MZA X MC Walid - Rosa 1902 HB7 - WTF 2 Fucking Demon CB4BITCH 2002 Adnan - Mbappé 2002 WLD - Freestyle 1 2002 Brut Dassi Dassi - Maktoub 2002 Youss - Wlidi ft Elyas Seddas 2102 Imed - Bassi6 Prod Baileydaniel 2102 Natlos - Lghalta Fiya Na prod by Moz'Art 2102 El Hass - Chitana Prod By Raval 2102 SOH - Fight 4 2102 Dak - Dédoncé 2102 Matadore X MD - Hmoumi 2202 Sohaib RFA - 22 Février 2202 Islem 23 - Hooligans ft Cr23 2302 Youppi - Nostalgine Cronick Prod Beat 'Nas - Affirmative Action Rénovation' 2302 MTL - Demons 2302 Aimen - Virus 2402 TFK - Lonely ft Dodi X RD 2502 NLS X El Sancho - Calma Prod by Riley X Ysos 2502 Lunn - Ding Prod by Persia 2502 Dak - Bloqué 2.0 2502 Mak - Ultra 2602 Dry - Slave 2702 Scuty - Indien 2702 Mok Saib - El Ghorba -Algerie- ft Phobia Isaac JowRadio 2702 Dak - Des Fois 2702 Lyrix Boy - Villain Freestyle Prod by DBM 2802 Fada Vex - El 3arboune 2 Paroles 2802 Dirty - No Pain ft Spirit 2802 ND2M - Intro Balls 2902 Largo - M.K 2902 Islem 23 - Shoot 2902 K1llam - 3labali 2902 T.N.M.M 0103 MBK - 7kaya 0303 Dak - La Droga ft Sayko 0303 Escobar X Harir - Ghedara 0303 Siife Elklam - Liberta 0403 MBM - fxxxxxxxt Zwax Malificent 0403 HB7 - Mary 0503 MLK - Bounedjah WahranStory2 0503 Lozko - Freestyle Challenge 0503 Sko - Roh Brk 4 Prod By FreezyBeats 0503 Youppi X NWAR - Sot Deal Freestyle 0603 Paka - Back 0603 MZA - Essemhili LMima ft Chiekh Djelloul Chelfi X A Junior 0603 El Sancho - LM 0703 Dak - La Vie Du Charbon 0703 Islem 23 - Tafi 0703 Aimen - Rendez-Vous 0703 Low.i - Limitless 0703 Scuty - Ma Vie Noir 0803 Mak - Pain Freestyle 0803 Golden Gun - Blia 0803 Youppi - Last Message 2 0903 AB Black - Back In Black 0903 MNR - Mama 1003 Dak - Street Filo 3.0 1003 Altos - Melly Rock 1103 IcoWesh - Wesh L'Houma 1203 Bab El Oued Street - Differnet Vision 1203 El Hass X Psychotronom - Hasta La Vista Part 1 Air3adEp01 1203 MC Artisan - Faith Evans 1203 La Sain - Brille ft Blanco Prod by Bro Connexion 1203 Cinou - Infierno Prod by Marshal 1203 Lyrix Boy x DBM - Shimmy Remix 1203 Syc - Freestyle Prod By Layks 1203 SOH - Fellaga 1203 Magnum - MSix 1303 IcoWesh - Freestyle 21 Mesure 1 Corona 1303 DonK13 - El 3iyada 1303 Listi - La Sicile 1303 SC Empire - Mia Khalifa 1303 Skyzo - on est la 1403 Islem 23 - Bad 1403 SC Empire - Snin K7oula Prod Absaroth 1503 Xsane X Mc Lama - Not Yet 1503 Gimm - Purple Links Freestyle Prod bi Lil Chick 1503 Youppi X Abdou HK - Harba beat by A.WA 1603 IcoWesh - Freestyle 21 Mesure 2 Corona 1703 TFK - GDC 5 GhirDirGolV5 1703 DreamBigMusic - Poker Face 1803 Cinou X Jamca - CoolBaba Freestyle 1803 Flenn - Mchat Liem 1803 DMD - Dakar -remix- Loyalty Means Everything 1903 Syc - Go Prod by Nota 1903 IcoWesh - L'Un De Moi 1903 SL X FNCK - T.R.M.F 1903 Boug - Do Re Mi 2003 L'Mad - Facts 2003 SOH - Anamorphic 2003 Xsane - Grave Audio Cured The LP 2103 Tokyou - Ki Twali Pord by Tokyou 2103 IcoWesh - Album Make a Wash 2203 Largo - Slae Coup Freestyle 2203 SC Empire - Corona 2203 Golden Gun - 2203 Moha MC - Déception 2203 El Guapo - Favela ft LTS X MCM 2303 Moh - Allo ft Zako Prod by SN Beat 2303 Dirty - Freestyle Prod Absaroth 2303 Dirty - Yugo Prod Absaroth 2303 213 - Cake Season Ep 2403 Golden Gun - Virus 2403 Oualide - Nomade 2503 Don Didotchi - Kash Sel3a Zina Beat By Danson 2603 Cinou - Al Filo 2603 MTL - Go Hard 2603 Savag Plug X NVST - Fact Prod by Diaboulik X ProdbyGin 2603 Dill - Absolon Prod by Hlbak 2603 Magnum - 2603 BBM - Machi Sahl 2703 DMD - MowFucking D 2703 Pouliano - Shinobi 2703 IcoWesh - Freestyle Sad 2803 Z-Zone B - Amaz-Zon 2 2803 H-Flowd - Ctrl A 2803 La Sain - Clean 2803 Dirty - Dirty Tape Vol 1 2903 Xsane - Will Remix Joyner Lucas -ADHD- 2903 Golden Gun - Sorry Mama 2903 Aimen - Loco 3103 Khaled Yakuza - OverKill III 3103 Wegz - Asyad El Balad ft Savage Plug 0104 L'Adrinaline - 3ars El Diib 0104 Rabah Donquishoot El Oued 0104 Redzo Intik - Les Mots Armes 0104 Lozko - Do Re Mi 0204 MBK - 3ayech Lile 0204 HD Crew - The Hurting 0204 SL - Erreurs 0204 Dark - Sauvage 0204 IcoWesh - A 2 Doigts 0204 WLD - 0204 Mirvana - Ana w Chitani 0304 Mc Artisan - Daredevil Freestyle Stay Home 0404 El Hass - Chitana Vol2 0404 EL NRV - Eclipse 0404 Raouf BKL X 3éme Oeil BossOne - Le Monde Va Mal By DJ SK 0404 Oualide - 11 Remix ADM 0504 Moh - Ntoub Remix Brille 0504 L'intouchable - Tafassil ft Mood Loud 0604 Xsane - Poppin Remix 0704 Exotik - Weed Bloc-Notes ft Mc Artisan Paroles 0704 Brut Son Dassi - Can't Stop Won't Stop 0704 Dak - Echec et Mat 0704 Naks - 0804 Rbh - Mala 0804 MD X Breazi - Rockstar 0904 Fada Vex - Laghrib Paroles 1004 Xsane - Payments Prod by Lunai 1004 Altos - Chi 1104 Hood BT - Glory 1104 Cinou - Makash EL Caresse Paranoia Music Prod 1104 La Sain - Chaos 1204 RSP - Astrokcie 1204 Brut Son Dassi - Panic Attack 1204 TFK - Alpha R 1204 BBM - P.G.N 1304 Khaled Yakuza - Solitaire 1304 Aimen - Anarchy 1404 Aimen - LSD 1404 L'Orage - 3alami 1404 MC Pissco X SOH - Covid-18 1404 Youssef Djerbir - SKRT 1504 Dill - Tiha Prod by Ysos 1504 Flenn - LiveStyle 1604 L'Adrinaline - Floki ft Moh 4x4 X IcoWesh Prod by Marshal 1604 MC Medium X - The Comback Freestyle 1604 Mak - Who Am I 1704 Kouss D - Vendetta 1704 Gabonè - Freestyle Covidéo! 1704 Scuty - Normal 1704 H-Flowd - Magnet 1704 Fada Vex - Loom Paroles 1704 B.Mouss X El Dey Blast X The Crown - A We3likom Freestyle vol 3 1704 Ztella - Aychin Ghaya Freestyle 1804 KB - Bugatti by Tunder Beats 1804 MNR - Street Art 1804 WS - Cocaine 1904 Massita - Diangle 1904 LBig - Tharek 1904 Moh - Annaba 1904 Adnan - Vréalité 2004 Izakos - K.O Vid 16 2004 Siife Elklam - Death Ceremony 2004 Altos - Darba Freestyle 2004 Lyrix Boy - Sin City Prod by Yakuzy 2104 DonK13 - Depart 2104 El Badman Adel Sweezy - Nada 2104 Cinou - Infierno Bonus Track 2104 L'Wew X Exotik - La Casa De Papel By El Sancho 2104 HB7 - 8Mai 2104 ND2M - Hetari. 2204 DLF X Xley - Baze 2204 El Fire - Feather of Crow Prod by Ali Ossama 2204 Chainz - Can't Love Prod by Boyfifty 2304 Soh - Double S ft S-Boy 2304 Mirvana - Sourire 2404 Dry - Monstre 2404 Dak - Vécu Sale Medley 2404 Sko - SafeZone 2404 Lozko - Freestyle Concurrence 2804 IcoWesh - Replay 2804 le General - Dagi D Leqbayel 2 3004 Ghetto 16 - LockDown 1 3004 Largo - Tinariwen 3004 Eymas - Wait on It ft Young Taz 0305 Mc Artisan - H-Symphony Prod by Artisan 0405 Dak - Rijel Wa9ifoun ft Cr23 0505 TGR X Ztella - King of The Jingle 0605 Fada Vex - El 3arboune 3 Paroles 0605 Wahab Flood - B22 0705 Nawres - Camaro 0805 L'Mad - Error 'Freestyle' 0805 Massita La Mass - 0905 MD X Avem - Phoenix 0905 WS - La Panique ft Fadavex 1205 L'intouchable - F.L ft TMZ X Assin 1205 Jok - El Flack ft Sontcha 1305 Dak - Rabi Yhdina ft Islem 23 1705 RaffTheReal - Eastide Story Skit 2105 Tokyou - Aarakill Prod by Tokyou 2305 Islem 23 - Karkabu ft DAK Cr23 2305 IcoWesh - Longtime 2305 Adem - Y.D.W 2305 Escobar - RPG 7 2305 Pro X Timey - Bilingue 2405 IKeen - Drink ft LK 2405 L'intouchable - Valium ft Deagle Freezy Beats 2405 Golden Gun - Ibada 2405 Staryo - One Milli 2505 SOH - Nike 2505 Hichem DN X Adil Taouil - MADZ 2505 Darko D.S - Chérie bye bye 2605 Bad-Id - 1-4 de Note Prod Chak 2605 HB7 - One Day 2605 Ghetto 16 - LockDown 2 2605 WLD X LFeat - El Mensi 2705 Cinou - M.W.M.A 2705 Lamou Moula - Sourire 2705 Mc Artisan - Pateras Freestyle Mixdown Prod by MC Artisan 2705 Dirty - D.O.D 2805 Brut Son Dassi - K.O.F The King Of Fighters 2805 Lyrix Boy - Ash 2805 Thug O - 5050 2905 Ill Yes - Tol Lil 2905 Xsane - Wild Life Freestyle Prod Xsane 2905 SC Empire - Shut'Up 3005 Adnan - Mytho 0106 MBK - Alone 0106 Lpatron - Mon Algeria 0106 MZA - Freestyle Molotove V1 0106 Doseur - ' Mixtape 0206 Flenn - Kiffe Ca Beat By A.W.A Beats 0206 Golden Gun X Master A - Re-Up Load 0406 Fethi Smailo - 250 G Mixtape 0406 Brahim Makaveli - 24hrs ft Ouskey Dextah Prod 0406 Def Scott X Fioco - I Can Move 0406 BBM - Realidad 2 0506 Dry - Ow Man! 0506 Alpa X Walid - Jauné Remix 0506 Tokyou - Claviha 0506 MD X Lozko - LAmoure et La Mort 0506 Chainz - Night Mode ft Xsane 0506 S'lam x Hood BT - Mamacita 0606 Golden Gun X Master A - Tmenite 0706 Islem 23 - Purple 0706 Skyzo - 0806 TFK X Dodi X RD - Mwskha 0806 Mak - Echo 0906 Gourbilas - Album Fadda Funk Paroles 1006 Méricano - La Zone 1006 Aimen - Ghost 1106 Typhon - Sbab Blaya 1106 Flenn - Surprise Prod by Diias 1106 Savage Plug - Kagou-Lee 1206 MTL - Left The Love Behind 1306 El Ghayes - Monologue V2 1306 Bad10 - Same 1406 HB7 - Point My Story 1606 Youppi - Pirana Freestyle Cronick Studio 1606 Mak - Melody 1806 Khaled Yakuza X Dak - Black Flag 1806 Siife Elklam - K-Goulé 1806 Altos - LBM 1806 SOH - Voyou 1807 Grinta X Looky - Life is Bitch 1806 Bigi - My Way 1906 Pouliano X Enemy - Alone 1906 Eymas - Fuck Off 2006 Ous Key - Ta7t Saytara 2006 Lpatron - N.R Freestyle 2106 IcoWesh - Album Epilougue 2206 DreamBigMusic - Freestyle Thoughts 'Recap' 2206 LT - La West 2206 Shaoline NightMare - La Street 2206 EL NRV - Sale Vie 2206 Gabonè - Freestyle D-aqvayli 2206 Kouss D - Mirage 2306 Mak - Vip 2406 TFK - Aya N9olek Kolsh Pt.2 2406 Savage Plug - K6 2506 Fada Vex - El 3arboune 4 Paroles 2506 BlackGuns - Guillotine ft Cinou 2506 Méricano - Ya Rayah ft Alish 2506 Nirmou - Boxer 2606 H-Flowd - La Morgue 2606 TL - Brume 2606 Nesyou - Hennessy 2606 Zako X NeyBi - On S'arréte Pas Prod 213 2706 YRGR - BFG Remix by BIGB 2806 Lost Soul - Im Fine Pendo Prod - Contest 2806 MTL - Fist Up 2806 LWino X KoukStyle X Reda - Ri Rihh 2906 Mirvana - 1Min2Reve 3006 Mak - Twins 3006 Sko - Ash Prod by Sancho 0107 SL X T.H - HRar 0107 El Ghayes X LBig - Paléstrap 1 0107 Naks - Freestyle MC 0207 Gabonè - Freestyle Black List prt ! 0207 Youppi - Pauvrichesse Prod by A.W.A Beats 0207 Staryo- Rolex 0207 Adem - System X 0207 Styler - Void 0207 Sido La Dose - Aller Oh 0307 Bakama - Fate 0307 MC Artisan - Pull Up 0307 IAB X Mario - Win Rani 0307 El Guapo - Maghreb United ft RedOne'B X Ragnar 0307 Dami - Dark 1 0407 LAD - Ra3da 0407 Eymas - Chaos ft Cabo 0507 Eymas - Dz Gang 0507 Linda Black hard X Hamorabi X Badii - Death Step 0507 Alterego - FlashBack 0507 MTL - Algerie Mi Amor 0507 Wiserap - Be Algerian or Die 0507 HB7 - Freestle Flashback 0507 Xl9 - No Se Come Fa1 0607 Youcif - Creed 0607 EnigmaSoul - Vision 0607 Kouss S - Tekhmem Lil 0707 Brut Son Dassi - Zin El Gawri ft Omar Filki 0707 Bakama - Life 0707 YRGR - Forssa Prod by Syxon FreeShot 0707 WZoo - Routine Ghabara 0707 Mc Boy - Meme Galère ft Soumeya Prod by Anisobaz 0807 Flenn - Dali 0807 Altos - Decisions 0807 Mak - Low 0907 LT - La Mara 0907 RSP X KoukStyle - Ndopik 0907 Savage Plug - Trampoline 0907 Kader Japonais X Savage Plug - Twahachtek Omri Remix Master-T 0907 DreamBigMusic - Selfmade 0907 Youcif - Ghardaia 0907 Def Scott - La Racine 0907 Lahcen Attalah - Traitre 0907 El Dey Blast X B.Mouss X The Crown - Pote Glavez 0907 LBig - Roo7 1007 TL - Loin Loin Loin 1007 Xsane - Quarantine Bars Audio Prod Xsane 1007 Islem 23 - Mowgli 1107 Bigi - Lange De Mal 1107 Sef - Ghost 1107 Capo Trono - Gaz Boom 1107 Bakama - No Body 1107 Pera - Alone ft Mula 1107 Aimen - Hara Kiri 1207 Shadex - Avant Gout 1207 Lunn X Youssef - Semmini Dib Prod by Youssef 1207 Ven - Old Style ft DLF 1307 T.H - Lila 1307 Lwino - Bob Marley 1307 MK - Neklati 1307 Koukstyle X Cheb Rochdi - Ma Bella 1407 Tokyou - Auto Disslike Prod by Syxon Beat 1407 Lozko X MD - La Peuf 1407 Mostadox - 1407 Da Killa - Why !! 1407 Lozko X MD - La Peuf 1407 Koukstyle X RSP X Cheb Rochdi - Hmama 1507 FLK X MC Lama - Autour de Moi 1507 Gourbllas - Mirror ft Kazzey Tia Ronnie King 1507 MTL - Hyati 1507 Gabonè - Freestyle Black List prt II 1607 Mak - Climax 1607 Magnum - Dopamine 1607 Kibou - Pirates ft Sam Anti Hagra prod by Miko 1607 Adnan - Ya Sahbi ft Cheb Imad Japonais 1607 SK Man - Halali 1607 Jamca - Jim Jones Paroles 1607 LBig - Malinois 1707 Xsane - Still Sick 1707 SL X Mounir Attia - Herdj El Monde 1707 MC Pissco - Sombrèro 1807 Tchikou - Pistola 1807 Youppi - Rgo-trib 1807 Pera - Amigo 1807 DR Jay - Denya ft SOH 1807 Moha MC - kolch Ydoor 2007 Wiserap - Vide Lyrical 2007 Roofa - calmos 2007 Alkazzer - Ma3labalich 2007 Trzz - LArgent 2107 Othman RSP X KoukStyle - Cyanide 2107 213 - Plafond ft Zako 2107 Pouliano - 23 2107 DAK - Le Gout du Haram 2107 NLS X L'RK - UZI Prod by Ysos 2207 LOrage - SL Freestyle 2207 Alkazzer - Nigba 2307 TFK - Origin 2307 El Brave - Head Shot 2 2307 RT Crew - Testarossa 2307 KoukStyle - Demon Beats 2307 Lozko - Freestyle Rabha 2307 KoukStyle X 2S X RSP - Rihet LEuroupe 2307 Dami - N.L.N.W 2307 HD Crew - Welcome To Hell 2307 GLP - Kush et Lean -remix-Dinero Icowesh X Klam -ProdBy Dawee- 2307 Lpatron - Trap Queen 2307 IzzakO - Covid 2307 Grinta X Looky - La Sacoche 2307 Mak - Tair Prod by Mak 2307 Fasla - Madara 2407 Lotch - FreeDasveer 2407 Fasla - One Piece 2407 Xsane - Popstar -Remix- DJ Khaled X Drake 2407 MZA - Za3fan 2407 Baggy - V2 2407 Diablo Solo - Papa 2507 Enemy - Fact 2507 Sohaib RFA X Abdou BN - Florida 2607 Adlen X ItsYolf - Fake 2607 MBK - Heroshima II 2607 RaffTheReal - Ballin Prod Damien Alter 2707 El Brave - Temps Mort 2807 Bizzare Yow - 2807 Don Klaymore - MA 2807 El Hass - Belaili 2807 Naks - Caligula 2907 Dodi - Dwa9mi 2907 Alkazzer - Alpha 2907 Pane - O Seven Twenty Nine 3007 Icowesh X GLP - Quotidien 3007 Mak - Climax 2 3107 Xsane - Sheep ft Themicpharaoh 3107 Mass - Lm3izz Session Therapy 3107 EL H - Medusa 3107 Phobia Isaac - Por Favor 3107 Prince Polo - Bin Laden 3107 HB7 X Wlatan - Demort 3rd F..King MP Prod 3107 Altos - Drip 0108 Golden Gun - Vida 0108 Magnum X Asdebo Berlusconi Live a La Coupole DAlger 0108 SOH - Katana 0108 Alpa - La Cause 0108 Aimen - Stay High Slowed Version 0108 Nazdix - JTF 0108 Savage Plug - 2Pac 0201 Chance - Next Level 0308 Red L'Alerte - MBGH 0308 Savage Plug - Ard Ard 0408 Casanova - Evry Night 0408 T.H - Ego Tarbag 0408 WS - Yasmina 0408 Shadex X ItsRomeo - High 0508 Nesyou - Flashback 0608 Yoko X Chance - Chwakerz 0608 Joe Batoury - A Labass 0608 Lyrix Boy - Paranoid ft Dreambigmusic 0608 TSK - Ana W Ghzali 0608 Grinta - Cheb Hasni 0708 Xsane - No Breaks Prod Xsane 0708 EL NRV - Carretera 240 0708 MBK - Freedom 0708 Mak - Days 0708 LAD - Pas Les Memes 0708 RMD - La Starda 0808 Savage Plug - Moudja 0808 L'Marin X Mano - L'Harraz 0808 Loco - Lwin 0908 Loco - Mali 1008 Fada Vex - Riguel Paroles 1008 Icowesh X NC - Lovés 1108 Cinou - Dysphoria 1108 El Guapo - Sket 1108 Lotch - Kazakhstan 1108 Oualid - Yema 1208 Savage Plug - Exit 1208 El Sancho Délire 1208 Lunn X Wad - La Tess 1308 T.H X Systeman - R.I.P 1308 RSP - Bockscar 1308 FTSminou X AJ Dynamite - Makla Sif 1408 Xsane - Too Loyal 1408 NC - Baila 1408 Savage Plug - Dondada 1408 Savage Plug - Astronaute 1408 Lotch - Alah Akbar 1408 Soh - Mode Nuit 1408 Dill - Ego-Drible Freestyle 1408 LBig - Coca Héro 1508 LPatron - Trap Queen 2 1508 Nazdix - Babe 1508 Royal Kami - ZPN 1508 Lwino - Ai Ai Ai Ai 1508 Walid X Alpa - 10ans 1608 Youppi - MezToul 1608 Traf - Wash LEquipe 1708 RSP - Just Story 1708 Adlen - Omerta ft Sifou 1708 Xenos - Ballon Dor 1808 Tokyou - Aarakil Remix 1808 Dee.A - Parabellum Ep01 1808 Lotch - Cow Boy KJH Beatz 1908 Nirmou - Coté Sombre ft Psychonce 1908 Farid Kalamity X Amine Titi X Mo Black X Adel Sweezy - Aouama 1908 YGRG X Def Scott - Incompris 1908 Naks - Spandero 1908 Pro X Vanya - Nuit Blanche Vol3 2008 LMarin - Album Caviar 2008 RSP - C Personnel 2008 213 - Balotelli Freestyle 2008 Dirty - Mixtape Ta3erfini Legende 2108 Youppi - Freestyle Khabib 2108 Soh - Klay Freestyle 2108 Xsane - I Can't Allow Me 2208 HB7 - havier by Jango Diss Youppi 2208 DRY - DWH Drunk Walk Home 2208 Mak - My Stars 2308 Mass - DissTrucktion 2308 L'AD - Netfli-X Prod by ABR 2308 Koukstyle - Machi 2408 DAK - 4Puce 2408 Abdo Harb - ft La Sain 2408 YGRG X Dee - VNB 2508 Hoofer - DzMaroquino ft Klam 2508 Tchista - Navigui 2508 HB7 - You PD ak Tched 2508 Dee.A - Parabellum Ep02 2508 Lotch X DKN - Freemontada 2508 Ejoo - Le Gout de La Haine 2608 HDZ - Madrid 2708 La Sain - Obvie Album 2708 Linda Black Hard X A-Free Rhyming Shooter - Laissez passer 2708 LT - Valide Freestyle 2708 Don Klaymore - Ep02 Moral 2808 Lotch x DKN - Free Ali Baba 2808 Icowesh X GLP - Remix Dinos on Meurt Bientot 2808 Xsane - Blinders On 2808 BBM - Crystal 2908 Low.I - May7boch Rjal 2908 Paryos - Dama Beat RoyalOnTheTrack 2908 NC - Terd Le Soir 3008 Ali Big Show - Monika 3008 SC Empire - SitDown 3108 Redzo - Welad El Qala3 Les Enfants Du Chateaux 3108 Lar X Lkow - H.W.B 3108 DAK - Mouv 3108 Khaled Yakuza - S3 3108 Pine X Dill - Démarrer 0109 Dee.A - Parabellum Ep03 0109 Kibou - Grrr 0109 Za3il BLZ - Le Retour 0209 HDZ - FreeStreet 0309 98Squad - La Loi 0309 Mizou illi - Datni Zan9a 0309 Syc - Déjà Vu 0309 Youppi X Djalil Taibi - Mama 0309 Sido La Dose - Yasmine 0309 Mizou Illi - Datni Zan9a 0409 El Hass - Daft Funk 0409 Kami Phenomene - Mektoub 0409 Lotch x DKN - BMW F90 YZ 0409 Doseur X Polska - Harami 0509 Mak - Space 0509 Willy - Menace 03 ft Klam X IcoWesh X Neymar X Paryos 0509 Nes-You - Wach Dani 0509 Adlene X ItsYolf - Fuego 0509 Gabonè - Avarice 0509 El PX - Bouché Wednik 0509 ZedK - L'bat Y3oum 0609 Ikaz - Sog Lil 0609 ZedK - Sab Diss MC Artisan 0609 Islem 23 - Ki Zman 0709 LPatron - Rasengan 0809 Nazdix - Solo 0809 Dee.A - Parabellum Ep04 0809 MC Medium X - Ila Nsit 0809 K1LLAM - Mraya 0909 MC Artisan - Arbazz Diss Zedk 0909 Zedk - Kinder Diss Arisan 0909 Aimen - Stay High 0909 SMR Cagoule - Algerie 1994 0909 Phobia Issac X Fouzi Torino - Dawama 0909 Pro X Black B - En Fait 0909 WLD - Realitè 1009 KoukStyle X 2S X Lyrix X Kef Jim X RSP X Mano X LMarin - Rak Khales 1009 JPS 7abib - Mayday 1009 Reda Lax X Theeb - Inta Win Ana Win 1009 Mirvana - El Hassol ft HDZ 1009 Mass - Surprise 1009 Bakama - Echar'9 1009 Red - East Ghost 1009 Fasla - Hurrican 1009 Solo Nation - Ok My Nigga 1009 Soh - Jib Eljawi 1009 Rbh - 1991 1009 Dr.Eminou - Chkoune Nti 1009 L'Haj YB - Round 7 1109 Loco - Cest La Base ft Jee 1109 Koukstyle - Liyam 1109 Flenn - Nessi 1109 MBK - El Jany 1109 Moroo23 X Nasro Mani - 500 Harag Fi Lila 1109 Xsane - Only Human 1109 Moroo23 X Nasro Mani - 500 Harag fi Lila 1109 Bakama - Wow 1209 Bakama - Fine 1209 Mc Deman X Job X G2M X Abdou KBD X Le Prince - Mode Lil 1309 Bakama - Full 1409 Miydu X Kero - Je M'en Fou 1409 El Hozzi - Freestyle La Rime El Hozziya 1409 MZA X El Paso 089 - The Party 1509 Loco - Noudjoum Lil 1509 Typhon - M3a9ad 3 1509 DAK - Bandolera ft AKMS 1709 Prince Polo - 7araga ft DAK 1709 Koukstyle X 2S X Amine MCS - Mi Amor 1709 Art d'une Manif El Dey Blast X B.Mouss X Master K X The Crown - A.W.A Abbabissa With Attitude 1809 SEF - Freestyle 'Plan B' 1809 Hakra - Ana M3ak ft Blanco Ramzy AD 1909 Mass - 3chiri 1909 Kami Phenomen - Maria 1909 HDZ - Ma Life 2009 Mc Artisan - Bushido Freestyle 2009 Mouh Milano X Zako - Wech Ya Les Zhommes 2009 DRY - Dans La Ville 2009 MLK - Maria Prod by Ricci 2009 Skyzo - Haki 2109 Mass - Game of Trolls 2109 Darko - Yea Yea 2109 Xsane - That Simple! Freestyle 2109 NLS - 16000 2209 Raouf BKL - Matkhafich Ya Lomima 2209 Icowesh - Album New Era 2209 TFK - Arfed Blek 2209 El Nova - Datni Sekra ft MT 2209 Golden Gun - Tiktok 2309 El Sancho - Aladdin 2409 Ill Yes - Keyser Soze 2409 Soh - Cobra 2409 ZedK - Hunter 2409 Flenn - Normal 2409 Largo X Lkow - Ya Jafi 2409 L'Patron - Throne Conneuse 2509 MZA X Compton - Ki Tesma3ni 2509 Mehdi X Dak X Khaled - Yakuza 2509 Internet Kids - Japan 2609 Nirmou - L'Effet ft RI 2609 Dak - Karti Telling ft Khaled Yakuza 2609 Shadex x LilGod x Rage x Bro - Garagan 2709 Massita - C4CB4 2709 Youppi - 2909 Sef - Freestyle Plan B.2 2909 Ous Key - TGV ft Siife Elklam 2909 D-ami - Power Feat The Estranged Intellectual Prod.by Mr.Kayas 0110 N - Pillz ft D50 0110 Youppi - Freestyle 'Dir Dora' 0110 Mc Pissco - Bye 0210 Alterego - Ultras ft Nazdix Paroles 0210 Dry x Sko - Yell 0210 ZedK - Peace From God 0210 Adlene x Rewbad - Zone 0310 Klam - Rapsychologue 9 Paroles 0310 Massita - X-Calabos 04 0410 Savag Plug - Hzani 0510 YGRG - Peace War 0510 El Sancho X Pikro - Sipping Lean 0610 LT - Coca! La Mazal 0710 RSP - Chkoun Nta? Ft Fada Vex 0810 TFK - Jrima pt.01 0810 MC Artisan - Bendo ft Exotik L'Wew Paroles 0810 Sef - Vécu 0810 PN X Big NT - Karaah 0910 DAK - Wolves 0910 Xsane - Hunger Talk! 0910 DEX - Wakha Khooya 1010 MOH - Freestyle Clash Moro 1110 Skyzo - 8eme bb 1110 Cinou - Dinar 2.0 ft Jam Ca 1210 Massita - WAW We Are We 1310 Fada Vex - El 3arboune 5 Paroles 1310 ZedK - F'90'S Paroles 1310 Massita - WAW We Are We 1510 MOH - Mkawda III 1510 MOH - Donkey Clash 1510 Largo - Valise 1610 Sancho X AFRO - Freestyle Cali 1710 TFK - Kareh el Koun Pt.2 1710 DRY - CJ 2110 MOH - Donkey Clash II 2110 Da-Killa - UzI 2210 Darko - Khab Dhani 2210 MOH - Donkey Clash II 2310 Blanco - Zlatan 2310 24So - Next Round ft Mirvana 2310 El Mask - Pilot 2510 El Hass - Dangerous Paroles 2610 DAK - C'est Magnifique ft MC Pissco 2610 Nazdix - Warning 2610 Massita Demon Slayer II 2910 Dee.A - Nada ft BBM Djeff 3010 L'Caractère - Bounty Hunter 3010 SOH - Nuit Rouge 3 Braquage 3110 L'intouchable - Dr.house 3110 Solo Gang - Jordan 0111 MC Artisan - Cartel Paroles 0111 RSP X 2S - Horrible 0111 TFK - Ta39ima 0211 Tokyou - Psycho 0211 Internet Kids - Harragas Paroles 0211 Molotof X Savage Plug - Bora Bora Paroles 0411 MC Artisan - Nostalgia ft Paris Paroles 0511 Fada Vex - Paroles 0511 Blanco - Hogra 0511 Jam Ca - Still TNT ft Cinou 0511 El Sancho - Freestyle tyson 0611 Nazdix - Track One 0611 Koukstyle - Blood 0711 L'Wew - Loco ft Syc Paroles 0711 Islem 23 - Anyway 0711 Capo Trono - Bâtiment C 0811 TFK - EgoGhrib 0811 DEX - à L'époque 1011 Mc Medium X - S.O.S El Fen Sauvo El Fen 1011 Solo Gang - LSD Mixtape 1211 SkoRap - So Amazing Paroles 1211 El Wert - Fierté ft souha abid 1311 Jamca - Bradva ft Hool Adn Thugz 1411 Anka Dassi Brut Son - S.D.O Schleich di, Du Oaschloch Paroles 1411 IcoWesh - Tour Du Monde Paroles 1411 Natlos - Ntfacker 1511 Dry - Njoum Lil 1611 L'RK - Trap Cartel EP Paroles 1711 SkoRap - Voodoo Paroles 1711 H Flowd - Vortex Paroles 1711 7bib - Yamaha 1711 Anis Znk - La Luna Del Pescatore 1911 N - Beware Paroles 1911 Savage Plug - Linking 1911 Moh X Houssem Zain - Guelbi Tkoda 2011 TSK X Youppi X Dee - Marijane 2011 Skorap - Skorpatomik Paroles 2011 TFK - Ulac 2011 KLogic - Maduro Paroles 2111 Darko - Amir Dhalam 2211 Flenn - B3ida Paroles 2311 Lotch X DKN - 3aychin Lil Paroles 2411 Soh - Sbabi Rayi 2411 Cinou - Algerianisme ft Largo 2411 Fusee - Swing Paroles 2411 Ice H - Blanca 2511 Dodi - Bakhira 2511 El Wert - Ma Vie 2611 Roofa - El Keya 2611 SL X FNCK - Oulala 2711 NC - Album Minuit Sombre 2811 Seyf X Jiren X RedBoss X Adlene - Les Loups de La Tess 3011 Lotch X DKN - Rouh Bark Paroles 3011 24So X TRB - Hood 0202 Nazdix - Vitamine 0202 Massita - V3 Veni Vidi Vici Paroles 0312 Fada Vex - Freestyle CleDuRap Paroles 0412 Jee - HoodBoy EP 0412 Anis Znk - Expérience 0512 Fyanso paranoïa X Klam - F.F.F 0512 Lferda - Ifri9i ft Phobia Issac 0612 Youppi - Time 0712 Skorp - Mout Paroles 0712 Sanzo X L'youk - 7sabat 0712 Hood - Défaut Fik 0812 Syc - Jewal Paroles 0812 Lünn - Callin on You 0812 H Flowd - Shinigami Paroles 0912 Fada Vex - El 3arboune 6 Paroles 1012 El Hass X Psychotronome - Dangerouse II Paroles 1012 Cinou - NL 1012 Raouf BKL - El Houma ft Dee Paroles 1012 Flenn - One Shot 9 Paroles 1012 Dawee - Hada Win ft Klam Icowesh 1212 Bakama - Patria 1612 Massita - Black House Paroles 1812 La Sain - Les Dieses ft Alpa 1812 MC Pissco - Ya 7mamti 1812 Youppi - Pirana 2 Paroles 1812 Anis ZNK - Paroles 1812 Echari3 feat. Loco 420, Mc Boy, Sido La Dose, El Brave, Zako, Riad Bouroubaz, Neymar, Icowesh 2112 Icowesh - Album Baya Paroles 2112 La Sain - Album Obvie Réédition Paroles 2112 DMD - East Ghosts II ft Anwr TMH Tripzak Makaveli IDH 2212 Sido La Dose - Skol 2312 LT - Didi 2312 LT - Skuza 2412 Skorp - Bird Remix 2412 Zako - La Pression ft Moh 2412 Red - Bara3im Thugs 2412 Big Hik - Wesh Darou 2412 Anis ZNK - Andoria 2412 24So - Thérapy 2412 Hood - Moulaha 2412 Cinou - X 2512 Rooofa - Madrassa Paroles 2512 Lotch X DKN - Kazekage Gaara 2612 Flenn - Alerte Paroles 2612 Darko DS - Manensach 2607 DEX - Papa Noël 2712 Lünn - Afroraibian EP 2912 Bakama - Mood 3012 Largo -Traficante 3112 Bakama - Never 3112 Dark x LT La West - S.W.A.T 3112 Whoiznbl - 7or 3112 DMD - D'Accord 3112 MLK - Salam Alaykum Remix 3112 Darko X Hood X l'intouchable Psychiatrap - Sergio Tacchini 3112 Lorage - We Need 3112 L'haj YB - 23 3112 Redzo - Hna DZ -On Est Les DZ- ft MSEZ M16 3112 Nawres - Cactus Paroles 7bib - Jouska Anis ZNK - Genius Mind BlackGuns - Album VantaBlack Cinou - EP 'Next Level' DAK - Harami de Luxe Fada Vex - Dystopia Flenn - Album Flou JPS - Monachopsis Largo - Largo 20202021 L'intouchable - El 9ssayed LT - Ep Skat LT - Mixtape TX.6 Lünn - Afroraibian EP L'Wew - Ep Caballero Nirmou Album Coté Son Rabah Donquishoot - Psychotrip Raouf BKL - Redzo Intik - New Album Roofa MC - EP No Mode Sef - Album Nuit Blanche Xenos - Vae Victis5</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dans nos cités, la jalousie on a attisé Karlito, Manu Key, Intouchable La vie est une chienne De ceux qui survivent et sdisent ainsi va la vie Parcquici la vie est chienne et ainsi va-t-elle La vie est une chienne et me rappelle le goût dla haine Autant qujme rappelle cque jvis nest pt-être quun rêve La vie nous a rayé dson tracé, dson parcours Rien à changer à ce jour le destin m'a frappé pour toujours Nos rêves et nos espoirs se sont envolés en fumée Nos rêves et nos espoirs se sont envolés en fumée Au fond cest pas trop compliqué, vois comme je flamboie Le micro, ma folie et je saurai en faire mon emploi Jconnais ltrottoir, son odeur à deux heures du matin Et si tu me suis bien tu te perds bien Jvis à léchelle de lhomme, après lalbum on fera la teuf Jai mes cent spliffs de popo et mes gars disent ille-euf Oui comme jla sais, mon faux air de compassion Personne ne voit la mort daussi près qudans sa maison Elle rit et fauche comme le direct Paris-Marseille Le monde est mien, ventre affamé dort dune oreille Coincé cinq fois dans l'année tu deales Pour cette putain dvilla à Manilla La rue court tout comme mes soces causent Du VR6 cause, de tout cque demoiselle te propose Il est bien temps dconcrétiser Il est bien temps dconcrétiser You might also like x2 Il est bien temps dconcrétiser Dans nos cités, la jalousie on a attisé Depuis tout petit sur la musique on a misé Comprends pourquoi plus rien ne peut nous traumatiser Moi jai rien promis au monde mais lmonde ma promis ses rêves Personne ma dit que le mal ne mlaisserait aucune trêve Aujourdhui, on vit de cette musique Et toutes nos larmes coulent pour mes frères dAfrique Jen place une pour mes frères incarcérés Et qui chez les flics sont brutalisés Tous ces faits divers sont banalisés Avisés, on laime mais faut éviter À priori, on me trouve froid et réservé Issu des ghettos, demande-toi si cest vrai Étant chaud est énervé, Dry garde son sang-froid Bien équipé toujours, non nmontre pas du doigt La vie dcité, personne lenvie Lenvie dinciter, ainsi dire, cest mon avis Il est bien temps dconcrétiser Dans nos cités, la jalousie on a attisé x3 Il est bien temps dconcrétiser Dans nos cités, la jalousie on a attisé Depuis tout petit sur la musique on a misé Comprends pourquoi plus rien ne peut nous traumatiser On a tout misé, on a tout misé Jeune nègre et ambitieux, côté comme artiste On vit pour lcash dans cmonde plus rien n'est gratos Depuis qules marmots sont tarés, pour la prison parés Il faut stenir à carreau pour pas finir K.O Issu des cités H.L.M, jlève mon verre à la tienne Au nom dla Mafia Africaine car notre époque est cruelle À chacun son histoire la mienne est un truc de fou Au parfum du bitume jai senti les mauvais coups Tu mas dit il est bien temps dconcrétiser Forgé ma jeunesse dans ctruc, car pour le rap jai tout misé Depuis le temps où on sdisait nos rêves et dautres choses La vie est ainsi chienne, elle ta poussé à faire autre chose Prends mes textes comme ils arrivent, transforme drame en poésie Lhomme est ainsi fait rempli de jalousie J'ai un message authentique pour les frères et les surs Jporte lAfrique dans lcur, avec léquipe défend les couleurs Dans nos cités, la jalousie on a attisé Depuis tout petit sur la musique on a misé Comprends pourquoi plus rien ne peut nous traumatiser x6 Il est bien temps dconcrétiser Dans nos cités, la jalousie on a attisé Depuis tout petit sur la musique on a misé Comprends pourquoi plus rien ne peut nous traumatiser</t>
+          <t>Dans nos cités, la jalousie on a attisé Karlito, Manu Key, Intouchable La vie est une chienne De ceux qui survivent et sdisent ainsi va la vie Parcquici la vie est chienne et ainsi va-t-elle La vie est une chienne et me rappelle le goût dla haine Autant qujme rappelle cque jvis nest pt-être quun rêve La vie nous a rayé dson tracé, dson parcours Rien à changer à ce jour le destin m'a frappé pour toujours Nos rêves et nos espoirs se sont envolés en fumée Nos rêves et nos espoirs se sont envolés en fumée Au fond cest pas trop compliqué, vois comme je flamboie Le micro, ma folie et je saurai en faire mon emploi Jconnais ltrottoir, son odeur à deux heures du matin Et si tu me suis bien tu te perds bien Jvis à léchelle de lhomme, après lalbum on fera la teuf Jai mes cent spliffs de popo et mes gars disent ille-euf Oui comme jla sais, mon faux air de compassion Personne ne voit la mort daussi près qudans sa maison Elle rit et fauche comme le direct Paris-Marseille Le monde est mien, ventre affamé dort dune oreille Coincé cinq fois dans l'année tu deales Pour cette putain dvilla à Manilla La rue court tout comme mes soces causent Du VR6 cause, de tout cque demoiselle te propose Il est bien temps dconcrétiser Il est bien temps dconcrétiser x2 Il est bien temps dconcrétiser Dans nos cités, la jalousie on a attisé Depuis tout petit sur la musique on a misé Comprends pourquoi plus rien ne peut nous traumatiser Moi jai rien promis au monde mais lmonde ma promis ses rêves Personne ma dit que le mal ne mlaisserait aucune trêve Aujourdhui, on vit de cette musique Et toutes nos larmes coulent pour mes frères dAfrique Jen place une pour mes frères incarcérés Et qui chez les flics sont brutalisés Tous ces faits divers sont banalisés Avisés, on laime mais faut éviter À priori, on me trouve froid et réservé Issu des ghettos, demande-toi si cest vrai Étant chaud est énervé, Dry garde son sang-froid Bien équipé toujours, non nmontre pas du doigt La vie dcité, personne lenvie Lenvie dinciter, ainsi dire, cest mon avis Il est bien temps dconcrétiser Dans nos cités, la jalousie on a attisé x3 Il est bien temps dconcrétiser Dans nos cités, la jalousie on a attisé Depuis tout petit sur la musique on a misé Comprends pourquoi plus rien ne peut nous traumatiser On a tout misé, on a tout misé Jeune nègre et ambitieux, côté comme artiste On vit pour lcash dans cmonde plus rien n'est gratos Depuis qules marmots sont tarés, pour la prison parés Il faut stenir à carreau pour pas finir K.O Issu des cités H.L.M, jlève mon verre à la tienne Au nom dla Mafia Africaine car notre époque est cruelle À chacun son histoire la mienne est un truc de fou Au parfum du bitume jai senti les mauvais coups Tu mas dit il est bien temps dconcrétiser Forgé ma jeunesse dans ctruc, car pour le rap jai tout misé Depuis le temps où on sdisait nos rêves et dautres choses La vie est ainsi chienne, elle ta poussé à faire autre chose Prends mes textes comme ils arrivent, transforme drame en poésie Lhomme est ainsi fait rempli de jalousie J'ai un message authentique pour les frères et les surs Jporte lAfrique dans lcur, avec léquipe défend les couleurs Dans nos cités, la jalousie on a attisé Depuis tout petit sur la musique on a misé Comprends pourquoi plus rien ne peut nous traumatiser x6 Il est bien temps dconcrétiser Dans nos cités, la jalousie on a attisé Depuis tout petit sur la musique on a misé Comprends pourquoi plus rien ne peut nous traumatiser</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 J'arrive insolent les autres ils sont là pour niquer l'Etat Paris chaud bouillant, les poulets sont plus là Sors ta C là et c'est l'sauna dans l'tier-quar mon pote Nique la BAC, les stups, et les procs, j'encule la FAC, les études et l'école Laisse moi dans mon coin ruminer mon herbe La rue c'est violent comme voir quelqu'un humilier ton père ou faire mouiller ta mère Toujours déter, on te casse la mâchoire, comme Dexter, on te passe à la hachoire Sur l'ter-ter, t'ouvres ta bouches, nos commentaires, sur ça tu vas t'asseoir On survit, crache des flammes de nos stylos, rien d'sublime dans leur ville hostile XXX plus bas que des animaux, pas d'surprise alors on dine dans la ville Wallalahdim on est en plein dans leur viseur, nous veulent en case prison, à l'asile Passe le magazine mais crypte-le, Panam est Crick Crick Pah, tiens, vas-y emmagasine-le On l'assume, zim-zimma bouge ton cul, voisins, voisines You might also like Nous fournissent danse, sexe, peine, haine et calibres, Red, VIP, Jet-Set on est pas libres T'inquiète pas nos sont magiques ont des talibans, ça va être blessant, Africa del Caraïbes Mais sinon, ça c'est 20ème millézim' Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Toujours déter comme L'Ouverture Toussaint, on veut du biff, des grosses voitures Mais pas tous des p'tites d'12 ans aux gros seins, sous Gucci, Louis V, Mauboussin Ne parle pas d'ton Glock dans mon bloc, on en a tous un On t'fume pendant qu'tu ronfles entre ta couverture et ton coussin Eh cousin, faut pas que j'joue l'ouf dans les aventures, XXX on est pas tous saints J'viens de l'Est, hein, là où les poulets, renterrent sortent en mode poussin La devise, c'est que même tout seul, on vous baise tous hein, oh oui on s'en fout t'es qui et quel âge t'as Rafale verbale à la lashKa dans ton nid, ici c'est... Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Fermez vos nenettes, gros va leur dire qu'on est pas nette 75 une autre planète, pas besoin de shit, de coke pour planer Du zemzem dans ma canette, oui je suis zinzin, je vais te caner Je vais te saigner, puis j'vais dessiner sur ton torse H MAGNUM Si si ta vue king sur le ring, petit arrogant Si je veux je te fais tu Raggae, mais là j'aimerais juste te Hagar? Grandi parmi les brigants, XXX intriguant quand je le dégaine On a le talent dans les gènes comme XXX Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 J'arrive insolent les autres ils sont là pour niquer l'Etat Paris chaud bouillant, les poulets sont plus là Sors ta C là et c'est l'sauna dans l'tier-quar mon pote Nique la BAC, les stups, et les procs, j'encule la FAC, les études et l'école Laisse moi dans mon coin ruminer mon herbe La rue c'est violent comme voir quelqu'un humilier ton père ou faire mouiller ta mère Toujours déter, on te casse la mâchoire, comme Dexter, on te passe à la hachoire Sur l'ter-ter, t'ouvres ta bouches, nos commentaires, sur ça tu vas t'asseoir On survit, crache des flammes de nos stylos, rien d'sublime dans leur ville hostile XXX plus bas que des animaux, pas d'surprise alors on dine dans la ville Wallalahdim on est en plein dans leur viseur, nous veulent en case prison, à l'asile Passe le magazine mais crypte-le, Panam est Crick Crick Pah, tiens, vas-y emmagasine-le On l'assume, zim-zimma bouge ton cul, voisins, voisines Nous fournissent danse, sexe, peine, haine et calibres, Red, VIP, Jet-Set on est pas libres T'inquiète pas nos sont magiques ont des talibans, ça va être blessant, Africa del Caraïbes Mais sinon, ça c'est 20ème millézim' Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Toujours déter comme L'Ouverture Toussaint, on veut du biff, des grosses voitures Mais pas tous des p'tites d'12 ans aux gros seins, sous Gucci, Louis V, Mauboussin Ne parle pas d'ton Glock dans mon bloc, on en a tous un On t'fume pendant qu'tu ronfles entre ta couverture et ton coussin Eh cousin, faut pas que j'joue l'ouf dans les aventures, XXX on est pas tous saints J'viens de l'Est, hein, là où les poulets, renterrent sortent en mode poussin La devise, c'est que même tout seul, on vous baise tous hein, oh oui on s'en fout t'es qui et quel âge t'as Rafale verbale à la lashKa dans ton nid, ici c'est... Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Fermez vos nenettes, gros va leur dire qu'on est pas nette 75 une autre planète, pas besoin de shit, de coke pour planer Du zemzem dans ma canette, oui je suis zinzin, je vais te caner Je vais te saigner, puis j'vais dessiner sur ton torse H MAGNUM Si si ta vue king sur le ring, petit arrogant Si je veux je te fais tu Raggae, mais là j'aimerais juste te Hagar? Grandi parmi les brigants, XXX intriguant quand je le dégaine On a le talent dans les gènes comme XXX Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Vivement le week-end À cause de mon talent, j'suis convoqué chez les chickens, yeah À Paris, y'a plus rien d'nickel T'as déjà dit d'une meuf qu'elle est moche tah Sonia Rykiel Sois l'bienvenu dans le système Où les médias, la populace, n'aiment pas les filles saines Mise de côté comme une ficelle Au fait, c'est 'chant-mé' quand ton poto sort à mi-peine, yeah À force de manger seul Tu finiras par t'étouffer seul T'es dépassé comme le Minitel J'suis aussi amer que le Ministère Paro, la vie, c'est nichen Jusqu'au linceul, demande à Rafik ou bien Hichem Tu m'dis que j'ai des milliers d'fans Mais, dans mon cur, moi, j'ai des millions d'thèmes J'ai besoin de dollars M'envie pas, j'envie les frères qui prennent le large M'invite pas si tu sais pas manier le kalâm Dévie pas, tu pourrais finir dans un polar, yeah C'était la parenthèse minute peine Y'en a même chez les militaires Dounia m'envoie des e-mails Et mon hymen finit dans le Finistère Garde l'équilibre, la vie prend La vie donne à tous et nous délivre Le goût de vivre, c'est le monde qui raisonne-sonne Le temps d'un rêve, le temps d'une chimère Sois pas si naïf Et pourquoi tu t'étonnes ? Les roses finissent par s'incliner Et, malgré ça, tu fais l'effort d'y croire encore, d'y croire encore J'prends mon temps depuis l'départ La roue tourne, mon ami, et chacun vit son quart d'heure Mon futur à l'horizon Et, à mi-chemin, y'a ma foi, ma raison Désolé mais tu n'es plus dans l'coup J'ai l'droit à l'or et au prix Goncourt Car je crois qu'on a deux vies Et, quand on dévie, un jour, on paye le devis Moi, j'ai grandi dans la rue Celle qui préfère se battre plutôt que d'attendre le mécène J'suis pas une idole, issu d'la middle class LiDL J'côtoie beaucoup de gens qui me limitent Je dois me libérer de mes chaînes de mes chaînes Garde l'équilibre, la vie prend La vie donne à tous et nous délivre Le goût de vivre, c'est le monde qui raisonne-sonne Le temps d'un rêve, le temps d'une chimère Sois pas si naïf Et pourquoi tu t'étonnes ? Les roses finissent par s'incliner Et, malgré ça, tu fais l'effort d'y croire encore, d'y croire encore L'aventure humaine-maine te traîne, tu cours à en perdre haleine Mais le voyage en vaut la peine Même si l'issue est incertaine Ça vaut la peine, ça vaut la peine Je n'm'avouerai pas vaincu tant qu'mon dos n'aura pas touché l'sol Je n'm'avouerai pas vaincu tant qu'mon dos n'aura pas touché l'sol Garde l'équilibre, la vie prend La vie donne à tous et nous délivre Le goût de vivre, c'est le monde qui raisonne-sonne Le temps d'un rêve, le temps d'une chimère Sois pas si naïf Et pourquoi tu t'étonnes ? Les roses finissent par s'incliner Et, malgré ça, tu fais l'effort d'y croire encore, d'y croire encoreYou might also like1</t>
+          <t>Vivement le week-end À cause de mon talent, j'suis convoqué chez les chickens, yeah À Paris, y'a plus rien d'nickel T'as déjà dit d'une meuf qu'elle est moche tah Sonia Rykiel Sois l'bienvenu dans le système Où les médias, la populace, n'aiment pas les filles saines Mise de côté comme une ficelle Au fait, c'est 'chant-mé' quand ton poto sort à mi-peine, yeah À force de manger seul Tu finiras par t'étouffer seul T'es dépassé comme le Minitel J'suis aussi amer que le Ministère Paro, la vie, c'est nichen Jusqu'au linceul, demande à Rafik ou bien Hichem Tu m'dis que j'ai des milliers d'fans Mais, dans mon cur, moi, j'ai des millions d'thèmes J'ai besoin de dollars M'envie pas, j'envie les frères qui prennent le large M'invite pas si tu sais pas manier le kalâm Dévie pas, tu pourrais finir dans un polar, yeah C'était la parenthèse minute peine Y'en a même chez les militaires Dounia m'envoie des e-mails Et mon hymen finit dans le Finistère Garde l'équilibre, la vie prend La vie donne à tous et nous délivre Le goût de vivre, c'est le monde qui raisonne-sonne Le temps d'un rêve, le temps d'une chimère Sois pas si naïf Et pourquoi tu t'étonnes ? Les roses finissent par s'incliner Et, malgré ça, tu fais l'effort d'y croire encore, d'y croire encore J'prends mon temps depuis l'départ La roue tourne, mon ami, et chacun vit son quart d'heure Mon futur à l'horizon Et, à mi-chemin, y'a ma foi, ma raison Désolé mais tu n'es plus dans l'coup J'ai l'droit à l'or et au prix Goncourt Car je crois qu'on a deux vies Et, quand on dévie, un jour, on paye le devis Moi, j'ai grandi dans la rue Celle qui préfère se battre plutôt que d'attendre le mécène J'suis pas une idole, issu d'la middle class LiDL J'côtoie beaucoup de gens qui me limitent Je dois me libérer de mes chaînes de mes chaînes Garde l'équilibre, la vie prend La vie donne à tous et nous délivre Le goût de vivre, c'est le monde qui raisonne-sonne Le temps d'un rêve, le temps d'une chimère Sois pas si naïf Et pourquoi tu t'étonnes ? Les roses finissent par s'incliner Et, malgré ça, tu fais l'effort d'y croire encore, d'y croire encore L'aventure humaine-maine te traîne, tu cours à en perdre haleine Mais le voyage en vaut la peine Même si l'issue est incertaine Ça vaut la peine, ça vaut la peine Je n'm'avouerai pas vaincu tant qu'mon dos n'aura pas touché l'sol Je n'm'avouerai pas vaincu tant qu'mon dos n'aura pas touché l'sol Garde l'équilibre, la vie prend La vie donne à tous et nous délivre Le goût de vivre, c'est le monde qui raisonne-sonne Le temps d'un rêve, le temps d'une chimère Sois pas si naïf Et pourquoi tu t'étonnes ? Les roses finissent par s'incliner Et, malgré ça, tu fais l'effort d'y croire encore, d'y croire encore1</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau Négro, change de secteur J'aime pas les nouveaux, j'suis trop sectaire Quand c'était chaud, vous avez reculé Allez tous vous faire enc... Désolé si mon existence vous gêne, vous pousse à la médisance J'ai l'habitude, ça fait maintenant dix ans que j'vous trouve quelque peu réticents Mais wesh, wesh, c'est quoi les dièses ? J'ai raté une dizaine d'épisodes D'un coup, ces fils de chht disent qu'ils kifferaient venir m'faire la bise Résultat j'ai la mainmise, j'vais m'amuser, leur faire la misère J'vais braquer l'viseur sur leur visage et leur crier Freeze En attendant, j'analyse leur biz, leur disque et leur teaser Wesh, c'est d'la merde, ils s'enlisent, il faudra bien que quelqu'un leur dise Laisse ça pour l'instant, c'est E-Rise qui fait la prod que j'aiguise En c'moment même avec mon complice H Magnum, Saint Blaise, Bérize J'vous suis du regard comme Mona Lisa, on va vous mettre une valise C'est pas gentil, ça, mais des os s'brisent, appelle-moi Mister Equalizer You might also like À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau Coucou, c'est moi, j'kick, pardon, j'avoue qu'ça pique Vous jeter des briques, c'est c'que demande le public L'ambiance devient mystique, on n'voit même plus vos stickers D'après les statistiques, l'album est fantastique On m'réclame aux quatre coins d'la France, mais j'peux pas m'dupliquer Apparemment, les plus grandes salles sont toutes en panne de tickets Arrête de t'exciter, j'vais t'expliquer En général, après moi, les rappeurs détestent kicker Mais, négro, tu vas prendre l'eau Tu sais qu'j'vais p't-être vendre comme Meugiwarano Choisis la sauce à laquelle j'vais t'grailler, envoie la note La torture n'est pas physique mais psychique, en un mot Guantanamo Ok, pas d'panique, j'anticipe, leurs flows sont trop prévisibles Gros, j'les prends même plus pour cible, non, cimer, c'est trop facile J'fais pas dans le théâtre ou l'cinéma, j'défigure comme l'acide J'les laisse assis là sur l'ciment, j'disparais en un battement d'cils Quand le son démarre, toi, tu hoches la tête Quand il s'arrête, tu ramasses tes os par terre Igo, tu vas prendre l'eau donc abandonne le combat Mets-toi sur le té-cô, t'es pas habilité Petit, abandonne, vas-y, cours vers la sortie Entre nous, boy, c'est pas l'même level et tu l'as senti J'vous présente le Dream et Monsieur Fall Igo, abandonne, t'es pas habilité À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau Tu devais nous effacer, c'est c'que tu disais Tu criais sur tous les toits qu't'allais nous briser Dis-moi, c'est comment, c'est comment, c'est comment ? Dis-moi, c'est comment, c'est comment, c'est comment ? Tu devais nous effacer, c'est c'que tu disais Tu criais sur tous les toits qu't'allais nous briser Dis-moi, c'est comment, c'est comment, c'est comment ? Dis-moi, c'est comment, c'est comment, c'est comment, boy ? Rise, Monsieur Fall, H-Dream Dis-moi, c'est comment, c'est comment, c'est comment, boy ?1</t>
+          <t>À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau Négro, change de secteur J'aime pas les nouveaux, j'suis trop sectaire Quand c'était chaud, vous avez reculé Allez tous vous faire enc... Désolé si mon existence vous gêne, vous pousse à la médisance J'ai l'habitude, ça fait maintenant dix ans que j'vous trouve quelque peu réticents Mais wesh, wesh, c'est quoi les dièses ? J'ai raté une dizaine d'épisodes D'un coup, ces fils de chht disent qu'ils kifferaient venir m'faire la bise Résultat j'ai la mainmise, j'vais m'amuser, leur faire la misère J'vais braquer l'viseur sur leur visage et leur crier Freeze En attendant, j'analyse leur biz, leur disque et leur teaser Wesh, c'est d'la merde, ils s'enlisent, il faudra bien que quelqu'un leur dise Laisse ça pour l'instant, c'est E-Rise qui fait la prod que j'aiguise En c'moment même avec mon complice H Magnum, Saint Blaise, Bérize J'vous suis du regard comme Mona Lisa, on va vous mettre une valise C'est pas gentil, ça, mais des os s'brisent, appelle-moi Mister Equalizer À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau Coucou, c'est moi, j'kick, pardon, j'avoue qu'ça pique Vous jeter des briques, c'est c'que demande le public L'ambiance devient mystique, on n'voit même plus vos stickers D'après les statistiques, l'album est fantastique On m'réclame aux quatre coins d'la France, mais j'peux pas m'dupliquer Apparemment, les plus grandes salles sont toutes en panne de tickets Arrête de t'exciter, j'vais t'expliquer En général, après moi, les rappeurs détestent kicker Mais, négro, tu vas prendre l'eau Tu sais qu'j'vais p't-être vendre comme Meugiwarano Choisis la sauce à laquelle j'vais t'grailler, envoie la note La torture n'est pas physique mais psychique, en un mot Guantanamo Ok, pas d'panique, j'anticipe, leurs flows sont trop prévisibles Gros, j'les prends même plus pour cible, non, cimer, c'est trop facile J'fais pas dans le théâtre ou l'cinéma, j'défigure comme l'acide J'les laisse assis là sur l'ciment, j'disparais en un battement d'cils Quand le son démarre, toi, tu hoches la tête Quand il s'arrête, tu ramasses tes os par terre Igo, tu vas prendre l'eau donc abandonne le combat Mets-toi sur le té-cô, t'es pas habilité Petit, abandonne, vas-y, cours vers la sortie Entre nous, boy, c'est pas l'même level et tu l'as senti J'vous présente le Dream et Monsieur Fall Igo, abandonne, t'es pas habilité À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau À quoi tu t'attendais ? Tu pensais qu'on dormait ? Tu croyais vraiment qu'on allait t'laisser prendre notre part ? Mais, igo, tu vas prendre l'eau, tu vas prendre l'eau Tu vas prendre l'eau, igo, tu vas prendre l'eau Tu devais nous effacer, c'est c'que tu disais Tu criais sur tous les toits qu't'allais nous briser Dis-moi, c'est comment, c'est comment, c'est comment ? Dis-moi, c'est comment, c'est comment, c'est comment ? Tu devais nous effacer, c'est c'que tu disais Tu criais sur tous les toits qu't'allais nous briser Dis-moi, c'est comment, c'est comment, c'est comment ? Dis-moi, c'est comment, c'est comment, c'est comment, boy ? Rise, Monsieur Fall, H-Dream Dis-moi, c'est comment, c'est comment, c'est comment, boy ?1</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Oh mes frères qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Oh mes surs qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Et j'pense que c'est idem Seul sur mon divan, j'vous souhaite que du bien Laisse la médisance, car j'crains l'Divin C'est vous qui me disiez qu'les gens deviennent aigris Bizarres, s'déguisent quand l'temps s'compte en devises Je vous laisse passer devant, laissez-moi à Dublin Je rame, ça fait dix ans, je n'ai pas besoin du plein À chaque fleur sa saison ce que m'man me disait Je tisais et je visais la Lune sans la fusée On voit les vrais visages quand la lumière séteint Moi qui étais sûr qu'on était soudés à l'étain C'est au pied du mur que l'amitié déteint Et que l'amour décède Je pense qu'on s'est compris, je ne ferai pas de dessin Frère, tu sais qu'on vit dans le cauchemar des saints Seul dans mon lit, mes soucis Mes coussins me soutiennent, acouphènes You might also like Oh mes frères qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Oh mes surs qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Et j'pense que c'est idem Je suis loin d'être un savant mais, ça, je le savais Je rate souvent le vent, j'espère être sauvé Aveuglé par l'argent, on flippe, c'est la crise Oh misère, la musique brise même nos milles-fa Si je prends la fuite, on me traîtera de loser Y a que dans le sale que je sais faire de l'oseille Un jour, un frère m'a dit Réveille-toi, c'est la vie T'es moins à plaindre que ceux qui dorment sur le parvis Je vis comme un mort, j'espère mourir en bonhomme Je ris de moins en moins car j'ai perdu mon binôme Les dégâts du biz, c'est ma Tour de Pise Et je m'isole, figé, j'observe mieux la rive On me dévisage comme un putain d'arrivant Tu vois deux visages quand le butin arrive Je suis devenu sage Car mon sang, une sage femme, un cordon, un couffin Oh mes frères qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Oh mes surs qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Et j'pense que c'est idem Et j'pense que c'est idem Et j'pense que c'est idem7</t>
+          <t>Oh mes frères qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Oh mes surs qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Et j'pense que c'est idem Seul sur mon divan, j'vous souhaite que du bien Laisse la médisance, car j'crains l'Divin C'est vous qui me disiez qu'les gens deviennent aigris Bizarres, s'déguisent quand l'temps s'compte en devises Je vous laisse passer devant, laissez-moi à Dublin Je rame, ça fait dix ans, je n'ai pas besoin du plein À chaque fleur sa saison ce que m'man me disait Je tisais et je visais la Lune sans la fusée On voit les vrais visages quand la lumière séteint Moi qui étais sûr qu'on était soudés à l'étain C'est au pied du mur que l'amitié déteint Et que l'amour décède Je pense qu'on s'est compris, je ne ferai pas de dessin Frère, tu sais qu'on vit dans le cauchemar des saints Seul dans mon lit, mes soucis Mes coussins me soutiennent, acouphènes Oh mes frères qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Oh mes surs qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Et j'pense que c'est idem Je suis loin d'être un savant mais, ça, je le savais Je rate souvent le vent, j'espère être sauvé Aveuglé par l'argent, on flippe, c'est la crise Oh misère, la musique brise même nos milles-fa Si je prends la fuite, on me traîtera de loser Y a que dans le sale que je sais faire de l'oseille Un jour, un frère m'a dit Réveille-toi, c'est la vie T'es moins à plaindre que ceux qui dorment sur le parvis Je vis comme un mort, j'espère mourir en bonhomme Je ris de moins en moins car j'ai perdu mon binôme Les dégâts du biz, c'est ma Tour de Pise Et je m'isole, figé, j'observe mieux la rive On me dévisage comme un putain d'arrivant Tu vois deux visages quand le butin arrive Je suis devenu sage Car mon sang, une sage femme, un cordon, un couffin Oh mes frères qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Oh mes surs qui m'avez délaissé J'vous en veux pas, j'suis dans mon coin tout seul, je plane Et j'pense que c'est idem Et j'pense que c'est idem Et j'pense que c'est idem7</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tas plein dami autour de toi, dla chance depuis ta naissance Tenflammes le cur de toutes ces dames, tes pire quune station dessence Cest en leur sein que ton arrogance puise toute son aisance Tas plus dargent, tant mieux, content pour toi, mais pourquoi tu men veux ? Regarde-moi, pourquoi tu men veux ? Jai moins que toi, pourquoi tu men veux ? Regarde-moi, je tiens les murs, jai pas dtaf Je galère, jsuis pas comme toi Pourquoi tu men veux ? Regarde-moi, pourquoi tu men veux ? Jsuis pas comme toi, pourquoi tu men veux ? Je tiens les murs comme chaque fois Je cherche du taf, pourquoi tu men veux ? Pour toi je me suis oublié, jai pris deux tafs à plein temps Toi tu nmas jamais digéré, trop impatiente pour comprendre Tas donc pris tes distances, suivi ton destin de lautre côté dla France Moi jai fait mon chemin, je ne ten veux pas, je nveux plus dnos échanges Je me suis fiancé, mes bébés naissent en décembre Je tai pourtant aimé Pourquoi tu men veux ? Regarde-moi, pourquoi tu men veux ? Jsuis pas comme toi, pourquoi tu men veux ? Je tiens les murs comme chaque fois Je cherche du taf, pourquoi tu men veux ? You might also like Je nvis pas sur les Champs Élysées, regarde-moi Si ta vie est si clinquante, noublie pas que jsuis pas comme toi Cest pas toujours le printemps mais je nme plains pas Je tiens les murs comme chaque fois, je cherche du taf Pourquoi tu men veux ? Regarde-moi, pourquoi tu men veux ? Jsuis pas comme toi, pourquoi tu men veux ? Je tiens les murs comme chaque fois Je cherche du taf, pourquoi tu men veux ? Pourquoi tu men veux ?</t>
+          <t>Tas plein dami autour de toi, dla chance depuis ta naissance Tenflammes le cur de toutes ces dames, tes pire quune station dessence Cest en leur sein que ton arrogance puise toute son aisance Tas plus dargent, tant mieux, content pour toi, mais pourquoi tu men veux ? Regarde-moi, pourquoi tu men veux ? Jai moins que toi, pourquoi tu men veux ? Regarde-moi, je tiens les murs, jai pas dtaf Je galère, jsuis pas comme toi Pourquoi tu men veux ? Regarde-moi, pourquoi tu men veux ? Jsuis pas comme toi, pourquoi tu men veux ? Je tiens les murs comme chaque fois Je cherche du taf, pourquoi tu men veux ? Pour toi je me suis oublié, jai pris deux tafs à plein temps Toi tu nmas jamais digéré, trop impatiente pour comprendre Tas donc pris tes distances, suivi ton destin de lautre côté dla France Moi jai fait mon chemin, je ne ten veux pas, je nveux plus dnos échanges Je me suis fiancé, mes bébés naissent en décembre Je tai pourtant aimé Pourquoi tu men veux ? Regarde-moi, pourquoi tu men veux ? Jsuis pas comme toi, pourquoi tu men veux ? Je tiens les murs comme chaque fois Je cherche du taf, pourquoi tu men veux ? Je nvis pas sur les Champs Élysées, regarde-moi Si ta vie est si clinquante, noublie pas que jsuis pas comme toi Cest pas toujours le printemps mais je nme plains pas Je tiens les murs comme chaque fois, je cherche du taf Pourquoi tu men veux ? Regarde-moi, pourquoi tu men veux ? Jsuis pas comme toi, pourquoi tu men veux ? Je tiens les murs comme chaque fois Je cherche du taf, pourquoi tu men veux ? Pourquoi tu men veux ?</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Wesh les mecs, c'est encore oi-m Tu voulais du rap, j'te ramène du Kay-One J'kick dur, oui, comme les fins de oim-s J'en ai plus rien à foutre que les p'tits s'éloignent Pam le style est chelou, arrêtez de cheuneuf' Les meilleurs sont chez nous, oukhtys venez chiner J'suis venu vous démont', que dieu m'en soit témoin J'ramasse pas mon inspi' le zen dans la chenouf Augmente la sono quand j't'envois les signaux Bientôt plus d'signal, le rap c'est pas la Sunna En face, que des sous-marques, là pour faire des sous man Des milliers de litres posés sur le dos d'un himal Parle pas de moi, j'vais t'faire du mal J'attendrai pas l'heure j'te fumerai à la demie Wesh trou du cul même avec des livres sur le dos Un âne reste un âne donc fonce dans le mur et ... You might also like Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Qui veut la paix prépare l'oseille, t'es dans les airs On va te couper les ailes, sois le bienvenue dans ma ZEP La mauvaise herbe, pas d'excès d'zèle Beaucoup d'ecstasy et du plâtre sous le zen Ça fait des années que j'vous dis que j'veux vous saigner Les haineux deviennent des suceurs, j'ai mis leur talent sous scellé Insolent, j'écris au silex, déter comme un Palestinien Et puis hop t'es pris dans le filet, sais-tu que j'peux rapper sous l'eau ? Tu m'as négligé ? Vaffanculo Toi là MC enlève ta culotte Voilà H-Magnum, reculez ! J'm'arrache Non, vas-y vas-y vas-y tue-les ! J'ramène l'écurie, que des grosses tueries HurricaneFury, leur crew trop pourri Plein d'Chicken Peri, taurine dans l'urine J'les rends tous stériles Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'ai connu les soirs d'hiver, la chaleur au fond d'un verre La galère un peu divresse, POW POW un fait divers Couche le videur, colère est déguisée comme face à un refus de Visa Parce que la rue à deux visages J'ai grandi dans le danger, dans les plans B J'ai vu des potes se faire plomber, vilipender Coursés par les condés qui m'attendaient Certains se sont cambrés pour pas tomber Balancer dans un champs d'blé, ici c'est tendu Le sheitan tient la chandelle bien entendu Mais y a plein d'petits Denzel et de bandits Pour les reufs qui se réinsèrent dans la condi' Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Paroles rédigées et expliquées par la communauté RapGenius France2</t>
+          <t>Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Wesh les mecs, c'est encore oi-m Tu voulais du rap, j'te ramène du Kay-One J'kick dur, oui, comme les fins de oim-s J'en ai plus rien à foutre que les p'tits s'éloignent Pam le style est chelou, arrêtez de cheuneuf' Les meilleurs sont chez nous, oukhtys venez chiner J'suis venu vous démont', que dieu m'en soit témoin J'ramasse pas mon inspi' le zen dans la chenouf Augmente la sono quand j't'envois les signaux Bientôt plus d'signal, le rap c'est pas la Sunna En face, que des sous-marques, là pour faire des sous man Des milliers de litres posés sur le dos d'un himal Parle pas de moi, j'vais t'faire du mal J'attendrai pas l'heure j'te fumerai à la demie Wesh trou du cul même avec des livres sur le dos Un âne reste un âne donc fonce dans le mur et ... Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Qui veut la paix prépare l'oseille, t'es dans les airs On va te couper les ailes, sois le bienvenue dans ma ZEP La mauvaise herbe, pas d'excès d'zèle Beaucoup d'ecstasy et du plâtre sous le zen Ça fait des années que j'vous dis que j'veux vous saigner Les haineux deviennent des suceurs, j'ai mis leur talent sous scellé Insolent, j'écris au silex, déter comme un Palestinien Et puis hop t'es pris dans le filet, sais-tu que j'peux rapper sous l'eau ? Tu m'as négligé ? Vaffanculo Toi là MC enlève ta culotte Voilà H-Magnum, reculez ! J'm'arrache Non, vas-y vas-y vas-y tue-les ! J'ramène l'écurie, que des grosses tueries HurricaneFury, leur crew trop pourri Plein d'Chicken Peri, taurine dans l'urine J'les rends tous stériles Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'ai connu les soirs d'hiver, la chaleur au fond d'un verre La galère un peu divresse, POW POW un fait divers Couche le videur, colère est déguisée comme face à un refus de Visa Parce que la rue à deux visages J'ai grandi dans le danger, dans les plans B J'ai vu des potes se faire plomber, vilipender Coursés par les condés qui m'attendaient Certains se sont cambrés pour pas tomber Balancer dans un champs d'blé, ici c'est tendu Le sheitan tient la chandelle bien entendu Mais y a plein d'petits Denzel et de bandits Pour les reufs qui se réinsèrent dans la condi' Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Paris Oran New York Juston Records Baby, ça vient pas comme aç boy, yeah Ça prend des piges et des piges, des décennies Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Demande à Skalpovich, trop de le-sty J'kick ça d-spee, prend mon llet-bi Tu veux du swagg, il te manque ce truc Qui fait que soudain tu te démarques On s'fait pas remarquer, on est remarquable oh oui Faut l'dire, personne nous rattrape Swaggué même en pe-sli j'reste pé-sa Merci passons Trop de compliments pourtant j'allais juste pisser J'ai tissé ma toile comme Pique L'expliquer c'est trop compliqué Etre chic c'est pas l'échec et qu'est ce que tu perds ta tête, mais au fait qui t'es T'aimerais nous côtoyer, t'es sur la liste rouge Sur la piste tu bouges mais t'as pas d'groove, la lose Ok ok t'as des loves mais t'as pas le level T'as mis un L.V putain essaye You might also like Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Ça c'est du Hip-Hop c'est Tip-Top Personne ne nous stop c'est chic choc Un hip-Hop p'tite frappe Ton style a l'odeur d'anti-pop Je te l'ai déjà dit, nous tester ne venez jamais Toi t'arrives en poney, moi j'repars en jument Une pour ma malle de clichés, la famille Djuna Zimzima mon corps à sang d'zonar Tu t'prends la tête Avec ton survet' zarbi en latex C'est dans l'sang la tech' Même quand je jardine sans lacets J'tape pas dans la C J'ai toujours un plat bio dans l'assiette T'aimes vraiment la C Mais ce soir le physio t'a rappelé Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Décennies C'est peut-être une question de distinction Brazza' H Dream, Meugiwarano, Gotham City, Gotham City TPP T'es pas prêt, Gotham City, La suite6</t>
+          <t>Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Paris Oran New York Juston Records Baby, ça vient pas comme aç boy, yeah Ça prend des piges et des piges, des décennies Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Demande à Skalpovich, trop de le-sty J'kick ça d-spee, prend mon llet-bi Tu veux du swagg, il te manque ce truc Qui fait que soudain tu te démarques On s'fait pas remarquer, on est remarquable oh oui Faut l'dire, personne nous rattrape Swaggué même en pe-sli j'reste pé-sa Merci passons Trop de compliments pourtant j'allais juste pisser J'ai tissé ma toile comme Pique L'expliquer c'est trop compliqué Etre chic c'est pas l'échec et qu'est ce que tu perds ta tête, mais au fait qui t'es T'aimerais nous côtoyer, t'es sur la liste rouge Sur la piste tu bouges mais t'as pas d'groove, la lose Ok ok t'as des loves mais t'as pas le level T'as mis un L.V putain essaye Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Ça c'est du Hip-Hop c'est Tip-Top Personne ne nous stop c'est chic choc Un hip-Hop p'tite frappe Ton style a l'odeur d'anti-pop Je te l'ai déjà dit, nous tester ne venez jamais Toi t'arrives en poney, moi j'repars en jument Une pour ma malle de clichés, la famille Djuna Zimzima mon corps à sang d'zonar Tu t'prends la tête Avec ton survet' zarbi en latex C'est dans l'sang la tech' Même quand je jardine sans lacets J'tape pas dans la C J'ai toujours un plat bio dans l'assiette T'aimes vraiment la C Mais ce soir le physio t'a rappelé Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Il suffit pas d'avoir d'la sape D'la sape ou bien d'la marque Je sais pas si tu remarques Mais c'est évident qu'il t'faut du swagg Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Du swagg, baby Du swagg, ça vient pas comme aç boy Du swagg, ça prend des piges et des piges Du swagg, des décennies Décennies C'est peut-être une question de distinction Brazza' H Dream, Meugiwarano, Gotham City, Gotham City TPP T'es pas prêt, Gotham City, La suite6</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>J'préfère le poing d'un monstre qu'la douleur du poids des mots Les yeux rivés sur ma montre, je sens de loin la fin du monde Ici la liste est longue, des refrès n'sont plus d'ce monde Pour une phrase dissonante ou des histoires de Miss Monde On pleure des larmes de shit coulant sur nos testaments Les vautours attendent ta chute, petit vas-y doucement Ta maman t'préfère en vie, assis près du frigo vide Que retrouver ton corps sans vie, les larmes coulant dans le vide J'pleure des gouttes de flammes, peur de finir dans le feu Même si parfois je plane, dangereux comme une arme à feu Avenir figé comme une photo, t'es parti trop tôt Allumé par ton poto, éteins à l'hosto Instinct d'fauve Une larme au bord des yeux Son âme a rejoint les cieux Tu es parti trop vite Tu as laissé un vide Un mot au bout des lèvres Un nouveau jour qui se lève Mais tu n'es pas là, tu n'es plus là Et je me noie dans ma peine Et je me noie dans ma peine You might also like Hier soir j'ai vu ton frère, meskine c'est plus le même J'ai cru un moment t'avoir vu, il avait mis ton pull en laine C'est plus comme à l'ancienne, ton père n'a plus d'force Moi j'suis toujours sous le porche, à écouter les bruits d'portes J'pleure des flaques de son, fonce-dé sous une pluie d'sang Le ptit Loubims qu'on aimait bien s'est tué à plus d'100 Moi j'suis là impuissant, c'est pas la faute à pas d'chance Y'a une vie après la mort, sinon l'amour n'a pas d'sens J'pleure des gouttes d'espoir, ceux qui ont perdu l'un des leurs Bientôt dans l'au-delà, on reverra nos absents J'préfère le poing d'un monstre qu'la douleur du poids des mots Car certains en guise de langue ont dans la bouche un chalumeau Instinct d'fauve Une larme au bord des yeux Son âme a rejoint les cieux Tu es parti trop vite Tu as laissé un vide Un mot au bout des lèvres Un nouveau jour qui se lève Mais tu n'es pas là, tu n'es plus là Et je me noie dans ma peine Et je me noie dans ma peine Et je me noie dans ma peine Amine Amine Bacom Bacom Cherif Cherif Loubips Loubips Hachim Hachim Loudsem Loudsem À tous ceux qui ont perdu un proche, une mère, un père, un frère, une sur Tenez le coup Instinct d'fauve Une larme au bord des yeux Son âme a rejoint les cieux Tu es parti trop vite Tu as laissé un vide Un mot au bout des lèvres Un nouveau jour qui se lève Mais tu n'es pas là, tu n'es plus là Et je me noie dans ma peine1</t>
+          <t>J'préfère le poing d'un monstre qu'la douleur du poids des mots Les yeux rivés sur ma montre, je sens de loin la fin du monde Ici la liste est longue, des refrès n'sont plus d'ce monde Pour une phrase dissonante ou des histoires de Miss Monde On pleure des larmes de shit coulant sur nos testaments Les vautours attendent ta chute, petit vas-y doucement Ta maman t'préfère en vie, assis près du frigo vide Que retrouver ton corps sans vie, les larmes coulant dans le vide J'pleure des gouttes de flammes, peur de finir dans le feu Même si parfois je plane, dangereux comme une arme à feu Avenir figé comme une photo, t'es parti trop tôt Allumé par ton poto, éteins à l'hosto Instinct d'fauve Une larme au bord des yeux Son âme a rejoint les cieux Tu es parti trop vite Tu as laissé un vide Un mot au bout des lèvres Un nouveau jour qui se lève Mais tu n'es pas là, tu n'es plus là Et je me noie dans ma peine Et je me noie dans ma peine Hier soir j'ai vu ton frère, meskine c'est plus le même J'ai cru un moment t'avoir vu, il avait mis ton pull en laine C'est plus comme à l'ancienne, ton père n'a plus d'force Moi j'suis toujours sous le porche, à écouter les bruits d'portes J'pleure des flaques de son, fonce-dé sous une pluie d'sang Le ptit Loubims qu'on aimait bien s'est tué à plus d'100 Moi j'suis là impuissant, c'est pas la faute à pas d'chance Y'a une vie après la mort, sinon l'amour n'a pas d'sens J'pleure des gouttes d'espoir, ceux qui ont perdu l'un des leurs Bientôt dans l'au-delà, on reverra nos absents J'préfère le poing d'un monstre qu'la douleur du poids des mots Car certains en guise de langue ont dans la bouche un chalumeau Instinct d'fauve Une larme au bord des yeux Son âme a rejoint les cieux Tu es parti trop vite Tu as laissé un vide Un mot au bout des lèvres Un nouveau jour qui se lève Mais tu n'es pas là, tu n'es plus là Et je me noie dans ma peine Et je me noie dans ma peine Et je me noie dans ma peine Amine Amine Bacom Bacom Cherif Cherif Loubips Loubips Hachim Hachim Loudsem Loudsem À tous ceux qui ont perdu un proche, une mère, un père, un frère, une sur Tenez le coup Instinct d'fauve Une larme au bord des yeux Son âme a rejoint les cieux Tu es parti trop vite Tu as laissé un vide Un mot au bout des lèvres Un nouveau jour qui se lève Mais tu n'es pas là, tu n'es plus là Et je me noie dans ma peine1</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Wesh les mecs, c'est encore oi-m Tu voulais du rap, j'te ramène du Kay-One J'kick dur, oui, comme les fins de oim-s J'en ai plus rien à foutre que les p'tits s'éloignent Pam le style est chelou, arrêtez de cheuneuf' Les meilleurs sont chez nous, oukhtys venez chiner J'suis venu vous démont', que dieu m'en soit témoin J'ramasse pas mon inspi' le zen dans la chenouf Augmente la sono quand j't'envois les signaux Bientôt plus d'signal, le rap c'est pas la Sunna En face, que des sous-marques, là pour faire des sous man Des milliers de litres posés sur le dos d'un himal Parle pas de moi, j'vais t'faire du mal J'attendrai pas l'heure j'te fumerai à la demie Wesh trou du cul même avec des livres sur le dos Un âne reste un âne donc fonce dans le mur et ... You might also like Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Qui veut la paix prépare l'oseille, t'es dans les airs On va te couper les ailes, sois le bienvenue dans ma ZEP La mauvaise herbe, pas d'excès d'zèle Beaucoup d'ecstasy et du plâtre sous le zen Ça fait des années que j'vous dis que j'veux vous saigner Les haineux deviennent des suceurs, j'ai mis leur talent sous scellé Insolent, j'écris au silex, déter comme un Palestinien Et puis hop t'es pris dans le filet, sais-tu que j'peux rapper sous l'eau ? Tu m'as négligé ? Vaffanculo Toi là MC enlève ta culotte Voilà H-Magnum, reculez ! J'm'arrache Non, vas-y vas-y vas-y tue-les ! J'ramène l'écurie, que des grosses tueries HurricaneFury, leur crew trop pourri Plein d'Chicken Peri, taurine dans l'urine J'les rends tous stériles Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'ai connu les soirs d'hiver, la chaleur au fond d'un verre La galère un peu divresse, POW POW un fait divers Couche le videur, colère est déguisée comme face à un refus de Visa Parce que la rue à deux visages J'ai grandi dans le danger, dans les plans B J'ai vu des potes se faire plomber, vilipender Coursés par les condés qui m'attendaient Certains se sont cambrés pour pas tomber Balancer dans un champs d'blé, ici c'est tendu Le sheitan tient la chandelle bien entendu Mais y a plein d'petits Denzel et de bandits Pour les reufs qui se réinsèrent dans la condi' Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Paroles rédigées et expliquées par la communauté RapGenius France2</t>
+          <t>Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Wesh les mecs, c'est encore oi-m Tu voulais du rap, j'te ramène du Kay-One J'kick dur, oui, comme les fins de oim-s J'en ai plus rien à foutre que les p'tits s'éloignent Pam le style est chelou, arrêtez de cheuneuf' Les meilleurs sont chez nous, oukhtys venez chiner J'suis venu vous démont', que dieu m'en soit témoin J'ramasse pas mon inspi' le zen dans la chenouf Augmente la sono quand j't'envois les signaux Bientôt plus d'signal, le rap c'est pas la Sunna En face, que des sous-marques, là pour faire des sous man Des milliers de litres posés sur le dos d'un himal Parle pas de moi, j'vais t'faire du mal J'attendrai pas l'heure j'te fumerai à la demie Wesh trou du cul même avec des livres sur le dos Un âne reste un âne donc fonce dans le mur et ... Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Qui veut la paix prépare l'oseille, t'es dans les airs On va te couper les ailes, sois le bienvenue dans ma ZEP La mauvaise herbe, pas d'excès d'zèle Beaucoup d'ecstasy et du plâtre sous le zen Ça fait des années que j'vous dis que j'veux vous saigner Les haineux deviennent des suceurs, j'ai mis leur talent sous scellé Insolent, j'écris au silex, déter comme un Palestinien Et puis hop t'es pris dans le filet, sais-tu que j'peux rapper sous l'eau ? Tu m'as négligé ? Vaffanculo Toi là MC enlève ta culotte Voilà H-Magnum, reculez ! J'm'arrache Non, vas-y vas-y vas-y tue-les ! J'ramène l'écurie, que des grosses tueries HurricaneFury, leur crew trop pourri Plein d'Chicken Peri, taurine dans l'urine J'les rends tous stériles Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'ai connu les soirs d'hiver, la chaleur au fond d'un verre La galère un peu divresse, POW POW un fait divers Couche le videur, colère est déguisée comme face à un refus de Visa Parce que la rue à deux visages J'ai grandi dans le danger, dans les plans B J'ai vu des potes se faire plomber, vilipender Coursés par les condés qui m'attendaient Certains se sont cambrés pour pas tomber Balancer dans un champs d'blé, ici c'est tendu Le sheitan tient la chandelle bien entendu Mais y a plein d'petits Denzel et de bandits Pour les reufs qui se réinsèrent dans la condi' Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Tu voulais du rap, j'vais t'faire mal J'vais te faire mal comme ta femme chez un autre Putain d'merde ! J'rappe avec le frein à main Wesh mi amor, tu veux voir un vrai mec J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! J'suis violent, ouais ! Violent, ouais ! Violent, violent, violent, ouais ! Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Dounia hania De leasing en leasing, un virage, un looping La mort fait son listing, tarrache de ton living Scène triste anodine, un linceul sans le Din Burning Khaleddine tu msuis pas ? Fais reset De looping en looping, on sécroule sous nos peines Donc on arme le flingue pour changer dmise en scène Suis la Seine, assassine, où ça saigne cest dingue Létincelle celle-ci, un ient-cli, une seringue Jvous épargne les suicides sous acides Les peines lourdes aux Assises, la C.C, le V.I.H si si On rêve dêtre clean, court après lestime Argent sale, sexe, crime linstinct de mort sexprime Jsuis venu faire mon shopping jsuis ni lAs, ni le King Ni Apache, ni le Viking, pour le cash cest fucking Police comme Sting dans les coulisses stress File un bolide, feu rouge, ça sbarre en car-jacking Jcontinue mon meeting, sous le signe du Yin Dounia fait son lifting, cramée comme un tunning Seul en scène sur le ring, jsuis Rocky et John Rambo Les couche à chaque rumble, que la concurrence remballe Jsuis paré au combat, jviens den bas Vlà le come-back donc fermez vos grandes gueules Bref, pé-fra pas lingé, ton rap est flingué, nveut rien dire Blindé de lacunes comme un CM2 Ça parle sur mon dos, cement-dou, c'est de l'indé Bande de petits merdeux, handek ça fait bang yeah ! Jtourne en rond comme un single Oups et je dégueule un mélange de MC et de Pringles Ma gueule, ma gueule ! Ta gueule, tas un gun ? Vas-y tire ! Jte donne une couille si tas perdu lune delles Bref, Dounia cette salope elle venu me voir dans mon salon Ma dit H ! Moi jai le bras long, tinquiètes tiras pas au ballon Vends du pilon, reste en bas, longe les murs, tu prendras du galon Comme chez nous jamais on sdéballonne, donc on tombe dans lpiège, on galope Sur le terrain y a trop de salopes, ça alors y en a dans le Hip Hop Qui commencent en caleçon et qui finissent avec une culotte yeah ! Mon login 7.5.0.X exit Jdéboule super chic, ces relous jexcise Les rageux sexcitent, tas reconnu le style Moins 1 sur 76, D.S.L jexcelle Jacte et check ça, cest hassé, je lsais Tasspés ? Jbaise pas ! Beyoncé ? Khanza Entouré dcal-cha, loin dla vie dpacha Hechem ! Khabat, tas même pas fais la 'Icha Des fois jveux cher-lâ, jme demande Quest-ce tu fais là ? Tu seras pas Rockefeller dans ce pe-ra pas très hallal ! Anti-chalab, me propose pas ton chalal Petite chérie sur mes épaules, trop de halam, craint les flammes ! Microphone check, wesh wesh, cest toujours Paname À tous ceux qui se pavanent, 2-3 pavés fils de yeah ! Big up à Saddam, on vient passer le Salam et le Shalom Coup dsavate et je tétrangle avec une cravate Ptit coup dCB, jrêve plus depuis le CP Rappe même plus pour cer-per, pourquoi alors ? Jsais pas Si tu sais, chapeau ! Peut-être pour faire les 100 pas Et mbarrer comme un sans-pap', en plus ce game jle sens pas Jsuis paradoxal comme Bettencourt qui rêve dun sche-Por Ou Jeannot Sarkozy qui traîne au tier-quar sous un che-por Pire, comme ce MC qui smet des comm' sur Booska Oh ! Ton front au sol ? Oh ! Accroché sur un Raptor Mais putain mais putain, cest pas tout Les petites nont plus ltemps, ça tapine à mi-temps à mi-temps ! À mi-temps jen ai vu ce matin le visage tuméfié Dounia faut sen méfier sen méfier Sen méfier bref, lyoum al-Qiyamah mattend On nvit pas plus de 100 ans, Dounia la meuf de Satan Moi jchangerai pas le monde avec mon statut dintermittent Je marche avec des mutants qui smaintiennent sans métier Jveux voir Besson à mes pieds, les cistes-ra aiment nous épier Ma religion, la défier, en sont fiers, perdront pied Cest dans leurs cauchemars que le haq ex justice fait son effet Tapes, c'est sans effet, chaque jour un décès Quant aux femmes elles sont sacrées, ton corps nest pas quun escalier Qui fait monter au 7ème, on scomprend ? ... À moitié Trop machô jprendrai une 4ème nan jrigole... À moitié Sous ma douche un émetteur, putain y a plus dpudeur Moi, loin dêtre un héros, jviens des zones sous l'gyro Tplante pour 500 , trop dshit plus dneurones Loin dêtre pieux, pas yép, jaime pas puer des ieds-p Jaime le confort cest pas ienb, jme comporte comme un païen Paris la nuit ça caille hein ? Quand tas les moyens, tu pilonnes Après ça, tavais quà pas prendre un Cayenne ! Re-fré le monde est cynique et le cool-al nous désinhibe Merde le Diable embellit Zin, cet enculé siège au Sénat Esprit vénal, affaire pénale, petite cavale, pris en tenaille Bé-tom sans maille car Dounia nous baise au final, instinct de fauve You might also like Dounia hania Factor, la sauce 7.5 Gotham City H Magnum Loudschool, Criminel au bon son Sexion d'Assaut 9ème zone Paroles rédigées et expliquées par la communauté RapGenius France5</t>
+          <t>Dounia hania De leasing en leasing, un virage, un looping La mort fait son listing, tarrache de ton living Scène triste anodine, un linceul sans le Din Burning Khaleddine tu msuis pas ? Fais reset De looping en looping, on sécroule sous nos peines Donc on arme le flingue pour changer dmise en scène Suis la Seine, assassine, où ça saigne cest dingue Létincelle celle-ci, un ient-cli, une seringue Jvous épargne les suicides sous acides Les peines lourdes aux Assises, la C.C, le V.I.H si si On rêve dêtre clean, court après lestime Argent sale, sexe, crime linstinct de mort sexprime Jsuis venu faire mon shopping jsuis ni lAs, ni le King Ni Apache, ni le Viking, pour le cash cest fucking Police comme Sting dans les coulisses stress File un bolide, feu rouge, ça sbarre en car-jacking Jcontinue mon meeting, sous le signe du Yin Dounia fait son lifting, cramée comme un tunning Seul en scène sur le ring, jsuis Rocky et John Rambo Les couche à chaque rumble, que la concurrence remballe Jsuis paré au combat, jviens den bas Vlà le come-back donc fermez vos grandes gueules Bref, pé-fra pas lingé, ton rap est flingué, nveut rien dire Blindé de lacunes comme un CM2 Ça parle sur mon dos, cement-dou, c'est de l'indé Bande de petits merdeux, handek ça fait bang yeah ! Jtourne en rond comme un single Oups et je dégueule un mélange de MC et de Pringles Ma gueule, ma gueule ! Ta gueule, tas un gun ? Vas-y tire ! Jte donne une couille si tas perdu lune delles Bref, Dounia cette salope elle venu me voir dans mon salon Ma dit H ! Moi jai le bras long, tinquiètes tiras pas au ballon Vends du pilon, reste en bas, longe les murs, tu prendras du galon Comme chez nous jamais on sdéballonne, donc on tombe dans lpiège, on galope Sur le terrain y a trop de salopes, ça alors y en a dans le Hip Hop Qui commencent en caleçon et qui finissent avec une culotte yeah ! Mon login 7.5.0.X exit Jdéboule super chic, ces relous jexcise Les rageux sexcitent, tas reconnu le style Moins 1 sur 76, D.S.L jexcelle Jacte et check ça, cest hassé, je lsais Tasspés ? Jbaise pas ! Beyoncé ? Khanza Entouré dcal-cha, loin dla vie dpacha Hechem ! Khabat, tas même pas fais la 'Icha Des fois jveux cher-lâ, jme demande Quest-ce tu fais là ? Tu seras pas Rockefeller dans ce pe-ra pas très hallal ! Anti-chalab, me propose pas ton chalal Petite chérie sur mes épaules, trop de halam, craint les flammes ! Microphone check, wesh wesh, cest toujours Paname À tous ceux qui se pavanent, 2-3 pavés fils de yeah ! Big up à Saddam, on vient passer le Salam et le Shalom Coup dsavate et je tétrangle avec une cravate Ptit coup dCB, jrêve plus depuis le CP Rappe même plus pour cer-per, pourquoi alors ? Jsais pas Si tu sais, chapeau ! Peut-être pour faire les 100 pas Et mbarrer comme un sans-pap', en plus ce game jle sens pas Jsuis paradoxal comme Bettencourt qui rêve dun sche-Por Ou Jeannot Sarkozy qui traîne au tier-quar sous un che-por Pire, comme ce MC qui smet des comm' sur Booska Oh ! Ton front au sol ? Oh ! Accroché sur un Raptor Mais putain mais putain, cest pas tout Les petites nont plus ltemps, ça tapine à mi-temps à mi-temps ! À mi-temps jen ai vu ce matin le visage tuméfié Dounia faut sen méfier sen méfier Sen méfier bref, lyoum al-Qiyamah mattend On nvit pas plus de 100 ans, Dounia la meuf de Satan Moi jchangerai pas le monde avec mon statut dintermittent Je marche avec des mutants qui smaintiennent sans métier Jveux voir Besson à mes pieds, les cistes-ra aiment nous épier Ma religion, la défier, en sont fiers, perdront pied Cest dans leurs cauchemars que le haq ex justice fait son effet Tapes, c'est sans effet, chaque jour un décès Quant aux femmes elles sont sacrées, ton corps nest pas quun escalier Qui fait monter au 7ème, on scomprend ? ... À moitié Trop machô jprendrai une 4ème nan jrigole... À moitié Sous ma douche un émetteur, putain y a plus dpudeur Moi, loin dêtre un héros, jviens des zones sous l'gyro Tplante pour 500 , trop dshit plus dneurones Loin dêtre pieux, pas yép, jaime pas puer des ieds-p Jaime le confort cest pas ienb, jme comporte comme un païen Paris la nuit ça caille hein ? Quand tas les moyens, tu pilonnes Après ça, tavais quà pas prendre un Cayenne ! Re-fré le monde est cynique et le cool-al nous désinhibe Merde le Diable embellit Zin, cet enculé siège au Sénat Esprit vénal, affaire pénale, petite cavale, pris en tenaille Bé-tom sans maille car Dounia nous baise au final, instinct de fauve Dounia hania Factor, la sauce 7.5 Gotham City H Magnum Loudschool, Criminel au bon son Sexion d'Assaut 9ème zone Paroles rédigées et expliquées par la communauté RapGenius France5</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yeah Fin de Dream Rentrez chez vous Yeah Rentrez chez vous Rentrez chez vous Rentrez chez vous Y a plus rien à voir Hahahahahaa Yeah Yeah Pendant qu'les abeilles fabriquent le miel Et que tu te perds dans ton sommeil Les abrutis nous lâchent pas d'une semelle Mais on a bouclé le truc en une semaine J'ai les crocs, j'ai les, j'ai les crocs Paris centre J'ai les crocs, j'ai les, j'ai les crocs Paris est J'ai les crocs, j'ai les, j'ai les crocs Parigo J'ai les crocs, j'ai les, j'ai les crocs A chaque mesure tu dépéris, tu viens de comprendre que t'es pourri J'te plis comme gastro anthérite, en plus le jour où tu te maries Pour tous les daleux qui dealent encore aux dents de lait Tiennent le mur, attendent le déluge, j'suis un tireur d'élite 4 minutes tu vas te faire piner, laissez moi le style est inné Enculez vous pour le trône, moi j'suis là juste pour taquiner J'te fais l'effet du felfel, tu vas t'faire rafaler Te prendre des raclés, dire Vas-y, refais le Ils s'prennent pour Tony, les thos-my, mon putain de rap te monte au nez Car c'est du frais, du mentholé, j't'ai cramé comme le Mentalist Envoi le khalis par ici, ici c'est Paris C'est l'périple, et si si paro, j'ai fais le tour comme le périph' Sur vous j'me fais les dents, j'me méfie de l'argent J'aime faire chier les gens, j'ai pas l'temps, enculé DJ vas y, joue ma bande, j'suis en mode 5 minutes Avant, avant, avant la coupure du Ramadan You might also like Pendant qu'les abeilles fabriquent le miel Et que tu te perds dans ton sommeil Les abrutis nous lâchent pas d'une semelle Mais on a bouclé le truc en une semaine J'ai les crocs, yeah, j'ai les, j'ai les crocs Paris centre J'ai les crocs, yeah, j'ai les, j'ai les crocs Paris est J'ai les crocs, yeah, j'ai les, j'ai les crocs Parigo J'ai les crocs, yeah, j'ai les, j'ai les crocs Rentrez chez vous Rentrez chez vous Rentrez chez vous Ne m'demande pas comment ça va, tu sais bien que je vis dans la savane Que des braves aux gros bravas, hello, c'est l'retour du taser Ça couche des mecs comme Joe Frazier, Freezer, j'ai les textes et des phases Le biff brûle mes doivas, je le crame comme l'essence d'une gova J'suis plus un gosse boy, il m'faut plus que la barbe à papa J'ai tellement de seum, sur un coup de tête hop la famille, je zappe Taratata Si tu tires faut pas te ter-ra, à Paris centre on est tout terrain A Paname, là-bas les gens sont tristes et vont danser sur le Pump it up Oui j'fréquente des gens qui marchent avec des joints déjà roulés Laisse moi faire mes bails, t'façons j'vais disparaître comme Ja Rule Pour mon poto Daouda on s'verra sûrement tôt ou tard Demande à A.D., on est pas bon qu'a chanter Houba ! Houba ! Et yo, n'ai pas peur, qu'tu sois blanc, jaune, black, beur J'ai le détecteur, monte à bord du Black Pearl J'ai des millions d'vidéos sur le net Demande à L.I.O. j'fais les choses au millimètre prêt ! Pendant qu'les abeilles fabriquent le miel Et que tu te perds dans ton sommeil Les abrutis nous lâchent pas d'une semelle Mais on a bouclé le truc en une semaine J'ai les crocs, yeah, j'ai les, j'ai les crocs Paris centre J'ai les crocs, yeah, j'ai les, j'ai les crocs Paris est J'ai les crocs, yeah, j'ai les, j'ai les crocs Parigo J'ai les crocs, yeah, j'ai les, j'ai les crocs Rentrez chez vous Rentrez chez vous Rentrez chez vous Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Yeah Fin de Dream Rentrez chez vous Yeah Rentrez chez vous Rentrez chez vous Rentrez chez vous Y a plus rien à voir Hahahahahaa Yeah Yeah Pendant qu'les abeilles fabriquent le miel Et que tu te perds dans ton sommeil Les abrutis nous lâchent pas d'une semelle Mais on a bouclé le truc en une semaine J'ai les crocs, j'ai les, j'ai les crocs Paris centre J'ai les crocs, j'ai les, j'ai les crocs Paris est J'ai les crocs, j'ai les, j'ai les crocs Parigo J'ai les crocs, j'ai les, j'ai les crocs A chaque mesure tu dépéris, tu viens de comprendre que t'es pourri J'te plis comme gastro anthérite, en plus le jour où tu te maries Pour tous les daleux qui dealent encore aux dents de lait Tiennent le mur, attendent le déluge, j'suis un tireur d'élite 4 minutes tu vas te faire piner, laissez moi le style est inné Enculez vous pour le trône, moi j'suis là juste pour taquiner J'te fais l'effet du felfel, tu vas t'faire rafaler Te prendre des raclés, dire Vas-y, refais le Ils s'prennent pour Tony, les thos-my, mon putain de rap te monte au nez Car c'est du frais, du mentholé, j't'ai cramé comme le Mentalist Envoi le khalis par ici, ici c'est Paris C'est l'périple, et si si paro, j'ai fais le tour comme le périph' Sur vous j'me fais les dents, j'me méfie de l'argent J'aime faire chier les gens, j'ai pas l'temps, enculé DJ vas y, joue ma bande, j'suis en mode 5 minutes Avant, avant, avant la coupure du Ramadan Pendant qu'les abeilles fabriquent le miel Et que tu te perds dans ton sommeil Les abrutis nous lâchent pas d'une semelle Mais on a bouclé le truc en une semaine J'ai les crocs, yeah, j'ai les, j'ai les crocs Paris centre J'ai les crocs, yeah, j'ai les, j'ai les crocs Paris est J'ai les crocs, yeah, j'ai les, j'ai les crocs Parigo J'ai les crocs, yeah, j'ai les, j'ai les crocs Rentrez chez vous Rentrez chez vous Rentrez chez vous Ne m'demande pas comment ça va, tu sais bien que je vis dans la savane Que des braves aux gros bravas, hello, c'est l'retour du taser Ça couche des mecs comme Joe Frazier, Freezer, j'ai les textes et des phases Le biff brûle mes doivas, je le crame comme l'essence d'une gova J'suis plus un gosse boy, il m'faut plus que la barbe à papa J'ai tellement de seum, sur un coup de tête hop la famille, je zappe Taratata Si tu tires faut pas te ter-ra, à Paris centre on est tout terrain A Paname, là-bas les gens sont tristes et vont danser sur le Pump it up Oui j'fréquente des gens qui marchent avec des joints déjà roulés Laisse moi faire mes bails, t'façons j'vais disparaître comme Ja Rule Pour mon poto Daouda on s'verra sûrement tôt ou tard Demande à A.D., on est pas bon qu'a chanter Houba ! Houba ! Et yo, n'ai pas peur, qu'tu sois blanc, jaune, black, beur J'ai le détecteur, monte à bord du Black Pearl J'ai des millions d'vidéos sur le net Demande à L.I.O. j'fais les choses au millimètre prêt ! Pendant qu'les abeilles fabriquent le miel Et que tu te perds dans ton sommeil Les abrutis nous lâchent pas d'une semelle Mais on a bouclé le truc en une semaine J'ai les crocs, yeah, j'ai les, j'ai les crocs Paris centre J'ai les crocs, yeah, j'ai les, j'ai les crocs Paris est J'ai les crocs, yeah, j'ai les, j'ai les crocs Parigo J'ai les crocs, yeah, j'ai les, j'ai les crocs Rentrez chez vous Rentrez chez vous Rentrez chez vous Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sente essa vibe, baby Sente essa vibe, baby ui ui E ela vem com quem quer tudo Eu Boom shakalaka uh Sentada braba damn Quase saí de maca uoh Mergulhar fundo no seu mundo Doce como um lacta Preta, senti sua falta Kush e p vou degustar kof kof Fumaça no quarto, lingerie vermelha Oh my god oh god Sexual healing Mó clima bem encaixado enquanto cê me morde uhu Chama mais atenção que a lamborghini ghini Cena privê, eu ganhei suas marcas de biquíni salvei Shawty, montada no ice Sensualiza no pol Se joga nesse danc floor dance floor Honey, tranquilin, tudo nice Flor cheia de pólen Nesse néctar eu chapo, chapei Lupa amarela E o kit da minha gang Picadilha que me sinto bem uoh uoh Ela me vê So Fresh So Clean Adora como sou e gosto dela bem bem bem You might also likeLinda Sob a luz da lua cê brilha Desenhada cada detalhe Arte que a natureza pinta yeah yeah Ela dá a ideia I like that like that Enquanto isso recende o aroma do Beck do beck Diz que vai ter lap dance lap dance E num é só de língua que é expert que é expert Magnética, fico estático Além da estética, seu jeito é mágico É poética, curte Tim clássico Me fala mais daquele lap ooh ooh Desconfiado que tô dentro da Matrix trix Que foi programada pra trincar tudo que o nego quer quer quer Volume na calça denuncia que tô afim tô afim tô afim Sua flor cheirosa, molhada Tô ligado que ela quer Sente essa vibe baby Sente essa vibe, baby Sente essa vibe baby youh uh yeh Sente essa vibe baby Sente essa vibe, baby Sente essa vibe baby hey yoh Sente essa vibe baby Joga o bumbum pro alto Marcas de batom vermelho no meu beck Cropped do Tramando Trança, argola dourada Shortin mostrando a poupa Uh, I like that Me intimou Quer passar a noite comigo girl Me mostrou o conjunto íntimo sexy Deixa eu tirar sua roupa!? hey oh Beijando abaixo do umbigo girl Lábios molhados, líbido siihh Me dão água na boca E ela gosta de vir por cima Rebola com tudo dentro Seguro forte a cintura e te faço gozar primeiro Sem pausa, muda de pose Duas sem tirar de dentro splash Ela é coca e eu sou mentos Sente essa vibe baby youh uh yeh Sente essa vibe baby Sente essa vibe, baby Sente essa vibe baby youh uh yeh Sente essa vibe baby Sente essa vibe, baby</t>
+          <t>Sente essa vibe, baby Sente essa vibe, baby ui ui E ela vem com quem quer tudo Eu Boom shakalaka uh Sentada braba damn Quase saí de maca uoh Mergulhar fundo no seu mundo Doce como um lacta Preta, senti sua falta Kush e p vou degustar kof kof Fumaça no quarto, lingerie vermelha Oh my god oh god Sexual healing Mó clima bem encaixado enquanto cê me morde uhu Chama mais atenção que a lamborghini ghini Cena privê, eu ganhei suas marcas de biquíni salvei Shawty, montada no ice Sensualiza no pol Se joga nesse danc floor dance floor Honey, tranquilin, tudo nice Flor cheia de pólen Nesse néctar eu chapo, chapei Lupa amarela E o kit da minha gang Picadilha que me sinto bem uoh uoh Ela me vê So Fresh So Clean Adora como sou e gosto dela bem bem bem Linda Sob a luz da lua cê brilha Desenhada cada detalhe Arte que a natureza pinta yeah yeah Ela dá a ideia I like that like that Enquanto isso recende o aroma do Beck do beck Diz que vai ter lap dance lap dance E num é só de língua que é expert que é expert Magnética, fico estático Além da estética, seu jeito é mágico É poética, curte Tim clássico Me fala mais daquele lap ooh ooh Desconfiado que tô dentro da Matrix trix Que foi programada pra trincar tudo que o nego quer quer quer Volume na calça denuncia que tô afim tô afim tô afim Sua flor cheirosa, molhada Tô ligado que ela quer Sente essa vibe baby Sente essa vibe, baby Sente essa vibe baby youh uh yeh Sente essa vibe baby Sente essa vibe, baby Sente essa vibe baby hey yoh Sente essa vibe baby Joga o bumbum pro alto Marcas de batom vermelho no meu beck Cropped do Tramando Trança, argola dourada Shortin mostrando a poupa Uh, I like that Me intimou Quer passar a noite comigo girl Me mostrou o conjunto íntimo sexy Deixa eu tirar sua roupa!? hey oh Beijando abaixo do umbigo girl Lábios molhados, líbido siihh Me dão água na boca E ela gosta de vir por cima Rebola com tudo dentro Seguro forte a cintura e te faço gozar primeiro Sem pausa, muda de pose Duas sem tirar de dentro splash Ela é coca e eu sou mentos Sente essa vibe baby youh uh yeh Sente essa vibe baby Sente essa vibe, baby Sente essa vibe baby youh uh yeh Sente essa vibe baby Sente essa vibe, baby</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera Trop d'prestance, j'suis élégant J'te sors un Colt45 si tu mets les gants Chouf la distance, ils seront relégables Côte d'Ivoire, Mali, Maghreb, Sénégal Moi j'ai la rage et le swag d'un fellaga J'fais plus d'illégal, blanc comme une djellaba On n'chasse pas un lion avec un lance-pierres les gars Faites pas la gueule, H futur monégasque Le crom' est fumant plus que jamais, j'suis d'cette jeunesse, hyper gênante La concu' se prend des genoux, sourit jaune car c'est la dèche Y a du génie, t'imagines pas tout c'qu'on génère Mais nos ennemis font du déni dis-leur qu'ils sont plus à la de-mo, moi j'dis Yes ! On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera You might also like Ils se demandent pourquoi j'suis si frais, c'est affreux, j'les effraie Après mon crochet, j'leur place une pichenette Yes ! Les faux-frères s'tapent pour être tout près d'moi au carré VIP Prêts à tout pour vivre dans l'abstrait Gros son pour les reuss et les bad man H Magnum, le mec qu'a giflé Batman Pas d'mal, j'suis en place jusqu'en Allemagne Fais pas l'mort, j'tiens l'mic, c'est mister swag man Une pour mes amis, mes ennemis, les putes, les zoulous Mes homonymes et mes humains, toutes les nuits blanches sous vos immeubles Yes ! Amène pas ta feumeu chez nous, elle peut finir sous moi Danse sous alu, dans un Samu malgré ton allure de sumo Yes ! J'suis doué, j'leur fais mal, ils font tous semblant Tu m'as vu j'suis en noir ils sont tous en blanc Souriez, v'là le mec qui les fait trembler Maria Guantanamera Envieux j'ai le son pour mon assemblée Ces minables sont dans le trou, essaient d'me ressembler Si je cane ils diront Yes ! Pète le champ' hombre Maria Guantanamera On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera Maria Guantanamera Maria Guantanamera</t>
+          <t>On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera Trop d'prestance, j'suis élégant J'te sors un Colt45 si tu mets les gants Chouf la distance, ils seront relégables Côte d'Ivoire, Mali, Maghreb, Sénégal Moi j'ai la rage et le swag d'un fellaga J'fais plus d'illégal, blanc comme une djellaba On n'chasse pas un lion avec un lance-pierres les gars Faites pas la gueule, H futur monégasque Le crom' est fumant plus que jamais, j'suis d'cette jeunesse, hyper gênante La concu' se prend des genoux, sourit jaune car c'est la dèche Y a du génie, t'imagines pas tout c'qu'on génère Mais nos ennemis font du déni dis-leur qu'ils sont plus à la de-mo, moi j'dis Yes ! On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera Ils se demandent pourquoi j'suis si frais, c'est affreux, j'les effraie Après mon crochet, j'leur place une pichenette Yes ! Les faux-frères s'tapent pour être tout près d'moi au carré VIP Prêts à tout pour vivre dans l'abstrait Gros son pour les reuss et les bad man H Magnum, le mec qu'a giflé Batman Pas d'mal, j'suis en place jusqu'en Allemagne Fais pas l'mort, j'tiens l'mic, c'est mister swag man Une pour mes amis, mes ennemis, les putes, les zoulous Mes homonymes et mes humains, toutes les nuits blanches sous vos immeubles Yes ! Amène pas ta feumeu chez nous, elle peut finir sous moi Danse sous alu, dans un Samu malgré ton allure de sumo Yes ! J'suis doué, j'leur fais mal, ils font tous semblant Tu m'as vu j'suis en noir ils sont tous en blanc Souriez, v'là le mec qui les fait trembler Maria Guantanamera Envieux j'ai le son pour mon assemblée Ces minables sont dans le trou, essaient d'me ressembler Si je cane ils diront Yes ! Pète le champ' hombre Maria Guantanamera On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera Maria Guantanamera Maria Guantanamera</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Une pour mes gars, 2 pour ma gueule Si tu me connais pas TchuTchuDream my nigga' L'eau oui mecqua ! Alpha Omega J'suis un mec en or donc j'ai pas besoin de médaille La victoire est brillante, mais l'échec est mate J'démarre au quart de tour, akhi guette et mate Fais pas le cavalier, tu vas te faire steak et mal J'ai niqué ta reine chut EchecMat MC t'es figé comme la garde royale de London N'regarde pas ce qu'on possède, mais ce que l'on donne Rentrez chez vous, faites pas les fous, quand on vous l'ordonne Ça fera l'effet, lors d'une embrouille quand on t'abandonne Pas de compte en Suisse, que des contentieux Comprend pourquoi nos daronnes, ici, sont anxieuses Beaucoup de prétentieux, très peu d'ambitieux Big Up aux petites reus' qui sont restées consciencieuses You might also like Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Sur le rain-té, en un rien de temps Tu passes du rire aux larmes avec une douleur intense On vit des instants, car si la vie est courte... La galère est longue CriminelInstinct J'ai vu des potos décoller, sous Vodka-CocaCola L'enculé, qu'ils sont, collecte toute la R.U immaculé Pas de bain de lait, mais de bain de sang C'est où la richesse est absente qu'on rêve de Bentley Noir mygale, oui my nigga' Pas de Krav Maga, 11.43 ma gueule Arme égale, fourmi ou cigale ? Hess là ou cigare ? Putain Gandhi ou Madoff ? J'ai pas assez de courage pour être un lâche J'sais pas faire de la lèche car j'ai appris à mordre Si l'amour rend aveugle... T'es pas prête oukhty, laisse vas-y, viens ! Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Venez, venez, j'vous invite dans mon délire Messieurs, mesdames j'ai craché mon venin à la tête de tous les envieux Tenez, tenez y a du talent, j'suis cette épine dans ton talon La route est longue, tu ne vois rien car j't'ai bandé les yeux Venez, venez, j'vous invite dans mon délire Messieurs, mesdames j'ai craché mon venin à la tête de tous les envieux Tenez, tenez y a du talent, j'suis cette épine dans ton talon La route est longue, tu ne vois rien car j't'ai bandé les yeux Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Yeah ! Trouves-moi dans les coins risqués Trouves-moi dans les coins risqués Paroles rédigées et expliquées par la communauté RapGenius France1</t>
+          <t>Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Une pour mes gars, 2 pour ma gueule Si tu me connais pas TchuTchuDream my nigga' L'eau oui mecqua ! Alpha Omega J'suis un mec en or donc j'ai pas besoin de médaille La victoire est brillante, mais l'échec est mate J'démarre au quart de tour, akhi guette et mate Fais pas le cavalier, tu vas te faire steak et mal J'ai niqué ta reine chut EchecMat MC t'es figé comme la garde royale de London N'regarde pas ce qu'on possède, mais ce que l'on donne Rentrez chez vous, faites pas les fous, quand on vous l'ordonne Ça fera l'effet, lors d'une embrouille quand on t'abandonne Pas de compte en Suisse, que des contentieux Comprend pourquoi nos daronnes, ici, sont anxieuses Beaucoup de prétentieux, très peu d'ambitieux Big Up aux petites reus' qui sont restées consciencieuses Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Sur le rain-té, en un rien de temps Tu passes du rire aux larmes avec une douleur intense On vit des instants, car si la vie est courte... La galère est longue CriminelInstinct J'ai vu des potos décoller, sous Vodka-CocaCola L'enculé, qu'ils sont, collecte toute la R.U immaculé Pas de bain de lait, mais de bain de sang C'est où la richesse est absente qu'on rêve de Bentley Noir mygale, oui my nigga' Pas de Krav Maga, 11.43 ma gueule Arme égale, fourmi ou cigale ? Hess là ou cigare ? Putain Gandhi ou Madoff ? J'ai pas assez de courage pour être un lâche J'sais pas faire de la lèche car j'ai appris à mordre Si l'amour rend aveugle... T'es pas prête oukhty, laisse vas-y, viens ! Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Venez, venez, j'vous invite dans mon délire Messieurs, mesdames j'ai craché mon venin à la tête de tous les envieux Tenez, tenez y a du talent, j'suis cette épine dans ton talon La route est longue, tu ne vois rien car j't'ai bandé les yeux Venez, venez, j'vous invite dans mon délire Messieurs, mesdames j'ai craché mon venin à la tête de tous les envieux Tenez, tenez y a du talent, j'suis cette épine dans ton talon La route est longue, tu ne vois rien car j't'ai bandé les yeux Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Yeah ! Trouves-moi dans les coins risqués Trouves-moi dans les coins risqués Paroles rédigées et expliquées par la communauté RapGenius France1</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, oh Je sais que tu sais que jvais plier le son, donc avoue que tes MCs nont pas pied Jai ça dans le sang, je fais dreamer la ce-Fran, pourtant je nai même pas mes papiers Cest le feu chez les clubbers, vivement le repentir, en Enfer yaura pas de pompiers Que des missiles, je démissionne, bire un massage baby Jdois mettre bien le daron, la daronne, ils méritent un putain de palace au leil-so Pour les res-frè au ballon, pas ceux qui sdéballonnent, quand il faut assumer, te laissent seul Tu mas sous-estimé, enfoiré cimer, tas le seum à en perdre le mmeil-so Jfais des missiles, tu démissionnes, jarrive massif baby Jétais solo, paumé sans alliés Tu munfollow, cest rien jmen bats les yeuks Pour ceux qui ont déjà dormi sur un palier Tu invites la meuf, maintenant tu npeux pas payer Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, oh You might also like Versace, Louboutin, jsuis chaud comme le bouquin de Valérie Trierweiler Hier, tas fait du boucan, tas posé des bouteilles, aujourdhui tes en Rottweiler Deux-trois missiles en mode michto tont dit mise tout baby Gotham City cest la punition, moi jai plus le temps jsuis déjà ailleurs Cest chaud les amis, comment faire des lyrics à la pelle ? Jvais vous couper la tête Petit, jsuis kalashé, nan nan cest pas la peine, je viens tout palper, nan mais oh Wesh elle a du caractère, elle a du toupet la petite, elle me dit quelle me quitte Quelle veut tout arrêter, que jsuis quun pauvre type, qujsuis bon quà faroter, à mamuser comme un gosse Jétais solo, paumé sans alliés Tu munfollow, cest rien jmen bats les yeuks Pour ceux qui ont déjà dormi sur un palier Tu invites la meuf, maintenant tu npeux pas payer Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, oh Jétais solo, paumé sans alliés Tu munfollow, cest rien jmen bats les yeuks Pour ceux qui ont déjà dormi sur un palier Tu invites la meuf, maintenant tu npeux pas payer Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, oh Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, oh</t>
+          <t>Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, oh Je sais que tu sais que jvais plier le son, donc avoue que tes MCs nont pas pied Jai ça dans le sang, je fais dreamer la ce-Fran, pourtant je nai même pas mes papiers Cest le feu chez les clubbers, vivement le repentir, en Enfer yaura pas de pompiers Que des missiles, je démissionne, bire un massage baby Jdois mettre bien le daron, la daronne, ils méritent un putain de palace au leil-so Pour les res-frè au ballon, pas ceux qui sdéballonnent, quand il faut assumer, te laissent seul Tu mas sous-estimé, enfoiré cimer, tas le seum à en perdre le mmeil-so Jfais des missiles, tu démissionnes, jarrive massif baby Jétais solo, paumé sans alliés Tu munfollow, cest rien jmen bats les yeuks Pour ceux qui ont déjà dormi sur un palier Tu invites la meuf, maintenant tu npeux pas payer Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, oh Versace, Louboutin, jsuis chaud comme le bouquin de Valérie Trierweiler Hier, tas fait du boucan, tas posé des bouteilles, aujourdhui tes en Rottweiler Deux-trois missiles en mode michto tont dit mise tout baby Gotham City cest la punition, moi jai plus le temps jsuis déjà ailleurs Cest chaud les amis, comment faire des lyrics à la pelle ? Jvais vous couper la tête Petit, jsuis kalashé, nan nan cest pas la peine, je viens tout palper, nan mais oh Wesh elle a du caractère, elle a du toupet la petite, elle me dit quelle me quitte Quelle veut tout arrêter, que jsuis quun pauvre type, qujsuis bon quà faroter, à mamuser comme un gosse Jétais solo, paumé sans alliés Tu munfollow, cest rien jmen bats les yeuks Pour ceux qui ont déjà dormi sur un palier Tu invites la meuf, maintenant tu npeux pas payer Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, oh Jétais solo, paumé sans alliés Tu munfollow, cest rien jmen bats les yeuks Pour ceux qui ont déjà dormi sur un palier Tu invites la meuf, maintenant tu npeux pas payer Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, jdois y aller, jdois y aller Jai pas ltemps, jdois y aller, jdois y aller, oh Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, jdois y aller, jdois y aller Jdois y aller, jdois y aller, oh</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres You might also like J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
+          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Hey distant trop long Vas-y viens jaime ton insolence Jalousie me traque Ils veulent ma mort, mais ils meurent avant moi jsuis toujours dans le coup Bad gial tu le sens, taimes les bails sale, bad boy Puissant Ta ta ta ta ta! Je mets les derniers tissus De ceux qui se battent, pas de ceux qui sucent Dis moi boy qui sommes nous Pour de loseille qui sommes nous Sans fierté qui sommes nous Quand on est prêt à trahir Qui sommes nous Oui mon ami, on a trop souffert Le soucis, cest que nous on est entier Souviens toi quand tavais pas de cefor Tavais dis ton pied mon pied You might also like Dis moi boy qui sommes nous Pour de loseille qui sommes nous Sans fierté qui sommes Quand on est prêt à trahir Qui sommes nous De zéro à 100 Mesurons ma colère de zéro à 100 Jsuis à 100 jsuis à 100 Oui jsuis heureux, à tous ceux qui me salissent oui jsuis heureux Jsuis heureux jsuis heureux De zéro à 100 Mesurons ma colère de zéro à 100 Jsuis à 100 jsuis à 100 Oui jsuis heureux, à tous ceux qui me salissent oui jsuis heureux Jsuis heureux jsuis heureux Le problème avec les gens quand tes bon, quand tes vrai, ils te prennent pour un con Jai décidé de me concentrer sur moi De moccuper des gens qui maiment vraiment Ma famille Les gens qui aiment ma musique, qui la comprennent Cest du jus de souffrance cest de lAfrobinks Souho Dis moi boy, qui sommes nous Pour de loseille qui sommes nous Sans fierté qui sommes nous Quand est prêt à tout Qui sommes nous Oui mon ami, on a trop souffert Le soucis, cest que nous on est entier Souviens toi quand tavais pas de cefor Tavais dis ton pied mon pied Dis moi boy, qui sommes nous Pour de loseille qui sommes nous Sans fierté qui sommes nous Quand est prêt à tout Qui sommes nous Souho Souho Souho</t>
+          <t>Hey distant trop long Vas-y viens jaime ton insolence Jalousie me traque Ils veulent ma mort, mais ils meurent avant moi jsuis toujours dans le coup Bad gial tu le sens, taimes les bails sale, bad boy Puissant Ta ta ta ta ta! Je mets les derniers tissus De ceux qui se battent, pas de ceux qui sucent Dis moi boy qui sommes nous Pour de loseille qui sommes nous Sans fierté qui sommes nous Quand on est prêt à trahir Qui sommes nous Oui mon ami, on a trop souffert Le soucis, cest que nous on est entier Souviens toi quand tavais pas de cefor Tavais dis ton pied mon pied Dis moi boy qui sommes nous Pour de loseille qui sommes nous Sans fierté qui sommes Quand on est prêt à trahir Qui sommes nous De zéro à 100 Mesurons ma colère de zéro à 100 Jsuis à 100 jsuis à 100 Oui jsuis heureux, à tous ceux qui me salissent oui jsuis heureux Jsuis heureux jsuis heureux De zéro à 100 Mesurons ma colère de zéro à 100 Jsuis à 100 jsuis à 100 Oui jsuis heureux, à tous ceux qui me salissent oui jsuis heureux Jsuis heureux jsuis heureux Le problème avec les gens quand tes bon, quand tes vrai, ils te prennent pour un con Jai décidé de me concentrer sur moi De moccuper des gens qui maiment vraiment Ma famille Les gens qui aiment ma musique, qui la comprennent Cest du jus de souffrance cest de lAfrobinks Souho Dis moi boy, qui sommes nous Pour de loseille qui sommes nous Sans fierté qui sommes nous Quand est prêt à tout Qui sommes nous Oui mon ami, on a trop souffert Le soucis, cest que nous on est entier Souviens toi quand tavais pas de cefor Tavais dis ton pied mon pied Dis moi boy, qui sommes nous Pour de loseille qui sommes nous Sans fierté qui sommes nous Quand est prêt à tout Qui sommes nous Souho Souho Souho</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>On sait que notre futur sera conjugué au passé Qu'un jour ou l'autre on va y passer On court après les richesses à l'imparfait Et même quand on les a, y en a pas assez Nos vies se limitent à faire des sous et à suivre la mode On vit dans le mensonge, plein d'arrogance, on vit la mort On vit la mort, on vit la mort On vit la mort, à mille à l'heure A mille à l'heure x4 J'ai peur de me noyer, dans cette putain de zic J'ai peur de perdre ma foi, ma famille, de finir en asile De jour en jour, je ressens mon coeur se durcir Je sais que mon din est en surcis On court après l'oseille, mais attends on a tous des oeillères Les types se prennent pour Zyer, champagne dans la théière Ca coule sur mes joues, et mêle-toi de tes oignons On pleure des larmes de feu, Allah y rahmou Sony et Binar C'est pas parce que tu cries le plus que t'es le plus détère Sinon les plus gros banquiers seraient les petits des tess Mais la hess devient plus épaisse, la rive gauche veut plus de zess Certains veulent faire plus d'espèces, ça donne des saisons blanches et sèches Sur la file de gauche ça file à mille à l'heure Si t'es pas millionaire à trente piges, fonce dans le mur et meurs Je suis pas là pour te juger, je sais que personne n'est parfait Je ne regrette pas ce que j'ai fait, mais ce que j'aurais du faire You might also like Quand vient le temps, on ne peut plus te réanimer Quand vient le temps Quand vient le temps, on ne peut plus te réanimer Je demande aux frères de pas trop speeder</t>
+          <t>On sait que notre futur sera conjugué au passé Qu'un jour ou l'autre on va y passer On court après les richesses à l'imparfait Et même quand on les a, y en a pas assez Nos vies se limitent à faire des sous et à suivre la mode On vit dans le mensonge, plein d'arrogance, on vit la mort On vit la mort, on vit la mort On vit la mort, à mille à l'heure A mille à l'heure x4 J'ai peur de me noyer, dans cette putain de zic J'ai peur de perdre ma foi, ma famille, de finir en asile De jour en jour, je ressens mon coeur se durcir Je sais que mon din est en surcis On court après l'oseille, mais attends on a tous des oeillères Les types se prennent pour Zyer, champagne dans la théière Ca coule sur mes joues, et mêle-toi de tes oignons On pleure des larmes de feu, Allah y rahmou Sony et Binar C'est pas parce que tu cries le plus que t'es le plus détère Sinon les plus gros banquiers seraient les petits des tess Mais la hess devient plus épaisse, la rive gauche veut plus de zess Certains veulent faire plus d'espèces, ça donne des saisons blanches et sèches Sur la file de gauche ça file à mille à l'heure Si t'es pas millionaire à trente piges, fonce dans le mur et meurs Je suis pas là pour te juger, je sais que personne n'est parfait Je ne regrette pas ce que j'ai fait, mais ce que j'aurais du faire Quand vient le temps, on ne peut plus te réanimer Quand vient le temps Quand vient le temps, on ne peut plus te réanimer Je demande aux frères de pas trop speeder</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tu me demandes d'arrêter Mais la rue, c'est toute ma vie Tu pries pour moi jour et nuit J'suis calibré, j'ai plein d'ennuis J'vais t'offrir cette grande villa Ce soir, je ne rentre pas Parano, je n'entendais pas J'vais prendre ce qu'ils nous donneront pas Comme un jour de pluie C'que j'écris dans l'sable, tu l'oublies L'argent, c'est la vie Les codes ont corrompu, sont bien blottis Elle vient de Colombie, vient pas d'vue d're-pu J'arrondis, j'bosse pour nous, ma vie Dans ton sourire, je puise mon inspi' Seul Dieu peut me juger Des grosses peines à purger Mais je mets les gants comme Apollo Creed J'veux qu'ma famille brille, donc Mon sommeil a fugué J'remettrai les gants comme Apollo Creed You might also like Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Comme Apollo Creed Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Peu d'amour, une vie risquée Elle rêve Gucci, Versace J'vais te dire la vérité J'ai juste besoin de toi, bébé Viens le dire à tes héritiers Sans qu'ils chantent papa, où t'es? Ils m'aiment autant qu'R.I.p Après qu'tes potes aillent te venger Et un vrai point du coup, baby On s'est trouvés Le reste du monde et nous deux Restons soudés Les coups de foudre, un coup de feu J'me fais du soucis Tes qualités m'ont touchée J'm'en fous du coupé Seul Dieu peut te juger Des grosses peines à purger Mais tu mets les gants comme Apollo Creed Dans une famille brisée Mon sommeil a fugué Tu remettras les gants comme Apollo Creed Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Comme Apollo Creed Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Comme Apollo Creed Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Comme Apollo Creed Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Comme Apollo Creed</t>
+          <t>Tu me demandes d'arrêter Mais la rue, c'est toute ma vie Tu pries pour moi jour et nuit J'suis calibré, j'ai plein d'ennuis J'vais t'offrir cette grande villa Ce soir, je ne rentre pas Parano, je n'entendais pas J'vais prendre ce qu'ils nous donneront pas Comme un jour de pluie C'que j'écris dans l'sable, tu l'oublies L'argent, c'est la vie Les codes ont corrompu, sont bien blottis Elle vient de Colombie, vient pas d'vue d're-pu J'arrondis, j'bosse pour nous, ma vie Dans ton sourire, je puise mon inspi' Seul Dieu peut me juger Des grosses peines à purger Mais je mets les gants comme Apollo Creed J'veux qu'ma famille brille, donc Mon sommeil a fugué J'remettrai les gants comme Apollo Creed Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Comme Apollo Creed Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Peu d'amour, une vie risquée Elle rêve Gucci, Versace J'vais te dire la vérité J'ai juste besoin de toi, bébé Viens le dire à tes héritiers Sans qu'ils chantent papa, où t'es? Ils m'aiment autant qu'R.I.p Après qu'tes potes aillent te venger Et un vrai point du coup, baby On s'est trouvés Le reste du monde et nous deux Restons soudés Les coups de foudre, un coup de feu J'me fais du soucis Tes qualités m'ont touchée J'm'en fous du coupé Seul Dieu peut te juger Des grosses peines à purger Mais tu mets les gants comme Apollo Creed Dans une famille brisée Mon sommeil a fugué Tu remettras les gants comme Apollo Creed Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Comme Apollo Creed Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Comme Apollo Creed Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Comme Apollo Creed Aïe-aïe-aïe-aïe-aïe-aïe-aïe Aïe-aïe-aïe-aïe-aïe-aïe-aïe Comme Apollo Creed</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tam Sir on the beat Yeah, yeah, yeah, yeah, yeah, yeah, yeah Nomélèdje Diby Hey Mojavel Assinie Tout d'abord, God bless me, non, les jaloux n'vont pas grossir Gucci, Gucci dans mon dressing, millions d'euros, beaucoup d'groupies Rolex au poignet, pas d'Breitling, Panamera dans le parking Ce genre de vie que les go' kiffent, nouvelle année pour un gros feat' Bébé, tu seras mon Happy Meal, y a du champagne, ne sois pas timide On passera le week-end à Assinie et je vais t'appeler Katsuni J'suis dans la ville, j'suis dans le binks, chez nous, ça fait clic, chez vous, ça fait bang J'suis dans le V.I.P, tu connais le gang, casque a le bling, again and again Assinie, j'fais vacances à Assinie Assinie Assinie, j'fais vacances à Assinie Assinie Feu de camp tous les soirs à Assinie Assinie Assinie, j'fais vacances à Assinie J'suis sur le toit de l'hôtel, mon négro Didi m'appelle brr Lefa, j'ai reçu des prod', passe au studio dans l'après-m, yah Envoie n'importe laquelle, j'sais d'jà comment j'vais la ken, ouais Le temps d'fouiller dans mon phone, t'inquiète, on va faire du sale L'album est sorti, le produit est quali', le produit est calibré J'ai traumatisé la cabine, c'est pas du son pour les gamines, c'est pas du son pour les gamines À part les jaloux qui veulent pas liker et les crevards qui veulent pas raquer Tout l'monde le valide, tout l'monde me valide Et cavaler derrière les bénéfices toute l'année mais j'ai rien dépensé Le comptable a dit faut payer l'FISC, wAllah, ça m'fait le-ma d'y penser J'vais encore devoir quitter l'bled, baiser le game, j'avais pas fini Moi, ça m'dérange pas d'être assigné à résidence si c'est Assinie You might also like Assinie, j'fais vacances à Assinie Assinie Assinie, j'fais vacances à Assinie Assinie Feu de camp tous les soirs à Assinie Assinie Assinie, j'fais vacances à Assinie La 'toto sur la route à Assinie avec sa petite gomi, elle a mis son bikini twerk twerk Bikini, après Bonoua, c'est fini, tout c'qui s'passe à Assinie, hey reste à Assinie Ouh oh oh no, j'suis avec Lefa sur le pont, les liasses dans les sacs te diront qu'on est très riches On vit , ah nan, j'suis au volant accompagné d'bad bitch On finit boulot tard, prend la route avec go de Bogotta à Gare de Cordon Pas besoin de Beretta quand j'arrive sur le rrain-té J'appelle IDR 2L Music, Dominique Ouattara, yo Les mogos sont calés, les petites sont calées, la O.G est calée, dans Les mogos sont calés, les petites sont calées, la O.G est calée J'suis avec Blacka, qui peut parler ? Oh ouh oh no Hippolyte Ebagnitchie Assinie, c'est la base, Assinie, c'est le chill mais pour le voir, faut y aller Ah yaye, ça me rentre là-dedans, ce soir, ça me rentre là-dedans, hey Assinie, c'est la base, Assinie, c'est le chill mais pour le voir, faut y aller Assinie, c'est la base, Assinie, c'est la fête, mais bon, on va pas trop parler Tu connais Assinie ? Est-c'que tu connais Assinie ? Tu connais Assinie ? Est-c'que tu connais Assinie ? Yeah, Assinie, yeah, Assinie, ssi-ssi-ssi-ssinie Woh hay, ssi-i-nie, oh Assi-ssinie, hey, Assi-ssinie, hey Est-c'que tu connais Assinie ? Assi-ssinie Est-c'que tu connais Assi-ssinie ? Yeah, Assi-ssinie Est-c'que tu connais Assi-ssinie ? Yeah On fait un petit truc, on fait un petit truc, genre laisse couler le son On fait un truc genre comme les zougloumans davant, comme les vieux-pères Ah Kouman yo, yo, zou Hey, ah Kouman yo, zou Hey, hey, ah Kouman oh yeah, yeah, zou Hey, hey, ah Kouman yo, yo, zou Hey, hey, hey, hey Est-ce que tu connais Assinie ?</t>
+          <t>Tam Sir on the beat Yeah, yeah, yeah, yeah, yeah, yeah, yeah Nomélèdje Diby Hey Mojavel Assinie Tout d'abord, God bless me, non, les jaloux n'vont pas grossir Gucci, Gucci dans mon dressing, millions d'euros, beaucoup d'groupies Rolex au poignet, pas d'Breitling, Panamera dans le parking Ce genre de vie que les go' kiffent, nouvelle année pour un gros feat' Bébé, tu seras mon Happy Meal, y a du champagne, ne sois pas timide On passera le week-end à Assinie et je vais t'appeler Katsuni J'suis dans la ville, j'suis dans le binks, chez nous, ça fait clic, chez vous, ça fait bang J'suis dans le V.I.P, tu connais le gang, casque a le bling, again and again Assinie, j'fais vacances à Assinie Assinie Assinie, j'fais vacances à Assinie Assinie Feu de camp tous les soirs à Assinie Assinie Assinie, j'fais vacances à Assinie J'suis sur le toit de l'hôtel, mon négro Didi m'appelle brr Lefa, j'ai reçu des prod', passe au studio dans l'après-m, yah Envoie n'importe laquelle, j'sais d'jà comment j'vais la ken, ouais Le temps d'fouiller dans mon phone, t'inquiète, on va faire du sale L'album est sorti, le produit est quali', le produit est calibré J'ai traumatisé la cabine, c'est pas du son pour les gamines, c'est pas du son pour les gamines À part les jaloux qui veulent pas liker et les crevards qui veulent pas raquer Tout l'monde le valide, tout l'monde me valide Et cavaler derrière les bénéfices toute l'année mais j'ai rien dépensé Le comptable a dit faut payer l'FISC, wAllah, ça m'fait le-ma d'y penser J'vais encore devoir quitter l'bled, baiser le game, j'avais pas fini Moi, ça m'dérange pas d'être assigné à résidence si c'est Assinie Assinie, j'fais vacances à Assinie Assinie Assinie, j'fais vacances à Assinie Assinie Feu de camp tous les soirs à Assinie Assinie Assinie, j'fais vacances à Assinie La 'toto sur la route à Assinie avec sa petite gomi, elle a mis son bikini twerk twerk Bikini, après Bonoua, c'est fini, tout c'qui s'passe à Assinie, hey reste à Assinie Ouh oh oh no, j'suis avec Lefa sur le pont, les liasses dans les sacs te diront qu'on est très riches On vit , ah nan, j'suis au volant accompagné d'bad bitch On finit boulot tard, prend la route avec go de Bogotta à Gare de Cordon Pas besoin de Beretta quand j'arrive sur le rrain-té J'appelle IDR 2L Music, Dominique Ouattara, yo Les mogos sont calés, les petites sont calées, la O.G est calée, dans Les mogos sont calés, les petites sont calées, la O.G est calée J'suis avec Blacka, qui peut parler ? Oh ouh oh no Hippolyte Ebagnitchie Assinie, c'est la base, Assinie, c'est le chill mais pour le voir, faut y aller Ah yaye, ça me rentre là-dedans, ce soir, ça me rentre là-dedans, hey Assinie, c'est la base, Assinie, c'est le chill mais pour le voir, faut y aller Assinie, c'est la base, Assinie, c'est la fête, mais bon, on va pas trop parler Tu connais Assinie ? Est-c'que tu connais Assinie ? Tu connais Assinie ? Est-c'que tu connais Assinie ? Yeah, Assinie, yeah, Assinie, ssi-ssi-ssi-ssinie Woh hay, ssi-i-nie, oh Assi-ssinie, hey, Assi-ssinie, hey Est-c'que tu connais Assinie ? Assi-ssinie Est-c'que tu connais Assi-ssinie ? Yeah, Assi-ssinie Est-c'que tu connais Assi-ssinie ? Yeah On fait un petit truc, on fait un petit truc, genre laisse couler le son On fait un truc genre comme les zougloumans davant, comme les vieux-pères Ah Kouman yo, yo, zou Hey, ah Kouman yo, zou Hey, hey, ah Kouman oh yeah, yeah, zou Hey, hey, ah Kouman yo, yo, zou Hey, hey, hey, hey Est-ce que tu connais Assinie ?</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Moi c'est Jul je nique les bandeurs, j'bosse dur y'a pas d'détente Là j'suis dans la caisse, y'a plus d'shit ça s'grille des blondes Pourquoi tu m'fais le bandit ? T'es un traître j'l'ai senti Tu fais l'mec qu'est plein Mais on m'a dit qu'tu ramasses des centimes Moi j'presse pas la détente, même quand j'suis tendu J'vois l'bonheur dans l'attente, quand t'es trop gentil on t'encule T'as vu ma vie j'dévoile, toujours anti-État À cause d'eux j'gère mon bénèf', j'finis dans des mauvais états Ça y est il m'faut mon magot, mon passé n'est pas beau Pourquoi tu m'regardes d'travers ? J't'ai dit j'm'en bats les couilles d'ta gow Moi j'parle pas trop, j'veux ma part du gâteau J'ai pas percé dans l'rap mais j'aurai pu finir comme pato J'suis pas bon qu'à rapper, pas d'calibre, pas d'karaté Mais parle pas d'la Mama sinon j'te jure j'vais pas t'rater Espèce de salop, t'es qui toi pour menacer ? Ferme ta gueule apprends de moi et s'tu peux fais mes lacets J'ai l'cur enlacé, la galère y en a assez J'suis toujours au quartier, j'commence à m'en lasser Trahis pas la honda, tu le sais carnales Avec tes potos tu fais l'dur mais ta femme te met la laisse À douze ans j'fais du son, et ouais le sang À dix-sept j'faisais des bagarres, je voyais du sang Mais pourquoi t'as la haine ? C'est la peine Moi c'est jul nique ta gram's si t'envoies des glaçons sur la scène C'est évident, si j'pouvais, j'serais en Louis Vuitton Franchement c'est lacrizeomic mais dites-moi quand j'suis bidon J'représente le tieks, les petits qui font des cambus Si ils volent c'est parc'qu'y'a pas d'sous, pas parc'qu'y'a des lacunes Un pote en taule faut qu'tu l'assumes, et puis nique les condés Celui qui trahit c'est souvent celui sur qui tu comptais Y'a d'la volonté pour affronter J'représente les Baumettes, Luynes, Salons jusqu'au Pontet Jusqu'à la Santé, on ressent la chienneté Y'a des fous partout, y'a des petits gantés J'suis fier d'mon parcours, joue pas l'briganter Ce soir j'm'évade, j'ai bu d'l'alcool Tu vois c'est cool, j'les remets d'accord Oui moi c'est Jul, oui moi c'est Jul Ils m'prennent pour une star, tu vois pour moi c'est dur Ouais je taffe toute l'année, j'te dis pas comme j'suis fané Là y'a tout l'monde qui m'écoute même mes potos condamnés Ils veulent que j'change mais moi j'reste le même J'peux pas changer vue la vie que je mène Ils veulent que j'change mais moi j'reste le même J'peux pas changer moi vue la vie que je mène Khey, khey, khey, khey dis-moi c'est quoi les bails ? On a eu trop l'manque d'oseille alors ça tente les braquages Enfermés pour la monnaie comme des animaux en cage Ça s'met A charbonner mais la stup est dans les parages Et ouais, c'est vrai que tout ça me met la rage On veut faire notre avenir mais la police nous fait barrage Bah ils ont qu'à venir, bientôt moi je m'arrache Quand j'vois les sous venir, moi j'fais la tchave De jours en jours j'en apprends dans c'monde qui s'barre en couilles Bienvenue à Sheitan-Land où tout l'monde fait parler les douilles Dans nos tess, le haram tente, alors tout l'monde si mouille De ton grand frère à ta tante, on est tous mêlés à des sales magouilles C'est l'ghetto, ma couille, tout l'monde enfile la cagoule Tellement on s'croirait à Kaboul on finit par ressentir des secousses Mais tu sais, gros faut pas qu'j'm'écarte de ma route Même si parfois c'est la déroute plus rien n'me stoppe j'en ai rien à foutre À l'affût ma drogue douce, j'sais qu'c'est d'la bonne Pousse Paire de Air Max on détaille avec la touf C'est moi, Hawaks on the mic', tu m'crois pas Chouf nos pères, déter', prêt à te faire vivre des trucs de ouf Sur toi ça profite et ça t'laisse seul, aya Avec la musique j'me sens moins seul, je vais te foutre le fire T'a stoppé l'école t'a fini écroué Face à la juge t'es pas doué, doué Allez venez j'déconne on va les secouer C'est ton ami mais nique toi tu la troué C'est la Liga One, MC j'te kawan Après j'en fais one, j'décompresse Agis si t'as parlé, assume si t'as parlé On est sereins nous, toi tu stresses Des jaloux y'en a assez Il louche quand il t'voit va passer Il veut ta miss, le biff' que t'as tassé J'suis pas patient j'veux tout maintenant Fuck tous ceux qui donnent des noms J'ai les yeux et les phares xénons Ne crois pas que j'suis fatigué Viens sur la lune j'vais t'emmener J'vais t'emmener Viens sur la lune j'vais t'emmener Écoute quand j'pose comme j'tabasse J'ai marqué la rue comme François Besse J't'agresse y'a lacrizeomic J'ai faim d'sous comme les petits d'ma tess Et qui veut test ? J'fais pas semblant, j'ai pas la tête Contre moi-même j'suis en guerre J'sais plus qui j'suis en fait Y'a pas d'sous j'vois les petits qui guettent Rabattent les clients, l'patron il gueule Petit frère s'fait des temps pleins pour s'payer un Desert Eagle Ils ont la faim ils auront un TDM, il risque sa vie pour s'assumer Calibre autour d'la taille, pas d'mentale il va t'fumer Les jaloux, rien qu'ils taillent, ils sont à l'affut d'un petit détail J'les calcule pas moi j'suis die, il m'faut le BM gros et tailler Ouais ma caille, ils veulent XXX mais c'est la même Avant on s'faisait la bise maintenant on se serre la main J'te parle d'ma vie oui de la mienne J'aime pas les mythomanes Sans l'savoir des fois aux traîtres on s'fie normal Ferme ta gueule regarde, gauche-droite j'suis sur mes gardes T'fais l'fou avec ta mère après tu pleures Quand les flics disent on te garde J'ai eu l'envie j'ai cartonné, t'as trahi j'ai pardonné On m'en veux tu l'sais tu m'l'as pas dit Tu vas repartir avec une marque au nez Toi et moi c'est fini j'crois qu'on pourra plus s'recoller Sous la cagoule c'est Jul, et maintenant tu m'reconnais ? Viens à Marseille, les petits sont grands, c'est des bonhommes Ils cherchent l'oseille, conduisent sans permis Y'a contrôle ? Donne un faux nom Tu t'es fait péter, t'es passé à la barre, mec bonhomme Besoin de partout, t'es parti faire tes sous comme un bonhomme Ça te calculait pas, t'as eu ça, ça t'a calculé C'est des victimes, mais pourquoi ils m'font les bonhommes ? Rien à manger à la 'son, t'as ramené à manger bonhomme Il a trahit ton ami, direct tu l'as vengé bonhomme, bonhomme Bonhomme, bonhomme, bonhomme, bonhomme Oui ça tire dans le dos, y'a des donneurs de go, dans cette vie que des traîtres Cagoulé en moto t'as trop joué le gros, y'a un contrat sur ta tête Tu le surkiffes, tu vois pas liquide, de problèmes tu t'endettes T'as eu un déclic, passé de caïd, marre de manger des miettes Tout va mal dans ta tête, t'as comme une envie de fumer un mec Il est temps qu'ça cesse, toi tu fais l'chaud mais t'as pris d'la cess Tu vas faire ci ? Ouais c'est ça, devant l'scié t'as dansé la salsa T'as dansé la salsa Vos avis de merde, garde-les Aies confiance en nous, la détermination m'a dit tarte-les Si t'es pas de là, fai-toi tout petit, viens pas la ramener J'les vois de là, ils te font les chauds mais ils en ont dans le nez XXX oui j'vais agir si j'fais des menaces C'est qui le boss ? C'est le GP on va les crick bam Oui j'veux le bénef', oui, oui j'veux le bénef' Oui j'veux le bénef', oui, oui j'veux le bénef' No stress, y'a pas d'tristesse la tess Faut encaisser XXX Pas stresser quand tu braques la caisse Pas GTA, ni Budapest, nique l'État, on fuck ta presse Du Sud au Nord, de l'Est à l'Ouest, j'débute à peine Évite les tasses, leurs vies je le crame tekass Faut assumer quand le biz' t'appelle Assurer quand la BAC te chasse Tu cogites quand elle t'mets ta paye J'crois pas au JT, j'fume et j'tasse Sur un coup chuter ça fait d'la peine L'impression qu'tu t'lasses, yeah Routine répétée, esprit en veille Si t'es pété prends pas le XXX J'cambute le rap j'suis un voleur, c'est Houari, c'est Nique ta famille si t'es un violeur, nique ton rap si XXX Le beat j'le viole, sur cette rime tu ressens la douleur Casse pas les couilles aujourd'hui j'suis sur les nerfs frère Ils sont jaloux j'les fait danser en parlant ter-ter J'ferme les yeux quand je pense c'que tu m'dis Je m'en tape j'suis content d'mon parcours y'a d'quoi en être fier J'vais t'humilier en concert fais un insert J'suis fort en rap mais j'aurais pu jouer à l'Inter Range tes sous poto moi perso j'reste en indé' Avec ma clique on a d'quoi durer, les faire taire Personne m'a aidé quand j'restais en bas d'chez moi Donc dans ma chambre j'ai taffé comme un Chinois Fais gaffe à tes paroles tu pourrais glisser Tu t'rappelles ? C'est 1.3.5 la patinoire Y'a des loups dans la zone donc méfie-toi T'es un fou tu laisses ton poto pour une fille toi ? À venir me parler à l'oreille, mais t'es qui toi ? C'est pour mes cassos qui nettoient des bastos Allez vamos si pour rien ça s'arrose Fais gaffe à l'ennemi, ça peut être ton tueur Qui viendra sur ta tombe te déposer la rose Y'a beaucoup de pleureuses dans l'game moi j'ose R.D.V le huit décembre on envoie la dose Apprends à m'connaître et tu verras si tu m'aimes pas toz Trop d'jaloux sur moi j'crois qu'le temps est la cause Sous la Grande Ours J'vois les traîtres mettre des carottes, se tailler en douce Ami, ennemi, je sais plus gros À chaque fois qu'tu m'vois c'est pour me parler en flouze On lâche pas le bitume À ceux qui pré-commandent mon album sur iTunes Représente les Baumettes, Luynes, les Salons, le Pontet On change pas les habitudes Saint Jean La Puenta, c'est où j'me situe Mets un j'aime sur ma page si l'album il tue Pas fort en étude, j'voulais des tunes J'taffais dur en voyant le bonheur derrière une dune J'vois le monde en petit, normal gros j'suis sur la Lune J'ai plein d'potos, j'peux pas tous les assumer Les problèmes dans ma vie qui arrivent à toute allure J'ai pas la tête du coup j'me suis mis à fumer J'me suis mis à fumer Liberté, égalité, mais j'me sens pas libre Tu veux te refaire ? Va en Espagne, remonte 26 litres Donne-moi le micro, j'vais m'apaiser On est trop rapides, ne sois pas pressé Je les tâcle à la gorge, j'rappe ma life Nique les toxicos qui prennent la CC Ils m'jettent la 3in sur pépé j'ai wallou Ils se trahissent pour un billet yellow La Liga One, ouais c'est bien nous J'rappe, j'rappe, crois pas qu'ça dort Imagine nous en Lambo' Aventador Quand t'as des sous, on t'adore Quand t'en as plus, personne t'attend Ouais j'rappe, j'rappe, crois pas qu'ça dort Ouais la vie c'est pas un film, les problèmes s'empilent Ouais la vie c'est pas un film, les problèmes s'empilent Les meilleurs potes s'enfilent et entre eux se killent BFM la merde est filmée, on s'égare Aux vingt heures on s'fait fumer, jugé sur la religion Le tier-quar c'est pas un film mais J'ai besoin de fumer, faut que j'évacue Trop d'rancunes, j'ai le cur abîmé Si j'ai fait des fautes, je les ai assumées Fuck les jaloux qu'ils se mettent à zoomer J'avance dans la brume, j'reconnais le talent La rage est dans la plume, quand j'ai mal après tu chiales Pour les enculés la France est galante Entre nous naturel comme un lien de parenté Une vie on n'en a qu'une, pas quarante Sors le cross mets le droit sur la ligne XXX Pour le boule d'une femme ça se XXX Or qu'c'est une chienne MorganClara Là j'suis un loup je veux des loves Je veux prendre le large, ami plus biff égale lâche Trop d'morts, range ta Kalash, ton corps dans l'emballage Je veux le biff' et une villa à Malaga Tu critiques mais tu kiffes bâtard tiens ta langue Tu fais tout pour la miss mais regarde Elle aime que le biff' et le bruit des Lambo' XXX ça deale pour le drame Porte pas la guigne oui le rap on va le kill Pour d'l'argent, y'a des drames Si on t'aime pas, t'inquiète pas on va te dire Histoire de merde, ou de grammes L'argent facile attire donc forcément ça tire BZ, BZ, crick crick brah C'est l'retour de flammes ils ont tendance à dire Passons, facilement t'achète des armes L'arme ne fait pas le bonhomme, normal Qu'on lève des âmes, je n'peux pas cautionner ça La rage fait parler le talent, on est dans le Nord on va t'niquer ta reum La rage fait parler le talent, on est dans le Nord on va t'niquer ta reum La rage fait parler le talent, on est dans le Nord on va t'niquer ta reum La rage fait parler le talent, on est dans le Nord on va t'niquer ta reum Trop d'fils de traîtres qui s'la pètent Tu mérites des gifles dans la tête Ramène ta folle j'la pète Qu'j'ai une Twingo, une Porsche ou même un A7 Pourquoi vous revenez à sept ? J'vais vous écraser en compèt Au lieu d'chanter comme une trompette Agis, vas-y fait ton tête D'les niquer j'suis chaud, j'suis tenté D'les niquer j'suis chaud, j'suis tenté C'est un dégun il me fait l'trafiquante Ils m'critiquent nan mais attendez J'les vois tous danser comme dans Briganté En c'moment dans la zone c'est danger Grosse descente ils t'embarquent pour vingt G Le sang comme Silly j'suis cinglé En fumette j'vois la vie en cinq D Pourquoi vous voulez voir c'qu'y'a dans mon assiette ? Dans mon assiette, 2015, j'suis à la SACEM J'vais les dépouiller, les mettre à sec Les traîtres putain j'les esquive BDH à coups de machettes Ne te demande pas c'est qui Si dans l'tieks t'entends l'moteur d'la Maset' J'en ai marre de tous ces casse-tête Petit j'écoutais la FF sur la cassette Ils savent qu'elle pèse la mallette Alors les faux-culs m'montrent leur putain d'facette Moi j'rappe pendant qu'ils font la sieste Même en buvette moi j'touche pas la cess Disque d'or, disque de platine Toi t'as tchi gros et en plus tu chantes tu t'la pètes Elle m'fait la dure, elle m'fait la coquette J'la fais cabrer en compet Les flics passent, j'les fixe pét' au bec Si ils viennent j'm'esquive, j'vais pas attendre qu'on m'pète Si t'as parlé, agis, fais ton tête, t'es un MC ? Vas-y fais ton texte Tu l'as baisé ? Elle t'a fait rêver ? Mais vas-y poto fais ton test D'les niquer j'suis chaud, j'suis tenté C'est un dégun il me fait l'trafiquante Ils m'critiquent nan mais attendez J'les vois tous danser comme dans Briganté T'es une grosse victime tu me fais le criminel Tu me dis poto ne la branche pas, c'est ma copine elle Tu parles mal, tu pourrais finir à l'hôpital Car ici quand y'a pas d'flingues ça s'termine à l'Opinel Fermez vos gueules bande de fils de pute J'vais faire mes sons, me tailler sous l'soleil La confiance ça n'existe plus, ça vient chez toi Ça t'soulève pendant qu'ta mère sommeille Putain c'est bizarre, j'grandis, j'évite le quartier Plus j'fume plus j'oublie, plus je pleure moins j'souris J'en ai marre de courir, voir les shmitts faire les macs Les menottes, à croire qu'ils aiment nous voir souffrir J'ai passé mon temps à voir mes potos dans la mierda Ils m'ont dit no comprende À croire qu'le ciel leur est tombé dessus Mes soi-disant frères m'critiquent, j'me dois d'les les emmerder J'pleure des larmes tout seul, j'affronte mes soucis tout seul J'regrette mon frère parti tout seul J'reste avec mes frères même quand j'ai besoin de douceur Tu peux m'dire c'que tu veux j'ai vu ton vice poto On sera jamais les mêmes poto Pourquoi les meilleurs partent trop tôt ? Avant d'dormir je fixe nos photos Trop d'choses à dire, j'vois qu'c'est chaud, que ça tire La galère tout l'temps on s'l'attire Mais putain on avait tellement d'choses à bâtir J'referai jamais l'monde avant de partir J'suis comme un autre j'essaye d'm'en sortir Y'a des jaloux c'est pas grave Maman m'conseillait tout l'temps sur eux avant de sortir J'me dois d'avancer j'ai un gros poids sur moi Manager j't'aime j'vais tout niquer pour toi Même mon meilleur pote peut parler sur moi On m'a dit c'est rien t'inquiète prends sur toi J'cherche pas les miss elles cherchent à m'trouver Je cherche pas la merde eux cherchent à s'prouver Je les regarde eux cherchent à m'troubler Je pense à vivre, eux pensent à s'Roofer T'as la boule au ventre quand t'as le bruit du vroom vroom La vie c'est hardcore, faut t'apaiser Aujourd'hui il te dégoûte hier tu l'appréciais On est les remets d'accord, les remet d'accord Liga One two three on va t'agresser Ne jette pas la guigne Houari Jul on fait des sons lourds Tu nous souris mais tu kifferais nous voir sous l'eau Si t'as trahis, poto c'est sans nous Zehma c'est ton ami mais il t'a niqué l'rouleau J'm'en bats les couilles sur mon cou j'ai pas sept chaînes Sur dix gadjis à Marseille tu trouves sept chiennes Ton poto te trahit pour cette chatte La France et nous c'est une souris face à sept chats Moi c'est Houari j'prends le rap d'assaut Lacrizeomic dans tes baffes, que paso Dans le rap, j'opère man Y'a trop de traîtres, de perdre un proche ça fait super mal Elles sont vides mes poches, je serre man J'me vois plus tirer sous l'porche c'est la guerre man J'manie le flow comme personne, à la guerre je pars seul Pour les baiser j'ai la recette, et la miss me traque, me soule J'veux pas la baiser elle m'harcèle, depuis j'fais d'l'art seul Posé au tieks, je serre, j'vois les jnounés qui parlent seuls J'ai fait des feats loin d'Marseille, j'me sens chez moi de partout Dans mon tieks je marche seul, dans l'armoire l'arme, les cartouches Dans mon rap j'suis en T-Max, j'camoufle mes larmes derrière le Roof Vous pouvez parler vous, j'suis soutenu par les sages et par les oufs J'ai fait un rêve j'parlais aux anges, ils m'ont détaillé mon futur M'ont dit ne change pas t'iras loin, même si ton passé fut dur Là j'suis au stud' ça bosse dur, j'vois les guetteurs en posture J'entends des arah ça m'a dit qu'y'a des stups qui rôdent en costume Le décor est hostile, ça m'écure, ça m'dégoûte J'vois qu'des fils de pute et en plus de ça j'entends qu'ça m'écoute Moi c'est Jul j'ai trop la rage, j'déchire le game à la hache Pour mes frères en cellule, pour eux ce soir j'me déchire à la H Celle-là c'est pour Amada, pour les braqueurs en Yamaha Comme dit Kalif tu veux snif snif ? Y'en a pas J'entends les woop woop de la BAC Des fois en caisse des fois à patte, disque d'or J'dors dans mon lit j'me casse le dos, il manque des lattes Pour oublier on tire des lattes Et mes frères achètent plus en détail, ils prennent des plaques En cas d'embrouille mes potes ils mettent des claques et puis de paquets J'déballe ma life, gros j'arrive au taquet, t'sais qu'je taquine Quand j'ai la cote, quand j'me gare sur le parking Celui qu'a l'flow, celui qui t'fait danser tu sais c'est qui ? Celui qui représente le plus sa team, tu sais c'est qui ? Celui qui trahira jamais la honda, tu sais c'est qui ? Sous la cagoule c'est Jul et maintenant tu sais c'est qui ? Avec du bronze j'fais de l'argent, avec d'l'argent j'achète de l'or J'te baise comme une cochonne, normal que tu m'traites de porc XXX, pour ça qu'y'en a sur les vingt-deux C'est partout la merde, mais ils sentent que les joints d'beuh C'est chaud dans l'tieks, entre les gardes-à-V, les bagarres Entre les balances, les bâtards, les vacances et l'placard Quand tout roule pour toi, les haineux te crèvent les pneus Ils veulent me serrer la main, mais pour moi c'est des lépreux J'me suis fait tout seul, qu'ils aillent niquer leurs daronnes J'vous ai dit j'vais les finir, ça sera ma dernière parole Nous y'a pas qu'en boite qu'on sort les magnums Tu t'fais tirer dessus pendant qu'tu tires sur ta clope Ils sont pas prêts pour la guerre j'arrive en soum-soum J'vais leur faire la fête, j'vais les rendre tous oufs Même le plus balaise finit dans un trou couz' Il m'suffit d'un seize pour qu'ils aient un coup d'blues J'ai un texte dur et la tête dure, j'veux plus t'voir même en peinture Ouais le rap il a la teinture, on l'aura t'inquiète la ceinture Ouais c'est pour tous les mecs du treize et d'ailleurs, mecs durs On t'baise et bye nexture, j'te rappe ma life, lecture J'ai faim de graille, j'ai faim d'mes bails en devenir parano Pas d'épargne, faut des loves, notre avenir il part à l'eau Foutre la merde et courir t'aimes T'es d'la merde, ta clique idem Nique sa mère j'pars en impro, Veazy prends le mic' J'ai des visions, merde, besoin d'évasion Peine de prison, pas ça qu'on visionne Trop de 3aineurs à l'horizon Putain l'daron avait raison Pote, soi-disant pote hein ? Derrière ton dos que ça papote Langue de putain J'partage ma part, tu veux mon butin C'est que du bluff, il te dit le sang Mais derrière ton dos il drague ta meuf Devant les keufs, faut rester soudés Mais sa bouche à lui elle danse le smurf Mais passons, toutes ces conneries me lassent Cur glacé, avenir angoissant J'veux des liasses et rouler à trois cent Moteur puissant pour quitter la poisse Pour quitter la poisse, pour quitter la poisse Pour quitter la poisse, pour quitter la poisseYou might also like</t>
+          <t>Moi c'est Jul je nique les bandeurs, j'bosse dur y'a pas d'détente Là j'suis dans la caisse, y'a plus d'shit ça s'grille des blondes Pourquoi tu m'fais le bandit ? T'es un traître j'l'ai senti Tu fais l'mec qu'est plein Mais on m'a dit qu'tu ramasses des centimes Moi j'presse pas la détente, même quand j'suis tendu J'vois l'bonheur dans l'attente, quand t'es trop gentil on t'encule T'as vu ma vie j'dévoile, toujours anti-État À cause d'eux j'gère mon bénèf', j'finis dans des mauvais états Ça y est il m'faut mon magot, mon passé n'est pas beau Pourquoi tu m'regardes d'travers ? J't'ai dit j'm'en bats les couilles d'ta gow Moi j'parle pas trop, j'veux ma part du gâteau J'ai pas percé dans l'rap mais j'aurai pu finir comme pato J'suis pas bon qu'à rapper, pas d'calibre, pas d'karaté Mais parle pas d'la Mama sinon j'te jure j'vais pas t'rater Espèce de salop, t'es qui toi pour menacer ? Ferme ta gueule apprends de moi et s'tu peux fais mes lacets J'ai l'cur enlacé, la galère y en a assez J'suis toujours au quartier, j'commence à m'en lasser Trahis pas la honda, tu le sais carnales Avec tes potos tu fais l'dur mais ta femme te met la laisse À douze ans j'fais du son, et ouais le sang À dix-sept j'faisais des bagarres, je voyais du sang Mais pourquoi t'as la haine ? C'est la peine Moi c'est jul nique ta gram's si t'envoies des glaçons sur la scène C'est évident, si j'pouvais, j'serais en Louis Vuitton Franchement c'est lacrizeomic mais dites-moi quand j'suis bidon J'représente le tieks, les petits qui font des cambus Si ils volent c'est parc'qu'y'a pas d'sous, pas parc'qu'y'a des lacunes Un pote en taule faut qu'tu l'assumes, et puis nique les condés Celui qui trahit c'est souvent celui sur qui tu comptais Y'a d'la volonté pour affronter J'représente les Baumettes, Luynes, Salons jusqu'au Pontet Jusqu'à la Santé, on ressent la chienneté Y'a des fous partout, y'a des petits gantés J'suis fier d'mon parcours, joue pas l'briganter Ce soir j'm'évade, j'ai bu d'l'alcool Tu vois c'est cool, j'les remets d'accord Oui moi c'est Jul, oui moi c'est Jul Ils m'prennent pour une star, tu vois pour moi c'est dur Ouais je taffe toute l'année, j'te dis pas comme j'suis fané Là y'a tout l'monde qui m'écoute même mes potos condamnés Ils veulent que j'change mais moi j'reste le même J'peux pas changer vue la vie que je mène Ils veulent que j'change mais moi j'reste le même J'peux pas changer moi vue la vie que je mène Khey, khey, khey, khey dis-moi c'est quoi les bails ? On a eu trop l'manque d'oseille alors ça tente les braquages Enfermés pour la monnaie comme des animaux en cage Ça s'met A charbonner mais la stup est dans les parages Et ouais, c'est vrai que tout ça me met la rage On veut faire notre avenir mais la police nous fait barrage Bah ils ont qu'à venir, bientôt moi je m'arrache Quand j'vois les sous venir, moi j'fais la tchave De jours en jours j'en apprends dans c'monde qui s'barre en couilles Bienvenue à Sheitan-Land où tout l'monde fait parler les douilles Dans nos tess, le haram tente, alors tout l'monde si mouille De ton grand frère à ta tante, on est tous mêlés à des sales magouilles C'est l'ghetto, ma couille, tout l'monde enfile la cagoule Tellement on s'croirait à Kaboul on finit par ressentir des secousses Mais tu sais, gros faut pas qu'j'm'écarte de ma route Même si parfois c'est la déroute plus rien n'me stoppe j'en ai rien à foutre À l'affût ma drogue douce, j'sais qu'c'est d'la bonne Pousse Paire de Air Max on détaille avec la touf C'est moi, Hawaks on the mic', tu m'crois pas Chouf nos pères, déter', prêt à te faire vivre des trucs de ouf Sur toi ça profite et ça t'laisse seul, aya Avec la musique j'me sens moins seul, je vais te foutre le fire T'a stoppé l'école t'a fini écroué Face à la juge t'es pas doué, doué Allez venez j'déconne on va les secouer C'est ton ami mais nique toi tu la troué C'est la Liga One, MC j'te kawan Après j'en fais one, j'décompresse Agis si t'as parlé, assume si t'as parlé On est sereins nous, toi tu stresses Des jaloux y'en a assez Il louche quand il t'voit va passer Il veut ta miss, le biff' que t'as tassé J'suis pas patient j'veux tout maintenant Fuck tous ceux qui donnent des noms J'ai les yeux et les phares xénons Ne crois pas que j'suis fatigué Viens sur la lune j'vais t'emmener J'vais t'emmener Viens sur la lune j'vais t'emmener Écoute quand j'pose comme j'tabasse J'ai marqué la rue comme François Besse J't'agresse y'a lacrizeomic J'ai faim d'sous comme les petits d'ma tess Et qui veut test ? J'fais pas semblant, j'ai pas la tête Contre moi-même j'suis en guerre J'sais plus qui j'suis en fait Y'a pas d'sous j'vois les petits qui guettent Rabattent les clients, l'patron il gueule Petit frère s'fait des temps pleins pour s'payer un Desert Eagle Ils ont la faim ils auront un TDM, il risque sa vie pour s'assumer Calibre autour d'la taille, pas d'mentale il va t'fumer Les jaloux, rien qu'ils taillent, ils sont à l'affut d'un petit détail J'les calcule pas moi j'suis die, il m'faut le BM gros et tailler Ouais ma caille, ils veulent XXX mais c'est la même Avant on s'faisait la bise maintenant on se serre la main J'te parle d'ma vie oui de la mienne J'aime pas les mythomanes Sans l'savoir des fois aux traîtres on s'fie normal Ferme ta gueule regarde, gauche-droite j'suis sur mes gardes T'fais l'fou avec ta mère après tu pleures Quand les flics disent on te garde J'ai eu l'envie j'ai cartonné, t'as trahi j'ai pardonné On m'en veux tu l'sais tu m'l'as pas dit Tu vas repartir avec une marque au nez Toi et moi c'est fini j'crois qu'on pourra plus s'recoller Sous la cagoule c'est Jul, et maintenant tu m'reconnais ? Viens à Marseille, les petits sont grands, c'est des bonhommes Ils cherchent l'oseille, conduisent sans permis Y'a contrôle ? Donne un faux nom Tu t'es fait péter, t'es passé à la barre, mec bonhomme Besoin de partout, t'es parti faire tes sous comme un bonhomme Ça te calculait pas, t'as eu ça, ça t'a calculé C'est des victimes, mais pourquoi ils m'font les bonhommes ? Rien à manger à la 'son, t'as ramené à manger bonhomme Il a trahit ton ami, direct tu l'as vengé bonhomme, bonhomme Bonhomme, bonhomme, bonhomme, bonhomme Oui ça tire dans le dos, y'a des donneurs de go, dans cette vie que des traîtres Cagoulé en moto t'as trop joué le gros, y'a un contrat sur ta tête Tu le surkiffes, tu vois pas liquide, de problèmes tu t'endettes T'as eu un déclic, passé de caïd, marre de manger des miettes Tout va mal dans ta tête, t'as comme une envie de fumer un mec Il est temps qu'ça cesse, toi tu fais l'chaud mais t'as pris d'la cess Tu vas faire ci ? Ouais c'est ça, devant l'scié t'as dansé la salsa T'as dansé la salsa Vos avis de merde, garde-les Aies confiance en nous, la détermination m'a dit tarte-les Si t'es pas de là, fai-toi tout petit, viens pas la ramener J'les vois de là, ils te font les chauds mais ils en ont dans le nez XXX oui j'vais agir si j'fais des menaces C'est qui le boss ? C'est le GP on va les crick bam Oui j'veux le bénef', oui, oui j'veux le bénef' Oui j'veux le bénef', oui, oui j'veux le bénef' No stress, y'a pas d'tristesse la tess Faut encaisser XXX Pas stresser quand tu braques la caisse Pas GTA, ni Budapest, nique l'État, on fuck ta presse Du Sud au Nord, de l'Est à l'Ouest, j'débute à peine Évite les tasses, leurs vies je le crame tekass Faut assumer quand le biz' t'appelle Assurer quand la BAC te chasse Tu cogites quand elle t'mets ta paye J'crois pas au JT, j'fume et j'tasse Sur un coup chuter ça fait d'la peine L'impression qu'tu t'lasses, yeah Routine répétée, esprit en veille Si t'es pété prends pas le XXX J'cambute le rap j'suis un voleur, c'est Houari, c'est Nique ta famille si t'es un violeur, nique ton rap si XXX Le beat j'le viole, sur cette rime tu ressens la douleur Casse pas les couilles aujourd'hui j'suis sur les nerfs frère Ils sont jaloux j'les fait danser en parlant ter-ter J'ferme les yeux quand je pense c'que tu m'dis Je m'en tape j'suis content d'mon parcours y'a d'quoi en être fier J'vais t'humilier en concert fais un insert J'suis fort en rap mais j'aurais pu jouer à l'Inter Range tes sous poto moi perso j'reste en indé' Avec ma clique on a d'quoi durer, les faire taire Personne m'a aidé quand j'restais en bas d'chez moi Donc dans ma chambre j'ai taffé comme un Chinois Fais gaffe à tes paroles tu pourrais glisser Tu t'rappelles ? C'est 1.3.5 la patinoire Y'a des loups dans la zone donc méfie-toi T'es un fou tu laisses ton poto pour une fille toi ? À venir me parler à l'oreille, mais t'es qui toi ? C'est pour mes cassos qui nettoient des bastos Allez vamos si pour rien ça s'arrose Fais gaffe à l'ennemi, ça peut être ton tueur Qui viendra sur ta tombe te déposer la rose Y'a beaucoup de pleureuses dans l'game moi j'ose R.D.V le huit décembre on envoie la dose Apprends à m'connaître et tu verras si tu m'aimes pas toz Trop d'jaloux sur moi j'crois qu'le temps est la cause Sous la Grande Ours J'vois les traîtres mettre des carottes, se tailler en douce Ami, ennemi, je sais plus gros À chaque fois qu'tu m'vois c'est pour me parler en flouze On lâche pas le bitume À ceux qui pré-commandent mon album sur iTunes Représente les Baumettes, Luynes, les Salons, le Pontet On change pas les habitudes Saint Jean La Puenta, c'est où j'me situe Mets un j'aime sur ma page si l'album il tue Pas fort en étude, j'voulais des tunes J'taffais dur en voyant le bonheur derrière une dune J'vois le monde en petit, normal gros j'suis sur la Lune J'ai plein d'potos, j'peux pas tous les assumer Les problèmes dans ma vie qui arrivent à toute allure J'ai pas la tête du coup j'me suis mis à fumer J'me suis mis à fumer Liberté, égalité, mais j'me sens pas libre Tu veux te refaire ? Va en Espagne, remonte 26 litres Donne-moi le micro, j'vais m'apaiser On est trop rapides, ne sois pas pressé Je les tâcle à la gorge, j'rappe ma life Nique les toxicos qui prennent la CC Ils m'jettent la 3in sur pépé j'ai wallou Ils se trahissent pour un billet yellow La Liga One, ouais c'est bien nous J'rappe, j'rappe, crois pas qu'ça dort Imagine nous en Lambo' Aventador Quand t'as des sous, on t'adore Quand t'en as plus, personne t'attend Ouais j'rappe, j'rappe, crois pas qu'ça dort Ouais la vie c'est pas un film, les problèmes s'empilent Ouais la vie c'est pas un film, les problèmes s'empilent Les meilleurs potes s'enfilent et entre eux se killent BFM la merde est filmée, on s'égare Aux vingt heures on s'fait fumer, jugé sur la religion Le tier-quar c'est pas un film mais J'ai besoin de fumer, faut que j'évacue Trop d'rancunes, j'ai le cur abîmé Si j'ai fait des fautes, je les ai assumées Fuck les jaloux qu'ils se mettent à zoomer J'avance dans la brume, j'reconnais le talent La rage est dans la plume, quand j'ai mal après tu chiales Pour les enculés la France est galante Entre nous naturel comme un lien de parenté Une vie on n'en a qu'une, pas quarante Sors le cross mets le droit sur la ligne XXX Pour le boule d'une femme ça se XXX Or qu'c'est une chienne MorganClara Là j'suis un loup je veux des loves Je veux prendre le large, ami plus biff égale lâche Trop d'morts, range ta Kalash, ton corps dans l'emballage Je veux le biff' et une villa à Malaga Tu critiques mais tu kiffes bâtard tiens ta langue Tu fais tout pour la miss mais regarde Elle aime que le biff' et le bruit des Lambo' XXX ça deale pour le drame Porte pas la guigne oui le rap on va le kill Pour d'l'argent, y'a des drames Si on t'aime pas, t'inquiète pas on va te dire Histoire de merde, ou de grammes L'argent facile attire donc forcément ça tire BZ, BZ, crick crick brah C'est l'retour de flammes ils ont tendance à dire Passons, facilement t'achète des armes L'arme ne fait pas le bonhomme, normal Qu'on lève des âmes, je n'peux pas cautionner ça La rage fait parler le talent, on est dans le Nord on va t'niquer ta reum La rage fait parler le talent, on est dans le Nord on va t'niquer ta reum La rage fait parler le talent, on est dans le Nord on va t'niquer ta reum La rage fait parler le talent, on est dans le Nord on va t'niquer ta reum Trop d'fils de traîtres qui s'la pètent Tu mérites des gifles dans la tête Ramène ta folle j'la pète Qu'j'ai une Twingo, une Porsche ou même un A7 Pourquoi vous revenez à sept ? J'vais vous écraser en compèt Au lieu d'chanter comme une trompette Agis, vas-y fait ton tête D'les niquer j'suis chaud, j'suis tenté D'les niquer j'suis chaud, j'suis tenté C'est un dégun il me fait l'trafiquante Ils m'critiquent nan mais attendez J'les vois tous danser comme dans Briganté En c'moment dans la zone c'est danger Grosse descente ils t'embarquent pour vingt G Le sang comme Silly j'suis cinglé En fumette j'vois la vie en cinq D Pourquoi vous voulez voir c'qu'y'a dans mon assiette ? Dans mon assiette, 2015, j'suis à la SACEM J'vais les dépouiller, les mettre à sec Les traîtres putain j'les esquive BDH à coups de machettes Ne te demande pas c'est qui Si dans l'tieks t'entends l'moteur d'la Maset' J'en ai marre de tous ces casse-tête Petit j'écoutais la FF sur la cassette Ils savent qu'elle pèse la mallette Alors les faux-culs m'montrent leur putain d'facette Moi j'rappe pendant qu'ils font la sieste Même en buvette moi j'touche pas la cess Disque d'or, disque de platine Toi t'as tchi gros et en plus tu chantes tu t'la pètes Elle m'fait la dure, elle m'fait la coquette J'la fais cabrer en compet Les flics passent, j'les fixe pét' au bec Si ils viennent j'm'esquive, j'vais pas attendre qu'on m'pète Si t'as parlé, agis, fais ton tête, t'es un MC ? Vas-y fais ton texte Tu l'as baisé ? Elle t'a fait rêver ? Mais vas-y poto fais ton test D'les niquer j'suis chaud, j'suis tenté C'est un dégun il me fait l'trafiquante Ils m'critiquent nan mais attendez J'les vois tous danser comme dans Briganté T'es une grosse victime tu me fais le criminel Tu me dis poto ne la branche pas, c'est ma copine elle Tu parles mal, tu pourrais finir à l'hôpital Car ici quand y'a pas d'flingues ça s'termine à l'Opinel Fermez vos gueules bande de fils de pute J'vais faire mes sons, me tailler sous l'soleil La confiance ça n'existe plus, ça vient chez toi Ça t'soulève pendant qu'ta mère sommeille Putain c'est bizarre, j'grandis, j'évite le quartier Plus j'fume plus j'oublie, plus je pleure moins j'souris J'en ai marre de courir, voir les shmitts faire les macs Les menottes, à croire qu'ils aiment nous voir souffrir J'ai passé mon temps à voir mes potos dans la mierda Ils m'ont dit no comprende À croire qu'le ciel leur est tombé dessus Mes soi-disant frères m'critiquent, j'me dois d'les les emmerder J'pleure des larmes tout seul, j'affronte mes soucis tout seul J'regrette mon frère parti tout seul J'reste avec mes frères même quand j'ai besoin de douceur Tu peux m'dire c'que tu veux j'ai vu ton vice poto On sera jamais les mêmes poto Pourquoi les meilleurs partent trop tôt ? Avant d'dormir je fixe nos photos Trop d'choses à dire, j'vois qu'c'est chaud, que ça tire La galère tout l'temps on s'l'attire Mais putain on avait tellement d'choses à bâtir J'referai jamais l'monde avant de partir J'suis comme un autre j'essaye d'm'en sortir Y'a des jaloux c'est pas grave Maman m'conseillait tout l'temps sur eux avant de sortir J'me dois d'avancer j'ai un gros poids sur moi Manager j't'aime j'vais tout niquer pour toi Même mon meilleur pote peut parler sur moi On m'a dit c'est rien t'inquiète prends sur toi J'cherche pas les miss elles cherchent à m'trouver Je cherche pas la merde eux cherchent à s'prouver Je les regarde eux cherchent à m'troubler Je pense à vivre, eux pensent à s'Roofer T'as la boule au ventre quand t'as le bruit du vroom vroom La vie c'est hardcore, faut t'apaiser Aujourd'hui il te dégoûte hier tu l'appréciais On est les remets d'accord, les remet d'accord Liga One two three on va t'agresser Ne jette pas la guigne Houari Jul on fait des sons lourds Tu nous souris mais tu kifferais nous voir sous l'eau Si t'as trahis, poto c'est sans nous Zehma c'est ton ami mais il t'a niqué l'rouleau J'm'en bats les couilles sur mon cou j'ai pas sept chaînes Sur dix gadjis à Marseille tu trouves sept chiennes Ton poto te trahit pour cette chatte La France et nous c'est une souris face à sept chats Moi c'est Houari j'prends le rap d'assaut Lacrizeomic dans tes baffes, que paso Dans le rap, j'opère man Y'a trop de traîtres, de perdre un proche ça fait super mal Elles sont vides mes poches, je serre man J'me vois plus tirer sous l'porche c'est la guerre man J'manie le flow comme personne, à la guerre je pars seul Pour les baiser j'ai la recette, et la miss me traque, me soule J'veux pas la baiser elle m'harcèle, depuis j'fais d'l'art seul Posé au tieks, je serre, j'vois les jnounés qui parlent seuls J'ai fait des feats loin d'Marseille, j'me sens chez moi de partout Dans mon tieks je marche seul, dans l'armoire l'arme, les cartouches Dans mon rap j'suis en T-Max, j'camoufle mes larmes derrière le Roof Vous pouvez parler vous, j'suis soutenu par les sages et par les oufs J'ai fait un rêve j'parlais aux anges, ils m'ont détaillé mon futur M'ont dit ne change pas t'iras loin, même si ton passé fut dur Là j'suis au stud' ça bosse dur, j'vois les guetteurs en posture J'entends des arah ça m'a dit qu'y'a des stups qui rôdent en costume Le décor est hostile, ça m'écure, ça m'dégoûte J'vois qu'des fils de pute et en plus de ça j'entends qu'ça m'écoute Moi c'est Jul j'ai trop la rage, j'déchire le game à la hache Pour mes frères en cellule, pour eux ce soir j'me déchire à la H Celle-là c'est pour Amada, pour les braqueurs en Yamaha Comme dit Kalif tu veux snif snif ? Y'en a pas J'entends les woop woop de la BAC Des fois en caisse des fois à patte, disque d'or J'dors dans mon lit j'me casse le dos, il manque des lattes Pour oublier on tire des lattes Et mes frères achètent plus en détail, ils prennent des plaques En cas d'embrouille mes potes ils mettent des claques et puis de paquets J'déballe ma life, gros j'arrive au taquet, t'sais qu'je taquine Quand j'ai la cote, quand j'me gare sur le parking Celui qu'a l'flow, celui qui t'fait danser tu sais c'est qui ? Celui qui représente le plus sa team, tu sais c'est qui ? Celui qui trahira jamais la honda, tu sais c'est qui ? Sous la cagoule c'est Jul et maintenant tu sais c'est qui ? Avec du bronze j'fais de l'argent, avec d'l'argent j'achète de l'or J'te baise comme une cochonne, normal que tu m'traites de porc XXX, pour ça qu'y'en a sur les vingt-deux C'est partout la merde, mais ils sentent que les joints d'beuh C'est chaud dans l'tieks, entre les gardes-à-V, les bagarres Entre les balances, les bâtards, les vacances et l'placard Quand tout roule pour toi, les haineux te crèvent les pneus Ils veulent me serrer la main, mais pour moi c'est des lépreux J'me suis fait tout seul, qu'ils aillent niquer leurs daronnes J'vous ai dit j'vais les finir, ça sera ma dernière parole Nous y'a pas qu'en boite qu'on sort les magnums Tu t'fais tirer dessus pendant qu'tu tires sur ta clope Ils sont pas prêts pour la guerre j'arrive en soum-soum J'vais leur faire la fête, j'vais les rendre tous oufs Même le plus balaise finit dans un trou couz' Il m'suffit d'un seize pour qu'ils aient un coup d'blues J'ai un texte dur et la tête dure, j'veux plus t'voir même en peinture Ouais le rap il a la teinture, on l'aura t'inquiète la ceinture Ouais c'est pour tous les mecs du treize et d'ailleurs, mecs durs On t'baise et bye nexture, j'te rappe ma life, lecture J'ai faim de graille, j'ai faim d'mes bails en devenir parano Pas d'épargne, faut des loves, notre avenir il part à l'eau Foutre la merde et courir t'aimes T'es d'la merde, ta clique idem Nique sa mère j'pars en impro, Veazy prends le mic' J'ai des visions, merde, besoin d'évasion Peine de prison, pas ça qu'on visionne Trop de 3aineurs à l'horizon Putain l'daron avait raison Pote, soi-disant pote hein ? Derrière ton dos que ça papote Langue de putain J'partage ma part, tu veux mon butin C'est que du bluff, il te dit le sang Mais derrière ton dos il drague ta meuf Devant les keufs, faut rester soudés Mais sa bouche à lui elle danse le smurf Mais passons, toutes ces conneries me lassent Cur glacé, avenir angoissant J'veux des liasses et rouler à trois cent Moteur puissant pour quitter la poisse Pour quitter la poisse, pour quitter la poisse Pour quitter la poisse, pour quitter la poisse</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Je vois des haties, des haters Qui persistent à m'faire payer leur échec Des gros chèques, des scènes hechek Des métisses qui écartent pas cher Des équipes, des épines Sous mes pieds, H-Led Zepplin J'suis trop lourd, trop dur T'es trop doux McCajoline T'as pas de meuf, t'es singap' Tu traînes avec Eva Joly Tro-tro-trop de swagg BradPitt Celles qui m'veulent sont, en général, jolies J'ai pris la grosse tête, oh oui Je viens du pays de Basile Boli Est-ce que tu vois ce que je vois ? Oh oh oh oui ! À travers la vitre de mon bolide You might also like Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! M'en voulez pas les gars, j'cultive le mystère comme la NASA Définir ma rage ? Un mec qui brise le mur de Gaza J'n'ai jamais vu de diam's avec l'écusson CongoBrazza C'qui nous manque en Afrique, c'est le Che ou Braveheart ! J'suis en train de plomber l'ambiance Doli' Le Rap conscient est-il mort ? Oh oui En voie d'extinction comme les gorilles Ce qui fait rêver les jeunes c'est l'boule à Katy Perry Les petites sucent et avalent, se prennent pour Lady Gaga En mode C'est la Java ça s'pète les cloisons nasales La Morale en Garde av, les daronnes deviennent des cougars Mmmmh donne un exemple... Hmm, Claire Chazal Et oui, sorry Génération r'garde Secret Story Bériz, horrible Loin des Champs et des attrapes-touriste Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! H Magnum, absolument ! Fin de Dream avant Gotham City, absolument ! T'es pas prêt, efface mon num, absolument ! Absolument ! Absolument ! Absolument ! Absolument ! Est-ce que tu vois ce que je vois ? Absolument !1</t>
+          <t>Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Je vois des haties, des haters Qui persistent à m'faire payer leur échec Des gros chèques, des scènes hechek Des métisses qui écartent pas cher Des équipes, des épines Sous mes pieds, H-Led Zepplin J'suis trop lourd, trop dur T'es trop doux McCajoline T'as pas de meuf, t'es singap' Tu traînes avec Eva Joly Tro-tro-trop de swagg BradPitt Celles qui m'veulent sont, en général, jolies J'ai pris la grosse tête, oh oui Je viens du pays de Basile Boli Est-ce que tu vois ce que je vois ? Oh oh oh oui ! À travers la vitre de mon bolide Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! M'en voulez pas les gars, j'cultive le mystère comme la NASA Définir ma rage ? Un mec qui brise le mur de Gaza J'n'ai jamais vu de diam's avec l'écusson CongoBrazza C'qui nous manque en Afrique, c'est le Che ou Braveheart ! J'suis en train de plomber l'ambiance Doli' Le Rap conscient est-il mort ? Oh oui En voie d'extinction comme les gorilles Ce qui fait rêver les jeunes c'est l'boule à Katy Perry Les petites sucent et avalent, se prennent pour Lady Gaga En mode C'est la Java ça s'pète les cloisons nasales La Morale en Garde av, les daronnes deviennent des cougars Mmmmh donne un exemple... Hmm, Claire Chazal Et oui, sorry Génération r'garde Secret Story Bériz, horrible Loin des Champs et des attrapes-touriste Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! Est-ce que tu vois ce que je vois ? Absolument ! H Magnum, absolument ! Fin de Dream avant Gotham City, absolument ! T'es pas prêt, efface mon num, absolument ! Absolument ! Absolument ! Absolument ! Absolument ! Est-ce que tu vois ce que je vois ? Absolument !1</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ce soir le club est bondé Y'a pas qu'les torses qui sont bombés Y'a pas qu'les chicots qui sont plombés Au pays d'la Tour Eiffel trop de condés On t'connaît Calimero Nous fais pas ton numéro T'as jamais pris un euro Tant pis si je ne sais pas lire, moi je sais compter Wesh les gars, c'est comment ? Gotham coming Chut no comment, j'te parle pas d'comics J'suis resté le même depuis l'époque d'l'Aconit Paraît qu'sur mes sons ça sert des bombes atomiques Oh, cinq mille euros, dix mille euros, vingt mille euros J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie Tu m'connais depuis l'under D'avance toujours une longueur H Dream Highlander L'argent attire les rondeurs Mais j'veux mon beurre, donnez-moi mon chèque Je veux le beurre et la fille du Cheikh Enfoiré, tomber n'est pas un échec L'échec c'est de ne pas se relever Regarde ou ter-ma, mais j'vais les ter-mon Je sais qu'ils ont peur de voir que le Dream ter-mon J'ai fait mes armes, j'ai reçu tous mes galons Vu qu'j'n'ai pas les bras longs, j'vais braquer le saloon You might also like Oh, cinq mille euros, dix mille euros, vingt mille euros J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie MC, MC tu n'es pas prêt, je vais te vendre de la paraffine J'compte bien moi aussi me mettre au frais, avoir de l'or sur mon parachute MC, MC tu n'es pas prêt, je vais te vendre de la paraffine J'compte bien moi aussi me mettre au frais, avoir de l'or sur mon parachute Oui je rêve comme un enfant du ghetto Je m'exprime comme un enfant du ghetto Cannabis emballé dans du cello' Tout l'monde veut sa part au pays de l'euro Oh, cinq mille euros, dix mille euros, vingt mille euros J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie Dix mille euros, trente mille euros, cent mille euros Oh, cinq mille euros, dix mille euros, vingt mille euros J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie</t>
+          <t>Ce soir le club est bondé Y'a pas qu'les torses qui sont bombés Y'a pas qu'les chicots qui sont plombés Au pays d'la Tour Eiffel trop de condés On t'connaît Calimero Nous fais pas ton numéro T'as jamais pris un euro Tant pis si je ne sais pas lire, moi je sais compter Wesh les gars, c'est comment ? Gotham coming Chut no comment, j'te parle pas d'comics J'suis resté le même depuis l'époque d'l'Aconit Paraît qu'sur mes sons ça sert des bombes atomiques Oh, cinq mille euros, dix mille euros, vingt mille euros J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie Tu m'connais depuis l'under D'avance toujours une longueur H Dream Highlander L'argent attire les rondeurs Mais j'veux mon beurre, donnez-moi mon chèque Je veux le beurre et la fille du Cheikh Enfoiré, tomber n'est pas un échec L'échec c'est de ne pas se relever Regarde ou ter-ma, mais j'vais les ter-mon Je sais qu'ils ont peur de voir que le Dream ter-mon J'ai fait mes armes, j'ai reçu tous mes galons Vu qu'j'n'ai pas les bras longs, j'vais braquer le saloon Oh, cinq mille euros, dix mille euros, vingt mille euros J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie MC, MC tu n'es pas prêt, je vais te vendre de la paraffine J'compte bien moi aussi me mettre au frais, avoir de l'or sur mon parachute MC, MC tu n'es pas prêt, je vais te vendre de la paraffine J'compte bien moi aussi me mettre au frais, avoir de l'or sur mon parachute Oui je rêve comme un enfant du ghetto Je m'exprime comme un enfant du ghetto Cannabis emballé dans du cello' Tout l'monde veut sa part au pays de l'euro Oh, cinq mille euros, dix mille euros, vingt mille euros J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie Dix mille euros, trente mille euros, cent mille euros Oh, cinq mille euros, dix mille euros, vingt mille euros J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie, j'veux d'la monnaie J'veux d'la monnaie, j'veux d'la monnaie</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même J'suis bon qu'à remettre le game à sa place On voit qui porte le maillot de bain Quand la mer est basse Débrouillard n place Voiturier palace Rmballe tes tchoins dégueulasse Tapine que les grosses feniasses Tout cela paraît irréel Accroché par les schmits Sans éléments matériel La street parle, la street j'suis la version officielle Leur carrière sous respiration artificielle You might also likeJ'astique mon étoile comme la caisse d'un antillais On enterre le 94 qu'au cimetière de Thiais Tu joues le sheikh d'Abu Dhabi au moindre petit billet Tu rêves de décrocher mes couilles mais j'suis pas ton cocotier Comme 2 Pac ciblé, J'suis un RS4 bipé Ils font du bruit mais n'avancent pas comme un chrysler pimpé Beauté, typé, quelques braqueurs de fourgon Garde ta ce-for j'ai le respect de toutes les prisons J'ai du bagage comme Louis Vuitton, je vais là ou le biff m'amène Je fil un mauvais coton, j'suis esclave de moi même J'suis un putain de killer, je peux en mourir ce soir même H Magnum dis leur, qu'on ne peut compter que sur soi même J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même Ce que j'ai je le mérite Je n'ai aucun dossier sur le dos J'écris dans mon bolide J'suis dans ma bulle et j'évite de sortir sans l'Odo C'est dingue tout va si vite Y'a pas si longtemps c'est toi qui faisais le beau Aujourd'hui tu ne brilles plus, tu ne brilles plus Ils t'ont tous tourné le dos Y'a du sang sur le parvis Ils ont fini par te faire la peau Bienvenue dans ma rue, y'a rien de nouveau J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même</t>
+          <t>J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même J'suis bon qu'à remettre le game à sa place On voit qui porte le maillot de bain Quand la mer est basse Débrouillard n place Voiturier palace Rmballe tes tchoins dégueulasse Tapine que les grosses feniasses Tout cela paraît irréel Accroché par les schmits Sans éléments matériel La street parle, la street j'suis la version officielle Leur carrière sous respiration artificielle J'astique mon étoile comme la caisse d'un antillais On enterre le 94 qu'au cimetière de Thiais Tu joues le sheikh d'Abu Dhabi au moindre petit billet Tu rêves de décrocher mes couilles mais j'suis pas ton cocotier Comme 2 Pac ciblé, J'suis un RS4 bipé Ils font du bruit mais n'avancent pas comme un chrysler pimpé Beauté, typé, quelques braqueurs de fourgon Garde ta ce-for j'ai le respect de toutes les prisons J'ai du bagage comme Louis Vuitton, je vais là ou le biff m'amène Je fil un mauvais coton, j'suis esclave de moi même J'suis un putain de killer, je peux en mourir ce soir même H Magnum dis leur, qu'on ne peut compter que sur soi même J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même Ce que j'ai je le mérite Je n'ai aucun dossier sur le dos J'écris dans mon bolide J'suis dans ma bulle et j'évite de sortir sans l'Odo C'est dingue tout va si vite Y'a pas si longtemps c'est toi qui faisais le beau Aujourd'hui tu ne brilles plus, tu ne brilles plus Ils t'ont tous tourné le dos Y'a du sang sur le parvis Ils ont fini par te faire la peau Bienvenue dans ma rue, y'a rien de nouveau J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Hey, Aznvr Toujour binks, moi j'suis resté toujours binks J'veux tout d'un coup, vas-y me rend pas fou sin-cou Ça charbonne, oui, ma chérie ça charbonne Un truc de fou, ça peut t'rafaler dans ton bain J'veux du cash comme aux Antilles J'ai pas la tête de l'emploi, j'suis pas gentil Non, non, j'suis pas gentil Si tu te casses, bébé, tant pis, c'est ta meilleure amie que j'enquille Ouais, ouais, ouais Mon avocate, mon banquier, j'côtoie aussi deux-trois bandits Insaisissable comme Banksy, les murs ont des oreilles comme à Baangui Mais oui, j'te comprends, t'as la pression T'as la pression Tu sais très bien qu'c'est moi qui ai la potion Bah ouais, bah ouais Elle me vient des champs de coton, du coltan Ça danse, mais c'est profond Beaucoup d'âmes dans mes fresques Dans mes fresques Et y a beaucoup d'inspi' dans mes cessions Ouais, ouais La police pose trop de questions C'est choquant, la violence est custom, ouais, ouais You might also like Toujour binks, moi j'suis resté toujours binks J'veux tout d'un coup, vas-y me rend pas fou sin-cou Ça charbonne Oh, oui, ma chérie ça charbonne Un truc de fou, ça peut t'rafaler dans ton bain J'arrive dans l'club en jogging Joggo Mais les bracelets coûte un building Y a plus la place dans mon dressing Comme dans les contes fous, y a un messi Lionel Messi Quand tu me parles, soit bien précis Bien précis Pas l'temps de faire ami-ami Je n'ai pas ton time La malagang aujourd'hui, on l'a construit, mais petit à petit Ra-ta-ta Le miel a beaucoup d'inspi' Ra-ta-ta Que les abeilles apprécient Ra-ta-ta J'ai montré qu'j'pouvais l'faire et tu cherches si j'dit la vérité dans mes récits Oh, ra-ta-ta J'suis toujours l'même sur le principe Ra-ta-ta Avec l'oseille et les certifs' Ra-ta-ta Elle veut me voir en vrai, me parler d'écologie, avec un boule en plastique Ra-ta-ta Toujour binks Oh yeah, oh, moi j'suis resté toujours binks Oh, oh J'veux tout d'un coup Tout, tout, vas-y me rend pas fou sin-cou Rend pas mehboul Ça charbonne Oh, oui, ma chérie ça charbonne Le jour, la nuit Un truc de fou, ça peut t'rafaler dans ton bain Ra-ta-ta H Magnum, on a souffert comme personne H Magnum, dit leur qu'on a souffert comme personne Aujourd'hui, on va fêter comme personne Aujourd'hui, dit leur qu'on va fêter comme personne Ra-ta-ta H Magnum, on a souffert comme personne Ra-ta-ta H Magnum, dit leur qu'on a souffert comme personne Ra-ta-ta Aujourd'hui, on va fêter comme personne Ra-ta-ta Aujourd'hui, dit leur qu'on va fêter comme personne Oh, oh, ah</t>
+          <t>Hey, Aznvr Toujour binks, moi j'suis resté toujours binks J'veux tout d'un coup, vas-y me rend pas fou sin-cou Ça charbonne, oui, ma chérie ça charbonne Un truc de fou, ça peut t'rafaler dans ton bain J'veux du cash comme aux Antilles J'ai pas la tête de l'emploi, j'suis pas gentil Non, non, j'suis pas gentil Si tu te casses, bébé, tant pis, c'est ta meilleure amie que j'enquille Ouais, ouais, ouais Mon avocate, mon banquier, j'côtoie aussi deux-trois bandits Insaisissable comme Banksy, les murs ont des oreilles comme à Baangui Mais oui, j'te comprends, t'as la pression T'as la pression Tu sais très bien qu'c'est moi qui ai la potion Bah ouais, bah ouais Elle me vient des champs de coton, du coltan Ça danse, mais c'est profond Beaucoup d'âmes dans mes fresques Dans mes fresques Et y a beaucoup d'inspi' dans mes cessions Ouais, ouais La police pose trop de questions C'est choquant, la violence est custom, ouais, ouais Toujour binks, moi j'suis resté toujours binks J'veux tout d'un coup, vas-y me rend pas fou sin-cou Ça charbonne Oh, oui, ma chérie ça charbonne Un truc de fou, ça peut t'rafaler dans ton bain J'arrive dans l'club en jogging Joggo Mais les bracelets coûte un building Y a plus la place dans mon dressing Comme dans les contes fous, y a un messi Lionel Messi Quand tu me parles, soit bien précis Bien précis Pas l'temps de faire ami-ami Je n'ai pas ton time La malagang aujourd'hui, on l'a construit, mais petit à petit Ra-ta-ta Le miel a beaucoup d'inspi' Ra-ta-ta Que les abeilles apprécient Ra-ta-ta J'ai montré qu'j'pouvais l'faire et tu cherches si j'dit la vérité dans mes récits Oh, ra-ta-ta J'suis toujours l'même sur le principe Ra-ta-ta Avec l'oseille et les certifs' Ra-ta-ta Elle veut me voir en vrai, me parler d'écologie, avec un boule en plastique Ra-ta-ta Toujour binks Oh yeah, oh, moi j'suis resté toujours binks Oh, oh J'veux tout d'un coup Tout, tout, vas-y me rend pas fou sin-cou Rend pas mehboul Ça charbonne Oh, oui, ma chérie ça charbonne Le jour, la nuit Un truc de fou, ça peut t'rafaler dans ton bain Ra-ta-ta H Magnum, on a souffert comme personne H Magnum, dit leur qu'on a souffert comme personne Aujourd'hui, on va fêter comme personne Aujourd'hui, dit leur qu'on va fêter comme personne Ra-ta-ta H Magnum, on a souffert comme personne Ra-ta-ta H Magnum, dit leur qu'on a souffert comme personne Ra-ta-ta Aujourd'hui, on va fêter comme personne Ra-ta-ta Aujourd'hui, dit leur qu'on va fêter comme personne Oh, oh, ah</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Penses-tu pouvoir nous faire du mal ? À nous, nous, nous, nous, nous, nous Un jour on pleure, lautre jour tu meurs Chez nous, nous, nous, nous, nous Quand lghetto chante cest stylé Car cest nous, nous, nous, nous, nous Tu npourras pas assumer Car cest nous, nous, nous, nous, nous Jsuis dans ma bulle, dans ma tour Le succès te donne des couilles Paname est trop petit pour sfaire la guerre par vidéos Oui, moi jai pas le temps, jsuis loin du peloton Dans lpartage du talent, toi tas les restes, restes Jrappe pas pour les minots, jfais dla monnaie Chérie baigne-toi dans mes sons Putain jte bire un dream en stéréo Bitch, tu me sollicites pour quon te plébiscite Autant demander un cunni à un aigle Tu nsaisis pas mes punchlines ? Manque de culture Le H sur ta hotline haute-couture Le savoir était notre arme, dans le futur Le soir jécoute du Kemso dans ma voiture Tas rien inventé, jviens téventrer Tas fermé toutes les portes, jsuis rentré par la toiture Hors-norme, mon inspi vient de Saturne Donc fuck ta tune, car tu payeras en nature Jsuis noir comme ma musique, des coups jen ai subis Larme est froide, bien qule fournisseur soit sudiste You might also like Penses-tu pouvoir nous faire du mal ? À nous, nous, nous, nous, nous, nous Un jour on pleure, lautre jour tu meurs Chez nous, nous, nous, nous, nous Quand lghetto chante cest stylé Car cest nous, nous, nous, nous, nous Tu npourras pas assumer Car cest nous, nous, nous, nous, nous Tu connais mon équipe, histoire maléfique Housse noire magnétique, soudain tu vivras faussement Les somnifères endorment mais ne sauvent pas Orné de faux frères pour ta dernière messe Tas voulu nous bloquer Peut-on éteindre les étoiles avec un sceau deau ? La plupart dans la musique on autant de couilles Quil y a de res-frè chez les nudistes Cest quand je veux ça finit, Gotham chimique Jsuis seul contre six mille, sans sentiments Tes dents sur lciment, et jécrase mon talon sur ta nuque La garde chahad, meurt mais ne se rend pas La balle chiale, part mais ne te rate pas, enfoiré Penses-tu pouvoir nous faire du mal ? À nous, nous, nous, nous, nous, nous Un jour on pleure, lautre jour tu meurs Chez nous, nous, nous, nous, nous Quand lghetto chante cest stylé Car cest nous, nous, nous, nous, nous Tu npourras pas assumer Car cest nous, nous, nous, nous, nous</t>
+          <t>Penses-tu pouvoir nous faire du mal ? À nous, nous, nous, nous, nous, nous Un jour on pleure, lautre jour tu meurs Chez nous, nous, nous, nous, nous Quand lghetto chante cest stylé Car cest nous, nous, nous, nous, nous Tu npourras pas assumer Car cest nous, nous, nous, nous, nous Jsuis dans ma bulle, dans ma tour Le succès te donne des couilles Paname est trop petit pour sfaire la guerre par vidéos Oui, moi jai pas le temps, jsuis loin du peloton Dans lpartage du talent, toi tas les restes, restes Jrappe pas pour les minots, jfais dla monnaie Chérie baigne-toi dans mes sons Putain jte bire un dream en stéréo Bitch, tu me sollicites pour quon te plébiscite Autant demander un cunni à un aigle Tu nsaisis pas mes punchlines ? Manque de culture Le H sur ta hotline haute-couture Le savoir était notre arme, dans le futur Le soir jécoute du Kemso dans ma voiture Tas rien inventé, jviens téventrer Tas fermé toutes les portes, jsuis rentré par la toiture Hors-norme, mon inspi vient de Saturne Donc fuck ta tune, car tu payeras en nature Jsuis noir comme ma musique, des coups jen ai subis Larme est froide, bien qule fournisseur soit sudiste Penses-tu pouvoir nous faire du mal ? À nous, nous, nous, nous, nous, nous Un jour on pleure, lautre jour tu meurs Chez nous, nous, nous, nous, nous Quand lghetto chante cest stylé Car cest nous, nous, nous, nous, nous Tu npourras pas assumer Car cest nous, nous, nous, nous, nous Tu connais mon équipe, histoire maléfique Housse noire magnétique, soudain tu vivras faussement Les somnifères endorment mais ne sauvent pas Orné de faux frères pour ta dernière messe Tas voulu nous bloquer Peut-on éteindre les étoiles avec un sceau deau ? La plupart dans la musique on autant de couilles Quil y a de res-frè chez les nudistes Cest quand je veux ça finit, Gotham chimique Jsuis seul contre six mille, sans sentiments Tes dents sur lciment, et jécrase mon talon sur ta nuque La garde chahad, meurt mais ne se rend pas La balle chiale, part mais ne te rate pas, enfoiré Penses-tu pouvoir nous faire du mal ? À nous, nous, nous, nous, nous, nous Un jour on pleure, lautre jour tu meurs Chez nous, nous, nous, nous, nous Quand lghetto chante cest stylé Car cest nous, nous, nous, nous, nous Tu npourras pas assumer Car cest nous, nous, nous, nous, nous</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Y a tellement d'fils de putain, j'sais même plus sur qui compter Ma voix sort du buisson, tu vas devoir supporter Tisse-mé me fait un massage, mon showcase affiche complet J'envoie seau de bouteilles, le serveur va tout porter Les filles les plus jolies ne vont jamais payer, tu connais les bails Envoie des SMS, ce genre de SMS, tu connais les bails Si ta tête est pessimiste, ton corps est optimiste, tu connais les bails T'as mis tes prétendantes d'accord à l'infini, tu connais les bails Eh eh eh eh Photo, bikini, photo, bikini, photo, bikini, photo Photo, bikini, photo, bikini, photo, bikini, photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo Elle a un corps de fou, elle sait que tout Paris le sait Mais genre elle fait crari Qu'est-c'tu penses d'mon maillot d'bain ? J'ai l'barreau de ou-f donc j'lui dis Touche à rien, laisse faire Doucement, j'vais nettoyer le sable que t'as sur les seins Je fais ça gentiment avec les compliments, tu connais les bails Ton corps est fascinant, c'maillot n'est pas si mal, tu connais les bails D'après le fessier, j'ai fait ça proprement, tu connais les bails Cette fille un châtiment, envoie ce pe-Sna, tu connais les bails Eh eh eh eh You might also like Photo, bikini, photo, bikini, photo, bikini, photo Photo, bikini, photo, bikini, photo, bikini, photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo</t>
+          <t>Y a tellement d'fils de putain, j'sais même plus sur qui compter Ma voix sort du buisson, tu vas devoir supporter Tisse-mé me fait un massage, mon showcase affiche complet J'envoie seau de bouteilles, le serveur va tout porter Les filles les plus jolies ne vont jamais payer, tu connais les bails Envoie des SMS, ce genre de SMS, tu connais les bails Si ta tête est pessimiste, ton corps est optimiste, tu connais les bails T'as mis tes prétendantes d'accord à l'infini, tu connais les bails Eh eh eh eh Photo, bikini, photo, bikini, photo, bikini, photo Photo, bikini, photo, bikini, photo, bikini, photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo Elle a un corps de fou, elle sait que tout Paris le sait Mais genre elle fait crari Qu'est-c'tu penses d'mon maillot d'bain ? J'ai l'barreau de ou-f donc j'lui dis Touche à rien, laisse faire Doucement, j'vais nettoyer le sable que t'as sur les seins Je fais ça gentiment avec les compliments, tu connais les bails Ton corps est fascinant, c'maillot n'est pas si mal, tu connais les bails D'après le fessier, j'ai fait ça proprement, tu connais les bails Cette fille un châtiment, envoie ce pe-Sna, tu connais les bails Eh eh eh eh Photo, bikini, photo, bikini, photo, bikini, photo Photo, bikini, photo, bikini, photo, bikini, photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo photo Photo, bikini, photo, bikini, photo, bikini, photo</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous Allez bébé, bébé lâche moi Allez sortez les pes-pom Allez sortez les pes-pom Allez sortez les pes-pom Allez sortez les pes-pom Le quartier est en feu, ah ah ah Le quartier est en feu, ah ah ah Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Mes ennemis sont broliqués Tout c'que jai, je lai mérité Gère loseille comme soninke, comme soninke Je mendors le tin-ma donc jsuis décalé Jvois leurs ces-vi, bientôt jvais les démarrer Appelle ton avocat Neuf millimètres pour téclater la boca, aie aie aie Du sale, de la loca Trop dappétit, jveux la SACEM à Guetta, aie aie ouille You might also like Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous Allez sortez les pes-pom Allez sortez les pes-pom Allez sortez les pes-pom Allez sortez les pes-pom Le quartier est en feu ah ah ah Le quartier est en feu ah ah ah Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Tu peux pas supporter, laisse-moi tout porter, aïe aïe aïe Sur moi, tu peux compter, vla les sous quon fait aïe aïe ouille Tu peux pas supporter, laisse-moi tout porter, aïe aïe aïe Sur moi, tu peux compter, vla les sous quon fait aïe aïe ouille Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous</t>
+          <t>Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous Allez bébé, bébé lâche moi Allez sortez les pes-pom Allez sortez les pes-pom Allez sortez les pes-pom Allez sortez les pes-pom Le quartier est en feu, ah ah ah Le quartier est en feu, ah ah ah Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Mes ennemis sont broliqués Tout c'que jai, je lai mérité Gère loseille comme soninke, comme soninke Je mendors le tin-ma donc jsuis décalé Jvois leurs ces-vi, bientôt jvais les démarrer Appelle ton avocat Neuf millimètres pour téclater la boca, aie aie aie Du sale, de la loca Trop dappétit, jveux la SACEM à Guetta, aie aie ouille Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous Allez sortez les pes-pom Allez sortez les pes-pom Allez sortez les pes-pom Allez sortez les pes-pom Le quartier est en feu ah ah ah Le quartier est en feu ah ah ah Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Cassez la démarche, cassez la démarche Tu peux pas supporter, laisse-moi tout porter, aïe aïe aïe Sur moi, tu peux compter, vla les sous quon fait aïe aïe ouille Tu peux pas supporter, laisse-moi tout porter, aïe aïe aïe Sur moi, tu peux compter, vla les sous quon fait aïe aïe ouille Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous, mon bébé ah Ah bisous</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Instinct de fauve, la vie d'un homme Je suis né en Afrique, sur la terre des ancêtres Etant môme, j'avais déjà des soucis en tête Ma mère s'est barrée vers l'Europe En quête d'un avenir moins morose Et pour payer ses dettes Fils unique j'ai grandis dans les bottes de mon père Jamais là, dans la rue, j'avais plus de repères Enfant des bidonvilles, tout mon temps dans les bois Sniffant la colle, père n'avait pas le choix C'était dur, c'était doux, c'était doux, c'était dur Mais le plus dur est à venir quand on n'hume plus de biff On dort dans les rues, me rappelle les poubelles qu'on vidait Je cirais, gars, au bord de la rue Pleurer de faim, voler du pain J'me souviens quand Malcolm s'est fait tirer dessus On faisait les fous, en ville on tirait des sous On pleurait des fois, souvent on se marrait, t'es fou ! On se barrait des cours, on fraudait le bus Se bagarrait et tout, on court aux XXX On plongeait, on nageait, on piffait sans rejet Sans ciste-ra, ni rageux, on kiffait sans projet Là-bas la daronne était seule, elle pétait les plombs Se cassait le dos pour venir me prendre Me parle pas de France, ça faisait flipper, t'es fou ! Petit Kirikou avec mon petit Mamadou L'Afrique c'était tout, elle me choppe par le dos Paris, les babtous, le froid partout J'suis perdu, je tourne, à l'école j'foire tout Le système me tèj salement, khaaa tfouuu ! La haine me retourne, croise mes rabzouz D'abord on est deux, et très vite on est douze Première clope, je tousse On traine partout, on fait un peu de flouz Les vrais me comprennent, on saigne, on saigne On se paye des Requins et du seum, du seum On fuit nos problèmes car on s'aime, on s'aime Rottes-ca, jalousie et le seum, le seum On te fait un guet-apense et le sang, le sang Tu fais trop de fric, on le ressent, on le sent Reviens avec nous, sur le banc, assis On t'aime dans la hess, tu le sais, le sais Un bout de ma vie de rue, tu le ressens, ressens Désolé mais je dois clore car le temps, le temps You might also like Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Instinct de fauve, la vie d'un homme Je suis né en Afrique, sur la terre des ancêtres Etant môme, j'avais déjà des soucis en tête Ma mère s'est barrée vers l'Europe En quête d'un avenir moins morose Et pour payer ses dettes Fils unique j'ai grandis dans les bottes de mon père Jamais là, dans la rue, j'avais plus de repères Enfant des bidonvilles, tout mon temps dans les bois Sniffant la colle, père n'avait pas le choix C'était dur, c'était doux, c'était doux, c'était dur Mais le plus dur est à venir quand on n'hume plus de biff On dort dans les rues, me rappelle les poubelles qu'on vidait Je cirais, gars, au bord de la rue Pleurer de faim, voler du pain J'me souviens quand Malcolm s'est fait tirer dessus On faisait les fous, en ville on tirait des sous On pleurait des fois, souvent on se marrait, t'es fou ! On se barrait des cours, on fraudait le bus Se bagarrait et tout, on court aux XXX On plongeait, on nageait, on piffait sans rejet Sans ciste-ra, ni rageux, on kiffait sans projet Là-bas la daronne était seule, elle pétait les plombs Se cassait le dos pour venir me prendre Me parle pas de France, ça faisait flipper, t'es fou ! Petit Kirikou avec mon petit Mamadou L'Afrique c'était tout, elle me choppe par le dos Paris, les babtous, le froid partout J'suis perdu, je tourne, à l'école j'foire tout Le système me tèj salement, khaaa tfouuu ! La haine me retourne, croise mes rabzouz D'abord on est deux, et très vite on est douze Première clope, je tousse On traine partout, on fait un peu de flouz Les vrais me comprennent, on saigne, on saigne On se paye des Requins et du seum, du seum On fuit nos problèmes car on s'aime, on s'aime Rottes-ca, jalousie et le seum, le seum On te fait un guet-apense et le sang, le sang Tu fais trop de fric, on le ressent, on le sent Reviens avec nous, sur le banc, assis On t'aime dans la hess, tu le sais, le sais Un bout de ma vie de rue, tu le ressens, ressens Désolé mais je dois clore car le temps, le temps Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Stan-E Music Noir mat Lambo Plus armé que Rambo Je ne côtoie que des nhommes-bo Largent ne fait pas lbonheur mais rend beau Jnai pas le sens de lhumour comme Django H Leo Messi Sucer des eues-qu non merci Viens dans mon tieks cest le Mexique Jsuis un mec entier comme Omar Sy Même si jai fait du sale bref, Lord have mercy On na pas lchoix igo Le monde appartient aux gringos On na qunos rêves alors gratte un Bingo Ferrari F430 vs Twingo Quand on na pas fait médecine Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Jusquà cquon nous élimine You might also like Jvois lmonde en slow mo Jcommence ma promo Futuristique comme Qrono Ça cest lapéritif, oh no Igo lis bien la notice Cest écrit que jsuis nocif Vous faire mal cest cqui mmotive Jsuis imprévisible comme un autiste Miracle Jattends pas le miracle Oui jsuis déter comme un Mirage Cest toujours les mêmes qui spavanent en Panamera Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Jusquà cquon nous élimine On va braquer nos rêves Nous on noubliera pas nos kheys Au pire des cas ya lSMIC honoraire Toujours été mauvais élève On veut croquer la vie à pleines molaires Mira Jsuis bousillé comme en Irak Nique-les tous les lois cest ce que ma dit Mourad Faudrait du love et de lor pour lcalmer nos rages Obligé on va braquer nos rêves, on va braquer nos rêves Oui baby Obligé on va braquer nos rêves, on va braquer nos rêves Car nos curs sont vidés Obligé on va braquer nos rêves, on va braquer nos rêves On a besoin dsoleil Obligé on va braquer nos rêves, on va braquer nos rêves Jusquà cquon nous élimine Obligé on va braquer nos rêves, on va braquer nos rêves Oui baby Obligé on va braquer nos rêves, on va braquer nos rêves Car nos curs sont vidés Obligé on va braquer nos rêves, on va braquer nos rêves On a besoin dsoleil Obligé on va braquer nos rêves, on va braquer nos rêves Jusquà cquon nous élimine1</t>
+          <t>Stan-E Music Noir mat Lambo Plus armé que Rambo Je ne côtoie que des nhommes-bo Largent ne fait pas lbonheur mais rend beau Jnai pas le sens de lhumour comme Django H Leo Messi Sucer des eues-qu non merci Viens dans mon tieks cest le Mexique Jsuis un mec entier comme Omar Sy Même si jai fait du sale bref, Lord have mercy On na pas lchoix igo Le monde appartient aux gringos On na qunos rêves alors gratte un Bingo Ferrari F430 vs Twingo Quand on na pas fait médecine Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Jusquà cquon nous élimine Jvois lmonde en slow mo Jcommence ma promo Futuristique comme Qrono Ça cest lapéritif, oh no Igo lis bien la notice Cest écrit que jsuis nocif Vous faire mal cest cqui mmotive Jsuis imprévisible comme un autiste Miracle Jattends pas le miracle Oui jsuis déter comme un Mirage Cest toujours les mêmes qui spavanent en Panamera Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Obligé on va braquer nos rêves, on va braquer nos rêves Jusquà cquon nous élimine On va braquer nos rêves Nous on noubliera pas nos kheys Au pire des cas ya lSMIC honoraire Toujours été mauvais élève On veut croquer la vie à pleines molaires Mira Jsuis bousillé comme en Irak Nique-les tous les lois cest ce que ma dit Mourad Faudrait du love et de lor pour lcalmer nos rages Obligé on va braquer nos rêves, on va braquer nos rêves Oui baby Obligé on va braquer nos rêves, on va braquer nos rêves Car nos curs sont vidés Obligé on va braquer nos rêves, on va braquer nos rêves On a besoin dsoleil Obligé on va braquer nos rêves, on va braquer nos rêves Jusquà cquon nous élimine Obligé on va braquer nos rêves, on va braquer nos rêves Oui baby Obligé on va braquer nos rêves, on va braquer nos rêves Car nos curs sont vidés Obligé on va braquer nos rêves, on va braquer nos rêves On a besoin dsoleil Obligé on va braquer nos rêves, on va braquer nos rêves Jusquà cquon nous élimine1</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ça y est On m'reproche d'jà d'mailler Seul quand j'mouillais l'maillot La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die D'où je viens y'a pas d'seille-o On sentretue pour l'noyau La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die Je vis aux portes du crime, j'suis pas une lampe-torche Ne me suis pas, MC tu t'feras une entorse Une flèche dans l'dos, une balle dans l'torse Les fils de pute te portent l'il quand tu t'en sors J'ai plus l'temps akhi laisse-moi braver la tempête J'm'en tamponne de leur avis mon urine dans leur trompette Lécheur de vitrines, j'écris mes p'tites rimes J'embellis ma vie triste essayant de pas m'vautrer T'as vu l'trou j'ai l'trac, où sont mes reufrés ? J'suis trop près d'l'ennemi, j'vois plus les te-traî Je fais mon chemin, rien ne dit que ça va ché-mar Mais les mecs qui m'disaient d'cher-lâ commencent à me té-ma chelou Akhi You might also like Ça y est On m'reproche d'jà d'mailler Seul quand j'mouillais l'maillot La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die D'où je viens y'a pas d'seille-o On sentretue pour l'noyau La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die J'compte sur personne, parce qu'en vérité Même ton ombre se barre dans l'obscurité Loin d'être héritier, vas-y mets replay Que j'kicke, course le rêve américain Finies les barres de rires quand t'as plus d'bordereaux Les mecs en birh diront que t'es une merde horrible Dans l'art de rue on choisit d'faire du rap Si c'était à refaire j'aurais écouté l'daron C'est mieux d'avoir des dirhams, s'éloigner du haram Que d'signer des autographes sur des peaux d'bananes Je fais mon chemin, rien ne dit que ça va ché-mar Mais les mecs qui m'disaient d'cher-lâ commencent à me té-ma chelou Akhi Ça y est On m'reproche d'jà d'mailler Seul quand j'mouillais l'maillot La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die D'où je viens y'a pas d'seille-o On sentretue pour l'noyau La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die</t>
+          <t>Ça y est On m'reproche d'jà d'mailler Seul quand j'mouillais l'maillot La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die D'où je viens y'a pas d'seille-o On sentretue pour l'noyau La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die Je vis aux portes du crime, j'suis pas une lampe-torche Ne me suis pas, MC tu t'feras une entorse Une flèche dans l'dos, une balle dans l'torse Les fils de pute te portent l'il quand tu t'en sors J'ai plus l'temps akhi laisse-moi braver la tempête J'm'en tamponne de leur avis mon urine dans leur trompette Lécheur de vitrines, j'écris mes p'tites rimes J'embellis ma vie triste essayant de pas m'vautrer T'as vu l'trou j'ai l'trac, où sont mes reufrés ? J'suis trop près d'l'ennemi, j'vois plus les te-traî Je fais mon chemin, rien ne dit que ça va ché-mar Mais les mecs qui m'disaient d'cher-lâ commencent à me té-ma chelou Akhi Ça y est On m'reproche d'jà d'mailler Seul quand j'mouillais l'maillot La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die D'où je viens y'a pas d'seille-o On sentretue pour l'noyau La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die J'compte sur personne, parce qu'en vérité Même ton ombre se barre dans l'obscurité Loin d'être héritier, vas-y mets replay Que j'kicke, course le rêve américain Finies les barres de rires quand t'as plus d'bordereaux Les mecs en birh diront que t'es une merde horrible Dans l'art de rue on choisit d'faire du rap Si c'était à refaire j'aurais écouté l'daron C'est mieux d'avoir des dirhams, s'éloigner du haram Que d'signer des autographes sur des peaux d'bananes Je fais mon chemin, rien ne dit que ça va ché-mar Mais les mecs qui m'disaient d'cher-lâ commencent à me té-ma chelou Akhi Ça y est On m'reproche d'jà d'mailler Seul quand j'mouillais l'maillot La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die D'où je viens y'a pas d'seille-o On sentretue pour l'noyau La rue nous a lâchés, dans un rêve sans issue Si j'glisse c'est die</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mes cicatrices racontent mon vécu Non, je ne suis plus le même J'ai perdu ma best Mon cur n'attend plus de guest Je vis dans le rush La plupart du temps dans mon véhicule Malgré la hess, j'ai fait tout ce que j'avais à faire Je me suis battu maman, je me suis battu Je me suis battu, grâce à toi, je suis têtu, yeah Une Bugatti, tout un empire à bâtir Une Ducati dans la calle, un frère abattu, yeah La haine a failli gâcher nos vies Je suis sorti de la pénombre Mes frères au shtar sont nombreux Moi, je suis une star de l'ombre Je reconnais, j'ai caché ma zic' Certains voulaient la démembrer Je ne fais pas l'art du nombre Chaque son, une part de moi Je ne crierai pas à l'aide parce que je suis un bonhomme J'ai trimé, fumé, zoné comme un sale môme Face aux épreuves, je fais face à moi-même J'ai trimé, fumé, zoné comme un sale môme Les billets sont mauves, les billets sont mauves Et j'ai fait ça sans pilon J'ai sué des années, sué des larmes Mais tu sais, les gens diront- Les billets sont mauves, les billets sont mauves Et j'ai fait ça sans pilon Mais tu sais, les gens diront- Tu connais, les gens diront- You might also like C'est avec Osigne, j'ai commencé On voulait chanter le monde J'ai rencontré Fale, Sexion D'assault On a fait du sale, tu connais C'est là que la poisse m'a devancée J'ai perdu du temps, tu connais Le passé au passé rien à foutre J'ai trop souffert pour renoncer, yeah-yeah À la fin, ceux qui rigolaient diront que je suis mauvais Paraît que j'ai pris des lovés, je veux la viande de Kobé C'est la faim qui nous réveille même quand le temps est mauvais Facile de critiquer, mais difficile d'innover La haine a failli gâcher nos vies Je suis sorti de la pénombre Mes frères au shtar sont nombreux Moi, je suis une star de l'ombre Je reconnais, j'ai caché ma zic' Certains voulaient la démembrer Je ne fais pas l'art du nombre Chaque son, une part de moi Je ne crierai pas à l'aide parce que je suis un bonhomme J'ai trimé, fumé, zoné comme un sale môme Face aux épreuves, je fais face à moi-même J'ai trimé, fumé, zoné comme un sale môme Les billets sont mauves, les billets sont mauves Et j'ai fait ça sans pilon J'ai sué des années, sué des larmes Mais tu sais, les gens diront- Les billets sont mauves, les billets sont mauves Et j'ai fait ça sans pilon Mais tu sais, les gens diront- Tu connais, les gens diront- C'est avec Osigne, j'ai commencé On voulait chanter le monde J'ai rencontré Fale, Sexion d'assaut On a fait du sale, tu connais C'est là que la poisse m'a devancée J'ai perdu du temps, tu connais Le passé au passé rien à foutre J'ai trop souffert pour renoncer</t>
+          <t>Mes cicatrices racontent mon vécu Non, je ne suis plus le même J'ai perdu ma best Mon cur n'attend plus de guest Je vis dans le rush La plupart du temps dans mon véhicule Malgré la hess, j'ai fait tout ce que j'avais à faire Je me suis battu maman, je me suis battu Je me suis battu, grâce à toi, je suis têtu, yeah Une Bugatti, tout un empire à bâtir Une Ducati dans la calle, un frère abattu, yeah La haine a failli gâcher nos vies Je suis sorti de la pénombre Mes frères au shtar sont nombreux Moi, je suis une star de l'ombre Je reconnais, j'ai caché ma zic' Certains voulaient la démembrer Je ne fais pas l'art du nombre Chaque son, une part de moi Je ne crierai pas à l'aide parce que je suis un bonhomme J'ai trimé, fumé, zoné comme un sale môme Face aux épreuves, je fais face à moi-même J'ai trimé, fumé, zoné comme un sale môme Les billets sont mauves, les billets sont mauves Et j'ai fait ça sans pilon J'ai sué des années, sué des larmes Mais tu sais, les gens diront- Les billets sont mauves, les billets sont mauves Et j'ai fait ça sans pilon Mais tu sais, les gens diront- Tu connais, les gens diront- C'est avec Osigne, j'ai commencé On voulait chanter le monde J'ai rencontré Fale, Sexion D'assault On a fait du sale, tu connais C'est là que la poisse m'a devancée J'ai perdu du temps, tu connais Le passé au passé rien à foutre J'ai trop souffert pour renoncer, yeah-yeah À la fin, ceux qui rigolaient diront que je suis mauvais Paraît que j'ai pris des lovés, je veux la viande de Kobé C'est la faim qui nous réveille même quand le temps est mauvais Facile de critiquer, mais difficile d'innover La haine a failli gâcher nos vies Je suis sorti de la pénombre Mes frères au shtar sont nombreux Moi, je suis une star de l'ombre Je reconnais, j'ai caché ma zic' Certains voulaient la démembrer Je ne fais pas l'art du nombre Chaque son, une part de moi Je ne crierai pas à l'aide parce que je suis un bonhomme J'ai trimé, fumé, zoné comme un sale môme Face aux épreuves, je fais face à moi-même J'ai trimé, fumé, zoné comme un sale môme Les billets sont mauves, les billets sont mauves Et j'ai fait ça sans pilon J'ai sué des années, sué des larmes Mais tu sais, les gens diront- Les billets sont mauves, les billets sont mauves Et j'ai fait ça sans pilon Mais tu sais, les gens diront- Tu connais, les gens diront- C'est avec Osigne, j'ai commencé On voulait chanter le monde J'ai rencontré Fale, Sexion d'assaut On a fait du sale, tu connais C'est là que la poisse m'a devancée J'ai perdu du temps, tu connais Le passé au passé rien à foutre J'ai trop souffert pour renoncer</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>x2 Danger Ça vient de Paris, surtout pas d'ailleurs ! Danger Surchargé, fusil mitrailleur Danger Premier sur le front comme un tirailleur Danger A quoi ça sert d'chialer frère si t'es sûr de caner ? Des gamins chient dans leur froque, j'les démasque, sont des bolosses J'viens faire le boulot, pas à mille, mais en solo V'là l'hymne d'un filou pour nuls et intellos Rimes en kilo, Paris, Bambino Deuxième claque, ta machoire craque T'as le traque ? Goutte la bonne frappe ! Ça sonne crade, sur ta route j'suis un pilone L'effet d'un crash où tu perds ton binome J'pousse la vie jusqu'au bout du trou Traumatise comme l'odeur d'un prout Assez rigolé, aucun d'entre eux n'peut m'égaler Oui chérie, je suis mégalo, la prochaine je serai galant J'te parlerai de bouquins ou de plages à galets Mais j'suis en mode crack, en mode Khaled En mode j'balaye les MCs, en mode balaise On m'nomme Malaise car j'arrive qu'en mode galère You might also like x2 J'me ramène avec un gros son, garçon Ma pipe et mon gare-ci depuis qu'c'est l'anarchie Matte le Game, comme les tabacs par les noichis Le tableau sera noircit, un brolik, un uzi En guest, qu'est-ce t'as ? J'aime bien les belles squettes-ca Baskets, parisien sirotte un bon fé-ca Après avoir démonté un chicken chika Gros, on va te remonter même dans ton tiékar Viens pas me checker avec tes doigts tout pétés Si t'as pas mon butin, ton nez je vais le péter T'auras beau t'cher-ca, sucer mon chacal Le AK célophane est couché dans un linge sale Va leur dire que j'viens pas marquer des buts Plutôt maquer des putes, que j'atteindrai bien mon but Ici c'est Paname, maitrise trop l'XXX En laissant sales âmes, j'tord la rime et j'te dis Shalom ! x2 Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>x2 Danger Ça vient de Paris, surtout pas d'ailleurs ! Danger Surchargé, fusil mitrailleur Danger Premier sur le front comme un tirailleur Danger A quoi ça sert d'chialer frère si t'es sûr de caner ? Des gamins chient dans leur froque, j'les démasque, sont des bolosses J'viens faire le boulot, pas à mille, mais en solo V'là l'hymne d'un filou pour nuls et intellos Rimes en kilo, Paris, Bambino Deuxième claque, ta machoire craque T'as le traque ? Goutte la bonne frappe ! Ça sonne crade, sur ta route j'suis un pilone L'effet d'un crash où tu perds ton binome J'pousse la vie jusqu'au bout du trou Traumatise comme l'odeur d'un prout Assez rigolé, aucun d'entre eux n'peut m'égaler Oui chérie, je suis mégalo, la prochaine je serai galant J'te parlerai de bouquins ou de plages à galets Mais j'suis en mode crack, en mode Khaled En mode j'balaye les MCs, en mode balaise On m'nomme Malaise car j'arrive qu'en mode galère x2 J'me ramène avec un gros son, garçon Ma pipe et mon gare-ci depuis qu'c'est l'anarchie Matte le Game, comme les tabacs par les noichis Le tableau sera noircit, un brolik, un uzi En guest, qu'est-ce t'as ? J'aime bien les belles squettes-ca Baskets, parisien sirotte un bon fé-ca Après avoir démonté un chicken chika Gros, on va te remonter même dans ton tiékar Viens pas me checker avec tes doigts tout pétés Si t'as pas mon butin, ton nez je vais le péter T'auras beau t'cher-ca, sucer mon chacal Le AK célophane est couché dans un linge sale Va leur dire que j'viens pas marquer des buts Plutôt maquer des putes, que j'atteindrai bien mon but Ici c'est Paname, maitrise trop l'XXX En laissant sales âmes, j'tord la rime et j'te dis Shalom ! x2 Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 J'arrive insolent les autres ils sont là pour niquer l'Etat Paris chaud bouillant, les poulets sont plus là Sors ta C là et c'est l'sauna dans l'tier-quar mon pote Nique la BAC, les stups, et les procs, j'encule la FAC, les études et l'école Laisse moi dans mon coin ruminer mon herbe La rue c'est violent comme voir quelqu'un humilier ton père ou faire mouiller ta mère Toujours déter, on te casse la mâchoire, comme Dexter, on te passe à la hachoire Sur l'ter-ter, t'ouvres ta bouches, nos commentaires, sur ça tu vas t'asseoir On survit, crache des flammes de nos stylos, rien d'sublime dans leur ville hostile XXX plus bas que des animaux, pas d'surprise alors on dine dans la ville Wallalahdim on est en plein dans leur viseur, nous veulent en case prison, à l'asile Passe le magazine mais crypte-le, Panam est Crick Crick Pah, tiens, vas-y emmagasine-le On l'assume, zim-zimma bouge ton cul, voisins, voisines You might also like Nous fournissent danse, sexe, peine, haine et calibres, Red, VIP, Jet-Set on est pas libres T'inquiète pas nos sont magiques ont des talibans, ça va être blessant, Africa del Caraïbes Mais sinon, ça c'est 20ème millézim' Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Toujours déter comme L'Ouverture Toussaint, on veut du biff, des grosses voitures Mais pas tous des p'tites d'12 ans aux gros seins, sous Gucci, Louis V, Mauboussin Ne parle pas d'ton Glock dans mon bloc, on en a tous un On t'fume pendant qu'tu ronfles entre ta couverture et ton coussin Eh cousin, faut pas que j'joue l'ouf dans les aventures, XXX on est pas tous saints J'viens de l'Est, hein, là où les poulets, renterrent sortent en mode poussin La devise, c'est que même tout seul, on vous baise tous hein, oh oui on s'en fout t'es qui et quel âge t'as Rafale verbale à la lashKa dans ton nid, ici c'est... Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Fermez vos nenettes, gros va leur dire qu'on est pas nette 75 une autre planète, pas besoin de shit, de coke pour planer Du zemzem dans ma canette, oui je suis zinzin, je vais te caner Je vais te saigner, puis j'vais dessiner sur ton torse H MAGNUM Si si ta vue king sur le ring, petit arrogant Si je veux je te fais tu Raggae, mais là j'aimerais juste te Hagar? Grandi parmi les brigants, XXX intriguant quand je le dégaine On a le talent dans les gènes comme XXX Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 J'arrive insolent les autres ils sont là pour niquer l'Etat Paris chaud bouillant, les poulets sont plus là Sors ta C là et c'est l'sauna dans l'tier-quar mon pote Nique la BAC, les stups, et les procs, j'encule la FAC, les études et l'école Laisse moi dans mon coin ruminer mon herbe La rue c'est violent comme voir quelqu'un humilier ton père ou faire mouiller ta mère Toujours déter, on te casse la mâchoire, comme Dexter, on te passe à la hachoire Sur l'ter-ter, t'ouvres ta bouches, nos commentaires, sur ça tu vas t'asseoir On survit, crache des flammes de nos stylos, rien d'sublime dans leur ville hostile XXX plus bas que des animaux, pas d'surprise alors on dine dans la ville Wallalahdim on est en plein dans leur viseur, nous veulent en case prison, à l'asile Passe le magazine mais crypte-le, Panam est Crick Crick Pah, tiens, vas-y emmagasine-le On l'assume, zim-zimma bouge ton cul, voisins, voisines Nous fournissent danse, sexe, peine, haine et calibres, Red, VIP, Jet-Set on est pas libres T'inquiète pas nos sont magiques ont des talibans, ça va être blessant, Africa del Caraïbes Mais sinon, ça c'est 20ème millézim' Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Toujours déter comme L'Ouverture Toussaint, on veut du biff, des grosses voitures Mais pas tous des p'tites d'12 ans aux gros seins, sous Gucci, Louis V, Mauboussin Ne parle pas d'ton Glock dans mon bloc, on en a tous un On t'fume pendant qu'tu ronfles entre ta couverture et ton coussin Eh cousin, faut pas que j'joue l'ouf dans les aventures, XXX on est pas tous saints J'viens de l'Est, hein, là où les poulets, renterrent sortent en mode poussin La devise, c'est que même tout seul, on vous baise tous hein, oh oui on s'en fout t'es qui et quel âge t'as Rafale verbale à la lashKa dans ton nid, ici c'est... Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Dangereux ! Quand j'ramène toute la famille, Paris-Est en guerre Les fils de pute on les banni, révolté comme Keba Semi Marre de sang sur le tatami, temps de hess on sort les canines Et les balances font le 17, 17 Fermez vos nenettes, gros va leur dire qu'on est pas nette 75 une autre planète, pas besoin de shit, de coke pour planer Du zemzem dans ma canette, oui je suis zinzin, je vais te caner Je vais te saigner, puis j'vais dessiner sur ton torse H MAGNUM Si si ta vue king sur le ring, petit arrogant Si je veux je te fais tu Raggae, mais là j'aimerais juste te Hagar? Grandi parmi les brigants, XXX intriguant quand je le dégaine On a le talent dans les gènes comme XXX Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>H Magnum Rentrez chez vous Big Black M Rentrez chez vous Fin de Dream Big Black M, H Magnum TPP T'as trop de swag Black M Arrête de bire poto Comment tu fais ? Arrête D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt You might also like J'ai fais des gosses à la Critique, je les ai appelé Disques d'Or Ferme ta gueule akhi parce que mon fils dort Gotham City, H Magnum a buté Batman C'est pas une punch'... C'est une blackline ! Attends, attends, rimes aiguisées, flow c'est qui ça ? Peggy déguisée, heu non c'est trop bizarre ! Inimitable, j'me limite pas aux MCs Mais ché-la ton idole, tu l'imites mal J'vais sponsoriser ta mif', ton clan, ta te-tan T'as le seum, t'aimerais ne pas bouger, mais le son fait que t'es dedans One shot, here we go ! Appelle moi Black Luigi C'que j'vois c'est trop gros, personne n'a le budget T'es pas prêt, sur le beat je slalome Chacun pour sa peau, en 2013, akhi c'est ça l'Homme Les cles-on au foyer, faut pas les renvoyer La vie c'est pas nos clips, ça se passe pas comme vous le voyez Problèmes, loyers, j'veux arrêter de vouvoyer T'es pas prêt Black M est malade, personne pour le soigner T'es pas prêt M'sieur l'agent, tu m'fais mal au poignet T'es pas prêt Je l'ai d'ja roulé, c'est entre moi et le douanier Laissez-moi dans mon délire, j'suis atteint j'ai pas le temps J'ai v'là le flow j'ai déjà bossé, explosé l'Apogée Attend j'vais te décomplexer, à tout jamais Tu vas ger-bou ta te-tê sur mon texte les mains en l'air Maudis Game, ils finiront tous intérimaires Oh dis-moi, mais tu n'as pas la gueule du winner ! Qu'est-ce tu racontes ? Ferme ta gueule TeddyRiner Le but c'est de taper les ventes de celui qui chantait Thriller Ça bosse, ça fait des lustres Portes et fenêtres scellées, oui la famille j'ai dû m'incruster ! D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Si tout le monde arrête de courir, vouloir être riche Je me dis qu'on pourrait profiter de nos êtres chers Le monde appartient aux gens qui ont la meilleure literie Mais qui n'ont pas plus de sentiments que Dexter Très cher, passe-moi le cro-mi qu'on en finisse, que je les punisse Tellement génie, j'peux faire rimer Dream, Nutella et Pénis Oups ! T'es pas prêt, efface mon num, retrouve moi sur la Lune BOOM je suis là ! Girl what you gonna do ? Toi qui connait tout, je vois qu't'es dans le doute Et ma douce on a vu ton boule LaureManaudou Désolé, c'est vrai que mon cerveau m'écoute peu J'ai remarqué ce truc depuis que j'suis tit-pe Issu du petit-peuple, non j'suis pas un people J'suis banal comme un renoi qui meurt d'un coup d'feu J'rappe trop bien, pas besoin d'être validé Vous m'avez négligé, j'viens vous faire valiser MC fais le tour, la prod' est balisée L'album attendu comme la mort de Johnny Hallyday C'est pas une punchline... mais c'est une bourde Donc je me désavoue mademoiselle, après vous Paris c'est fini, y a de la folie, viens me follow Petite souris, moi je serai Tom, et toi tu seras Jerry Appelle-moi H-Smith Wesson J.M Weston, j'kick sur WhatsApp T'es pas prêt, j'massacre, j'suis en mission J'ai tranché le son FleuryMichon Oups Trop de bâtons dans les roues, donc j'ai décidé de marcher MC y a du flow ici, viens faire ton marché J'suis un vrai tueur un vrai de vrai Si t'as les crocs, quand tu croquais, moi je mâchais J'tiens ma rage sous les jupons d'une meute yeah M.C.'s j'vous fais rapper mieux qu'hier D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Paroles rédigées et expliquées par la communauté RapGenius France2</t>
+          <t>H Magnum Rentrez chez vous Big Black M Rentrez chez vous Fin de Dream Big Black M, H Magnum TPP T'as trop de swag Black M Arrête de bire poto Comment tu fais ? Arrête D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt J'ai fais des gosses à la Critique, je les ai appelé Disques d'Or Ferme ta gueule akhi parce que mon fils dort Gotham City, H Magnum a buté Batman C'est pas une punch'... C'est une blackline ! Attends, attends, rimes aiguisées, flow c'est qui ça ? Peggy déguisée, heu non c'est trop bizarre ! Inimitable, j'me limite pas aux MCs Mais ché-la ton idole, tu l'imites mal J'vais sponsoriser ta mif', ton clan, ta te-tan T'as le seum, t'aimerais ne pas bouger, mais le son fait que t'es dedans One shot, here we go ! Appelle moi Black Luigi C'que j'vois c'est trop gros, personne n'a le budget T'es pas prêt, sur le beat je slalome Chacun pour sa peau, en 2013, akhi c'est ça l'Homme Les cles-on au foyer, faut pas les renvoyer La vie c'est pas nos clips, ça se passe pas comme vous le voyez Problèmes, loyers, j'veux arrêter de vouvoyer T'es pas prêt Black M est malade, personne pour le soigner T'es pas prêt M'sieur l'agent, tu m'fais mal au poignet T'es pas prêt Je l'ai d'ja roulé, c'est entre moi et le douanier Laissez-moi dans mon délire, j'suis atteint j'ai pas le temps J'ai v'là le flow j'ai déjà bossé, explosé l'Apogée Attend j'vais te décomplexer, à tout jamais Tu vas ger-bou ta te-tê sur mon texte les mains en l'air Maudis Game, ils finiront tous intérimaires Oh dis-moi, mais tu n'as pas la gueule du winner ! Qu'est-ce tu racontes ? Ferme ta gueule TeddyRiner Le but c'est de taper les ventes de celui qui chantait Thriller Ça bosse, ça fait des lustres Portes et fenêtres scellées, oui la famille j'ai dû m'incruster ! D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Si tout le monde arrête de courir, vouloir être riche Je me dis qu'on pourrait profiter de nos êtres chers Le monde appartient aux gens qui ont la meilleure literie Mais qui n'ont pas plus de sentiments que Dexter Très cher, passe-moi le cro-mi qu'on en finisse, que je les punisse Tellement génie, j'peux faire rimer Dream, Nutella et Pénis Oups ! T'es pas prêt, efface mon num, retrouve moi sur la Lune BOOM je suis là ! Girl what you gonna do ? Toi qui connait tout, je vois qu't'es dans le doute Et ma douce on a vu ton boule LaureManaudou Désolé, c'est vrai que mon cerveau m'écoute peu J'ai remarqué ce truc depuis que j'suis tit-pe Issu du petit-peuple, non j'suis pas un people J'suis banal comme un renoi qui meurt d'un coup d'feu J'rappe trop bien, pas besoin d'être validé Vous m'avez négligé, j'viens vous faire valiser MC fais le tour, la prod' est balisée L'album attendu comme la mort de Johnny Hallyday C'est pas une punchline... mais c'est une bourde Donc je me désavoue mademoiselle, après vous Paris c'est fini, y a de la folie, viens me follow Petite souris, moi je serai Tom, et toi tu seras Jerry Appelle-moi H-Smith Wesson J.M Weston, j'kick sur WhatsApp T'es pas prêt, j'massacre, j'suis en mission J'ai tranché le son FleuryMichon Oups Trop de bâtons dans les roues, donc j'ai décidé de marcher MC y a du flow ici, viens faire ton marché J'suis un vrai tueur un vrai de vrai Si t'as les crocs, quand tu croquais, moi je mâchais J'tiens ma rage sous les jupons d'une meute yeah M.C.'s j'vous fais rapper mieux qu'hier D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Bienvenue dans mon monde On fait des hits, on fait des sommes Tas 2-3 kils, ten fais des tonnes Les vrais OGs nparlent pas au phone Bienvenue dans mon monde Maman sinquiète pour mon avenir Moi jsais ce que jveux devenir Jsuis sûr de moi je nvois qudes clones Bienvenue dans mon monde Tu nous regardes, tu nous trouves alléchants Sous-diplômés on a perdu au change Si tu sais pas nager on va tapprendre à nager Les gars te laisseront dans une vraie mare de sang Chez nous ya pas de crise dadolescence Tu seras cocu si tu comptes sur la chance Le cur rempli de remords Quand nos démons sendorment Tous les soirs on repense à nos morts Les balles et les chargeurs ont imposé leur mélodie Plus tôt les petits res-frè se mettent à sampler nos vies Ils sont prêts à lpayer cher, cest jamais fini Bienvenue dans mon monde On fait des hits, on fait des sommes Tas 2-3 kils, ten fais des tonnes Les vrais OGs nparlent pas au phone Bienvenue dans mon monde Maman sinquiète pour mon avenir Moi jsais ce que jveux devenir Jsuis sûr de moi je nvois qudes clones Bienvenue dans mon monde You might also like Cest nous qui contrôlons Paris, les Champs Tas les poches trop vides pout te remplir la panse Le talent, le talent fuck la chance On va tmonter en lair pour te faire redescendre Les piloner, piloner car il est temps Remonter du pilon, les phares éteints Nonchalant, nonchalant, car jai le temps Le temps cest de largent, donc oui jai le temps Le dream nest pas si lunaire, le dream nest pas si lunaire Man on nest pas similaires, man on nest pas similaires Du réseau sans cellulaire, du réseau sans cellulaire Le jet ou le car cellulaire, le jet ou le car cellulaire Des lovés, des lovés ils en veulent mais savent-ils innover ? Du Louis V, du Louis V ils en veulent mais ont-ils des lovés ? Bienvenue dans mon monde On fait des hits, on fait des sommes Tas 2-3 kils, ten fais des tonnes Les vrais OGs nparlent pas au phone Bienvenue dans mon monde Maman sinquiète pour mon avenir Moi jsais ce que jveux devenir Jsuis sûr de moi je nvois qudes clones Bienvenue dans mon monde Bienvenue dans mon monde Bienvenue dans mon monde1</t>
+          <t>Bienvenue dans mon monde On fait des hits, on fait des sommes Tas 2-3 kils, ten fais des tonnes Les vrais OGs nparlent pas au phone Bienvenue dans mon monde Maman sinquiète pour mon avenir Moi jsais ce que jveux devenir Jsuis sûr de moi je nvois qudes clones Bienvenue dans mon monde Tu nous regardes, tu nous trouves alléchants Sous-diplômés on a perdu au change Si tu sais pas nager on va tapprendre à nager Les gars te laisseront dans une vraie mare de sang Chez nous ya pas de crise dadolescence Tu seras cocu si tu comptes sur la chance Le cur rempli de remords Quand nos démons sendorment Tous les soirs on repense à nos morts Les balles et les chargeurs ont imposé leur mélodie Plus tôt les petits res-frè se mettent à sampler nos vies Ils sont prêts à lpayer cher, cest jamais fini Bienvenue dans mon monde On fait des hits, on fait des sommes Tas 2-3 kils, ten fais des tonnes Les vrais OGs nparlent pas au phone Bienvenue dans mon monde Maman sinquiète pour mon avenir Moi jsais ce que jveux devenir Jsuis sûr de moi je nvois qudes clones Bienvenue dans mon monde Cest nous qui contrôlons Paris, les Champs Tas les poches trop vides pout te remplir la panse Le talent, le talent fuck la chance On va tmonter en lair pour te faire redescendre Les piloner, piloner car il est temps Remonter du pilon, les phares éteints Nonchalant, nonchalant, car jai le temps Le temps cest de largent, donc oui jai le temps Le dream nest pas si lunaire, le dream nest pas si lunaire Man on nest pas similaires, man on nest pas similaires Du réseau sans cellulaire, du réseau sans cellulaire Le jet ou le car cellulaire, le jet ou le car cellulaire Des lovés, des lovés ils en veulent mais savent-ils innover ? Du Louis V, du Louis V ils en veulent mais ont-ils des lovés ? Bienvenue dans mon monde On fait des hits, on fait des sommes Tas 2-3 kils, ten fais des tonnes Les vrais OGs nparlent pas au phone Bienvenue dans mon monde Maman sinquiète pour mon avenir Moi jsais ce que jveux devenir Jsuis sûr de moi je nvois qudes clones Bienvenue dans mon monde Bienvenue dans mon monde Bienvenue dans mon monde1</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>H-H-H-H-Magnum 75, Gotham City Wati-B, hein hein Microphone check, un million de chickens Dur de faire des sous le cul posé dans le tier-quar C.C. dans les chettes-ca, whisky dans le Coca Nombreux sur l'échiquier pour l'champagne ou l'sche-Por Wesh, au poste, tu shites où ? Nhar sheitan, classé P4 Ramènes-moi les schmits et j'te plastifie au C4 J'baise ton équipe de faux culs Igo, un litige, du liquide et un yougo te liquide Ton pote est crispé et veut d'la conso' fissa Dis-lui qu'on blaire pas les tes-tê de schmitards Il sent la chicken, dit qu'il veut six kil' Y'a pas d'shit quand on n'sent pas, c'est ça-comme J'ai vu des thugs s'faire du blé, man Ça s'encule pour du blé, man T'as jamais vu un corps criblé, man Fais pas l'fou, ça fait bim-bim, négatif Je te pardonne, y'a aucun 'blème, man On s'fait la bise pour meubler, man T'as oublié que j't'ai ciblé, man Le jour J, ça fait bim-bim, négatif You might also like Le jour J, ça fait bim-bim, négatif Le jour J, ça fait bim-bim, négatif J'suis un éléphant, trou d'balle, j'oublie pas Pas du genre à faire la paix autour d'une ble-ta M'raconte pas ta vie au phone, en face tu blais-trem Té-ma ton pire cauchemar porté à l'écran T'as quitté l'secteur, suceur d'inspecteur Ressens le seum, l'angoisse, par ondes, à travers l'lecteur Ce qui n'te tue pas te rapproche de la mosquée Donc dis-toi qu'c'est pour ton bien qu'j'avance masqué Le feu au cul, solo dans ton véhicule Tu prends du recul, re-lou d'être en vale-ca Le jour J, avant que tu n'percutes Pleure, sue, crie À l'aide dans le coffre d'un 4x4 J'ai vu des thugs s'faire du blé, man Ça s'encule pour du blé, man T'as jamais vu un corps criblé, man Fais pas l'fou, ça fait bim-bim, négatif Je te pardonne, y'a aucun 'blème, man On s'fait la bise pour meubler, man T'as oublié que j't'ai ciblé, man Le jour J, ça fait bim-bim, négatif Bienvenue dans ma rue, trop cool, on rit aux éclats Ici, on s'sert les coudes, hnin au départ Soudain, le déclin, l'argent, les coups d'crasse On t'fumera devant ton père, le hajj, même pour du zetla À qui le tour ? ZEP, précarité ? Ça liquide des kilos d'coke, car trop fier pour charité J'suis terre-à-terre, fuck ton R-A-P J'suis déter' à prendre mes sous, production de qualité Dream J'ai vu des thugs s'faire du blé, man Ça s'encule pour du blé, man T'as jamais vu un corps criblé, man Fais pas l'fou, ça fait bim-bim, négatif Je te pardonne, y'a aucun 'blème, man On s'fait la bise pour meubler, man T'as oublié que j't'ai ciblé, man Le jour J, ça fait bim-bim, négatif Le jour J, ça fait bim-bim, négatif Le jour J, ça fait bim-bim, négatif Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>H-H-H-H-Magnum 75, Gotham City Wati-B, hein hein Microphone check, un million de chickens Dur de faire des sous le cul posé dans le tier-quar C.C. dans les chettes-ca, whisky dans le Coca Nombreux sur l'échiquier pour l'champagne ou l'sche-Por Wesh, au poste, tu shites où ? Nhar sheitan, classé P4 Ramènes-moi les schmits et j'te plastifie au C4 J'baise ton équipe de faux culs Igo, un litige, du liquide et un yougo te liquide Ton pote est crispé et veut d'la conso' fissa Dis-lui qu'on blaire pas les tes-tê de schmitards Il sent la chicken, dit qu'il veut six kil' Y'a pas d'shit quand on n'sent pas, c'est ça-comme J'ai vu des thugs s'faire du blé, man Ça s'encule pour du blé, man T'as jamais vu un corps criblé, man Fais pas l'fou, ça fait bim-bim, négatif Je te pardonne, y'a aucun 'blème, man On s'fait la bise pour meubler, man T'as oublié que j't'ai ciblé, man Le jour J, ça fait bim-bim, négatif Le jour J, ça fait bim-bim, négatif Le jour J, ça fait bim-bim, négatif J'suis un éléphant, trou d'balle, j'oublie pas Pas du genre à faire la paix autour d'une ble-ta M'raconte pas ta vie au phone, en face tu blais-trem Té-ma ton pire cauchemar porté à l'écran T'as quitté l'secteur, suceur d'inspecteur Ressens le seum, l'angoisse, par ondes, à travers l'lecteur Ce qui n'te tue pas te rapproche de la mosquée Donc dis-toi qu'c'est pour ton bien qu'j'avance masqué Le feu au cul, solo dans ton véhicule Tu prends du recul, re-lou d'être en vale-ca Le jour J, avant que tu n'percutes Pleure, sue, crie À l'aide dans le coffre d'un 4x4 J'ai vu des thugs s'faire du blé, man Ça s'encule pour du blé, man T'as jamais vu un corps criblé, man Fais pas l'fou, ça fait bim-bim, négatif Je te pardonne, y'a aucun 'blème, man On s'fait la bise pour meubler, man T'as oublié que j't'ai ciblé, man Le jour J, ça fait bim-bim, négatif Bienvenue dans ma rue, trop cool, on rit aux éclats Ici, on s'sert les coudes, hnin au départ Soudain, le déclin, l'argent, les coups d'crasse On t'fumera devant ton père, le hajj, même pour du zetla À qui le tour ? ZEP, précarité ? Ça liquide des kilos d'coke, car trop fier pour charité J'suis terre-à-terre, fuck ton R-A-P J'suis déter' à prendre mes sous, production de qualité Dream J'ai vu des thugs s'faire du blé, man Ça s'encule pour du blé, man T'as jamais vu un corps criblé, man Fais pas l'fou, ça fait bim-bim, négatif Je te pardonne, y'a aucun 'blème, man On s'fait la bise pour meubler, man T'as oublié que j't'ai ciblé, man Le jour J, ça fait bim-bim, négatif Le jour J, ça fait bim-bim, négatif Le jour J, ça fait bim-bim, négatif Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Verse 1 H Magnum Elle se balade dans la ville rouge à lèvres et faux cils Louboutins pour mieux toucher le ciel Ya dellali Tu la veux dans ta vie, elle demande l'impossible Casse-toi si tu roules en 107 Ya dellali Les chics type qui veulent épouser l'ennuie Tant pis elle préfère les you-voi Ya dellali En dix secondes elle tue tes économies Elle kiffe sur les hommes de pouvoir Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 2 Youcef Raifi Elle aime les magasins, les boutiques de shopping Tout pour que bébé se sente belle Encore un sac à main, jalouse entre copines Manipulatrice et sensuelle Elle kiffe les clubs et le monde de la nuit Elle danse, elle n'a jamais sommeil Tu cliques sur ses photos, sur ses selfies Quand elle tape la pose au soleil You might also like Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm yu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 3 H Magnum Elle n'est pas timide, non elle n'est pas timide Elle sait se faire désirer Elle veut une vie clean Pas faire de lèche vitrine On la regarde défiler T'as pas bien compris Si t'as pas d'oseille, si t'as pas fait de son-pri Elle va pas te calculer, pour elle t'est comme un zombie Pan lui a tout dit, tout essayé tant pis Elle a serré son footeux Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyeux du monde</t>
+          <t>Verse 1 H Magnum Elle se balade dans la ville rouge à lèvres et faux cils Louboutins pour mieux toucher le ciel Ya dellali Tu la veux dans ta vie, elle demande l'impossible Casse-toi si tu roules en 107 Ya dellali Les chics type qui veulent épouser l'ennuie Tant pis elle préfère les you-voi Ya dellali En dix secondes elle tue tes économies Elle kiffe sur les hommes de pouvoir Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 2 Youcef Raifi Elle aime les magasins, les boutiques de shopping Tout pour que bébé se sente belle Encore un sac à main, jalouse entre copines Manipulatrice et sensuelle Elle kiffe les clubs et le monde de la nuit Elle danse, elle n'a jamais sommeil Tu cliques sur ses photos, sur ses selfies Quand elle tape la pose au soleil Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm yu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 3 H Magnum Elle n'est pas timide, non elle n'est pas timide Elle sait se faire désirer Elle veut une vie clean Pas faire de lèche vitrine On la regarde défiler T'as pas bien compris Si t'as pas d'oseille, si t'as pas fait de son-pri Elle va pas te calculer, pour elle t'est comme un zombie Pan lui a tout dit, tout essayé tant pis Elle a serré son footeux Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyeux du monde</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Et même crucifié, solo, endetté, je narrive pas à crier mayday Envie dtout quitter, cest vrai qujsuis entêté, quand mes proches me parlent de maider Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Parfois tas envie dvoir personne On gagne à plusieurs, évidemment on perd seul Tas déjà fait ce rêve dans lequel tu vois quton père sonne Touvres la porte triste parcque tu nvois personne Ya des jours avec, ya des jours sans Ya des belles journées, ya des journées rouge sang Dla peine derrière ces sourires que tu captures Un cur de cactus fier au bord dune route sombre Cest quand tes dans la merde qutu vois qui fait la fine bouche On dit qula vérité amère donne des fruits doux La haine à foison même si lamour au compte-gouttes Demain sera mieux, ça nfait aucun doute Et même crucifié, solo, endetté, je narrive pas à crier mayday Envie dtout quitter, cest vrai qujsuis entêté, quand mes proches me parlent de maider You might also like Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Ramène le succès, on nchangera pas Les coups dcouteaux dans le dos, on nles sent pas Les hypocrites me coupent la tête, mais elle ne tombe pas Quand le cur est sûr, la main ne tremble pas Je mméfie de ces amis qui mépient La trahison se cache là où il y a des thunes et filles Indécis, frère la vie est un défi Un dessin où rien nest symétrique Souvent jmisole, jai foi en aucune idole Dans lfond on sait qule bonheur na besoin ni dargent ni dor Du shit pour mi-dor, toi aussi ton père ta mis dehors Tas cette impression dêtre la brebis galeuse de la maison Jen suis capable, pourquoi jéchoue ? Jen suis capable, pourtant jéchoue Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux</t>
+          <t>Et même crucifié, solo, endetté, je narrive pas à crier mayday Envie dtout quitter, cest vrai qujsuis entêté, quand mes proches me parlent de maider Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Parfois tas envie dvoir personne On gagne à plusieurs, évidemment on perd seul Tas déjà fait ce rêve dans lequel tu vois quton père sonne Touvres la porte triste parcque tu nvois personne Ya des jours avec, ya des jours sans Ya des belles journées, ya des journées rouge sang Dla peine derrière ces sourires que tu captures Un cur de cactus fier au bord dune route sombre Cest quand tes dans la merde qutu vois qui fait la fine bouche On dit qula vérité amère donne des fruits doux La haine à foison même si lamour au compte-gouttes Demain sera mieux, ça nfait aucun doute Et même crucifié, solo, endetté, je narrive pas à crier mayday Envie dtout quitter, cest vrai qujsuis entêté, quand mes proches me parlent de maider Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Ramène le succès, on nchangera pas Les coups dcouteaux dans le dos, on nles sent pas Les hypocrites me coupent la tête, mais elle ne tombe pas Quand le cur est sûr, la main ne tremble pas Je mméfie de ces amis qui mépient La trahison se cache là où il y a des thunes et filles Indécis, frère la vie est un défi Un dessin où rien nest symétrique Souvent jmisole, jai foi en aucune idole Dans lfond on sait qule bonheur na besoin ni dargent ni dor Du shit pour mi-dor, toi aussi ton père ta mis dehors Tas cette impression dêtre la brebis galeuse de la maison Jen suis capable, pourquoi jéchoue ? Jen suis capable, pourtant jéchoue Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux Demain sera mieux, je mdis que demain sera mieux</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Le Dream est là Un petit dream avant Gotham City H Magnum Dream Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Tu m'as vu à une terrasse sur les Champs man Tu voudrais bien avoir mon numéro de chambre et J'suis dans ta ville oukhty t'as trop de chance Comme un virement qui efface ton découvert Dream Tes libérable, tu passes le dernier maton Dream Ta meuf tattend pour rattraper le temps Dream Dream tendresse, fini les pâtes au thon Dans ta caisse, sur les ondes, cest mon son Dream Viens ma go sûre, ce soir on va à Galsen Non non tas pas grossis, tas lallure dune gazelle Appelle-moi Dhalsim, jtouche mes pieds en dansant Ce quil y a en dessous, bébé faudra que tassumes Cauche ! Ce soir cest le classico Real-Barça Ramène ta meuf quelle prépare les pizzas Dream Quand la zermi te dit hasta la vista Tchutchu Y a un deublé-man qui vient davoir son visa Dream You might also like Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? TchuTchu Dream Jsuis gênant gênant Jvais les traumât Ils sont pas prêts 12 du mat jme réveil, pompes, douche, gym Tablettes de chocolat, ptit jean Dream Paire de baskets, jhésite, jen ai mille Dream Jenfile les JoJo DreamSwagg Tas pris ton vol pour nous rejoindre en Thaïlande Dream Tas pas doseille, tinquiète mon pote on sarrange Dream Transat sur la plage on sallonge DreamVacances Capte une meuf dans tes bails DreamRencontre Rendez-vous dans sa chambre DreamMassage Elle est sérieuse, avec elle plus de mensonge De retour sur Bérize DreamMariage Ça cest un gros dream ça Mais la vie est un dream Dites aux MCs que jsuis leur dream Jsuis gênant Jvais les traumât Ils sont pas prêt Jsuis gênant Jvais les traumât Ils sont pas prêt Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Jsuis gênant Jvais les traumât Ils sont pas prêts Jsuis gênant Jvais les traumât Tchutchu Dream</t>
+          <t>Le Dream est là Un petit dream avant Gotham City H Magnum Dream Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Tu m'as vu à une terrasse sur les Champs man Tu voudrais bien avoir mon numéro de chambre et J'suis dans ta ville oukhty t'as trop de chance Comme un virement qui efface ton découvert Dream Tes libérable, tu passes le dernier maton Dream Ta meuf tattend pour rattraper le temps Dream Dream tendresse, fini les pâtes au thon Dans ta caisse, sur les ondes, cest mon son Dream Viens ma go sûre, ce soir on va à Galsen Non non tas pas grossis, tas lallure dune gazelle Appelle-moi Dhalsim, jtouche mes pieds en dansant Ce quil y a en dessous, bébé faudra que tassumes Cauche ! Ce soir cest le classico Real-Barça Ramène ta meuf quelle prépare les pizzas Dream Quand la zermi te dit hasta la vista Tchutchu Y a un deublé-man qui vient davoir son visa Dream Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? TchuTchu Dream Jsuis gênant gênant Jvais les traumât Ils sont pas prêts 12 du mat jme réveil, pompes, douche, gym Tablettes de chocolat, ptit jean Dream Paire de baskets, jhésite, jen ai mille Dream Jenfile les JoJo DreamSwagg Tas pris ton vol pour nous rejoindre en Thaïlande Dream Tas pas doseille, tinquiète mon pote on sarrange Dream Transat sur la plage on sallonge DreamVacances Capte une meuf dans tes bails DreamRencontre Rendez-vous dans sa chambre DreamMassage Elle est sérieuse, avec elle plus de mensonge De retour sur Bérize DreamMariage Ça cest un gros dream ça Mais la vie est un dream Dites aux MCs que jsuis leur dream Jsuis gênant Jvais les traumât Ils sont pas prêt Jsuis gênant Jvais les traumât Ils sont pas prêt Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Jsuis gênant Jvais les traumât Ils sont pas prêts Jsuis gênant Jvais les traumât Tchutchu Dream</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>On s'était promis une belle vie sur les plages d'Asunde Tu m'as pas donné de mobile Et puis tout d'un coup t'as changé Tu ne réponds plus, allo ? T'as tout mis à l'eau Mon cur tu l'as scindé Et je ne dors plus la nuit Je fume que la weed T'as vu maintenant j'suis écolo Écolo, ÉcolO.G Je fais pousser des plantes comme un écolo Écolo, ÉcolO.G Baby gyal tu m'as rendu écolo Écolo, ÉcolO.G Comme Boby Boby, j'suis un écolo Écolo, ÉcolO.G Ce soir, j'suis posé à Saint-Denis avec des stars et des condés, avec des juges et des O.G Derrières mes cartes j'ai un bon jeu J'allume un petit à l'aube, je fume fièrement Je bluff comme à Enghien J'essaie de tromper l'ennui Tu manques, ti amo You might also like Comme l'as de trèfle, j'suis un écolo Écolo, ÉcolO.G J'me soigne à la beuh, j'suis un écolo Écolo, ÉcolO.G C'est Babylone qui m'a rendu écolo Écolo, ÉcolO.G Comme Carla Bruni, j'suis un écolo Écolo, ÉcolO.G</t>
+          <t>On s'était promis une belle vie sur les plages d'Asunde Tu m'as pas donné de mobile Et puis tout d'un coup t'as changé Tu ne réponds plus, allo ? T'as tout mis à l'eau Mon cur tu l'as scindé Et je ne dors plus la nuit Je fume que la weed T'as vu maintenant j'suis écolo Écolo, ÉcolO.G Je fais pousser des plantes comme un écolo Écolo, ÉcolO.G Baby gyal tu m'as rendu écolo Écolo, ÉcolO.G Comme Boby Boby, j'suis un écolo Écolo, ÉcolO.G Ce soir, j'suis posé à Saint-Denis avec des stars et des condés, avec des juges et des O.G Derrières mes cartes j'ai un bon jeu J'allume un petit à l'aube, je fume fièrement Je bluff comme à Enghien J'essaie de tromper l'ennui Tu manques, ti amo Comme l'as de trèfle, j'suis un écolo Écolo, ÉcolO.G J'me soigne à la beuh, j'suis un écolo Écolo, ÉcolO.G C'est Babylone qui m'a rendu écolo Écolo, ÉcolO.G Comme Carla Bruni, j'suis un écolo Écolo, ÉcolO.G</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Le Dream est là, le Dream est là H Magnum Dreaaaaaaaam Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Le H est là confondez pas les sifflets et les cartons Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream T'es dans le noir pleins phares Tchu Tchu Dream Dream Dream Dream T'es dans le noir pleins phares Tchu Tchu Dream 7.5, j't'esquinte Après l'effort meilleur est le festin J'préfère les femmes fortes à celles qu'on pas de eins Hum hum, et qu'on a d'seuf' Yes H leur machine, descendez j'vous décime Wesh les mecs j'vous met le chique comme épouser une nne-chie J'attire lui comme un bruit de Féfé P'tit Dream chicha et j'te prends un tube haché J'suis dans mon élément, le sol s'illumine Trop de swagg, on se dit Follow Me ? Ressent les phéromones, j'aime les infirmières Les MC font les trottoirs tout comme leur re-mè Autour de moi que des mini moi, oui M.C. j'te minimise J'suis là pour de la money Le Rap Game à l'amande à à l'amande les gros bouffons et les allumeuses Fais pas trop le fou j'vais t'allumer You might also like Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Le H est là confondez pas les sifflets et les cartons Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream T'es dans le noir pleins phares Tchu Tchu Dream Dream Dream Dream T'es dans le noir pleins phares Tchu Tchu Dream Je pense que j'vais leur faire détester leur passion T'as reconnu la voix qui leur met la pression Vers le succès, excellent j'klaxonne Martin Aston, j'déboîte DREAM Je vous l'avais dit, y'a du level, là c'pas du rap de novice J'suis derrière vous comme un OVNI, suce moi t'auras du niveau Rien que ça ler-par nous on agit, si j'veux, je te fais déménager, v'là le rajeul Dites aux loux-ja que j'me soigne à l'huile de Nigel Nigel J'ai peur comme Musel Musel J'ai l'teint d'la misère misère Tchu tchu Dream J'suis pas ton collègue enculé J'suis la pour kicker sale Niquer l'instru' j'ai mon talent en équilibre sur un impala Ca ca fait les chauds quand Papa n'est pas là ! Jsuis gênant, jvais les traumât' Ils sont pas prêts Jsuis gênant, jvais les traumât J'ai-j'ai dit Ils sont pas prêts Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Le H est là confondez pas les sifflets et les cartons Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream T'es dans le noir pleins phares Tchu Tchu Dream Dream Dream Dream T'es dans le noir pleins phares Tchu Tchu Dream Jsuis gênant, jvais les traumât' Ils sont pas prêts Jsuis gênant, jvais les traumât J'ai-j'ai dit Ils sont pas prêts</t>
+          <t>Le Dream est là, le Dream est là H Magnum Dreaaaaaaaam Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Le H est là confondez pas les sifflets et les cartons Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream T'es dans le noir pleins phares Tchu Tchu Dream Dream Dream Dream T'es dans le noir pleins phares Tchu Tchu Dream 7.5, j't'esquinte Après l'effort meilleur est le festin J'préfère les femmes fortes à celles qu'on pas de eins Hum hum, et qu'on a d'seuf' Yes H leur machine, descendez j'vous décime Wesh les mecs j'vous met le chique comme épouser une nne-chie J'attire lui comme un bruit de Féfé P'tit Dream chicha et j'te prends un tube haché J'suis dans mon élément, le sol s'illumine Trop de swagg, on se dit Follow Me ? Ressent les phéromones, j'aime les infirmières Les MC font les trottoirs tout comme leur re-mè Autour de moi que des mini moi, oui M.C. j'te minimise J'suis là pour de la money Le Rap Game à l'amande à à l'amande les gros bouffons et les allumeuses Fais pas trop le fou j'vais t'allumer Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Le H est là confondez pas les sifflets et les cartons Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream T'es dans le noir pleins phares Tchu Tchu Dream Dream Dream Dream T'es dans le noir pleins phares Tchu Tchu Dream Je pense que j'vais leur faire détester leur passion T'as reconnu la voix qui leur met la pression Vers le succès, excellent j'klaxonne Martin Aston, j'déboîte DREAM Je vous l'avais dit, y'a du level, là c'pas du rap de novice J'suis derrière vous comme un OVNI, suce moi t'auras du niveau Rien que ça ler-par nous on agit, si j'veux, je te fais déménager, v'là le rajeul Dites aux loux-ja que j'me soigne à l'huile de Nigel Nigel J'ai peur comme Musel Musel J'ai l'teint d'la misère misère Tchu tchu Dream J'suis pas ton collègue enculé J'suis la pour kicker sale Niquer l'instru' j'ai mon talent en équilibre sur un impala Ca ca fait les chauds quand Papa n'est pas là ! Jsuis gênant, jvais les traumât' Ils sont pas prêts Jsuis gênant, jvais les traumât J'ai-j'ai dit Ils sont pas prêts Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Le H est là confondez pas les sifflets et les cartons Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream Mets les à l'écart, mets les mets les à l'écart Dream T'es dans le noir pleins phares Tchu Tchu Dream Dream Dream Dream T'es dans le noir pleins phares Tchu Tchu Dream Jsuis gênant, jvais les traumât' Ils sont pas prêts Jsuis gênant, jvais les traumât J'ai-j'ai dit Ils sont pas prêts</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>x2 On arrive en équipe On arrive, on est quittes On arrive en équipe On arrive, on est quittes Me revoici dans le bando À chaque nouveau son on est toujours plus chauds Non fais pas le thug man, on va te quer-cho Igo relance un coup, cest moi qui paye la conso On est dans ldream, je gère le navire Tous mes rates-pi, tinquiète ont ce quil faut Jmets tout lmonde daccord comme le 9 millimètres Ya tellement dhaineux dans le club Jsais même plus où me ser-po On fait du biff, on gère notre biz Tes bon quà parler sur nous, à nous faire la bise Mon carré cest lVIP, le tien cest lvide À chaque apparition igo je fais la diff, chouf x2 On arrive en équipe On arrive, on est quittes On arrive en équipe On arrive, on est quittes You might also like Tu mfais la belle, tu sais pas twerker Jvais tattaquer car ton mec est claqué Mercedes-Bend, SLS Jpasse les vitesses, elles ont les jambes écartées Gars tu nes pas sur la liste, tas pas dargent, pas damis Pendant qutes sur Konami, nous on galère aux Canaries Je ne capitule pas, moi jsuis bon quà foncer Si jte calcule pas cest qusur toi jpeux pas compter Jai du papier, jsuis assis, ya des filles faciles Tout a un prix, jsuis un Picasso, tes un pique-assiettes x2 On arrive en équipe On arrive, on est quittes On arrive en équipe On arrive, on est quittes Yeah, Gotham City H Dream, Ghost Magnum Nico à la prod Paris Est, Paris Est Saint Blaise On arrive en équipe On arrive en équipe</t>
+          <t>x2 On arrive en équipe On arrive, on est quittes On arrive en équipe On arrive, on est quittes Me revoici dans le bando À chaque nouveau son on est toujours plus chauds Non fais pas le thug man, on va te quer-cho Igo relance un coup, cest moi qui paye la conso On est dans ldream, je gère le navire Tous mes rates-pi, tinquiète ont ce quil faut Jmets tout lmonde daccord comme le 9 millimètres Ya tellement dhaineux dans le club Jsais même plus où me ser-po On fait du biff, on gère notre biz Tes bon quà parler sur nous, à nous faire la bise Mon carré cest lVIP, le tien cest lvide À chaque apparition igo je fais la diff, chouf x2 On arrive en équipe On arrive, on est quittes On arrive en équipe On arrive, on est quittes Tu mfais la belle, tu sais pas twerker Jvais tattaquer car ton mec est claqué Mercedes-Bend, SLS Jpasse les vitesses, elles ont les jambes écartées Gars tu nes pas sur la liste, tas pas dargent, pas damis Pendant qutes sur Konami, nous on galère aux Canaries Je ne capitule pas, moi jsuis bon quà foncer Si jte calcule pas cest qusur toi jpeux pas compter Jai du papier, jsuis assis, ya des filles faciles Tout a un prix, jsuis un Picasso, tes un pique-assiettes x2 On arrive en équipe On arrive, on est quittes On arrive en équipe On arrive, on est quittes Yeah, Gotham City H Dream, Ghost Magnum Nico à la prod Paris Est, Paris Est Saint Blaise On arrive en équipe On arrive en équipe</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Et si jte disais que jai plus dun tour Dans mon sac, je ne suis pas si innocent Dites à ceux qui galèrent de ne pas salir leurs paumes La chance cest comme la femme elle prend souvent son temps Et lorsque tu me croises, mais dans un jour gris Suis-je obligé de rigoler ? Réponds-moi, bon sang Je garde la tête froide malgré tout cqui brille Jai la famille pour mépauler, souhaitez-moi bonne chance Je repense à tous ceux qui mont délaissé Mont délaissé, mont pas tendu la main Je ne vois que des regards intéressés Intéressés, tu me veux du bien Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ? Dites à mes amis, je nles ai pas oubliés Je reste le même, je reste le même Dites à ma famille que je nai pas oublié Je reste le même, je reste le même Mais toi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ? You might also like Et si jte disais que jai plus le temps Est-cque tu le prendrais comme une offense ? Je sais que mes vrais amis me soutiennent depuis lenfance Et quils ne men veulent pas, je le ressens Malgré le froid, les nuits dorage Je tiens toujours le coup comme un écharpe Je sais cque cest que de vivre en marge Cest à travers la foule que je méchappe Je repense à tous ceux qui mont délaissé Mont délaissé, mont pas tendu la main Je ne vois que des regards intéressés Intéressés, tu me veux du bien Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ? Dites à mes amis, je nles ai pas oubliés Je reste le même, je reste le même Dites à ma famille que je nai pas oublié Je reste le même, je reste le même Mais toi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ? Jai fait du bien, jai fait du mal, mais jai dompté ma folie Jai fait du bien, jai fait du mal, mais jai dompté ma folie Est-cque tu maimeras, tu maimeras quand tu verras ma story ? Est-cque tu maimeras, tu maimeras quand tu verras ma story ? Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ? Dites à mes amis, je nles ai pas oubliés Je reste le même, je reste le même Dites à ma famille que je nai pas oublié Je reste le même, je reste le même Mais toi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ?</t>
+          <t>Et si jte disais que jai plus dun tour Dans mon sac, je ne suis pas si innocent Dites à ceux qui galèrent de ne pas salir leurs paumes La chance cest comme la femme elle prend souvent son temps Et lorsque tu me croises, mais dans un jour gris Suis-je obligé de rigoler ? Réponds-moi, bon sang Je garde la tête froide malgré tout cqui brille Jai la famille pour mépauler, souhaitez-moi bonne chance Je repense à tous ceux qui mont délaissé Mont délaissé, mont pas tendu la main Je ne vois que des regards intéressés Intéressés, tu me veux du bien Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ? Dites à mes amis, je nles ai pas oubliés Je reste le même, je reste le même Dites à ma famille que je nai pas oublié Je reste le même, je reste le même Mais toi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ? Et si jte disais que jai plus le temps Est-cque tu le prendrais comme une offense ? Je sais que mes vrais amis me soutiennent depuis lenfance Et quils ne men veulent pas, je le ressens Malgré le froid, les nuits dorage Je tiens toujours le coup comme un écharpe Je sais cque cest que de vivre en marge Cest à travers la foule que je méchappe Je repense à tous ceux qui mont délaissé Mont délaissé, mont pas tendu la main Je ne vois que des regards intéressés Intéressés, tu me veux du bien Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ? Dites à mes amis, je nles ai pas oubliés Je reste le même, je reste le même Dites à ma famille que je nai pas oublié Je reste le même, je reste le même Mais toi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ? Jai fait du bien, jai fait du mal, mais jai dompté ma folie Jai fait du bien, jai fait du mal, mais jai dompté ma folie Est-cque tu maimeras, tu maimeras quand tu verras ma story ? Est-cque tu maimeras, tu maimeras quand tu verras ma story ? Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Mais dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ? Dites à mes amis, je nles ai pas oubliés Je reste le même, je reste le même Dites à ma famille que je nai pas oublié Je reste le même, je reste le même Mais toi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand je nserai plus solide ? Dis-moi est-ce que tu m'aimeras encore ? Tu maimeras encore, quand tu verras ma story ?</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ophi H Dream Viens on le fait step by step Les chiens vont nous admirer comme des monuments Des efforts j'en fais day today Si tu dis c'est pas le cas ma chérie tu ment Beaucoup te disent qu'il te trouve jolie J'veux pas causer j'veux pas être impoli shame on them On aura ce que l'on mérite baby J't'en ai fais le serment j'te l'ai promis laisse moi faire Ton regard plein d fille j'en rêve ncore As-tu conscience de la puissance de nos corps J'en rêve encore J'en rêve encore Need your love baby Need your love Need your love baby Need your love Need your love baby Need your love Need your love baby Need your love You might also like Tu te sers et tout t'es permis T'as bu dans mon eau, j'tai laissé faire Tu sais bien que tu m'as fait souffrir Me planter dans le dos, je t'ai laissé faire, je t'ai laissé faire Des mouvements sexy, baby me Viens on se taille, monte à bord C'est souvent critique, il faut me Si je vends du sale c'est pour ton love Y'a tellement de , baby Viens on se taille, viens on sort J'pourrais être ton disciple, regard mistique Mais de moi t'es tombé love Need your love baby Need your love Need your love baby Need your love Need your love baby Need your love Need your love baby Need your love</t>
+          <t>Ophi H Dream Viens on le fait step by step Les chiens vont nous admirer comme des monuments Des efforts j'en fais day today Si tu dis c'est pas le cas ma chérie tu ment Beaucoup te disent qu'il te trouve jolie J'veux pas causer j'veux pas être impoli shame on them On aura ce que l'on mérite baby J't'en ai fais le serment j'te l'ai promis laisse moi faire Ton regard plein d fille j'en rêve ncore As-tu conscience de la puissance de nos corps J'en rêve encore J'en rêve encore Need your love baby Need your love Need your love baby Need your love Need your love baby Need your love Need your love baby Need your love Tu te sers et tout t'es permis T'as bu dans mon eau, j'tai laissé faire Tu sais bien que tu m'as fait souffrir Me planter dans le dos, je t'ai laissé faire, je t'ai laissé faire Des mouvements sexy, baby me Viens on se taille, monte à bord C'est souvent critique, il faut me Si je vends du sale c'est pour ton love Y'a tellement de , baby Viens on se taille, viens on sort J'pourrais être ton disciple, regard mistique Mais de moi t'es tombé love Need your love baby Need your love Need your love baby Need your love Need your love baby Need your love Need your love baby Need your love</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Six heure du mat' certains vont faire la salât D'autres rentrent à peine, décalage Cellule de dégrisement, en garde à vue, esclave du cool-al' Les chards-clo' au bord du canal, les apart' sont vides, c'est Paname Tu connais l'histoire est banale, après, chacun son courage T'as vu, papa n'est pas là, habite avec la soeurette La mama, la galère, les maraves qui chient, femmes de ménage Même manège depuis vingt ans, être la fierté du tron-pa' Et même pas celle de ses enfants, m'demande pas pourquoi Le mystère est chez l'Omnipotent Les autres sont plus importants On a niqué tout notre temps, posté, adossé au poto Roule un oint-j' akhi, que j'vois l'monde en vert kaki Encore rien construit, v'là mon Kari Nakir Midi du mat' j'suis debout, engraine le petit à bout Wesh la famille, le frelon, vas-y, roule ton petit mahboul Refait le monde en fumant, on joue les grands en mimant Excite les khabs en dealant, petit mais roi du ciment Embrouille, on part à cinquante, trop marrant, on veut du piment Mais re-frè', qu'est-ce qu'il se passe ? Rejoins nous, affaire de pilon Et la suite en dit long, la nuit nous malmenait Un visage, un nom, putain, le petit à bout Roule un oint-j' akhi, que j'vois l'monde en vert kaki Encore rien construit, v'là mon Kari Nakir You might also like Vingt heure le cri d'la daronne déchire le silence d'son fiston La cité crame des pim-pom, les habitants dépités Pourtant si gentil ce petit, dans les études est battant Les médias vont rappliquer, détourner un fait divers Faire flipper la France et nous la faire à l'envers D'toutes façons, ces gens ne comprennent pas notre univers Roule un oint-j' akhi, que j'vois l'monde en vert kaki Encore rien construit, v'là mon Kari Nakir Minuit chacun rentre chez soi après les condoléances En partant, qui japerçois ? Le petit roi du ciment Posté, adossé au poto Wesh la famille, le poto, vas-y, roule ton petit bédo Miskine, le petit, à bout, parti pour une vieille embrouille Au moins, lui, il avait des couilles Malgré tout ça, le courage n'suffit pas à éviter les douilles x2 J'ai grandi dans des allées, connu le trafic Me suis fait avaler, mais jamais fait d'fric Hé oui, j'ai pris du retard, gaspillé tout mon temps Le Diable fait des appels de phares en bas des bâtiments x2 Six heure du mat', certains vont faire la salât D'autres rentrent à peine, décalage Cellule de dégrisement, en garde à vue, esclave du cool-al' Les chards-clo' au bord du canal, les apart' sont vides, c'est Paname Tu connais l'histoire est banale, après, chacun son courage Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Six heure du mat' certains vont faire la salât D'autres rentrent à peine, décalage Cellule de dégrisement, en garde à vue, esclave du cool-al' Les chards-clo' au bord du canal, les apart' sont vides, c'est Paname Tu connais l'histoire est banale, après, chacun son courage T'as vu, papa n'est pas là, habite avec la soeurette La mama, la galère, les maraves qui chient, femmes de ménage Même manège depuis vingt ans, être la fierté du tron-pa' Et même pas celle de ses enfants, m'demande pas pourquoi Le mystère est chez l'Omnipotent Les autres sont plus importants On a niqué tout notre temps, posté, adossé au poto Roule un oint-j' akhi, que j'vois l'monde en vert kaki Encore rien construit, v'là mon Kari Nakir Midi du mat' j'suis debout, engraine le petit à bout Wesh la famille, le frelon, vas-y, roule ton petit mahboul Refait le monde en fumant, on joue les grands en mimant Excite les khabs en dealant, petit mais roi du ciment Embrouille, on part à cinquante, trop marrant, on veut du piment Mais re-frè', qu'est-ce qu'il se passe ? Rejoins nous, affaire de pilon Et la suite en dit long, la nuit nous malmenait Un visage, un nom, putain, le petit à bout Roule un oint-j' akhi, que j'vois l'monde en vert kaki Encore rien construit, v'là mon Kari Nakir Vingt heure le cri d'la daronne déchire le silence d'son fiston La cité crame des pim-pom, les habitants dépités Pourtant si gentil ce petit, dans les études est battant Les médias vont rappliquer, détourner un fait divers Faire flipper la France et nous la faire à l'envers D'toutes façons, ces gens ne comprennent pas notre univers Roule un oint-j' akhi, que j'vois l'monde en vert kaki Encore rien construit, v'là mon Kari Nakir Minuit chacun rentre chez soi après les condoléances En partant, qui japerçois ? Le petit roi du ciment Posté, adossé au poto Wesh la famille, le poto, vas-y, roule ton petit bédo Miskine, le petit, à bout, parti pour une vieille embrouille Au moins, lui, il avait des couilles Malgré tout ça, le courage n'suffit pas à éviter les douilles x2 J'ai grandi dans des allées, connu le trafic Me suis fait avaler, mais jamais fait d'fric Hé oui, j'ai pris du retard, gaspillé tout mon temps Le Diable fait des appels de phares en bas des bâtiments x2 Six heure du mat', certains vont faire la salât D'autres rentrent à peine, décalage Cellule de dégrisement, en garde à vue, esclave du cool-al' Les chards-clo' au bord du canal, les apart' sont vides, c'est Paname Tu connais l'histoire est banale, après, chacun son courage Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Oké Booska-P Cadeau, tiens J'sors de la mêlée, petit malin cris au malheur J'vais faire bouger tes nénés, un comprimé pour ton malaise J'ai pas encore démarré qu'on me dit H vas-y molo ! Enculé j'fais pas semblant, tu veux qu'on m'appelle le nulos ? Méli-mélo mets la barre au dessus, son fait pour les paros Paranoïaques, on se méfie des gens qu'ont trop d'apétit J'vous vois tous en tout petit, des lingots, non pas des pépites J'vais te faire une confidence, dans ton lavabo j'ai fait pipi T'sais pas j'suis qui ? Ma voix, mon flow te suffisent ! Maintenant j'aimerai bien savoir ce qu'est devenu Sully Sefil C'est peut-être un hippie ou bien millionaire en Sicile, ou même un képi Bref, j'm'égard, ça suffit Mais j'ai plus de respect pour lui que pour tous ces MCs cupides Qui n'ont pas un copec. Chocolat, pain Copé J'viens tout découper, à qui tu me compares ? Mmmh nice Nicki j'suis le daron de Chucky Insolent comme Schumi soudain je m'assoupi... ... Mon projet Violent, Mi Amor Fin de dream, on ne propose pas du riz à un mort Ça c'est du rap de rue, mais Raffiné T'es fasciné, bientôt j'suis dans le ciné T'es mort dans le film comme insulter un makoumé, oups ! Je viens de loin, don't say my name C'est pas moi qui l'ai dit, c'est Fif de Booska-P Tu viens de faire une grosse gaffe, t'es dans d'la buscopan Tu vas danser la samba Buscapé T'as pas cité, tu prieras Dieu pour qu'on te foute la paix J'suis Monumental, inimitable T'es pas Prêt, Efface mon Num j'vais t'faire mal au menton Le Rap parle. On m'enterre ? Parle à mon cul ! Alors, j'parle à ma Cour, on vous encule La Rap me craint comme Kim Jong Il Le Rap est mort comme le Bling dans le Dîn Paraît que ce qui marche, c'est les petits dandys J'fais les meilleurs clips dans le Game Si tu veux me test, bang-bang Chérie, j'te fais un clin d'oeil Dream On a l'Appât du gain, chouf' moi, j'suis Cobain Des clips, y a des gars, appelle-moi Erdogan Est-ce que tu vois ce que je vois ? Absolument ! Des Attrapes touristes, des assurances tous-risques MCs vous êtes dead, les pseudos rap puristes fait par des petits cheuris Bref, chacun sa story X X story T'as intérêt à te tirer, j'ai délaissé le terrain, j'rappe en interim Bwoo Bwoo Nique la Police ! J'te l'avais dit J'vais te biire Fin de Dream, mon projet est Dangereux You might also likeC'était mon tracklisting façon rap, j'espère que ça va vous plaire En tout cas, ça me plaît, c'est l'essentiel Et soudain j'm'assoupi J'suis narcoléptique, c'est pour ça Réveille-moi le 25 mars Paroles rédigées et annotées par la communauté française de Rap Genius1</t>
+          <t>Oké Booska-P Cadeau, tiens J'sors de la mêlée, petit malin cris au malheur J'vais faire bouger tes nénés, un comprimé pour ton malaise J'ai pas encore démarré qu'on me dit H vas-y molo ! Enculé j'fais pas semblant, tu veux qu'on m'appelle le nulos ? Méli-mélo mets la barre au dessus, son fait pour les paros Paranoïaques, on se méfie des gens qu'ont trop d'apétit J'vous vois tous en tout petit, des lingots, non pas des pépites J'vais te faire une confidence, dans ton lavabo j'ai fait pipi T'sais pas j'suis qui ? Ma voix, mon flow te suffisent ! Maintenant j'aimerai bien savoir ce qu'est devenu Sully Sefil C'est peut-être un hippie ou bien millionaire en Sicile, ou même un képi Bref, j'm'égard, ça suffit Mais j'ai plus de respect pour lui que pour tous ces MCs cupides Qui n'ont pas un copec. Chocolat, pain Copé J'viens tout découper, à qui tu me compares ? Mmmh nice Nicki j'suis le daron de Chucky Insolent comme Schumi soudain je m'assoupi... ... Mon projet Violent, Mi Amor Fin de dream, on ne propose pas du riz à un mort Ça c'est du rap de rue, mais Raffiné T'es fasciné, bientôt j'suis dans le ciné T'es mort dans le film comme insulter un makoumé, oups ! Je viens de loin, don't say my name C'est pas moi qui l'ai dit, c'est Fif de Booska-P Tu viens de faire une grosse gaffe, t'es dans d'la buscopan Tu vas danser la samba Buscapé T'as pas cité, tu prieras Dieu pour qu'on te foute la paix J'suis Monumental, inimitable T'es pas Prêt, Efface mon Num j'vais t'faire mal au menton Le Rap parle. On m'enterre ? Parle à mon cul ! Alors, j'parle à ma Cour, on vous encule La Rap me craint comme Kim Jong Il Le Rap est mort comme le Bling dans le Dîn Paraît que ce qui marche, c'est les petits dandys J'fais les meilleurs clips dans le Game Si tu veux me test, bang-bang Chérie, j'te fais un clin d'oeil Dream On a l'Appât du gain, chouf' moi, j'suis Cobain Des clips, y a des gars, appelle-moi Erdogan Est-ce que tu vois ce que je vois ? Absolument ! Des Attrapes touristes, des assurances tous-risques MCs vous êtes dead, les pseudos rap puristes fait par des petits cheuris Bref, chacun sa story X X story T'as intérêt à te tirer, j'ai délaissé le terrain, j'rappe en interim Bwoo Bwoo Nique la Police ! J'te l'avais dit J'vais te biire Fin de Dream, mon projet est Dangereux C'était mon tracklisting façon rap, j'espère que ça va vous plaire En tout cas, ça me plaît, c'est l'essentiel Et soudain j'm'assoupi J'suis narcoléptique, c'est pour ça Réveille-moi le 25 mars Paroles rédigées et annotées par la communauté française de Rap Genius1</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Chérie, donne-moi ton pe-sna J'vais faire tomber tes pe-sa J'suis avec saoulé à La Ciotat On a des frérots, on s'en tape Y a des dizaines de médisants J'suis aveugle aux regards des gens C'est la dixième sur le divan Y a la queue, le dream est til-gen Bété, Gagnoa, Lakota Elle est bien noire la teuka Un gros cul, elle n'a que ça Moi, ça me suffit, j'prends pas de face Faites le 17 ou j'vous décède Paris 20, les faits sont divers Tu t'es habitué à la défaite Paris Sud, les pieds sont ouverts Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba You might also like Mama, mama makossa, y a de la sale à la coca Dans les locaux de la lice-po, ça se danse du mapouka Elle veut un week-end, j'lui dis oui Mais je vais te graille comme un chicken J'suis Africain, j'suis pas 'ricain J'ai la lle-da comme un requin Ferme ta gueule, marche aux pas Showcase, donne-moi mon she-ca T'es tout pourri, sois pas paro Normal que ça ne marche pas Renoi, laisse-moi faire mes tickets Tu veux feater, faut t'appliquer J'suis de retour pour tout niquer Quartiers huppés à la cité Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant</t>
+          <t>Chérie, donne-moi ton pe-sna J'vais faire tomber tes pe-sa J'suis avec saoulé à La Ciotat On a des frérots, on s'en tape Y a des dizaines de médisants J'suis aveugle aux regards des gens C'est la dixième sur le divan Y a la queue, le dream est til-gen Bété, Gagnoa, Lakota Elle est bien noire la teuka Un gros cul, elle n'a que ça Moi, ça me suffit, j'prends pas de face Faites le 17 ou j'vous décède Paris 20, les faits sont divers Tu t'es habitué à la défaite Paris Sud, les pieds sont ouverts Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba Mama, mama makossa, y a de la sale à la coca Dans les locaux de la lice-po, ça se danse du mapouka Elle veut un week-end, j'lui dis oui Mais je vais te graille comme un chicken J'suis Africain, j'suis pas 'ricain J'ai la lle-da comme un requin Ferme ta gueule, marche aux pas Showcase, donne-moi mon she-ca T'es tout pourri, sois pas paro Normal que ça ne marche pas Renoi, laisse-moi faire mes tickets Tu veux feater, faut t'appliquer J'suis de retour pour tout niquer Quartiers huppés à la cité Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba Aribaribari, aribaribariba Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant Gatement eh, gatement puissant</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Go Fast x9 Ca va vous crâmer ! Fermez les tes-por, on passe les rapports J'mets tout le monde d'accord, comme Audi ou Raptor Changement de décors, handek kho ça décampe T'as besoin de renforts, mon pouce tient la détente Deuspi comme Go Fast, on veut crâmer la vie à 200 Vu que les freins sont niqués, c'est néfaste Derrière tout s'efface, on vient de très loin comme Get Back Le secteur est fliqué, c'est l'Népal On cache nos lacunes en gueulant, enjolive la galère Tous des fous du volant sans repère Une vie sans repos, entouré de rapaces Tu frimes, on te tabasse Du shit et du tabac Où les sentiments sont tabous, mal vus comme à Kaboul Un gant et la cagoule, tu craches ! Tu sais ce qu'il met dans son gros boule ? Du crack ! Tu sais ce qui peut nous pousser à bout ? Du cash ! Go Fast, Go Fast On joue avec nos vies comme au Tiercé nigga Go Fast, Go Fast Tu peux pas nous doubler, trop de fierté nigga Go Fast, Go Fast Tu veux de l'adrénaline, mets toi à ma ligne nigga Go Fast, Go Fast Go Fast, Go Fast You might also like Discret mais tricar, respecté au tiéquar Vois l'appel de phares, rabats toi que j'dépasse On est tous endettés, le dounia c'est tentant On veut tous, tout de suite, c'est dommage, on toncar La vie nous égare, une montagne pour égo Une vision de motard, une montagne de mégots On s'est vu délaisser la mifa, la vie nous méfu Ma foi, mon frère j'suis déçu Car c'était mieux dans les débuts Les teushmi déboulent, des fois, bousculent ta ronne-da Affaire de stups et de biftons Sur la fil de gauche, reufton, la gangraine du béton Haineux, crapuleux comme personne Recalés, on persiste. Drive-by aux portails Dix purs sang étalés, fiers de nos allers 20ème a-zeu-lé Hola ! Yencli, le style est salé Car jusqu'à Clicli, je vais pas m'laisser aller Même dans un clibcli appelle moi Barrichello Conso sous célo' T'as réservé un tel-ho Pour toi et Pamela, gros mytho t'es solo Fais péter la sono, gaffe, pas un tonneau On court après le chrono Plus le temps de se kiffer et de demander ton nom Vite fait te niquer ou démonter ton homme Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Go Fast x9 Ca va vous crâmer ! Fermez les tes-por, on passe les rapports J'mets tout le monde d'accord, comme Audi ou Raptor Changement de décors, handek kho ça décampe T'as besoin de renforts, mon pouce tient la détente Deuspi comme Go Fast, on veut crâmer la vie à 200 Vu que les freins sont niqués, c'est néfaste Derrière tout s'efface, on vient de très loin comme Get Back Le secteur est fliqué, c'est l'Népal On cache nos lacunes en gueulant, enjolive la galère Tous des fous du volant sans repère Une vie sans repos, entouré de rapaces Tu frimes, on te tabasse Du shit et du tabac Où les sentiments sont tabous, mal vus comme à Kaboul Un gant et la cagoule, tu craches ! Tu sais ce qu'il met dans son gros boule ? Du crack ! Tu sais ce qui peut nous pousser à bout ? Du cash ! Go Fast, Go Fast On joue avec nos vies comme au Tiercé nigga Go Fast, Go Fast Tu peux pas nous doubler, trop de fierté nigga Go Fast, Go Fast Tu veux de l'adrénaline, mets toi à ma ligne nigga Go Fast, Go Fast Go Fast, Go Fast Discret mais tricar, respecté au tiéquar Vois l'appel de phares, rabats toi que j'dépasse On est tous endettés, le dounia c'est tentant On veut tous, tout de suite, c'est dommage, on toncar La vie nous égare, une montagne pour égo Une vision de motard, une montagne de mégots On s'est vu délaisser la mifa, la vie nous méfu Ma foi, mon frère j'suis déçu Car c'était mieux dans les débuts Les teushmi déboulent, des fois, bousculent ta ronne-da Affaire de stups et de biftons Sur la fil de gauche, reufton, la gangraine du béton Haineux, crapuleux comme personne Recalés, on persiste. Drive-by aux portails Dix purs sang étalés, fiers de nos allers 20ème a-zeu-lé Hola ! Yencli, le style est salé Car jusqu'à Clicli, je vais pas m'laisser aller Même dans un clibcli appelle moi Barrichello Conso sous célo' T'as réservé un tel-ho Pour toi et Pamela, gros mytho t'es solo Fais péter la sono, gaffe, pas un tonneau On court après le chrono Plus le temps de se kiffer et de demander ton nom Vite fait te niquer ou démonter ton homme Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Je viens de loin, des rêves, un sachet d'eau, une banane flambée Chaque soir j'm'endors et dans mes cauchemars je vois Paname flamber J'ai toujours suivi mon destin sans mettre à gauche un plan B J'me souviens quand j'cirai des pompes au bled, mes potes me chambraient J'suis pas un homme pour certain, mais j'suis l'héros de mon père J'veux m'assagir avant qu'on m'enterre Quand j'vois les p'tits qui meurent de faim, c'est un peu d'mon sang qu'on enterre J'suis un enfant de l'Afrique, enfoiré de ton diamantaire Je brille la nuit, je vise le haut d'la pyramide Un cur brisé en céramique par des gens qu'on appelle ami Ourthi, tsunami, j'ai connu la tyrannie Si tu penses voir pire en elle, j'm'accroche un bâton d'dynamite Tu sais... Je viens de loin, je viens d'ailleurs Mais j'n'ai pas oublié Les coups, le poids de tous mes malheurs J'y étais destiné Mes choix, mes combats J'ai dû les assumer La nuit tombe, et je revois Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Berceau du tout premier dream You might also like J'ai mangé dans des poubelles des restes de p'tits appétits P't-être mes années les plus belles, jeunes avec un gros appétit Le frigo n'était jamais vide, juste qu'il nexistait pas Alors j'te parle même pas du jour où j'ai vu Disney Parc Le bidon ville de mon père surnommé Gotham City A babi-Côte d'Ivoire tout l'monde ne dînait pas Donc j'ai pas l'droit à l'échec, le daron n's'en remettrai pas J'écris mon dream sur des feuilles blanches mais le bif' n'y est pas Dîn, Mekka, l'autre pieds dans l'vis m'écarte Ma foi guide mes pas, ce soir je vide mon sac Chaque fois que j'pense à ma sur, j'ai des larmes qui glissent et partent Triste départ... Je viens de loin, je viens d'ailleurs Mais j'n'ai pas oublié Les coups, le poids de tous mes malheurs J'y étais destiné Mes choix, mes combats J'ai dû les assumer La nuit tombe, et je revois Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Berceau du tout premier dream Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Berceau du tout premier dream1</t>
+          <t>Je viens de loin, des rêves, un sachet d'eau, une banane flambée Chaque soir j'm'endors et dans mes cauchemars je vois Paname flamber J'ai toujours suivi mon destin sans mettre à gauche un plan B J'me souviens quand j'cirai des pompes au bled, mes potes me chambraient J'suis pas un homme pour certain, mais j'suis l'héros de mon père J'veux m'assagir avant qu'on m'enterre Quand j'vois les p'tits qui meurent de faim, c'est un peu d'mon sang qu'on enterre J'suis un enfant de l'Afrique, enfoiré de ton diamantaire Je brille la nuit, je vise le haut d'la pyramide Un cur brisé en céramique par des gens qu'on appelle ami Ourthi, tsunami, j'ai connu la tyrannie Si tu penses voir pire en elle, j'm'accroche un bâton d'dynamite Tu sais... Je viens de loin, je viens d'ailleurs Mais j'n'ai pas oublié Les coups, le poids de tous mes malheurs J'y étais destiné Mes choix, mes combats J'ai dû les assumer La nuit tombe, et je revois Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Berceau du tout premier dream J'ai mangé dans des poubelles des restes de p'tits appétits P't-être mes années les plus belles, jeunes avec un gros appétit Le frigo n'était jamais vide, juste qu'il nexistait pas Alors j'te parle même pas du jour où j'ai vu Disney Parc Le bidon ville de mon père surnommé Gotham City A babi-Côte d'Ivoire tout l'monde ne dînait pas Donc j'ai pas l'droit à l'échec, le daron n's'en remettrai pas J'écris mon dream sur des feuilles blanches mais le bif' n'y est pas Dîn, Mekka, l'autre pieds dans l'vis m'écarte Ma foi guide mes pas, ce soir je vide mon sac Chaque fois que j'pense à ma sur, j'ai des larmes qui glissent et partent Triste départ... Je viens de loin, je viens d'ailleurs Mais j'n'ai pas oublié Les coups, le poids de tous mes malheurs J'y étais destiné Mes choix, mes combats J'ai dû les assumer La nuit tombe, et je revois Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Berceau du tout premier dream Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Gotham City, Gotham City Berceau du tout premier dream1</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Depuis tout ce temps qu'on tourne en rond On veut la moula pour mettre dans les tarots Je suis pas distant j'ai les bras longs Je peux te faire mouiller en étant au salon J'ai l'air super méchant eh Mais j'ai beaucoup trop souffert, je ne sais plus rigoler eh Toi tu comptes sur les gens, je ne compte que sur mes couilles et mes pistolets Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou J'ai pris la Kichta le compte est bon J'ai rechargé ma guitare mais au fond c'st bon C'est pas la faute à Cupidon Si tu prends pas mon cur t'auras qu le bidon Je respire encore, malgré vos coups bas je respire encore yéi yéi Je sais que tu m'entends, oui c'est toi que je désire encore You might also like Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Je respire encore, malgré vos coups bas je respire encore yéi yéi Je sais que tu m'entends, oui c'est toi que je désire encore</t>
+          <t>Depuis tout ce temps qu'on tourne en rond On veut la moula pour mettre dans les tarots Je suis pas distant j'ai les bras longs Je peux te faire mouiller en étant au salon J'ai l'air super méchant eh Mais j'ai beaucoup trop souffert, je ne sais plus rigoler eh Toi tu comptes sur les gens, je ne compte que sur mes couilles et mes pistolets Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou J'ai pris la Kichta le compte est bon J'ai rechargé ma guitare mais au fond c'st bon C'est pas la faute à Cupidon Si tu prends pas mon cur t'auras qu le bidon Je respire encore, malgré vos coups bas je respire encore yéi yéi Je sais que tu m'entends, oui c'est toi que je désire encore Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Baby Girl Goudou goudou gou Je respire encore, malgré vos coups bas je respire encore yéi yéi Je sais que tu m'entends, oui c'est toi que je désire encore</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>.You might also like</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>El mero mero Ocho ocho Hmmm Y'a du monde comme à Coachella tu sais tchikca J'fais du sale comme dans gGomorra tu sais tchikca Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro Aaah me gusta Aaah me gusta Aaah me gusta Passe ton numéro Viens j'fais te faire voyager toutes les semaines Avec moi tu seras toujours toi même T'inquiète y'a tchi pas d'histoire de peine Allons chez Givenchy juste après chez Céline C'est pas évident de te parler Tu sais que je suis séduisant tout est carré Le regard des gens on s'en bas les Je ne serais jamais ton confident j'suis pas taré Y'a du monde comme à Coachella tu sais chica J'fais du sale comme dans Gomorra tu sais chica Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro Aaah me gusta Aaah me gusta Aaah me gusta Aaah Passe ton numéro You might also likeTu sais que le billet parle en français Et j'ai du biff à dépenser N'écoute pas ce qu'ils disent Je sais pas chanté J'sui juste un djizz un peu branché D'où je viens nous on supporte pas la défaite Et pour la mettre bien il faut qu'elle est au moins des fesses Ici C'est pas évident de te parler Tu sais que tu es séduisante tout est carré Mais tous ces gens de quoi ils se mêlent Tu sais les hommes c'est pas tous les mêmes Moi je viens effacer toutes tes peines N'hésite pas Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro Aaah me gusta Aaah me gusta Aaah me gusta Aaah Passe ton numéro1</t>
+          <t>El mero mero Ocho ocho Hmmm Y'a du monde comme à Coachella tu sais tchikca J'fais du sale comme dans gGomorra tu sais tchikca Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro Aaah me gusta Aaah me gusta Aaah me gusta Passe ton numéro Viens j'fais te faire voyager toutes les semaines Avec moi tu seras toujours toi même T'inquiète y'a tchi pas d'histoire de peine Allons chez Givenchy juste après chez Céline C'est pas évident de te parler Tu sais que je suis séduisant tout est carré Le regard des gens on s'en bas les Je ne serais jamais ton confident j'suis pas taré Y'a du monde comme à Coachella tu sais chica J'fais du sale comme dans Gomorra tu sais chica Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro Aaah me gusta Aaah me gusta Aaah me gusta Aaah Passe ton numéro Tu sais que le billet parle en français Et j'ai du biff à dépenser N'écoute pas ce qu'ils disent Je sais pas chanté J'sui juste un djizz un peu branché D'où je viens nous on supporte pas la défaite Et pour la mettre bien il faut qu'elle est au moins des fesses Ici C'est pas évident de te parler Tu sais que tu es séduisante tout est carré Mais tous ces gens de quoi ils se mêlent Tu sais les hommes c'est pas tous les mêmes Moi je viens effacer toutes tes peines N'hésite pas Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro, incognito Passe ton numéro Aaah me gusta Aaah me gusta Aaah me gusta Aaah Passe ton numéro1</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Millésime gris, autour c'est le fracas Les Écrits peuvent empoisonner ton fé-ca Le feu au cul, on te sort du véhicule Du pécule tout de suite ou tu t'manges un uppercut On t'perquise avant que tu percutes Tu pleures, sues, cris à l'aide, mauvais soir y a personne miskine On s'persuade, tu mérites un perfect On se sent fort, à marave un père faible Agile, de nos jours c'est la jungle Un pointar dans la joue et tu chies et jappe Y a plus de Raison, après le jour, dans la rue, c'est la junte Le Pacte a prit le pas sur le Haqq Prend peur face au 47 AK Défoncés, on te croise, on commence la traque T'as tourné ? Pas de chance, c'est un cul de sac H Magnum Rafales Bienvenue dans mon globe Instinct de fauve Paroles rédigées et annotées par la communauté française de Rap GeniusYou might also like</t>
+          <t>Millésime gris, autour c'est le fracas Les Écrits peuvent empoisonner ton fé-ca Le feu au cul, on te sort du véhicule Du pécule tout de suite ou tu t'manges un uppercut On t'perquise avant que tu percutes Tu pleures, sues, cris à l'aide, mauvais soir y a personne miskine On s'persuade, tu mérites un perfect On se sent fort, à marave un père faible Agile, de nos jours c'est la jungle Un pointar dans la joue et tu chies et jappe Y a plus de Raison, après le jour, dans la rue, c'est la junte Le Pacte a prit le pas sur le Haqq Prend peur face au 47 AK Défoncés, on te croise, on commence la traque T'as tourné ? Pas de chance, c'est un cul de sac H Magnum Rafales Bienvenue dans mon globe Instinct de fauve Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même J'suis bon qu'à remettre le game à sa place On voit qui porte le maillot de bain Quand la mer est basse Débrouillard n place Voiturier palace Rmballe tes tchoins dégueulasse Tapine que les grosses feniasses Tout cela paraît irréel Accroché par les schmits Sans éléments matériel La street parle, la street j'suis la version officielle Leur carrière sous respiration artificielle You might also likeJ'astique mon étoile comme la caisse d'un antillais On enterre le 94 qu'au cimetière de Thiais Tu joues le sheikh d'Abu Dhabi au moindre petit billet Tu rêves de décrocher mes couilles mais j'suis pas ton cocotier Comme 2 Pac ciblé, J'suis un RS4 bipé Ils font du bruit mais n'avancent pas comme un chrysler pimpé Beauté, typé, quelques braqueurs de fourgon Garde ta ce-for j'ai le respect de toutes les prisons J'ai du bagage comme Louis Vuitton, je vais là ou le biff m'amène Je fil un mauvais coton, j'suis esclave de moi même J'suis un putain de killer, je peux en mourir ce soir même H Magnum dis leur, qu'on ne peut compter que sur soi même J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même Ce que j'ai je le mérite Je n'ai aucun dossier sur le dos J'écris dans mon bolide J'suis dans ma bulle et j'évite de sortir sans l'Odo C'est dingue tout va si vite Y'a pas si longtemps c'est toi qui faisais le beau Aujourd'hui tu ne brilles plus, tu ne brilles plus Ils t'ont tous tourné le dos Y'a du sang sur le parvis Ils ont fini par te faire la peau Bienvenue dans ma rue, y'a rien de nouveau J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même</t>
+          <t>J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même J'suis bon qu'à remettre le game à sa place On voit qui porte le maillot de bain Quand la mer est basse Débrouillard n place Voiturier palace Rmballe tes tchoins dégueulasse Tapine que les grosses feniasses Tout cela paraît irréel Accroché par les schmits Sans éléments matériel La street parle, la street j'suis la version officielle Leur carrière sous respiration artificielle J'astique mon étoile comme la caisse d'un antillais On enterre le 94 qu'au cimetière de Thiais Tu joues le sheikh d'Abu Dhabi au moindre petit billet Tu rêves de décrocher mes couilles mais j'suis pas ton cocotier Comme 2 Pac ciblé, J'suis un RS4 bipé Ils font du bruit mais n'avancent pas comme un chrysler pimpé Beauté, typé, quelques braqueurs de fourgon Garde ta ce-for j'ai le respect de toutes les prisons J'ai du bagage comme Louis Vuitton, je vais là ou le biff m'amène Je fil un mauvais coton, j'suis esclave de moi même J'suis un putain de killer, je peux en mourir ce soir même H Magnum dis leur, qu'on ne peut compter que sur soi même J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même Ce que j'ai je le mérite Je n'ai aucun dossier sur le dos J'écris dans mon bolide J'suis dans ma bulle et j'évite de sortir sans l'Odo C'est dingue tout va si vite Y'a pas si longtemps c'est toi qui faisais le beau Aujourd'hui tu ne brilles plus, tu ne brilles plus Ils t'ont tous tourné le dos Y'a du sang sur le parvis Ils ont fini par te faire la peau Bienvenue dans ma rue, y'a rien de nouveau J'ai vu maman frissonner Quand on lui a dit que les flics sonnaient Mes gars tombés du sommet Et moi j'ai perdu le sommeil On n'a pas la même vision Prison, j'vois des frérots isolés Le physio me soupçonnait Pourtant j'ai du cash sur moi T'as pas assez de moyens pour Vuitton Bifton, tu veux faire tout est sous ton nez Personne ne va te pistonner Tu ne peux compter que sur toi-même</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>FABABY Couplet 1 Malgré tous mes doutes, mes mélodies ne soit pas comme moi Moi jai vu lAfrique génocide, faut voir mieux comme moi Le voisin den bas est un peu pris tous comme au fond de moi Elle me dit quelle maime et quelle veut partir mais cest mieux comme sa Cest vrai le temps sera long mais un peu sûr cest pas fini oh Cest vrai le temps sera long mais un peu dur cest pas fini oh Ivoirien dans bar comm Fitini moi je voulais chanter Mon papa ma dit quil est minuit Jvais dvoir rentrer Refrain Ivoirien est chaud, Cest pas fini Ivoirien est chaud Pas que la nuit Oui Paris cest beau Oui comme Babi Ivoirien est chaud Te fâche pas cest ainsi HMAGNUM Couplet 2 Maman de son corps de zoblazo, elle na pas changer Attiéké poisson thon, banane plantain mon gas vient manger 225 sur le blason on va se manger, on va samender Alors jai pas ton temps Jsuis dans le bassin et là je men vais Chérie si tu doute pour maman cest comme sa tu va loin x2 Cest maman qui a raison, jsuis bien trop loin de là maison eeeh Ta mit mon coeur en prison et jai perdu la raison eeeehh Jai pas finiiiiiiiiiiii Jétais minnciiiii You might also likeRefrain Ivoirien est chaud, Cest pas fini Ivoirien est chaud Pas que la nuit Oui Paris cest beau Oui comme Babi Ivoirien est chaud Te fâche pas cest ainsi MOSTY Couplet 3 Que de sal, beaucoup de force, beaucoup de talent, beaucoup de respect Si tu me Bognan, moi ye te bognan On va leur fait chier, je veux la monnaie du maille eh Ils veulent déposer les armes eh Côte dIvoire faut nous tester Eeehy nous on est moussé, attachement cest notre gouté Côte divoire sa cest la journée Abidjan sa cest la nuit tchai Choco cava chauffer Que de la gestuelle, Appelé mon ga Tous ce baçalor Djessimidje djessimidje, djessimidjeka eeeh Gouatananmo, Gouatananmo, Gouatananmo eeeh eeeh Jai pas fini, cétait Mosty Refrain Ivoirien est chaud, Cest pas fini Ivoirien est chaud Pas que la nuit Oui Paris cest beau Oui comme Babi Ivoirien est chaud Te fâche pas cest ainsi Mon frère dit Alewiyo, le mien dit Alewiya Le frère dit Alewiyo, le mien dit Alewiya On nest pas même ..., on est pas même baille Le cur dit Alewiyo, le mien dit Alewiya Aaaaaaahhh cest pas fini Aaaaahhhh aah aaaaah pas que la nuit Aaaahh ahhh oui comme Babi Aaaah aaaah te fâche pas cest tainsi</t>
+          <t>FABABY Couplet 1 Malgré tous mes doutes, mes mélodies ne soit pas comme moi Moi jai vu lAfrique génocide, faut voir mieux comme moi Le voisin den bas est un peu pris tous comme au fond de moi Elle me dit quelle maime et quelle veut partir mais cest mieux comme sa Cest vrai le temps sera long mais un peu sûr cest pas fini oh Cest vrai le temps sera long mais un peu dur cest pas fini oh Ivoirien dans bar comm Fitini moi je voulais chanter Mon papa ma dit quil est minuit Jvais dvoir rentrer Refrain Ivoirien est chaud, Cest pas fini Ivoirien est chaud Pas que la nuit Oui Paris cest beau Oui comme Babi Ivoirien est chaud Te fâche pas cest ainsi HMAGNUM Couplet 2 Maman de son corps de zoblazo, elle na pas changer Attiéké poisson thon, banane plantain mon gas vient manger 225 sur le blason on va se manger, on va samender Alors jai pas ton temps Jsuis dans le bassin et là je men vais Chérie si tu doute pour maman cest comme sa tu va loin x2 Cest maman qui a raison, jsuis bien trop loin de là maison eeeh Ta mit mon coeur en prison et jai perdu la raison eeeehh Jai pas finiiiiiiiiiiii Jétais minnciiiii Refrain Ivoirien est chaud, Cest pas fini Ivoirien est chaud Pas que la nuit Oui Paris cest beau Oui comme Babi Ivoirien est chaud Te fâche pas cest ainsi MOSTY Couplet 3 Que de sal, beaucoup de force, beaucoup de talent, beaucoup de respect Si tu me Bognan, moi ye te bognan On va leur fait chier, je veux la monnaie du maille eh Ils veulent déposer les armes eh Côte dIvoire faut nous tester Eeehy nous on est moussé, attachement cest notre gouté Côte divoire sa cest la journée Abidjan sa cest la nuit tchai Choco cava chauffer Que de la gestuelle, Appelé mon ga Tous ce baçalor Djessimidje djessimidje, djessimidjeka eeeh Gouatananmo, Gouatananmo, Gouatananmo eeeh eeeh Jai pas fini, cétait Mosty Refrain Ivoirien est chaud, Cest pas fini Ivoirien est chaud Pas que la nuit Oui Paris cest beau Oui comme Babi Ivoirien est chaud Te fâche pas cest ainsi Mon frère dit Alewiyo, le mien dit Alewiya Le frère dit Alewiyo, le mien dit Alewiya On nest pas même ..., on est pas même baille Le cur dit Alewiyo, le mien dit Alewiya Aaaaaaahhh cest pas fini Aaaaahhhh aah aaaaah pas que la nuit Aaaahh ahhh oui comme Babi Aaaah aaaah te fâche pas cest tainsi</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Han, de la loka Bébé tu me trompes, je le savais je le savais, je le savais, il t'appelle mon agoni Tu lui as donné mon trône et un taser et un taser, et un taser, dis-moi ce qu'il t'a promis Tu faisais la tronche quand je paniquais tu me traites de tho-my Toi qui espionnais mon smartphone au laser oui au laser, oui au laser, sûrement pour trouver un compromis, ah Le malheur est bien habillé, le bonheur m'a dit On m'achète pas on m'achète pas Mon honneur est tellement souillé que mes larmes ont dit On ne sèche pas tellement pleuré Ma tristesse est maquillée donc mon Instagram ne le sait pas J'essaye de tout oublier mais mon cur me dit Je ne peux pas Je pense qu'on s'est tout dit C'est fini je pense qu'on s'est tout dit, babe Je pense qu'on s'est tout dit, oh C'est fini je pense qu'on s'est tout dit, babe On m'a dit de me méfier mais l'amour m'a dit ne l'écoute pas ce mec est jaloux C'était ton pied mon pied, t'as coupé le mien au premier pas aie Dans ma tête un bourbier, j'dois couper les ponts je n'y arrive pas j'suis pas à genoux J'suis maudit j'étais tellement fier de crier partout que t'étais à moi You might also like Je ne sais même plus quoi faire faire Je ne sais même plus quoi dire dire Tu n'étais pas donc sincère ah ouais, ouais Je ne sais même plus quoi faire faire Je ne sais même plus quoi dire dire Tu n'étais pas donc sincère sincère, sincère, sincère Bébé tu me trompes, je le savais je le savais, je le savais, il t'appelle mon agoni Tu lui as donné mon trône et un taser et un taser, et un taser, dis-moi ce qu'il t'a promis Tu faisais la tronche quand je paniquais tu me traites de tho-my Toi qui espionnais mon smartphone au laser oui au laser, oui au laser, sûrement pour trouver un compromis, ah Je pense qu'on s'est tout dit C'est fini je pense qu'on s'est tout dit, babe Je pense qu'on s'est tout dit, oh C'est fini je pense qu'on s'est tout dit, babe Bébé tu me trompes, je le savais je le savais, je le savais, il t'appelle mon agoni Tu lui as donné mon trône et un taser et un taser, et un taser, dis-moi ce qu'il t'a promis Tu faisais la tronche quand je paniquais tu me traites de tho-my Toi qui espionnais mon smartphone au laser oui au laser, oui au laser, sûrement pour trouver un compromis, ah Je pense qu'on s'est tout dit C'est fini je pense qu'on s'est tout dit</t>
+          <t>Han, de la loka Bébé tu me trompes, je le savais je le savais, je le savais, il t'appelle mon agoni Tu lui as donné mon trône et un taser et un taser, et un taser, dis-moi ce qu'il t'a promis Tu faisais la tronche quand je paniquais tu me traites de tho-my Toi qui espionnais mon smartphone au laser oui au laser, oui au laser, sûrement pour trouver un compromis, ah Le malheur est bien habillé, le bonheur m'a dit On m'achète pas on m'achète pas Mon honneur est tellement souillé que mes larmes ont dit On ne sèche pas tellement pleuré Ma tristesse est maquillée donc mon Instagram ne le sait pas J'essaye de tout oublier mais mon cur me dit Je ne peux pas Je pense qu'on s'est tout dit C'est fini je pense qu'on s'est tout dit, babe Je pense qu'on s'est tout dit, oh C'est fini je pense qu'on s'est tout dit, babe On m'a dit de me méfier mais l'amour m'a dit ne l'écoute pas ce mec est jaloux C'était ton pied mon pied, t'as coupé le mien au premier pas aie Dans ma tête un bourbier, j'dois couper les ponts je n'y arrive pas j'suis pas à genoux J'suis maudit j'étais tellement fier de crier partout que t'étais à moi Je ne sais même plus quoi faire faire Je ne sais même plus quoi dire dire Tu n'étais pas donc sincère ah ouais, ouais Je ne sais même plus quoi faire faire Je ne sais même plus quoi dire dire Tu n'étais pas donc sincère sincère, sincère, sincère Bébé tu me trompes, je le savais je le savais, je le savais, il t'appelle mon agoni Tu lui as donné mon trône et un taser et un taser, et un taser, dis-moi ce qu'il t'a promis Tu faisais la tronche quand je paniquais tu me traites de tho-my Toi qui espionnais mon smartphone au laser oui au laser, oui au laser, sûrement pour trouver un compromis, ah Je pense qu'on s'est tout dit C'est fini je pense qu'on s'est tout dit, babe Je pense qu'on s'est tout dit, oh C'est fini je pense qu'on s'est tout dit, babe Bébé tu me trompes, je le savais je le savais, je le savais, il t'appelle mon agoni Tu lui as donné mon trône et un taser et un taser, et un taser, dis-moi ce qu'il t'a promis Tu faisais la tronche quand je paniquais tu me traites de tho-my Toi qui espionnais mon smartphone au laser oui au laser, oui au laser, sûrement pour trouver un compromis, ah Je pense qu'on s'est tout dit C'est fini je pense qu'on s'est tout dit</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Yeah Shish Let's get it Eh mucho Hi yeah eh eh, eh En plein milieux de la nuit elle m'a dit T'es où ? Viens me souper allo J'lui ai répondu Si je viens, ton gadjo il va sauter j'arrive Je l'ai laissé au tel-hô allongé sur le côté K.O Je l'avais prévenu mais la go n'a pas voulu écouter ah Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter La nuit il fait noir donc toutes les chattes sont grises Elle a pris du poids igo, faut pas qu'elle maigrisse J'vais lui faire des folies, sur mon dos y aura ses griffes Au volant du bolide sans permis ni carte grise Cheveux longs, oui elle a Se met en deux fois, elle Pour pas tomber du héli', il faut bien que je m'aggripe Si mamacita, si mamacita Si mamacita, j'vais te faire une dinguerie You might also like En plein milieux de la nuit elle m'a dit T'es où ? Viens me souper allo J'lui ai répondu Si je viens, ton gadjo il va sauter j'arrive Je l'ai laissé au tel-hô allongé sur le côté K.O Je l'avais prévenu mais la go n'a pas voulu écouter ah Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter Sous-vêtement rouge, oui parce qu'elle sait que j'aime le rouge Premier, deuxième round, elle dit qu'elle m'aime, qu'elle veut rompre Trois heures sur ma Rolex, son mec s'appelle Alex Alex, son futur ex a la même heure sur sa Casio J'suis dans la sista prise mais la guitare Crie dans l'habitat, j'ai craqué sa lingerie Si mamacita, si mamacita Si mamacita, j'vais te faire une dinguerie En plein milieux de la nuit elle m'a dit T'es où ? Viens me souper allo J'lui ai répondu Si je viens, ton gadjo il va sauter j'arrive Je l'ai laissé au tel-hô allongé sur le côté K.O Je l'avais prévenu mais la go n'a pas voulu écouter ah Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter</t>
+          <t>Yeah Shish Let's get it Eh mucho Hi yeah eh eh, eh En plein milieux de la nuit elle m'a dit T'es où ? Viens me souper allo J'lui ai répondu Si je viens, ton gadjo il va sauter j'arrive Je l'ai laissé au tel-hô allongé sur le côté K.O Je l'avais prévenu mais la go n'a pas voulu écouter ah Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter La nuit il fait noir donc toutes les chattes sont grises Elle a pris du poids igo, faut pas qu'elle maigrisse J'vais lui faire des folies, sur mon dos y aura ses griffes Au volant du bolide sans permis ni carte grise Cheveux longs, oui elle a Se met en deux fois, elle Pour pas tomber du héli', il faut bien que je m'aggripe Si mamacita, si mamacita Si mamacita, j'vais te faire une dinguerie En plein milieux de la nuit elle m'a dit T'es où ? Viens me souper allo J'lui ai répondu Si je viens, ton gadjo il va sauter j'arrive Je l'ai laissé au tel-hô allongé sur le côté K.O Je l'avais prévenu mais la go n'a pas voulu écouter ah Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter Sous-vêtement rouge, oui parce qu'elle sait que j'aime le rouge Premier, deuxième round, elle dit qu'elle m'aime, qu'elle veut rompre Trois heures sur ma Rolex, son mec s'appelle Alex Alex, son futur ex a la même heure sur sa Casio J'suis dans la sista prise mais la guitare Crie dans l'habitat, j'ai craqué sa lingerie Si mamacita, si mamacita Si mamacita, j'vais te faire une dinguerie En plein milieux de la nuit elle m'a dit T'es où ? Viens me souper allo J'lui ai répondu Si je viens, ton gadjo il va sauter j'arrive Je l'ai laissé au tel-hô allongé sur le côté K.O Je l'avais prévenu mais la go n'a pas voulu écouter ah Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter no no Hi yeah lé lé, tu n'as pas voulu écouter</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Notre mariage sera beau, sur le dos dun cheval blanc Jtai promis la Lune, jtai offert des cheveux blancs Jsuis pas tombé de haut, habibti jsuis tombé bas Dur de trouver les mots, la rue ma fait une panenka Jai toujours eu le sombre rôle, jai même eu honte de tprendre des roses Je vois les cicatrices que tu caches sous ta belle robe Parfois tu ttrouvais moche, tattendais que jte rassure Mais jtrouvais ça inutile, comme de peindre une tombe en rose Jte revois à lépoque, pudique, unique, avec ta belle tunique Jme suis dit vas-y, essaye dla baratiner Mais mon cur ma pris dvitesse devant ton beau sourire Et jai affronté ton daron froid comme un martinet Jvoulais te voir porter mes gosses, heureuse pendant quje bosse À deux sur tous les doss, ton dû serait ton dû Mon dû serait le nôtre Et quand la vie serait tendue on ferait face en kimono Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil Jai connu que la rue, moi jai connu que la street Tu mas sorti du noir, des ambiances des clubs de strip Froid comme la Mer du Nord, souvent dans des bad trips Malgré une mère en or et un beau-père strict Les hypocrites oukhty tont dit trop dtrucs Jsuis pas lmeilleur des hommes, jrépète son nom quand jprie Occupez-vous de vos fesses, de vos vies dordures Au lieu de remuer la merde comme des vide-ordures Tes comme ma deuxième sur, je te confiais mes peurs Tu mas ouvert ta porte et jtai dépouillé le cur Jsuis posé dans le block, avec les potes on stape des barres Et puis soudain je bloque, jme remémore que tu te barres Des années à construire, une minute à détruire Deux-trois putes à comprendre que lamour na pas dprix Et quand tu ttrouvais moche, tattendais que jte rassure Mais jtrouvais ça inutile, comme de peindre une tombe en rose You might also like Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil Non je ne suis pas un super-héros Jsuis têtu comme un taureau Et jnai jamais voulu tfaire de mal Moi jai toujours suivi ma nia, ma nia Non je ne suis pas un super-héros Jsuis têtu comme un taureau Et jnai jamais voulu tfaire de mal Moi jai toujours suivi ma nia, ma nia Jsuis pas lmeilleur des hommes Oukhty Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil1</t>
+          <t>Notre mariage sera beau, sur le dos dun cheval blanc Jtai promis la Lune, jtai offert des cheveux blancs Jsuis pas tombé de haut, habibti jsuis tombé bas Dur de trouver les mots, la rue ma fait une panenka Jai toujours eu le sombre rôle, jai même eu honte de tprendre des roses Je vois les cicatrices que tu caches sous ta belle robe Parfois tu ttrouvais moche, tattendais que jte rassure Mais jtrouvais ça inutile, comme de peindre une tombe en rose Jte revois à lépoque, pudique, unique, avec ta belle tunique Jme suis dit vas-y, essaye dla baratiner Mais mon cur ma pris dvitesse devant ton beau sourire Et jai affronté ton daron froid comme un martinet Jvoulais te voir porter mes gosses, heureuse pendant quje bosse À deux sur tous les doss, ton dû serait ton dû Mon dû serait le nôtre Et quand la vie serait tendue on ferait face en kimono Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil Jai connu que la rue, moi jai connu que la street Tu mas sorti du noir, des ambiances des clubs de strip Froid comme la Mer du Nord, souvent dans des bad trips Malgré une mère en or et un beau-père strict Les hypocrites oukhty tont dit trop dtrucs Jsuis pas lmeilleur des hommes, jrépète son nom quand jprie Occupez-vous de vos fesses, de vos vies dordures Au lieu de remuer la merde comme des vide-ordures Tes comme ma deuxième sur, je te confiais mes peurs Tu mas ouvert ta porte et jtai dépouillé le cur Jsuis posé dans le block, avec les potes on stape des barres Et puis soudain je bloque, jme remémore que tu te barres Des années à construire, une minute à détruire Deux-trois putes à comprendre que lamour na pas dprix Et quand tu ttrouvais moche, tattendais que jte rassure Mais jtrouvais ça inutile, comme de peindre une tombe en rose Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil Non je ne suis pas un super-héros Jsuis têtu comme un taureau Et jnai jamais voulu tfaire de mal Moi jai toujours suivi ma nia, ma nia Non je ne suis pas un super-héros Jsuis têtu comme un taureau Et jnai jamais voulu tfaire de mal Moi jai toujours suivi ma nia, ma nia Jsuis pas lmeilleur des hommes Oukhty Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil Habibti semhili, jtavais promis une vie de luxe Tu mvisites en cellule, et tu pleures jusqu'à 9iyam lil1</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Poussez-vous, faites de la ce-pla, y'a de l'inspi', y'a du C4 Pour faire exploser le game, j'arrive à pied, repars en bécane H Magnum, t'rappelles de moi ? Le mec qui rappe sale dans les clips Et qui fait flipper ton équipe, ça débite, nous lance pas de pique J'vais t'sucrer ton équipe au point d'te rendre diabétique Tu vas manger des coups de talons, ta tête servira de cric Il m'faut du bif, il m'faut du fric, laissez passer les lions d'Afrique Moi je vois les choses en grand, akhi tu vois les choses en SMIC Addict à la réussite, percer dans la 'sique avec un single En studio muni d'un stylo Bic, un putain d'Desert Eagle Ramène tes gars, j'suis en Ligue A, j'suis un Lambo', t'es une Mégane J'ai les griffes à Wolverine, akhi appelle moi H-Logan J'suis v'nu au monde avec un brolic pour tout péter comme la Chronique Un flow solide, supersonique, supernova, bombe atomique J'suis le H d'Hiroshima, j'ai ma M de Marginal Démarre au quart de tour comme Zidane CoupDeTêteALaFinale Attends, j'vais te biire, attends, j'vais te biire T'inquiètes pas pour moi, prépare toi y a de l'inspi' Y'a de l'inspi', y'a de l'inspi' Peu importe le son, on a toujours du le-sty ohoh J'vais te biire haha J'vais te biire ok J'vais te biire j'vais te biire J'vais te biire j'vais te biire J'vais te biire haha J'vais te biire akhi J'vais te biire Dream J'vais te biire ohoh You might also like Fréro, j'viens pour foutre la merde, poussez-vous, j'ai plus rien à perdre J'ai la haine, j'ai la rage, j'ai le seum au microphone, akhi, j'suis pas venu pour perdre Rafale de phases dans tes caries, Marlibi' flow, flow cain-'ri Faites de la place, v'là la cavalerie PSG, qataris Rien à foutre de la concurrence, je les laisse sur la bande d'arrêt d'urgence J'ai la niaque, j'ai la pêche, j'ai la force, j'ai la barre pour aller niquer ces p'tits trans' Pousse-toi, tu vas t'faire tirer dessus, mes phases te braquent, te pissent dessus Ramenez-moi des vrais M.C.'s, jusqu'à présent j'suis trop déçu Père depuis que j'mets les rappeurs enceintes, j'vais t'faire du sale, tu vas porter plainte C'est pas du sang que j'ai dans les veines, un kilo de frappe et d'absinthe Arrêtez-moi, ça d'vient trop dar, j'crois qu'j'vais faire un carnage ce soir Enfermez-moi mettez-moi au shtar, non-coupable Raddad Omar Trop de flow je réveille, normal que les MCs bégayent Dans-dans-dans-dans-dans-dans-dans ta bouche un Desert Eagle On fait reup comme un colis, oublié à Orly T'étonnes pas qu'j'attire la police, t'as du khaliss, pose-toi Attends, j'vais te biire, attends, j'vais te biire T'inquiètes pas pour moi, prépare toi y a de l'inspi' Y a de l'inspi', y a de l'inspi' Peu importe le son, on a toujours du le-sty ohoh J'vais te biire haha J'vais te biire ok J'vais te biire j'vais te biire J'vais te biire j'vais te biire J'vais te biire haha J'vais te biire akhi J'vais te biire Dream J'vais te biire ohoh Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Poussez-vous, faites de la ce-pla, y'a de l'inspi', y'a du C4 Pour faire exploser le game, j'arrive à pied, repars en bécane H Magnum, t'rappelles de moi ? Le mec qui rappe sale dans les clips Et qui fait flipper ton équipe, ça débite, nous lance pas de pique J'vais t'sucrer ton équipe au point d'te rendre diabétique Tu vas manger des coups de talons, ta tête servira de cric Il m'faut du bif, il m'faut du fric, laissez passer les lions d'Afrique Moi je vois les choses en grand, akhi tu vois les choses en SMIC Addict à la réussite, percer dans la 'sique avec un single En studio muni d'un stylo Bic, un putain d'Desert Eagle Ramène tes gars, j'suis en Ligue A, j'suis un Lambo', t'es une Mégane J'ai les griffes à Wolverine, akhi appelle moi H-Logan J'suis v'nu au monde avec un brolic pour tout péter comme la Chronique Un flow solide, supersonique, supernova, bombe atomique J'suis le H d'Hiroshima, j'ai ma M de Marginal Démarre au quart de tour comme Zidane CoupDeTêteALaFinale Attends, j'vais te biire, attends, j'vais te biire T'inquiètes pas pour moi, prépare toi y a de l'inspi' Y'a de l'inspi', y'a de l'inspi' Peu importe le son, on a toujours du le-sty ohoh J'vais te biire haha J'vais te biire ok J'vais te biire j'vais te biire J'vais te biire j'vais te biire J'vais te biire haha J'vais te biire akhi J'vais te biire Dream J'vais te biire ohoh Fréro, j'viens pour foutre la merde, poussez-vous, j'ai plus rien à perdre J'ai la haine, j'ai la rage, j'ai le seum au microphone, akhi, j'suis pas venu pour perdre Rafale de phases dans tes caries, Marlibi' flow, flow cain-'ri Faites de la place, v'là la cavalerie PSG, qataris Rien à foutre de la concurrence, je les laisse sur la bande d'arrêt d'urgence J'ai la niaque, j'ai la pêche, j'ai la force, j'ai la barre pour aller niquer ces p'tits trans' Pousse-toi, tu vas t'faire tirer dessus, mes phases te braquent, te pissent dessus Ramenez-moi des vrais M.C.'s, jusqu'à présent j'suis trop déçu Père depuis que j'mets les rappeurs enceintes, j'vais t'faire du sale, tu vas porter plainte C'est pas du sang que j'ai dans les veines, un kilo de frappe et d'absinthe Arrêtez-moi, ça d'vient trop dar, j'crois qu'j'vais faire un carnage ce soir Enfermez-moi mettez-moi au shtar, non-coupable Raddad Omar Trop de flow je réveille, normal que les MCs bégayent Dans-dans-dans-dans-dans-dans-dans ta bouche un Desert Eagle On fait reup comme un colis, oublié à Orly T'étonnes pas qu'j'attire la police, t'as du khaliss, pose-toi Attends, j'vais te biire, attends, j'vais te biire T'inquiètes pas pour moi, prépare toi y a de l'inspi' Y a de l'inspi', y a de l'inspi' Peu importe le son, on a toujours du le-sty ohoh J'vais te biire haha J'vais te biire ok J'vais te biire j'vais te biire J'vais te biire j'vais te biire J'vais te biire haha J'vais te biire akhi J'vais te biire Dream J'vais te biire ohoh Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Je viens de loin, saches Que je viens de loin, saches Que je viens de loin, saches Essaies pas de m'amadouer ! Combien je vous dois ? Dites-moi combien je vous dois ? Je viens de loin, saches Essaies pas de m'amadouer ! J'arrive déguisé, ressens la tate-pa J'ai encore assez d'inspi' pour pas parler de Tampax LÉtat nous baratine, mais toi tu t'en tapes Tant que t'as ta conso' et ton encas ! On lit entre les lignes, entre les pancartes Ils veulent cacher l'odeur de la merde avec du fum-par J'les sens ap, j'emmerde leur syntaxe J'comprends rien à ce qu'ils me disent, mais j'ai les impacts ! Fuck leurs amendes et le mec qui les met J'ai de la mif' à nourrir à 6 000 kilomètres Yes Y a pas de taff, donc les taules emploient Et ils s'étonnent qu'on braque, même, le Pôle Emploi Y a des gens au sommet, qui en ont plus rien à foutre Qu'on manque de tout, ou qu'on manque de rien On est manipulés pour enrichir des élites qui se moquent de nous Pour ça que j'emmerde le Système, ouais le Système Ouais le Système, le Système J'emmerde le Système, ouais le Système Ouais le Système, le Système Je viens de loin, saches Que je viens de loin, saches You might also like Chaque année c'est l'abstinence, une crevasse immense Et tout l'monde simule et fait croire à l'opulence Le Diable opère gentiment, y a plus de sentiments Tu peux te faire lever même devant plus de 100 témoins J'ai l'impression qu'on veut nous enrager On me reproche de rabâcher quand je parle de rejet J'ai songé à me faire une épicerie mais j'ai repris mes esprits Ton père aurait pris congés, écoute Et j'pisse sur leur système infesté D'incompétents austères qui nous traitent d'assistés Insultent mes sistas, soustraire le scytale Rendra pas plus heureuse les femmes qu'ont des tissages J'ai trop de choses à dire ma chère Mais la liberté d'ouvrir sa gueule, ici, coûte cher ! Y a des gens au sommet, qui en ont plus rien à foutre Qu'on manque de tout, ou qu'on manque de rien On est manipulés pour enrichir des élites qui se moquent de nous Pour ça que j'emmerde le Système, ouais le Système Ouais le Système, le Système J'emmerde le Système, ouais le Système Ouais le Système, le Système J'emmerde le système, le système Le système, le système J'emmerde le système, le système Le système, le système Je viens de loin, saches Que je viens de loin, saches Que je viens de loin, saches Essaies pas de m'amadouer ! Combien je vous dois ? Dites-moi combien je vous dois ? Je viens de loin, saches Essaies pas de m'amadouer ! Y a des gens au sommet, qui en ont plus rien à foutre Qu'on manque de tout, ou qu'on manque de rien On est manipulés pour enrichir les élites qui se moquent de nous Paroles rédigées et expliquées par la communauté RapGenius France1</t>
+          <t>Je viens de loin, saches Que je viens de loin, saches Que je viens de loin, saches Essaies pas de m'amadouer ! Combien je vous dois ? Dites-moi combien je vous dois ? Je viens de loin, saches Essaies pas de m'amadouer ! J'arrive déguisé, ressens la tate-pa J'ai encore assez d'inspi' pour pas parler de Tampax LÉtat nous baratine, mais toi tu t'en tapes Tant que t'as ta conso' et ton encas ! On lit entre les lignes, entre les pancartes Ils veulent cacher l'odeur de la merde avec du fum-par J'les sens ap, j'emmerde leur syntaxe J'comprends rien à ce qu'ils me disent, mais j'ai les impacts ! Fuck leurs amendes et le mec qui les met J'ai de la mif' à nourrir à 6 000 kilomètres Yes Y a pas de taff, donc les taules emploient Et ils s'étonnent qu'on braque, même, le Pôle Emploi Y a des gens au sommet, qui en ont plus rien à foutre Qu'on manque de tout, ou qu'on manque de rien On est manipulés pour enrichir des élites qui se moquent de nous Pour ça que j'emmerde le Système, ouais le Système Ouais le Système, le Système J'emmerde le Système, ouais le Système Ouais le Système, le Système Je viens de loin, saches Que je viens de loin, saches Chaque année c'est l'abstinence, une crevasse immense Et tout l'monde simule et fait croire à l'opulence Le Diable opère gentiment, y a plus de sentiments Tu peux te faire lever même devant plus de 100 témoins J'ai l'impression qu'on veut nous enrager On me reproche de rabâcher quand je parle de rejet J'ai songé à me faire une épicerie mais j'ai repris mes esprits Ton père aurait pris congés, écoute Et j'pisse sur leur système infesté D'incompétents austères qui nous traitent d'assistés Insultent mes sistas, soustraire le scytale Rendra pas plus heureuse les femmes qu'ont des tissages J'ai trop de choses à dire ma chère Mais la liberté d'ouvrir sa gueule, ici, coûte cher ! Y a des gens au sommet, qui en ont plus rien à foutre Qu'on manque de tout, ou qu'on manque de rien On est manipulés pour enrichir des élites qui se moquent de nous Pour ça que j'emmerde le Système, ouais le Système Ouais le Système, le Système J'emmerde le Système, ouais le Système Ouais le Système, le Système J'emmerde le système, le système Le système, le système J'emmerde le système, le système Le système, le système Je viens de loin, saches Que je viens de loin, saches Que je viens de loin, saches Essaies pas de m'amadouer ! Combien je vous dois ? Dites-moi combien je vous dois ? Je viens de loin, saches Essaies pas de m'amadouer ! Y a des gens au sommet, qui en ont plus rien à foutre Qu'on manque de tout, ou qu'on manque de rien On est manipulés pour enrichir les élites qui se moquent de nous Paroles rédigées et expliquées par la communauté RapGenius France1</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Moi j'ai pas l'habitude de parler parler Toujours affalé dans mon carré carré Le djum n'a pas besoin de parler C'est elle qui essaye plutôt de le charmer Mais cette fois-ci ce n'est pas pareil pareil Cette fille-là n'est pas pareil pareil Elle s'est permise de me recaler Pourtant j'pourrais changer sa vie Elle me dit qu'elle n'est pas ici Qu'elle vient d'ailleurs, que j'pourrais pas comprendre Putain la gamine j'hallucine Elle me donne même pas l'heure malgré toutes mes offrandes Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur eh Son comportement me rend taré taré Pourtant le Porsche Panam' est garé garé Elle dit qu'elle n'a pas besoin de ça Qu'elle n'aime pas ma façon de lui parler Elle a en marre, elle veut se barrer barrer T'sais quoi les barrières me rendent paro baro Elle me dit d'arrêter la garo Que je finirais par gâcher ma vie You might also like Elle me dit qu'elle n'est pas ici Qu'elle vient d'ailleurs, que j'pourrais pas comprendre Putain la gamine j'hallucine Elle me donne même pas l'heure malgré toutes mes offrandes Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur Écoute-moi, joli cur, écoute-moi, eh Écoute-moi, joli cur, écoute-moi, eh Je ferais tout pour toi, je ferais tout pour toi Je ferais tout pour toi, baby Je ferais tout pour toi, je ferais tout pour toi Si t'es tout pour moi, baby Écoute-moi, joli cur, écoute-moi, eh Écoute-moi, joli cur, écoute-moi, eh Je ferais tout pour toi, je ferais tout pour toi Je ferais tout pour toi, baby Je ferais tout pour toi, je ferais tout pour toi Si t'es tout pour moi, baby Joli, joli, joli, joli, joli, joli, joli, joli Tu es jolie, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli, joli Joli, joli, joli, joli, joli, joli cur</t>
+          <t>Moi j'ai pas l'habitude de parler parler Toujours affalé dans mon carré carré Le djum n'a pas besoin de parler C'est elle qui essaye plutôt de le charmer Mais cette fois-ci ce n'est pas pareil pareil Cette fille-là n'est pas pareil pareil Elle s'est permise de me recaler Pourtant j'pourrais changer sa vie Elle me dit qu'elle n'est pas ici Qu'elle vient d'ailleurs, que j'pourrais pas comprendre Putain la gamine j'hallucine Elle me donne même pas l'heure malgré toutes mes offrandes Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur eh Son comportement me rend taré taré Pourtant le Porsche Panam' est garé garé Elle dit qu'elle n'a pas besoin de ça Qu'elle n'aime pas ma façon de lui parler Elle a en marre, elle veut se barrer barrer T'sais quoi les barrières me rendent paro baro Elle me dit d'arrêter la garo Que je finirais par gâcher ma vie Elle me dit qu'elle n'est pas ici Qu'elle vient d'ailleurs, que j'pourrais pas comprendre Putain la gamine j'hallucine Elle me donne même pas l'heure malgré toutes mes offrandes Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli cur Écoute-moi, joli cur, écoute-moi, eh Écoute-moi, joli cur, écoute-moi, eh Je ferais tout pour toi, je ferais tout pour toi Je ferais tout pour toi, baby Je ferais tout pour toi, je ferais tout pour toi Si t'es tout pour moi, baby Écoute-moi, joli cur, écoute-moi, eh Écoute-moi, joli cur, écoute-moi, eh Je ferais tout pour toi, je ferais tout pour toi Je ferais tout pour toi, baby Je ferais tout pour toi, je ferais tout pour toi Si t'es tout pour moi, baby Joli, joli, joli, joli, joli, joli, joli, joli Tu es jolie, joli, joli, joli, joli, joli cur Joli, joli, joli, joli, joli, joli, joli, joli Joli, joli, joli, joli, joli, joli cur</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ah, he he he Let's get it Ouh shish shish Ouh ouh ouh, hey Oh ma bella oui, qu'est-ce que j'ferai sans toi ? j'sais pas T'es mon million d'euro money, t'es pas comme les autres no no Ton cur j'le rends pas jamais, j'ai ta confiance dans ma poche bah oui Ton cur j'le rends pas no no, j'ai ta confiance dans ma poche t'es ma bad Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac j'rempli Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac oh my god Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac c'est fou Demande-moi, demande-moi bah oui J'rempli ton sac, j'rempli ton sac yeah, let's get it Baby, sur toi j'investis, m'fait pas regretter s'te plait ye lé lé lé Si les mbila sont dans la maison, garde le silence s'te plait ye lé lé lé Ça va trop vite, conducteur, c'est moi, la ville que je voulais ouh ouh ouh ouh J'ai fais le choix de te faire sourire, aucune larme va couler bling bling On fait du shopping pour s'consoler ouh, on prend des vacances pour s'reposer là-bas Quand je te parle faut m'écouter, j'ai les mots doux pour te réconforter c'est moi J'ai fait ce qu'ils n'ont pas fait, j'ai osé quand ils ont doutés Assieds-toi, j'vais assumer, dis à tes parents j'vais assurer You might also like Oh ma bella oui, qu'est-ce que j'ferai sans toi ? j'sais pas T'es mon million d'euro money, t'es pas comme les autres no no Ton cur j'le rends pas jamais, j'ai ta confiance dans ma poche bah oui Ton cur j'le rends pas no no, j'ai ta confiance dans ma poche t'es ma bad Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac j'rempli Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac oh my god Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac c'est fou Demande-moi, demande-moi bah oui J'rempli ton sac, j'rempli ton sac T'es à moi, c'est confirmé Donne-moi ton cur, je l'ai cantiné T'auras pas besoin de tapiner On quitte pas la chambre, on est confiné Sur un coup d'tête, on se barre à Marbella Ma chérie t'es têtue, mais t'es ma bella Tout devient gris si j'casse mon Amoureux comme Thomas et Nabilla ye lé lé lé Toi, tu caches mes défauts et moi j'te porte sur mes épaules ye lé lé lé Jaloux dans le rétro, carré VIP, on est sé-po On fait du biff', biff', biff' Range Ro' Velar, une grande villa Tu ressens la diff', diff', diff' Oublis ton ex, allez bébé viens là Oh ma bella oui, qu'est-ce que j'ferai sans toi ? j'sais pas T'es mon million d'euro money, t'es pas comme les autres no no Ton cur j'le rends pas jamais, j'ai ta confiance dans ma poche bah oui Ton cur j'le rends pas no no, j'ai ta confiance dans ma poche t'es ma bad Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac j'rempli Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac oh my god Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac c'est fou Demande-moi, demande-moi bah oui J'rempli ton sac, j'rempli ton sac oh oh</t>
+          <t>Ah, he he he Let's get it Ouh shish shish Ouh ouh ouh, hey Oh ma bella oui, qu'est-ce que j'ferai sans toi ? j'sais pas T'es mon million d'euro money, t'es pas comme les autres no no Ton cur j'le rends pas jamais, j'ai ta confiance dans ma poche bah oui Ton cur j'le rends pas no no, j'ai ta confiance dans ma poche t'es ma bad Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac j'rempli Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac oh my god Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac c'est fou Demande-moi, demande-moi bah oui J'rempli ton sac, j'rempli ton sac yeah, let's get it Baby, sur toi j'investis, m'fait pas regretter s'te plait ye lé lé lé Si les mbila sont dans la maison, garde le silence s'te plait ye lé lé lé Ça va trop vite, conducteur, c'est moi, la ville que je voulais ouh ouh ouh ouh J'ai fais le choix de te faire sourire, aucune larme va couler bling bling On fait du shopping pour s'consoler ouh, on prend des vacances pour s'reposer là-bas Quand je te parle faut m'écouter, j'ai les mots doux pour te réconforter c'est moi J'ai fait ce qu'ils n'ont pas fait, j'ai osé quand ils ont doutés Assieds-toi, j'vais assumer, dis à tes parents j'vais assurer Oh ma bella oui, qu'est-ce que j'ferai sans toi ? j'sais pas T'es mon million d'euro money, t'es pas comme les autres no no Ton cur j'le rends pas jamais, j'ai ta confiance dans ma poche bah oui Ton cur j'le rends pas no no, j'ai ta confiance dans ma poche t'es ma bad Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac j'rempli Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac oh my god Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac c'est fou Demande-moi, demande-moi bah oui J'rempli ton sac, j'rempli ton sac T'es à moi, c'est confirmé Donne-moi ton cur, je l'ai cantiné T'auras pas besoin de tapiner On quitte pas la chambre, on est confiné Sur un coup d'tête, on se barre à Marbella Ma chérie t'es têtue, mais t'es ma bella Tout devient gris si j'casse mon Amoureux comme Thomas et Nabilla ye lé lé lé Toi, tu caches mes défauts et moi j'te porte sur mes épaules ye lé lé lé Jaloux dans le rétro, carré VIP, on est sé-po On fait du biff', biff', biff' Range Ro' Velar, une grande villa Tu ressens la diff', diff', diff' Oublis ton ex, allez bébé viens là Oh ma bella oui, qu'est-ce que j'ferai sans toi ? j'sais pas T'es mon million d'euro money, t'es pas comme les autres no no Ton cur j'le rends pas jamais, j'ai ta confiance dans ma poche bah oui Ton cur j'le rends pas no no, j'ai ta confiance dans ma poche t'es ma bad Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac j'rempli Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac oh my god Demande-moi, demande-moi demande J'rempli ton sac, j'rempli ton sac c'est fou Demande-moi, demande-moi bah oui J'rempli ton sac, j'rempli ton sac oh oh</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? You might also like Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
+          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tu veux de l'info' ? J'vais t'en donner Toutes les semaines des tonnes d'actualités Tu caches tes fautes ! J'aimerai dire un truc aux politicos ! J'vous préviens vous allez perdre vos chicos ! Tu t'abonnes à la chaîne tu finis accroc ! Tu calcules plus ta go, mais... Wesh poto ! Tu m'as pas dit qu't'étais dans les info' ! Moi j'pensais que tu faisais que des morceaux ! Fin De Dream, Violent et Komodo ! Alors viens fréro, ça c'est de la punch' d'info' ! Tranquille, tranquille, tranquille... Les ministres débarquent quelque part Vont déclarer tous leurs patrimoines, leurs avoirs Ah ! J'y crois... Pas ! Pas ! Pas ! Appelez Copperfield ou suppliez Médiapart Flot au gouvernement, tout le monde veut être transparent P.S - U.M.P - F.N ça pue le remaniement You might also like Quitte à tout montrer, admirez donc mon coffret Mon Picasso, mon pistolet, ma femme, ma cuisine équipée Mon yacht et ma villa d'été Mes 600 000e épargnés, et mon I-Pad préféré Mais vous n'aurez pas... ma liberté d'dépenser Oui, ça fait des années qu'c'est rempli Qu'il n'y a plus de C.D.I Cette odeur de SMIC Cette odeur de crise Pôle Emploi prévoit 1 million de recrutements Le changement c'est maintenant, les prévisions dans longtemps Jean-Paul Belmondo 80 ans pour Be-Bel Hé, Derka, je fais toujours mes cascades moi-même tac-tac-badaboom Fin de connexion pour M.S.N Plus de bruit, plus de bruit, plus de bruit Une ville japonaise annonce un tir de missile, sur Twitter La Corée du Nord à été coupable par erreur - Ah mais à Yokohama faut arrêter l'saké hein - Non, mais on a confondu étoile filante avec missile - Ah d'accord Wesley Snipes sort de cryogénie carcérale Il s'était pris trois ans ferme pour fraude fiscale Folie en Turquie, le Réal se qualifie, yeah Dortmund passe, Malaga pur en Qatari, yeah Sans oublier la qualif' du poto Ribéry, yeah P.S.G éliminé, Barcelone une autre planète Ici c'est Paris Un jour t'es au top, un jour tu subis Ça pleure en équipe On a le championnat, on a presque le titre A part ça, j'suis un pur parigo, pur parigo, go Pur parigo, pur parigo, go Parce que l'info' se doit d'être claire Pom Pom Derka pour vous servir Pom Pom Tranquille, tranquille Tranquille, tranquille Haaaa ! Efface mon phone - Hé, Derka pour le feat' 200 000e - Ah d'accord, tiens H Magnum Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Tu veux de l'info' ? J'vais t'en donner Toutes les semaines des tonnes d'actualités Tu caches tes fautes ! J'aimerai dire un truc aux politicos ! J'vous préviens vous allez perdre vos chicos ! Tu t'abonnes à la chaîne tu finis accroc ! Tu calcules plus ta go, mais... Wesh poto ! Tu m'as pas dit qu't'étais dans les info' ! Moi j'pensais que tu faisais que des morceaux ! Fin De Dream, Violent et Komodo ! Alors viens fréro, ça c'est de la punch' d'info' ! Tranquille, tranquille, tranquille... Les ministres débarquent quelque part Vont déclarer tous leurs patrimoines, leurs avoirs Ah ! J'y crois... Pas ! Pas ! Pas ! Appelez Copperfield ou suppliez Médiapart Flot au gouvernement, tout le monde veut être transparent P.S - U.M.P - F.N ça pue le remaniement Quitte à tout montrer, admirez donc mon coffret Mon Picasso, mon pistolet, ma femme, ma cuisine équipée Mon yacht et ma villa d'été Mes 600 000e épargnés, et mon I-Pad préféré Mais vous n'aurez pas... ma liberté d'dépenser Oui, ça fait des années qu'c'est rempli Qu'il n'y a plus de C.D.I Cette odeur de SMIC Cette odeur de crise Pôle Emploi prévoit 1 million de recrutements Le changement c'est maintenant, les prévisions dans longtemps Jean-Paul Belmondo 80 ans pour Be-Bel Hé, Derka, je fais toujours mes cascades moi-même tac-tac-badaboom Fin de connexion pour M.S.N Plus de bruit, plus de bruit, plus de bruit Une ville japonaise annonce un tir de missile, sur Twitter La Corée du Nord à été coupable par erreur - Ah mais à Yokohama faut arrêter l'saké hein - Non, mais on a confondu étoile filante avec missile - Ah d'accord Wesley Snipes sort de cryogénie carcérale Il s'était pris trois ans ferme pour fraude fiscale Folie en Turquie, le Réal se qualifie, yeah Dortmund passe, Malaga pur en Qatari, yeah Sans oublier la qualif' du poto Ribéry, yeah P.S.G éliminé, Barcelone une autre planète Ici c'est Paris Un jour t'es au top, un jour tu subis Ça pleure en équipe On a le championnat, on a presque le titre A part ça, j'suis un pur parigo, pur parigo, go Pur parigo, pur parigo, go Parce que l'info' se doit d'être claire Pom Pom Derka pour vous servir Pom Pom Tranquille, tranquille Tranquille, tranquille Haaaa ! Efface mon phone - Hé, Derka pour le feat' 200 000e - Ah d'accord, tiens H Magnum Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Notre story a fin à Knysna Tu m'as poussé à couper la nacelle Et notre story a fini à Knysna Notre story a fini à Knysna Ni story, ni love Toi et moi c'était le passé On s'est résignés Pour éviter de tout casser Je pense plus pour deux Donc évitons de ressasser R.S Audi noire C'est bien moi que tu vois passer Quand je dis bébé na bébé Habibti je parle à une autre Fais moi des bisous T'es grave bonne Je parle à une autre Baby girl c'est mon biff Que je fais griller pour un autre Tu n'es plus cell qui m'inspire Qui me rend parano You might also likeJ'ai déjà oublié Nos beaux jours d'hier J'ai déjà oublié Tous nos rires, nos mimiques J'ai déjà oublié Nos beaux jours d'hier J'ai déjà oublié Tous nos rires, nos mimiques Notre story a fin à Knysna Tu m'as poussé à couper la nacelle Et notre story a fini à Knysna Notre story a fini à Knysna Dis moi ça fait quoi la vie sans moi Sans son homme C'est très facile de me quitter moi Pas mon ombre La vie d'artiste est un isoloir Raisonnant T'as mis tapis sur un rigolo, gigolo Quand je dis bébé na bébé Habibti je parle à une autre Fais moi des bisous T'es grave bonne Je parle à une autre Baby girl c'est mon beef Que je fais griller pour une autre Tu n'es plus celle qui m'inspire Qui me rend parano J'ai déjà oublié Nos beaux jours d'hier J'ai déjà oublié Tous nos rires, nos mimiques J'ai déjà oublié Nos beaux jours d'hier J'ai déjà oublié Tous nos rires, nos mimiques Notre story a fin à Knysna Tu m'as poussé à couper la nacelle Et notre story a fini à Knysna Notre story a fini à Knysna</t>
+          <t>Notre story a fin à Knysna Tu m'as poussé à couper la nacelle Et notre story a fini à Knysna Notre story a fini à Knysna Ni story, ni love Toi et moi c'était le passé On s'est résignés Pour éviter de tout casser Je pense plus pour deux Donc évitons de ressasser R.S Audi noire C'est bien moi que tu vois passer Quand je dis bébé na bébé Habibti je parle à une autre Fais moi des bisous T'es grave bonne Je parle à une autre Baby girl c'est mon biff Que je fais griller pour un autre Tu n'es plus cell qui m'inspire Qui me rend parano J'ai déjà oublié Nos beaux jours d'hier J'ai déjà oublié Tous nos rires, nos mimiques J'ai déjà oublié Nos beaux jours d'hier J'ai déjà oublié Tous nos rires, nos mimiques Notre story a fin à Knysna Tu m'as poussé à couper la nacelle Et notre story a fini à Knysna Notre story a fini à Knysna Dis moi ça fait quoi la vie sans moi Sans son homme C'est très facile de me quitter moi Pas mon ombre La vie d'artiste est un isoloir Raisonnant T'as mis tapis sur un rigolo, gigolo Quand je dis bébé na bébé Habibti je parle à une autre Fais moi des bisous T'es grave bonne Je parle à une autre Baby girl c'est mon beef Que je fais griller pour une autre Tu n'es plus celle qui m'inspire Qui me rend parano J'ai déjà oublié Nos beaux jours d'hier J'ai déjà oublié Tous nos rires, nos mimiques J'ai déjà oublié Nos beaux jours d'hier J'ai déjà oublié Tous nos rires, nos mimiques Notre story a fin à Knysna Tu m'as poussé à couper la nacelle Et notre story a fini à Knysna Notre story a fini à Knysna</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>On se connait bien, j'ai le cur sur la main J'ai vu le grand bain plein d'requins et merlans La fille du marin, j'la prends même pas par la main Elle est bonne sa mère mais elle fait l'étoile de mer Ton plan A, mon plan B, plan B, plan B Elle aime bien le classe G, classe G, classe G J'vais toucher son point G, point G, point G On les aime bien cambré, cambré, cambré Elle attend qu'j'frappe à sa bre-ch' 2.7 J'rentre le torse bombé Elle voit le gab' de son crush dozo Son string est déjà tombé J'lui ramène du bon doré Après le storé, j'vais la forer Grikitibang gala de goret On ken, c'est synchro' comme dans une chorée J'ai sorti toutes mes cartes, pour elle j'ai pris des risques en affaire pah Une fois qu'elle est piquée, elle va rester même si j'suis par terre clic Laisse-moi lever mon verre, on a trop souffert Kaaris Ensemble dans le plus gros fer, on change d'hémisphère You might also like On se connait bien, j'ai le cur sur la main J'ai vu le grand bain plein d'requins et merlans La fille du marin, j'la prends même pas par la main Elle est bonne sa mère mais elle fait l'étoile de mer Ton plan A, mon plan B, plan B, plan B Elle aime bien le classe G, classe G, classe G J'vais toucher son point G, point G, point G On les aime bien cambré, cambré, cambré Elle a kiffé sur le loup, elle veut sa place dans le VIP Elle sait que j'envoie du lourd, que j'suis frais, que j'ai du biff' Dernier bolide, vida loca, une grosse kichta dans le Dia Vie de Johnny, vie de re-sta, tout c'que les filles bien adorent Mais comme son mec bien pue la loose, elle veut sauter dans le binks Elle sait très bien que chez nous, ce sera pas l'hôtel Ibis RS Audi, j'ai fais buguer sa copine la nafigui J'suis un O.G, j'vais la doggy, j'ai pas l'temps pour na lingui yo, yo On se connait bien, j'ai le cur sur la main J'ai vu le grand bain plein d'requins et merlans La fille du marin, j'la prends même pas par la main Elle est bonne sa mère mais elle fait l'étoile de mer Ton plan A, mon plan B, plan B, plan B Elle aime bien le classe G, classe G, classe G J'vais toucher son point G, point G, point G On les aime bien cambré, cambré, cambré</t>
+          <t>On se connait bien, j'ai le cur sur la main J'ai vu le grand bain plein d'requins et merlans La fille du marin, j'la prends même pas par la main Elle est bonne sa mère mais elle fait l'étoile de mer Ton plan A, mon plan B, plan B, plan B Elle aime bien le classe G, classe G, classe G J'vais toucher son point G, point G, point G On les aime bien cambré, cambré, cambré Elle attend qu'j'frappe à sa bre-ch' 2.7 J'rentre le torse bombé Elle voit le gab' de son crush dozo Son string est déjà tombé J'lui ramène du bon doré Après le storé, j'vais la forer Grikitibang gala de goret On ken, c'est synchro' comme dans une chorée J'ai sorti toutes mes cartes, pour elle j'ai pris des risques en affaire pah Une fois qu'elle est piquée, elle va rester même si j'suis par terre clic Laisse-moi lever mon verre, on a trop souffert Kaaris Ensemble dans le plus gros fer, on change d'hémisphère On se connait bien, j'ai le cur sur la main J'ai vu le grand bain plein d'requins et merlans La fille du marin, j'la prends même pas par la main Elle est bonne sa mère mais elle fait l'étoile de mer Ton plan A, mon plan B, plan B, plan B Elle aime bien le classe G, classe G, classe G J'vais toucher son point G, point G, point G On les aime bien cambré, cambré, cambré Elle a kiffé sur le loup, elle veut sa place dans le VIP Elle sait que j'envoie du lourd, que j'suis frais, que j'ai du biff' Dernier bolide, vida loca, une grosse kichta dans le Dia Vie de Johnny, vie de re-sta, tout c'que les filles bien adorent Mais comme son mec bien pue la loose, elle veut sauter dans le binks Elle sait très bien que chez nous, ce sera pas l'hôtel Ibis RS Audi, j'ai fais buguer sa copine la nafigui J'suis un O.G, j'vais la doggy, j'ai pas l'temps pour na lingui yo, yo On se connait bien, j'ai le cur sur la main J'ai vu le grand bain plein d'requins et merlans La fille du marin, j'la prends même pas par la main Elle est bonne sa mère mais elle fait l'étoile de mer Ton plan A, mon plan B, plan B, plan B Elle aime bien le classe G, classe G, classe G J'vais toucher son point G, point G, point G On les aime bien cambré, cambré, cambré</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Paraît qujai changé Jentends les langues ici et là se délier Paraît quon se connaît En vérité on ne sest jamais croisés Et tu le sais, tu le sais, tu le sais Et cest plus fort que toi dinventer Des liens qui te font rêver Et tu le fais, tu le fais, tu le fais Soudain les gens te prêtent de lattention Cest XXX vers ce que tu cherchais Quest-cque tu cherchais ? You might also like Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Arrête de sourire, tu fais semblant On le sait, la roue tourne, tout se sait Tout se dit, tôt ou tard Ils nsarrêteront jamais Je vois des gens qui parlent, sans arrêt Prêts à tout pour déformer la vérité Cest la même, tous les jours cest la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Yeah, H dream, Vitaa Tes pas prêt Tous les jours cest la même Jsuis désolé dinnover Jsuis désolé dinnover Ça spasse, tu connais Tous les jours cest la même Ça bouge pas XXX Quoi quon mdise Cqui mmotive cest de foutre le seum aux loux-ja</t>
+          <t>Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Paraît qujai changé Jentends les langues ici et là se délier Paraît quon se connaît En vérité on ne sest jamais croisés Et tu le sais, tu le sais, tu le sais Et cest plus fort que toi dinventer Des liens qui te font rêver Et tu le fais, tu le fais, tu le fais Soudain les gens te prêtent de lattention Cest XXX vers ce que tu cherchais Quest-cque tu cherchais ? Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Arrête de sourire, tu fais semblant On le sait, la roue tourne, tout se sait Tout se dit, tôt ou tard Ils nsarrêteront jamais Je vois des gens qui parlent, sans arrêt Prêts à tout pour déformer la vérité Cest la même, tous les jours cest la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Yeah, H dream, Vitaa Tes pas prêt Tous les jours cest la même Jsuis désolé dinnover Jsuis désolé dinnover Ça spasse, tu connais Tous les jours cest la même Ça bouge pas XXX Quoi quon mdise Cqui mmotive cest de foutre le seum aux loux-ja</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Y'en a qui ont choisi l'grand saut Entends-tu les cris dans nos allées ? Au bord d'une falaise Quand y'a plus d'monnaie Pour régler la facture d'eau Tellement de mépris, à qui parler Quand t'as plus d'salaire ? Donc isolés Y'en a qui ont choisi l'grand saut Des frères ont pris les armes pour leurs rêves accessibles Qu'en auront marre d'négliger l'appétit Car c'est la crise et les mêmes en profitent J'vais pas t'faire un croquis sur ceux qui font du profit Dorment au sommet de la rente, comme les Rothschild J'suis dans la foule, dis-leur qu'ça sent le roussi Malgré l'taf, dans nos poches, c'est la Russie La France d'en bas s'en va braquer la réussite À bout d'souffle pour nourrir son bout d'chou Pour une mère, pire qu'une balle à bout portant On s'bouscule, pendant qu'certains graillent tout Pour ça qu'on braille fort quand on gagne un peu d'sous Ça fait un bout d'temps qu'on voit la balle dans l'autre camp Akhi, tes ennemis ont éteint le feu d'camp Ici, la zermi fait qu'la bonté fout le camp Y'en a qui tuent l'temps, d'autres préfèrent quer-bra l'coffre You might also like Entends-tu les cris dans nos allées ? Au bord d'une falaise Quand y'a plus d'monnaie Pour régler la facture d'eau Tellement de mépris, à qui parler Quand t'as plus d'salaire ? Donc isolés Y'en a qui ont choisi l'grand saut Tu crois encore que les Hommes naissent égaux ? Libres de leurs choix, du berceau jusqu'au tombeau ? On y a cru, le canular était trop beau Dans nos H.L.M emboîtés comme des Lego On t'exploite, on te jette comme un mégot La bastos viendra percer leur égo Eux jouent en bourse, nous on rêve sur du Loto Leur aide ? Que du mytho, y a le diable sous leurs motos Le R.S.A. pour les gens de la street Qu'ont perdu l'espoir de faire germer la mif' Le PMU pour les mecs à l'ancienne Qu'ont toujours l'espoir de s'installer à Nice Le monde file, nique sa mère, on s'accroche J'ai perdu un kho, j'ai pas d'or, mais des proches D'autres ont perdu la tête, emportés par la crue D'autres ont choisi de faire le grand saut ! Entends-tu les cris dans nos allées ? Au bord d'une falaise Quand y'a plus d'monnaie Pour régler la facture d'eau Tellement de mépris, à qui parler Quand t'as plus d'salaire ? Donc isolés Y'en a qui ont choisi l'grand saut Y'en a qui ont choisi l'grand saut Y'en a qui ont choisi l'grand saut Entends-tu les cris dans nos allées ? Au bord d'une falaise Quand y'a plus d'monnaie Pour régler la facture d'eau Tellement de mépris, à qui parler Quand t'as plus d'salaire ? Donc isolés Y'en a qui ont choisi l'grand saut Y'en a qui ont choisi l'grand saut Y'en a qui ont choisi l'grand saut Paroles rédigées et expliquées par la communauté Rap Genius France !1</t>
+          <t>Y'en a qui ont choisi l'grand saut Entends-tu les cris dans nos allées ? Au bord d'une falaise Quand y'a plus d'monnaie Pour régler la facture d'eau Tellement de mépris, à qui parler Quand t'as plus d'salaire ? Donc isolés Y'en a qui ont choisi l'grand saut Des frères ont pris les armes pour leurs rêves accessibles Qu'en auront marre d'négliger l'appétit Car c'est la crise et les mêmes en profitent J'vais pas t'faire un croquis sur ceux qui font du profit Dorment au sommet de la rente, comme les Rothschild J'suis dans la foule, dis-leur qu'ça sent le roussi Malgré l'taf, dans nos poches, c'est la Russie La France d'en bas s'en va braquer la réussite À bout d'souffle pour nourrir son bout d'chou Pour une mère, pire qu'une balle à bout portant On s'bouscule, pendant qu'certains graillent tout Pour ça qu'on braille fort quand on gagne un peu d'sous Ça fait un bout d'temps qu'on voit la balle dans l'autre camp Akhi, tes ennemis ont éteint le feu d'camp Ici, la zermi fait qu'la bonté fout le camp Y'en a qui tuent l'temps, d'autres préfèrent quer-bra l'coffre Entends-tu les cris dans nos allées ? Au bord d'une falaise Quand y'a plus d'monnaie Pour régler la facture d'eau Tellement de mépris, à qui parler Quand t'as plus d'salaire ? Donc isolés Y'en a qui ont choisi l'grand saut Tu crois encore que les Hommes naissent égaux ? Libres de leurs choix, du berceau jusqu'au tombeau ? On y a cru, le canular était trop beau Dans nos H.L.M emboîtés comme des Lego On t'exploite, on te jette comme un mégot La bastos viendra percer leur égo Eux jouent en bourse, nous on rêve sur du Loto Leur aide ? Que du mytho, y a le diable sous leurs motos Le R.S.A. pour les gens de la street Qu'ont perdu l'espoir de faire germer la mif' Le PMU pour les mecs à l'ancienne Qu'ont toujours l'espoir de s'installer à Nice Le monde file, nique sa mère, on s'accroche J'ai perdu un kho, j'ai pas d'or, mais des proches D'autres ont perdu la tête, emportés par la crue D'autres ont choisi de faire le grand saut ! Entends-tu les cris dans nos allées ? Au bord d'une falaise Quand y'a plus d'monnaie Pour régler la facture d'eau Tellement de mépris, à qui parler Quand t'as plus d'salaire ? Donc isolés Y'en a qui ont choisi l'grand saut Y'en a qui ont choisi l'grand saut Y'en a qui ont choisi l'grand saut Entends-tu les cris dans nos allées ? Au bord d'une falaise Quand y'a plus d'monnaie Pour régler la facture d'eau Tellement de mépris, à qui parler Quand t'as plus d'salaire ? Donc isolés Y'en a qui ont choisi l'grand saut Y'en a qui ont choisi l'grand saut Y'en a qui ont choisi l'grand saut Paroles rédigées et expliquées par la communauté Rap Genius France !1</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Les renois font les ducs, aiment avaler J'ai mon beat pour t'empaler, sens la diff' j'fais des titres comme Khaled Suce, on te balaie, chut, crie pas à l'aide Tu vas bicrave mes barrettes, les MCs sont en galère Pas si facile, voici l'assassin Les salopes montrent leurs seins, font des mises en scène Pisse sur ta police, quitte pour l'acolyte J'ai mon double, c'est l'Aconit. Pas de doutes, j'vais les finir Paris c'est pas L.A, mon destin est scellé Tu m'as vu à la télé, j'suis acteur pas valet Bitch j'suis pas Pharrell, chic mais pas pareil Vis pour la parano, seul dans mon crédo x2 On détaille, nous en gros on t'étale T'auras beau faire de la Thaï, malheureux t'es pas de taille Nigga, nigga tu peux snifer du sable Du saignant et sale, tu vas te prendre une rafale Paris sous les bombes Paris sous les ponts Les jaloux, croient pouvoir trouver mon pareil sur les ondes Par ici les cons, Paris centre-ville Vous pourrez bien sucer des euq' comme Paris Hilton Ces garçons sont à court d'idées J'suis courtisé, nouvelle ère avalez Ça a le goût du lait j'ai le goût du risque Khey comme M.A.R.A des Courtillières Hallucinant, le peu-ra du ciné' On vient calciner. Préparez le diner ! Dites aux Zoulous que j'les aime bien saignants Sue comme au sonna, j'suis là pour le sommet You might also like x2 On détaille, nous en gros on t'étale T'auras beau faire de la Thaï, malheureux t'es pas de taille Nigga, nigga tu peux snifer du sable Du saignant et sale, tu vas te prendre une rafale Les rappeurs se perdent j'arrive, j'opère On m'épie, choqué panique, j'suis au taquet Dealer de raclées, malheur on me réclam' Chaleur, ta raclie pleure, je ricane Regard écarquillé Dis pas que tu représentes le ghetto, le quartier Quand tu passes che-lou, t'es inquiet Chez nous y a que des mecs entiers Pas ces bâtards qui vat-ssa les pompiers Paraît que dans ce game on peut se faire un bon pied Vu ma ganache on pourra pas me maquer C'est mort pour moi, j'passerais pas chez Ruquier x2 On détaille, nous en gros on t'étale T'auras beau faire de la Thaï, malheureux t'es pas de taille Nigga, nigga tu peux snifer du sable Du saignant et sale, tu vas te prendre une rafale Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Les renois font les ducs, aiment avaler J'ai mon beat pour t'empaler, sens la diff' j'fais des titres comme Khaled Suce, on te balaie, chut, crie pas à l'aide Tu vas bicrave mes barrettes, les MCs sont en galère Pas si facile, voici l'assassin Les salopes montrent leurs seins, font des mises en scène Pisse sur ta police, quitte pour l'acolyte J'ai mon double, c'est l'Aconit. Pas de doutes, j'vais les finir Paris c'est pas L.A, mon destin est scellé Tu m'as vu à la télé, j'suis acteur pas valet Bitch j'suis pas Pharrell, chic mais pas pareil Vis pour la parano, seul dans mon crédo x2 On détaille, nous en gros on t'étale T'auras beau faire de la Thaï, malheureux t'es pas de taille Nigga, nigga tu peux snifer du sable Du saignant et sale, tu vas te prendre une rafale Paris sous les bombes Paris sous les ponts Les jaloux, croient pouvoir trouver mon pareil sur les ondes Par ici les cons, Paris centre-ville Vous pourrez bien sucer des euq' comme Paris Hilton Ces garçons sont à court d'idées J'suis courtisé, nouvelle ère avalez Ça a le goût du lait j'ai le goût du risque Khey comme M.A.R.A des Courtillières Hallucinant, le peu-ra du ciné' On vient calciner. Préparez le diner ! Dites aux Zoulous que j'les aime bien saignants Sue comme au sonna, j'suis là pour le sommet x2 On détaille, nous en gros on t'étale T'auras beau faire de la Thaï, malheureux t'es pas de taille Nigga, nigga tu peux snifer du sable Du saignant et sale, tu vas te prendre une rafale Les rappeurs se perdent j'arrive, j'opère On m'épie, choqué panique, j'suis au taquet Dealer de raclées, malheur on me réclam' Chaleur, ta raclie pleure, je ricane Regard écarquillé Dis pas que tu représentes le ghetto, le quartier Quand tu passes che-lou, t'es inquiet Chez nous y a que des mecs entiers Pas ces bâtards qui vat-ssa les pompiers Paraît que dans ce game on peut se faire un bon pied Vu ma ganache on pourra pas me maquer C'est mort pour moi, j'passerais pas chez Ruquier x2 On détaille, nous en gros on t'étale T'auras beau faire de la Thaï, malheureux t'es pas de taille Nigga, nigga tu peux snifer du sable Du saignant et sale, tu vas te prendre une rafale Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Hein hein 7.5 Punisher Prod, H Magnum GomGom 9.3 Aulnay-Sous C'est le retour du flow qui stresse, beaucoup plus chaud que le Show Bizness Le micro chauffe, j'ai trop de vitesse et j'aimerai bien que ma folie me laisse Dans le rap y a plus de politesse, les MCs font de jolies dances Ca rappe, ça tise, ça frole l'ivresse. Si le rap il meurt, GomGom il reste J'écoute la concurrence, c'est nul, mais que veux-tu que j'te dise ? Plus j'grandis, plus ils font tièp, c'est comme les Télétubbies J'les baise, tous ceux qui disent que le Rap c'est des bétises Dans le Rap t'es encore à l'école... Moi chef d'entreprise ! Tu pètes les plombs, ça repart comme d'hab J'ai ce putain de flow qui cartonne grave Mon rap est trop paranormal Et toi t'as le flow de Clara Morgane Que serait Robin sans Batman ? Que serait Hitler sans l'Allemagne ? J'ai oublié le plus important... Que serait GomGom sans le Rap man ?! J'ai pas d'gent-ar comme 50 Cent, moi dans ma poche j'ai que 10 p'tits cents Il me faudrait plus qu'un feat qui saigne pour que j'sois content ma petite Gisèle C'est pas la fin du monde couz' si j'perce en 2012 Pour l'instant j'vous laisse kiffer, mais bientôt j'vous élimine tous ! You might also like J'suis dans le périmètre, j'ramène un phénomène GomGom Le Game est périmé, akhi say my name Magnum Plus le temps passe, plus tu t'effaces pendant qu'on brûle les phases J'compte bien laisser ma trace, si j'te dépasse, t'es périmé, dégage ! J'suis dans le périmètre, j'ramène un phénomène GomGom Le Game est périmé, akhi say my name Magnum On fait les bails pendant que tu brailles et que tu fais la racaille J'mitraille des grosses rafales, fais pas de détail, toi-même tu sais, c'est die ! GomGom vous élimine, j'suis l'deuxième élément P'tite mise à l'amende avant Gotham NoLimit Alors, haut les mains, j'craque une allumette J'suis derrière vous les mecs, c'est chaud dans le périmètre ! J'vise le sommet, tout se monnaie, j'vais te laminer Petit minable, il n'est pas né le MC qui compte me démont' Akhi téma ! Ici ça rappe comme des automates Ton le-sty vient du ché-mar, normal que tu t'manges des tomates J'ai pas besoin que vous m'aimiez, maman me le dit tous les tin-ma Oké, zappe mon num', mon nom et tous nos bons moments Je m'illumine et les michtos m'innondent J'manie les mots, au lit la même J'traine tah la night, me pose pas de questions J'suis au tièkson, au chaud dans mon caisson Un chewing gum, une glace Magnum Bientôt mon album, et mon gars GomGom ! Quand tu te livre on te reconnait, mais fais gaffe, le temps passe Il manque quelque chose dans ton rap, comme une instru sans basse Comme un film X sans 'tasses, comme la banquise sans glace Comme un vigile sans bras, comme du whisky sans Sky Mon blaze c'est GomGom ou Double G.O.M J'suis attendu dans le Rap comme les matchs P.S.GO.M Le Rap a besoin d'aide, j'le capte, même sans SMS T'enlève un U à Aulnay-Sous, ça devient Aulnay-S.O.S ! GomGom Magnum GomGom Magnum On fait les bails pendant que tu brailles et que tu fais la racaille J'mitraille des grosses rafales, fais pas de détail, toi-même tu sais, c'est die ! Paroles rédigées et annotées par la communauté française de Rap Genius1</t>
+          <t>Hein hein 7.5 Punisher Prod, H Magnum GomGom 9.3 Aulnay-Sous C'est le retour du flow qui stresse, beaucoup plus chaud que le Show Bizness Le micro chauffe, j'ai trop de vitesse et j'aimerai bien que ma folie me laisse Dans le rap y a plus de politesse, les MCs font de jolies dances Ca rappe, ça tise, ça frole l'ivresse. Si le rap il meurt, GomGom il reste J'écoute la concurrence, c'est nul, mais que veux-tu que j'te dise ? Plus j'grandis, plus ils font tièp, c'est comme les Télétubbies J'les baise, tous ceux qui disent que le Rap c'est des bétises Dans le Rap t'es encore à l'école... Moi chef d'entreprise ! Tu pètes les plombs, ça repart comme d'hab J'ai ce putain de flow qui cartonne grave Mon rap est trop paranormal Et toi t'as le flow de Clara Morgane Que serait Robin sans Batman ? Que serait Hitler sans l'Allemagne ? J'ai oublié le plus important... Que serait GomGom sans le Rap man ?! J'ai pas d'gent-ar comme 50 Cent, moi dans ma poche j'ai que 10 p'tits cents Il me faudrait plus qu'un feat qui saigne pour que j'sois content ma petite Gisèle C'est pas la fin du monde couz' si j'perce en 2012 Pour l'instant j'vous laisse kiffer, mais bientôt j'vous élimine tous ! J'suis dans le périmètre, j'ramène un phénomène GomGom Le Game est périmé, akhi say my name Magnum Plus le temps passe, plus tu t'effaces pendant qu'on brûle les phases J'compte bien laisser ma trace, si j'te dépasse, t'es périmé, dégage ! J'suis dans le périmètre, j'ramène un phénomène GomGom Le Game est périmé, akhi say my name Magnum On fait les bails pendant que tu brailles et que tu fais la racaille J'mitraille des grosses rafales, fais pas de détail, toi-même tu sais, c'est die ! GomGom vous élimine, j'suis l'deuxième élément P'tite mise à l'amende avant Gotham NoLimit Alors, haut les mains, j'craque une allumette J'suis derrière vous les mecs, c'est chaud dans le périmètre ! J'vise le sommet, tout se monnaie, j'vais te laminer Petit minable, il n'est pas né le MC qui compte me démont' Akhi téma ! Ici ça rappe comme des automates Ton le-sty vient du ché-mar, normal que tu t'manges des tomates J'ai pas besoin que vous m'aimiez, maman me le dit tous les tin-ma Oké, zappe mon num', mon nom et tous nos bons moments Je m'illumine et les michtos m'innondent J'manie les mots, au lit la même J'traine tah la night, me pose pas de questions J'suis au tièkson, au chaud dans mon caisson Un chewing gum, une glace Magnum Bientôt mon album, et mon gars GomGom ! Quand tu te livre on te reconnait, mais fais gaffe, le temps passe Il manque quelque chose dans ton rap, comme une instru sans basse Comme un film X sans 'tasses, comme la banquise sans glace Comme un vigile sans bras, comme du whisky sans Sky Mon blaze c'est GomGom ou Double G.O.M J'suis attendu dans le Rap comme les matchs P.S.GO.M Le Rap a besoin d'aide, j'le capte, même sans SMS T'enlève un U à Aulnay-Sous, ça devient Aulnay-S.O.S ! GomGom Magnum GomGom Magnum On fait les bails pendant que tu brailles et que tu fais la racaille J'mitraille des grosses rafales, fais pas de détail, toi-même tu sais, c'est die ! Paroles rédigées et annotées par la communauté française de Rap Genius1</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Cest quand les lumières séteignent Quon voit la valeur dlétincelle Une pensée aux longues peines Jnai jamais vu dregards aussi sincères-ères Et quand un dnos frères sréinsère Cest une Maman juste à côté qui pleure sa chair Nos histoires ici finissent au Père Lachaise Difficile de voir son petit père en chaise Quand tas pas dtunes, quand tes restreint Envie de séquestrer son médecin Dis-leur quon a le mord Oh oui dis-leur quon a le mord Et on assume cest le destin On se bat car ya pas de mécènes Dis-leur quon a le mord Oh oui dis-leur quon a le mord Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse Ici les réalités nous prennent en chasse You might also like Dis-leur quon ne pleure plus Espérer cest tout cquon a La Foi pour sécher nos larmes Jusquau jour où lange viendra dresser nos âmes Chacun dans odyssée Moi je narrive plus à méditer Car jai le mal du pays Jai vu des amis proches méviter Je fuirais pas les signes, j'espère caler loin dici Marre des fans et de vos feats, ya toutes les années qui défilent Et moi jsuis figé sur le fil, piégé dans le fond Assiégé par les flics, combien de res-frè jai vu tomber ? Grâce à Dieu, difficile, mais jai quitté le rrain-te Mais jtavoue que ma vie elle est teintée Cest la hass donc obligé de feinter Tard le soir tous mes démons me parlent Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse Ici les réalités nous prennent en chasse Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse</t>
+          <t>Cest quand les lumières séteignent Quon voit la valeur dlétincelle Une pensée aux longues peines Jnai jamais vu dregards aussi sincères-ères Et quand un dnos frères sréinsère Cest une Maman juste à côté qui pleure sa chair Nos histoires ici finissent au Père Lachaise Difficile de voir son petit père en chaise Quand tas pas dtunes, quand tes restreint Envie de séquestrer son médecin Dis-leur quon a le mord Oh oui dis-leur quon a le mord Et on assume cest le destin On se bat car ya pas de mécènes Dis-leur quon a le mord Oh oui dis-leur quon a le mord Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse Ici les réalités nous prennent en chasse Dis-leur quon ne pleure plus Espérer cest tout cquon a La Foi pour sécher nos larmes Jusquau jour où lange viendra dresser nos âmes Chacun dans odyssée Moi je narrive plus à méditer Car jai le mal du pays Jai vu des amis proches méviter Je fuirais pas les signes, j'espère caler loin dici Marre des fans et de vos feats, ya toutes les années qui défilent Et moi jsuis figé sur le fil, piégé dans le fond Assiégé par les flics, combien de res-frè jai vu tomber ? Grâce à Dieu, difficile, mais jai quitté le rrain-te Mais jtavoue que ma vie elle est teintée Cest la hass donc obligé de feinter Tard le soir tous mes démons me parlent Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse Ici les réalités nous prennent en chasse Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse Qui na jamais rêvé dfaire un casse ? Limpression dêtre figé face au temps qui passe Comment tu fais quand tes dans limpasse ? Ici les réalités nous prennent en chasse</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Meknessi Style Records H Dream Chaud Chaud Chaud Plus belle q'on s'écrase comme Aaliya Beaucoup d'ennemis, très peu d'alliés Tu veux le bonheur, c'est raliya Personne ne va remplir ton panier Tu feras pas le buzz, t'es trop niya Les jaloux, j'ai besoin d'eux, j'peux pas nier Moi, j'ai connais l'amour et ses aléas Elle m'a dit Je te quitte pour le palmiers Tu te sentira pas mieux sans moi Mama Mama Choufou lmeglou3 cha dar fiya Yana yana Win 7babi w jro 3liya Mama Mama Ana lmektoub li darha liya Yana yana Ntmenah iwelli liya You might also like Tu m'as reconnu, mamma mia Je reviens de loin d'Alméria J'ai brisé le cur de Marianne À DJ Hamida, Algéria Elle est rentre dans mon phone comme un geurrier Comme S.O.O.L King, c'est la Guérilla T'as voulu tout quitter, t'en aller Mais tu n'te sentira pas mieux sans moi Mazal tmoutou b'la jalousie Mou7el ysma7 fiya 3omri Bghito w bghani Hadi bayna bayna Lhbal w la fiesta Baïla baïla Mama Mama Choufou lmeglou3 cha dar fiya Yana yana Win 7babi w jro 3liya Mama Mama Ana lmektoub li darha liya Yana yana Ntmenah iwelli liya</t>
+          <t>Meknessi Style Records H Dream Chaud Chaud Chaud Plus belle q'on s'écrase comme Aaliya Beaucoup d'ennemis, très peu d'alliés Tu veux le bonheur, c'est raliya Personne ne va remplir ton panier Tu feras pas le buzz, t'es trop niya Les jaloux, j'ai besoin d'eux, j'peux pas nier Moi, j'ai connais l'amour et ses aléas Elle m'a dit Je te quitte pour le palmiers Tu te sentira pas mieux sans moi Mama Mama Choufou lmeglou3 cha dar fiya Yana yana Win 7babi w jro 3liya Mama Mama Ana lmektoub li darha liya Yana yana Ntmenah iwelli liya Tu m'as reconnu, mamma mia Je reviens de loin d'Alméria J'ai brisé le cur de Marianne À DJ Hamida, Algéria Elle est rentre dans mon phone comme un geurrier Comme S.O.O.L King, c'est la Guérilla T'as voulu tout quitter, t'en aller Mais tu n'te sentira pas mieux sans moi Mazal tmoutou b'la jalousie Mou7el ysma7 fiya 3omri Bghito w bghani Hadi bayna bayna Lhbal w la fiesta Baïla baïla Mama Mama Choufou lmeglou3 cha dar fiya Yana yana Win 7babi w jro 3liya Mama Mama Ana lmektoub li darha liya Yana yana Ntmenah iwelli liya</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ième 3 Pro, JR O Crom, Prohi-B Injection Lyricale, Sexion d'Assaut Alors que la Terre tourne, l'homme s'adonne à des activités futiles L'aconit Manque de pot, les journalistes n'ont plus de questions Les caméras ne donnent plus d'image, puis Claire Chazal qui reste chez elle Les pom-pom girls n'ont plus d'idées pour leurs chorés Manque de pot, le public sait pourtant c'est chaud comme en Corée Okay, j'ai mal mais mes très proches m'ont traité de fou Depuis que Dieu le Tout-Puissant me fait l'artiste de ce qu'on ne voit pas Les philosophes se contredisent La médisance se banalise, la fin du monde je réalise Manque de pot, il est temps qu'on arrive Ici, c'est Sexion d'Assaut, pas une clique de connards ivres Mais plutôt net, et plus tôt aux notes des putes aux normes Y'en a plus de 1000 pendant qu'ici depuis un tas d'équipes meurent Manque de pot la France n'est pas en manque de pauvre Un monde de pauvre puis ça suscite de causes un manque de soss' Manque de pot, de cette Terre on a prit le commandement C'est la course à l'argent boy et pas la peine qu'on m'en demande Pendant que les artistes, les hommes et leurs armes trichent Pendant que les arts et les rêves de ceux qui nous casse Chez nous c'est manque de peau demande à Moussa, salaud Rêve de femmes comme Houri, tout ceux qui ont XXX l'savent ... pour ceux qui font l'tawba recerne toi dis starfoullah Arrête de jouer l'con lorsque la XXX tise XX Manque de bol, l'Afrique est dans la crise Victime de la triche et de la prise de la Victime des shows d'alcools contre hommes Futur esclave et pas d'escales ou des gens XXX Manque de pot, bientôt plus d'mec cadres Ici les mecs tardent d'avoir que tout meurt c'est l'mektoub You might also like Manque de pot, les journalistes n'ont plus de questions Les caméras ne donnent plus d'image, puis Claire Chazal qui reste chez elle Les pom-pom girls n'ont plus d'idées pour leurs chorés Manque de pot, le public sait pourtant c'est chaud comme en Corée Okay, j'ai mal mais mes très proches m'ont traité de fou Depuis que Dieu le Tout-Puissant me fait l'artiste de ce qu'on ne voit pas Les philosophes se contredisent La médisance se banalise, la fin du monde je réalise Bienvenue là où les arguments sont un poison Les transgresseurs n'ont plus d'limite puis les médias veulent tous le scoop Les préfectures sont débordées Les immigrés font tous le rêve là où il pleut des fafs' français N'abuse pas sur la boisson, car sur certaines des phases t'as tords Oui cependant un verre d'alcool peut s'avérer dévastateur Jamais les loups n'ont négocier avec les poules Manque de pot, Paris m'aspire, Pigalle produit des films de boules Les prostituées montrent leurs atouts, les bois d'boubou' regorge de dep's Manque de pot la France en dette, j'casse mon ram'dam avec une datte La mort c'est vrai, la vie c'est faux, la foi dans l'faux Les fous, les folles, souvent en foule et fou du foot, guettez les foudres Combien des jeunes des ghettos chics pourraient prétendre connaître leurs droits Manque de pot j'traine à Paname, met moi sous Terre du côté droit On nous a tous donné l'choix, maintenant j'peux dire j'rentre chez moi Dans quelques temps faut qu'j'marrache, faut bien que j'fasse jumu'a Manque de pot, les journalistes n'ont plus de questions Les caméras ne donnent plus d'image, puis Claire Chazal qui reste chez elle Les pom-pom girls n'ont plus d'idées pour leurs chorés Manque de pot, le public sait pourtant c'est chaud comme en Corée Okay, j'ai mal mais mes très proches m'ont traité de fou Depuis que Dieu le Tout-Puissant me fait l'artiste de ce qu'on ne voit pas Les philosophes se contredisent La médisance se banalise, la fin du monde je réalise Le respect se perd, les jeunes s'opèrent Les efforts séparent, sans faute on s'empare du flingue Sans peur guette mon père s'en faire Moi son gosse sans coeur chez nous on s'enterre Affaire de centimes dans mes textes sans thème Sans thème ce thème manque de pot ta sentence T'es sans danger sans don, combien ont eu le sida ont fait des XXXXX Avec l'argent facile on se sent fort On s'enfonce vers le mauvais sentier Sans tiep on fume la sensi comme toi sans fil Ensuite on s'enfuit vers où le son file S'en suit les causes et le gaz va sauter Petite vie sans dard, aujourd'hui sans taf Se piquent et s'en tapent, vit sans cape Dans ma tess syncope y'a pas trop de capote On kicke tel des XXXXX et là c'est le drame Manque de pot, les journalistes n'ont plus de questions Les caméras ne donnent plus d'image, puis Claire Chazal qui reste chez elle Les pom-pom girls n'ont plus d'idées pour leurs chorés Manque de pot, le public sait pourtant c'est chaud comme en Corée Okay, j'ai mal mais mes très proches m'ont traité de fou Depuis que Dieu le Tout-Puissant me fait l'artiste de ce qu'on ne voit pas Les philosophes se contredisent La médisance se banalise, la fin du monde je réalise Manque de pot, les journalistes n'ont plus de questions Les caméras ne donnent plus d'image, puis Claire Chazal qui reste chez elle Les pom-pom girls n'ont plus d'idées pour leurs chorés Manque de pot, le public sait pourtant c'est chaud comme en Corée Okay, j'ai mal mais mes très proches m'ont traité de fou Depuis que Dieu le Tout-Puissant me fait l'artiste de ce qu'on ne voit pas Les philosophes se contredisent La médisance se banalise, la fin du monde je réalise</t>
+          <t>Ième 3 Pro, JR O Crom, Prohi-B Injection Lyricale, Sexion d'Assaut Alors que la Terre tourne, l'homme s'adonne à des activités futiles L'aconit Manque de pot, les journalistes n'ont plus de questions Les caméras ne donnent plus d'image, puis Claire Chazal qui reste chez elle Les pom-pom girls n'ont plus d'idées pour leurs chorés Manque de pot, le public sait pourtant c'est chaud comme en Corée Okay, j'ai mal mais mes très proches m'ont traité de fou Depuis que Dieu le Tout-Puissant me fait l'artiste de ce qu'on ne voit pas Les philosophes se contredisent La médisance se banalise, la fin du monde je réalise Manque de pot, il est temps qu'on arrive Ici, c'est Sexion d'Assaut, pas une clique de connards ivres Mais plutôt net, et plus tôt aux notes des putes aux normes Y'en a plus de 1000 pendant qu'ici depuis un tas d'équipes meurent Manque de pot la France n'est pas en manque de pauvre Un monde de pauvre puis ça suscite de causes un manque de soss' Manque de pot, de cette Terre on a prit le commandement C'est la course à l'argent boy et pas la peine qu'on m'en demande Pendant que les artistes, les hommes et leurs armes trichent Pendant que les arts et les rêves de ceux qui nous casse Chez nous c'est manque de peau demande à Moussa, salaud Rêve de femmes comme Houri, tout ceux qui ont XXX l'savent ... pour ceux qui font l'tawba recerne toi dis starfoullah Arrête de jouer l'con lorsque la XXX tise XX Manque de bol, l'Afrique est dans la crise Victime de la triche et de la prise de la Victime des shows d'alcools contre hommes Futur esclave et pas d'escales ou des gens XXX Manque de pot, bientôt plus d'mec cadres Ici les mecs tardent d'avoir que tout meurt c'est l'mektoub Manque de pot, les journalistes n'ont plus de questions Les caméras ne donnent plus d'image, puis Claire Chazal qui reste chez elle Les pom-pom girls n'ont plus d'idées pour leurs chorés Manque de pot, le public sait pourtant c'est chaud comme en Corée Okay, j'ai mal mais mes très proches m'ont traité de fou Depuis que Dieu le Tout-Puissant me fait l'artiste de ce qu'on ne voit pas Les philosophes se contredisent La médisance se banalise, la fin du monde je réalise Bienvenue là où les arguments sont un poison Les transgresseurs n'ont plus d'limite puis les médias veulent tous le scoop Les préfectures sont débordées Les immigrés font tous le rêve là où il pleut des fafs' français N'abuse pas sur la boisson, car sur certaines des phases t'as tords Oui cependant un verre d'alcool peut s'avérer dévastateur Jamais les loups n'ont négocier avec les poules Manque de pot, Paris m'aspire, Pigalle produit des films de boules Les prostituées montrent leurs atouts, les bois d'boubou' regorge de dep's Manque de pot la France en dette, j'casse mon ram'dam avec une datte La mort c'est vrai, la vie c'est faux, la foi dans l'faux Les fous, les folles, souvent en foule et fou du foot, guettez les foudres Combien des jeunes des ghettos chics pourraient prétendre connaître leurs droits Manque de pot j'traine à Paname, met moi sous Terre du côté droit On nous a tous donné l'choix, maintenant j'peux dire j'rentre chez moi Dans quelques temps faut qu'j'marrache, faut bien que j'fasse jumu'a Manque de pot, les journalistes n'ont plus de questions Les caméras ne donnent plus d'image, puis Claire Chazal qui reste chez elle Les pom-pom girls n'ont plus d'idées pour leurs chorés Manque de pot, le public sait pourtant c'est chaud comme en Corée Okay, j'ai mal mais mes très proches m'ont traité de fou Depuis que Dieu le Tout-Puissant me fait l'artiste de ce qu'on ne voit pas Les philosophes se contredisent La médisance se banalise, la fin du monde je réalise Le respect se perd, les jeunes s'opèrent Les efforts séparent, sans faute on s'empare du flingue Sans peur guette mon père s'en faire Moi son gosse sans coeur chez nous on s'enterre Affaire de centimes dans mes textes sans thème Sans thème ce thème manque de pot ta sentence T'es sans danger sans don, combien ont eu le sida ont fait des XXXXX Avec l'argent facile on se sent fort On s'enfonce vers le mauvais sentier Sans tiep on fume la sensi comme toi sans fil Ensuite on s'enfuit vers où le son file S'en suit les causes et le gaz va sauter Petite vie sans dard, aujourd'hui sans taf Se piquent et s'en tapent, vit sans cape Dans ma tess syncope y'a pas trop de capote On kicke tel des XXXXX et là c'est le drame Manque de pot, les journalistes n'ont plus de questions Les caméras ne donnent plus d'image, puis Claire Chazal qui reste chez elle Les pom-pom girls n'ont plus d'idées pour leurs chorés Manque de pot, le public sait pourtant c'est chaud comme en Corée Okay, j'ai mal mais mes très proches m'ont traité de fou Depuis que Dieu le Tout-Puissant me fait l'artiste de ce qu'on ne voit pas Les philosophes se contredisent La médisance se banalise, la fin du monde je réalise Manque de pot, les journalistes n'ont plus de questions Les caméras ne donnent plus d'image, puis Claire Chazal qui reste chez elle Les pom-pom girls n'ont plus d'idées pour leurs chorés Manque de pot, le public sait pourtant c'est chaud comme en Corée Okay, j'ai mal mais mes très proches m'ont traité de fou Depuis que Dieu le Tout-Puissant me fait l'artiste de ce qu'on ne voit pas Les philosophes se contredisent La médisance se banalise, la fin du monde je réalise</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Loin de moi car j'suis un mauvais djo Mauvais djo, mauvais djo Tu me veux mais j'suis un mauvais djo Mauvais djo, mauvais djo Fuis moi bébé j'suis un mauvais djo Mauvais djo, mauvais djo Je viens du ghetto j'suis un mauvais djo Mauvais djo, mauvais djo Hum Quand je cogite sur ma vie c'est un miracle Je n'ai jamais trahi car ça mène au mirage Es ce qu'un jour ma peine s'en ira hey Hum hum Malgré ma roli mon bolide, ma saç, ma moula J'suis suspect Hummm lelelelele Je te mens pas chui un OG Hummm lelelelelele j'ai grandi dans des taudis Hummm lelelelele Beaucoup d mes reuf son en condi Hummm llelelelele You might also likeMa pipe sur le photo call Garde a vue et des fausses infos sur ma life La juge veut me foutre en taule Je ne regrette rien Loin de moi car j'suis un mauvais djo Mauvais djo, mauvais djo Tu me veux mais j'suis un mauvais djo Mauvais djo, mauvais djo Fuis moi bébé chui un mauvais djo Mauvais djo, mauvais djo Je viens du ghetto chui un mauvais djo Mauvais djo, mauvais djo Putain de lover Rend moi mes putain de lové hey Face à millions d'euros ya très peu d'amitié La kichta est mauve, les regards autour sont mauvais hey Tous ces amis d'enfance vont tous s'entretuer Ya pas que les flics qui ter-sau Chacun veut ça pièce pièce pièce Tu connais la vie dans le ghetto On veut dompter la hess A la base j'suis un bon, c'est la rue qui m'a changé Le vice qui m'a tendu la main et j'ai plongé Dans les escaliers de la tour, quand je dormais L'amour m'a pas tendu les mains donc j'ai plongé Loin de moi car j'suis un mauvais djo Mauvais djo, mauvais djo Tu me veux mais j'suis un mauvais djo Mauvais djo, mauvais djo Fuis moi bébé j'suis un mauvais djo Mauvais djo, mauvais djo Je viens du ghetto chui un mauvais djo Mauvais djo, mauvais djo Hummm lelelelele Je te mens pas chui un OG Hummm lelelelelele J'ai grandi dans des taudis Hummm lelelelele Beaucoup de mes reuf son en condi</t>
+          <t>Loin de moi car j'suis un mauvais djo Mauvais djo, mauvais djo Tu me veux mais j'suis un mauvais djo Mauvais djo, mauvais djo Fuis moi bébé j'suis un mauvais djo Mauvais djo, mauvais djo Je viens du ghetto j'suis un mauvais djo Mauvais djo, mauvais djo Hum Quand je cogite sur ma vie c'est un miracle Je n'ai jamais trahi car ça mène au mirage Es ce qu'un jour ma peine s'en ira hey Hum hum Malgré ma roli mon bolide, ma saç, ma moula J'suis suspect Hummm lelelelele Je te mens pas chui un OG Hummm lelelelelele j'ai grandi dans des taudis Hummm lelelelele Beaucoup d mes reuf son en condi Hummm llelelelele Ma pipe sur le photo call Garde a vue et des fausses infos sur ma life La juge veut me foutre en taule Je ne regrette rien Loin de moi car j'suis un mauvais djo Mauvais djo, mauvais djo Tu me veux mais j'suis un mauvais djo Mauvais djo, mauvais djo Fuis moi bébé chui un mauvais djo Mauvais djo, mauvais djo Je viens du ghetto chui un mauvais djo Mauvais djo, mauvais djo Putain de lover Rend moi mes putain de lové hey Face à millions d'euros ya très peu d'amitié La kichta est mauve, les regards autour sont mauvais hey Tous ces amis d'enfance vont tous s'entretuer Ya pas que les flics qui ter-sau Chacun veut ça pièce pièce pièce Tu connais la vie dans le ghetto On veut dompter la hess A la base j'suis un bon, c'est la rue qui m'a changé Le vice qui m'a tendu la main et j'ai plongé Dans les escaliers de la tour, quand je dormais L'amour m'a pas tendu les mains donc j'ai plongé Loin de moi car j'suis un mauvais djo Mauvais djo, mauvais djo Tu me veux mais j'suis un mauvais djo Mauvais djo, mauvais djo Fuis moi bébé j'suis un mauvais djo Mauvais djo, mauvais djo Je viens du ghetto chui un mauvais djo Mauvais djo, mauvais djo Hummm lelelelele Je te mens pas chui un OG Hummm lelelelelele J'ai grandi dans des taudis Hummm lelelelele Beaucoup de mes reuf son en condi</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MCs je vous dégoûte, juste-juste par ma dégaine Trop de swagg qui s'en dégage, tu veux être mon pote, vas-y dégage ! Que des vrais bonhommes, pas des gars qui tirent avant d'avoir un gun Ferme ta gueule, ou bien fais-le, va dire au proc' qu'il le fallait Wesh pourquoi je parle de ces gars ? Bref big up à Françoise Sagan Laisse moi faire crari je bouquine les best-seller de Fayza Guene En écoutant du Ratinga, j'connais l'histoire de Matimba Paro comme le petit Demba, ne vous débattez pas M.C.'s vous êtes dead M.C.'s vous êtes dead M.C.'s vous êtes dead Dead Incarcéré, ils ont voulu m'éliminer Tellement j'les ai baisé, ils ne peuvent pas m'oublier Calibré, gilet pare-balles pour tous vous allumer XXX Junior, c'est comme ça qu'j'suis préparé ! J'viens serrer une 'loppe du 77, d'un coup j'veux en être J'suis excité comme un Pur sang, la grosse chatte à tes ancêtres D'ailleurs on est pas de la même graine, beleck, j'monte au créneau J'vais t'agresser p'tit embaffé, vaffa enculo ! J'ai B.S sur le polo c'est la classe et le swagg coño J'suis au vert, avec les potos, thieboudienne, bouteille de Jacko' A 30 à l'ombre, on est crâmé jusqu'au bout MC t'es dead toi et ton crew, j'en fais une pierre deux coups Fin de Dream. T'es dans l'buisson papa Sert ton cul, marche au pas, ne vous débattez pas Fin de Dream. T'es dans l'buisson papa Sert ton cul, marche au pas, ne vous débattez pas You might also like M.C.'s vous êtes dead M.C.'s vous êtes dead M.C.'s vous êtes dead Dead J'sais plus d'où je viens, j'deviens amnésique, fanatique, titre trop haut nique J'me ballade entre l'amour, la haine, les rimes et la musique Quelques films à titre posthumes au cas où on fume ma clique Les écrits ont traversé le temps, mes écrits le feront aussi J'peux le faire aussi vite qu'un des clips qu'un neg' qui flippe pour le fric J'suis la rythmique, j'ai une éthique, MC j'suis mathématique J'mise sur les jetons comme l'Etat mise sur des pions J'suis pas un michton même quand j'me détends j'ai des airs de mauvais garçon M.C.'s vous êtes dead M.C.'s vous êtes dead M.C.'s vous êtes dead Dead Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>MCs je vous dégoûte, juste-juste par ma dégaine Trop de swagg qui s'en dégage, tu veux être mon pote, vas-y dégage ! Que des vrais bonhommes, pas des gars qui tirent avant d'avoir un gun Ferme ta gueule, ou bien fais-le, va dire au proc' qu'il le fallait Wesh pourquoi je parle de ces gars ? Bref big up à Françoise Sagan Laisse moi faire crari je bouquine les best-seller de Fayza Guene En écoutant du Ratinga, j'connais l'histoire de Matimba Paro comme le petit Demba, ne vous débattez pas M.C.'s vous êtes dead M.C.'s vous êtes dead M.C.'s vous êtes dead Dead Incarcéré, ils ont voulu m'éliminer Tellement j'les ai baisé, ils ne peuvent pas m'oublier Calibré, gilet pare-balles pour tous vous allumer XXX Junior, c'est comme ça qu'j'suis préparé ! J'viens serrer une 'loppe du 77, d'un coup j'veux en être J'suis excité comme un Pur sang, la grosse chatte à tes ancêtres D'ailleurs on est pas de la même graine, beleck, j'monte au créneau J'vais t'agresser p'tit embaffé, vaffa enculo ! J'ai B.S sur le polo c'est la classe et le swagg coño J'suis au vert, avec les potos, thieboudienne, bouteille de Jacko' A 30 à l'ombre, on est crâmé jusqu'au bout MC t'es dead toi et ton crew, j'en fais une pierre deux coups Fin de Dream. T'es dans l'buisson papa Sert ton cul, marche au pas, ne vous débattez pas Fin de Dream. T'es dans l'buisson papa Sert ton cul, marche au pas, ne vous débattez pas M.C.'s vous êtes dead M.C.'s vous êtes dead M.C.'s vous êtes dead Dead J'sais plus d'où je viens, j'deviens amnésique, fanatique, titre trop haut nique J'me ballade entre l'amour, la haine, les rimes et la musique Quelques films à titre posthumes au cas où on fume ma clique Les écrits ont traversé le temps, mes écrits le feront aussi J'peux le faire aussi vite qu'un des clips qu'un neg' qui flippe pour le fric J'suis la rythmique, j'ai une éthique, MC j'suis mathématique J'mise sur les jetons comme l'Etat mise sur des pions J'suis pas un michton même quand j'me détends j'ai des airs de mauvais garçon M.C.'s vous êtes dead M.C.'s vous êtes dead M.C.'s vous êtes dead Dead Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Tu m'as dis Tous les jours moula pour les miens eh J'fais la diff' lové, j'me sens bien On meurt en vie comme des rajels hey Tu m'as dis tu m'as dis Beaucoup trop parler, c'est pas bien beaucoup trop parler, c'est pas bien Mais tu m'as trahi pour combien ? mais tu m'as trahi pour combien Et quand c'est trop tard, tu t'rachètes hey Mon bébé donne-moi ton cur si t'as bobo J'referai la déco' si on avance dans le temps Moi j'ai le temps, ça c'est l'âge pour faire dodo Repose-toi sur moi, on sera riche avant la mi-tmps Medellín, les gns sont appairés, j'te l'dis Y a pas d'amis mais beaucoup d'abonnés qui m'demandent À quoi ça rime ? Tu sais les gens sont mauvais eh, eh, eh mais on a rien à prouver comme à Medellín Assez d'élan rattrape-moi si tu peux Refais la déco', ça comme vatos rattrape-moi si tu peux Loko, j'ai les crocs comme Pablo rattrape-moi si tu peux Medellín rattrape-moi si tu peux Tout est dit tout est dit, c'est le V, c'est le H, ça sonne bien c'est le V, c'est le H, ça sonne bien Y a de quoi te rafaler ta mère y a de quoi te rafaler ta mère J'suis parano comme un riche instinct J'l'ai prédis j'l'ai prédis que j'reviendrai tout saccager saccager Après moi, que des maccabées J'suis avec bien à table You might also like Mon bébé donne-moi ton cur si t'as bobo J'referai la déco' si on avance dans le temps Moi j'ai le temps, ça c'est l'âge pour faire dodo Repose-toi sur moi, on sera riche avant la mi-temps Medellín, les gens sont appairés, j'te l'dis Y a pas d'amis mais beaucoup d'abonnés qui m'demandent À quoi ça rime ? Tu sais les gens sont mauvais eh, eh, eh mais on a rien à prouver comme à Medellín Assez d'élan rattrape-moi si tu peux Refais la déco', ça comme vatos rattrape-moi si tu peux Loko, j'ai les crocs comme Pablo rattrape-moi si tu peux Medellín rattrape-moi si tu peux C'est le V, c'est le H, ça sonne bien J'suis parano comme un riche instinct Medellín Y a de quoi te rafaler ta mère Medellín</t>
+          <t>Tu m'as dis Tous les jours moula pour les miens eh J'fais la diff' lové, j'me sens bien On meurt en vie comme des rajels hey Tu m'as dis tu m'as dis Beaucoup trop parler, c'est pas bien beaucoup trop parler, c'est pas bien Mais tu m'as trahi pour combien ? mais tu m'as trahi pour combien Et quand c'est trop tard, tu t'rachètes hey Mon bébé donne-moi ton cur si t'as bobo J'referai la déco' si on avance dans le temps Moi j'ai le temps, ça c'est l'âge pour faire dodo Repose-toi sur moi, on sera riche avant la mi-tmps Medellín, les gns sont appairés, j'te l'dis Y a pas d'amis mais beaucoup d'abonnés qui m'demandent À quoi ça rime ? Tu sais les gens sont mauvais eh, eh, eh mais on a rien à prouver comme à Medellín Assez d'élan rattrape-moi si tu peux Refais la déco', ça comme vatos rattrape-moi si tu peux Loko, j'ai les crocs comme Pablo rattrape-moi si tu peux Medellín rattrape-moi si tu peux Tout est dit tout est dit, c'est le V, c'est le H, ça sonne bien c'est le V, c'est le H, ça sonne bien Y a de quoi te rafaler ta mère y a de quoi te rafaler ta mère J'suis parano comme un riche instinct J'l'ai prédis j'l'ai prédis que j'reviendrai tout saccager saccager Après moi, que des maccabées J'suis avec bien à table Mon bébé donne-moi ton cur si t'as bobo J'referai la déco' si on avance dans le temps Moi j'ai le temps, ça c'est l'âge pour faire dodo Repose-toi sur moi, on sera riche avant la mi-temps Medellín, les gens sont appairés, j'te l'dis Y a pas d'amis mais beaucoup d'abonnés qui m'demandent À quoi ça rime ? Tu sais les gens sont mauvais eh, eh, eh mais on a rien à prouver comme à Medellín Assez d'élan rattrape-moi si tu peux Refais la déco', ça comme vatos rattrape-moi si tu peux Loko, j'ai les crocs comme Pablo rattrape-moi si tu peux Medellín rattrape-moi si tu peux C'est le V, c'est le H, ça sonne bien J'suis parano comme un riche instinct Medellín Y a de quoi te rafaler ta mère Medellín</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Baby dom, baby na gama gama Baby dom, baby na gama Oh, baby dom, baby na gama gama Baby dom, baby na gama Baby dom, baby na gama gama Baby dom, baby na gama Oh, baby dom, baby na gama gama Baby dom, baby na gama I love you I need you I love you I need you I love you I need you I love you I need you Bad man, qui est là abalanciela Je vis loin du monde, loin du game, bambina Quatre cents ans fuera, baby mama buena J'ai besoin de toi dans ma vie, umbrella Petite coquine, t'aimes bien que j'te pénarde Même si t'es chiante, bad gyal, t'es pas veinarde African queen, ici, c'est la win Ça s'voit que la chute de terrain vient de Douala You might also like I love you I need you I love you I need you Ok, pourquoi tu m'as ché-lâ ? Tu m'diras Je sais pas En tout cas, pour moi, la musique, ça che-mar Tapie dans ton silence, tu m'as menti sciemment Les épaules recouvertes de diamants Baby gyal, ti amo Laisse-moi t'le dire avec un piano Ta poitrine, c'est chez moi parce que t'es ma tié-moi Tellement soudé, jalousé par les siamois Babylone nous sépare Paris centre, c'est moi Tellement de prétendantes qui veulent se cer-pla Baby dom, baby dom dom dom Baby, baby, baby, dom dom dom Baby dom, baby dom dom dom Baby, baby, baby, dom dom dom I love you I need you I love you I need you I love you Baby dom, baby dom dom dom I need you Baby, baby, baby, dom dom dom I love you Baby dom, baby dom dom dom I need you Baby, baby, baby, dom dom dom Baby dom, baby na gama gama Baby dom, baby na gama Baby dom, baby na gama gama Baby dom, baby na gama Baby dom, baby na gama gama Baby dom, baby na gama Baby dom, baby na gama gama Baby dom, baby na gama</t>
+          <t>Baby dom, baby na gama gama Baby dom, baby na gama Oh, baby dom, baby na gama gama Baby dom, baby na gama Baby dom, baby na gama gama Baby dom, baby na gama Oh, baby dom, baby na gama gama Baby dom, baby na gama I love you I need you I love you I need you I love you I need you I love you I need you Bad man, qui est là abalanciela Je vis loin du monde, loin du game, bambina Quatre cents ans fuera, baby mama buena J'ai besoin de toi dans ma vie, umbrella Petite coquine, t'aimes bien que j'te pénarde Même si t'es chiante, bad gyal, t'es pas veinarde African queen, ici, c'est la win Ça s'voit que la chute de terrain vient de Douala I love you I need you I love you I need you Ok, pourquoi tu m'as ché-lâ ? Tu m'diras Je sais pas En tout cas, pour moi, la musique, ça che-mar Tapie dans ton silence, tu m'as menti sciemment Les épaules recouvertes de diamants Baby gyal, ti amo Laisse-moi t'le dire avec un piano Ta poitrine, c'est chez moi parce que t'es ma tié-moi Tellement soudé, jalousé par les siamois Babylone nous sépare Paris centre, c'est moi Tellement de prétendantes qui veulent se cer-pla Baby dom, baby dom dom dom Baby, baby, baby, dom dom dom Baby dom, baby dom dom dom Baby, baby, baby, dom dom dom I love you I need you I love you I need you I love you Baby dom, baby dom dom dom I need you Baby, baby, baby, dom dom dom I love you Baby dom, baby dom dom dom I need you Baby, baby, baby, dom dom dom Baby dom, baby na gama gama Baby dom, baby na gama Baby dom, baby na gama gama Baby dom, baby na gama Baby dom, baby na gama gama Baby dom, baby na gama Baby dom, baby na gama gama Baby dom, baby na gama</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Baby dom, baby na gama gama Baby dom, baby na gama Oh, baby dom, baby na gama gama Baby dom, baby na gama Baby dom, baby na gama gama Baby dom, baby na gama Oh, baby dom, baby na gama gama Baby dom, baby na gama I love you I need you I love you I need you I love you I need you I love you I need you Bad man, qui est là abalanciela Je vis loin du monde, loin du game, bambina Quatre cents ans fuera, baby mama buena J'ai besoin de toi dans ma vie, umbrella Petite coquine, t'aimes bien que j'te pénarde Même si t'es chiante, bad gyal, t'es pas veinarde You might also like I love you I need you I love you I need you Ok, pourquoi tu m'as ché-lâ ? Tu m'diras Je sais pas En tout cas, pour moi, la musique, ça che-mar Tapie dans ton silence, tu m'as menti sciemment Ls épaules recouverts de diamants Baby gyal, ti amo Laisse-moi t'le dire avec un piano Ta poitrine, c'est chez moi parce que t'es ma tié-moi Tellement soudé, jalousé par les siamois I love you I need you I love you I need you I love you I need you I love you I need you</t>
+          <t>Baby dom, baby na gama gama Baby dom, baby na gama Oh, baby dom, baby na gama gama Baby dom, baby na gama Baby dom, baby na gama gama Baby dom, baby na gama Oh, baby dom, baby na gama gama Baby dom, baby na gama I love you I need you I love you I need you I love you I need you I love you I need you Bad man, qui est là abalanciela Je vis loin du monde, loin du game, bambina Quatre cents ans fuera, baby mama buena J'ai besoin de toi dans ma vie, umbrella Petite coquine, t'aimes bien que j'te pénarde Même si t'es chiante, bad gyal, t'es pas veinarde I love you I need you I love you I need you Ok, pourquoi tu m'as ché-lâ ? Tu m'diras Je sais pas En tout cas, pour moi, la musique, ça che-mar Tapie dans ton silence, tu m'as menti sciemment Ls épaules recouverts de diamants Baby gyal, ti amo Laisse-moi t'le dire avec un piano Ta poitrine, c'est chez moi parce que t'es ma tié-moi Tellement soudé, jalousé par les siamois I love you I need you I love you I need you I love you I need you I love you I need you</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Une pour mes gars, 2 pour ma gueule Si tu me connais pas TchuTchuDream my nigga' L'eau oui mecqua ! Alpha Omega J'suis un mec en or donc j'ai pas besoin de médaille La victoire est brillante, mais l'échec est mate J'démarre au quart de tour, akhi guette et mate Fais pas le cavalier, tu vas te faire steak et mal J'ai niqué ta reine chut EchecMat MC t'es figé comme la garde royale de London N'regarde pas ce qu'on possède, mais ce que l'on donne Rentrez chez vous, faites pas les fous, quand on vous l'ordonne Ça fera l'effet, lors d'une embrouille quand on t'abandonne Pas de compte en Suisse, que des contentieux Comprend pourquoi nos daronnes, ici, sont anxieuses Beaucoup de prétentieux, très peu d'ambitieux Big Up aux petites reus' qui sont restées consciencieuses You might also like Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Sur le rain-té, en un rien de temps Tu passes du rire aux larmes avec une douleur intense On vit des instants, car si la vie est courte... La galère est longue CriminelInstinct J'ai vu des potos décoller, sous Vodka-CocaCola L'enculé, qu'ils sont, collecte toute la R.U immaculé Pas de bain de lait, mais de bain de sang C'est où la richesse est absente qu'on rêve de Bentley Noir mygale, oui my nigga' Pas de Krav Maga, 11.43 ma gueule Arme égale, fourmi ou cigale ? Hess là ou cigare ? Putain Gandhi ou Madoff ? J'ai pas assez de courage pour être un lâche J'sais pas faire de la lèche car j'ai appris à mordre Si l'amour rend aveugle... T'es pas prête oukhty, laisse vas-y, viens ! Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Venez, venez, j'vous invite dans mon délire Messieurs, mesdames j'ai craché mon venin à la tête de tous les envieux Tenez, tenez y a du talent, j'suis cette épine dans ton talon La route est longue, tu ne vois rien car j't'ai bandé les yeux Venez, venez, j'vous invite dans mon délire Messieurs, mesdames j'ai craché mon venin à la tête de tous les envieux Tenez, tenez y a du talent, j'suis cette épine dans ton talon La route est longue, tu ne vois rien car j't'ai bandé les yeux Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Yeah ! Trouves-moi dans les coins risqués Trouves-moi dans les coins risqués Paroles rédigées et expliquées par la communauté RapGenius France1</t>
+          <t>Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Une pour mes gars, 2 pour ma gueule Si tu me connais pas TchuTchuDream my nigga' L'eau oui mecqua ! Alpha Omega J'suis un mec en or donc j'ai pas besoin de médaille La victoire est brillante, mais l'échec est mate J'démarre au quart de tour, akhi guette et mate Fais pas le cavalier, tu vas te faire steak et mal J'ai niqué ta reine chut EchecMat MC t'es figé comme la garde royale de London N'regarde pas ce qu'on possède, mais ce que l'on donne Rentrez chez vous, faites pas les fous, quand on vous l'ordonne Ça fera l'effet, lors d'une embrouille quand on t'abandonne Pas de compte en Suisse, que des contentieux Comprend pourquoi nos daronnes, ici, sont anxieuses Beaucoup de prétentieux, très peu d'ambitieux Big Up aux petites reus' qui sont restées consciencieuses Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Sur le rain-té, en un rien de temps Tu passes du rire aux larmes avec une douleur intense On vit des instants, car si la vie est courte... La galère est longue CriminelInstinct J'ai vu des potos décoller, sous Vodka-CocaCola L'enculé, qu'ils sont, collecte toute la R.U immaculé Pas de bain de lait, mais de bain de sang C'est où la richesse est absente qu'on rêve de Bentley Noir mygale, oui my nigga' Pas de Krav Maga, 11.43 ma gueule Arme égale, fourmi ou cigale ? Hess là ou cigare ? Putain Gandhi ou Madoff ? J'ai pas assez de courage pour être un lâche J'sais pas faire de la lèche car j'ai appris à mordre Si l'amour rend aveugle... T'es pas prête oukhty, laisse vas-y, viens ! Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Venez, venez, j'vous invite dans mon délire Messieurs, mesdames j'ai craché mon venin à la tête de tous les envieux Tenez, tenez y a du talent, j'suis cette épine dans ton talon La route est longue, tu ne vois rien car j't'ai bandé les yeux Venez, venez, j'vous invite dans mon délire Messieurs, mesdames j'ai craché mon venin à la tête de tous les envieux Tenez, tenez y a du talent, j'suis cette épine dans ton talon La route est longue, tu ne vois rien car j't'ai bandé les yeux Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Trouves-moi dans les coins risqués Mi amor, tu veux du bon son ? Why not, ramène mes sous J'suis un monstre mais j'ai un bon fond Yeah ! Trouves-moi dans les coins risqués Trouves-moi dans les coins risqués Paroles rédigées et expliquées par la communauté RapGenius France1</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Papa te souviens-tu dlannée où jmétais mis à courir ? Quand tu mtenais, quand je criais Maman ten va pas Ce moment est resté gravé dans mon cur, jnétais pas préparé Et javais tellement pleuré ce soir-là, jme rappelle que jai failli finir à lhosto Et je comptais les jours, tu mdisais quon irait la voir Enfant turbulent, jte faisais vivre un Enfer Dans lquartier certains me disaient Petit ta mère ta abandonné Ainsi était ma vie, cest lhistoire dun petit loco Les souvenirs sempilent, je suis parti loin de ton regard La vie sen fout, elle nous éparpille, comme toutes ces étoiles Tu mas dit tant pis, tant qutu vis bien, même loin de moi Je suis ton fils et fier, ma vie a un goût amer Et puis ce fut mon tour, même si tu nas pas pleuré Moi je sais que ton cur criait mon fils ten va pas Jai toujours eu ce sentiment Papa, de tavoir abandonné Puis loiseau de fer sest envolé, je ne pourrai jamais, jamais loublier Si tu veux toucher le ciel, tu peux le faire Si lambition est grande même si petite est léchelle Jaimais técouter, je buvais tes paroles Quand tu maccompagnais sur le chemin dlécole Je ne sais pas si tu ten rappelles Mais moi je ne pourrai jamais loublier Même si la vie ma privé de toi Sache que jai pris beaucoup de toi Sais-tu quelle est ma plus grande fierté ? Quand Maman me dit que jlui fais penser à toi You might also like Les souvenirs sempilent, je suis parti loin de ton regard La vie sen fout, elle nous éparpille, comme toutes ces étoiles Tu mas dit tant pis, tant qutu vis bien, même loin de moi Je suis ton fils et fier, ma vie a un goût amer Les souvenirs sempilent, je suis parti loin de ton regard La vie sen fout, elle nous éparpille, comme toutes ces étoiles Tu mas dit tant pis, tant qutu vis bien, même loin de moi Je suis ton fils et fier, ma vie a un goût amer</t>
+          <t>Papa te souviens-tu dlannée où jmétais mis à courir ? Quand tu mtenais, quand je criais Maman ten va pas Ce moment est resté gravé dans mon cur, jnétais pas préparé Et javais tellement pleuré ce soir-là, jme rappelle que jai failli finir à lhosto Et je comptais les jours, tu mdisais quon irait la voir Enfant turbulent, jte faisais vivre un Enfer Dans lquartier certains me disaient Petit ta mère ta abandonné Ainsi était ma vie, cest lhistoire dun petit loco Les souvenirs sempilent, je suis parti loin de ton regard La vie sen fout, elle nous éparpille, comme toutes ces étoiles Tu mas dit tant pis, tant qutu vis bien, même loin de moi Je suis ton fils et fier, ma vie a un goût amer Et puis ce fut mon tour, même si tu nas pas pleuré Moi je sais que ton cur criait mon fils ten va pas Jai toujours eu ce sentiment Papa, de tavoir abandonné Puis loiseau de fer sest envolé, je ne pourrai jamais, jamais loublier Si tu veux toucher le ciel, tu peux le faire Si lambition est grande même si petite est léchelle Jaimais técouter, je buvais tes paroles Quand tu maccompagnais sur le chemin dlécole Je ne sais pas si tu ten rappelles Mais moi je ne pourrai jamais loublier Même si la vie ma privé de toi Sache que jai pris beaucoup de toi Sais-tu quelle est ma plus grande fierté ? Quand Maman me dit que jlui fais penser à toi Les souvenirs sempilent, je suis parti loin de ton regard La vie sen fout, elle nous éparpille, comme toutes ces étoiles Tu mas dit tant pis, tant qutu vis bien, même loin de moi Je suis ton fils et fier, ma vie a un goût amer Les souvenirs sempilent, je suis parti loin de ton regard La vie sen fout, elle nous éparpille, comme toutes ces étoiles Tu mas dit tant pis, tant qutu vis bien, même loin de moi Je suis ton fils et fier, ma vie a un goût amer</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Tu va inhaler mon djooz Tu va inhaler mon djooz Mon djooz Parce qu'on djooz sa colle aux louves le gouffre Parce qu'on djooz sa colle aux louves trop de gouves Sa ne date pas d'hier que je suis validé, je viens de loin tu n'as pas idée Depuis ghotam j'vois qu'sa parle d'amitié, pourtant j'ai rien j'veux le game à mes pieds Igo j't'ai donné l'audi ouais je brille dans l'ombre mais dans le bendo j'entend mon nom Patienté les gars ils vont gouter mon djooz On ne peux pas perdre y'a la hess à mon coup ...You might also like</t>
+          <t>Tu va inhaler mon djooz Tu va inhaler mon djooz Mon djooz Parce qu'on djooz sa colle aux louves le gouffre Parce qu'on djooz sa colle aux louves trop de gouves Sa ne date pas d'hier que je suis validé, je viens de loin tu n'as pas idée Depuis ghotam j'vois qu'sa parle d'amitié, pourtant j'ai rien j'veux le game à mes pieds Igo j't'ai donné l'audi ouais je brille dans l'ombre mais dans le bendo j'entend mon nom Patienté les gars ils vont gouter mon djooz On ne peux pas perdre y'a la hess à mon coup ...</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>x2 Qui veut mon feeling ? Dis moi, qui veut m'enfiler ? Qui veut mes billets ? Vas-y, qu'ils viennent essayer J'suis parano comme un sourd dans une cellule, poto Triste comme un mois de décembre dans nos allées La sang doit couler si mon bif' doit s'en aller Re-frè', j'suis soûlé, soit l'son, soit pas d'salaire Tous mes sons sont en alerte, la ce-Fran' veut mon arrêt Sous-diplômé, discriminé, c'est dar Plutôt paumé, comme mes gamins incriminés, traînent-tard J'ai pas l'âme d'un fêtard, à qui tu m'compares ? Dans ce putain de bled de félons, chacun recherche sa part Donc dreeeh un coup part, on plaidera coupable Tout s'barre, coups bas, pour une vie de koufar C'est la maladie de la jalousie, que Dieu me préserve J'suis marqué comme l'Andalousie, touche pas ma réserve x2 Tu frimes en 5 Série, comme Guillaume Soro J'veux ma part du wari, comme Don Koro Ma rime a mauvaise haleine, pas le temps comme Wallen Chialer pour mieux te geler, Paris n'est pas si joli Affaire de fric, money, ma jolie, le monde est pourri L'Afrique se fait enfiler, et le peuple, lui, crie Amen Ammène, ramène la gamelle, qu'on la donne à tous ces gamins Amine c'est monogamie, hypocrisie comme les câlins Et vont cher-cra' à té-co', affaire de mille mamelles On n'aime pas ces malheurs, fait mon effet comme popo Et si l'argent c'est l'papier, j'irai kidnapper l'libraire J'améliorerai nos quartiers, j'en aurai jusqu'à l'ivresse You might also like x2 Qui veut mon feeling ? Dis moi, qui veut m'enfiler ? Qui veut mes billets ? Vas-y, qu'ils viennent essayer J'suis parano comme un sourd dans une cellule, poto J'arrive, ils sont tous effarés les crocs, les dents serrés, tarés XXX bien acéré marrée sur leur gueule, enfoiré Ils font tous les marioles XXX marrant Leurs fut' virent au marron des barres, qu'ils veulent qu'on s'arrange Peur que j'embarque leurs phalanges bienvenue dans ma folie les filles Les faux où c'est pile ou face quand j'pilote Leur met la pilule, pulule, dans la ue-r' Trop font les durs, parlent dans le dos en face, font les doux Tarte dans les dents, beignent dans leur sang Pas dans leurs délires puérils d'adolescent Les années passent, leurs cerveaux ramollissent Pensent qu'ils tapent dans le son mais ils tapent dans la cess' x2 Qui veut mon feeling ? Dis moi, qui veut m'enfiler ? Qui veut mes billets ? Vas-y, qu'ils viennent essayer J'suis parano comme un sourd dans une cellule, poto Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>x2 Qui veut mon feeling ? Dis moi, qui veut m'enfiler ? Qui veut mes billets ? Vas-y, qu'ils viennent essayer J'suis parano comme un sourd dans une cellule, poto Triste comme un mois de décembre dans nos allées La sang doit couler si mon bif' doit s'en aller Re-frè', j'suis soûlé, soit l'son, soit pas d'salaire Tous mes sons sont en alerte, la ce-Fran' veut mon arrêt Sous-diplômé, discriminé, c'est dar Plutôt paumé, comme mes gamins incriminés, traînent-tard J'ai pas l'âme d'un fêtard, à qui tu m'compares ? Dans ce putain de bled de félons, chacun recherche sa part Donc dreeeh un coup part, on plaidera coupable Tout s'barre, coups bas, pour une vie de koufar C'est la maladie de la jalousie, que Dieu me préserve J'suis marqué comme l'Andalousie, touche pas ma réserve x2 Tu frimes en 5 Série, comme Guillaume Soro J'veux ma part du wari, comme Don Koro Ma rime a mauvaise haleine, pas le temps comme Wallen Chialer pour mieux te geler, Paris n'est pas si joli Affaire de fric, money, ma jolie, le monde est pourri L'Afrique se fait enfiler, et le peuple, lui, crie Amen Ammène, ramène la gamelle, qu'on la donne à tous ces gamins Amine c'est monogamie, hypocrisie comme les câlins Et vont cher-cra' à té-co', affaire de mille mamelles On n'aime pas ces malheurs, fait mon effet comme popo Et si l'argent c'est l'papier, j'irai kidnapper l'libraire J'améliorerai nos quartiers, j'en aurai jusqu'à l'ivresse x2 Qui veut mon feeling ? Dis moi, qui veut m'enfiler ? Qui veut mes billets ? Vas-y, qu'ils viennent essayer J'suis parano comme un sourd dans une cellule, poto J'arrive, ils sont tous effarés les crocs, les dents serrés, tarés XXX bien acéré marrée sur leur gueule, enfoiré Ils font tous les marioles XXX marrant Leurs fut' virent au marron des barres, qu'ils veulent qu'on s'arrange Peur que j'embarque leurs phalanges bienvenue dans ma folie les filles Les faux où c'est pile ou face quand j'pilote Leur met la pilule, pulule, dans la ue-r' Trop font les durs, parlent dans le dos en face, font les doux Tarte dans les dents, beignent dans leur sang Pas dans leurs délires puérils d'adolescent Les années passent, leurs cerveaux ramollissent Pensent qu'ils tapent dans le son mais ils tapent dans la cess' x2 Qui veut mon feeling ? Dis moi, qui veut m'enfiler ? Qui veut mes billets ? Vas-y, qu'ils viennent essayer J'suis parano comme un sourd dans une cellule, poto Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>J'suis solide mama, ces connards pensent qu'on plane Tu m'connais mama, les coups ne m'atteignent pas J'suis un guerrier mama, j'ai du talent, t'inquiètes pas Qu'ils périssent mama, j'suis déjà une putain d'star J't'ai promis mama j't'ai promis mama de t'faire arrêter l'taff T'as donné mama donné mama, il est temps que j'prenne ta place Ces thos-my mama vont tomber tôt ou tard J'suis béni mama, je viens de quelque part J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah J'suis connu mama, ces filles veulent toutes une star C'est ckel-ni mama c'est ckel-ni, j'aim'rais une qui aura ta classe Ton sourire mama est certes plus beau qu'une plage Vas dormir mama dormir mama, il est tard, demain tu pars J'en place une pour mama, on a grandi dans le truc, t'es malade oh-ah C'est une mise à l'amende, pas de pitié dans le règne animal, oh-ah Vous êtes à la ramasse, dans c'truc, j'suis un no man J'ai autant d'ennemis qu'il y a d'euro dans mon armoire You might also like J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah</t>
+          <t>J'suis solide mama, ces connards pensent qu'on plane Tu m'connais mama, les coups ne m'atteignent pas J'suis un guerrier mama, j'ai du talent, t'inquiètes pas Qu'ils périssent mama, j'suis déjà une putain d'star J't'ai promis mama j't'ai promis mama de t'faire arrêter l'taff T'as donné mama donné mama, il est temps que j'prenne ta place Ces thos-my mama vont tomber tôt ou tard J'suis béni mama, je viens de quelque part J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah J'suis connu mama, ces filles veulent toutes une star C'est ckel-ni mama c'est ckel-ni, j'aim'rais une qui aura ta classe Ton sourire mama est certes plus beau qu'une plage Vas dormir mama dormir mama, il est tard, demain tu pars J'en place une pour mama, on a grandi dans le truc, t'es malade oh-ah C'est une mise à l'amende, pas de pitié dans le règne animal, oh-ah Vous êtes à la ramasse, dans c'truc, j'suis un no man J'ai autant d'ennemis qu'il y a d'euro dans mon armoire J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah J'suis un monument un monu', putain d'monument, ah Un monument, j'suis un monu', putain d'monument, ah</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>J'suis pas là pour faire le beau, encore moins pour sucer des bites Je préfère les Assedics qu'avoir du buzz sans faire du biff N'essaies pas de faire des piques, t'assumeras pas comme prendre du bide C'est souvent ceux qui font du bruit qui se demandent pourquoi leur sang déborde J'suis à bout comme la Palestine, tabou comme parler de ça Ne me parlez pas de Jacques Mesrine, j'préfère l'histoire des Thibhirine Entubé par le tabac j'me sens teubé, non me propose pas de bédo Meday meday j'rêve de Médine et des sahîh Les vrais gars pètent la rimes, mais les borgnes jettent l'aïne Tu m'as vu dans un McLaren, lock, rien à déclarer J'suis pas né avec la haine, j'ai changé, comme à Bethléem Dans ce monde y a ceux qui se battent, y a ceux qui se ratent, y a ceux qui t'baisent la reum Ne prends pas ma nonchalance pour de la fonce-dé bouffon Ne viens pas me tapper la bise, j'vais chopper des boutons Ne me prends pas de haut, igo', j'vais te casser les couilles T'es pas mort dans le film, juste après les douilles ? Je ne rappe pas pour faire joli, y a trop de gens qui comptent sur moi Le loup est dans la bergerie, ben oui, bande de cons, c'est moi ! J'vais tous vous chicoter, les mange-pierres pensent que j'suis côté Pousse toi, y a rien à picoter, pour l'instant que des pacotilles Ils veulent me boycotter, même dans le mal y a des bons côtés La victoire est plus belle quand elle se gagne avec des points de côté Arrête de jacter, j'ai le contrôle, j'vais t'éjecter T'as jamais rien fait dans la rue, t'es le fils à Gepetto C'est pas à la raie que j'te pisse, mais dans la bouche, face de pet Plus méprisant qu'un fils de pute fils de-fils de-fils de... Ils me connaissent pas encore, normal, ils vont pas en cours Akhi j'suis ton prof, noir mâle donc pas cours You might also like J'suis posé dans mon zoo, fier comme un hindou Qui vend ses roses au lieu de mendier pour un bout Devant mon plat de pâtes, non je ne me plains pas Contrairement aux envieux je connais Hamdou' J'suis posé dans mon zoo, fier comme un hindou Qui vend ses roses au lieu de mendier pour un bout Devant mon plat de pâtes, non je ne me plains pas Contrairement aux envieux je connais Hamdou' Qu'est-ce qui a dit que c'était fini ? Pas d'ces rappeurs qui se mettent à nu Qui dévoilent leurs secrets de famille, qui s'rabaissent pour devenir connus Nique sa mère, y a pas mieux que mon putain de rap J'viens chouarra ton rap et j'me barre dans l'bled du choléra D'apparence easy, qu'a rien à prouver Sauce biggie, cheesy, ils sont troublés La confiance d'un grizzly, tu m'as trouvé Y a que ceux qui s'inventent des vies qui font les coléreux Le Dream vient du Twenty, comme Twitter j'vais te doigter Où tu étais que je tentais de les tuer tous, quand je boitais ? Tu fêtais quand je partais, me fightais à coup de bouteilles J'veux trois salaires de Boateng, de XXX Et vous à terre sur mon carrelage Vuitton L'attitude d'entêté, t'es old school comme Shakur LoudSchool j'suis tatoué, Fin de Dream J'suis posé dans mon zoo, fier comme un hindou Qui vend ses roses au lieu de mendier pour un bout Devant mon plat de pâtes, non je ne me plains pas Contrairement aux envieux je connais Hamdou' J'suis posé dans mon zoo, fier comme un hindou Qui vend ses roses au lieu de mendier pour un bout Devant mon plat de pâtes, non je ne me plains pas Contrairement aux envieux je connais Hamdou' Hassoul, tu voulais me tester ? Manque de bol Issa' dans ce bateau j'suis tout seul VendéeGlobe Hass la, 3 du mat', l'épicier, vends des clopes Reste là, tu vas devoir me sucer d'vant tes potes 110 putes à la seconde, mon style du Sudoku Putain les MCs roulent du cul, grattent des punchlines ridicules J'peux pas prendre de recul, j'suis trop loin, ce serait faire demi-tour On va tous rendre des comptes, range ton ponche khey, j'suis radical J'suis pas là pour raconter ma vie, mais mon vécu Vas-y j'ai manqué de rien dans mon Paris vetuste Ma mère m'a élevé comme un prince, malgré le minimum vital Résultat j'intrigue la presse parce que je suis monumental Paroles rédigées et expliquées par la communauté RapGenius France1</t>
+          <t>J'suis pas là pour faire le beau, encore moins pour sucer des bites Je préfère les Assedics qu'avoir du buzz sans faire du biff N'essaies pas de faire des piques, t'assumeras pas comme prendre du bide C'est souvent ceux qui font du bruit qui se demandent pourquoi leur sang déborde J'suis à bout comme la Palestine, tabou comme parler de ça Ne me parlez pas de Jacques Mesrine, j'préfère l'histoire des Thibhirine Entubé par le tabac j'me sens teubé, non me propose pas de bédo Meday meday j'rêve de Médine et des sahîh Les vrais gars pètent la rimes, mais les borgnes jettent l'aïne Tu m'as vu dans un McLaren, lock, rien à déclarer J'suis pas né avec la haine, j'ai changé, comme à Bethléem Dans ce monde y a ceux qui se battent, y a ceux qui se ratent, y a ceux qui t'baisent la reum Ne prends pas ma nonchalance pour de la fonce-dé bouffon Ne viens pas me tapper la bise, j'vais chopper des boutons Ne me prends pas de haut, igo', j'vais te casser les couilles T'es pas mort dans le film, juste après les douilles ? Je ne rappe pas pour faire joli, y a trop de gens qui comptent sur moi Le loup est dans la bergerie, ben oui, bande de cons, c'est moi ! J'vais tous vous chicoter, les mange-pierres pensent que j'suis côté Pousse toi, y a rien à picoter, pour l'instant que des pacotilles Ils veulent me boycotter, même dans le mal y a des bons côtés La victoire est plus belle quand elle se gagne avec des points de côté Arrête de jacter, j'ai le contrôle, j'vais t'éjecter T'as jamais rien fait dans la rue, t'es le fils à Gepetto C'est pas à la raie que j'te pisse, mais dans la bouche, face de pet Plus méprisant qu'un fils de pute fils de-fils de-fils de... Ils me connaissent pas encore, normal, ils vont pas en cours Akhi j'suis ton prof, noir mâle donc pas cours J'suis posé dans mon zoo, fier comme un hindou Qui vend ses roses au lieu de mendier pour un bout Devant mon plat de pâtes, non je ne me plains pas Contrairement aux envieux je connais Hamdou' J'suis posé dans mon zoo, fier comme un hindou Qui vend ses roses au lieu de mendier pour un bout Devant mon plat de pâtes, non je ne me plains pas Contrairement aux envieux je connais Hamdou' Qu'est-ce qui a dit que c'était fini ? Pas d'ces rappeurs qui se mettent à nu Qui dévoilent leurs secrets de famille, qui s'rabaissent pour devenir connus Nique sa mère, y a pas mieux que mon putain de rap J'viens chouarra ton rap et j'me barre dans l'bled du choléra D'apparence easy, qu'a rien à prouver Sauce biggie, cheesy, ils sont troublés La confiance d'un grizzly, tu m'as trouvé Y a que ceux qui s'inventent des vies qui font les coléreux Le Dream vient du Twenty, comme Twitter j'vais te doigter Où tu étais que je tentais de les tuer tous, quand je boitais ? Tu fêtais quand je partais, me fightais à coup de bouteilles J'veux trois salaires de Boateng, de XXX Et vous à terre sur mon carrelage Vuitton L'attitude d'entêté, t'es old school comme Shakur LoudSchool j'suis tatoué, Fin de Dream J'suis posé dans mon zoo, fier comme un hindou Qui vend ses roses au lieu de mendier pour un bout Devant mon plat de pâtes, non je ne me plains pas Contrairement aux envieux je connais Hamdou' J'suis posé dans mon zoo, fier comme un hindou Qui vend ses roses au lieu de mendier pour un bout Devant mon plat de pâtes, non je ne me plains pas Contrairement aux envieux je connais Hamdou' Hassoul, tu voulais me tester ? Manque de bol Issa' dans ce bateau j'suis tout seul VendéeGlobe Hass la, 3 du mat', l'épicier, vends des clopes Reste là, tu vas devoir me sucer d'vant tes potes 110 putes à la seconde, mon style du Sudoku Putain les MCs roulent du cul, grattent des punchlines ridicules J'peux pas prendre de recul, j'suis trop loin, ce serait faire demi-tour On va tous rendre des comptes, range ton ponche khey, j'suis radical J'suis pas là pour raconter ma vie, mais mon vécu Vas-y j'ai manqué de rien dans mon Paris vetuste Ma mère m'a élevé comme un prince, malgré le minimum vital Résultat j'intrigue la presse parce que je suis monumental Paroles rédigées et expliquées par la communauté RapGenius France1</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>C'que tu ne peux pas faire toute seule, viens on l'fait à deux viens on l'fait à deux Une petite vie sans problème On s'était promis le bonheur, l'amour pour nous deux pour nous deux, pour nous deux Tu dis qu'c'est moi le problème T'as préféré te casser dans les bras d'un autre hmm Épargne-moi tes je t'aime J'te croyais pas capable, tu m'as planté le dos Épargne-moi tes je t'aime J'me suis trompé sur toi, sur toute la route tout la, toute la route Après tu dis qu'j'suis mauvais J'me suis trompé sur toi, sur tout la route toute la, toute la route Je t'jure, c'est toi la mauvaise J'me suis noyé dans le doute, ouh-uhh-uh J'veux plus croiser ta route, ouh-uhh-uh J'me suis noyé dans le doute, ouh-uhh-uh J'veux plus croiser ta route, ouh-uhh-uh J'vais finir par t'oublier j'vais finir par t'oublier Et je te souhaite que le meilleur ouais j'te souhaite que le meilleur Quand j'pleurai, tu souriais quand j'pleurai, tu souriais À cause de toi, j'suis plus le même, eh-yeah You might also like J'me suis noyé dans le doute, dans le doute, dans le doute ouh-uhh-uh J'veux plus croiser ta route, j'veux plus crouser ta route, ta route ouh-uhh-uh J'me suis noyé dans le doute, dans le, dans le doute ouh-uhh-uh J'veux plus croiser ta route, j'veux plus croiser ta route, ta route ouh-uhh-uh C'que tu ne peux pas faire tout seul, viens on l'fait à deux viens on fait à deux Une petite vie sans problème On s'était promis le bonheur, l'amour pour nous pour nous deux, pour nous deux Tu dis qu'c'est moi le problème T'as préféré te casser dans les bras d'une autre ah ouais Épargne-moi tes je t'aime Je t'croyais pas capable, tu m'as planté le dos Épargne-moi tes je t'aime J'me suis trompée sur toi, sur toute la route toute la, toute la route Après, tu dis qu'j'suis mauvaise J'me suis trompée sur toi, sur toute la route toute la, toute la route Je t'jure, c'est toi le mauvais J'me suis noyé dans le doute, ouh-uhh-uh Je n'veux plus croiser ta route, ouh-uhh-uh J'me suis noyé dans le doute, ouh-uhh-uh Je n'veux plus croiser ta route, ouh-uhh-uh J'vais finir par t'oublier j'vais finir par t'oublier Et je n'te souhaite que le meilleur et j'n'te souhaite que le meilleur Quand j'pleurai, tu souriais quand j'pleurai, tu souriais À cause de toi, j'suis plus le même, oh-yeah J'me suis noyé dans le doute, ouh-uhh-uh Je n'veux plus croiser ta route, ouh-uhh-uh J'me suis noyé dans le doute, ouh-uhh-uh Je n'veux plus croiser ta route, ouh-uhh-uh Je suis noyé dans le doute, ah Plus jamais, plus jamais, plus jamais, eh J'n'veux plus croiser ta route, nah J'n'veux plus croiser ta route Je me suis noyé dans le doute, oh-yeah-yeah J'n'veux plus croiser ta route J'n'veux plus croiser ta route, nah J'n'veux plus croiser ta route, non baby</t>
+          <t>C'que tu ne peux pas faire toute seule, viens on l'fait à deux viens on l'fait à deux Une petite vie sans problème On s'était promis le bonheur, l'amour pour nous deux pour nous deux, pour nous deux Tu dis qu'c'est moi le problème T'as préféré te casser dans les bras d'un autre hmm Épargne-moi tes je t'aime J'te croyais pas capable, tu m'as planté le dos Épargne-moi tes je t'aime J'me suis trompé sur toi, sur toute la route tout la, toute la route Après tu dis qu'j'suis mauvais J'me suis trompé sur toi, sur tout la route toute la, toute la route Je t'jure, c'est toi la mauvaise J'me suis noyé dans le doute, ouh-uhh-uh J'veux plus croiser ta route, ouh-uhh-uh J'me suis noyé dans le doute, ouh-uhh-uh J'veux plus croiser ta route, ouh-uhh-uh J'vais finir par t'oublier j'vais finir par t'oublier Et je te souhaite que le meilleur ouais j'te souhaite que le meilleur Quand j'pleurai, tu souriais quand j'pleurai, tu souriais À cause de toi, j'suis plus le même, eh-yeah J'me suis noyé dans le doute, dans le doute, dans le doute ouh-uhh-uh J'veux plus croiser ta route, j'veux plus crouser ta route, ta route ouh-uhh-uh J'me suis noyé dans le doute, dans le, dans le doute ouh-uhh-uh J'veux plus croiser ta route, j'veux plus croiser ta route, ta route ouh-uhh-uh C'que tu ne peux pas faire tout seul, viens on l'fait à deux viens on fait à deux Une petite vie sans problème On s'était promis le bonheur, l'amour pour nous pour nous deux, pour nous deux Tu dis qu'c'est moi le problème T'as préféré te casser dans les bras d'une autre ah ouais Épargne-moi tes je t'aime Je t'croyais pas capable, tu m'as planté le dos Épargne-moi tes je t'aime J'me suis trompée sur toi, sur toute la route toute la, toute la route Après, tu dis qu'j'suis mauvaise J'me suis trompée sur toi, sur toute la route toute la, toute la route Je t'jure, c'est toi le mauvais J'me suis noyé dans le doute, ouh-uhh-uh Je n'veux plus croiser ta route, ouh-uhh-uh J'me suis noyé dans le doute, ouh-uhh-uh Je n'veux plus croiser ta route, ouh-uhh-uh J'vais finir par t'oublier j'vais finir par t'oublier Et je n'te souhaite que le meilleur et j'n'te souhaite que le meilleur Quand j'pleurai, tu souriais quand j'pleurai, tu souriais À cause de toi, j'suis plus le même, oh-yeah J'me suis noyé dans le doute, ouh-uhh-uh Je n'veux plus croiser ta route, ouh-uhh-uh J'me suis noyé dans le doute, ouh-uhh-uh Je n'veux plus croiser ta route, ouh-uhh-uh Je suis noyé dans le doute, ah Plus jamais, plus jamais, plus jamais, eh J'n'veux plus croiser ta route, nah J'n'veux plus croiser ta route Je me suis noyé dans le doute, oh-yeah-yeah J'n'veux plus croiser ta route J'n'veux plus croiser ta route, nah J'n'veux plus croiser ta route, non baby</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Égo-street, chic, chérie, cest le remix dont tu rêves Cest pas à Léonidas quon vient demander une trêve Ya A.L.O.N han han, H, W Faut pas nous pousser à bout, on viendra cash te prouver En nous, ya du Lino, Mafia K1fry ou la F.F Mets la télé, ya que nous, crête swaggé de chez Aymen Qui peut faire mieux ? Ma Sacem cest Bagdad Lève ton verre à Triumphal, cest lremix de bâtard Maruecos anti-guardia, mets dla selha dans ta shoum-shoum Chkoun, Chkoun ? Amazir, même dans les airs jfais mes bails en soum-soum Jmassois pas sur leur trône, Triumphal on est àl, chérie Mothafuck, on ne négocie pas avec lennemi Algérie Oui, yougo, je les aime confiantes. Frimeuses ? Jte les laisse à terre Hé archeum, en fait tes comme Michael, tes pas clair 29 Avril la Maroquinerie, 2014 mon Zénith H'bibi tu laimes, il suffira dune liasse pour que tu sois célib Triumphal, Triumphal oui, je lavoue, je plais aux femmes Jviens du 9-4, tiens ta dame, jlai retweeté, elle est plutôt fan Alonzo, W, Gucci, Louis, falsh, ma gueule Un mélange de chite et dbrolique H Magnum On y va On se connaît au village, on se connaît au village On se connaît au village, on se connaît au village Tu danses pas, tes pas clair Tu fouffes pas, tes pas clair Tu roules pas, tes pas clair Tes pas le boss, tes pas clair You might also like On fait nos armes dans la R.U.E., ya un truc quest curieux On vient du même terrier, tas rien fait de glorieux Tu parles mais tu fais rien, on tappellera Ferié Jrappe que de faits réels crick crick guerrier Un coup de pavé dans ta que-nu, cest du peu-ra caniculaire Jsuis ce Malien face aux colons, la punchline est moléculaire On se connait depuis lcollège on va tcouper lauriculaire Si les jaloux étaient collants, yen aurait pleins sous mes ieds-p Souriez, on y est Jfais de la lutte Asnières On sreconnait, après ljumua, tous des sucres vanillés Jsuis pas dceux qui tendent lautre joue, moi. 75, ma bannière L.E.C.K, W, H, Alonzo le talent date pas dhier Salam les gars, cest quoi les bails ? Jsuis un peu chaud, tes un peu nul Appelle-moi 31, oui sur lmorceau, jsuis lInconnu Jsuis dans les dièses tah la tess La hass ma dit de garder la pêche Mothafuck, avale le noyau jsuis endurci par la dèche Jsuis la rafale, je me pavane, Triumfamas Ça sent lmassacre et labattoir Khaye, cest Gaza jfous le bazar Inégalable, Triumphal Oui, oui, oui, cest lheure de khalass là Mama veut un palace là Dans mon estomac cest Balata Parle à qui ? Parle à quoi ? Tu parles à lui, tu parles à moi Tu parles à H, tu parles àL.O.N.Z.O Ouais gros, W-sseau Jappelle 4x4 ou BR pour un plan pesos Jveux pas les vacessos, Triumphal on va les ter-sau Appuie sur REC, service 200 kilomètresheure sans faire let Ramasseur de balles, j'suis Federer, j'vais t'arracher la tête Jure sur le Coran, la Torah ou Jésus de Nazareth C'est pareil, j'vais t'la mettre, côté gauche, sous le pec J'fume des têtes, j'fume des j'fume des têtes d'amnesia au déj' Alonzo, ta soeur c'est ma go pour un billet beige On croit plus au Père Noël mais, bon sang, qu'est-ce qu'on vend de la neige Même contre un orang-outan, on affronte, sans protèges Marseille vient rapper pour Foued Ou plutôt L.E.C.K-K-K, j'm'enraye comme une arme tchèque T'écoutes mes démons rapper, j'vais t'faire consulter un taleb On s'est connu au village, on se tuera en calèche Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Égo-street, chic, chérie, cest le remix dont tu rêves Cest pas à Léonidas quon vient demander une trêve Ya A.L.O.N han han, H, W Faut pas nous pousser à bout, on viendra cash te prouver En nous, ya du Lino, Mafia K1fry ou la F.F Mets la télé, ya que nous, crête swaggé de chez Aymen Qui peut faire mieux ? Ma Sacem cest Bagdad Lève ton verre à Triumphal, cest lremix de bâtard Maruecos anti-guardia, mets dla selha dans ta shoum-shoum Chkoun, Chkoun ? Amazir, même dans les airs jfais mes bails en soum-soum Jmassois pas sur leur trône, Triumphal on est àl, chérie Mothafuck, on ne négocie pas avec lennemi Algérie Oui, yougo, je les aime confiantes. Frimeuses ? Jte les laisse à terre Hé archeum, en fait tes comme Michael, tes pas clair 29 Avril la Maroquinerie, 2014 mon Zénith H'bibi tu laimes, il suffira dune liasse pour que tu sois célib Triumphal, Triumphal oui, je lavoue, je plais aux femmes Jviens du 9-4, tiens ta dame, jlai retweeté, elle est plutôt fan Alonzo, W, Gucci, Louis, falsh, ma gueule Un mélange de chite et dbrolique H Magnum On y va On se connaît au village, on se connaît au village On se connaît au village, on se connaît au village Tu danses pas, tes pas clair Tu fouffes pas, tes pas clair Tu roules pas, tes pas clair Tes pas le boss, tes pas clair On fait nos armes dans la R.U.E., ya un truc quest curieux On vient du même terrier, tas rien fait de glorieux Tu parles mais tu fais rien, on tappellera Ferié Jrappe que de faits réels crick crick guerrier Un coup de pavé dans ta que-nu, cest du peu-ra caniculaire Jsuis ce Malien face aux colons, la punchline est moléculaire On se connait depuis lcollège on va tcouper lauriculaire Si les jaloux étaient collants, yen aurait pleins sous mes ieds-p Souriez, on y est Jfais de la lutte Asnières On sreconnait, après ljumua, tous des sucres vanillés Jsuis pas dceux qui tendent lautre joue, moi. 75, ma bannière L.E.C.K, W, H, Alonzo le talent date pas dhier Salam les gars, cest quoi les bails ? Jsuis un peu chaud, tes un peu nul Appelle-moi 31, oui sur lmorceau, jsuis lInconnu Jsuis dans les dièses tah la tess La hass ma dit de garder la pêche Mothafuck, avale le noyau jsuis endurci par la dèche Jsuis la rafale, je me pavane, Triumfamas Ça sent lmassacre et labattoir Khaye, cest Gaza jfous le bazar Inégalable, Triumphal Oui, oui, oui, cest lheure de khalass là Mama veut un palace là Dans mon estomac cest Balata Parle à qui ? Parle à quoi ? Tu parles à lui, tu parles à moi Tu parles à H, tu parles àL.O.N.Z.O Ouais gros, W-sseau Jappelle 4x4 ou BR pour un plan pesos Jveux pas les vacessos, Triumphal on va les ter-sau Appuie sur REC, service 200 kilomètresheure sans faire let Ramasseur de balles, j'suis Federer, j'vais t'arracher la tête Jure sur le Coran, la Torah ou Jésus de Nazareth C'est pareil, j'vais t'la mettre, côté gauche, sous le pec J'fume des têtes, j'fume des j'fume des têtes d'amnesia au déj' Alonzo, ta soeur c'est ma go pour un billet beige On croit plus au Père Noël mais, bon sang, qu'est-ce qu'on vend de la neige Même contre un orang-outan, on affronte, sans protèges Marseille vient rapper pour Foued Ou plutôt L.E.C.K-K-K, j'm'enraye comme une arme tchèque T'écoutes mes démons rapper, j'vais t'faire consulter un taleb On s'est connu au village, on se tuera en calèche Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Référencement par ordre alphabétique provisoire 2zer Le savoir est une arme, une arme peut s'enrayer 40000 Gang Le savoir est une arme, je suis armé, je veux rien savoir Ademo Le savoir est une arme, pourtant c'est toujours les démunis qui partent en guerre Alkpote Le savoir est une arme, vive Bachar El-Assad Alonzo Psy 4 de la rime Le savoir est une arme, une arme posée sur nos tempes Cest aussi dur den savoir tant que rien, Psy 4 alimente Ce cordon ombilical qui relie joie et tristesse Alpha Wann J'taffais, j'gagnais rien du tout de l'heure J'me disais le savoir est une arme, en fait, l'argent est un bunker Alors protégez-vous les jeunes Bazoo Le savoir est une arme, car y en a besoin en temps d'guerre You might also likeBeeby Ils s'prennent pour des boxeurs, ne sont pas des bosseurs Aucune connaissance, auraient plus de savoir avec une balle dans le veau-cer Benash Le savoir est une arme, toi t'es illettré Black Kent Rimes tranchantes, ouais, sous la langue j'ai un rasoir Le savoir est une arme hum-hum s'tu veux savoir On m'dit d'laisser passer, de faire le Ray Charles AVoir Booba Le savoir est une arme, j'suis calibré, j'lis pas d'bouquin Le savoir est une arme jsuis calibré donc jsuis pas te-bé Le savoir est une arme ? Moi j'ai un flingue, j'ai pas le ba-bac Le savoir est une arme mais je n'ai pas fait d'études, alors J'ai un gros brolic tout près de mes thunes Armé jusquau cou jai grave du savoir Le savoir est une arme, trois calibres sur moi Je suis très intelligent La Boussole Le savoir est une arme Brams J'ai la psychoplume greffé à mon bras Appelle moi cobra Si le savoir est une arme t'es dans de beaux draps Brav Le savoir est une arme mais beaucoup n'ont que l'étui Calbo Ärsenik Le savoir est une arme qu'on a pas encore pressée La Canaille Si le savoir est une arme maintenant vois là ce que ça engendre J'irai pécho les munitions dans les livres ou au cinéma Sur le net, au théâtre comme au bistrot en bas de chez moi Et je te pilonnerais d'un ton froid et ferme ... Demi Portion Et si le savoir est une arme, y'a qu'sur Call-Of qu'mes potes l'ont gratuite Si le savoir est une arme, pourquoi se munir d'balles à blanc ? Despo Rutti Le savoir est une arme Construisons nos propres stand de tir avant que l'ignorance nous tue Dinos Punchlinovic Le savoir est une arme, j'ai un bac 3.5.7 Ils disent que le savoir est une arme Mais j'vais pas braquer la banque avec mes diplômes Le savoir est dans l'holster Dooz Kawa Le savoir est une arme, d'instruction massive Y a pas que les photos de charme, l'intromission raciste Nettoyez l'argent sale, les p'tits sachets de lessives Y a le savoir qu'est une arme qu'a son mode d'emploi dans les livres Dosseh On dit qu'le savoir est une me-ar yak, y a tout c'qu'il faut savoir dans boîte à gants Eden Dilinger Si le savoir est une arme, j'remplis mon stylo d'cartouches El Matador Le savoir est une arme donc à toi de fournir le silencieux Fababy Le savoir est une arme, mais personne braque pour acheter des livres Si la France nous comprends pas, pourquoi juger nos délits ? Et si le savoir est une arme, je me mutilerai avec des livres Le savoir est une arme, j'peux venir te flinguer bêtement Le savoir est une arme, un chien me f'ras la peau Le savoir est une arme, j'ai l'chargeur plein d'idées Facio Fass Si le savoir est une arme mon négro j't'abats Falcko Le savoir est une arme, Ghandi s'est fait fumer P't'être parc'qu'il avait pas d'Glock Fonky Flav' Le savoir est une arme de guerre, l'impatience un poison La violence un mystère que n'résout même plus la raison La Fouine Les bouffons se chient d'ssus, j'ai pécho l'gun et lâché la muscu Le savoir est une arme de trou du cul Mon prof c'est Yuri Orlov si le savoir est une arme Furax Barbarossa Le savoir est une arme ? On ne m'a appris que l'essentiel Moi élevé à la patate, la brique, les anciennes Si le savoir est une arme gros J'déclare une lame, t'en trouveras surement d'autres Gradur Le savoir est une armée Le savoir est une arme, un bouquin près du calibre Le savoir est une arme, fuck le furet Guizmo Le savoir est une arme le dicton est connu J'ai des livres et un tank, des punchlines made in ONU H-Magnum Le savoir est une arme donc j'arrive cagoulé Hayce Lemsi Le savoir est une arme dont on ne se sert pas L'Hexaler Le savoir est une arme, je suis fidèle à mon art Hooss Le savoir est une arme jai pas mon 6.35 mais je flingue lanti-pop Infinit' Si l'savoir est une arme, faut qu'ma liasse ressemble à un livre Ixzo Le savoir est une arme sale Kaaris Ça philosophe qu'le savoir est une arme, pour s'rendre compte Qule nègre est trop nègre pour avoir une âme, tu t'rends compte Le savoir est une arme j'ouvre le feu mais pas leur livres Kalash Le savoir est une arme jtourne les pages de ma kalash Keny Arkana Alors comprend dans quel monde nous vivons Le savoir est une arme à lheure où ils brevettent le vivant Kery James Si le savoir est une arme, soyons armés, car sans lui nous sommes désarmés Kool Shen Le savoir est une arme mais Même stupide, si t'as des sous tu peux t'constituer la plus grande armée Krok Armé de savoir j'peux te shoot Lawid Si l'savoir est une arme et ben toi t'as rien de dangereux LECK Focalisé dans le futile Le savoir est une arme, j'me suis tiré dessus, j'étais trop stupide Le savoir est une arme J'mettrai des coups d'crosse si ça tire plus En trois ans j'en ai pris dix Dialogue de sourds avec les jeunes pour eux le savoir est une arme factice Argent facile fuck la théorie vive la pratice Pour eux le savoir est une arme factice Lino Si l'savoir est un gun, mec y'a plus qu'des armes enrayées La mort est DJ, l'histoire s'répète, le disque est rayé Tellement de savoir que pour presser la gâchette, on a dû s'y mettre à trois J'diffuse mon savoir, j'fais des drive-by shooting LIO Petrodollars Le savoir est une arme, on peut blesser avec les mots Lucio Bukowski Si l'savoir est une arme beaucoup ont raté le permis Mafia K'1Fry Le savoir est une arme Mais qu'est-ce qu'une arme sans le savoir Makiavel Révolution Urbaine Ils parlent d'armes et veulent savoir qui vendent le plus Le savoir est une arme, ma culture vous tire dessus Malik Shtar Academy Si le savoir est une arme, on t'réinvite à une caserne On crache des postillons d'plomb, pour mieux t'graver tes neurones Médine Le savoir est une arme on le sait Mais combien d'entre nous finiront par l'appliquer? Hé, fallait savoir que le savoir est une arme Et que le cerveau de l'homme réfléchis comme une arme Un cadavre reste un cadavre et peu importe qui tu es C'est le savoir est une arme et y'a des corps à tuer Le Savoir est une arme en tant de guerre On peut tuer un révolutionnaire mais pas la révolution De A à Z j'cultive la fierté de soi Le savoir est une arme, moi j'en ai fait mon swag Ministère A.M.E.R Le savoir est une arme et je sors toujours armé Nègre de la pègre le savoir est une arme maintenant tu sais Mino Si le savoir est une arme j'écris ce morceau au couteau Mister You Le savoir est une arme, mais la richesse rachète lintellect MOH Le savoir est une arme, j'ai mis des cartouches d'encre dans mon gun Nakk Mendosa Le savoir est une arme, des profs qui s'prennent des coups d'schlass Niveau sagesse on est loin de Maître Yoda Ninho Le savoir est une arme, tu crois quon est bête ? Le savoir est une arme et j'avais des munitions plein la tête Niska Le savoir est une arme, je l'ai pointée sur les savants Le savoir est une arme, j'ai braqué un savant Pand'Or Si le savoir est une arme, j'ai tendance à gâcher mes munitions Paranoyan Va dire aux chômeurs surdiplômés que le savoir est une arme Pendant qu'les trafiquants d'armes se frottent les mains en Afrique Pink Tee Le savoir est une arme donc je n'ai pas besoin de gilet pare-balles PNL J'survis et j'révise mon âme, j'me dis qu'la connaissance est la meilleure des armes Prime Le savoir est une arme, j'ai quelques livres de plomb Donc j'roule un oin-j' avec l'ensemble de mes diplômes REDK On dit que le savoir est une arme, ok je charge, braque, fusille En guerre, le savoir est une arme mon frère, t'as pas de munitions Le savoir est une arme, oui, le peuple la chair à canon Rockin' Sqaut Le savoir est une âme quand ton pouvoir est modéré Le savoir est une arme si tu n't'en sers pas pour tuer paw Rohff Le savoir est une arme, j'en suis l'armurier Si le savoir est une arme tu vas t'faire rafaler Mon savoir est une arme, j'mets jamais la sécu' -Crew Le savoir est une arme et ce tir est vocal Sadek Johnny sait monter un ness-bi, depuis tout p'tit il a appris Oui son père était un gangster, mais c'n'était pas Stomy Bugsy Non, c'n'était pas Stomy Bugsy. 9-3 zoo, Neuilly-Plaisance Le savoir est une arme, j'ai quelques connaissances Le savoir est une arme, jai un 6.35 dans la trousse Salif Si le savoir est un flingue, on vide nos barillets bêtement Sat Le savoir est une arme j'ai gravé mon nom sur la balle Sch Le savoir est une arme, j'suis calibré, j'suis cultivé Siboy Le savoir est une arme Lire un livre t'aidera à formuler des excuses face au fusil Squadra A la sortie c'est le règlement des comptes, Dieu merci j'ai l'brolique sous ma cape Le savoir est une arme, j'ai plus d'une arme dans l'cartable Still Fresh Négro j'fusille, le savoir est une arme j'écris avec un uzi Si le savoir est une arme... non, non, ils l'ont trop faite Stomy Bugsy Le savoir est une arme, maitenant, tu sais Le savoir est une arme bébé, ne l'oublie jamais Mais des fois tu es blessé Souvent tu es armé Sultan Le savoir est une arme, on a les magnum Swatt's Le savoir est une arme j'te donne un EP d'Intifada Tiers Monde C'est le Tiers Monde j'ai le ka-pouch à James Bond Le savoir est une arme clik paw paw ding dong Gros le savoir est une arme mais une arme reste une arme Le savoir est une arme on a Einstein en guest star Le savoir est une arme, même les profs ont des uzis Le savoir est une arme gros, heureusement Si c'était une femme, y'aurait bien trop d'intelligents Le savoir est un gun, un desert eagle T.Killa De savoir on s'arme, j'viens fumer le cortège Avec une arme de précision comme celle du tireur de Norvège TripleGo Le savoir est une arme, mais tu ne sais pas la manier Vald Le savoir est une arme et j'suis pas le plus con Le savoir, c'est l'plus puissant des couteaux suisses Le savoir est une arme, apprends tes leçons Vîrus Le savoir, cest bien les armes, cest mieux... Volts Face Si l'savoir est une arme je sais qu'c'est l'Islam que j'dois cibler Si lsavoir est une arme, vieux jcrois qujsuis dans la merde XVBARBAR Le savoir est une arme, la vérité blesse Yong-C Le savoir est une arme, que lignorance se mette à genoux Youssoupha Le savoir est une arme et j'ai envi d'apprendre Que le dollar est une arme depuis que le monde est à vendre Si le savoir est une arme alors l'ignorance est un godemichet Le savoir sera mon arme, c'est décidé Puisque les hommes qui ont les balles combattent souvent les hommes qui ont les idées Le savoir est une arme, si t'as envi d'apprendre Sache que l'Euro est une arme et le monde est toujours à vendre Revolver, revo revo revolver Le savoir est une arme Les frères lever vos flingues en l'air Va dire aux petits frères qu'j'suis leur protecteur Mais c'est pas parce que le savoir est une arme qu'il faut poignarder son professeur Encore ignare, on m'a dit que le savoir est une arme Mon frère en prison m'a dit que le parloir est une larme Veux j'y vais direct, pas de ricochet Si le savoir est une arme, alors l'ignorance est un godemichet Le savoir est une arme, maintenant je sais Et si je verse une larme c'est parce que maintenant je saigne Zino Révolution Urbaine Le savoir est une arme 11.43 dans le Stabilo Si le savoir est une arme, nous on tire sur le prof de math9</t>
+          <t>Référencement par ordre alphabétique provisoire 2zer Le savoir est une arme, une arme peut s'enrayer 40000 Gang Le savoir est une arme, je suis armé, je veux rien savoir Ademo Le savoir est une arme, pourtant c'est toujours les démunis qui partent en guerre Alkpote Le savoir est une arme, vive Bachar El-Assad Alonzo Psy 4 de la rime Le savoir est une arme, une arme posée sur nos tempes Cest aussi dur den savoir tant que rien, Psy 4 alimente Ce cordon ombilical qui relie joie et tristesse Alpha Wann J'taffais, j'gagnais rien du tout de l'heure J'me disais le savoir est une arme, en fait, l'argent est un bunker Alors protégez-vous les jeunes Bazoo Le savoir est une arme, car y en a besoin en temps d'guerre Beeby Ils s'prennent pour des boxeurs, ne sont pas des bosseurs Aucune connaissance, auraient plus de savoir avec une balle dans le veau-cer Benash Le savoir est une arme, toi t'es illettré Black Kent Rimes tranchantes, ouais, sous la langue j'ai un rasoir Le savoir est une arme hum-hum s'tu veux savoir On m'dit d'laisser passer, de faire le Ray Charles AVoir Booba Le savoir est une arme, j'suis calibré, j'lis pas d'bouquin Le savoir est une arme jsuis calibré donc jsuis pas te-bé Le savoir est une arme ? Moi j'ai un flingue, j'ai pas le ba-bac Le savoir est une arme mais je n'ai pas fait d'études, alors J'ai un gros brolic tout près de mes thunes Armé jusquau cou jai grave du savoir Le savoir est une arme, trois calibres sur moi Je suis très intelligent La Boussole Le savoir est une arme Brams J'ai la psychoplume greffé à mon bras Appelle moi cobra Si le savoir est une arme t'es dans de beaux draps Brav Le savoir est une arme mais beaucoup n'ont que l'étui Calbo Ärsenik Le savoir est une arme qu'on a pas encore pressée La Canaille Si le savoir est une arme maintenant vois là ce que ça engendre J'irai pécho les munitions dans les livres ou au cinéma Sur le net, au théâtre comme au bistrot en bas de chez moi Et je te pilonnerais d'un ton froid et ferme ... Demi Portion Et si le savoir est une arme, y'a qu'sur Call-Of qu'mes potes l'ont gratuite Si le savoir est une arme, pourquoi se munir d'balles à blanc ? Despo Rutti Le savoir est une arme Construisons nos propres stand de tir avant que l'ignorance nous tue Dinos Punchlinovic Le savoir est une arme, j'ai un bac 3.5.7 Ils disent que le savoir est une arme Mais j'vais pas braquer la banque avec mes diplômes Le savoir est dans l'holster Dooz Kawa Le savoir est une arme, d'instruction massive Y a pas que les photos de charme, l'intromission raciste Nettoyez l'argent sale, les p'tits sachets de lessives Y a le savoir qu'est une arme qu'a son mode d'emploi dans les livres Dosseh On dit qu'le savoir est une me-ar yak, y a tout c'qu'il faut savoir dans boîte à gants Eden Dilinger Si le savoir est une arme, j'remplis mon stylo d'cartouches El Matador Le savoir est une arme donc à toi de fournir le silencieux Fababy Le savoir est une arme, mais personne braque pour acheter des livres Si la France nous comprends pas, pourquoi juger nos délits ? Et si le savoir est une arme, je me mutilerai avec des livres Le savoir est une arme, j'peux venir te flinguer bêtement Le savoir est une arme, un chien me f'ras la peau Le savoir est une arme, j'ai l'chargeur plein d'idées Facio Fass Si le savoir est une arme mon négro j't'abats Falcko Le savoir est une arme, Ghandi s'est fait fumer P't'être parc'qu'il avait pas d'Glock Fonky Flav' Le savoir est une arme de guerre, l'impatience un poison La violence un mystère que n'résout même plus la raison La Fouine Les bouffons se chient d'ssus, j'ai pécho l'gun et lâché la muscu Le savoir est une arme de trou du cul Mon prof c'est Yuri Orlov si le savoir est une arme Furax Barbarossa Le savoir est une arme ? On ne m'a appris que l'essentiel Moi élevé à la patate, la brique, les anciennes Si le savoir est une arme gros J'déclare une lame, t'en trouveras surement d'autres Gradur Le savoir est une armée Le savoir est une arme, un bouquin près du calibre Le savoir est une arme, fuck le furet Guizmo Le savoir est une arme le dicton est connu J'ai des livres et un tank, des punchlines made in ONU H-Magnum Le savoir est une arme donc j'arrive cagoulé Hayce Lemsi Le savoir est une arme dont on ne se sert pas L'Hexaler Le savoir est une arme, je suis fidèle à mon art Hooss Le savoir est une arme jai pas mon 6.35 mais je flingue lanti-pop Infinit' Si l'savoir est une arme, faut qu'ma liasse ressemble à un livre Ixzo Le savoir est une arme sale Kaaris Ça philosophe qu'le savoir est une arme, pour s'rendre compte Qule nègre est trop nègre pour avoir une âme, tu t'rends compte Le savoir est une arme j'ouvre le feu mais pas leur livres Kalash Le savoir est une arme jtourne les pages de ma kalash Keny Arkana Alors comprend dans quel monde nous vivons Le savoir est une arme à lheure où ils brevettent le vivant Kery James Si le savoir est une arme, soyons armés, car sans lui nous sommes désarmés Kool Shen Le savoir est une arme mais Même stupide, si t'as des sous tu peux t'constituer la plus grande armée Krok Armé de savoir j'peux te shoot Lawid Si l'savoir est une arme et ben toi t'as rien de dangereux LECK Focalisé dans le futile Le savoir est une arme, j'me suis tiré dessus, j'étais trop stupide Le savoir est une arme J'mettrai des coups d'crosse si ça tire plus En trois ans j'en ai pris dix Dialogue de sourds avec les jeunes pour eux le savoir est une arme factice Argent facile fuck la théorie vive la pratice Pour eux le savoir est une arme factice Lino Si l'savoir est un gun, mec y'a plus qu'des armes enrayées La mort est DJ, l'histoire s'répète, le disque est rayé Tellement de savoir que pour presser la gâchette, on a dû s'y mettre à trois J'diffuse mon savoir, j'fais des drive-by shooting LIO Petrodollars Le savoir est une arme, on peut blesser avec les mots Lucio Bukowski Si l'savoir est une arme beaucoup ont raté le permis Mafia K'1Fry Le savoir est une arme Mais qu'est-ce qu'une arme sans le savoir Makiavel Révolution Urbaine Ils parlent d'armes et veulent savoir qui vendent le plus Le savoir est une arme, ma culture vous tire dessus Malik Shtar Academy Si le savoir est une arme, on t'réinvite à une caserne On crache des postillons d'plomb, pour mieux t'graver tes neurones Médine Le savoir est une arme on le sait Mais combien d'entre nous finiront par l'appliquer? Hé, fallait savoir que le savoir est une arme Et que le cerveau de l'homme réfléchis comme une arme Un cadavre reste un cadavre et peu importe qui tu es C'est le savoir est une arme et y'a des corps à tuer Le Savoir est une arme en tant de guerre On peut tuer un révolutionnaire mais pas la révolution De A à Z j'cultive la fierté de soi Le savoir est une arme, moi j'en ai fait mon swag Ministère A.M.E.R Le savoir est une arme et je sors toujours armé Nègre de la pègre le savoir est une arme maintenant tu sais Mino Si le savoir est une arme j'écris ce morceau au couteau Mister You Le savoir est une arme, mais la richesse rachète lintellect MOH Le savoir est une arme, j'ai mis des cartouches d'encre dans mon gun Nakk Mendosa Le savoir est une arme, des profs qui s'prennent des coups d'schlass Niveau sagesse on est loin de Maître Yoda Ninho Le savoir est une arme, tu crois quon est bête ? Le savoir est une arme et j'avais des munitions plein la tête Niska Le savoir est une arme, je l'ai pointée sur les savants Le savoir est une arme, j'ai braqué un savant Pand'Or Si le savoir est une arme, j'ai tendance à gâcher mes munitions Paranoyan Va dire aux chômeurs surdiplômés que le savoir est une arme Pendant qu'les trafiquants d'armes se frottent les mains en Afrique Pink Tee Le savoir est une arme donc je n'ai pas besoin de gilet pare-balles PNL J'survis et j'révise mon âme, j'me dis qu'la connaissance est la meilleure des armes Prime Le savoir est une arme, j'ai quelques livres de plomb Donc j'roule un oin-j' avec l'ensemble de mes diplômes REDK On dit que le savoir est une arme, ok je charge, braque, fusille En guerre, le savoir est une arme mon frère, t'as pas de munitions Le savoir est une arme, oui, le peuple la chair à canon Rockin' Sqaut Le savoir est une âme quand ton pouvoir est modéré Le savoir est une arme si tu n't'en sers pas pour tuer paw Rohff Le savoir est une arme, j'en suis l'armurier Si le savoir est une arme tu vas t'faire rafaler Mon savoir est une arme, j'mets jamais la sécu' -Crew Le savoir est une arme et ce tir est vocal Sadek Johnny sait monter un ness-bi, depuis tout p'tit il a appris Oui son père était un gangster, mais c'n'était pas Stomy Bugsy Non, c'n'était pas Stomy Bugsy. 9-3 zoo, Neuilly-Plaisance Le savoir est une arme, j'ai quelques connaissances Le savoir est une arme, jai un 6.35 dans la trousse Salif Si le savoir est un flingue, on vide nos barillets bêtement Sat Le savoir est une arme j'ai gravé mon nom sur la balle Sch Le savoir est une arme, j'suis calibré, j'suis cultivé Siboy Le savoir est une arme Lire un livre t'aidera à formuler des excuses face au fusil Squadra A la sortie c'est le règlement des comptes, Dieu merci j'ai l'brolique sous ma cape Le savoir est une arme, j'ai plus d'une arme dans l'cartable Still Fresh Négro j'fusille, le savoir est une arme j'écris avec un uzi Si le savoir est une arme... non, non, ils l'ont trop faite Stomy Bugsy Le savoir est une arme, maitenant, tu sais Le savoir est une arme bébé, ne l'oublie jamais Mais des fois tu es blessé Souvent tu es armé Sultan Le savoir est une arme, on a les magnum Swatt's Le savoir est une arme j'te donne un EP d'Intifada Tiers Monde C'est le Tiers Monde j'ai le ka-pouch à James Bond Le savoir est une arme clik paw paw ding dong Gros le savoir est une arme mais une arme reste une arme Le savoir est une arme on a Einstein en guest star Le savoir est une arme, même les profs ont des uzis Le savoir est une arme gros, heureusement Si c'était une femme, y'aurait bien trop d'intelligents Le savoir est un gun, un desert eagle T.Killa De savoir on s'arme, j'viens fumer le cortège Avec une arme de précision comme celle du tireur de Norvège TripleGo Le savoir est une arme, mais tu ne sais pas la manier Vald Le savoir est une arme et j'suis pas le plus con Le savoir, c'est l'plus puissant des couteaux suisses Le savoir est une arme, apprends tes leçons Vîrus Le savoir, cest bien les armes, cest mieux... Volts Face Si l'savoir est une arme je sais qu'c'est l'Islam que j'dois cibler Si lsavoir est une arme, vieux jcrois qujsuis dans la merde XVBARBAR Le savoir est une arme, la vérité blesse Yong-C Le savoir est une arme, que lignorance se mette à genoux Youssoupha Le savoir est une arme et j'ai envi d'apprendre Que le dollar est une arme depuis que le monde est à vendre Si le savoir est une arme alors l'ignorance est un godemichet Le savoir sera mon arme, c'est décidé Puisque les hommes qui ont les balles combattent souvent les hommes qui ont les idées Le savoir est une arme, si t'as envi d'apprendre Sache que l'Euro est une arme et le monde est toujours à vendre Revolver, revo revo revolver Le savoir est une arme Les frères lever vos flingues en l'air Va dire aux petits frères qu'j'suis leur protecteur Mais c'est pas parce que le savoir est une arme qu'il faut poignarder son professeur Encore ignare, on m'a dit que le savoir est une arme Mon frère en prison m'a dit que le parloir est une larme Veux j'y vais direct, pas de ricochet Si le savoir est une arme, alors l'ignorance est un godemichet Le savoir est une arme, maintenant je sais Et si je verse une larme c'est parce que maintenant je saigne Zino Révolution Urbaine Le savoir est une arme 11.43 dans le Stabilo Si le savoir est une arme, nous on tire sur le prof de math9</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ton histoire c'est mon histoire, petit resto et ciné J'ne savais ce que c'était que d'avoir des goûts raffinés Tu savais que pour toi j'aurais pu tout faire même tirer L'amour rend aveugle, donc les gars j'm'suis laissé guider Quand on marchait ensemble on était beau, on était stylé Les jaloux disaient de nous qu'on s'croirait dans un défilé T'était la seule personne à qui je pouvais me fier Non pour rien au monde je n'aurais pu te laisser filer Plus le temps passe, plus tu effaces Tous les souvenirs qui nous avaient liés Plus le temps passe, plus tu effaces Tout ce qu'on avait vécu et pourtant Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Oublié, oublié, oublié, oublié Oublié, oublié, oublié, oublié You might also like Tu me disais souvent je t'aimerais moins si t'étais thuné Est-ce que tu te rappelles quand on se cachait pour aller fumer Tu cachais ma beuh, un plat pour deux, on était ruiné On faisait les fous, rien à foutre on était paumé Toi et moi dans le zoo, dans la boue, sous la douche Quand je ferme les yeux, j'sens le goût de ta bouche Non, non, ne me dis pas que j'suis entrain d'halluciner Et puis t'es partie sans me passer l'anneau Plus le temps passe, plus tu effaces Tous les souvenirs qui nous avaient liés Plus le temps passe, plus tu effaces Tout ce qu'on avait vécu et pourtant Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Oublié, oublié, oublié, oublié Oublié, oublié, oublié, oublié Bébé, moi j'suis fier de moi Parce que moi je n't'ai pas oublié Bébé, moi j'suis fier de moi Parce que moi je n't'ai pas oublié Tu sais pourquoi je suis fier de moi C'est parce que je n't'ai pas oublié Bébé, moi j'suis fier de moi Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Oublié, oublié, oublié, oublié Oublié, oublié, oublié, oublié</t>
+          <t>Ton histoire c'est mon histoire, petit resto et ciné J'ne savais ce que c'était que d'avoir des goûts raffinés Tu savais que pour toi j'aurais pu tout faire même tirer L'amour rend aveugle, donc les gars j'm'suis laissé guider Quand on marchait ensemble on était beau, on était stylé Les jaloux disaient de nous qu'on s'croirait dans un défilé T'était la seule personne à qui je pouvais me fier Non pour rien au monde je n'aurais pu te laisser filer Plus le temps passe, plus tu effaces Tous les souvenirs qui nous avaient liés Plus le temps passe, plus tu effaces Tout ce qu'on avait vécu et pourtant Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Oublié, oublié, oublié, oublié Oublié, oublié, oublié, oublié Tu me disais souvent je t'aimerais moins si t'étais thuné Est-ce que tu te rappelles quand on se cachait pour aller fumer Tu cachais ma beuh, un plat pour deux, on était ruiné On faisait les fous, rien à foutre on était paumé Toi et moi dans le zoo, dans la boue, sous la douche Quand je ferme les yeux, j'sens le goût de ta bouche Non, non, ne me dis pas que j'suis entrain d'halluciner Et puis t'es partie sans me passer l'anneau Plus le temps passe, plus tu effaces Tous les souvenirs qui nous avaient liés Plus le temps passe, plus tu effaces Tout ce qu'on avait vécu et pourtant Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Oublié, oublié, oublié, oublié Oublié, oublié, oublié, oublié Bébé, moi j'suis fier de moi Parce que moi je n't'ai pas oublié Bébé, moi j'suis fier de moi Parce que moi je n't'ai pas oublié Tu sais pourquoi je suis fier de moi C'est parce que je n't'ai pas oublié Bébé, moi j'suis fier de moi Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Tu connais notre histoire On était plus fort tous les deux En face il y avait des obstacles Je n'peux pas croire que t'aies oublié Oublié, oublié, oublié, oublié Oublié, oublié, oublié, oublié</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>On fait la mala, j'suis en décalage Tu m'parles de câlin, j'suis dans un palace Ton père n'est pas là, on coupe la moula Double X on the track J't'emmène en balade, Copacabana T'as reconnu ma voix, t'es au bout d'ta vie ouh Dites-toi que chez nous, personne écoute ta 'sique ah Mais tu t'attendais à quoi ? Un bon tajine ? Ok Tout c'que tu vas manger, c'est des coups d'cadis Enfoiré, tu fais pas le poids han, t'es un boug fragile han Dans le club, c'est pour nous que ta go s'agite La vérité, c'est la foi, mais on ose pas l'dire oh J'peux te jurr qu'tous mes gars sont nostalgiques ah, ah Mon quartier, il st grand dans l'univers, on veut s'en sortir sans trop s'éloigner Quand les keufs te disent Ok, on te libère, v'là que la balance vient témoigner On apprend pas à nager dans une rivière, sans risque de se noyer Ici, le rrain-te tourne été, hiver, on a besoin de liquide pour payer le loyer On fait la mala, j'suis en décalage Tu m'parles de câlin, j'suis dans un palace Ton père n'est pas là, on coupe la moula J't'emmène en balade, Copacabana Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah You might also like Je me gare en double file, même à Paris oh J'suis le prince ma ville comme un Qatari Tu m'as pas vu arriver, j'suis en Ferrari J'm'endors à Marseille, j'm'habille en Italie On sort un peu de la zone, je vais voir une gadji Les gadjis les plus bonnes sont les plus fragiles gamberge On fait la mala, j'suis en décalage Tu m'parles de câlin, j'suis dans un palace Ton père n'est pas là, on coupe la moula On part en balade, Copacabana Mon quartier, il est grand dans l'univers, on veut s'en sortir sans trop s'éloigner Quand les keufs te disent Ok, on te libère, v'là que la balance vient témoigner On apprend pas à nager dans une rivière, sans risque de se noyer Ici, le rrain-te tourne été, hiver, on a besoin de liquide pour payer le loyer On fait la mala, j'suis en décalage Tu m'parles de câlin, j'suis dans un palace Ton père n'est pas là, on coupe la moula J't'emmène en balade, Copacabana Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah Mon quartier, il est grand dans l'univers Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah Quand les keufs te disent Ok, on te libère Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah On apprend pas à nager dans une rivière Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah Ici, le rrain-te tourne été, hiver Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah</t>
+          <t>On fait la mala, j'suis en décalage Tu m'parles de câlin, j'suis dans un palace Ton père n'est pas là, on coupe la moula Double X on the track J't'emmène en balade, Copacabana T'as reconnu ma voix, t'es au bout d'ta vie ouh Dites-toi que chez nous, personne écoute ta 'sique ah Mais tu t'attendais à quoi ? Un bon tajine ? Ok Tout c'que tu vas manger, c'est des coups d'cadis Enfoiré, tu fais pas le poids han, t'es un boug fragile han Dans le club, c'est pour nous que ta go s'agite La vérité, c'est la foi, mais on ose pas l'dire oh J'peux te jurr qu'tous mes gars sont nostalgiques ah, ah Mon quartier, il st grand dans l'univers, on veut s'en sortir sans trop s'éloigner Quand les keufs te disent Ok, on te libère, v'là que la balance vient témoigner On apprend pas à nager dans une rivière, sans risque de se noyer Ici, le rrain-te tourne été, hiver, on a besoin de liquide pour payer le loyer On fait la mala, j'suis en décalage Tu m'parles de câlin, j'suis dans un palace Ton père n'est pas là, on coupe la moula J't'emmène en balade, Copacabana Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah Je me gare en double file, même à Paris oh J'suis le prince ma ville comme un Qatari Tu m'as pas vu arriver, j'suis en Ferrari J'm'endors à Marseille, j'm'habille en Italie On sort un peu de la zone, je vais voir une gadji Les gadjis les plus bonnes sont les plus fragiles gamberge On fait la mala, j'suis en décalage Tu m'parles de câlin, j'suis dans un palace Ton père n'est pas là, on coupe la moula On part en balade, Copacabana Mon quartier, il est grand dans l'univers, on veut s'en sortir sans trop s'éloigner Quand les keufs te disent Ok, on te libère, v'là que la balance vient témoigner On apprend pas à nager dans une rivière, sans risque de se noyer Ici, le rrain-te tourne été, hiver, on a besoin de liquide pour payer le loyer On fait la mala, j'suis en décalage Tu m'parles de câlin, j'suis dans un palace Ton père n'est pas là, on coupe la moula J't'emmène en balade, Copacabana Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah Mon quartier, il est grand dans l'univers Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah Quand les keufs te disent Ok, on te libère Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah On apprend pas à nager dans une rivière Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah Ici, le rrain-te tourne été, hiver Lala, lalalah, lala, lalalah, lala, lalalah, lala, lalalah</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Art martial Lourdschool, K-Rismatik Et les r'voilà l'ancien, rappe mais XXX Viens taquiner, 93 c'est grand, c'est la Guinée Paraît qu'faut rester correct ? Que je modère l'insulte Je vous suggère en toute amitié d'aller niquer vos mères les putes L'Rap c'est la peste, paro du regard et des tests Combien qui m'aime ? J'm'en balance, même moi j'me déteste Baisser la garde ? Jamais mon frère, jamais j'abandonne J'découpe les instru qu'on m'donne, j'marche en Stan, c'est pas Compton Et les r'voilà, l'ancien, dégaine ton champion Karisma-boucherie, qui vous a dit que nous chantions ? J'suis venu clasher des bêtes, casser des têtes, jusqu'à place des fêtes J'me lèverai juste pour refoutre ta XXX j'place sur ta défaite On n'est pas venus pour se confier, pas déconseillés C'est Karismatik, Sofiane Poter avec un pompe scié C'est pour mon 93, qu'mon pote Magnum en blesse un Tu parles d'une ruche, un essaim, du 140 à Blaise ! Cousin, paraît que tu parles, rien à foutre, laissez-nous dans notre délire , j'encercle le game comme le périph' Je sais que le XXX , que dans l'rap y'a plus de wari Mais j'viens représenter Paris, tu peux dire C'est pour le délire Cousin, paraît que tu parles, rien à foutre, laissez-nous dans notre délire , j'encercle le game comme le périph' Je sais que le XXX , que dans l'rap y'a plus de wari Mais j'viens représenter Paris, tu peux dire C'est pour le délire You might also like Akhi, voici la variole, l'homme qui va porter ton linceul Laissez les parler, ils vont chialer, je bailaie leur rap de XXX C'est Paris, fait mal comme XXX, tu charries, le notre il varie Les verrous, gare au gorille, je ris, tu vois, c'est mieux qu'du cain-ri' Je n'ai pas de carie, petit frère, dégage J't'ai pris en otage, XXX Ils font des soleils, moi des tonnerres sur leurs comètes Sur leurs XXX, nique les commères et leurs craris, on les connaît Putain, t'es con mec, t'as fumé du com, hein ? L'assassinat commence, ici c'est moi qui commande C'est comme aç, et comment ? Dis leur que j'suis pas commode Et comment, ça sonne hein ? , j'te conseille d'aller XXX Personne nous traumat, on s'est pas passé la Grosse Claque Et j'dois te XXX Trop tard Pas trop net pour la XXX académie Prend le large mon ami, pour Blaise-Saint et le Blanc-Mesnil, yeah Hé cousin, paraît que tu parles, rien à foutre, laissez-nous dans notre délire , j'encercle le game comme le périph' Je sais que le XXX , que dans l'rap y'a plus de wari Mais j'viens représenter Paris, tu peux dire C'est pour le délire Paraît que tu parles, rien à foutre, laissez-nous dans notre délire , j'encercle le game comme le périph' Je sais que le XXX , que dans l'rap y'a plus de wari Mais j'viens représenter Paris, tu peux dire C'est pour le délire Paraît que tu parles Hein hein, Fianso, H-Magnum ... Hardcore, ouais, ouais Instinct criminel au bon son Paraît que tu parles Hein hein, X.X., 9.3., ..., yeah, yeah Loudschool, Karismatik</t>
+          <t>Art martial Lourdschool, K-Rismatik Et les r'voilà l'ancien, rappe mais XXX Viens taquiner, 93 c'est grand, c'est la Guinée Paraît qu'faut rester correct ? Que je modère l'insulte Je vous suggère en toute amitié d'aller niquer vos mères les putes L'Rap c'est la peste, paro du regard et des tests Combien qui m'aime ? J'm'en balance, même moi j'me déteste Baisser la garde ? Jamais mon frère, jamais j'abandonne J'découpe les instru qu'on m'donne, j'marche en Stan, c'est pas Compton Et les r'voilà, l'ancien, dégaine ton champion Karisma-boucherie, qui vous a dit que nous chantions ? J'suis venu clasher des bêtes, casser des têtes, jusqu'à place des fêtes J'me lèverai juste pour refoutre ta XXX j'place sur ta défaite On n'est pas venus pour se confier, pas déconseillés C'est Karismatik, Sofiane Poter avec un pompe scié C'est pour mon 93, qu'mon pote Magnum en blesse un Tu parles d'une ruche, un essaim, du 140 à Blaise ! Cousin, paraît que tu parles, rien à foutre, laissez-nous dans notre délire , j'encercle le game comme le périph' Je sais que le XXX , que dans l'rap y'a plus de wari Mais j'viens représenter Paris, tu peux dire C'est pour le délire Cousin, paraît que tu parles, rien à foutre, laissez-nous dans notre délire , j'encercle le game comme le périph' Je sais que le XXX , que dans l'rap y'a plus de wari Mais j'viens représenter Paris, tu peux dire C'est pour le délire Akhi, voici la variole, l'homme qui va porter ton linceul Laissez les parler, ils vont chialer, je bailaie leur rap de XXX C'est Paris, fait mal comme XXX, tu charries, le notre il varie Les verrous, gare au gorille, je ris, tu vois, c'est mieux qu'du cain-ri' Je n'ai pas de carie, petit frère, dégage J't'ai pris en otage, XXX Ils font des soleils, moi des tonnerres sur leurs comètes Sur leurs XXX, nique les commères et leurs craris, on les connaît Putain, t'es con mec, t'as fumé du com, hein ? L'assassinat commence, ici c'est moi qui commande C'est comme aç, et comment ? Dis leur que j'suis pas commode Et comment, ça sonne hein ? , j'te conseille d'aller XXX Personne nous traumat, on s'est pas passé la Grosse Claque Et j'dois te XXX Trop tard Pas trop net pour la XXX académie Prend le large mon ami, pour Blaise-Saint et le Blanc-Mesnil, yeah Hé cousin, paraît que tu parles, rien à foutre, laissez-nous dans notre délire , j'encercle le game comme le périph' Je sais que le XXX , que dans l'rap y'a plus de wari Mais j'viens représenter Paris, tu peux dire C'est pour le délire Paraît que tu parles, rien à foutre, laissez-nous dans notre délire , j'encercle le game comme le périph' Je sais que le XXX , que dans l'rap y'a plus de wari Mais j'viens représenter Paris, tu peux dire C'est pour le délire Paraît que tu parles Hein hein, Fianso, H-Magnum ... Hardcore, ouais, ouais Instinct criminel au bon son Paraît que tu parles Hein hein, X.X., 9.3., ..., yeah, yeah Loudschool, Karismatik</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>7.5 Paris, 20ème carré Si tu stresses fais pas l'crari, t'es seul quand on arrive des barres ! J'suis le reuf à personne, moi j'connais personne Dans c'biz' tu peux te faire percer des barres ! Ça fait la matière grise, la mifa taffe à démonter Le mafé de ma daronne des ceursu moi je me méfie des barres ! L'instinct criminel au bon son, laissez-moi bosser Prendre mon disque d'or ou vous crosser des barres ! En solo dans ma fusée, insolent, j'préfère réviser J'vois des visages me lécher les couilles depuis que je suis diffusé La concurrence peut viser, réviser style bien aiguisé Pour les grandes gueules j'roule sur eux en voiture banalisée J'suis venu vous baiser, vous briser XXX J'suis démon et bizarre, atypique comme E-Easy Tester té-ci, petit conseil évite J'ai grandis le ventre vide, j'vais te couper les testicules des barres ! Ils pensent me traumatiser, débridé, j'préfère éviter J'ai vu des cerveaux limités pour le buzz chopperaient le Sida Rêve pas d'cigares, j'sors comme le cithare J'suis un bouquin au mitard, 22 tonnes sur un motard des barres ! Putain c'est moche comme quand ta meuf se lève le matin T'as jamais pleuré de faim, gros arrête de faire le mesquin meskin ! Crapuleux comme Sarko, en plus grand, plus beau J'ouvre la braguette du star-co, les MCs encule tous You might also like 7.5 Paris, 20ème carré Si tu stresses fais pas l'crari, t'es seul quand on arrive des barres ! J'suis le reuf à personne, moi j'connais personne Dans c'biz' tu peux te faire percer des barres ! Ça fait la matière grise, la mifa taffe à démonter Le mafé de ma daronne des ceursu moi je me méfie des barres ! L'instinct criminel au bon son, laissez-moi bosser Prendre mon disque d'or ou vous crosser des barres ! J'suis là pour faurrer, viens des forêts de Côte d'Ivoire Flaire les faux et monte le goret, j'suis un plus sur ta coteauet Petit reste correct, si t'étais bon ça se saurait Les vrais nommes-bo marchent sereins, et les bouffons veulent l'paraître des barres ! Ca parle de barreaux, de barrettes, faire kiffer Déborah Le but de se paro il va te fuck dans son débarras des barres ! Y a mille façons de se faire effacer, les jeux sont fossés D'avance, la concurrence vit dans le fossé Un rire de façade, une grosse patate Putain mon t-shirt blanc vire au rouge, au sang de batard S'ils veulent du Rap, qu'ils avalent ça Qu'ils aillent à pavillon Baltard, c'est pour un son de dale-pé ou de baltringue 7.5.0.zinzin, qui peut oser ? Approcher le fossé, décomposé Ma pisse a le goût de rosé, est composé de raisin, de manioc, d'excréments de chimpanzés 7.5 Paris, 20ème carré Si tu stresses fais pas l'crari, t'es seul quand on arrive des barres ! J'suis le reuf à personne, moi j'connais personne Dans c'biz' tu peux te faire percer des barres ! Ça fait la matière grise, la mifa taffe à démonter Le mafé de ma daronne des ceursu moi je me méfie des barres ! L'instinct criminel au bon son, laissez-moi bosser Prendre mon disque d'or ou vous crosser des barres ! J'suis dans mon hall, posé comme un noir félin Sur le terrain, orphelin, l'avenir dans d'la porcelaine des barres ! Besoin de sonne-per, pas facile comme un beau-père Mon veau-cer crame, trop d'shit, à-bas Lucifer ! Pas là pour plaire, ni pour déplaire au Game Nique sa mer Caspienne on vit, on meurt au casse-pipe ! nigga Parisien nomme-bo, 20ème flambeau Avis aux Rive-Gauche qu'ont tous ces travaux, bande de travelos ! C'est pas du pe-ra pour ados en manque de yeu-cou En mode transaction de bédo on peut te yé-cou J'arrive et découpe, les balances sont sur écoute Mais t'es fou ! Tu penses bien dormir avec mes sous ? des barres ! Pour un semblant de buzz, certains vendraient leur mère chez Mireille Dumas Je sais qu'tu grimaces petite limace, c'est que le début du match J'm'endors à 6 du mat, rend moi mon dû man ! J'ai toute la nuit pour te faire du mal, chaque jour induement</t>
+          <t>7.5 Paris, 20ème carré Si tu stresses fais pas l'crari, t'es seul quand on arrive des barres ! J'suis le reuf à personne, moi j'connais personne Dans c'biz' tu peux te faire percer des barres ! Ça fait la matière grise, la mifa taffe à démonter Le mafé de ma daronne des ceursu moi je me méfie des barres ! L'instinct criminel au bon son, laissez-moi bosser Prendre mon disque d'or ou vous crosser des barres ! En solo dans ma fusée, insolent, j'préfère réviser J'vois des visages me lécher les couilles depuis que je suis diffusé La concurrence peut viser, réviser style bien aiguisé Pour les grandes gueules j'roule sur eux en voiture banalisée J'suis venu vous baiser, vous briser XXX J'suis démon et bizarre, atypique comme E-Easy Tester té-ci, petit conseil évite J'ai grandis le ventre vide, j'vais te couper les testicules des barres ! Ils pensent me traumatiser, débridé, j'préfère éviter J'ai vu des cerveaux limités pour le buzz chopperaient le Sida Rêve pas d'cigares, j'sors comme le cithare J'suis un bouquin au mitard, 22 tonnes sur un motard des barres ! Putain c'est moche comme quand ta meuf se lève le matin T'as jamais pleuré de faim, gros arrête de faire le mesquin meskin ! Crapuleux comme Sarko, en plus grand, plus beau J'ouvre la braguette du star-co, les MCs encule tous 7.5 Paris, 20ème carré Si tu stresses fais pas l'crari, t'es seul quand on arrive des barres ! J'suis le reuf à personne, moi j'connais personne Dans c'biz' tu peux te faire percer des barres ! Ça fait la matière grise, la mifa taffe à démonter Le mafé de ma daronne des ceursu moi je me méfie des barres ! L'instinct criminel au bon son, laissez-moi bosser Prendre mon disque d'or ou vous crosser des barres ! J'suis là pour faurrer, viens des forêts de Côte d'Ivoire Flaire les faux et monte le goret, j'suis un plus sur ta coteauet Petit reste correct, si t'étais bon ça se saurait Les vrais nommes-bo marchent sereins, et les bouffons veulent l'paraître des barres ! Ca parle de barreaux, de barrettes, faire kiffer Déborah Le but de se paro il va te fuck dans son débarras des barres ! Y a mille façons de se faire effacer, les jeux sont fossés D'avance, la concurrence vit dans le fossé Un rire de façade, une grosse patate Putain mon t-shirt blanc vire au rouge, au sang de batard S'ils veulent du Rap, qu'ils avalent ça Qu'ils aillent à pavillon Baltard, c'est pour un son de dale-pé ou de baltringue 7.5.0.zinzin, qui peut oser ? Approcher le fossé, décomposé Ma pisse a le goût de rosé, est composé de raisin, de manioc, d'excréments de chimpanzés 7.5 Paris, 20ème carré Si tu stresses fais pas l'crari, t'es seul quand on arrive des barres ! J'suis le reuf à personne, moi j'connais personne Dans c'biz' tu peux te faire percer des barres ! Ça fait la matière grise, la mifa taffe à démonter Le mafé de ma daronne des ceursu moi je me méfie des barres ! L'instinct criminel au bon son, laissez-moi bosser Prendre mon disque d'or ou vous crosser des barres ! J'suis dans mon hall, posé comme un noir félin Sur le terrain, orphelin, l'avenir dans d'la porcelaine des barres ! Besoin de sonne-per, pas facile comme un beau-père Mon veau-cer crame, trop d'shit, à-bas Lucifer ! Pas là pour plaire, ni pour déplaire au Game Nique sa mer Caspienne on vit, on meurt au casse-pipe ! nigga Parisien nomme-bo, 20ème flambeau Avis aux Rive-Gauche qu'ont tous ces travaux, bande de travelos ! C'est pas du pe-ra pour ados en manque de yeu-cou En mode transaction de bédo on peut te yé-cou J'arrive et découpe, les balances sont sur écoute Mais t'es fou ! Tu penses bien dormir avec mes sous ? des barres ! Pour un semblant de buzz, certains vendraient leur mère chez Mireille Dumas Je sais qu'tu grimaces petite limace, c'est que le début du match J'm'endors à 6 du mat, rend moi mon dû man ! J'ai toute la nuit pour te faire du mal, chaque jour induement</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>J'ai vu Paris de loin Paris de loin Elle avait le corps d'un défunt Le corps d'un défunt J'peux te dire que ça sentait la fin Ça sentait la fin Du coup j'ai dû changer de chemin Changer de chemin J'ai vu Paris rouler du cul me faire du rentre-dedans Avec un string ridicule, pensant pouvoir me faire dé-ban Insulter mon Dîn, coucher avec Redeker Un mal héréditaire chez certaines filles qui ont les jambes en équerre Me voir raide, dur comme la Tour Eiffel Son maquillage cache toute la laideur que son cur renferme Elle a un corps, des formes avec un gros défaut Des billets de banque, tu la prends tu l'endors mon frère Paris la nuit une nymphette, hachek, handek Des tas de banques pour ces trucs que les tox' s'injectent Et pour un 25G, ta vie peut changer T'es dead, plongé dans la Seine sans vie You might also like Tu aimes la vie de luxe, l'alcool ainsi que le shit Pourtant tu sais que le shit est de mèche avec les schmits Ton futur proche s'avère embêtant Tu vois la merde mais tu marches en plein dedans Si seulement tes rêves tu concrétisais Si seulement des projets concrets tu visais Arrête de vagabonder pense à tes rents-pa Cascade et rentre tard puis s'accroche à la rambarde Laisse-moi mon tapis, mes larmes, pour nettoyer mes pêchés J'ai du ménage à faire j'vais pas rester derrière mon PC La sentence divine, personne pourra l'encaisser J'ai mis mon front au sol si t'es un fou vient m'en empêcher J'pense au Soudan et à Haïti Ils nous haïssent, on est ébahit devant leur Ice Tea Donc je souris jaune fluo, comme après une blague hostile Des fois j'me sens seul, bête, gênant comme un black au ski Le jus de baobab est remplacé par le pastis Ibrahima fout plus rien et malgré que le temps passe tise Il s'tatoue partout, se tape des partouzes S'gâte et finit mort blessé par des cartouches Ils ont pas voulu me donner de cuillère pour éclater mon tieb, akhi J'ai mis la ain-m, ils ont trouver que je faisais tiép Quoi, eux qui croient tenir de l'australopithèque Eux qui se lavent même pas les seuf à l'eau quand ils cakent Moi j'suis comme mon père, j'parle fort j'le fais pas exprès Et le tchouraï resterait même si je m'arrosais de spray Enraciné dans le bitume comme un parcmètre Avec mon gars Maitre Gims et mes partenaires Toujours pas d'appart mec à Lafayette J'crois que faut que j'dise au revoir à la faillite Mais va falloir se fight parce que la hass elle crochète Gros j'sais que y'en a qui donnent leur fesses pour d'gros chèques Au fait guette ma gueule j'suis encore jeune J'remercie Dieu donc tu me verras pas dans le jeûne, check un gum-chewing Mmmh! Y'a ton gars sur qui joue au con Dis-lui qu'il est suivi du regard et que c'est pas celui de la Joconde Pas rassuré comme si y'avait petite sur en boîte Et le danger porte bien son nom parce que bien souvent tu ne le voit a-p Y'a ceux qui veulent l'argent et ceux qui veulent le Paradis Mais ici le paradis réclame de l'argent Chez nous on connait mais t'inquiète on se maintient J'devrais me diriger droit vers la Mecque dès maintenant Remercier le Très Haut d'avoir encore tous mes membres Mais mais respect aux frères qui ont su tourner le dos à ce bas monde Moi moi moi j'suis là, piégé dans mes rêves d'enfants Moi moi moi j'suis là, akhi je sais que je m'enfonce Moi j'suis là, à croire que le monde est à moi et rien qu'à moi Et personne d'autre le contrôle, j'ai besoin d'être éclairé Quand tu perds ton temps dehors, tu fais que ramper dans le cul du diable C'est peut être pour ça que ton pote dit que de la merde quand tu lui parles Le trahir pour 1 million, ça te tente autant que Satan ? On crache sur le bitume bien que le clochard y plante sa tente La vie me parait che-lou comme ce que cache le sourire d'un fou Mais j'la trouverais chant-mé, si j'étais ce gosse amputé d'un genou Ils se plaignent de la pluie mais sans elle personne mangerait Font de ce monde un paradis, moi j'préfère encore quand j'rêve J'parle d'eux comme si j'étais un gars grave irréprochable Mais j'suis accro au son comme un tox' crade qui décroche a-p Ils sont pas de mon gabarit, je les boxe a-p je mets des grosses baffes Ces tocards mettent des costards c'est à cause d'eux que des gosses tafs J'ai vu Paris de loin Paris de loin Elle avait le corps d'un défunt Le corps d'un défunt J'peux te dire que ça sentait la fin Ça sentait la fin Du coup j'ai dû changer de chemin Changer de chemin Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>J'ai vu Paris de loin Paris de loin Elle avait le corps d'un défunt Le corps d'un défunt J'peux te dire que ça sentait la fin Ça sentait la fin Du coup j'ai dû changer de chemin Changer de chemin J'ai vu Paris rouler du cul me faire du rentre-dedans Avec un string ridicule, pensant pouvoir me faire dé-ban Insulter mon Dîn, coucher avec Redeker Un mal héréditaire chez certaines filles qui ont les jambes en équerre Me voir raide, dur comme la Tour Eiffel Son maquillage cache toute la laideur que son cur renferme Elle a un corps, des formes avec un gros défaut Des billets de banque, tu la prends tu l'endors mon frère Paris la nuit une nymphette, hachek, handek Des tas de banques pour ces trucs que les tox' s'injectent Et pour un 25G, ta vie peut changer T'es dead, plongé dans la Seine sans vie Tu aimes la vie de luxe, l'alcool ainsi que le shit Pourtant tu sais que le shit est de mèche avec les schmits Ton futur proche s'avère embêtant Tu vois la merde mais tu marches en plein dedans Si seulement tes rêves tu concrétisais Si seulement des projets concrets tu visais Arrête de vagabonder pense à tes rents-pa Cascade et rentre tard puis s'accroche à la rambarde Laisse-moi mon tapis, mes larmes, pour nettoyer mes pêchés J'ai du ménage à faire j'vais pas rester derrière mon PC La sentence divine, personne pourra l'encaisser J'ai mis mon front au sol si t'es un fou vient m'en empêcher J'pense au Soudan et à Haïti Ils nous haïssent, on est ébahit devant leur Ice Tea Donc je souris jaune fluo, comme après une blague hostile Des fois j'me sens seul, bête, gênant comme un black au ski Le jus de baobab est remplacé par le pastis Ibrahima fout plus rien et malgré que le temps passe tise Il s'tatoue partout, se tape des partouzes S'gâte et finit mort blessé par des cartouches Ils ont pas voulu me donner de cuillère pour éclater mon tieb, akhi J'ai mis la ain-m, ils ont trouver que je faisais tiép Quoi, eux qui croient tenir de l'australopithèque Eux qui se lavent même pas les seuf à l'eau quand ils cakent Moi j'suis comme mon père, j'parle fort j'le fais pas exprès Et le tchouraï resterait même si je m'arrosais de spray Enraciné dans le bitume comme un parcmètre Avec mon gars Maitre Gims et mes partenaires Toujours pas d'appart mec à Lafayette J'crois que faut que j'dise au revoir à la faillite Mais va falloir se fight parce que la hass elle crochète Gros j'sais que y'en a qui donnent leur fesses pour d'gros chèques Au fait guette ma gueule j'suis encore jeune J'remercie Dieu donc tu me verras pas dans le jeûne, check un gum-chewing Mmmh! Y'a ton gars sur qui joue au con Dis-lui qu'il est suivi du regard et que c'est pas celui de la Joconde Pas rassuré comme si y'avait petite sur en boîte Et le danger porte bien son nom parce que bien souvent tu ne le voit a-p Y'a ceux qui veulent l'argent et ceux qui veulent le Paradis Mais ici le paradis réclame de l'argent Chez nous on connait mais t'inquiète on se maintient J'devrais me diriger droit vers la Mecque dès maintenant Remercier le Très Haut d'avoir encore tous mes membres Mais mais respect aux frères qui ont su tourner le dos à ce bas monde Moi moi moi j'suis là, piégé dans mes rêves d'enfants Moi moi moi j'suis là, akhi je sais que je m'enfonce Moi j'suis là, à croire que le monde est à moi et rien qu'à moi Et personne d'autre le contrôle, j'ai besoin d'être éclairé Quand tu perds ton temps dehors, tu fais que ramper dans le cul du diable C'est peut être pour ça que ton pote dit que de la merde quand tu lui parles Le trahir pour 1 million, ça te tente autant que Satan ? On crache sur le bitume bien que le clochard y plante sa tente La vie me parait che-lou comme ce que cache le sourire d'un fou Mais j'la trouverais chant-mé, si j'étais ce gosse amputé d'un genou Ils se plaignent de la pluie mais sans elle personne mangerait Font de ce monde un paradis, moi j'préfère encore quand j'rêve J'parle d'eux comme si j'étais un gars grave irréprochable Mais j'suis accro au son comme un tox' crade qui décroche a-p Ils sont pas de mon gabarit, je les boxe a-p je mets des grosses baffes Ces tocards mettent des costards c'est à cause d'eux que des gosses tafs J'ai vu Paris de loin Paris de loin Elle avait le corps d'un défunt Le corps d'un défunt J'peux te dire que ça sentait la fin Ça sentait la fin Du coup j'ai dû changer de chemin Changer de chemin Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>J'ai pas oublié tout le chemin qu'on a fait J'ai pas oublié tout le mal que tu m'as fait J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'ai ramassé mes affaires Au petit matin, au petit matin, m'attends pas Au petit matin, j'serai plus là, ne m'attends pas J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'serai plus là, ne m'attends pas Dis pas qu'j'suis sans cur, j'te l'ai ouvert, tu l'as cassé Tu m'parles du futur mais j'suis pas d'accord sur le passé Ça sera plus jamais comme avant, on s'est bien trop menacé Tellement de rancur, j'arrive plus à t'enlacer Au petit matin, au petit matin, m'attends pas Au petit matin, j'serai plus là, ne m'attends pas J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'serai plus là, ne m'attends pas You might also like Mon silence n'est pas un oubli, j'ai plus la force de parler J'n'ai pas dormi de la nuit, au petit matin, je m'suis barré J'ai pas oublié tout le chemin qu'on a fait J'ai pas oublié tout le mal que tu m'as fait J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'ai ramassé mes affaires Au petit matin, au petit matin, m'attends pas Au petit matin, j'serai plus là, ne m'attends pas J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'serai plus là, ne m'attends pas Je sais qu'je supporterai pas d'te voir dans les bras d'un autre mais bon tant pis J'préfère rester sur les bons souvenirs et partir avant que les choses empirent On s'était juré d'faire des efforts l'un pour l'autre mais le temps nous a fait mentir On s'était juré de faire toute la route ensemble, on n'a même pas fait la moitié Et tu vas m'manquer, j'dois l'avouer mais vaut mieux qu'chacun prenne sa voie Et je pars le cur balafré mais bien plus léger à la fois Et si j'devais tout recommencer, j'aurai fui dès l'premier soir Et si j'devais tout recommencer, j'aurais fait semblant d'pas te voir Ouais, j'aurais fais semblant d'pas te voir J'ai pas oublié tout le chemin qu'on a fait J'ai pas oublié tout le mal que tu m'as fait J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'ai ramassé mes affaires Au petit matin, au petit matin, m'attends pas Au petit matin, j'serai plus là, ne m'attends pas J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'serai plus là, ne m'attends pas</t>
+          <t>J'ai pas oublié tout le chemin qu'on a fait J'ai pas oublié tout le mal que tu m'as fait J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'ai ramassé mes affaires Au petit matin, au petit matin, m'attends pas Au petit matin, j'serai plus là, ne m'attends pas J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'serai plus là, ne m'attends pas Dis pas qu'j'suis sans cur, j'te l'ai ouvert, tu l'as cassé Tu m'parles du futur mais j'suis pas d'accord sur le passé Ça sera plus jamais comme avant, on s'est bien trop menacé Tellement de rancur, j'arrive plus à t'enlacer Au petit matin, au petit matin, m'attends pas Au petit matin, j'serai plus là, ne m'attends pas J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'serai plus là, ne m'attends pas Mon silence n'est pas un oubli, j'ai plus la force de parler J'n'ai pas dormi de la nuit, au petit matin, je m'suis barré J'ai pas oublié tout le chemin qu'on a fait J'ai pas oublié tout le mal que tu m'as fait J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'ai ramassé mes affaires Au petit matin, au petit matin, m'attends pas Au petit matin, j'serai plus là, ne m'attends pas J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'serai plus là, ne m'attends pas Je sais qu'je supporterai pas d'te voir dans les bras d'un autre mais bon tant pis J'préfère rester sur les bons souvenirs et partir avant que les choses empirent On s'était juré d'faire des efforts l'un pour l'autre mais le temps nous a fait mentir On s'était juré de faire toute la route ensemble, on n'a même pas fait la moitié Et tu vas m'manquer, j'dois l'avouer mais vaut mieux qu'chacun prenne sa voie Et je pars le cur balafré mais bien plus léger à la fois Et si j'devais tout recommencer, j'aurai fui dès l'premier soir Et si j'devais tout recommencer, j'aurais fait semblant d'pas te voir Ouais, j'aurais fais semblant d'pas te voir J'ai pas oublié tout le chemin qu'on a fait J'ai pas oublié tout le mal que tu m'as fait J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'ai ramassé mes affaires Au petit matin, au petit matin, m'attends pas Au petit matin, j'serai plus là, ne m'attends pas J'ai pardonné mais c'est resté dans ma tête Au petit matin, j'serai plus là, ne m'attends pas</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Dans le monde de la nuit Refré c'est la folie Obligé de faire des sous Comme au monopoly Dans le monde de la nuit Refré c'est la folie Obligé de faire des sous Comme au monopoly Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada Je brille de milles feux All eyes on me Les jaloux ont le seum Pour eux c'est la zermi T'es coincée dans la queue T'es sous Lexomil T'as posé pour 1 000E Les mecs en face 2000 Ton ego prend un coup Ta gow s'ennuit Tout à coup tu la soule Elle dit je suis venue sans lui Pour tout mes gars autour Le champs est libre Y a vraiment pas de sentiments Dans le monde de la nuit You might also likeDonc direction ma suite Dans un gros bolide Elle t'a lâché sur le champs Comme un brocoli Je te raconterai pas la suite Je suis trop poli Ce soir tout le monde est sur les Champs Pour un brain de folie Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada Sa thune dans la piscine Fait pas la difficile On oublie nos soucis T'es dépassée comme X6 Mes potos titubent En écoutant mon petit tube Je suis posé dans le carré comme d'habitude Pas besoin de trop parler Quand l'addition est salée Pas de ceux qui vont râler Quand la teille vaut un salaire Ta gow t'a vu chialer Elle vous a vu batailler Cotiser à 16 pour une bouteille de vodka Donc direction ma suite Dans un gros bolide Elle t'a lâché sur le champs Comme un brocoli Je te raconterais pas la suite Je suis trop poli Ce soir tout le monde est sur les Champs Pour un brin de folie Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada Et comme c'est pas la fête y a toujours ceux qui se font recaler Vu que c'est pas la fête on sera assis dans le carré C'est pas la peine Toi tu te fera recaler Ça me fait de la peine Hamida et moi on sera dans le carré VIP En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada</t>
+          <t>Dans le monde de la nuit Refré c'est la folie Obligé de faire des sous Comme au monopoly Dans le monde de la nuit Refré c'est la folie Obligé de faire des sous Comme au monopoly Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada Je brille de milles feux All eyes on me Les jaloux ont le seum Pour eux c'est la zermi T'es coincée dans la queue T'es sous Lexomil T'as posé pour 1 000E Les mecs en face 2000 Ton ego prend un coup Ta gow s'ennuit Tout à coup tu la soule Elle dit je suis venue sans lui Pour tout mes gars autour Le champs est libre Y a vraiment pas de sentiments Dans le monde de la nuit Donc direction ma suite Dans un gros bolide Elle t'a lâché sur le champs Comme un brocoli Je te raconterai pas la suite Je suis trop poli Ce soir tout le monde est sur les Champs Pour un brain de folie Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada Sa thune dans la piscine Fait pas la difficile On oublie nos soucis T'es dépassée comme X6 Mes potos titubent En écoutant mon petit tube Je suis posé dans le carré comme d'habitude Pas besoin de trop parler Quand l'addition est salée Pas de ceux qui vont râler Quand la teille vaut un salaire Ta gow t'a vu chialer Elle vous a vu batailler Cotiser à 16 pour une bouteille de vodka Donc direction ma suite Dans un gros bolide Elle t'a lâché sur le champs Comme un brocoli Je te raconterais pas la suite Je suis trop poli Ce soir tout le monde est sur les Champs Pour un brin de folie Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré Et comme c'est pas la fête y a ceux qui se font recaler Et puis y a ceux qui seront assis dans le carré En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada Et comme c'est pas la fête y a toujours ceux qui se font recaler Vu que c'est pas la fête on sera assis dans le carré C'est pas la peine Toi tu te fera recaler Ça me fait de la peine Hamida et moi on sera dans le carré VIP En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada En mode fiesta et piña colada colada colada</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>J'ai pas eu besoin de langue de serpent pour m'dire c'que j'ai à faire Dans c'monde, pour m'dire c'que j'ai à perdre Bordel, j'avance à reculons, comme plein d'mômes Trahi par la République, contraint à foutre le bordel Plafond de verre, vie au jour le jour, t'as pas l'choix Faut leur céder le plat, et prendre le fond du verre On n'a pas les mêmes chances On dit qu'on apprend les mêmes choses, mais on n'a pas la même France Laissez moi pondre mes vers Laisse moi t'parler d'autres choses que de faits divers Y'a peu d'taf pour nous Fils d'immigrés, malgré nos compétences, cette France crache sur nous Est-ce qu'on étudie à perte ? Ou sommes-nous condamnés à trimer comme nos pères ? Alors qu'ils n's'gênent pas à exploiter nos terres Même quand tu taffes, t'es sous le plafond de verre Encore un rap issu de Banlieue Comme ces diplômes issus de Banlieue Un taux d'chômage trois fois plus haut en Banlieue Que la moyenne, c'est l'suicide en Banlieue Encore un rap issu de Banlieue Comme ces gens issus de Banlieue Le crime bien plus haut en Banlieue Que la moyenne, c'est l'suicide en Banlieue You might also like On nous reproche de n'pas s'intégrer On s'accroche, diplôme en main, aux entretiens, t'es dénigré Marche avec une barbe tu deviens intégriste Ont-ils une fois vraiment voulu nous intégrer ? Et puis, les médias nourrissent les clichés Mohammed ou Issa, on s'est fait déjà ficher Ton nom sonne faux ton avenir est triqué Système de fachos, y'en a que pour les friqués Plafond de verre, ma zone est fliquée A l'horizon, c'est brouillé, tout ça fait flipper Un citoyen humilié, un mauvais patriote La France nous a regroupé dans c'bocal On s'entre-tue, eux, nous matte par la focale Pas par hasard que, chez nous, la haine s'étale Pour s'en sortir un mental en métal T'inquiètes, on fait l'effort, même si c'est brutal x2 Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>J'ai pas eu besoin de langue de serpent pour m'dire c'que j'ai à faire Dans c'monde, pour m'dire c'que j'ai à perdre Bordel, j'avance à reculons, comme plein d'mômes Trahi par la République, contraint à foutre le bordel Plafond de verre, vie au jour le jour, t'as pas l'choix Faut leur céder le plat, et prendre le fond du verre On n'a pas les mêmes chances On dit qu'on apprend les mêmes choses, mais on n'a pas la même France Laissez moi pondre mes vers Laisse moi t'parler d'autres choses que de faits divers Y'a peu d'taf pour nous Fils d'immigrés, malgré nos compétences, cette France crache sur nous Est-ce qu'on étudie à perte ? Ou sommes-nous condamnés à trimer comme nos pères ? Alors qu'ils n's'gênent pas à exploiter nos terres Même quand tu taffes, t'es sous le plafond de verre Encore un rap issu de Banlieue Comme ces diplômes issus de Banlieue Un taux d'chômage trois fois plus haut en Banlieue Que la moyenne, c'est l'suicide en Banlieue Encore un rap issu de Banlieue Comme ces gens issus de Banlieue Le crime bien plus haut en Banlieue Que la moyenne, c'est l'suicide en Banlieue On nous reproche de n'pas s'intégrer On s'accroche, diplôme en main, aux entretiens, t'es dénigré Marche avec une barbe tu deviens intégriste Ont-ils une fois vraiment voulu nous intégrer ? Et puis, les médias nourrissent les clichés Mohammed ou Issa, on s'est fait déjà ficher Ton nom sonne faux ton avenir est triqué Système de fachos, y'en a que pour les friqués Plafond de verre, ma zone est fliquée A l'horizon, c'est brouillé, tout ça fait flipper Un citoyen humilié, un mauvais patriote La France nous a regroupé dans c'bocal On s'entre-tue, eux, nous matte par la focale Pas par hasard que, chez nous, la haine s'étale Pour s'en sortir un mental en métal T'inquiètes, on fait l'effort, même si c'est brutal x2 Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Rentrez chez vous Rentrez chez vous Rentrez chez vous Devinez, devinez, qui est-ce qui vient de débouler Tu me veux ? Oh monsieur l'agent j'suis un bonbon en praliné J'vais te bire comme un toxico qu'a le zen enfariné J'suis difficile à éliminer comme 70 kilos en trop V'là du le-sty bestial depuis Galilée Tout l'monde sait qu't'as pas le BAC, ni toi, ni tes alliés Vous voulez me supprimer comme si j'étais un alien Ok vous êtes déprimés, mais tout ça ne mène à rien Opprimé par les flics, les mecs j'ai mes limites J'vais pas vous sucer la bite non plus, c'est hors-limites Ne m'touchez pas l'épaule les mecs, NTM la polémique J'ai zéro gramme d'alcoolémie, fliquette follow me ! MC, tiens prends le trône, passe moi l'chateau T'es mort dans le trom', moi j'dream dans l'sche-Por Tu me guettes par la vitre, t'es un windows shopper T'es bête, t'as rien vu, et soudain j'm'échappe ! Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police You might also like En garde à vue, les mains liées, tu kiffes m'humilier Tu fais le guerrier, tu t'prends pour Riner Tu m'dis que toutes vos bavures sont des rumeurs On s'connait pas, tu m'regardes et t'as les nerfs J'incite pas tous nos minots à caillasser ces minables Ni à fumer du bédo malgré les contrôles interminables J'vais p't-être finir au tribunal, mais je m'en bat le Ré mineur Plus d'une fois plaqué au sol, avec les menottes dans le dos Ils me disent mais où t'as mis l'acide ? soudain, me met la 6 Pendant 66 minutes, tu m'verras jamais sur la 6 Je me suis déjà fais dérouiller, comme la plupart, on dit rien On laisse tout ça derrière, préfère répondre en R.I.M T'es l'énième keuf, qui m'met les liens Hip-hop, me sors sans barillet Ça m'choque, c'est pas la guérilla C'est pour toutes les bavures et tous les mecs qu'ont dû endurer ! Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police Remix, Fin de dream On est ensemble, tu m'as négligé 75020, H-Magnum Fin de dream avant Gotham City Ça, c'est rien pour l'instant Yeah Yeah T.P.P Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police Paroles rédigées et expliquées par la communauté RapGenius France3</t>
+          <t>Rentrez chez vous Rentrez chez vous Rentrez chez vous Devinez, devinez, qui est-ce qui vient de débouler Tu me veux ? Oh monsieur l'agent j'suis un bonbon en praliné J'vais te bire comme un toxico qu'a le zen enfariné J'suis difficile à éliminer comme 70 kilos en trop V'là du le-sty bestial depuis Galilée Tout l'monde sait qu't'as pas le BAC, ni toi, ni tes alliés Vous voulez me supprimer comme si j'étais un alien Ok vous êtes déprimés, mais tout ça ne mène à rien Opprimé par les flics, les mecs j'ai mes limites J'vais pas vous sucer la bite non plus, c'est hors-limites Ne m'touchez pas l'épaule les mecs, NTM la polémique J'ai zéro gramme d'alcoolémie, fliquette follow me ! MC, tiens prends le trône, passe moi l'chateau T'es mort dans le trom', moi j'dream dans l'sche-Por Tu me guettes par la vitre, t'es un windows shopper T'es bête, t'as rien vu, et soudain j'm'échappe ! Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police En garde à vue, les mains liées, tu kiffes m'humilier Tu fais le guerrier, tu t'prends pour Riner Tu m'dis que toutes vos bavures sont des rumeurs On s'connait pas, tu m'regardes et t'as les nerfs J'incite pas tous nos minots à caillasser ces minables Ni à fumer du bédo malgré les contrôles interminables J'vais p't-être finir au tribunal, mais je m'en bat le Ré mineur Plus d'une fois plaqué au sol, avec les menottes dans le dos Ils me disent mais où t'as mis l'acide ? soudain, me met la 6 Pendant 66 minutes, tu m'verras jamais sur la 6 Je me suis déjà fais dérouiller, comme la plupart, on dit rien On laisse tout ça derrière, préfère répondre en R.I.M T'es l'énième keuf, qui m'met les liens Hip-hop, me sors sans barillet Ça m'choque, c'est pas la guérilla C'est pour toutes les bavures et tous les mecs qu'ont dû endurer ! Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police Remix, Fin de dream On est ensemble, tu m'as négligé 75020, H-Magnum Fin de dream avant Gotham City Ça, c'est rien pour l'instant Yeah Yeah T.P.P Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police Assassin de la Police Assassin au cannabis Assassin de la Police Nique la Police Paroles rédigées et expliquées par la communauté RapGenius France3</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Salut mon vieux tu m'reconnais ? Jpaye mes coups rebeu À contre-courant deux Tour de mollet quarante-deux Renoi jcoupe ton corps en deux Pourquoi tu men veux ? Jaloux de mon buzz Jtaurai niqué ta Si elle sappelait Karembeu Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub On investit la fête avec des billets violets Limbécile a faim, pourtant il passe sa vie au lit Linstru jlai violée Moi jsuis un rappeur bionique Jles nique toutes comme Biolay Jsuis dans lshop, jsuis dans lblock Jsuis dans mes pompes, jsuis dans lPorsche Jsuis dans lparking, jsuis dans le Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub DJ Skorp est dans lclub You might also like Jsuis dans lcarré VIP, Louboutin sur lcanapé Tout est clean, jsuis refait H Magnum, Beriz, ouais teubé XXX, ouais teubé Privilégié DJ Skorp, privilège Skorp Privilégié H Magnum, privilège Beriz Privilégié, privilège Privilégié, privilège On mdit H, range ton magnum et puis surine les ! Jsuis dans lclub, elle me téma comme un surhumain Ça désamorce les bombes jsuis entouré ddémineurs Tu veux tfaire lever, mais tes mineur Jsuis dans la H-Mobile ils mont pas vu venir Si jlui sors ma liasse jpense quelle va sévanouir Jaugmente le level, jsuis dans mon délire Gotham City arrive je sens dladrénaline Tu mreconnais, tu mreconnais En live et direct, est-cque tu mreconnais ? Tu mreconnais H Magnum, Beriz, DJ Skorp</t>
+          <t>Salut mon vieux tu m'reconnais ? Jpaye mes coups rebeu À contre-courant deux Tour de mollet quarante-deux Renoi jcoupe ton corps en deux Pourquoi tu men veux ? Jaloux de mon buzz Jtaurai niqué ta Si elle sappelait Karembeu Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub On investit la fête avec des billets violets Limbécile a faim, pourtant il passe sa vie au lit Linstru jlai violée Moi jsuis un rappeur bionique Jles nique toutes comme Biolay Jsuis dans lshop, jsuis dans lblock Jsuis dans mes pompes, jsuis dans lPorsche Jsuis dans lparking, jsuis dans le Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub Igo tes battu, jsuis dans lclub Jsuis dans lclub, jsuis dans lclub DJ Skorp est dans lclub Jsuis dans lcarré VIP, Louboutin sur lcanapé Tout est clean, jsuis refait H Magnum, Beriz, ouais teubé XXX, ouais teubé Privilégié DJ Skorp, privilège Skorp Privilégié H Magnum, privilège Beriz Privilégié, privilège Privilégié, privilège On mdit H, range ton magnum et puis surine les ! Jsuis dans lclub, elle me téma comme un surhumain Ça désamorce les bombes jsuis entouré ddémineurs Tu veux tfaire lever, mais tes mineur Jsuis dans la H-Mobile ils mont pas vu venir Si jlui sors ma liasse jpense quelle va sévanouir Jaugmente le level, jsuis dans mon délire Gotham City arrive je sens dladrénaline Tu mreconnais, tu mreconnais En live et direct, est-cque tu mreconnais ? Tu mreconnais H Magnum, Beriz, DJ Skorp</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Si tu veux voir ma peine ouais, augmente juste les décibels juste le son J'paye le prix de ma vie tas aussi vu ton sang sur mes nike air j'suis désolé Je veux partir lâme en paix hun hun, jai vu ta foie et les décibels ouais Je fais le tri mais le mal comme une putain dex qui me harcèle Le néant quand je me projette, envie de me poser, je lai été mais je prenais pas soin delle Résultat deux enragés, plus les mêmes projets, au bord du crime passionnel Si tu veux voir mon père, suis moi très loin dici frère Dans ce putain de bidonville surnommé Gotham City Je tépargne les commentaires, certaines sont charmés par lucifère Jentends des cris dans la nuit, cest encore un de nos refré quon enterre Profond tellement jai creusé, ne jamais oser, mentalité générationnelle Refrè la rue ma rodé jaurais pu crever, moralité cest chacun son heure Grandis parmi les pin-pon Je suis parano dès que quelquun sonne Je peux tout plier sur un son Car jécris mes textes au pinceau, yeah yeah yeah Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Regarder comme on saime, tellement de la rue quon fait pas pitié Je côtoie le crime je nen suis pas fier, pourquoi tu t'sens menacé ? j'ai rien fais On récolte ce que lon sème, dans les pôles dieu tas acquitté Tu prends des thunes mais toublie quun jour ou lautre tu te fais remonter Aussi noir que mes thèmes, je viens de là où tout est possible Ici nos vies un polar, là où les plus faibles se suicident c'est vrai You might also like Grandis parmi les pin-pon Je suis parano dès que quelquun sonne Je peux tout plier sur un son Car jécris mes textes au pinceau, yeah yeah yeah Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Prohibé Prohibé Grandis parmi les pin-pon Je suis parano dès que quelquun sonne Je peux tout plier sur un son Car jécris mes textes au pinceau, yeah yeah yeah Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Prohibé Gotham City Prohibé</t>
+          <t>Si tu veux voir ma peine ouais, augmente juste les décibels juste le son J'paye le prix de ma vie tas aussi vu ton sang sur mes nike air j'suis désolé Je veux partir lâme en paix hun hun, jai vu ta foie et les décibels ouais Je fais le tri mais le mal comme une putain dex qui me harcèle Le néant quand je me projette, envie de me poser, je lai été mais je prenais pas soin delle Résultat deux enragés, plus les mêmes projets, au bord du crime passionnel Si tu veux voir mon père, suis moi très loin dici frère Dans ce putain de bidonville surnommé Gotham City Je tépargne les commentaires, certaines sont charmés par lucifère Jentends des cris dans la nuit, cest encore un de nos refré quon enterre Profond tellement jai creusé, ne jamais oser, mentalité générationnelle Refrè la rue ma rodé jaurais pu crever, moralité cest chacun son heure Grandis parmi les pin-pon Je suis parano dès que quelquun sonne Je peux tout plier sur un son Car jécris mes textes au pinceau, yeah yeah yeah Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Regarder comme on saime, tellement de la rue quon fait pas pitié Je côtoie le crime je nen suis pas fier, pourquoi tu t'sens menacé ? j'ai rien fais On récolte ce que lon sème, dans les pôles dieu tas acquitté Tu prends des thunes mais toublie quun jour ou lautre tu te fais remonter Aussi noir que mes thèmes, je viens de là où tout est possible Ici nos vies un polar, là où les plus faibles se suicident c'est vrai Grandis parmi les pin-pon Je suis parano dès que quelquun sonne Je peux tout plier sur un son Car jécris mes textes au pinceau, yeah yeah yeah Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Prohibé Prohibé Grandis parmi les pin-pon Je suis parano dès que quelquun sonne Je peux tout plier sur un son Car jécris mes textes au pinceau, yeah yeah yeah Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Comprends-tu pourquoi nos sons à nous sont prohibés ? Prohibé Gotham City Prohibé</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Si tu mmanques de respect Je vais te faire tapiner Tinquiètes on est refait je vais me taper ta kiné Petite paire de rétro sur mon Sergio Tacchini Quand tu fais le ssiste-gro Comme ça pause faut assumer Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Oh mon babe mon babe mon babe baby Ce soir tout est carré On contrôle le VIP Oh mon babe mon babe mon babe baby Ce soir tout est carré On contrôle le VIP You might also likeOn aime bien ta charma Pas besoin de taffiner Mon gars fait pas zarma On sait tous que ta filé Rien quelle jette le pana Ça svoit quelle est branchée Ciné chicha resto ce soir jvais tassassiner Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Oh mon babe mon babe mon babe baby Ce soir tout est carré On contrôle le VIP Oh mon babe mon babe mon babe baby Ce soir tout est carré On contrôle le VIP Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Bam bam vive la vie Ce soir cest vive la vie x4 Poussé, poussé, poussé poussé La mama Poussé, poussé, poussé poussé La mama Poussé, poussé, poussé poussé La mama Poussé, poussé, poussé poussé</t>
+          <t>Si tu mmanques de respect Je vais te faire tapiner Tinquiètes on est refait je vais me taper ta kiné Petite paire de rétro sur mon Sergio Tacchini Quand tu fais le ssiste-gro Comme ça pause faut assumer Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Oh mon babe mon babe mon babe baby Ce soir tout est carré On contrôle le VIP Oh mon babe mon babe mon babe baby Ce soir tout est carré On contrôle le VIP On aime bien ta charma Pas besoin de taffiner Mon gars fait pas zarma On sait tous que ta filé Rien quelle jette le pana Ça svoit quelle est branchée Ciné chicha resto ce soir jvais tassassiner Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Cest une punition Allez vas-y démissionne Ou bien trouve une solution Allez vas-y démissionne Oh mon babe mon babe mon babe baby Ce soir tout est carré On contrôle le VIP Oh mon babe mon babe mon babe baby Ce soir tout est carré On contrôle le VIP Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Le dream nest pas mort Bam bam vive la vie Ce soir cest vive la vie x4 Poussé, poussé, poussé poussé La mama Poussé, poussé, poussé poussé La mama Poussé, poussé, poussé poussé La mama Poussé, poussé, poussé poussé</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Jsuis trop frais, jai pas le temps Je vis que la night DJ Kayz na pas le temps Il vit que la night Parle-moi dbiff jai pas le temps On vit que la night Jviens de loin et jai pas le temps Je vis que la night Restau, fringues chics, jolies gows Prestige, night clubs, french kiss, carré V.I.P Lalbum bientôt, Parigo, cainfri Gotham City arrive baby Jsuis tellement dans lfutur Que quand jte parle tu comprends dix jours après Je change de flow comme de chaussettes Préviens-les jsuis une pile Duracell Excitant, jsuis tentant, thésites Si tu me trompes tu vas casquer comme le président Jai la joie de vivre, gamossé dans ma résidence Même avec une tronche éclatée jsuis un dream vivant Cest le son de la mala, ce be-tu te rend malade Cest le son de la mala, ce be-tu te rend malade Cest le son de la mala, ce be-tu te rend malade Cest le son de la mala, ce be-tu te rend malade Ici si tu nas pas de belles sapes Igo tu nes pas dans le mouv Ta meuf ta quitté pour une belle table On sen bat les couilles elle est rousse Zanottisé, Balmisé, trop dstyle De Marrakech jmesquive en Côte dIvoire Jeune, classe, élégant, dream ends Jeune, classe, élégant, dream ends - Vas-y arrête de faire ta meuf wesh, donne ton numéro - Mais tu parles à qui là ? - Vas-y, cest quoi ton numéro ? - Vas-y jai pas ton temps Regarde-moi steuplait, regarde-toi, jai pas ton temps, jai pas ton temps. Tu vois pas comment jsuis fraîche là ? Que la night You might also like</t>
+          <t>Jsuis trop frais, jai pas le temps Je vis que la night DJ Kayz na pas le temps Il vit que la night Parle-moi dbiff jai pas le temps On vit que la night Jviens de loin et jai pas le temps Je vis que la night Restau, fringues chics, jolies gows Prestige, night clubs, french kiss, carré V.I.P Lalbum bientôt, Parigo, cainfri Gotham City arrive baby Jsuis tellement dans lfutur Que quand jte parle tu comprends dix jours après Je change de flow comme de chaussettes Préviens-les jsuis une pile Duracell Excitant, jsuis tentant, thésites Si tu me trompes tu vas casquer comme le président Jai la joie de vivre, gamossé dans ma résidence Même avec une tronche éclatée jsuis un dream vivant Cest le son de la mala, ce be-tu te rend malade Cest le son de la mala, ce be-tu te rend malade Cest le son de la mala, ce be-tu te rend malade Cest le son de la mala, ce be-tu te rend malade Ici si tu nas pas de belles sapes Igo tu nes pas dans le mouv Ta meuf ta quitté pour une belle table On sen bat les couilles elle est rousse Zanottisé, Balmisé, trop dstyle De Marrakech jmesquive en Côte dIvoire Jeune, classe, élégant, dream ends Jeune, classe, élégant, dream ends - Vas-y arrête de faire ta meuf wesh, donne ton numéro - Mais tu parles à qui là ? - Vas-y, cest quoi ton numéro ? - Vas-y jai pas ton temps Regarde-moi steuplait, regarde-toi, jai pas ton temps, jai pas ton temps. Tu vois pas comment jsuis fraîche là ? Que la night</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Tu nous connais pas t'es un imbécile J'suis dans le carré VIP avec des bêtes de filles J'ai des problèmes de riches tu me parles de feat Son boule ou son boule je suis indécis Qui croyait qu'on dormait chez nous y'a pas de Boli On fait les 100 clubs pour des gros bolides Combinaison Moncler le son c'est la folie Tu veux faire de la mala All Eyes On Me Y'a pas que dans le shit qu'on a investi Tu peux dire aux jaloux qu'on est invincible Nous on sert des pains lourds qu des pains d'épices DJ Best aux platins c'est que t'es mort dans le film Nos mains sont faites pour l'or Montana Tony Pour le fric et ton anatomie Attiré par ma table ta nana tho-my Me verrais-tu pareil si j'avais pas de cro-mi Ma guapa ma famille mais quelle vie Location de bouteilles mais quelle vie Mes problèmes mes soucis mais quelle vie En showcase 10 minutes mais quelle vie Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment You might also likeElle voulait des loulous tu n'avais pas vu le jet Assis dans le merco t'es qu'un passager Arrête de frimer en fausse Versace Si tu n'as pas pied n'essaie pas de nager On rentre dans le club vous êtes assiéger Je sais que tu me kiffes mais t'es assez jeune En viano y'a le carré y'a les H les deux C'est pour nous la note si ça peut t'apaiser La soirée bat son plein elles sont H-ilisées Qui veut suivre le rythme, finir traumatisé Qui ne boit pas, finira par tiser Musique de Star Wars 7 bouteilles par ici Si t'es pas en place vas-y quitte la ville Ou bien prend mon snap quand on kiffe ma vie A dire que pour un son y'a des culs de magies J'suis 225 comme Vegedream Ma guapa ma famille mais quelle vie Location de bouteilles mais quelle vie Mes problèmes mes soucis mais quelle vie En showcase 10 minutes mais quelle vie Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment Ma guapa ma famille mais quelle vie Location de bouteilles mais quelle vie Mes problèmes mes soucis mais quelle vie En showcase 10 minutes mais quelle vie Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment</t>
+          <t>Tu nous connais pas t'es un imbécile J'suis dans le carré VIP avec des bêtes de filles J'ai des problèmes de riches tu me parles de feat Son boule ou son boule je suis indécis Qui croyait qu'on dormait chez nous y'a pas de Boli On fait les 100 clubs pour des gros bolides Combinaison Moncler le son c'est la folie Tu veux faire de la mala All Eyes On Me Y'a pas que dans le shit qu'on a investi Tu peux dire aux jaloux qu'on est invincible Nous on sert des pains lourds qu des pains d'épices DJ Best aux platins c'est que t'es mort dans le film Nos mains sont faites pour l'or Montana Tony Pour le fric et ton anatomie Attiré par ma table ta nana tho-my Me verrais-tu pareil si j'avais pas de cro-mi Ma guapa ma famille mais quelle vie Location de bouteilles mais quelle vie Mes problèmes mes soucis mais quelle vie En showcase 10 minutes mais quelle vie Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment Elle voulait des loulous tu n'avais pas vu le jet Assis dans le merco t'es qu'un passager Arrête de frimer en fausse Versace Si tu n'as pas pied n'essaie pas de nager On rentre dans le club vous êtes assiéger Je sais que tu me kiffes mais t'es assez jeune En viano y'a le carré y'a les H les deux C'est pour nous la note si ça peut t'apaiser La soirée bat son plein elles sont H-ilisées Qui veut suivre le rythme, finir traumatisé Qui ne boit pas, finira par tiser Musique de Star Wars 7 bouteilles par ici Si t'es pas en place vas-y quitte la ville Ou bien prend mon snap quand on kiffe ma vie A dire que pour un son y'a des culs de magies J'suis 225 comme Vegedream Ma guapa ma famille mais quelle vie Location de bouteilles mais quelle vie Mes problèmes mes soucis mais quelle vie En showcase 10 minutes mais quelle vie Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment Ma guapa ma famille mais quelle vie Location de bouteilles mais quelle vie Mes problèmes mes soucis mais quelle vie En showcase 10 minutes mais quelle vie Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment Mais quelle vie mais quelle vie mais quelle vie Mais quelle vie mais quel bail c'est comment</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>J'mettant comme la gale et j'fais mal XX Lance moi comme une pierre de Gaza face aux blindés Ma fierté qu'un jour ma XX XX Eva Mendes J'ai cramé la philosophie qu'on nous injecte La vie n'est qu'un XX que défie XX Fais pas le mec qui tangue XX J'prends le micro 10 secondes, j'te choc la France pendant 10 ans Fuck De Gaulle, et que les States le ressuscite s'ils sont XX élégant Si tu veux me toucher dans mon amour propre Pour la fierté de nos proches qui provoquent l'embrouille entre potes Dans l'7.8 ton sport de combat te servira pas XX J'ai vu des ceintures noir s'faire niquer par des ceintures G-Star XX Comme les sunnites, pour fumer du schit, jamais trop tard Nos fierté craint que la paix XX XX mais c'est c'que dise les putes et les travelos Oh pire on vendra lorsque ton marché XX, on a pas finit d'kebla Développer nos pecs, nos bras C'est la raison pour laquelle on s'tape Pour un regard qui se croisent Et croit pas que parce qu'on a les mêmes origines on est frère Elle se fou pas mal d'aller au paradis ou en enfer Du moment qu'elle y va en Porch Carrera You might also like Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur Le H vient d'sortir d'ses gonds Et j'vois que la conqu s'dégonfle Commencer le décompte La bête a quitté les décombres Sont halal comme le bacon J'fais des pompes en touchant les tétons Oui j't'étonne, le son je le découpe Dans les 2 sens j'te laisse la dépouille Question d'honneur, jhonore les mecs du sud au nord T'inquiète la hess m'a nourrit Je n'aurais que ce que j'mérite Mes frères n'ont plu le moral, veulent mourir comme Jack Mesrine Les jaloux jactent mais dans leurs têtes je sais qu'ils XX mes rimes J'avance dans un désir de 10 ans, pour les reufs en prison XX le business est devenu bizarre Ça s'vante d'avoir des joujous Ça s'prend pour Steven XX Ton pote qui t'fais des bisous Que d'sortir un désert Eagle J'marche pas avec des poulets, ni XX Mais des mecs solides, toujours là quand ça doit s'bouger Qu'on pas peur d'voir le sang couler Regarde moi dans les yeux quand tu m'sert la main enculé On n'fait pas d'omelette s'en sortir les ufs du cul d'un poulet Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur On rêve de mourir martyr Calibré dans une Aston Martin Mélange pas le rap et le deal Tu salis notre honneur Nos ego préfèrent se fournir à Nanterre qu'au Resto du Cur Confond pas fierté, orgueil Ou t'étonnes pas de te faire niquer ta gueule On met tout le peu qu'on a sur l'apparence pour cacher le reste Tu peux pas test Ils tiennent que les murs, je tiens les promesses Question d'honneur C'est calibré que nos fiertés discutent pour une question d'honneur Une question d'honneur Juste une question d'honneur Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur XX à la prod Sabry Mjnoon H Magnum</t>
+          <t>J'mettant comme la gale et j'fais mal XX Lance moi comme une pierre de Gaza face aux blindés Ma fierté qu'un jour ma XX XX Eva Mendes J'ai cramé la philosophie qu'on nous injecte La vie n'est qu'un XX que défie XX Fais pas le mec qui tangue XX J'prends le micro 10 secondes, j'te choc la France pendant 10 ans Fuck De Gaulle, et que les States le ressuscite s'ils sont XX élégant Si tu veux me toucher dans mon amour propre Pour la fierté de nos proches qui provoquent l'embrouille entre potes Dans l'7.8 ton sport de combat te servira pas XX J'ai vu des ceintures noir s'faire niquer par des ceintures G-Star XX Comme les sunnites, pour fumer du schit, jamais trop tard Nos fierté craint que la paix XX XX mais c'est c'que dise les putes et les travelos Oh pire on vendra lorsque ton marché XX, on a pas finit d'kebla Développer nos pecs, nos bras C'est la raison pour laquelle on s'tape Pour un regard qui se croisent Et croit pas que parce qu'on a les mêmes origines on est frère Elle se fou pas mal d'aller au paradis ou en enfer Du moment qu'elle y va en Porch Carrera Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur Le H vient d'sortir d'ses gonds Et j'vois que la conqu s'dégonfle Commencer le décompte La bête a quitté les décombres Sont halal comme le bacon J'fais des pompes en touchant les tétons Oui j't'étonne, le son je le découpe Dans les 2 sens j'te laisse la dépouille Question d'honneur, jhonore les mecs du sud au nord T'inquiète la hess m'a nourrit Je n'aurais que ce que j'mérite Mes frères n'ont plu le moral, veulent mourir comme Jack Mesrine Les jaloux jactent mais dans leurs têtes je sais qu'ils XX mes rimes J'avance dans un désir de 10 ans, pour les reufs en prison XX le business est devenu bizarre Ça s'vante d'avoir des joujous Ça s'prend pour Steven XX Ton pote qui t'fais des bisous Que d'sortir un désert Eagle J'marche pas avec des poulets, ni XX Mais des mecs solides, toujours là quand ça doit s'bouger Qu'on pas peur d'voir le sang couler Regarde moi dans les yeux quand tu m'sert la main enculé On n'fait pas d'omelette s'en sortir les ufs du cul d'un poulet Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur On rêve de mourir martyr Calibré dans une Aston Martin Mélange pas le rap et le deal Tu salis notre honneur Nos ego préfèrent se fournir à Nanterre qu'au Resto du Cur Confond pas fierté, orgueil Ou t'étonnes pas de te faire niquer ta gueule On met tout le peu qu'on a sur l'apparence pour cacher le reste Tu peux pas test Ils tiennent que les murs, je tiens les promesses Question d'honneur C'est calibré que nos fiertés discutent pour une question d'honneur Une question d'honneur Juste une question d'honneur Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur XX à la prod Sabry Mjnoon H Magnum</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera Trop d'prestance, j'suis élégant J'te sors un Colt45 si tu mets les gants Chouf la distance, ils seront relégables Côte d'Ivoire, Mali, Maghreb, Sénégal Moi j'ai la rage et le swag d'un fellaga J'fais plus d'illégal, blanc comme une djellaba On n'chasse pas un lion avec un lance-pierres les gars Faites pas la gueule, H futur monégasque Le crom' est fumant plus que jamais, j'suis d'cette jeunesse, hyper gênante, la concu' se prend des genoux, sourit jaune car c'est la dèche Y a du génie, t'imagines pas tout c'qu'on génère, mais nos ennemis font du déni dis-leur qu'ils sont plus à la de-mo, moi j'dis Yes ! On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera You might also like Ils se demandent pourquoi j'suis si frais C'est affreux, j'les effraie Après mon crochet, j'leur place une pichenette Yes ! Les faux-frères s'tapent pour être tout près d'moi au carré VIP Prêts à tout pour vivre dans l'abstrait Gros son pour les reuss et les bad man H Magnum, le mec qu'a giflé Batman Pas d'mal, j'suis en place jusqu'en Allemagne Fais pas l'mort, j'tiens l'mic, c'est mister swag man Une pour mes amis, mes ennemis, les putes, les zoulous, mes homonymes et mes humains, toutes les nuits blanches sous vos immeubles Yes ! Amène pas ta feumeu chez nous, elle peut finir sous moi, danse sous alu, dans un Samu malgré ton allure de sumo Yes ! J'suis doué, j'leur fais mal, ils font tous semblant Tu m'as vu j'suis en noir ils sont tous en blanc Souriez, v'là le mec qui les fait trembler Maria Guantanamera Envieux j'ai le son pour mon assemblée Ces minables sont dans le trou, essaient d'me ressembler Si je cane ils diront Yes ! Pète le champ' hombre Maria Guantanamera On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera</t>
+          <t>On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera Trop d'prestance, j'suis élégant J'te sors un Colt45 si tu mets les gants Chouf la distance, ils seront relégables Côte d'Ivoire, Mali, Maghreb, Sénégal Moi j'ai la rage et le swag d'un fellaga J'fais plus d'illégal, blanc comme une djellaba On n'chasse pas un lion avec un lance-pierres les gars Faites pas la gueule, H futur monégasque Le crom' est fumant plus que jamais, j'suis d'cette jeunesse, hyper gênante, la concu' se prend des genoux, sourit jaune car c'est la dèche Y a du génie, t'imagines pas tout c'qu'on génère, mais nos ennemis font du déni dis-leur qu'ils sont plus à la de-mo, moi j'dis Yes ! On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera Ils se demandent pourquoi j'suis si frais C'est affreux, j'les effraie Après mon crochet, j'leur place une pichenette Yes ! Les faux-frères s'tapent pour être tout près d'moi au carré VIP Prêts à tout pour vivre dans l'abstrait Gros son pour les reuss et les bad man H Magnum, le mec qu'a giflé Batman Pas d'mal, j'suis en place jusqu'en Allemagne Fais pas l'mort, j'tiens l'mic, c'est mister swag man Une pour mes amis, mes ennemis, les putes, les zoulous, mes homonymes et mes humains, toutes les nuits blanches sous vos immeubles Yes ! Amène pas ta feumeu chez nous, elle peut finir sous moi, danse sous alu, dans un Samu malgré ton allure de sumo Yes ! J'suis doué, j'leur fais mal, ils font tous semblant Tu m'as vu j'suis en noir ils sont tous en blanc Souriez, v'là le mec qui les fait trembler Maria Guantanamera Envieux j'ai le son pour mon assemblée Ces minables sont dans le trou, essaient d'me ressembler Si je cane ils diront Yes ! Pète le champ' hombre Maria Guantanamera On vous avait dit qui vivra verra J'compose des refrains lourds sans faire de chorale Le secret j'l'ai caché à Tora Bora Confondez pas le requin et la daurade Wesh les jaloux niquez vos races J'décolle du Cap Canaveral Rejoins le WA sur Pandora Maria Guantanamera</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Bas les pattes poto, suis ma voix y'a pas photo On suit la merde très tôt, d'abord les choira de ste-po' Dans le pe-ra', y'a trop de catins, je viens racketter ces tapins J'suis plutôt de la rée-soi' akhi, surtout pas du matin Si tu m'attends au tournant, j'vais t'haga, y'a rien d'étonnant Tu traînes encore dans les tournantes, putain le Sheitan te tourmente Innocent comme Machin, gros me pousse pas à t'hasheum Trop fashion, t'es faché, c'est que le style est trop haal On s'ennuie même sans tacher, traumatiser ton art C'est marrant, les tarés enfantent la cote du Coupé-Décalé Jamarre, ouvre les paris, te brise les côtes, le coup vient de parler C'est sale j'sais que t'aimes ça, tu sens la tate-pa' x2 H Magnum, criminel au bon son Ferme ta gueule, j'fais ça à ma façon Quand on te croise, tu fonds comme un glaçon Me font golar', tous ces zoulous parlent de kalach Une pour mon 'soce Kalash, petit ressent le flow salasse Les rappeurs rêvent de palaces, non de hassanets, khalass T'as ni le fond, ni la forme, ni l'emballage Pas bien ces fils de putains par les ti-pe vont se faire sauter Ils gisent des points de coté, blesse un courtil, sale épopée Ils cherchent la crédibilité, tombent dans la débilité N'assument plus leurs paroles quand ils viennent au quartier Rien à prouver, demande à Saddam, j'rigole, j'marche en sandales Nul en s'hbat, puis on se balade à Paname , rien que des gangsters dans le pe-ra' A ce qu'il parait mais la plupart sont pourris, se nourrissent de la sueur du daron Font les barons dans le game, les égarés You might also like x2 H Magnum, criminel au bon son Ferme ta gueule, j'fais ça à ma façon Quand on te croise, tu fonds comme un glaçon Me font golar', tous ces zoulous parlent de kalach Golar', tous ces connards me font golar', tous ces zoulous parlent de kalash C'est du rap, pas du zouk, ni de la 'sique pour loulous Tu béguais quand tu parles du H-Manchette Bloque sur ma facette, je changerai pas mon faciès Joue pas ma cassette mais mon CD Excédé par ce rap zélé, plein de zigzags J'suis un autodidacte, dans le rouge comme Zidane Zinedine, millésime, bizarre et inédit x2 H Magnum, criminel au bon son Ferme ta gueule, j'fais ça à ma façon Quand on te croise, tu fonds comme un glaçon Me font golar', tous ces zoulous parlent de kalach Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Bas les pattes poto, suis ma voix y'a pas photo On suit la merde très tôt, d'abord les choira de ste-po' Dans le pe-ra', y'a trop de catins, je viens racketter ces tapins J'suis plutôt de la rée-soi' akhi, surtout pas du matin Si tu m'attends au tournant, j'vais t'haga, y'a rien d'étonnant Tu traînes encore dans les tournantes, putain le Sheitan te tourmente Innocent comme Machin, gros me pousse pas à t'hasheum Trop fashion, t'es faché, c'est que le style est trop haal On s'ennuie même sans tacher, traumatiser ton art C'est marrant, les tarés enfantent la cote du Coupé-Décalé Jamarre, ouvre les paris, te brise les côtes, le coup vient de parler C'est sale j'sais que t'aimes ça, tu sens la tate-pa' x2 H Magnum, criminel au bon son Ferme ta gueule, j'fais ça à ma façon Quand on te croise, tu fonds comme un glaçon Me font golar', tous ces zoulous parlent de kalach Une pour mon 'soce Kalash, petit ressent le flow salasse Les rappeurs rêvent de palaces, non de hassanets, khalass T'as ni le fond, ni la forme, ni l'emballage Pas bien ces fils de putains par les ti-pe vont se faire sauter Ils gisent des points de coté, blesse un courtil, sale épopée Ils cherchent la crédibilité, tombent dans la débilité N'assument plus leurs paroles quand ils viennent au quartier Rien à prouver, demande à Saddam, j'rigole, j'marche en sandales Nul en s'hbat, puis on se balade à Paname , rien que des gangsters dans le pe-ra' A ce qu'il parait mais la plupart sont pourris, se nourrissent de la sueur du daron Font les barons dans le game, les égarés x2 H Magnum, criminel au bon son Ferme ta gueule, j'fais ça à ma façon Quand on te croise, tu fonds comme un glaçon Me font golar', tous ces zoulous parlent de kalach Golar', tous ces connards me font golar', tous ces zoulous parlent de kalash C'est du rap, pas du zouk, ni de la 'sique pour loulous Tu béguais quand tu parles du H-Manchette Bloque sur ma facette, je changerai pas mon faciès Joue pas ma cassette mais mon CD Excédé par ce rap zélé, plein de zigzags J'suis un autodidacte, dans le rouge comme Zidane Zinedine, millésime, bizarre et inédit x2 H Magnum, criminel au bon son Ferme ta gueule, j'fais ça à ma façon Quand on te croise, tu fonds comme un glaçon Me font golar', tous ces zoulous parlent de kalach Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>On fait du raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens C'est raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens Instinct criminel mode de vie stressant Caractère endurcit, charisme et prestance Tu nous as oubliés ? Vexant Tellement verrouillés qu'on a développé sept sens Tu peux pas savourer sans avoir enduré Tu seras déçu, comme face à un soutien-gorge rembourré Les grands Hommes trônent, même sur des tabourets Le savoir est une arme donc j'arrive cagoulé J'rappe pour les petites gens, timides et ti-gen Pour les S.D.F. qui dorment entre le trottoir et tes jambes V'là tout ce qui fait, monsieur, que ma musique est rageante Ça vient du cur, c'est pour ça... On fait du raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens C'est raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens You might also like On court après le futur, le présent devient futile Pour regretter nos meilleurs moments coincés dans le passé Mes souvenirs sont tassés, la clope me fait tousser Et j'repense à tous mes amis partis là-bas, tout seuls J'rappe avec des gants, des textes sombres comme le Gange En tête-à-tête avec mes questions, dans une grange Plus les années passent, plus la douleur est grande Tellement de rapaces avec des têtes d'ange C'est tous ceux, sur le côté, qu'essaient de rattraper le peloton Qu'avance avec des pythons, ces p'tits cons qu'essaient de souper Si la richesse rend stupide, la galère, elle, rend toqué Beaucoup sont devenus cupides, nous... On fait du raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens C'est raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens On fait du raffiné pour nos frères incarcérés Maman dira que c'est rien malgré son cur lacéré Dans un H.L.M. tout miteux mais ça c'est rien Ça ira mieux demain vu que, pour l'instant, il se passe rien Chacun tient son rôle pendant que les flics rôdent Y'a plus de cent-mille maux, les potes manient les mots L'État manie les nôtres pendant que la Rue manient les tasses Moi je manie le mic'... On fait du raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens C'est raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens Fin de Dream avant Gotham City LoudSchool Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>On fait du raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens C'est raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens Instinct criminel mode de vie stressant Caractère endurcit, charisme et prestance Tu nous as oubliés ? Vexant Tellement verrouillés qu'on a développé sept sens Tu peux pas savourer sans avoir enduré Tu seras déçu, comme face à un soutien-gorge rembourré Les grands Hommes trônent, même sur des tabourets Le savoir est une arme donc j'arrive cagoulé J'rappe pour les petites gens, timides et ti-gen Pour les S.D.F. qui dorment entre le trottoir et tes jambes V'là tout ce qui fait, monsieur, que ma musique est rageante Ça vient du cur, c'est pour ça... On fait du raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens C'est raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens On court après le futur, le présent devient futile Pour regretter nos meilleurs moments coincés dans le passé Mes souvenirs sont tassés, la clope me fait tousser Et j'repense à tous mes amis partis là-bas, tout seuls J'rappe avec des gants, des textes sombres comme le Gange En tête-à-tête avec mes questions, dans une grange Plus les années passent, plus la douleur est grande Tellement de rapaces avec des têtes d'ange C'est tous ceux, sur le côté, qu'essaient de rattraper le peloton Qu'avance avec des pythons, ces p'tits cons qu'essaient de souper Si la richesse rend stupide, la galère, elle, rend toqué Beaucoup sont devenus cupides, nous... On fait du raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens C'est raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens On fait du raffiné pour nos frères incarcérés Maman dira que c'est rien malgré son cur lacéré Dans un H.L.M. tout miteux mais ça c'est rien Ça ira mieux demain vu que, pour l'instant, il se passe rien Chacun tient son rôle pendant que les flics rôdent Y'a plus de cent-mille maux, les potes manient les mots L'État manie les nôtres pendant que la Rue manient les tasses Moi je manie le mic'... On fait du raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens C'est raffiné, t'es fasciné Ressens-tu le talent quand on rappe pour nos gars ? Faudra assumer, assumer Face à tout ce talent quand on chante pour nos gens Fin de Dream avant Gotham City LoudSchool Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Jévolue dans des coins sombres pleins de zombies Où dire quon a mal est synonyme de honte Sais-tu que la violence nous inonde ? Les flics, les ambulances sont si nombreux Mais cest ici que je vis, oui dans lciment Les petits daujourdhui nont plus dsentiments Sentretuent à vue sur nos bâtiments Jrevois encore Bilna qui sdémène On lemmène en moto, il tombera à Saint-Simon Se vide de son sang, pas dchance cest mort Il perdra la vie, môme étincelant Cest ni le premier, ni le dernier, cest dément Jte raconte la vie dma rue, et la liste est longue Le vice nous a eu, cest pas Disney Land On sbute pendant quIblis nous tire la langue Jrepense à Shérif, ça a du être dur cmoment Quand un ami denfance te braque et te dit tes mort Que dire à ta mère ? Cest la street Maman Putain cest la merde quand elle pleure son môme Tout lmonde a les nerfs et personne ne louvre Mais dis-moi pourquoi nos petits frères suivent le mouvement ? Pourquoi on senfonce dans ce sable mouvant ? Frérot on a vécu tant dchoses émouvantes Mais dans lfond, on nest pas si mauvais You might also like Et oui cest la street, ce nest pas un roman Personne ne veut tourner la page oh Maman On marche en équipe, mais on sclashe à un moment La tune, les rancunes, les déceptions, les pressions Et oui cest la street, ce nest pas un roman Personne ne veut tourner la page oh Maman On marche en équipe, mais on sclashe à un moment La tune, les rancunes, les déceptions, les pressions On snique entre nous comme des animaux Des amis denfance deviennent des ennemis Oukhty tu ne soupçonnes pas nos maux Le seille-o nous souille, on fait parler les douilles Cest le drame, dans nos yeux tu peux lire le Mal Viens voir sous nos immeubles les hurlements On ncicatrise pas comme au cinéma Ici les actrices sont la coke et lhéro Ça donne plus de tunes pour se customiser Donc plus despoir pour satomiser Les res-frè nsont pas là pour samuser Plus de liquide, plus de sang, les mains sales Et jte jure quils sen tapent, ils veulent juste leur monnaie Leur caisse et leur putain dcostard Armani Técrasent pour se prendre un appart à Miami Ont perdu le sens de la vie, cest pas vrai Comment sfait-il quon pleure autant dans nos zones ? Quon soit prêts à tout pour vivre dans laisance ? Une pensée aux frères qui sont dans les zonzes Tous nés innocent à la base avant davoir XXX Et oui cest la street, ce nest pas un roman Personne ne veut tourner la page oh Maman On marche en équipe, mais on sclashe à un moment La tune, les rancunes, les déceptions, les pressions Et oui cest la street, ce nest pas un roman Personne ne veut tourner la page oh Maman On marche en équipe, mais on sclashe à un moment La tune, les rancunes, les déceptions, les pressions</t>
+          <t>Jévolue dans des coins sombres pleins de zombies Où dire quon a mal est synonyme de honte Sais-tu que la violence nous inonde ? Les flics, les ambulances sont si nombreux Mais cest ici que je vis, oui dans lciment Les petits daujourdhui nont plus dsentiments Sentretuent à vue sur nos bâtiments Jrevois encore Bilna qui sdémène On lemmène en moto, il tombera à Saint-Simon Se vide de son sang, pas dchance cest mort Il perdra la vie, môme étincelant Cest ni le premier, ni le dernier, cest dément Jte raconte la vie dma rue, et la liste est longue Le vice nous a eu, cest pas Disney Land On sbute pendant quIblis nous tire la langue Jrepense à Shérif, ça a du être dur cmoment Quand un ami denfance te braque et te dit tes mort Que dire à ta mère ? Cest la street Maman Putain cest la merde quand elle pleure son môme Tout lmonde a les nerfs et personne ne louvre Mais dis-moi pourquoi nos petits frères suivent le mouvement ? Pourquoi on senfonce dans ce sable mouvant ? Frérot on a vécu tant dchoses émouvantes Mais dans lfond, on nest pas si mauvais Et oui cest la street, ce nest pas un roman Personne ne veut tourner la page oh Maman On marche en équipe, mais on sclashe à un moment La tune, les rancunes, les déceptions, les pressions Et oui cest la street, ce nest pas un roman Personne ne veut tourner la page oh Maman On marche en équipe, mais on sclashe à un moment La tune, les rancunes, les déceptions, les pressions On snique entre nous comme des animaux Des amis denfance deviennent des ennemis Oukhty tu ne soupçonnes pas nos maux Le seille-o nous souille, on fait parler les douilles Cest le drame, dans nos yeux tu peux lire le Mal Viens voir sous nos immeubles les hurlements On ncicatrise pas comme au cinéma Ici les actrices sont la coke et lhéro Ça donne plus de tunes pour se customiser Donc plus despoir pour satomiser Les res-frè nsont pas là pour samuser Plus de liquide, plus de sang, les mains sales Et jte jure quils sen tapent, ils veulent juste leur monnaie Leur caisse et leur putain dcostard Armani Técrasent pour se prendre un appart à Miami Ont perdu le sens de la vie, cest pas vrai Comment sfait-il quon pleure autant dans nos zones ? Quon soit prêts à tout pour vivre dans laisance ? Une pensée aux frères qui sont dans les zonzes Tous nés innocent à la base avant davoir XXX Et oui cest la street, ce nest pas un roman Personne ne veut tourner la page oh Maman On marche en équipe, mais on sclashe à un moment La tune, les rancunes, les déceptions, les pressions Et oui cest la street, ce nest pas un roman Personne ne veut tourner la page oh Maman On marche en équipe, mais on sclashe à un moment La tune, les rancunes, les déceptions, les pressions</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Monte dans la gova, jai dis monte dans le gamos Demande à mes gavas, on est clairs, vas-y vamos Démarre le V-Max, ok mets-les dans le rétro Sapé classe, élégant, Salam Hello Pourquoi tu bombes ? Ici tes personne Mets ta robe longue, ça y est tas percé Derniers talons, petites Zanotti Pousse la fonte, fais des selfies Goodbye, bye, bye J'suis trop loin goodbye, bye, bye, allez Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies Dingue elle est encore une fois tu mconnais Jtai bloqué, pourquoi tu mappelles en inconnu ? Ridsa, H, ya des hits, ya du cash Tu es battu, fais des selfies, bref Le son vient de Kingston, jvais tfaire décoller Comme liPhone je narrête pas dévoluer Jpète la forme, je vais tous vous dévorer Jcroque la pomme, chérie vas-y ferme les volets Oh oui, fais-moi rêver, vas-y fais-moi danser Jtemmènerai en week-end aux Antilles Tes copines ont toutes envie dte plomber Laisse les jaloux parler You might also like Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies Même si tas le visage claqué Nous on sen fout de ton passé Quand tu nous vois passer Si tes fâché Ce soir ça ne-tour dans la ville Dans le dernier Merco, jai les dernières Nike Oui demande à H jcrois quelles veulent des selfies Ou bien mon numéro, oui faut quje sache Cest le dream, cest le dream Ramène ton équipe, on va leur montrer cest comment Pour faire un selfie, faut seulement tenir le manche Fais la re-sta, jaime quand tu fais ton arrogante Jvais tmonter en lair, cagoulé mais sans les gants Jarrive en retard mais jsuis toujours dans les temps Jarrive en scred, jsuis cramé comme un éléphant Cest quune photo, jcomprends pas pourquoi tu trembles, allez Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies x2 Même si tas le visage claqué Nous on sen fout de ton passé Quand tu nous vois passer Si tes fâché</t>
+          <t>Monte dans la gova, jai dis monte dans le gamos Demande à mes gavas, on est clairs, vas-y vamos Démarre le V-Max, ok mets-les dans le rétro Sapé classe, élégant, Salam Hello Pourquoi tu bombes ? Ici tes personne Mets ta robe longue, ça y est tas percé Derniers talons, petites Zanotti Pousse la fonte, fais des selfies Goodbye, bye, bye J'suis trop loin goodbye, bye, bye, allez Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies Dingue elle est encore une fois tu mconnais Jtai bloqué, pourquoi tu mappelles en inconnu ? Ridsa, H, ya des hits, ya du cash Tu es battu, fais des selfies, bref Le son vient de Kingston, jvais tfaire décoller Comme liPhone je narrête pas dévoluer Jpète la forme, je vais tous vous dévorer Jcroque la pomme, chérie vas-y ferme les volets Oh oui, fais-moi rêver, vas-y fais-moi danser Jtemmènerai en week-end aux Antilles Tes copines ont toutes envie dte plomber Laisse les jaloux parler Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies Même si tas le visage claqué Nous on sen fout de ton passé Quand tu nous vois passer Si tes fâché Ce soir ça ne-tour dans la ville Dans le dernier Merco, jai les dernières Nike Oui demande à H jcrois quelles veulent des selfies Ou bien mon numéro, oui faut quje sache Cest le dream, cest le dream Ramène ton équipe, on va leur montrer cest comment Pour faire un selfie, faut seulement tenir le manche Fais la re-sta, jaime quand tu fais ton arrogante Jvais tmonter en lair, cagoulé mais sans les gants Jarrive en retard mais jsuis toujours dans les temps Jarrive en scred, jsuis cramé comme un éléphant Cest quune photo, jcomprends pas pourquoi tu trembles, allez Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies, fais des selfies Fais des selfies x2 Même si tas le visage claqué Nous on sen fout de ton passé Quand tu nous vois passer Si tes fâché</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Rester réel c'est le but avancer sans masque, c'est brut J'éprouve des ruelles, le son de la masse La misère recrute où la chance démissionne Le beat, on l'charcute pour les grosses liasses beaucoup michtonnent, tu percutes ? Classe-moi dans les Soldats sans treillis J'rappe, mon combat c'est sortir de la crasse sans trahir Aux règles j'obéis pas, moi j'les créé, l'essence c'est nos rêves Fonce même si tes roues on les crève, même quand l'espoir fait grève On est opés, rationnels, dopés C'est du bizness, rien de personnel, on veut me stopper Faut du vice dans ce ... si, le top, tu vises Les yeux fixés sur la cible, t'es pas mort tant que tu vis N'abois pas si tu veux pas mordre On est des fauves, notre zik brûle les boîtes et, dans les médias Jugés par défaut, ma peine j'dois purger même quand les autres se forcent Quoi qu'il arrive je reste Monsieur Bors' ! De l'Afrique à la Rive Gauche on suce pas pour le fric, on intrigue Dis-leur Soldats sans treillis ! Du pur, du vrai, akhi pas de générique. Colérique, bordélique Dis-leur Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! You might also like Mayday mayday, pas là pour s'faire amender Depuis le départ on a dit ce qu'on fait de mieux c'est commander Le poing serré, la confiance s'est fait forer Dans ma forêt y a plus de foreur, pour un fou-rire on défouraille Une pour Abdoullaye, qu'on change nos rimes en dollars Hamdoulah, khab aux délits, j'suis pas ce gentil bamboula Politique pourave, va péta par le courage On fonce à contre-courant, on joue et ça coupe le courant Refrè j'suis pudique, la lère-ga devient ludique Je vous le dis, j'ai fais l'woudou. Pars en guerre, même le vendredi Comprends ma logique, vu qu'je crois qu'on a deux vie, je suis devant L'Etat veut nous diviser, me dévore On tombe on meurt pas, tatonne, on dort pas , on s'donne pas, on râle pas Genoux, front au terre-pa Pas prêt de céder, pour un tas de billets Oublier d'où j'viens et où j'vais, écoute bien De l'Afrique à la Rive Gauche on suce pas pour le fric, on intrigue Dis-leur Soldats sans treillis ! Du pur, du vrai, akhi pas de générique. Colérique, bordélique Dis-leur Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! Le Rap un délire, paraît qu'il faut qu'on s'encule Négatif, on prend du recul, surenchéris pas mon vécu Aucun matricule, le X pour fascicule X pour canicule, aucun hit, aucune lacune Suis-moi petit, j'ai leur blaze sur mon PQ Débarque chez ma Sécu, dans ma base aucun faux-cul Des bras, des uppercuts, rase ma barbe si j'recule Respect aux anyience qui s'battent sur le bitume Ça taff sans treillis, du talent, jamais en iench Les jaloux veulent me hayïn, j'ai des doua' et des oeillères Pas meilleur qu'un balayeur, plutôt Root's que Baléares En groupe autour d'une teillère, sur ma route des barrières Assume mon destin, en toute modestie Le paradoxe d'ici c'est une parabole, imbécile Ma rime assassine. Humour à chaque ligne Mais là j'ai l'humeur à Poutine donc jusqu'à la mort on butine De l'Afrique à la Rive Gauche on suce pas pour le fric, on intrigue Dis-leur Soldats sans treillis ! Du pur, du vrai, akhi pas de générique. Colérique, bordélique Dis-leur Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Rester réel c'est le but avancer sans masque, c'est brut J'éprouve des ruelles, le son de la masse La misère recrute où la chance démissionne Le beat, on l'charcute pour les grosses liasses beaucoup michtonnent, tu percutes ? Classe-moi dans les Soldats sans treillis J'rappe, mon combat c'est sortir de la crasse sans trahir Aux règles j'obéis pas, moi j'les créé, l'essence c'est nos rêves Fonce même si tes roues on les crève, même quand l'espoir fait grève On est opés, rationnels, dopés C'est du bizness, rien de personnel, on veut me stopper Faut du vice dans ce ... si, le top, tu vises Les yeux fixés sur la cible, t'es pas mort tant que tu vis N'abois pas si tu veux pas mordre On est des fauves, notre zik brûle les boîtes et, dans les médias Jugés par défaut, ma peine j'dois purger même quand les autres se forcent Quoi qu'il arrive je reste Monsieur Bors' ! De l'Afrique à la Rive Gauche on suce pas pour le fric, on intrigue Dis-leur Soldats sans treillis ! Du pur, du vrai, akhi pas de générique. Colérique, bordélique Dis-leur Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! Mayday mayday, pas là pour s'faire amender Depuis le départ on a dit ce qu'on fait de mieux c'est commander Le poing serré, la confiance s'est fait forer Dans ma forêt y a plus de foreur, pour un fou-rire on défouraille Une pour Abdoullaye, qu'on change nos rimes en dollars Hamdoulah, khab aux délits, j'suis pas ce gentil bamboula Politique pourave, va péta par le courage On fonce à contre-courant, on joue et ça coupe le courant Refrè j'suis pudique, la lère-ga devient ludique Je vous le dis, j'ai fais l'woudou. Pars en guerre, même le vendredi Comprends ma logique, vu qu'je crois qu'on a deux vie, je suis devant L'Etat veut nous diviser, me dévore On tombe on meurt pas, tatonne, on dort pas , on s'donne pas, on râle pas Genoux, front au terre-pa Pas prêt de céder, pour un tas de billets Oublier d'où j'viens et où j'vais, écoute bien De l'Afrique à la Rive Gauche on suce pas pour le fric, on intrigue Dis-leur Soldats sans treillis ! Du pur, du vrai, akhi pas de générique. Colérique, bordélique Dis-leur Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! Le Rap un délire, paraît qu'il faut qu'on s'encule Négatif, on prend du recul, surenchéris pas mon vécu Aucun matricule, le X pour fascicule X pour canicule, aucun hit, aucune lacune Suis-moi petit, j'ai leur blaze sur mon PQ Débarque chez ma Sécu, dans ma base aucun faux-cul Des bras, des uppercuts, rase ma barbe si j'recule Respect aux anyience qui s'battent sur le bitume Ça taff sans treillis, du talent, jamais en iench Les jaloux veulent me hayïn, j'ai des doua' et des oeillères Pas meilleur qu'un balayeur, plutôt Root's que Baléares En groupe autour d'une teillère, sur ma route des barrières Assume mon destin, en toute modestie Le paradoxe d'ici c'est une parabole, imbécile Ma rime assassine. Humour à chaque ligne Mais là j'ai l'humeur à Poutine donc jusqu'à la mort on butine De l'Afrique à la Rive Gauche on suce pas pour le fric, on intrigue Dis-leur Soldats sans treillis ! Du pur, du vrai, akhi pas de générique. Colérique, bordélique Dis-leur Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! Malgré les coups de surins, tous sur un, coups d'sirène Reste serein, assumant Soldats sans treillis ! Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Aigle Le Bryx L'amour est beau quand tu trouves moto ya solo Mon cur saigne, tu peux l'voir sur mon polo La vie na ngáí neti film ya solo Amitié pas loyale, moi je préfère solo Dans l'milieu trop de traîtres, moi j'roule en solo Solo, solo, malgré les coups bas du love pour vous Dans mon monde à moi Je compte que sur moi Eh ngáí eh, eh ngáí eh Bo tika ngáí na vanda Dans mon monde à moi J'suis dans la kitchen, j'ai le cur éteint, sirop dans Vittel Je compte que sur moi Beaucoup de succès, femmes sont fontaines, les jaloux sont en centaine Eh ngáí eh, eh ngáí eh Face à la kichta, elle m'a dit je t'aime devant Louis Vuitton Bo tika ngáí na vanda J'compte que sur moi et 2, 3 potos dans l'vito You might also like J'en vaux de rafales illimitées, j'suis dans un 4-4 bien mérité J'suis dans ma fastlife, t'es dans mon Snapchat, quand j'étais par terre, tu m'évitais Je connais par cur l'avidité, la vie de cartel, la vie du tieks Envie d'une platine, si j'ai le platane, je finirai seul en vérité Ne m'envie pas petit, la vie c'est molo J'suis solitaire malgré tous mes follows L'argent ça va, ça vient, c'est black and yellow Je compte sur moi, comme quand je cherche une mélo' J'suis dans la kitchen, j'ai le cur éteint, sirop dans Vittel Beaucoup de succès, femmes sont fontaines, les jaloux sont en centaine Dans mon monde à moi jaloux sont en centaine Je compte que sur moi beaucoup de succès, femmes sont fontaines Eh ngáí eh, eh ngáí eh Bo tika ngáí na vanda Dans mon monde à moi J'suis dans la kitchen, j'ai le cur éteint, sirop dans Vittel Je compte que sur moi Beaucoup de succès, femmes sont fontaines, les jaloux sont en centaine Eh ngáí eh, eh ngáí eh Face à la kichta, elle m'a dit je t'aime devant Louis Vuitton Bo tika ngáí na vanda J'compte que sur moi et 2, 3 potos dans l'vito Eh ngáí eh, eh ngáí eh Eh ngáí eh, Fally, eh ngáí eh Eh ngáí eh, eh ngáí eh Eh ngáí eh, Fally, eh ngáí eh Dans mon monde à moi Je compte que sur moi Eh ngáí eh, eh ngáí eh Bo tika ngáí na vanda Dans mon monde à moi J'suis dans la kitchen, j'ai le cur éteint, sirop dans Vittel Je compte que sur moi Beaucoup de succès, femmes sont fontaines, les jaloux sont en centaine Eh ngáí eh, eh ngáí eh Face à la kichta, elle m'a dit je t'aime devant Louis Vuitton Bo tika ngáí na vanda J'compte que sur moi et 2, 3 potos dans l'vito Eh ngáí eh, eh-eh ngáí eh Botika nga na</t>
+          <t>Aigle Le Bryx L'amour est beau quand tu trouves moto ya solo Mon cur saigne, tu peux l'voir sur mon polo La vie na ngáí neti film ya solo Amitié pas loyale, moi je préfère solo Dans l'milieu trop de traîtres, moi j'roule en solo Solo, solo, malgré les coups bas du love pour vous Dans mon monde à moi Je compte que sur moi Eh ngáí eh, eh ngáí eh Bo tika ngáí na vanda Dans mon monde à moi J'suis dans la kitchen, j'ai le cur éteint, sirop dans Vittel Je compte que sur moi Beaucoup de succès, femmes sont fontaines, les jaloux sont en centaine Eh ngáí eh, eh ngáí eh Face à la kichta, elle m'a dit je t'aime devant Louis Vuitton Bo tika ngáí na vanda J'compte que sur moi et 2, 3 potos dans l'vito J'en vaux de rafales illimitées, j'suis dans un 4-4 bien mérité J'suis dans ma fastlife, t'es dans mon Snapchat, quand j'étais par terre, tu m'évitais Je connais par cur l'avidité, la vie de cartel, la vie du tieks Envie d'une platine, si j'ai le platane, je finirai seul en vérité Ne m'envie pas petit, la vie c'est molo J'suis solitaire malgré tous mes follows L'argent ça va, ça vient, c'est black and yellow Je compte sur moi, comme quand je cherche une mélo' J'suis dans la kitchen, j'ai le cur éteint, sirop dans Vittel Beaucoup de succès, femmes sont fontaines, les jaloux sont en centaine Dans mon monde à moi jaloux sont en centaine Je compte que sur moi beaucoup de succès, femmes sont fontaines Eh ngáí eh, eh ngáí eh Bo tika ngáí na vanda Dans mon monde à moi J'suis dans la kitchen, j'ai le cur éteint, sirop dans Vittel Je compte que sur moi Beaucoup de succès, femmes sont fontaines, les jaloux sont en centaine Eh ngáí eh, eh ngáí eh Face à la kichta, elle m'a dit je t'aime devant Louis Vuitton Bo tika ngáí na vanda J'compte que sur moi et 2, 3 potos dans l'vito Eh ngáí eh, eh ngáí eh Eh ngáí eh, Fally, eh ngáí eh Eh ngáí eh, eh ngáí eh Eh ngáí eh, Fally, eh ngáí eh Dans mon monde à moi Je compte que sur moi Eh ngáí eh, eh ngáí eh Bo tika ngáí na vanda Dans mon monde à moi J'suis dans la kitchen, j'ai le cur éteint, sirop dans Vittel Je compte que sur moi Beaucoup de succès, femmes sont fontaines, les jaloux sont en centaine Eh ngáí eh, eh ngáí eh Face à la kichta, elle m'a dit je t'aime devant Louis Vuitton Bo tika ngáí na vanda J'compte que sur moi et 2, 3 potos dans l'vito Eh ngáí eh, eh-eh ngáí eh Botika nga na</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Né au bord du lac, un sceau sur ses nattes Un gosse sur le dos, le dream que tu mattes Jsuis son seul diplôme, la daronne na pas le Bac Parti den bas, je lai vu se battre Cest mon super-héros Oui jai vu la daronne passer du CFA aux euros De Gotham à Paname quarante degrés à zéro De son petit champ à nettoyer ton putain dbureau, stenir à carreau Là où jaurais pris une arme, elle a appris à lire Là où jaurais passé la came, elle a passé la serpillère Là où jaurais baissé les bras, elle a enduré Encaissé les coups de la vie sans virer Fuck Batman, jai ma Batwoman Fuck Superman, jai le sang de Superwoman Forte comme un buffle, pour ses gosses Une mère, peut soulever un bus Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups You might also like Épouse à mi-temps, Maman à plein-temps Pour décrire son sourire jdirais le printemps Jen profite, le dream ne dure quun temps Mais putain quand jy pense, jressens déjà une douleur intense Lfutur, un cratère, peu importe le critère Les cris, les pleurs, voir une daronne dans un linceul On nnaît pas seul, malgré son passé Une mère reste une mère pour laimer, nattends pas llinceul Une pensée à ceux qui la conjuguent au passé Jimagine même pas ce quils endurent à présent Pendant quyen a quaimeraient quelle parte à cause de lhéritage Les orphelins espèrent hériter dune Maman Pour le V.A.T, ma reus Mimi Oui tout lor du monde ne remplacerait pas sa présence Je sais qutessayes de combler le vide à la maison Accrochée à ta Foi, évitant les discours plaisants Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups</t>
+          <t>Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Né au bord du lac, un sceau sur ses nattes Un gosse sur le dos, le dream que tu mattes Jsuis son seul diplôme, la daronne na pas le Bac Parti den bas, je lai vu se battre Cest mon super-héros Oui jai vu la daronne passer du CFA aux euros De Gotham à Paname quarante degrés à zéro De son petit champ à nettoyer ton putain dbureau, stenir à carreau Là où jaurais pris une arme, elle a appris à lire Là où jaurais passé la came, elle a passé la serpillère Là où jaurais baissé les bras, elle a enduré Encaissé les coups de la vie sans virer Fuck Batman, jai ma Batwoman Fuck Superman, jai le sang de Superwoman Forte comme un buffle, pour ses gosses Une mère, peut soulever un bus Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Épouse à mi-temps, Maman à plein-temps Pour décrire son sourire jdirais le printemps Jen profite, le dream ne dure quun temps Mais putain quand jy pense, jressens déjà une douleur intense Lfutur, un cratère, peu importe le critère Les cris, les pleurs, voir une daronne dans un linceul On nnaît pas seul, malgré son passé Une mère reste une mère pour laimer, nattends pas llinceul Une pensée à ceux qui la conjuguent au passé Jimagine même pas ce quils endurent à présent Pendant quyen a quaimeraient quelle parte à cause de lhéritage Les orphelins espèrent hériter dune Maman Pour le V.A.T, ma reus Mimi Oui tout lor du monde ne remplacerait pas sa présence Je sais qutessayes de combler le vide à la maison Accrochée à ta Foi, évitant les discours plaisants Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups Jai toujours vu Maman se fighter, à sesquinter la santé Pour gagner son pain, assommée par les coups</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>J'dégaine, dès qu'tu me vois t'as l'béguin Fais gaffe cousine, j'vais t'rendre dingue Tu t'es pé-sa pour venir au rencard T'emballes pas, la route est longue Y'a peu d'romantiques chez les vandales N'essaie pas, ou soit vif comme Van Damne Ça peut être dramatique si tu m'trompes car Je n'viens pas de Disneyland Nova Le M, le A, le G, le N, le U, le M J'innove Tu parles, j'agis, t'es fou, légende C'est une super nova Y'a du talent, viens ouer-j' à la déli-délo Pur étalon, pas d'ces mecs en Pelle-Pelle J'créé la polémique, un peu comme Balotelli J'suis dans l'bal, pas d'bol, mais n'appelez pas la police Celui qui bouge s'prend une balle, après je plaide la folie Akhi, j'ai pas d'filon en philo', j'ai juste du pilon Si t'as pas d'slim, j'peux pas t'follow J'ai trop d'feeling, mais j'suis écolo Avec ton pote Abdelaziz dans un gros bolide Dis à ta meuf, j'fais pas la bise, même aux belles blondes Prends pas l'seum si elle vient d'te dire qu'elle est chamboulée Par mon charme quand je passe sous mon umbrella You might also like J'dégaine, dès qu'tu me vois t'as l'béguin Fais gaffe cousine, j'vais t'rendre dingue Tu t'es pé-sa pour venir au rencard T'emballes pas, la route est longue Y'a peu d'romantiques chez les vandales N'essaie pas, ou soit vif comme Van Damne Ça peut être dramatique si tu m'trompes car Je n'viens pas de Disneyland Nova Le M, le A, le G, le N, le U, le M J'innove Tu parles, j'agis, t'es fou, légende C'est une super nova C'est une super nova Comme mon gars le king, ça sert toujours des mannequins Pendant qu'tu noies ta solitude dans des Heineken On m'dit que Monica fait bronzette sous la canicule C'est calcule pour michtonner quelqu'un Alors c'est qui l'con qui va s'faire en-ler-cu' ? Quitter son équipe pour donner tout son liquide Le mec stupide qui va s'faire taper Taper, gratter, même pas l'avoir un été J'm'équipe, j'suis dans le coup comme Delaloka Fais pas l'fou ou tu finiras dans le local J'viens d'là où ça braque des hélico' Où les meufs de cinquante piges font des lipo' J'dégaine, dès qu'tu me vois t'as l'béguin Fais gaffe cousine, j'vais t'rendre dingue Tu t'es pé-sa pour venir au rencard T'emballes pas, la route est longue Y'a peu d'romantiques chez les vandales N'essaie pas, ou soit vif comme Van Damne Ça peut être dramatique si tu m'trompes car Je n'viens pas de Disneyland Dès qu'tu me vois t'as l'béguin Fais gaffe cousine, j'vais t'rendre dingue Tu t'es pé-sa pour venir au rencard T'emballes pas, la route est longue Y'a peu d'romantiques chez les vandales N'essaie pas, ou soit vif comme Van Damne Ça peut être dramatique si tu m'trompes car Je n'viens pas de Disneyland Nova Le M, le A, le G, le N, le U, le M J'innove Tu parles, j'agis, t'es fou, légende C'est une super nova Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>J'dégaine, dès qu'tu me vois t'as l'béguin Fais gaffe cousine, j'vais t'rendre dingue Tu t'es pé-sa pour venir au rencard T'emballes pas, la route est longue Y'a peu d'romantiques chez les vandales N'essaie pas, ou soit vif comme Van Damne Ça peut être dramatique si tu m'trompes car Je n'viens pas de Disneyland Nova Le M, le A, le G, le N, le U, le M J'innove Tu parles, j'agis, t'es fou, légende C'est une super nova Y'a du talent, viens ouer-j' à la déli-délo Pur étalon, pas d'ces mecs en Pelle-Pelle J'créé la polémique, un peu comme Balotelli J'suis dans l'bal, pas d'bol, mais n'appelez pas la police Celui qui bouge s'prend une balle, après je plaide la folie Akhi, j'ai pas d'filon en philo', j'ai juste du pilon Si t'as pas d'slim, j'peux pas t'follow J'ai trop d'feeling, mais j'suis écolo Avec ton pote Abdelaziz dans un gros bolide Dis à ta meuf, j'fais pas la bise, même aux belles blondes Prends pas l'seum si elle vient d'te dire qu'elle est chamboulée Par mon charme quand je passe sous mon umbrella J'dégaine, dès qu'tu me vois t'as l'béguin Fais gaffe cousine, j'vais t'rendre dingue Tu t'es pé-sa pour venir au rencard T'emballes pas, la route est longue Y'a peu d'romantiques chez les vandales N'essaie pas, ou soit vif comme Van Damne Ça peut être dramatique si tu m'trompes car Je n'viens pas de Disneyland Nova Le M, le A, le G, le N, le U, le M J'innove Tu parles, j'agis, t'es fou, légende C'est une super nova C'est une super nova Comme mon gars le king, ça sert toujours des mannequins Pendant qu'tu noies ta solitude dans des Heineken On m'dit que Monica fait bronzette sous la canicule C'est calcule pour michtonner quelqu'un Alors c'est qui l'con qui va s'faire en-ler-cu' ? Quitter son équipe pour donner tout son liquide Le mec stupide qui va s'faire taper Taper, gratter, même pas l'avoir un été J'm'équipe, j'suis dans le coup comme Delaloka Fais pas l'fou ou tu finiras dans le local J'viens d'là où ça braque des hélico' Où les meufs de cinquante piges font des lipo' J'dégaine, dès qu'tu me vois t'as l'béguin Fais gaffe cousine, j'vais t'rendre dingue Tu t'es pé-sa pour venir au rencard T'emballes pas, la route est longue Y'a peu d'romantiques chez les vandales N'essaie pas, ou soit vif comme Van Damne Ça peut être dramatique si tu m'trompes car Je n'viens pas de Disneyland Dès qu'tu me vois t'as l'béguin Fais gaffe cousine, j'vais t'rendre dingue Tu t'es pé-sa pour venir au rencard T'emballes pas, la route est longue Y'a peu d'romantiques chez les vandales N'essaie pas, ou soit vif comme Van Damne Ça peut être dramatique si tu m'trompes car Je n'viens pas de Disneyland Nova Le M, le A, le G, le N, le U, le M J'innove Tu parles, j'agis, t'es fou, légende C'est une super nova Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Je n'en peux plus de t'aimer J'te regarde comme un enfant Comme un enfant avec un télescope Je n'en peux plus de saigner À distance, je me sens seul Je me sens comme Comme un enfant avec un télescope Trop tard, fuck la timidité Mon cur fait sa crise de sincérité Ce soir, j'vais te dire la vérité La distance a fini par faire son effet Ramène-moi l'homme qui n'a jamais failli Tu sais que t'es loin de moi et j't'ai dans les entrailles Mais j'suis tombé love, j'ai l'impression de t'trahir Est-c'que tu m'entends ? Je n'en peux plus de t'aimer J'te regarde comme un enfant Comme un enfant avec un télescope Je n'en peux plus de saigner À distance, je me sens seul Je me sens comme Comme un enfant avec un télescope You might also like J'fréquente des endroits risqués J'n'ai pas encore fait ton deuil, R.I.P Ce soir, j'veux pas voir la vérité J'ai la tête dans les étoiles, laisse-moi méditer J'ai bu du 'sky, oui bébé j'suis faya Je sais que tu n'aimes pas ça, mais je ne suis pas de taille Car tu me manques et je n'arrive pas à l'croire Quoi, mais tu n'es plus là Je n'en peux plus de t'aimer J'te regarde comme un enfant Comme un enfant avec un télescope Je n'en peux plus de saigner À distance, je me sens seul Je me sens comme Comme un enfant avec un télescope Comme un môme, j'te cherche Dans les étoiles J'suis plus le même, sans toi J'veille tous les soirs Comme un môme, j'te cherche Dans les étoiles J'suis plus le même, sans toi J'veille tous les soirs Comme un enfant avec un télescope Télescope Comme un enfant avec un télescope Télescope Comme un enfant avec un télescope Télescope Comme un enfant avec un télescope Télescope Comme un enfant avec un télescope</t>
+          <t>Je n'en peux plus de t'aimer J'te regarde comme un enfant Comme un enfant avec un télescope Je n'en peux plus de saigner À distance, je me sens seul Je me sens comme Comme un enfant avec un télescope Trop tard, fuck la timidité Mon cur fait sa crise de sincérité Ce soir, j'vais te dire la vérité La distance a fini par faire son effet Ramène-moi l'homme qui n'a jamais failli Tu sais que t'es loin de moi et j't'ai dans les entrailles Mais j'suis tombé love, j'ai l'impression de t'trahir Est-c'que tu m'entends ? Je n'en peux plus de t'aimer J'te regarde comme un enfant Comme un enfant avec un télescope Je n'en peux plus de saigner À distance, je me sens seul Je me sens comme Comme un enfant avec un télescope J'fréquente des endroits risqués J'n'ai pas encore fait ton deuil, R.I.P Ce soir, j'veux pas voir la vérité J'ai la tête dans les étoiles, laisse-moi méditer J'ai bu du 'sky, oui bébé j'suis faya Je sais que tu n'aimes pas ça, mais je ne suis pas de taille Car tu me manques et je n'arrive pas à l'croire Quoi, mais tu n'es plus là Je n'en peux plus de t'aimer J'te regarde comme un enfant Comme un enfant avec un télescope Je n'en peux plus de saigner À distance, je me sens seul Je me sens comme Comme un enfant avec un télescope Comme un môme, j'te cherche Dans les étoiles J'suis plus le même, sans toi J'veille tous les soirs Comme un môme, j'te cherche Dans les étoiles J'suis plus le même, sans toi J'veille tous les soirs Comme un enfant avec un télescope Télescope Comme un enfant avec un télescope Télescope Comme un enfant avec un télescope Télescope Comme un enfant avec un télescope Télescope Comme un enfant avec un télescope</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Oh oh! C'est Flex Sta-Beu, Djam-L avec H.O! R. Seck, et on est venus mettre ça haut! Chaud, et on appelle ça le son des gosses bo'! Le son des Gosses bo'! Le son des Gosses bo'! Ça fait Tu attendais mon retour comme les d'jeunz attendent le week-end Normal le rap est tordu comme le zen à Scottie Pippen J'entends des rappeurs qui pinent Je vois des majors qui s'plaignnt Busta Flex est trop flow pour couler avec le capitaine Je sais feinter le système Mange à ma F.A.I.M Roule et fume avec H.A.K.I.M. d'Epinay-sur-Seine Certains disent que j'ai changé Que Flex Sta-Beu n'est plus le même Tout ça parce qu'ils n'ont seulement que la croûte à manger Je prends mon pied, j'suis réveillé comme les chacals dorment Toute ma vibes est mise sur papier sur chaque al bum Flex Baba a.k.a. Agronome my man, t'es content my man Écoute la putain d'prod qu'on ramène J'rappe contre moi-même J'suis à la botte de personne, je suis mon chef Grâce à Dieu j'ai mon label ça va être le K.I.F Et ça fait You might also like Oh oh! C'est Flex Sta-Beu, Djam-L avec H.O! R. Seck, et on est venus mettre ça haut! Chaud, et on appelle ça le son des gosses bo'! Le son des Gosses bo'! Le son des Gosses bo'! Ça fait Djam-L est au contrôle de l'instrumentale Si tu kiffes les trips bancals, c'est qu't'es influençable Si les meufs en place te kiffent, c'est qu't'es influent grave ou Bien mieux en travelo qu'avec une armée d'pits Si tu peux pas kidnapper l'beat, mec Prends cette claque et file vite avant les secousses sismiques Tranchant pour les beatniks, dansant sur des gimmicks Et brûlant l'encens dans tes pique-niques Vire ces types pathétiques Sortez les flûtes et les Magnums On bloque les schmitts au bar, c'est le barnum L'ambiance est plutôt barge Et pour les carottes plutôt hard, demande l'ancien Ce type est t'es en chien Hypnotique est la vibe dans la bouche de mes soss' T'es trop p'tit, faut qu'tu sautes pour nous limer les crocs Tu veux mimer nos flows génétiques, piller nos projets d'équipe Va vider des Kro et fais vite Oh oh! C'est Flex Sta-Beu, Djam-L avec H.O! R. Seck, et on est venus mettre ça haut! Chaud, et on appelle ça le son des gosses bo'! Le son des Gosses bo'! Le son des Gosses bo'! Ça fait Mes négros ont dit yes Tu fais ça tu les blesses On t'épaule à fond mais est-ce Qu'il faudra botter des fesses Ha ha, man, t'as lâché ton micro pour un gode J'te l'accorde, moi j'ai lâché l'impro pour les prods Et j'm'en bats les couilles des Clark Tu veux ma place, tu peux la prendre Mais viens pas t'plaindre si ton cul dit que le cuir n'est pas tendre C.Y.F.I.R, dis-moi à qui t'as affaire Dis-moi à qui t'as à plaire Dis-moi à qui t'a fait C'est l'son des gosses bo'! Oh oh! C'est Flex Sta-Beu, Djam-L avec H.O! R. Seck, et on est venus mettre ça haut! Chaud, et on appelle ça le son des gosses bo'! Le son des Gosses bo'! Le son des Gosses bo'! Ça fait</t>
+          <t>Oh oh! C'est Flex Sta-Beu, Djam-L avec H.O! R. Seck, et on est venus mettre ça haut! Chaud, et on appelle ça le son des gosses bo'! Le son des Gosses bo'! Le son des Gosses bo'! Ça fait Tu attendais mon retour comme les d'jeunz attendent le week-end Normal le rap est tordu comme le zen à Scottie Pippen J'entends des rappeurs qui pinent Je vois des majors qui s'plaignnt Busta Flex est trop flow pour couler avec le capitaine Je sais feinter le système Mange à ma F.A.I.M Roule et fume avec H.A.K.I.M. d'Epinay-sur-Seine Certains disent que j'ai changé Que Flex Sta-Beu n'est plus le même Tout ça parce qu'ils n'ont seulement que la croûte à manger Je prends mon pied, j'suis réveillé comme les chacals dorment Toute ma vibes est mise sur papier sur chaque al bum Flex Baba a.k.a. Agronome my man, t'es content my man Écoute la putain d'prod qu'on ramène J'rappe contre moi-même J'suis à la botte de personne, je suis mon chef Grâce à Dieu j'ai mon label ça va être le K.I.F Et ça fait Oh oh! C'est Flex Sta-Beu, Djam-L avec H.O! R. Seck, et on est venus mettre ça haut! Chaud, et on appelle ça le son des gosses bo'! Le son des Gosses bo'! Le son des Gosses bo'! Ça fait Djam-L est au contrôle de l'instrumentale Si tu kiffes les trips bancals, c'est qu't'es influençable Si les meufs en place te kiffent, c'est qu't'es influent grave ou Bien mieux en travelo qu'avec une armée d'pits Si tu peux pas kidnapper l'beat, mec Prends cette claque et file vite avant les secousses sismiques Tranchant pour les beatniks, dansant sur des gimmicks Et brûlant l'encens dans tes pique-niques Vire ces types pathétiques Sortez les flûtes et les Magnums On bloque les schmitts au bar, c'est le barnum L'ambiance est plutôt barge Et pour les carottes plutôt hard, demande l'ancien Ce type est t'es en chien Hypnotique est la vibe dans la bouche de mes soss' T'es trop p'tit, faut qu'tu sautes pour nous limer les crocs Tu veux mimer nos flows génétiques, piller nos projets d'équipe Va vider des Kro et fais vite Oh oh! C'est Flex Sta-Beu, Djam-L avec H.O! R. Seck, et on est venus mettre ça haut! Chaud, et on appelle ça le son des gosses bo'! Le son des Gosses bo'! Le son des Gosses bo'! Ça fait Mes négros ont dit yes Tu fais ça tu les blesses On t'épaule à fond mais est-ce Qu'il faudra botter des fesses Ha ha, man, t'as lâché ton micro pour un gode J'te l'accorde, moi j'ai lâché l'impro pour les prods Et j'm'en bats les couilles des Clark Tu veux ma place, tu peux la prendre Mais viens pas t'plaindre si ton cul dit que le cuir n'est pas tendre C.Y.F.I.R, dis-moi à qui t'as affaire Dis-moi à qui t'as à plaire Dis-moi à qui t'a fait C'est l'son des gosses bo'! Oh oh! C'est Flex Sta-Beu, Djam-L avec H.O! R. Seck, et on est venus mettre ça haut! Chaud, et on appelle ça le son des gosses bo'! Le son des Gosses bo'! Le son des Gosses bo'! Ça fait</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Ils sont tous là à l'épier Tu m'demandes de me méfier mais t'y es pas Ce sont les mêmes qui viennent à ses pieds Bien habillés, pour l'fessier de ma tchika Pendant ce temps, j'fais des billets Oui ma chérie c'est cool, c'est mon métier Tu sens l'amour dans mes audios Studio, fuck you, copiez pas J'suis dans la street même en février La rue ne m'a pas fait vriller Je me suis promis de te faire briller Scintillé, retirer du tier-quar Ils ont tous voulu te casser le dos Dès qu'ils t'ont vu, oh eh Et toutes ces filles qui veulent qu'on s'fâche tous les deux C'est parce qu'elles t'envient, oh eh Te quie te quie, te quiero Tu es ma baby, oh eh Te quie te quie, te quiero Tu es ma baby, oh eh Te quie te quie, te quiero Tu es ma baby oh eh Te quie te quie, te quiero Tu es ma baby, oh eh You might also like J'suis dans la foule, t'es mon bouclier Tout bousillé, j'suis outillé, t'inquiète pas Ils étaient prêts à me châtier Parce que ton petit cur, je le fais vaciller sale Les jaloux s'comptent par millier Mais je ne tombe pas car t'es mon pilier Sans pitié, tout plier, les tuer La victoire est proche, je vais te dédier ça Pour toi, je braque même le caissier Au culot des kilos la Ciotat Ils ont tous voulu te casser le dos Dès qu'ils t'ont vu, oh eh Et toutes ces filles qui veulent qu'on s'fâche tous les deux C'est parce qu'elles t'envient, oh eh Te quie te quie, te quiero Tu es ma baby, oh eh Te quie te quie, te quiero Tu es ma baby, oh eh Te quie te quie, te quiero Tu es ma baby oh eh Te quie te quie, te quiero Tu es ma baby, oh eh</t>
+          <t>Ils sont tous là à l'épier Tu m'demandes de me méfier mais t'y es pas Ce sont les mêmes qui viennent à ses pieds Bien habillés, pour l'fessier de ma tchika Pendant ce temps, j'fais des billets Oui ma chérie c'est cool, c'est mon métier Tu sens l'amour dans mes audios Studio, fuck you, copiez pas J'suis dans la street même en février La rue ne m'a pas fait vriller Je me suis promis de te faire briller Scintillé, retirer du tier-quar Ils ont tous voulu te casser le dos Dès qu'ils t'ont vu, oh eh Et toutes ces filles qui veulent qu'on s'fâche tous les deux C'est parce qu'elles t'envient, oh eh Te quie te quie, te quiero Tu es ma baby, oh eh Te quie te quie, te quiero Tu es ma baby, oh eh Te quie te quie, te quiero Tu es ma baby oh eh Te quie te quie, te quiero Tu es ma baby, oh eh J'suis dans la foule, t'es mon bouclier Tout bousillé, j'suis outillé, t'inquiète pas Ils étaient prêts à me châtier Parce que ton petit cur, je le fais vaciller sale Les jaloux s'comptent par millier Mais je ne tombe pas car t'es mon pilier Sans pitié, tout plier, les tuer La victoire est proche, je vais te dédier ça Pour toi, je braque même le caissier Au culot des kilos la Ciotat Ils ont tous voulu te casser le dos Dès qu'ils t'ont vu, oh eh Et toutes ces filles qui veulent qu'on s'fâche tous les deux C'est parce qu'elles t'envient, oh eh Te quie te quie, te quiero Tu es ma baby, oh eh Te quie te quie, te quiero Tu es ma baby, oh eh Te quie te quie, te quiero Tu es ma baby oh eh Te quie te quie, te quiero Tu es ma baby, oh eh</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Ah DJ Best, H Dream De la loca Ne m'en veux pas parfois d'être autoritaire J'essaye de veiller sur toi tout comme un père, crois moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'as besoin croire que tout va bien, c'est qui ces gens ? Moi, j'les connais pas Un nouveau sac, wesh d'où ça vient, quand t'as besoin de cash, pourquoi tu m'dis pas ? Oui quand tu rentres tard, je m'inquiète parce que les gens sont mauvais J'ai confiance en toi, je respecte mais moi les autres, j'les connais pas, oh Ne m'en veux pas parfois d'être autoritaire J'essaye de veiller sur toi tout comme un père, crois-moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi You might also like J'aurais dû te dire que je te trouve belle, au lieu de te dire pour qui tu t'fais belle ? T'étais à la soirée de DJ Best, je n'te flique pas bébé, je m'renseigne Une nouvelle paire, un nouveau smartphone, dis-moi d'où tu sors l'oseille J'suis pas jaloux, j'fouille pas ton phone, ce sont les autres que j'surveille Ne m'en veux pas parfois d'être autoritaire J'essaye de veiller sur toi tout comme un père, crois-moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi Je n'ai jamais douté de toi, non, non Je n'ai jamais douté Je veux pas finir tout seul sans toi, non, non Je veux pas finir tout seul Je n'ai jamais douté de toi, non, non Je n'ai jamais douté Mais je veux pas finir tout seul sans toi, non, non Je veux pas finir tout seul Oh, oh, oh, oh T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi</t>
+          <t>Ah DJ Best, H Dream De la loca Ne m'en veux pas parfois d'être autoritaire J'essaye de veiller sur toi tout comme un père, crois moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'as besoin croire que tout va bien, c'est qui ces gens ? Moi, j'les connais pas Un nouveau sac, wesh d'où ça vient, quand t'as besoin de cash, pourquoi tu m'dis pas ? Oui quand tu rentres tard, je m'inquiète parce que les gens sont mauvais J'ai confiance en toi, je respecte mais moi les autres, j'les connais pas, oh Ne m'en veux pas parfois d'être autoritaire J'essaye de veiller sur toi tout comme un père, crois-moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi J'aurais dû te dire que je te trouve belle, au lieu de te dire pour qui tu t'fais belle ? T'étais à la soirée de DJ Best, je n'te flique pas bébé, je m'renseigne Une nouvelle paire, un nouveau smartphone, dis-moi d'où tu sors l'oseille J'suis pas jaloux, j'fouille pas ton phone, ce sont les autres que j'surveille Ne m'en veux pas parfois d'être autoritaire J'essaye de veiller sur toi tout comme un père, crois-moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi Je n'ai jamais douté de toi, non, non Je n'ai jamais douté Je veux pas finir tout seul sans toi, non, non Je veux pas finir tout seul Je n'ai jamais douté de toi, non, non Je n'ai jamais douté Mais je veux pas finir tout seul sans toi, non, non Je veux pas finir tout seul Oh, oh, oh, oh T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi T'es à moi, t'es à moi, t'es à moi, t'es à moi</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! J'vais te choquer, t'es pas prêt ! 'Igo t'es pas prêt, non non, t'es pas prêt ! T'es pas prêt ! J'vais t', t'es pas prêt ! Trouve moi dans le 20.75 Soweto Pour me mettre à l'amende, il vous faut s'lever tôt On n'tend pas les bras à une scie à métaux Si t'entends bleeeh y a un casque, une moto Trop tard, c'est mon tour, j'suis assermenté Me manque pas de respect, j'vais te casser le menton Ouah quel métier, t'aurais dû te méfier Toi, l'ennemi d'hier, reviendra m'baiser les pieds Ouah c'est l'Mexique même pas commencer que les diables s'émoustillent Wesh la mousse on va me faire un smoothie Mon petit 16 monsieur, c'est le H-Smith Wesson Laisse pas de message, c'est hass, oui, ce mois-ci Donc passe-moi le micro j'veux du cash sans mentir J'ai pas de commentaire, mate comme on fait J'ai tout sharcler mon frère, la chatte à ta mère Si t'as un commentaire ! T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! J'vais te choquer, t'es pas prêt ! Nous on fait du lourd, toi ton art est abstrait ! Va faire un tour petit, repasse après T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! J'vais te choquer, t'es pas prêt ! Nous on fait du lourd, toi ton art est abstrait ! Ces moutons crient au loup quand je suis dans leur pré You might also like En solo j'suis plusieurs, boude pas ton plaisir Quand je rappe c'est chan-mé, comme quand tu ché-cra Hachek, plus d'pudeur, casque intégral On traine jusqu'à pas d'heure Pigalle Pédales Cigale 10 gars Regard Middle Bagarre Hagar CoupDeBatte teu-tar plus d'air Détale, viré d'ton tier-quar, en plus tu fais du peu-ra ? Bâtard tu te réfugies au Lidl ! Il cherche à faire crédible avec un accent de gogol Tu penses que ça fait caillera, putain ça fait débile ! Les vrais, c'est nous, tu kifferais être comme nous Marcher avec nous, faire du biz' avec nous Désolé, mais la brebis sera jamais l'associé du loup Quand je rappe c'est relou. C'est c'est c'est relou J'en place une pour les oukhtys le Baisez-vous, touchez-vous, sucez-vous, j'arrive ! T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! J'vais te choquer, t'es pas prêt ! Nous on fait du lourd, toi ton art est abstrait ! Va faire un tour petit, repasse après T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! J'vais te choquer, t'es pas prêt ! Nous on fait du lourd, toi ton art est abstrait ! Ces moutons crient au loup quand je suis dans leur pré T'es pas prêt ! C'est le H-Smith Wesson T'es pas prêt, quand je rappe c'est relou T'es pas prêt, tu kifferais être comme nous T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! C'est le H-Smith Wesson T'es pas prêt, quand je rappe c'est relou T'es pas prêt, tu kifferais être comme nous T'es pas prêt ! T'es pas prêt ! Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! J'vais te choquer, t'es pas prêt ! 'Igo t'es pas prêt, non non, t'es pas prêt ! T'es pas prêt ! J'vais t', t'es pas prêt ! Trouve moi dans le 20.75 Soweto Pour me mettre à l'amende, il vous faut s'lever tôt On n'tend pas les bras à une scie à métaux Si t'entends bleeeh y a un casque, une moto Trop tard, c'est mon tour, j'suis assermenté Me manque pas de respect, j'vais te casser le menton Ouah quel métier, t'aurais dû te méfier Toi, l'ennemi d'hier, reviendra m'baiser les pieds Ouah c'est l'Mexique même pas commencer que les diables s'émoustillent Wesh la mousse on va me faire un smoothie Mon petit 16 monsieur, c'est le H-Smith Wesson Laisse pas de message, c'est hass, oui, ce mois-ci Donc passe-moi le micro j'veux du cash sans mentir J'ai pas de commentaire, mate comme on fait J'ai tout sharcler mon frère, la chatte à ta mère Si t'as un commentaire ! T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! J'vais te choquer, t'es pas prêt ! Nous on fait du lourd, toi ton art est abstrait ! Va faire un tour petit, repasse après T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! J'vais te choquer, t'es pas prêt ! Nous on fait du lourd, toi ton art est abstrait ! Ces moutons crient au loup quand je suis dans leur pré En solo j'suis plusieurs, boude pas ton plaisir Quand je rappe c'est chan-mé, comme quand tu ché-cra Hachek, plus d'pudeur, casque intégral On traine jusqu'à pas d'heure Pigalle Pédales Cigale 10 gars Regard Middle Bagarre Hagar CoupDeBatte teu-tar plus d'air Détale, viré d'ton tier-quar, en plus tu fais du peu-ra ? Bâtard tu te réfugies au Lidl ! Il cherche à faire crédible avec un accent de gogol Tu penses que ça fait caillera, putain ça fait débile ! Les vrais, c'est nous, tu kifferais être comme nous Marcher avec nous, faire du biz' avec nous Désolé, mais la brebis sera jamais l'associé du loup Quand je rappe c'est relou. C'est c'est c'est relou J'en place une pour les oukhtys le Baisez-vous, touchez-vous, sucez-vous, j'arrive ! T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! J'vais te choquer, t'es pas prêt ! Nous on fait du lourd, toi ton art est abstrait ! Va faire un tour petit, repasse après T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! J'vais te choquer, t'es pas prêt ! Nous on fait du lourd, toi ton art est abstrait ! Ces moutons crient au loup quand je suis dans leur pré T'es pas prêt ! C'est le H-Smith Wesson T'es pas prêt, quand je rappe c'est relou T'es pas prêt, tu kifferais être comme nous T'es pas prêt ! T'es pas prêt ! T'es pas prêt ! C'est le H-Smith Wesson T'es pas prêt, quand je rappe c'est relou T'es pas prêt, tu kifferais être comme nous T'es pas prêt ! T'es pas prêt ! Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Porte un toast à toutes nos mamans souvent solitaires Tous nos prolétaires, vu qu'la zèrmi prolifère Pas là pour polisser mon rap de quelconques politesses La France colorée j'aimerai la voir à PolyTech Jeunesse menottée, les deux pieds dans la deurm J'avance dans la dune, un couteau planté dans le dos Le crime est dans le vice, la coke dans le zen L'héro dans les veines car le Sheitan est dans la ville Ceux dans leur cellule, toujours solide même sans gellule Niques les élus, toutes les salades de ces élites Loin du Zénith, juste un zonar fout la panique Parles pour mon panel, va leur dire qu'on n'est pas net x2 Dis leur bien Dis leur qu'on Qu'on ira Qu'on ira Tous de l'avant Tous de l'avant, tous de l'avant Un toast à toutes les familles de ces ghettos qu'ils ont piégé J'sais que tous ces connards, sur nous, ont leur regard biaisé Qui est dupe ? Qui est die ? Génération qui endure Qui endigue leurs combines, qui fait que l'on frit en vie J'suis désolé, mais j'vais pas m'isoler Me faire camisoler, voir mes darons pleurer Ni me faire leurrer par leur déccélérage Fait flipper comme l'orage, la victoire on l'aura Certains vont gueuler, s'écarter en silence J'ai juste les salat', eux ont toutes les finances Mattes les assimilés, simuler leur joie de vivre Recevoir une grosse gifle, quand l'injustice s'immisce You might also like x4 Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Porte un toast à toutes nos mamans souvent solitaires Tous nos prolétaires, vu qu'la zèrmi prolifère Pas là pour polisser mon rap de quelconques politesses La France colorée j'aimerai la voir à PolyTech Jeunesse menottée, les deux pieds dans la deurm J'avance dans la dune, un couteau planté dans le dos Le crime est dans le vice, la coke dans le zen L'héro dans les veines car le Sheitan est dans la ville Ceux dans leur cellule, toujours solide même sans gellule Niques les élus, toutes les salades de ces élites Loin du Zénith, juste un zonar fout la panique Parles pour mon panel, va leur dire qu'on n'est pas net x2 Dis leur bien Dis leur qu'on Qu'on ira Qu'on ira Tous de l'avant Tous de l'avant, tous de l'avant Un toast à toutes les familles de ces ghettos qu'ils ont piégé J'sais que tous ces connards, sur nous, ont leur regard biaisé Qui est dupe ? Qui est die ? Génération qui endure Qui endigue leurs combines, qui fait que l'on frit en vie J'suis désolé, mais j'vais pas m'isoler Me faire camisoler, voir mes darons pleurer Ni me faire leurrer par leur déccélérage Fait flipper comme l'orage, la victoire on l'aura Certains vont gueuler, s'écarter en silence J'ai juste les salat', eux ont toutes les finances Mattes les assimilés, simuler leur joie de vivre Recevoir une grosse gifle, quand l'injustice s'immisce x4 Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>On a pris de l'âge, on a pris le large, on a pris d'la bouteille T'as laissé ton sperme donc t'as pris du ferme car aujourd'hui tout se paye Un mec qui cavale, un autre qui rafale, tout c'qui reste de ma vie Tu draguais les , tu payes, elle avale, c'est une petite fille maudite Entre Blood Cripz, quand le ciel est gris, ça bang bang un moment Entre thug et street, entre pleurs aigris, j'suis devenu baby no more Pas d'gagnants du loto, que des mecs qui font Regard d'travers dans l'auto, drive-by semi-auto Un frère mort, enterrement, XXX Même cernés, ou enfermés, certains sont internés Histoire qu'eux ils m'clashent Il nous doit du cash et en plus il veut s'cacher Moi j'pensais que vendre de la coke était mon seul plan de carrière On m'a dit de faire du rap, j'ai répondu non ça ira Chez nous il y a très peu de chance Moi j'ai rendu la daronne anxieuse mais je ne veux pas que le peuple me voit comme une vulgaire caille-ra Et si elle me lâche la main, c'est sûr j'vais finir tout seul Et je sais très bien que la mélodie sortait du sous-sol J'suis en train de perdre la raison J'suis posé tout seul devant ma tombe C'est l'histoire d'un mec qui sombre J'suis posé tout seul devant ma tombe C'est l'histoire d'un mec qui sombre You might also like Tu passes en télé, tu passes en radio, en plus tu vends même pas J'suis un peu fêlé, XXX, les petits suivront mes pas J'suis déter' et déçu, il dit qu'il a pas nos tunes Des cris dans la street, elle appelle les flics pour du tapage nocturne Y'a les keufs au feu, t'as laissé ton pote, il ferme pour braquo Ce noir avait des rêves, il rêvait d'Europe, il est mort sur c'bateau You know, you know me New jack city, XXX Tous les jours c'est dimanche, j'arrive à m'ennuyer J'ai dû voler ce qu'il me manque, ça j'l'ai pas oublié J't'ai dis que j'suis un peu fêlé Mon talent crève l'écran, pour ça qu'j'passe en télé Moi j'pensais que vendre de la coke était mon seul plan de carrière On m'a dit de faire du rap, j'ai répondu non ça ira Chez nous il y a très peu de chance Moi j'ai rendu la daronne anxieuse mais je ne veux pas que le peuple me voit comme une vulgaire caille-ra Et si elle me lâche la main, c'est sûr j'vais finir tout seul Et je sais très bien que la mélodie sortait du sous-sol J'suis en train de perdre la raison J'suis posé tout seul devant ma tombe C'est l'histoire d'un mec qui sombre J'suis posé tout seul devant ma tombe C'est l'histoire d'un mec qui sombre</t>
+          <t>On a pris de l'âge, on a pris le large, on a pris d'la bouteille T'as laissé ton sperme donc t'as pris du ferme car aujourd'hui tout se paye Un mec qui cavale, un autre qui rafale, tout c'qui reste de ma vie Tu draguais les , tu payes, elle avale, c'est une petite fille maudite Entre Blood Cripz, quand le ciel est gris, ça bang bang un moment Entre thug et street, entre pleurs aigris, j'suis devenu baby no more Pas d'gagnants du loto, que des mecs qui font Regard d'travers dans l'auto, drive-by semi-auto Un frère mort, enterrement, XXX Même cernés, ou enfermés, certains sont internés Histoire qu'eux ils m'clashent Il nous doit du cash et en plus il veut s'cacher Moi j'pensais que vendre de la coke était mon seul plan de carrière On m'a dit de faire du rap, j'ai répondu non ça ira Chez nous il y a très peu de chance Moi j'ai rendu la daronne anxieuse mais je ne veux pas que le peuple me voit comme une vulgaire caille-ra Et si elle me lâche la main, c'est sûr j'vais finir tout seul Et je sais très bien que la mélodie sortait du sous-sol J'suis en train de perdre la raison J'suis posé tout seul devant ma tombe C'est l'histoire d'un mec qui sombre J'suis posé tout seul devant ma tombe C'est l'histoire d'un mec qui sombre Tu passes en télé, tu passes en radio, en plus tu vends même pas J'suis un peu fêlé, XXX, les petits suivront mes pas J'suis déter' et déçu, il dit qu'il a pas nos tunes Des cris dans la street, elle appelle les flics pour du tapage nocturne Y'a les keufs au feu, t'as laissé ton pote, il ferme pour braquo Ce noir avait des rêves, il rêvait d'Europe, il est mort sur c'bateau You know, you know me New jack city, XXX Tous les jours c'est dimanche, j'arrive à m'ennuyer J'ai dû voler ce qu'il me manque, ça j'l'ai pas oublié J't'ai dis que j'suis un peu fêlé Mon talent crève l'écran, pour ça qu'j'passe en télé Moi j'pensais que vendre de la coke était mon seul plan de carrière On m'a dit de faire du rap, j'ai répondu non ça ira Chez nous il y a très peu de chance Moi j'ai rendu la daronne anxieuse mais je ne veux pas que le peuple me voit comme une vulgaire caille-ra Et si elle me lâche la main, c'est sûr j'vais finir tout seul Et je sais très bien que la mélodie sortait du sous-sol J'suis en train de perdre la raison J'suis posé tout seul devant ma tombe C'est l'histoire d'un mec qui sombre J'suis posé tout seul devant ma tombe C'est l'histoire d'un mec qui sombre</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Fefe, Porsche, Maserati, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise Fefe, Porsche, Maserati, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise On n'est pas fatigué, DJ fais-nous danser On nest pas fatigué, DJ fais-nous danser Rare comme Veyron Bugatti, panafricain comme Kadhafi T'auras jamais la vie d'artiste car tu nes pas un vrai rate-pi Une rafale en Ducati, transparent comme gélatine Force aux tits-pe de la street, c'est pas tes sous qu'on dilapide Y a du bolide, des gow jolies, c'est pas la même catégorie Ugo bori, on à beuri, bellek toute l'équipe est solide Fefe, Porsche, Masereti, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise Fefe, Porsche, Maserati, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise On n'est pas fatigué, DJ fais-nous danser On n'est pas fatigué, DJ fais-nous danser Bitch hendek, j'arrive à lheure, dans mon assiette, il y a ton cur Jporte des bijoux de grosses pierres serties, pendant qu'tu mfais la guerre sur Azerty Tes ennemis, c'est mes assos, tes larmes pour moi, c'est de la sauce J'men bats les couilles de tes applau', j'te doigterais même quand j'aurais d'l'arthrose K double napalm, chaud toujours pimpé Le deuxième but de Thuram, le deuxième cul de Kim K Tchoin, ça va te plaire, d'abord, j'te sers à boire J'ai le savoir faire et j'vais le faire savoir 225 krak séisme, du cata, du cata cataclysme On revient cagoulé si on s'fait refouler Pilon, pilon, pilon, tout doit être écoulé On est très très sombre, suffit d'un rre-ve Marche juste sur mon ombre et j'te nique ta re-mé You might also like Fefe, Porsche, Masereti, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise Fefe, Porsche, Maserati, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise On n'est pas fatigué, DJ fais-nous danser On n'est pas fatigué, DJ fais-nous danser Fefe, Porsche, Masereti, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise Fefe, Porsche, Maserati, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise On n'est pas fatigué, DJ fais-nous danser On n'est pas fatigué, DJ fais-nous danser</t>
+          <t>Fefe, Porsche, Maserati, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise Fefe, Porsche, Maserati, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise On n'est pas fatigué, DJ fais-nous danser On nest pas fatigué, DJ fais-nous danser Rare comme Veyron Bugatti, panafricain comme Kadhafi T'auras jamais la vie d'artiste car tu nes pas un vrai rate-pi Une rafale en Ducati, transparent comme gélatine Force aux tits-pe de la street, c'est pas tes sous qu'on dilapide Y a du bolide, des gow jolies, c'est pas la même catégorie Ugo bori, on à beuri, bellek toute l'équipe est solide Fefe, Porsche, Masereti, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise Fefe, Porsche, Maserati, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise On n'est pas fatigué, DJ fais-nous danser On n'est pas fatigué, DJ fais-nous danser Bitch hendek, j'arrive à lheure, dans mon assiette, il y a ton cur Jporte des bijoux de grosses pierres serties, pendant qu'tu mfais la guerre sur Azerty Tes ennemis, c'est mes assos, tes larmes pour moi, c'est de la sauce J'men bats les couilles de tes applau', j'te doigterais même quand j'aurais d'l'arthrose K double napalm, chaud toujours pimpé Le deuxième but de Thuram, le deuxième cul de Kim K Tchoin, ça va te plaire, d'abord, j'te sers à boire J'ai le savoir faire et j'vais le faire savoir 225 krak séisme, du cata, du cata cataclysme On revient cagoulé si on s'fait refouler Pilon, pilon, pilon, tout doit être écoulé On est très très sombre, suffit d'un rre-ve Marche juste sur mon ombre et j'te nique ta re-mé Fefe, Porsche, Masereti, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise Fefe, Porsche, Maserati, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise On n'est pas fatigué, DJ fais-nous danser On n'est pas fatigué, DJ fais-nous danser Fefe, Porsche, Masereti, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise Fefe, Porsche, Maserati, ça charbonne malgré la crise Sur le terrain comme Verratti, pour tout claquer dans de la tise On n'est pas fatigué, DJ fais-nous danser On n'est pas fatigué, DJ fais-nous danser</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>J'ai délaissé les cigarettes et la Biaff, abandonné le bando comme un fuyard Pourtant je l'aime mais c'est lui qui me tuera, Guevara Che, Gustavo Gaviria J'arrive à ied-p, laisse du sang sur le sillage, tu claques des sse-feu comme si t'avais vu la triade J'suis professionnel, j'fais du tri, j'fais du pliage, pour le XXX, y'a Marion Cotillard Nan je n'ai pas que des frères, bien entendu j'ai des ennemis Ok, mais où sont mes frères quand je flirte avec la sère-mi ? Je sais que mon image est ternie, j'sors même plus d'chez moi comme un ermite On m'a dit fais chauffer le moteur mec, j'effraie mais faut pas qu'je m'éternise On veut des paquets de dollars, y'a du shit sous mon collage Je n'ai pas le temps, je n'ai pas les fonds mais t'inquiète j'ai du courage Genre tu veux m'aider? Va t'faire baiser Pas b'soin d'toi, nous on s'est fait tout seul, on s'est fait tout seul J'ai pas l'temps pour les enfantillages, j'fais mal comme 400 ans d'pillage T'as cru m'voir ? Putain d'mirage, j'ralentis pas dans les virages T'es tombé sur le mauvais tirage, nous tends pas tes pompes, on fait pas dans l'cirage On sourit parce qu'on fait gaffe à notre image mais nos curs sont noirs comme les sin-cou du village J'me pointe incognito, tu m'regardes pas, tu m'serres même pas la main J'enfile mes lunettes, tu m'reconnais, t'arrives sur oi-m en plongeant comme Bernard Lama T'es sur les rotules, j'suis sur des gros tubes Il m'faut du liquide, avec ou sans auto-tune You might also like On veut des paquets de dollars, y'a du shit sous mon collage Je n'ai pas le temps, je n'ai pas les fonds mais t'inquiète j'ai du courage Genre tu veux m'aider? Va t'faire baiser Pas b'soin d'toi, nous on s'est fait tout seul, on s'est fait tout seul Là c'est le énième fils de femme de ménage, j'ves-qui les traîtres et les lâches La défaite fait fuire les suceurs, pas b'soin d'faire tomber les masques J'ai dû m'défoncer sans m'droguer vu qu'les te-por se sont bloquées J'dois garder l'équilibre sans m'vautrer, sans oublier que j'ai pas les bons traits Les darons, les tits-pe, la femme et les impôts me disent Poto ramène du concret J'ai pas la gueule de l'emploi mais j'suis employeur, mes rebeu disent ils est pas con l'khel Chérie t'es jolie, j'vais rester poli, y'a qu'avec ma famille qu'j'vais monter Message à BFM TV, nos surs sont heureuses, vous mentez On veut des paquets de dollars, y'a du shit sous mon collage Je n'ai pas le temps, je n'ai pas les fonds mais t'inquiète j'ai du courage Genre tu veux m'aider? Va t'faire baiser Pas b'soin d'toi, nous on s'est fait tout seul, on s'est fait tout seul1</t>
+          <t>J'ai délaissé les cigarettes et la Biaff, abandonné le bando comme un fuyard Pourtant je l'aime mais c'est lui qui me tuera, Guevara Che, Gustavo Gaviria J'arrive à ied-p, laisse du sang sur le sillage, tu claques des sse-feu comme si t'avais vu la triade J'suis professionnel, j'fais du tri, j'fais du pliage, pour le XXX, y'a Marion Cotillard Nan je n'ai pas que des frères, bien entendu j'ai des ennemis Ok, mais où sont mes frères quand je flirte avec la sère-mi ? Je sais que mon image est ternie, j'sors même plus d'chez moi comme un ermite On m'a dit fais chauffer le moteur mec, j'effraie mais faut pas qu'je m'éternise On veut des paquets de dollars, y'a du shit sous mon collage Je n'ai pas le temps, je n'ai pas les fonds mais t'inquiète j'ai du courage Genre tu veux m'aider? Va t'faire baiser Pas b'soin d'toi, nous on s'est fait tout seul, on s'est fait tout seul J'ai pas l'temps pour les enfantillages, j'fais mal comme 400 ans d'pillage T'as cru m'voir ? Putain d'mirage, j'ralentis pas dans les virages T'es tombé sur le mauvais tirage, nous tends pas tes pompes, on fait pas dans l'cirage On sourit parce qu'on fait gaffe à notre image mais nos curs sont noirs comme les sin-cou du village J'me pointe incognito, tu m'regardes pas, tu m'serres même pas la main J'enfile mes lunettes, tu m'reconnais, t'arrives sur oi-m en plongeant comme Bernard Lama T'es sur les rotules, j'suis sur des gros tubes Il m'faut du liquide, avec ou sans auto-tune On veut des paquets de dollars, y'a du shit sous mon collage Je n'ai pas le temps, je n'ai pas les fonds mais t'inquiète j'ai du courage Genre tu veux m'aider? Va t'faire baiser Pas b'soin d'toi, nous on s'est fait tout seul, on s'est fait tout seul Là c'est le énième fils de femme de ménage, j'ves-qui les traîtres et les lâches La défaite fait fuire les suceurs, pas b'soin d'faire tomber les masques J'ai dû m'défoncer sans m'droguer vu qu'les te-por se sont bloquées J'dois garder l'équilibre sans m'vautrer, sans oublier que j'ai pas les bons traits Les darons, les tits-pe, la femme et les impôts me disent Poto ramène du concret J'ai pas la gueule de l'emploi mais j'suis employeur, mes rebeu disent ils est pas con l'khel Chérie t'es jolie, j'vais rester poli, y'a qu'avec ma famille qu'j'vais monter Message à BFM TV, nos surs sont heureuses, vous mentez On veut des paquets de dollars, y'a du shit sous mon collage Je n'ai pas le temps, je n'ai pas les fonds mais t'inquiète j'ai du courage Genre tu veux m'aider? Va t'faire baiser Pas b'soin d'toi, nous on s'est fait tout seul, on s'est fait tout seul1</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_H_Magnum_songs.xlsx
+++ b/data/02_intermediate/cleaned_H_Magnum_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Afro Trap Part. 7 (La Puissance)</t>
+          <t>La même</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Paraît qujai changé Jentends les langues ici et là se délier Paraît quon se connaît En vérité on ne sest jamais croisés Et tu le sais, tu le sais, tu le sais Et cest plus fort que toi dinventer Des liens qui te font rêver Et tu le fais, tu le fais, tu le fais Soudain les gens te prêtent de lattention Cest XXX vers ce que tu cherchais Quest-cque tu cherchais ? Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Arrête de sourire, tu fais semblant On le sait, la roue tourne, tout se sait Tout se dit, tôt ou tard Ils nsarrêteront jamais Je vois des gens qui parlent, sans arrêt Prêts à tout pour déformer la vérité Cest la même, tous les jours cest la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Yeah, H dream, Vitaa Tes pas prêt Tous les jours cest la même Jsuis désolé dinnover Jsuis désolé dinnover Ça spasse, tu connais Tous les jours cest la même Ça bouge pas XXX Quoi quon mdise Cqui mmotive cest de foutre le seum aux loux-ja</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tout donner (Pilule Violette)</t>
+          <t>Rien de méchant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro J'veux une Audemars sur l'poignet du Padre Mais c'est pas l'but frèro faut bien cadrer J'suis pas une lumière mais j'sais que j'finirai pas à l'ombre On s'contente de ce qu'on a, la vie n'est pas à Londres Laisse pas traîner ton fils la rue est pédophile Psychopathe, psychologue, car elle t'aide aussi Résultat j'vais m'en sortir et crois pas qu'on est peu Mais on est soudés comme les doigts de la main d'un lépreux J'avoue j'ai des milliers d'idées, oui mon style est inégalable Moi et tous mes gars là, on a fait un carnage Éliminé, illuminé, plus d'un millier d'MCs J'veux des millions ralsi pour ma lignée J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Venez venez, j'vais vous montrez mon environnement les amis Ici y'a des fous, des génies, des mecs qui tombent pour des années J'suis pas là pour faire le Damné, si c'est l'royaume des invalides J'aimerais juste avoir un Vélib, ONE MILLIONS D'DOLLARS BABY Désolé j'ai des idées indécentes, j'vais pas t'faire un dessin Glige-né comme un gitan, y'a cette voix incessante La richesse est tentante, le doigt sur la détente C'est un hold up, LET'S GO ! J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Mon premier seize, akhi j'étais sous ke-skun J'n'avais même pas de quoi me payer rien qu'un putain de kefta Des MCs en guise de casse-dalle Bande de fils de... On vise le cristal J'veux changer d'vie moi, putain de villa Trop d'de-mon sur la ligne 4, oui je le vis mal Ne m'appelez pas la re-sta, j'ai rien d'un Busta Mais j'suis pas fait pour les restes, ni pour être en guest star Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine, j'le dédicace à Nicolas Sirkis Smiley, smehli, les gros yeu-z en personne J'comprends tout à fait pourquoi ton équipe a un tel seum C'est Maître Gim's en direct du bled french kiss Toujours rien à foutre de c'que les gens pensent, disent Mon entourage vise bédo, go, cash, tise Pendant qu'oi-m j'fais des tubes à la Black Eyed Peas J'veux changer d'i-ve, crick crick .. FREEZE ! Classe E Merco, Audi, tchu, tchu... DREAM Oops ! J'suis dans Closer, on m'a Entrevue en Public J'suis Le Parisien qui fait trembler Le Monde J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Oui forcément on t'fera des sons d'bâtard Comme les trois frères, on veut les cent patates Oui forcément on t'fera des sons d'bâtard Comme les trois frères, on veut les cent patates Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine j'le dédicace à Nicolas Sirkis Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine j'le dédicace à Nicolas Sirkis -Eh, mais les gars, c'est-c'est-c'est qui Nicolas Sirkis en fait ? -Oh, j'sais même pas, poto, en vrai. On s'en tape ! Rires - Allez circule !</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caméléon</t>
+          <t>Mon Coeur Avait Raison (Pilule Bleue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Columbine - Clubbing for Columbine - 0301 Sam's - Sunday Soundcloud Première saison 0401 Artiste multiples Babali Show rap is not a game vol. 2 - 0501 La Race Canine - Héroïne - 0601 Sanka - Black shaolin - 0801 Black Kent - Morceaux d'un homme - 0801 Freeze Corleone - Vieilles merdes vol. II - 1101 75ème Session - Enter the dojo vol. 2 Diabi - 1501 Alpha Wann - Alph Lauren 2 - 1501 Rim'k - Monster tape 1801 Ninho - I.S.P.A.C 2 - 1801 Scars Volodia - Vitamine R - 2001 Alkpote Butter Bullets - Ténébreuse musique 2101 Lacraps Mani Deïz - 42 grammes - 2201 H Magnum - Gotham city 2301 Godié Swinx - N22 - 2401 Hash24 Sopico - 2075 2501 Artistes multiples - Sismogram - 2501 Euphonik - Inconnu mais reconnu 2501 Taf - Tohu bohu - 2901 Lefa - Monsieur Fall 2901 Bolo Bicrave ou rapper Février 0202 H-Tône - Fistaille made in Toylettes Vol. 1 - 0502 Fixpen Sill - Edelweiss - 0502 Kohndo - Intra-muros - 0502 KSA - VIII 0502 Manny À lhorizon 0502 Oner O 0502 Tarek FastLife Emirates money - 0502 Tortoz - Dans le carré 0702 SLONE - At the boom jazz cafe 0802 Eddy Woogy - Tout Eddy - 0802 Kekra - Free base 2 - 1002 Sango - Flowrilege 1202 Diomay Tchiki O - 1202 Perso - Gratte ciel 1202 Pink Flamingo - Escape - 1702 Peet - PEATE 1902 Bip's - Nocturne pré-régicide 1902 Cadavreski - Sensible 1902 Clem Beatz - Trouble in paradise 1902 Fadah KLM - Le billet de 5 - 1902 Kore - Pattaya Bande Originale 1902 Krom Au Mic Zone franche - 1902 Leeroy - Noir fluo - 1902 Sadek - Roulette Russe - 2102 Inspire - Millenaire II 2502 Timuxx - Super hero 2602 Bazoo - B-Tape - 2602 Brav - Error 404 2602 Dirty Zoo - La Dernière Tribu 2602 Droogz Brigade - Projet Ludovico - 2602 Jazzy Bazz - P-Town 2602 Kamnouze OSNS - 2602 Kool Shen - Sur le fil du rasoir - 2602 Nakk Mendosa - Darksun 2 2602 Numbers - Numbers - 2802 O'boy - OlySide - 2802 Romeo Elvis Le Motel - Morale 2902 Charly Kid Patee Gee - Yacht Club 2902 Vaati - Adventures Mars - 0203 Grems - Green Pisse - 0203 Grems - Freen Pisse - 0303 Biffty - Du sale et du gras Bootleg - 0403 13 Block Violence urbaine émeute 0403 Aris-K Noob saibot - 0403 Jul - My World Réédition - 0403 Lartiste - Maestro - 0403 La Fouine - Nouveau Monde - 0403 Moïse The Dude - Dudelife 0703 Cheeko Blanka - Sont Trop Cools 0803 Skreally Boy - SuperStona1 - 1103 Fababy - Ange Démon 1303 Les 13 Salopards - Own The Spot 1403 Triplego - Eau Max 1503 KSA DJ Weedim - Clochard de luxe - 1703 KT Gorique - Tentative de survie - 1803 DTF - La hass avant le bonheur - 2103 Pesoa - Supra - 2503 Falcko Conte de tess IV 2503 Hugo Délire Kyo Itachi - Grand Delirium - 2503 The Shin Sekaï - Indéfini - 2503 MOH - L'art des Mots 2703 Seven Eli Prod - Double Infini - 3103 Lorenzo - Empereur du sale 3103 Beny, Yacine 1.5, Majdon Co Yazid Z - Reality Show Avril - 0104 Jul - Album Gratuit 2016 - 0104 Ol'Kainry - Superman Noir - 0104 TLF - No Limit - 0404 Juxebox - Naga 0604 Coolax - Black Mathusalem - 0804 Bhati - Abimé 0804 Green Money CDC V 0804 Iris - Magnitude 10 Maxi - 0804 Jehkyl - CVPP Couilles Vides Poches Pleines - 0804 Jorrdee DJ Weedim - Je sais plus - 0804 Les Frères Lumières - À des années lumières - 0804 Lil Taï Z - Lil Taï Z - 0804 Neg' Marrons - Valeur Sûre - 0804 Sultan - Condamné À Régner 1004 Krisy - Parmi vous - 1504 A2H - Libre 1504 Arm TEPR - Psaumes - 1504 Doc Gynéco - Première consultation Edition 20ème Anniversaire - 1504 MHD - MHD - 1504 Artistes multiples - Booska Peufra - Vol. 2 1804 Jiddy - CKDO 2004 Fhat.R Melan - Bornes To Loose - 2204 Big Budha Cheez - L'heure des loups - 2204 Caballero JeanJass - Double Hélice - 2204 MZ - La Dictature 2404 Beeby - Le aigneur Réédition - 2704 Eech - Rosendaal Talk 2904 Artiste multiples - Néochrome présente Microbes saison 1 - 2904 Dr Bériz - 1974 - 2904 Hooss - French Riviera Vol. 2 2904 Loud Lary Ajust - Ondulé - 2904 Tiers Monde - No Future 3004 2spee Gonzales - Ah Souhait Vol. 1 Mai 0205 Brownie Dubz Gang - LE KLVN 0205 I.N.C.H. - Nappage Nocturne - 0305 3010 - Monstre - 0605 Djadja Dinaz - On s'promet - 0605 Jarod - Caméléon - 0605 Kalash Kaos 0605 Paco - Baraka Feat 0605 Rezinsky - Les Hérétiques, Tomes I II - 0605 Mani Deïz, Senamo Seyté - Trois fois rien 1005 Artistes multiples - EOW EP - 1005 Di-Meh - Shine 1205 Jones Cruipy - Rêve européen 1305 Artistes multiples - AMG Hip Hop Présente La France Sous Pression 1305 Coco Tkt Human ex thug 1305 Rochdi - L'Exorciste Cénobite 1305 Specta - Metempsycose - 2005 Alonzo - Avenue de Saint-Antoine - 2005 Dooz Kawa - Bohemian Rap Story - 2005 Ghetto Fabulous Gang - 93 La cité des parias 2005 Houssaw - Play 2005 LK de l'Hotel Moscou - Orient Heights Springbreak 2 - 2005 PSO Thug - Demoniak 2005 Ywill La Jonction - Livre d'or 2005 GLK - Murder 2305 Mani Deïz - Comme les autres - 2505 Ichon - FDP - 2605 Niro - Or Game - 2705 Aero Wonderful - Atmosphère Vol. 2 - 2705 Kekra - Vréel - 2705 Keny Arkana - État d'Urgence 2705 Artistes multiples - Néochrome - Tirs Groupés volume 2 2705 Res Turner - Ouvrez les cages - 2705 Lomepal Stwo - ODSL - 2705 SCH - Anarchie 3105 Hits Alive - Triple 6 Vol. 3 Les Enfants du Diable Juin 0306 Fadah, Kdor Metronom Les sens des maux 0306 Faf Larage Sébastien Damiani - Larage Damiani Extended Play Vol. 2 - 0306 Guizmo - GPG - 0306 Jr O Crom Doomams - Vendetta - 0306 K-LY - Samo - 0306 Lucio Bukowski Oster Lapwass - Oderunt Poetas - 0306 Niska Zifukoro - 0306 Numbers - 77 0306 Rekta - Marche ou Crève 0506 Ockney Chileas Alter ego 2 - 0606 A2H - Studio Files 2015-2016 0606 Funky Armenico Subotaï - Normalus 0606 Ockney Chilea's - Alter Ego 2 1006 Arom - Damien VS Van Helsing - 1206 Salfrom Goune, Stick Bazoo - Godphaseurs - 1306 Josman - Matrix - 1306 Grems The Imposture - P.R.A.F 1506 Jiddy - Training Tape 2 1706 Mac Kregor - Cogito Ergo Sum 1706 Myth Syzer Ikaz Boi - Cerebral EP - 1706 -Crew - Destins Liés - 1906 Panama Bende - Bende Mafia - 2206 Les Tontons Flingueurs - Le démon à 9 queues II 2206 Youno Les Chimistes - Méthylamine - 2406 Alkpote DJ Weedim - Sadisme et perversion - 2406 Bigflo Oli - La cour des grands Réédition 2406 Fizzi Pizzi - C1C2T - 2406 Hamza - Zombie Life - 2406 Jul - Émotions 2406 Zekwé Ramos - FrappMusiq 2606 SOV - Sovaire Ep - 2706 Sopico - MOJO Juillet 0107 Aladoum - Géant Noir - 0107 Les Alchimistes - Cannibales - 0107 Biffty DJ Weedim - Mega Souye Tape 0107 Kahifa - Nueva Luz - 0407 Népal - 444 Nuits - 0807 Damso - Batterie Faible - 0807 Sadek - Nique le casino 1107 Hologram Lo' - Jeep EP 1307 Fencizzle Gsnype - Kramwa'ill - 1807 Lapso Laps - Packman 2107 Les Genero - Parcours du combattant 2707 Nusky - On vit avec - 3107 Despo Rutti - Majster - 3107 Krisy - Menthe à l'eau Août - 0508 O'Trak - Gomorrap - 2608 Maître Gims - À contrecur M.C.A.R. Réédition Septembre - 0209 A2H - Summer Stories Kushtape Volume 2 - 0509 LuXe - LuXemixtape - 0909 13 Block - Ultrap - 0909 Rockin' Squat - Grand Cru Classé 2004-2016 1209 Beeby - 5 Etoiles 1209 K-LY - K-LY Co - 1509 Jul - Album gratuit 2016 Vol. 2 - 1609 PNL - Dans la légende - 1609 Wati B - La Pièce BO du film 1709 A Point Z Matière grise - 2309 Jorrdee - BJOVR IOP! - 2309 Lefa - TMCP - 2309 Volodia - Un Pied sur Terre - 2309 Jayel - Tout Est Dit - 2509 Dinos - Toujours pas Imany mais presque - 2609 Espiiem - Départ 2609 La Connaixion Jeunesse Eternelle - 2609 Tengo John - Près Qu'elle - 3009 Kery James - Mouhammad Alix 3009 LIM - Pirates - 3009 Taïro - Reggae Français Octobre 0710 Elams - Je Suis Elams - 0710 MRC - MRC - 0910 Hakim Sensei - Goldfish 1010 Gys - Vale Tudo 1010 LTA - Echographie 1310 La Prune - La Prune - 1410 Convok - Un jour plus vieux - 1410 Despo Rutti Le Front Kick De Cantona - 1410 Gros Mo - Les de Gros Mo 1410 Lefty All Hayz On Me 1410 JP Manova - 19h07 Réédition - 1410 Soprano - L'Everest 1810 Issaba - À la recherche du temps perdu 2110 Hotel Moscou - L'Opium du Peuple - 2110 Lil Taï Z - Trop Jeune - 2110 Ninho M.I.L.S Maintenant Ils Le Savent - 2110 Naza - Tout pour la street 2110 Skreally Boy - 0352 - 2110 Sneazzy - Dieu bénisse Supersound 2110 Mani Deïz, Nefaste, Ol Zico Pejmaxx Martyrs Modernes 2310 Le 77 - C'est le 77 - 2410 Hamza - New Casanova 2510 2spee Gonzales - Ah Souhait Vol. 2 - 2810 Black M - Eternel Insatisfait - 2810 Casseurs Flowters - Live Tour 2016 2810 Gérard Baste - Le Prince de la Vigne 2810 Jeff Le Nerf Red Album - 2810 Kalash Criminel - R.A.S 2810 Kdor Sales Gosses Incurable 2810 La Méthode - Adrénaline - 2810 L'Algérino - Banderas 2810 Lario Nowhere A Mi-Chemin 2810 Medouze Changer La Donne 2810 Taïpan - P.A.N - 2810 Tortoz - FullG - 3110 T.I.S - L'homme contre le monstre Novembre 0111 Karna - Inconnu mais style reconnu - 0211 Prince Waly Myth Syzer - Junior - 0411 Dosseh - Yuri - 0411 Georgio - Héra - 0411 MMZ - Tout Pour Le Gang 0611 Artistes multiples - Misère Records présente le rap indé ouvre sa gueule - 0611 Lu'cid - Ex-Nihilo 0611 PALA - Acid Rose Garden 0711 Le Bon Son Du Bon Son 3 1111 Artistes multiples - Diamantaire Jee Van Cleef présente Jukebox Vol. 1 1111 Das Raizer - Nathuram Godse - 1111 Kaaris - Okou Gnakouri 1111 Krimo Vis Ta Vie 1511 Mr Kayz - 11 de légende 1611 HIGHMAN - H.I.G.H 1811 Artistes multiples All Stars Industrie - 1811 Mister You - Le Grand Méchant You 1811 Pumpkin Vin'S da Cuero - Chimiq - 1811 Seth Gueko - Barlou 2011 Tengo John - Tortue de Jade 2111 Jorrdee - Wavers 2111 Tonino Entre Temps John-Z Zed Beatz 2111 Dorian - Horizons 2511 Anton Serra Eddy Martin - Les 400 coups - 2511 Gradur - Where is l'album de Gradur 2511 Lacraps - Les Preuves Du Temps - 2511 Lucio Bukowski Milka - Hourvari - 2511 Swift Guad Mani Deiz - Masterpiece - 2711 PLK - Dedans - 2811 Haristone - Bates Motel - 2811 High Five Crew - Silicon Valley 3011 Artistes multiples - Le Gang Des Antillais Bande Originale Du Film De Jean-Claude Barny - 3011 Kekra - FreeBase 3 3011 Sëar-lui-même - À L'arrache, Épisode II Histoires Sans Fin XX11 Néochrome - Générations 88.2 Décembre - 0212 Billy Joe - La petite maison de la tuerie 0212 Chabodo - C'est Le Cha - 0212 Jul - L'ovni - 0212 Nekfeu - Cyborg 0212 Tarek FastLife À Bon Entendeur - 0212 Shay - Jolie Garce - 0212 Shurik'N - Adamant-ium - 0412 So'Clock Negann - Fréquences 0912 Artiste multiples - Booska Pefra Vol. 3 0912 Benito Chacon Chef De Meute 0912 GrandeVille - GrandeVille Records Vol. 1 0912 Lartiste - Clandestino - 0912 Laylow - Mercy 0912 Niro - Les Autres avec Or Game en version physique 0912 Prince Fellaga - Arabesque 0912 Tekilla Le Retour du sombre héros - 0912 Tito Prince - Toti Nation II 1112 Da Nill PubArt - 1112 Luni Sacks - Souterrain Son Vol. 1 - 1212 B-Biface - Fini de pleurer 1212 Hematome Pêle-Mêle 1212 Sauveur Eloheem - Aube 1412 Toy El Mago, Swif Nebaza Rus-Vi Made In 1Dependanz 1612 Artiste multiples - Sauvages, vol. 2 1612 Fayçal - Bords perdus EP 1612 K-Rhyme Le Roi Adrénaline 1612 Melan - Vagabond De La Rime, Vol. 3 - 1812 Rowjay - Carnaval de Finesse 1912 Stick - TricératoX Vol. 2 - 2012 Beny - Pepito deviendra grand 2112 West - Overdose 2212 Seven - 2032 - 2312 Nekfeu - Black Album - 2412 Hamza - Santa Sauce 2512 Grande Instance - 12 ans d'âge 2512 Miklo - Carnal Vol. 1 2512 Sauveur Eloheem - Le Panthéon des Pensées Sombres 2912 GRTZKY - Apex 2912 Sixo Master Flow - JMNDC 3112 G Lamaonthebeat - Dans le noir EP 3112 Jason Voriz - Trap Manstrr Autres - Du 1104 au 1111 Sofiane - Jesuispasséchezso Du 1706 au XXXX Alkpote - Les Marches de l'Empereur, Saison 2 - Du 2307 au 1408 Eskro - Néant 94 Date à confirmer XXXX Treza Ulysse XXXX Minch Né Sous X16</t>
+          <t>J'pense que j'pourrais plaire à Rell-o, Medhi Nem, Jo Hell, Cheef, Nelson, Espy, Saminem, OD, puis Zed, Brrown, Eris, Lezko, Sedj, Deel N'Joy, Airjee, meme Obelix Si j'm'en battais pas les couilles de m'faire sucer par trop d'MC La, j'deconne, mec, oui, Maadou Live, la chaine trop epique T'aimes bien les YouTubeurs qui renaissent de leurs cendres mais, là, c'est trop penible Lors de mon jugement au ROAR Selection, c'etait Maadou Gangseleu et N'Joy phenix T'es aphone mais faut qu't'ecrives des gros récits, c'est faux, mais j'dis Qu't'es pas a cheval sur les phonetiques, les phonemes, les rimes T'es le pire Hamid, comme un depot d'Egypte Tu peux rugir, t'es pas un sphynx, t'es pas Leo mais tigre Les vents qu'tu t'prends, c'est l'apocalypse, pour moi, t'es trompettiste Le lion pourrait se faire tuer dans l'arene par des Roms aigris Tu veux rentrer dans la legende comme une chimère mais vois qu'une mere lionne féline Faut pas que tu régén' trop tes vies, j'vais te dissoudre plein d'fois Tu begayes trop tes rimes ça, c'est le discours d'un ROAR T'es a la tete de ta ligue et tu t'prends pour un vrai gros messie Mais arrete d'insulter ou de rabaisser les autres parce que, la, tu fais trop l'mec street J'ai dit Le Discours d'un roi, j'vais t'apprendre a parler comme un neo messire Trouve les mots justes, moi, j'aimerais voir ce sir concis comme des peau d'penis Et, si t'es Obelix, j't'encule avec des sex-toys menhirs Faut que tu m'obeisses, tes tampons seront des obélisques Je survole tous les bas vux comme un heros, genie Eh, vielle branche, toi, tu dis pas les ados baisent mais les corps s'déciment J'vais ecarter mes bar' haut, sur ses notes, Bellick, Theodor et Link T'es pas de l'or noir, t'es pas Kaaris, tu suis pas la bonne melo épique J'te laisse au fond du trou, dans la fosse aux lions comme Daniel, respecte les propheties Tu vas crever a la surface, on refait tout avec des si, moi, quand j'ai tort, j'hesite A chaque fin d'inspi', tu laches des puits sans fond, donc je laisse le petrole gesir Tu t'appelles Naïl mais j'te calcule pas Si j'te voyais du mauvais il, je dirais tu portes l'aïn comme la plupart Naïl, j't'ai pas vu, ce soir J'sors le nine, shoot les Nike pour que Naïl n'aille nulle part Coupe-moi ces cheveux, on dirait un vieux tahr Les Forbans T'es si précieux, c'est forcé, c'est tordant T'es des deux sortes, nan ? Ce bi joue, je vais le soulever sans jamais porter de l'or blanc Attends que Maadou s'y mette, dis-moi Merci, maître J'arrive salé, gras comme ton épiderme, j'vide chargeur dans ta boîte comme si t'avais six mails Ta mèche fait six mètres, tu ressembles à une chimère Je dirais t'es moitié homme, moitié shemale J'suis chef de chantier, on me remercie pour les travaux T'es le chef pour changer, on te remercie pour les travelos Je me fous de ta vie, j'te baise jusqu'à ce que tu dises Je t'aime Tu es seul reubeu avec la face de Marine Le Pen Homme, femme ton cur balance, p'tit con On dirait qu'on vous force, c'est une étrange fiction Moi, je crois que j'ai capté ce qu'ils pensent vision Promotionner le mélange des genres, c'est leur transmission Ma mission à moi mon pote, de facto, tu prends la porte, c'est cadeau Ton art est factice et c'est pas drôle, depuis l'âge de pierre, on joue pas de rôle J'ai les crocs, magnons-nous de fuck le fiasco D'après l'histoire, t'as ma trace dans ta gorge c'est une glotte de Lascaux Je cherche à faire the score, j'aime les Fugees Les lignes défilent sur ta tête, ici, on aime les sous-titres J'suis de la race des tigres, t'es de celles des sous-fifres J'vais te labourer comme si j'étais sous tise J'te crève l'il avec un livre, oui, lis le Borgne, j'aime les Goonies Tu vas manger la pépite, je sais que t'aimes les cookies J'te cook easy, brise ton cou, j't'ai choisi car j'aime les rookies Tous disent que j'ai pris un p'tit pari c'est vrai, j'aime les sous mises T'es dead et faible, tu peux commencer à chercher de l'aide Je suis venu te fumer, j'ai même pas commander de l'herbe Une dégaine de bac L, ça, c'est une vraie merde On dirait que t'as un Bescherelle entre les fesses ça, c'est une raie verbe En vrai, tu nages dans le miel, j'suis une étoile, pas le temps de check Les guns fonctionnent, l'air est froid comme par temps de gel Ta démarche chancelle Shoot l'intello dans la gorge, pas la faute météore, y a un énarque en ciel Je peux faire le savant publiquement, c'est tout confort Tu seras le mec le plus intelligent uniquement si tout le monde sort J'ai vie de king comme viking de cité d'Asgard Ta vie victime dans ta cité, le shit, c'est ce que ton ass garde Je suis le best de ce jeu Tes potes t'ont menti quand ils t'ont dit Teste-le Phases, flow, bars, joke je fais ce que je veux, mes lines pètent le feu T'as pas ce qu'il faut pour être au niveau du Gangseuleu Maadou, viens, on s'décale et on s'parle entre couilles Tu parles souvent de ta bite mais, la, c'est gravement fourbe C'est surement un complexe, t'as plus d'erection depuis qu'tes parents t'touchent Et, meme si, la, moi, j'm'en fous de la grosseur ou du poids de ta teub J'tenais a dire qu'a part Cheef et Lamanif t'as pas d'membre lourd Puis tu fais tout payer, les nouveaux du LC, les gerants de terrains, meme tes gars, j'm'en doute C'est lachement fourbe et gravement flou Tu ferais payer tes parents pour qu'ils t'passent de l'argent, dude Tu ferais payer des garces en soum, des cadrans d'Mouv' Pour de la pub' ou faire ta campagne, sans doute Tu vendrais ton cul pour du ble cash sans doute Faire des crasses en douce sur tes pactes en cours J'ai juste un truc a dire les gars, profitez des battles avant que le ROAR win et parte en bourse Ici, y a que des snipers, et le cameraman t'a dans l'cadran, cours J'ai des armes en coups par cou J'vise la jugulaire, coupure, sang sur la cam, comme s'il y avait des blames en cours T'es pas une strip-teaseuse, mais j'te mets des balles dans l'boule J'suis pas mathematicien mais tireur, j'ai quarante douze Toi gangster ? Ton flingue sans khey, pas d'akimo comme s'il avait pas d'grand cous' Toi Gangseleu ? J'te defonce, t'es seul, bang, tu les cales en douille Pourtant, dans les battles, t'as engendré deces sur des c, comme un Crip Mais les vrais parlent entre Bloods Donc c'est pas l'ivresse mais l'vertige quand il voit les bar' entre nous Puis tu t'es fait peter avec ta cons' au RC 11, j'regrettais ca dans l'12 Au comico, à force de chercher tes mots, on aurait dit qu'y avait un Scrabble en cours J'ai rien fait, j'ai rien fait, t'as surement invite Esope, Wolff, pour faire croire sans l'loup Tu disais J'ai rien fait, j'ai rien fait, le flic te demandait Pourquoi tu m'parles en Groot ? Moi, les poulets, a l'inverse d'un vegan, j'en fourre J'pourrais venir penard, pantoufles, petard en bouche Parce que j'viens avec des bars en crew, j'sais pas, j'm'en fous Là, t'es comme chaque acteur qui quitte un tournage mort dans le scénar en cours Kazuhira, j'vais te casser la bouche, là, t'oublieras Ce nom tout bizarre quand tu t'assoupiras Ce battle n'aboutira à rien, Maadou te pliera, t'as l'air d'un clafoutis gras J'te la mets en douceur, Kazuhira, ta mère en scooter, La Zoubida P'tite bouille, minois Une couille, mi noix Mais, dis-moi, t'as une ligue de battle à Nîmes, c'est un p'tit ROAR J'tire dessus de façon frénétique, c'est un tiroir Tu le fais mal, façon contrefaçon chinois Mime-moi, même si t'avais mis moi avec mille moi pendant mille mois avec tes fiottes Nîmois, vous serez ni mes potes ni moi Dis-toi, tu prends une sale dose, p'tit noir dans ta gueule, c'est l'heure de ta pause Je fais craquer tes os comme si j'étais l'arthrose Je comprends pas bien que ce lâche ose T'es pas de la famille à Dam's, je vais te couper la main comme si c'était La Chose Bigre, bon sang, y a odeur de bite, t'es pas clean, on le sent J'te tire par les cheveux sur le lino, cent coups, pas de blabla, j'suis pas innocent J'te tranche le cou au-dessus de ton verre, je lie ton lean au sang J'mets en sang ce fayot Toi, quand tu mouilles le maillot, bah tu te mouilles de mayo Va me chercher un pack, man, j'te punch c'est Manny Pacquiao J'ai les skills de Sangoku, toi, tu manies pas Kaio T'es venu faire la guerre, tu repars en paix Chargé h vingt-quatre sans veille Balle dans la tête avant que l'arme s'enraille Tu montes au ciel sans ami, t'es une âme sans rhey Je t'abats, p'tite merde Un autre tome de ton texte, c'est un cache-misère Sur quatre seize, on n'entend que des balivernes C'était le printemps de ta vie, déjà dans ton crâne, la balle hiverne Masque-moi ce toupet de bâtard bourré C'est rien, j'vais te 3agar, pour toi, pas de playa, poupée J'te shoot en R1, la balle va tourner Au milieu de tes reins, j'suis Yaya Touré Les autres ligues, j'ai le AK des Balkans, ils sont de Bulgarie J'leur donne ni repris ni crédit, j'ai plus d'amis C'est bad, ça me tue, ils vont avaler, z'ont perdu le pari Je répète le Aka ouvre le bal quand ils ont bu le Gary Tu passes ton temps sur YouTube a faire des lives où tu pars exprimer tes vux La verite, ca serait plus instructif si tu streamais des jeux Me sous-estime pas, c'est pas parce que j'hesite que j'fais rimer des euh J'vais devoir te faire fermer ta bouche, te coller les levres comme si j'excisait des teuchs Tu t'prends pour un philosophe comme Épictete et Freud Mais tu t'appelles Maadou, tu fais du battle rap et tu fais des flips de mes deux Faire payer les nouveaux du LC pour les repayer au ROAR ca, c'est un deal de véreux Prendre de l'argent pour en rendre le triple t'es quoi ? Un juif genereux ? Ta femme, elle se maquille, elle est cheum, sans lifting, elle est fripée, degueu' Quand elle a de la tristesse, elle pleure du Rimmel des yeux Mais, quand elle a un ventre petit et tres creux, tu fais la cuisine et c'est l'zbeul Prepare gaziniere et skeud, prends la marmite et mets l'feu Tu mets des radis et des ufs, des frites et des bleus Des vaches bovines et des bufs, mijote leurs cuisses genereuses Oublie pas les poitrines et des queues, pour s'empiffrer, c'est mieux Rajoute le chibre des émeus, du cidre et des meules Mets tout ca dans de l'huile tres neigeuse, quand tu le fais frire, c'est cremeux Assaisonne-le d'un fond de thym pour que ca devienne le clip des make-up J'te mets a l'amende comme si t'etais chleuh Tu passes ton temps a boire des bieres et draguer des pauvres, à tiser les gueuses Dans mes seize, j'y mets mes tripes, comme un champi' veneneux Decouper des morceaux d'merde avec courage, c'est le seul moyen de faire tripper les lepreux J'vis pas dans c'monde, j'cohabite avec antithèses et zeugmes Toi, tu peux faire de beaux reves, loin de mes entites, serieux Moi, ma pilule rouge a matrixe mes feutres toi, t'as pilule bleue sert a exciter les vieux J'leve la main, pour le mjolnir, attirer la foudre et decimer les nerds J'fais plus de raids qu'un viking qui part au large exprimer ses meurtres J'ai la confession des nordiques, j'aime estimer les feux T'as pas les croyances d'un Ragnar rock, t'es pas l'heritier des Dieux Sur tes stories, tu penses avoir raison mais t'as Thor Prends ta dose de méthadone pour eriger des gueux Te battle, c'est pas mon apogee, j'aborde le Bifröst, alors J'pars accomplir ma destinee, serieux Je suis le Dieu du tonnerre, j't'accorde Ma foudre et ma force, et ce meme si t'es Zeus Si j't'offre c'te guerre, c'est pour que t'étoffes et récoltes des éloges J'veux qu'tu t'portes fier, je ferai de toi un homme J'suis àl, chie le mystère, y a de l'or qui sort quand je frotte le fer Respecte-moi, en un battle, je fais plus pour toi que ton propre père Je te donne d'autres repères Dans la vie, quand tu gagnes, un autre perd Tu vas le répéter à ta mère, je suis ton autre père Tu vas te dépêcher à la messe, il te faut un Notre Père Qu'est-ce tu comptes me faire ? Quand j'te vois, j'ai le stress T'as un corps de go, des cheveux de go Fait que, quand t'es de dos, les gens regardent tes fesses J'te charge, t'es dead, et tous mes gars acquiescent T'es fou, t'es de la jaquette, tu dois bouffer de la braguette Je vais pas louper la tapette J'te rafale jusqu'à ce que tu sois habillé de plomb Full Metal Jacket J'ai sorti le parabellum Personne m'arrête devant ta femme, j'suis imparable bel homme Vise-moi, dis pas Je déconne, la prune dans le visage détonne Le flash t'envoie sur la Lune, je t'allume comme le village d'Akon Non, négro, je tombe pas Ces p'tits-là, ils font trop les chauds, bombent pas T'as des gros défauts, on le voit, retourne étudier l'Empire austro-hongrois Je brise le dos de ta bitch comme seuls les ostéo' ont l'droit J'vais te marcher dessus comme si t'étais la scène Ta bitch pue du bassin comme si c'était la Seine Action, réaction, retour, ça, c'est le larsen J'suis pas dans le son, ça, c'est la flemme Si t'es pas bon, c'est la dernière fois que tu vois le Lyon ça, c'est Bassem J'te gère facilement comme si t'étais le trac Le chargeur est plein, t'en prends six dans l'bide comme si c'était le pack J'te frappe dessus comme si t'étais le sac Ça fait round sur ton crâne comme si t'étais le pape Je suis le best de ce jeu Tes potes t'ont menti quand ils t'ont dit Teste-le Phases, flow, bars, joke je fais ce que je veux, mes lines pètent le feu T'as pas ce qu'il faut pour être au niveau du Gangseuleu</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La même</t>
+          <t>Freedom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Paraît qujai changé Jentends les langues ici et là se délier Paraît quon se connaît En vérité on ne sest jamais croisés Et tu le sais, tu le sais, tu le sais Et cest plus fort que toi dinventer Des liens qui te font rêver Et tu le fais, tu le fais, tu le fais Soudain les gens te prêtent de lattention Cest XXX vers ce que tu cherchais Quest-cque tu cherchais ? Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Arrête de sourire, tu fais semblant On le sait, la roue tourne, tout se sait Tout se dit, tôt ou tard Ils nsarrêteront jamais Je vois des gens qui parlent, sans arrêt Prêts à tout pour déformer la vérité Cest la même, tous les jours cest la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu le vois, tu le sais, tu lentends Moi je reste la même Quoi quon dise de moi Pour les miens je reste toujours la même Tu diras qutétais pas au courant Moi je reste la même x2 Solide, malgré le temps qui passe Jreste la même, quoi quon dise Ya des gens qui parlent Ils nsarrêteront jamais Jsuis désolé dinnover Jsuis désolé dinnover Billets violets sont nos lovés Billets violets sont nos lovés baby Oui moi jai fait bande à part Non jnai pas signé le pacte Nos ganaches à nous ne passent pas Tas flairé le poisson, mais tessayes encore Comme un con, de lnoyer dans leau Tu mverras jamais loser Tu mverras jamais loser, oh non Cqui mmotive cest de foutre le seum aux loux-ja Yeah, H dream, Vitaa Tes pas prêt Tous les jours cest la même Jsuis désolé dinnover Jsuis désolé dinnover Ça spasse, tu connais Tous les jours cest la même Ça bouge pas XXX Quoi quon mdise Cqui mmotive cest de foutre le seum aux loux-ja</t>
+          <t>Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Je suis sous les ordres de personne En dehors de ceux du Tout-Puissant C'est pour ça que peu de gens me résonnent Et que peu de choses me donnent des frissons Je n'ai pas chauffé le banc de l'école Mais plutôt mes mains sous mon blouson Ce n'est pas l'acné qui me désole Mais dormir dehors me donne des boutons Ça fait un bout de temps qu'j'ai les mêmes baskets Et le bonhomme a bien trop d'honneur, simule le bonheur Je n'crie pas Mayday Et des gens biens sont venus m'aider souvent Oui, souvent Oui, souvent Oui, souvent Oui Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Je ne suis pas né en Occident Je suis arrivé par accident Maman voulait que son fils ait un avenir Obligé de quitter le navire Papa, lui, est resté impuissant Difficile de retenir son fiston Lui proposant le rêve africain Mais ici tous mes rêves ont pris fin Et j'enchaîne les petits boulots Eux qui me voyaient derrière un bureau J'ai la tête sous l'eau, me transforme en bourreau Sauvé par le dîn, mais noyé dans l'son,meskine Mais j'suis là Mais j'suis là Mais j'suis là Mais... Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? J'ai grandi dans l'horreur des expulsions J'ai dû m'adapter sous la pression Il a fallu qu'mon père quitte la maison Et que le grand-frère parte en prison La daronne disait Le prends pas pour exemple Tu n'es pas mauvais garçon Et t'es la fierté Gandhi, fais-nous rêver Donc il a fallu sortir les classeurs J'me suis concentré, je n'ai pas pu le faire Le majeur pointé vers le système Pourvu qu'mes sons te sortent de la misère, j'espère Donc j'essaie Donc j'essaie Donc j'essaie Donc... Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom2</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Corazón</t>
+          <t>Tu ne le vois pas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rien de méchant</t>
+          <t>Le pire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro J'veux une Audemars sur l'poignet du Padre Mais c'est pas l'but frèro faut bien cadrer J'suis pas une lumière mais j'sais que j'finirai pas à l'ombre On s'contente de ce qu'on a, la vie n'est pas à Londres Laisse pas traîner ton fils la rue est pédophile Psychopathe, psychologue, car elle t'aide aussi Résultat j'vais m'en sortir et crois pas qu'on est peu Mais on est soudés comme les doigts de la main d'un lépreux J'avoue j'ai des milliers d'idées, oui mon style est inégalable Moi et tous mes gars là, on a fait un carnage Éliminé, illuminé, plus d'un millier d'MCs J'veux des millions ralsi pour ma lignée J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Venez venez, j'vais vous montrez mon environnement les amis Ici y'a des fous, des génies, des mecs qui tombent pour des années J'suis pas là pour faire le Damné, si c'est l'royaume des invalides J'aimerais juste avoir un Vélib, ONE MILLIONS D'DOLLARS BABY Désolé j'ai des idées indécentes, j'vais pas t'faire un dessin Glige-né comme un gitan, y'a cette voix incessante La richesse est tentante, le doigt sur la détente C'est un hold up, LET'S GO ! J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Mon premier seize, akhi j'étais sous ke-skun J'n'avais même pas de quoi me payer rien qu'un putain de kefta Des MCs en guise de casse-dalle Bande de fils de... On vise le cristal J'veux changer d'vie moi, putain de villa Trop d'de-mon sur la ligne 4, oui je le vis mal Ne m'appelez pas la re-sta, j'ai rien d'un Busta Mais j'suis pas fait pour les restes, ni pour être en guest star Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine, j'le dédicace à Nicolas Sirkis Smiley, smehli, les gros yeu-z en personne J'comprends tout à fait pourquoi ton équipe a un tel seum C'est Maître Gim's en direct du bled french kiss Toujours rien à foutre de c'que les gens pensent, disent Mon entourage vise bédo, go, cash, tise Pendant qu'oi-m j'fais des tubes à la Black Eyed Peas J'veux changer d'i-ve, crick crick .. FREEZE ! Classe E Merco, Audi, tchu, tchu... DREAM Oops ! J'suis dans Closer, on m'a Entrevue en Public J'suis Le Parisien qui fait trembler Le Monde J'veux changer d'vie mais rien d'méchant J'veux juste du biff mais rien d'méchant Le but c'est pas des bêtes de jantes Le bonheur c'est pas d'vivre sur les Champs J'ai tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout c'qu'il fallait Tout c'qu'il m'fallait Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Tout le monde est complètement paro Oui forcément on t'fera des sons d'bâtard Comme les trois frères, on veut les cent patates Oui forcément on t'fera des sons d'bâtard Comme les trois frères, on veut les cent patates Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine j'le dédicace à Nicolas Sirkis Y'a rien à tter-gra frère, ici c'est mieux que tu circules Prochain platine j'le dédicace à Nicolas Sirkis -Eh, mais les gars, c'est-c'est-c'est qui Nicolas Sirkis en fait ? -Oh, j'sais même pas, poto, en vrai. On s'en tape ! Rires - Allez circule !</t>
+          <t>Dounia hania De leasing en leasing, un virage, un looping La mort fait son listing, tarrache de ton living Scène triste anodine, un linceul sans le Din Burning Khaleddine tu msuis pas ? Fais reset De looping en looping, on sécroule sous nos peines Donc on arme le flingue pour changer dmise en scène Suis la Seine, assassine, où ça saigne cest dingue Létincelle celle-ci, un ient-cli, une seringue Jvous épargne les suicides sous acides Les peines lourdes aux Assises, la C.C, le V.I.H si si On rêve dêtre clean, court après lestime Argent sale, sexe, crime linstinct de mort sexprime Jsuis venu faire mon shopping jsuis ni lAs, ni le King Ni Apache, ni le Viking, pour le cash cest fucking Police comme Sting dans les coulisses stress File un bolide, feu rouge, ça sbarre en car-jacking Jcontinue mon meeting, sous le signe du Yin Dounia fait son lifting, cramée comme un tunning Seul en scène sur le ring, jsuis Rocky et John Rambo Les couche à chaque rumble, que la concurrence remballe Jsuis paré au combat, jviens den bas Vlà le come-back donc fermez vos grandes gueules Bref, pé-fra pas lingé, ton rap est flingué, nveut rien dire Blindé de lacunes comme un CM2 Ça parle sur mon dos, cement-dou, c'est de l'indé Bande de petits merdeux, handek ça fait bang yeah ! Jtourne en rond comme un single Oups et je dégueule un mélange de MC et de Pringles Ma gueule, ma gueule ! Ta gueule, tas un gun ? Vas-y tire ! Jte donne une couille si tas perdu lune delles Bref, Dounia cette salope elle venu me voir dans mon salon Ma dit H ! Moi jai le bras long, tinquiètes tiras pas au ballon Vends du pilon, reste en bas, longe les murs, tu prendras du galon Comme chez nous jamais on sdéballonne, donc on tombe dans lpiège, on galope Sur le terrain y a trop de salopes, ça alors y en a dans le Hip Hop Qui commencent en caleçon et qui finissent avec une culotte yeah ! Mon login 7.5.0.X exit Jdéboule super chic, ces relous jexcise Les rageux sexcitent, tas reconnu le style Moins 1 sur 76, D.S.L jexcelle Jacte et check ça, cest hassé, je lsais Tasspés ? Jbaise pas ! Beyoncé ? Khanza Entouré dcal-cha, loin dla vie dpacha Hechem ! Khabat, tas même pas fais la 'Icha Des fois jveux cher-lâ, jme demande Quest-ce tu fais là ? Tu seras pas Rockefeller dans ce pe-ra pas très hallal ! Anti-chalab, me propose pas ton chalal Petite chérie sur mes épaules, trop de halam, craint les flammes ! Microphone check, wesh wesh, cest toujours Paname À tous ceux qui se pavanent, 2-3 pavés fils de yeah ! Big up à Saddam, on vient passer le Salam et le Shalom Coup dsavate et je tétrangle avec une cravate Ptit coup dCB, jrêve plus depuis le CP Rappe même plus pour cer-per, pourquoi alors ? Jsais pas Si tu sais, chapeau ! Peut-être pour faire les 100 pas Et mbarrer comme un sans-pap', en plus ce game jle sens pas Jsuis paradoxal comme Bettencourt qui rêve dun sche-Por Ou Jeannot Sarkozy qui traîne au tier-quar sous un che-por Pire, comme ce MC qui smet des comm' sur Booska Oh ! Ton front au sol ? Oh ! Accroché sur un Raptor Mais putain mais putain, cest pas tout Les petites nont plus ltemps, ça tapine à mi-temps à mi-temps ! À mi-temps jen ai vu ce matin le visage tuméfié Dounia faut sen méfier sen méfier Sen méfier bref, lyoum al-Qiyamah mattend On nvit pas plus de 100 ans, Dounia la meuf de Satan Moi jchangerai pas le monde avec mon statut dintermittent Je marche avec des mutants qui smaintiennent sans métier Jveux voir Besson à mes pieds, les cistes-ra aiment nous épier Ma religion, la défier, en sont fiers, perdront pied Cest dans leurs cauchemars que le haq ex justice fait son effet Tapes, c'est sans effet, chaque jour un décès Quant aux femmes elles sont sacrées, ton corps nest pas quun escalier Qui fait monter au 7ème, on scomprend ? ... À moitié Trop machô jprendrai une 4ème nan jrigole... À moitié Sous ma douche un émetteur, putain y a plus dpudeur Moi, loin dêtre un héros, jviens des zones sous l'gyro Tplante pour 500 , trop dshit plus dneurones Loin dêtre pieux, pas yép, jaime pas puer des ieds-p Jaime le confort cest pas ienb, jme comporte comme un païen Paris la nuit ça caille hein ? Quand tas les moyens, tu pilonnes Après ça, tavais quà pas prendre un Cayenne ! Re-fré le monde est cynique et le cool-al nous désinhibe Merde le Diable embellit Zin, cet enculé siège au Sénat Esprit vénal, affaire pénale, petite cavale, pris en tenaille Bé-tom sans maille car Dounia nous baise au final, instinct de fauve Dounia hania Factor, la sauce 7.5 Gotham City H Magnum Loudschool, Criminel au bon son Sexion d'Assaut 9ème zone Paroles rédigées et expliquées par la communauté RapGenius France5</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mon Coeur Avait Raison (Pilule Bleue)</t>
+          <t>De Marseille à Paris</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>J'pense que j'pourrais plaire à Rell-o, Medhi Nem, Jo Hell, Cheef, Nelson, Espy, Saminem, OD, puis Zed, Brrown, Eris, Lezko, Sedj, Deel N'Joy, Airjee, meme Obelix Si j'm'en battais pas les couilles de m'faire sucer par trop d'MC La, j'deconne, mec, oui, Maadou Live, la chaine trop epique T'aimes bien les YouTubeurs qui renaissent de leurs cendres mais, là, c'est trop penible Lors de mon jugement au ROAR Selection, c'etait Maadou Gangseleu et N'Joy phenix T'es aphone mais faut qu't'ecrives des gros récits, c'est faux, mais j'dis Qu't'es pas a cheval sur les phonetiques, les phonemes, les rimes T'es le pire Hamid, comme un depot d'Egypte Tu peux rugir, t'es pas un sphynx, t'es pas Leo mais tigre Les vents qu'tu t'prends, c'est l'apocalypse, pour moi, t'es trompettiste Le lion pourrait se faire tuer dans l'arene par des Roms aigris Tu veux rentrer dans la legende comme une chimère mais vois qu'une mere lionne féline Faut pas que tu régén' trop tes vies, j'vais te dissoudre plein d'fois Tu begayes trop tes rimes ça, c'est le discours d'un ROAR T'es a la tete de ta ligue et tu t'prends pour un vrai gros messie Mais arrete d'insulter ou de rabaisser les autres parce que, la, tu fais trop l'mec street J'ai dit Le Discours d'un roi, j'vais t'apprendre a parler comme un neo messire Trouve les mots justes, moi, j'aimerais voir ce sir concis comme des peau d'penis Et, si t'es Obelix, j't'encule avec des sex-toys menhirs Faut que tu m'obeisses, tes tampons seront des obélisques Je survole tous les bas vux comme un heros, genie Eh, vielle branche, toi, tu dis pas les ados baisent mais les corps s'déciment J'vais ecarter mes bar' haut, sur ses notes, Bellick, Theodor et Link T'es pas de l'or noir, t'es pas Kaaris, tu suis pas la bonne melo épique J'te laisse au fond du trou, dans la fosse aux lions comme Daniel, respecte les propheties Tu vas crever a la surface, on refait tout avec des si, moi, quand j'ai tort, j'hesite A chaque fin d'inspi', tu laches des puits sans fond, donc je laisse le petrole gesir Tu t'appelles Naïl mais j'te calcule pas Si j'te voyais du mauvais il, je dirais tu portes l'aïn comme la plupart Naïl, j't'ai pas vu, ce soir J'sors le nine, shoot les Nike pour que Naïl n'aille nulle part Coupe-moi ces cheveux, on dirait un vieux tahr Les Forbans T'es si précieux, c'est forcé, c'est tordant T'es des deux sortes, nan ? Ce bi joue, je vais le soulever sans jamais porter de l'or blanc Attends que Maadou s'y mette, dis-moi Merci, maître J'arrive salé, gras comme ton épiderme, j'vide chargeur dans ta boîte comme si t'avais six mails Ta mèche fait six mètres, tu ressembles à une chimère Je dirais t'es moitié homme, moitié shemale J'suis chef de chantier, on me remercie pour les travaux T'es le chef pour changer, on te remercie pour les travelos Je me fous de ta vie, j'te baise jusqu'à ce que tu dises Je t'aime Tu es seul reubeu avec la face de Marine Le Pen Homme, femme ton cur balance, p'tit con On dirait qu'on vous force, c'est une étrange fiction Moi, je crois que j'ai capté ce qu'ils pensent vision Promotionner le mélange des genres, c'est leur transmission Ma mission à moi mon pote, de facto, tu prends la porte, c'est cadeau Ton art est factice et c'est pas drôle, depuis l'âge de pierre, on joue pas de rôle J'ai les crocs, magnons-nous de fuck le fiasco D'après l'histoire, t'as ma trace dans ta gorge c'est une glotte de Lascaux Je cherche à faire the score, j'aime les Fugees Les lignes défilent sur ta tête, ici, on aime les sous-titres J'suis de la race des tigres, t'es de celles des sous-fifres J'vais te labourer comme si j'étais sous tise J'te crève l'il avec un livre, oui, lis le Borgne, j'aime les Goonies Tu vas manger la pépite, je sais que t'aimes les cookies J'te cook easy, brise ton cou, j't'ai choisi car j'aime les rookies Tous disent que j'ai pris un p'tit pari c'est vrai, j'aime les sous mises T'es dead et faible, tu peux commencer à chercher de l'aide Je suis venu te fumer, j'ai même pas commander de l'herbe Une dégaine de bac L, ça, c'est une vraie merde On dirait que t'as un Bescherelle entre les fesses ça, c'est une raie verbe En vrai, tu nages dans le miel, j'suis une étoile, pas le temps de check Les guns fonctionnent, l'air est froid comme par temps de gel Ta démarche chancelle Shoot l'intello dans la gorge, pas la faute météore, y a un énarque en ciel Je peux faire le savant publiquement, c'est tout confort Tu seras le mec le plus intelligent uniquement si tout le monde sort J'ai vie de king comme viking de cité d'Asgard Ta vie victime dans ta cité, le shit, c'est ce que ton ass garde Je suis le best de ce jeu Tes potes t'ont menti quand ils t'ont dit Teste-le Phases, flow, bars, joke je fais ce que je veux, mes lines pètent le feu T'as pas ce qu'il faut pour être au niveau du Gangseuleu Maadou, viens, on s'décale et on s'parle entre couilles Tu parles souvent de ta bite mais, la, c'est gravement fourbe C'est surement un complexe, t'as plus d'erection depuis qu'tes parents t'touchent Et, meme si, la, moi, j'm'en fous de la grosseur ou du poids de ta teub J'tenais a dire qu'a part Cheef et Lamanif t'as pas d'membre lourd Puis tu fais tout payer, les nouveaux du LC, les gerants de terrains, meme tes gars, j'm'en doute C'est lachement fourbe et gravement flou Tu ferais payer tes parents pour qu'ils t'passent de l'argent, dude Tu ferais payer des garces en soum, des cadrans d'Mouv' Pour de la pub' ou faire ta campagne, sans doute Tu vendrais ton cul pour du ble cash sans doute Faire des crasses en douce sur tes pactes en cours J'ai juste un truc a dire les gars, profitez des battles avant que le ROAR win et parte en bourse Ici, y a que des snipers, et le cameraman t'a dans l'cadran, cours J'ai des armes en coups par cou J'vise la jugulaire, coupure, sang sur la cam, comme s'il y avait des blames en cours T'es pas une strip-teaseuse, mais j'te mets des balles dans l'boule J'suis pas mathematicien mais tireur, j'ai quarante douze Toi gangster ? Ton flingue sans khey, pas d'akimo comme s'il avait pas d'grand cous' Toi Gangseleu ? J'te defonce, t'es seul, bang, tu les cales en douille Pourtant, dans les battles, t'as engendré deces sur des c, comme un Crip Mais les vrais parlent entre Bloods Donc c'est pas l'ivresse mais l'vertige quand il voit les bar' entre nous Puis tu t'es fait peter avec ta cons' au RC 11, j'regrettais ca dans l'12 Au comico, à force de chercher tes mots, on aurait dit qu'y avait un Scrabble en cours J'ai rien fait, j'ai rien fait, t'as surement invite Esope, Wolff, pour faire croire sans l'loup Tu disais J'ai rien fait, j'ai rien fait, le flic te demandait Pourquoi tu m'parles en Groot ? Moi, les poulets, a l'inverse d'un vegan, j'en fourre J'pourrais venir penard, pantoufles, petard en bouche Parce que j'viens avec des bars en crew, j'sais pas, j'm'en fous Là, t'es comme chaque acteur qui quitte un tournage mort dans le scénar en cours Kazuhira, j'vais te casser la bouche, là, t'oublieras Ce nom tout bizarre quand tu t'assoupiras Ce battle n'aboutira à rien, Maadou te pliera, t'as l'air d'un clafoutis gras J'te la mets en douceur, Kazuhira, ta mère en scooter, La Zoubida P'tite bouille, minois Une couille, mi noix Mais, dis-moi, t'as une ligue de battle à Nîmes, c'est un p'tit ROAR J'tire dessus de façon frénétique, c'est un tiroir Tu le fais mal, façon contrefaçon chinois Mime-moi, même si t'avais mis moi avec mille moi pendant mille mois avec tes fiottes Nîmois, vous serez ni mes potes ni moi Dis-toi, tu prends une sale dose, p'tit noir dans ta gueule, c'est l'heure de ta pause Je fais craquer tes os comme si j'étais l'arthrose Je comprends pas bien que ce lâche ose T'es pas de la famille à Dam's, je vais te couper la main comme si c'était La Chose Bigre, bon sang, y a odeur de bite, t'es pas clean, on le sent J'te tire par les cheveux sur le lino, cent coups, pas de blabla, j'suis pas innocent J'te tranche le cou au-dessus de ton verre, je lie ton lean au sang J'mets en sang ce fayot Toi, quand tu mouilles le maillot, bah tu te mouilles de mayo Va me chercher un pack, man, j'te punch c'est Manny Pacquiao J'ai les skills de Sangoku, toi, tu manies pas Kaio T'es venu faire la guerre, tu repars en paix Chargé h vingt-quatre sans veille Balle dans la tête avant que l'arme s'enraille Tu montes au ciel sans ami, t'es une âme sans rhey Je t'abats, p'tite merde Un autre tome de ton texte, c'est un cache-misère Sur quatre seize, on n'entend que des balivernes C'était le printemps de ta vie, déjà dans ton crâne, la balle hiverne Masque-moi ce toupet de bâtard bourré C'est rien, j'vais te 3agar, pour toi, pas de playa, poupée J'te shoot en R1, la balle va tourner Au milieu de tes reins, j'suis Yaya Touré Les autres ligues, j'ai le AK des Balkans, ils sont de Bulgarie J'leur donne ni repris ni crédit, j'ai plus d'amis C'est bad, ça me tue, ils vont avaler, z'ont perdu le pari Je répète le Aka ouvre le bal quand ils ont bu le Gary Tu passes ton temps sur YouTube a faire des lives où tu pars exprimer tes vux La verite, ca serait plus instructif si tu streamais des jeux Me sous-estime pas, c'est pas parce que j'hesite que j'fais rimer des euh J'vais devoir te faire fermer ta bouche, te coller les levres comme si j'excisait des teuchs Tu t'prends pour un philosophe comme Épictete et Freud Mais tu t'appelles Maadou, tu fais du battle rap et tu fais des flips de mes deux Faire payer les nouveaux du LC pour les repayer au ROAR ca, c'est un deal de véreux Prendre de l'argent pour en rendre le triple t'es quoi ? Un juif genereux ? Ta femme, elle se maquille, elle est cheum, sans lifting, elle est fripée, degueu' Quand elle a de la tristesse, elle pleure du Rimmel des yeux Mais, quand elle a un ventre petit et tres creux, tu fais la cuisine et c'est l'zbeul Prepare gaziniere et skeud, prends la marmite et mets l'feu Tu mets des radis et des ufs, des frites et des bleus Des vaches bovines et des bufs, mijote leurs cuisses genereuses Oublie pas les poitrines et des queues, pour s'empiffrer, c'est mieux Rajoute le chibre des émeus, du cidre et des meules Mets tout ca dans de l'huile tres neigeuse, quand tu le fais frire, c'est cremeux Assaisonne-le d'un fond de thym pour que ca devienne le clip des make-up J'te mets a l'amende comme si t'etais chleuh Tu passes ton temps a boire des bieres et draguer des pauvres, à tiser les gueuses Dans mes seize, j'y mets mes tripes, comme un champi' veneneux Decouper des morceaux d'merde avec courage, c'est le seul moyen de faire tripper les lepreux J'vis pas dans c'monde, j'cohabite avec antithèses et zeugmes Toi, tu peux faire de beaux reves, loin de mes entites, serieux Moi, ma pilule rouge a matrixe mes feutres toi, t'as pilule bleue sert a exciter les vieux J'leve la main, pour le mjolnir, attirer la foudre et decimer les nerds J'fais plus de raids qu'un viking qui part au large exprimer ses meurtres J'ai la confession des nordiques, j'aime estimer les feux T'as pas les croyances d'un Ragnar rock, t'es pas l'heritier des Dieux Sur tes stories, tu penses avoir raison mais t'as Thor Prends ta dose de méthadone pour eriger des gueux Te battle, c'est pas mon apogee, j'aborde le Bifröst, alors J'pars accomplir ma destinee, serieux Je suis le Dieu du tonnerre, j't'accorde Ma foudre et ma force, et ce meme si t'es Zeus Si j't'offre c'te guerre, c'est pour que t'étoffes et récoltes des éloges J'veux qu'tu t'portes fier, je ferai de toi un homme J'suis àl, chie le mystère, y a de l'or qui sort quand je frotte le fer Respecte-moi, en un battle, je fais plus pour toi que ton propre père Je te donne d'autres repères Dans la vie, quand tu gagnes, un autre perd Tu vas le répéter à ta mère, je suis ton autre père Tu vas te dépêcher à la messe, il te faut un Notre Père Qu'est-ce tu comptes me faire ? Quand j'te vois, j'ai le stress T'as un corps de go, des cheveux de go Fait que, quand t'es de dos, les gens regardent tes fesses J'te charge, t'es dead, et tous mes gars acquiescent T'es fou, t'es de la jaquette, tu dois bouffer de la braguette Je vais pas louper la tapette J'te rafale jusqu'à ce que tu sois habillé de plomb Full Metal Jacket J'ai sorti le parabellum Personne m'arrête devant ta femme, j'suis imparable bel homme Vise-moi, dis pas Je déconne, la prune dans le visage détonne Le flash t'envoie sur la Lune, je t'allume comme le village d'Akon Non, négro, je tombe pas Ces p'tits-là, ils font trop les chauds, bombent pas T'as des gros défauts, on le voit, retourne étudier l'Empire austro-hongrois Je brise le dos de ta bitch comme seuls les ostéo' ont l'droit J'vais te marcher dessus comme si t'étais la scène Ta bitch pue du bassin comme si c'était la Seine Action, réaction, retour, ça, c'est le larsen J'suis pas dans le son, ça, c'est la flemme Si t'es pas bon, c'est la dernière fois que tu vois le Lyon ça, c'est Bassem J'te gère facilement comme si t'étais le trac Le chargeur est plein, t'en prends six dans l'bide comme si c'était le pack J'te frappe dessus comme si t'étais le sac Ça fait round sur ton crâne comme si t'étais le pape Je suis le best de ce jeu Tes potes t'ont menti quand ils t'ont dit Teste-le Phases, flow, bars, joke je fais ce que je veux, mes lines pètent le feu T'as pas ce qu'il faut pour être au niveau du Gangseuleu</t>
+          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Corazón (English Version)</t>
+          <t>Tant pis</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>41 5 Seconds of Summer - Take My Hand 71 Digits Flo Rida - Low A Boogie wit da Hoodie - Playa ft. Ella Bands Álex Ubago - Cuanto antes ft. Lali Alexander 23 - Crash Alfie Templeman - Leaving Today Alok Bastille - Run Into Trouble AAP ANT AAP Rocky - The God Hour Avila Brothers - A Hard Working Man ft. Snoop Dogg Billy Ray Cyrus AWOLNATION - Material Girl ft. Taylor Hanson Black Birdie - get over it Blasterjaxx - Hurricane ft. Prezioso Blu DeTiger - Hot Crush Lover BONES ghostghoul - Silverado Caitlyn Smith - Dreamin's Free Call Me Karizma - Young, In Love Depressed AF Chris Brown - WE Warm Embrace CHRIST DILLINGER - A Reflection City Girls Fivio Foreign - Top Notch Col3trane - Logan Paul DaBoyDame Rick Ross - Feelings ft. EST Gee Dave East - Game 6 East Mix Dreezy - They Not Ready Edan Lui - Elevator ELIO - Vitamins EMELINE - cinderella's dead Fred De Palma Justin Quiles - ROMANCE Freddie Gibbs - Ice Cream ft. Rick Ross Foals - Looking High G Perico Dave East - Half A Bird Gavin James - Circles Geowulf - Drown Gryffin OneRepublic - You Were Loved Gucci Mane - Blood All On It ft. Young Dolph Key Glock Hardwell - Into the Unknown Harry Styles - As It Was Hotboii - All I Know Isaac Dunbar - Tainted Love Jaycoma WILLSØFR3H - 12 AM Remix Jenn Morel - Tempo Jewel - Living With Your Memory Joyner Lucas - Ye Not Crazy Jubël - So Sick Keith Urban - Nightfalls Kiiara - Microdose La Duraca - LA VIDA Leven Kali - LET IT RAIN Lil Eazzyy - Nothing Left Lil Tjay - In My Head Liam Gallagher - C'mon You Know Llane Omar Montes - Sueño Lucki - MEET ME THERE Lupe Fiasco - 100 Chicagos Martin Garrix MESTO - Limitless Masked Wolf Bring Me The Horizon - Fallout Matisse - Un Nuevo Amor Matoma A R I Z O N A - Heart So Big Nascar Aloe - IPA Natanael Cano - Estrellas Never Broke Again - Pull Up Actin ft. YoungBoy Never Broke Again P Yungin Nightly - hate my favorite band NLE Choppa - Yak Flow Olivia O'Brien - Bitches These Days Onlybino! - Wya Freestyle Peces Raros Trueno - Cicuta Remix PGF Nuk - Waddup Remix ft. Polo G Phabo - Before I Let Her Go ppcocaine - Homie Hopper Rae Morris - Running Shoes Rahky - Get Out Sarah Close - Gettin Older Slatt Zy - Feel It In My Soul Sofía Blumer - Solita en la Playa SOFI TUKKER - Kakee SOG, Ryan Castro Totoy El Frío - La Nueva ft. Blessd, Nath Natan Shander Steele 11 - THROW UP! Tee Grizzley - Buss It All Down Thomas Rhett Katy Perry - Where We Started Tory Lanez - Florida Shit Unlike Pluto - Shelf Life Wiplash - Ana Wiz Khalifa - Iced Out Necklace Young M.A - Tip the Surgeon Kanon, DJ.Silence - Mavro Poiniko 42 Summrs - bird allegiance 43 Apethantos, Thitis - BERSERK John Legend - FREE Masicka - History 44 August Alsina - Shake The World AURORA - The Woman I Am BANKS - Meteorite Jan Curious - Good Morning ft. Eric Kot J Arias - Si Supieras Lil Darkie - RUN MKULTRA - It's About Time Rose Gray - Last Song Santa Fe Klan - Mar y Tierra Triple G - Wonder vf7 Lyanno - Ya No Es Wet Leg - Ur Mum 45 10Tik Skillibeng - Activate Anna Calvi - Ain't No Grave Asian Doll - Fell In Love CXRPSE - LEASH DESTIN CONRAD Kiana Ledé - Unpredictable Doodie Lo - FACE Janice Vidal - In The Wind Juliana Humbe - Muchachitos L-Gante DT.Bilardo - SUSY 420 Lizzy McAlpine - hate to be lame ft. FINNEAS Mandy Moore - Little Dreams Martin Garrix Vluarr - Reboot ScHoolboy Q - Soccer Dad Taylor Bennett - Fall Short TOPS - Perfected Steps XANMANHAWTY Bleachdiego - Picture Perfect Wallice - 90s American Superstar 46 Acid Souljah - Captain Beefheart BANKS - Deadend BRUHMANEGOD - oxygen Danntik Santa RM - A Mí DDG - Whiskey Freestyle El Alfa, French Montana Braulio Fogon - Máquina de Dinero ft. Kaly Ocho Jalle Issey Cross - Downers Kris Floyd - Cuentas Claras Lele Pons Kim Loaiza - Piketona Lil Gotit - She Know It Melody's Echo Chamber - Alma Netta - - I Love My Nails Panther Chan - Embrace Yourself Paulo Londra - Chance Pusha T - Neck Wrist ft. JAY-Z Pharrell Williams Rei Mesita - RAM PAM PAM Rolling Blackouts Coastal Fever - My Echo RUGGERO - YA FUE Stunna 4 Vegas - M M ft. Sneezo Quixk Ola Runt Suki Waterhouse - Wild Side wifisfuneral - Honeybunz Wiz Khalifa, Big K.R.I.T. Girl Talk - Ain't No Fun WOS - ARRANCÁRMELO 47 Alicia Keys - City of Gods Part II Alison Wonderland - Forever Blessd - Instagram CB - Rap or Road Cian Ducrot - All For You CNCO - La Equivocada D.OZi - Javy Báez 'El Mago' DJ Nelson, Jay Wheeler Sammy Baby - Loco Por Verte ft. Alejandro Armes Ethel Cain - Strangers FKJ Santana - Greener gizmo - Flesh Made of Flaws iamamiwhoami - canyon ft. Lars Winnerbäck Interpol - Toni Jotaerre, KAROL G Alejo - Un Viaje ft. Moffa Kevin Roldán DEKKO - Perreito Under Khalil? - LO NE LY KYSLINGO - Cold Turkey Lefty Sm - Original Lime Cordiale - Facts of Life LIT killah, De La Ghetto L-Gante - KU' Mariah Angeliq - Hey Siri Miranda Lambert - Actin' Up Nickoog Clk - En el Jacuzzi Nico Mastre, Brray Cris Mj - Beso de 3 Oh Wonder - Fuck It I Love You Ozuna Boza - Apretaito Revol Darell - Dónde Estás Skylar Grey - Show Me Where It Hurts Soulja Boy - Hold It Down Travie McCoy - Stop It Vance Joy - Clarity Vivian Chan - Taj YOVNGCHIMI, Eladio Carrión Hydro - Glizzy Walk 2.5 48 24kGoldn - SCAR ft. sokodomo 7xvethegenius - Always Thank God ft. Trae tha Truth 7xvethegenius - Numbers Adri Torrón - Háblame Claro Alice Merton - Blindside Allison Ponthier - Autopilot almost monday - sunburn Ángela Aguilar - Always On My Mind Banda Sonora de la Serie Amsterdam Animal Sun - I'M ALREADY DEAD ft. DREAMERS Armin Van Buuren Billen Ted - Come Around Again ft. JC Stewart AUGUST 08 - 500 Days Awgust - Boys Don't Cry BAD NEIGHBOR - Vampire Diaries ft. Lil Tracy Bankrol Hayden - Fuck Love Bankroll Freddie Icewear Vezzo - Pickin' Sides BIA - LONDON ft. J. Cole BIGBABYGUCCI - Outta State BigKayBeezy - Misfit Big Yavo - Cabbage Patch Bishop Briggs - Art of Survival Bishop Briggs - High Water Blackinny - INTRO Blac Youngsta - Cant Spell Brett Young - Long Way Home Cally Rhodes - Life is Hard Camila Cabello - psychofreak ft. WILLOW Carrie Underwood - Denim Rhinestones Charlie Puth - That's Hilarious Charlotte Jane - 10 percent Chenzo y Dezz ElDiez10 - Pa' Verte de Nuevo Chlöe - Treat Me CORPSE - POLTERGEIST! ft. OmenXIII Crissin - Ácido DAGames, Saster - Freaky Machine Dalmata, Totoy El Frio PJ Sin Suela - D.A.T.A. Dani Barranco - cuando un te amo es triste David Guetta, Becky Hill Ella Henderson - Crazy What Love Can Do Doechii - Crazy Drippin So Pretty - Betrayed EDDISON Afourteen - Cullinan Eliza The Delusionals - Halloween Empress Of - Save Me ericdoa - lifeline FCG Heem - Headlock ft. Hotboii Fousheé - double standard Fran Mera - Buchanan's G Perico - It's Over Gente De Zona Carlos Vives - El Negrito George Cosby - Paris Gonzy - Uno Pal Otro Gracie Abrams - Block me out Greta Isaac - PAYRIE Guapdad 4000 - Black Iverson - A COLORS SHOW Hackle - DUMBO ft. Buckshot Hanna Emilie - Stay Numb Haywood - Human to Fall Apart IDK - Taco Imanbek salem ilese - Married to Your Melody Jace Chan - Long D Jack Harlow - First Class Jack Johnson - One Step Ahead Jim Jones, Lil Wayne DJ Khaled - We Set The Trends Remix ft. Juelz Santana Migos J.I The Prince Of N.Y - Toxic Kaien Cruz - Anything U Want Karen Méndez Juacko - Fotos Kate Stewart - Numb Kelsea Ballerini - HEARTFIRST Kenyon Dixon - Get High, Get By ft. D Smoke Koe Wetzel - April Showers Lauv - All 4 Nothing I'm So In Love LeAnn Rimes - how much a heart can hold Lil Baby - In A Minute Lil Baby - Right On Lil Boom - Yesterday Lil Dan Brray - Ella Quiere Lil Zay Osama - Real Pain Lola Indigo - Toy Story LØLØ - Junkie Lostboycrow - Chewed Up Maggie Rogers - That's Where I Am Marty Fernanda - 365 Matteo Bocelli Sebastián Yatra - Tu Luz Quedó Maude Latour - Lola Metteson - Second Heart Mike Posner - Home Milow - How Love Works Navos Galantis - What It Feels Like ft. YOU Nickgeorge - Joseando ft. Alejo NLE Choppa - Sleazy Flow Freestyle NO1-NOAH - Bonjour ft. Summer Walker Noah Cyrus - I Burned LA Down Omar Courtz - En Tu Cuerpo Pol Granch - No Te Bastó, Mi Corazón Pollari - 4AM in Agoura Portion - Eastside ft. Toosii Powfu - draw you inside my book Prentiss - let myself go Rapeton Approved Sael - Del Mar Rexx Life Raj - Jerry Curl ft. Larry June Rhys Lewis - Alone Rocco Hunt, Omar Montes Reik - Solo quiero dedicarte Rowdy Rebel - Rowdy vs Rebel Royal the Serpent - Happier In Hell Saak - Delicuente Sasha Alex Sloan - I Blame the World Scarlet Pleasure - TO DIE FOR Sig.Carlito - best P Simple Plan - Wake Me Up When This Nightmares Over SKAAR - Get Him Away From Me Skylar Stecker - What's Good ft. Tone Stith Slump6s - Own It Spacey Jane - It's Been a Long Day Spice, Demarco Meeka - Jiggle The Faim - ERA The Knocks - Bang Bang ft. Donna Missal TIMØ Pitizion - Canción de Amor Tyga - Lifetime Unlike Pluto - Have Fun will hyde - i always end up leaving. Zelly Ocho - Section 8 ZHR - Something Aint Right 49 Tory Lanez - Mucky James wolfacejoeyy - gi joe 410 BasedNas - China Vibez ft. KAHDAMI Since99 L-Gante Homer El Mero Mero - Cementerio ft. DT.Bilardo Al Records MKULTRA - In My Toilet 411 Charmaine Fong - HW1 EDDISON CJ Hunter - Go Little Big Town - Hell Yeah Sig.Carlito - i can die Uffie - sophia 412 100 gecs - Doritos Fritos Dear Jane - Waltz Of The Damaged EDDISON - on go ft. drownwithtoga Five Finger Death Punch - AfterLife Interpol - Something Changed Jamie xx - LET'S DO IT AGAIN Lil Pump - All the Sudden Malucci - 3 y Pico Martin Garrix Matisse and Sadko - Good Morning Martin Lora Arlene MC - Tu No Cambia Matilda Mann - Nice Muni Long - Another paopao iZaak - qué nos pasó? ROBI - Robot Tayc D O D O Adekunle Gold Version ft. Adekunle Gold TOKiMONSTA morgxn - Loved By U wifisfuneral - Let Me Fly 413 Alfie Templeman - Colour Me Blue Belle and Sebastian - Young and Stupid Danny Beau - text back Eix, Dalex Juhn - Tour Remix Faye Webster - Car Therapy Gavin DeGraw - Face the River Jeshi - Protein ft. Obongjayar KHEA - Young Flex Lil Pump - All The Sudden MC - Caution Wet Floor MØ - New Moon Remix ft. Rebecca Black Mysie - fade Ovi, Alemán Noriel - Ya Ni Sé Quando Rondo - 24 Running Touch - Why Do I Sig.Carlito - imy2 ft. Zzz. Squash - Lattry Troye Sivan - Angel Baby Acoustic Wet - Where Did the Day Go Will Young - Why Does It Hurt 414 Afourteen - PENIS MUSIC 2 TAKE 1 Akemi Fox - See You Soon Asan - Frío Polar Big Soto - Rosa boyband - STOP IT! ft. Billy Martin CHRIST DILLINGER - ME AND MADJAX GOT BEEF ft. MADJAX DEZ - Paradise DJ Tao, Kaleb Di Masi LIT killah - De Lao a Lao Turreo Sessions 5 Remix ft. Alan Gomez, Javiielo Omy De Oro Duwap Kaine - 647 ECKO - Copacabana iamamiwhoami - zeven Ibeyi Jorja Smith - Lavender Roses Champion Remix Ir Sais - Claramente Jake Bugg - Seven Bridge Road Lauren Spencer-Smith - Flowers Lizzo - About Damn Time LocateEmilio - tears Los Palmeras Neo Pistea - Macumbia Mallrat - Surprise Me ft. Azealia Banks MC oHo KidNey - 2022 ft. Tam Jai Women's Choir Mitch - Shadeborough Ricky Martin Reik - A Veces Bien Y A Veces Mal Russ Millions - Backseat Samantha Barrón Leon Leiden - Mala Vida Tomberlin - sunstruck Train - Running Back Trying to Talk to You Tunji Ige - IMA ARTIST NOT a SOCIALITE Why Don't We - Let Me Down Easy Lie Zion Lennox Revol - Tus Labios 415 6ix9ine - GINÉ Aleyna Tilki - Take it or Leave It Amelia Moore - crybaby AronChupa Flamingoz - Coco Song AViVA - SCREAM ayokay - If That's What You Need Benjamin Ingrosso - Afterlife Benjamin Ingrosso - Queens Big Yavo - Yayski Blueface G Herbo - Street Signs BRUHMANEGOD - the only song i ever drop that will sound like this CHASETHEMONEY MVW - 99 Problems ft. Valee Babyface Ray Clever - Turn Out the Light Conan Gray - Memories Craig David - My Heart's Been Waiting For You ft. Duvall Cris Mj Gotay El Autentiko - Yo No Me Olvido DDG - Ye Vs. Skete Freestyle Desiigner - Topless Dev Lemons - Autopilot Duke Deuce - Running Out Of Love ft. Dante Smith Elisama - Bajo Farina Ryan Castro - Fiesta Fátima Pinto - Amor de Esos Fredo Bang Roddy Ricch - Last One Left gavn! - Madelyne G Perico Curreny - Bacc 2 The Blocc Gucci Mane - Serial Killers HXLLYWOOD - Dont Matter ft. Luh Kel Toosii Ingrid Andress - Good Person Jade LeMac - Aimed To Kill Jae Lynx - Floss My Teeth Jeeiph - CULPABLE Kay Flock, Cardi B Dougie B - Shake It ft. Bory300 KESHORE - Sweet Kill Jasper - Better4U Kota The Friend - Good Friday Lalo Ebratt, DEKKO Yera - Amor Con Odio Lil Boom - Clouds Theme Lil Boom - Mom Lovers Anthem Mak Sauce Ray J - Wish Maliibu Miitch - Letter To My Ex Martin Garrix DubVision - Starlight Keep Me Afloat ft. Shaun Farrugia Max Frost - Cool Kids MDMA - Whitaker Morgan Wallen - Don't Think Jesus Mt. Joy - Orange Blood my little airport - LUNCH Nascar Aloe - TAKE OVER ft. rirugiliyangugili Yokai Jaki Nevaeh Jolie - Chew Me Night Lovell - Mr. Make Her Dance Niko Moon - EASY TONIGHT NoCap - Very Special Otis Kane - Free Phoebe Bridgers - Sidelines Quin NFN - ROKU Ransom - Circumstances ft. The Game Reiley - blah blah blah RHODES - Suffering Richie Campbell - Let You Go Robb Bank - MAY I ft. XXXTENTACION Ski Mask the Slump God Santana - Yo Estaré ft. Ally Brooke Sheryl Crow - Live With Me SosMula - SNAP SSGKobe - REAL LIES Teddy Swims - dose Teejay - Different Species Tom Aspaul - What Is Real Anymore? Trina Latto - Clap Tyga, Doja Cat R3HAB - Freaky Deaky R3HAB Remix Unlike Pluto - Comatose Scenery Whethan - COMPLICATED ft. aldn 8485 Willie Gomez - Vicio 416 DIFFERENT BRXXD - Switchin' Lanes Jay Critch - Spin No Blocks Since99 - how will did chris 418 Jackboy - Pardon Me Jesse Joy - Clichés Kelis - FEED THEM MKULTRA - You Mean Nothing To Me Poki Ng - Obscene Soulja Boy - Blue Cheese 419 BabyTron - Type Shit easy life - BEESWAX Fontaines D.C. - Roman Holiday Hot Chip - Down nothing,nowhere. - Memory Fracture koi - clearly Of Monsters and Men - This Happiness Ravyn Lenae - M.I.A. Ruth Radelet - Crimes YoSoyJenn - Juntos Forever Young M.A - Aye Day Pay Day Zola Jesus - Desire Kanon - No Limits 420 AK420 Brray - MARIMBA GRINGA Alemán L-Gante - Requisito 420 Bear's Den - Frightened Whispers BIG30 -King Of My Projects Grizz Mix Becky G - NO MIENTEN Ben Carrillo Amenazzy - Marijuana Bill Wurtz - at the corner store Blu Samu - Amor BRS Kash - Let Me In BRUHMANEGOD - rampart C-Kan - Toma 4 Dani Ribba Duki - Lo Olvidaste Editors - Heart Attack Florence the Machine - Free Gabbie Hanna - Head in the Clouds Haiti Babii - N.P.O ft. Blueface Jan Lamb - You Are The Sunshine Of My Life Jer - Rules for Leaving Josh Levi - Vices KEVVO Chucky73 - Bancario Lykke Li - HIGHWAY TO YOUR HEART Marcianeke L-Gante - Toma MORGAN - In My Feelings Nick Mulvey - Brother To You Nina Nesbitt - Dinner Table Paradize JonLee - Pre Roll Purity Ring - graves Rico Nasty - Vaderz ft. BKTHERULA Rozzi - Consequences ft. Nile Rodgers Sean Paul - No Fear ft. Damian Marley Nicky Jam Sinead O'Brien - There Are Good Times Coming Slimelife Shawty - Big Biznezz Soccer Mommy - Unholy Affliction sophie meiers - things will change Tank and the Bangas - Oak Tree Tourist - Avalanche Vincy Chan - 37.2 Bloody Warmth 421 Chelsea Jade - Best Behaviour Don Omar, Wisin Gente de Zona - Soy Yo Drippin So Pretty - Fingertips EASYFUN - Audio Eizander - Pensándote Ethel Cain - American Teenager HaAsh - Mejor Que Te Acostumbres Hazel English - Summer Nights iamamiwhoami - i tenacious Jack Savoretti - Dancing Through The Rain Jay Critch - Stamped KAROL G - PROVENZA Lefty Sm La Santa Grifa - Orgullo Café Leon Leiden Adriel Favela - Estamos Aquí Lil Poppa Yo Gotti - H Spot Lyanno - Nasty M1llionz Munna Duke - 10 TO DA O Monaleo Flo Milli - We Not Humping Remix NoCap - Save The Day ft. Kodak Black Protoje - HILLS Rels B - No Sabe Igual Rosie Carney - break the ground Sandee Chan - She Said Shakira Rauw Alejandro - Te Felicito Sigrid Bring Me The Horizon - Bad Life SSGKobe - PILL POPPER Telenova - Why Do I Keep You? Tommy Boysen - SUDÁ ft. Drago200 Triple G - GIGGLE Yorke - next life Yoss Bones Toser One - Nada Discreto 422 UICIDEBOY - THEEVILTHATMENDO 070 Shake - Skin Bones 83HADES - WTF ft. Kamiyada 88GLAM - Happy Belated 220 KID ASDIS - Release Ab-Soul - Hollandaise AGNEZ MO - Patience Remix ft. D Smoke Alejo Lil Joujou - Deja el misterio Alesso Zara Larsson - Words Alvaro Soler Topic - Solo Para Ti Arin Ray - The Mood ft. D Smoke Acid Souljah - Miss The Trap ft. RXKNephew Baby Queen - Colours of You BabyTron - Euphoria Bahari Yoshi Flower - Hot Mess Bella Dose - Bite Bhavi - Sienta Bien ft. Laylow Bow Anderson - Mama Said Brevin Kim - CAN'T HANDLE IT Brett Eldredge - Songs About You Brother Leo - Caroline Carmen DeLeon - BBB Carrie Underwood - Crazy Angels Casey Bishop - Bad Dream Casey Veggies - Royalty ft. DOM KENNEDY Cassia - Not Enough Time to Think Edit Cheat Codes - Tell Me You Love Me Christian Nodal - Aguardiente Conor Maynard - P.G.N.L. Corina Smith - Los Tweets CuteBad - You Don't Really Wanna Daniel Caesar - PLEASE DO NOT LEAN Desiigner - 420 DreamDoll - Ice Cream Dream ft. French Montana Dynoro, HVME Gaudini - Why Why Why Eagle-Eye Cherry - Rising Sun Ed Sheeran - 2 Step Remix ft. Lil Baby EDDISON - cant nobody do it like me El Chulo - Mala Actitud Eric Bellinger - Truly Yours Remix ft. Phabo, The Game DOM KENNEDY Erica Banks - Pop Out Ewan Mainwood - No One Saving Me Fredo Bang YNW Melly - Brazy Futuristic - I Don't Really Care Gareth Emery - This Is Not the End ft Roddy Woomble George Ezra - Green Green Grass GRANT - Tilt Hey Violet - Fall for Me First Isaac Dunbar - Fool's Paradise Jade Novah - Lost in You James Vincent McMorrow - The Less I Knew Jay Critch - Anyday Jayson Cash - Top Down Johnny Orlando - someone will love you better Jon Vinyl Avry - Favours Jorge Drexler - Tinta y Tiempo José Madero - Soy el Diluvio Josie Man - by the end of the night JP Saxe - A Little Bit Yours Mandarin Version ft. Eric Chou Juniper Sango - Tell Me Justine Skye - What a Lie Kany García Rozalén - Justito a Tiempo Kid Ink Verse Simmonds - While We Dancing Kristiane - Cry Baby KT Tunstall - Resolution Song United Kingdom Lauren Aquilina - Hanging by Your Halo Liam Gallagher - Better Days Logic - Decades Logic - Tetris Los Ángeles Azules, Sofía Reyes Esteman - Esa Parte de Mí Luke Combs - Tomorrow Me Luna Ki Lola Indigo - Piketaison Martin Garrix Justin Mylo - Find You ft. Dewain Whitmore Martin Jensen FAST BOY - One Day Matt Paris - La Duda Megan Thee Stallion - Plan B mehro - parasite Monsieur Nov - Ce que tu m'as fait Mosa Wild - I Might Let You Down Nia Sultana - In The Morning NLE Choppa - Slut Me Out Noreh - DCDT Ofenbach - 4U Olivera - Repeat This Song Peter Nieto Ivy Queen - Pa'mi PinkPantheress - Where You Are ft. WILLOW piri Tommy Villiers - words PJ Morton - Be Like Water ft. Stevie Wonder Nas Pollari - Runner! Roxette Galantis - Fading Like a Flower Ryan Castro, Justin Quiles Symon Dice - Mírate Bien Sara Kays - Math Skip Marley - Change Sobrino - Nada Tuyo Sofía Hervier - Lento Southside Future - Hold That Heat ft. Travis Scott Soy Emilia - Sugar Daddy Sub Urban BENEE - UH OH! Tay Keith - Lights Off ft. Gunna Lil Durk The Chainsmokers - Riptide The Kid LAROI - Thousand Miles TiaCorine - Gas Station TIEKS MNEK - The Funk Tom Speight - You I Tomine Harket - Psychopath Tory Lanez - I LIKE Unlike Pluto - Crash and Burn vf7 - Llorando en Mex Vök - Miss Confidence Warpaint - Hips WESTSIDE BOOGIE Shelley FKA DRAM - AIGHT Zxmyr - El Cholo y La Fresa 423 Louie Ray - Bar Louie 424 EDDISON - all i need Flume QUIET BISON - Escape ft. KUKA Flume - Palaces ft. Damon Albarn 425 Alkaline - Valum beabadoobee - See you Soon Bizarrap Paulo Londra - Paulo Londra Bzrp Music Sessions, Vol. 23 Carlos Vives - Solo Hung Kaho - The Dartboard Jackboy - Prize ft. Lexxstasy Lil Shordie Scott - Rockin A Cardigan In Atlanta Remix ft. Offset Mars Argo - Angry MIRROR - Innerspace 426 Alex Porat - Pity Party Aluna Jayda G - Mine O' Mine BIGBABYGUCCI - No Smoke Edén Muñoz - Te Voy a Encontrar Elsa y Elmar - vuelve Faye Webster - Suite Jonny Hozwal El Clooy - Cuéntale Lil Gotit - Rich Shit ft. Ty Dolla ign Lil Keed Mandy Moore - Four Moons Martin Garrix Blinders - Aurora ODESZA - Behind the Sun PGF Nuk - 4PF Sin Bandera - Cuando Te Vuelva a Ver Since99 - Applying the pressure Young Nudy BabyDrill - Duntsane 427 Akuna, El Cherry Scom Leo RD - BICHO Angel Olsen - Big Time Arcade Fire - Unconditional I Lookout Kid Asian Doll - Talk Facts Big Jade - Lower BRUHMANEGOD - cleric beat Daniela Darcourt Tito Nieves - No Me Lo Creo Emilee - Hida's House Fonseca Matisse - Pasa Ibeyi - Rise Above Ivana - Recuerdos Que Torturan Jay Fung - Freakin' Nightmare Justin Bieber - I Feel Funny Kris Floyd - C100EN La Gabi - KARMA Lolo Zouaï - Give Me a Kiss Madeon - Love You Back Mahalia - In The Club mxmtoon - victim of nostalgia per se - The Prophet ROBI, Dalex Eix - 3 Deseos Remix ft. Alejo Röyksopp - If You Want Me ft. Susanne Sundfør Sampa The Great - Lane ft. Denzel Curry Superorganism - crushed.zip The Black Keys - It Ain't Over The Lumineers - just like heaven Zolita - I Fucking Love You 428 Alex Mali - Clearly Andrez Babii - 123 Enemies Ava Max - Maybe You're the Problem Carlos Rivera - Eres Tú Mamá Dímelo Flow, Reik Jay Wheeler - Winnie Pooh ft. Boza ella jane - Time On fl.vco - no more colors Gloria Trevi - Él Se Equivocó Gotay El Autentiko - Beneficio Gusi Nacho - Te Robaré HotSpanish - Ella Ingratax - APAGAITA Jon Z Jory Boy - Corazón de Hielo Kent Jamz - Rollin Wit The Homies ft. Buddy Kevin Gates - Big Lyfe Las Villa - La Carta Lexi Jayde - self sabotage Luck Ra Rusherking - Te Mentiría Remix Macaco Ana Mena - La Guerra de los Besos ft. Bejo Marca MP Becky G - Ya acabó Metric - All Comes Crashing MUNA - Kind of Girl Piso 21 Santa Fe Klan - Equivocado Robledo Abraham Mateo - Tu Me Querías Remix Sam Smith - Love Me More Sia - Manchild Snakehips - WATER. ft. Bryce Vine Tegan and Sara - Fucking Up What Matters Valley - CHAMPAGNE Yuridia - Y Tú, Qué Ganas? Zakhar - Lights Out Zion Lennox Danny Ocean - Brisa Kanon - Dobermann 429 3Breezy Toosii - Gangsta Wit It Pt. 2 Aazar - The Carnival ft. French Montana, Mariah Angeliq, Zaac Dany Synthé Aina Maro, Leslie Shaw Blue Mary - No Vale la Pena Alan Walker - The Drum Anson Seabra - Peter Pan Was Right Antonio Orozco Sebastián Yatra - Entre Sobras y Sobras Me Faltas Arizona Zervas - EVER AGAIN Babi - Flores Baby Tate - Dancing Queen Baby Tate - Yasss Queen Benson Boone - In the Stars BFB Da Packman - Lost With Miami BigKayBeezy - Southside Bobby Shmurda - They Don't Know Calum Scott - Heaven Carla Morrison - Diamantes Chimbala Tony Brey - Banda Clean Bandit Darkoo - Everything But You Remix ft. Backroad Gee Young Chencs COLLAR - Gotta Go! Dayme y El High, Brray Tito El Bambino - No te quites ft. Rayvanny DJ Nelson Ferro - Santa Don Patricio - El Pueblo en la Casa FKJ - Way Out Fuego, R3HAB Duki - Una Vaina Loca R3hab Remix ft. Manuel Turizo GIVON - Lie Again Grace Kinstler - Breaking Myself Guapdad 4000 - Black Iverson Harlee - Reset Holly Humberstone - Sleep Tight IDK - Dog Food ft. Denzel Curry Internet Money Yeat - No Handoutz Jake Owen - 1X1 Jenny69, Dj Morphius Muzik Junkies - Buchona Vibez Jnr Choi - TO THE MOON Remix ft. M24, Russ Millions, G Herbo Fivio Foreign Jodosky Auudi - No Fumaba JonLee - Pensando en Ti Justin Bieber - Honest ft. Don Toliver KAHDAMI - Phoenix Kaash Paige - Girlfriend Khalid - Skyline KREAM Jake Tarry - Once Again La Perversa Lírico En La Casa - Esa Flaca LAGOS - Tengamos Pasado Leroy Sanchez - Por Siempre Jamás Lil Baby - Frozen Lil Gnar - No Switches ft. Tory Lanez Lil Gotit - Rich Shit ft. Ty Dolla ign Lil Keed Lil Mexico Lil Durk - Can't Lose Lil Tjay - Goin Up Lindsay Ell - Right On Time Maddie Poppe - One That Got Away Maggie Lindemann - how could you do this to me ft. Kellin Quinn Manast LL' - FWTS feat. THE VENICE Manu Manzo LATENIGHTJIGGY - Sensualidad Marco Mares - Match Marshmello Tokischa - ESTILAZO MAX - Gucci Bag Miya Folick - Oh God Nardo Wick - Krazy Krazy Ola Runt - Teardrop Oriana - 325 Pablo Pesadilla, Cris Mj Harry Nach - Baby Doll Pedro Capó - La Fiesta Reykon - Bandidos RIVAS - EVA Sasha Keable Jorja Smith - Killing Me acoustic Scorey - Oh, Oh Sharlene - 20 Minutos Softest Hard - La Luz ft. Kali Uchis SpotEmGottem - Creep When I Step Steve Aoki HRVY - Save Me The Stupendium - The Toybox T-Pain - Thats Just Tips The Hertz - Mankind Tink 2 Chainz - Cater Tom Walker - Serotonin Tommy Royale - Gitana UMI - whatever u like Unlike Pluto - Against the Timeline West Blanco Noreh - San Andrés YoGambii - Fuego YSN Flow - Hotbox Yung Boi - Reality 430 gizmo - At The Beach Keung To - What the Work Says SSGKobe - NO L'S Tory Lanez - London Freestyle</t>
+          <t>Verse 1 H Magnum Elle se balade dans la ville rouge à lèvres et faux cils Louboutins pour mieux toucher le ciel Ya dellali Tu la veux dans ta vie, elle demande l'impossible Casse-toi si tu roules en 107 Ya dellali Les chics type qui veulent épouser l'ennuie Tant pis elle préfère les you-voi Ya dellali En dix secondes elle tue tes économies Elle kiffe sur les hommes de pouvoir Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 2 Youcef Raifi Elle aime les magasins, les boutiques de shopping Tout pour que bébé se sente belle Encore un sac à main, jalouse entre copines Manipulatrice et sensuelle Elle kiffe les clubs et le monde de la nuit Elle danse, elle n'a jamais sommeil Tu cliques sur ses photos, sur ses selfies Quand elle tape la pose au soleil Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm yu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 3 H Magnum Elle n'est pas timide, non elle n'est pas timide Elle sait se faire désirer Elle veut une vie clean Pas faire de lèche vitrine On la regarde défiler T'as pas bien compris Si t'as pas d'oseille, si t'as pas fait de son-pri Elle va pas te calculer, pour elle t'est comme un zombie Pan lui a tout dit, tout essayé tant pis Elle a serré son footeux Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyeux du monde</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Freedom</t>
+          <t>En terrasse</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Je suis sous les ordres de personne En dehors de ceux du Tout-Puissant C'est pour ça que peu de gens me résonnent Et que peu de choses me donnent des frissons Je n'ai pas chauffé le banc de l'école Mais plutôt mes mains sous mon blouson Ce n'est pas l'acné qui me désole Mais dormir dehors me donne des boutons Ça fait un bout de temps qu'j'ai les mêmes baskets Et le bonhomme a bien trop d'honneur, simule le bonheur Je n'crie pas Mayday Et des gens biens sont venus m'aider souvent Oui, souvent Oui, souvent Oui, souvent Oui Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Je ne suis pas né en Occident Je suis arrivé par accident Maman voulait que son fils ait un avenir Obligé de quitter le navire Papa, lui, est resté impuissant Difficile de retenir son fiston Lui proposant le rêve africain Mais ici tous mes rêves ont pris fin Et j'enchaîne les petits boulots Eux qui me voyaient derrière un bureau J'ai la tête sous l'eau, me transforme en bourreau Sauvé par le dîn, mais noyé dans l'son,meskine Mais j'suis là Mais j'suis là Mais j'suis là Mais... Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? J'ai grandi dans l'horreur des expulsions J'ai dû m'adapter sous la pression Il a fallu qu'mon père quitte la maison Et que le grand-frère parte en prison La daronne disait Le prends pas pour exemple Tu n'es pas mauvais garçon Et t'es la fierté Gandhi, fais-nous rêver Donc il a fallu sortir les classeurs J'me suis concentré, je n'ai pas pu le faire Le majeur pointé vers le système Pourvu qu'mes sons te sortent de la misère, j'espère Donc j'essaie Donc j'essaie Donc j'essaie Donc... Freedom Freedom I'm free I'm free Freedom Freedom I'm free Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Libre Comment devenir un garçon libre ? Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom Hé, freedom2</t>
+          <t>Le Dream est là Un petit dream avant Gotham City H Magnum Dream Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Tu m'as vu à une terrasse sur les Champs man Tu voudrais bien avoir mon numéro de chambre et J'suis dans ta ville oukhty t'as trop de chance Comme un virement qui efface ton découvert Dream Tes libérable, tu passes le dernier maton Dream Ta meuf tattend pour rattraper le temps Dream Dream tendresse, fini les pâtes au thon Dans ta caisse, sur les ondes, cest mon son Dream Viens ma go sûre, ce soir on va à Galsen Non non tas pas grossis, tas lallure dune gazelle Appelle-moi Dhalsim, jtouche mes pieds en dansant Ce quil y a en dessous, bébé faudra que tassumes Cauche ! Ce soir cest le classico Real-Barça Ramène ta meuf quelle prépare les pizzas Dream Quand la zermi te dit hasta la vista Tchutchu Y a un deublé-man qui vient davoir son visa Dream Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? TchuTchu Dream Jsuis gênant gênant Jvais les traumât Ils sont pas prêts 12 du mat jme réveil, pompes, douche, gym Tablettes de chocolat, ptit jean Dream Paire de baskets, jhésite, jen ai mille Dream Jenfile les JoJo DreamSwagg Tas pris ton vol pour nous rejoindre en Thaïlande Dream Tas pas doseille, tinquiète mon pote on sarrange Dream Transat sur la plage on sallonge DreamVacances Capte une meuf dans tes bails DreamRencontre Rendez-vous dans sa chambre DreamMassage Elle est sérieuse, avec elle plus de mensonge De retour sur Bérize DreamMariage Ça cest un gros dream ça Mais la vie est un dream Dites aux MCs que jsuis leur dream Jsuis gênant Jvais les traumât Ils sont pas prêt Jsuis gênant Jvais les traumât Ils sont pas prêt Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Jsuis gênant Jvais les traumât Ils sont pas prêts Jsuis gênant Jvais les traumât Tchutchu Dream</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tu ne le vois pas</t>
+          <t>Number one (Pilule Bleue)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
+          <t>Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi J'te fais tourner la tête autant qu'un bon spliff J'ai connu la hess, igo, j'suis invincible Quand ça parle en milliers d'euros, aucune panne d'inspi H Dream, Warano, encore un bon feat Elle me dit que tous ses frères veulent me brutaliser Malgré ma politesse, j'suis pas le fils d'Hallyday Je connais la fin du film, j'suis déjà triste à l'idée Quand elle verra ma SACEM, elle va m'officialiser Tu connais l'écurie, laisse les sous tomber Fais pas semblant, c'est d'la tuerie que t'écoutes, te-bê J'suis un enfant de Gotham City, j'connais l'système D J'suis avec mon frère du Congo, dis-leur que, nous, on compte Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi Dans ce monde, rien n'est gratos À six du, les keufs te ver-le Tu connais la procédure Dénonce ou reste à l'ombre un moment Elle cherchait ce genre de mec à la fois gentil et comique Il lui dit Ok, mais promets-moi d'être jolie et soumise Affirmatif, elle bouge la tête comme dans les concerts d'Raggasonic Comme 80 des garçons, il lui dit qu'il est célib' Elle cherchait ce genre de mec à la fois gentil et comique Il lui dit Ok, mais promets-moi d'être jolie et soumise Affirmatif, elle bouge la tête comme dans les concerts d'Raggasonic Comme 80 des garçons, il lui dit qu'il est célib' Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi Millionnaire, j'dormirai pas sans mon 9 millimètres J'aurai des meilleurs amis par milliers Mais j'n'oublierai pas les vrais qui m'ont aimé Quand j'avais rien Millionnaire, j'dormirai pas sans mon 9 millimètres J'aurai des meilleurs amis par milliers Mais j'n'oublierai pas les vrais qui m'ont aimé Quand j'avais rien Ici, on ramasse des cerises, là-bas, des grosses bastos Les chefs d'État français dans des maisons closes Elle m'a pris dans ses bras, ça m'a rendu claustro' J'ai négocié la taxe, on m'a dit j'cause trop Ici, on ramasse des cerises, là-bas, des grosses bastos Les chefs d'État français dans des maisons closes Elle m'a pris dans ses bras, ça m'a rendu claustro' J'ai négocié la taxe, on m'a dit j'cause trop Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi9</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Le pire</t>
+          <t>Où aller</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dounia hania De leasing en leasing, un virage, un looping La mort fait son listing, tarrache de ton living Scène triste anodine, un linceul sans le Din Burning Khaleddine tu msuis pas ? Fais reset De looping en looping, on sécroule sous nos peines Donc on arme le flingue pour changer dmise en scène Suis la Seine, assassine, où ça saigne cest dingue Létincelle celle-ci, un ient-cli, une seringue Jvous épargne les suicides sous acides Les peines lourdes aux Assises, la C.C, le V.I.H si si On rêve dêtre clean, court après lestime Argent sale, sexe, crime linstinct de mort sexprime Jsuis venu faire mon shopping jsuis ni lAs, ni le King Ni Apache, ni le Viking, pour le cash cest fucking Police comme Sting dans les coulisses stress File un bolide, feu rouge, ça sbarre en car-jacking Jcontinue mon meeting, sous le signe du Yin Dounia fait son lifting, cramée comme un tunning Seul en scène sur le ring, jsuis Rocky et John Rambo Les couche à chaque rumble, que la concurrence remballe Jsuis paré au combat, jviens den bas Vlà le come-back donc fermez vos grandes gueules Bref, pé-fra pas lingé, ton rap est flingué, nveut rien dire Blindé de lacunes comme un CM2 Ça parle sur mon dos, cement-dou, c'est de l'indé Bande de petits merdeux, handek ça fait bang yeah ! Jtourne en rond comme un single Oups et je dégueule un mélange de MC et de Pringles Ma gueule, ma gueule ! Ta gueule, tas un gun ? Vas-y tire ! Jte donne une couille si tas perdu lune delles Bref, Dounia cette salope elle venu me voir dans mon salon Ma dit H ! Moi jai le bras long, tinquiètes tiras pas au ballon Vends du pilon, reste en bas, longe les murs, tu prendras du galon Comme chez nous jamais on sdéballonne, donc on tombe dans lpiège, on galope Sur le terrain y a trop de salopes, ça alors y en a dans le Hip Hop Qui commencent en caleçon et qui finissent avec une culotte yeah ! Mon login 7.5.0.X exit Jdéboule super chic, ces relous jexcise Les rageux sexcitent, tas reconnu le style Moins 1 sur 76, D.S.L jexcelle Jacte et check ça, cest hassé, je lsais Tasspés ? Jbaise pas ! Beyoncé ? Khanza Entouré dcal-cha, loin dla vie dpacha Hechem ! Khabat, tas même pas fais la 'Icha Des fois jveux cher-lâ, jme demande Quest-ce tu fais là ? Tu seras pas Rockefeller dans ce pe-ra pas très hallal ! Anti-chalab, me propose pas ton chalal Petite chérie sur mes épaules, trop de halam, craint les flammes ! Microphone check, wesh wesh, cest toujours Paname À tous ceux qui se pavanent, 2-3 pavés fils de yeah ! Big up à Saddam, on vient passer le Salam et le Shalom Coup dsavate et je tétrangle avec une cravate Ptit coup dCB, jrêve plus depuis le CP Rappe même plus pour cer-per, pourquoi alors ? Jsais pas Si tu sais, chapeau ! Peut-être pour faire les 100 pas Et mbarrer comme un sans-pap', en plus ce game jle sens pas Jsuis paradoxal comme Bettencourt qui rêve dun sche-Por Ou Jeannot Sarkozy qui traîne au tier-quar sous un che-por Pire, comme ce MC qui smet des comm' sur Booska Oh ! Ton front au sol ? Oh ! Accroché sur un Raptor Mais putain mais putain, cest pas tout Les petites nont plus ltemps, ça tapine à mi-temps à mi-temps ! À mi-temps jen ai vu ce matin le visage tuméfié Dounia faut sen méfier sen méfier Sen méfier bref, lyoum al-Qiyamah mattend On nvit pas plus de 100 ans, Dounia la meuf de Satan Moi jchangerai pas le monde avec mon statut dintermittent Je marche avec des mutants qui smaintiennent sans métier Jveux voir Besson à mes pieds, les cistes-ra aiment nous épier Ma religion, la défier, en sont fiers, perdront pied Cest dans leurs cauchemars que le haq ex justice fait son effet Tapes, c'est sans effet, chaque jour un décès Quant aux femmes elles sont sacrées, ton corps nest pas quun escalier Qui fait monter au 7ème, on scomprend ? ... À moitié Trop machô jprendrai une 4ème nan jrigole... À moitié Sous ma douche un émetteur, putain y a plus dpudeur Moi, loin dêtre un héros, jviens des zones sous l'gyro Tplante pour 500 , trop dshit plus dneurones Loin dêtre pieux, pas yép, jaime pas puer des ieds-p Jaime le confort cest pas ienb, jme comporte comme un païen Paris la nuit ça caille hein ? Quand tas les moyens, tu pilonnes Après ça, tavais quà pas prendre un Cayenne ! Re-fré le monde est cynique et le cool-al nous désinhibe Merde le Diable embellit Zin, cet enculé siège au Sénat Esprit vénal, affaire pénale, petite cavale, pris en tenaille Bé-tom sans maille car Dounia nous baise au final, instinct de fauve Dounia hania Factor, la sauce 7.5 Gotham City H Magnum Loudschool, Criminel au bon son Sexion d'Assaut 9ème zone Paroles rédigées et expliquées par la communauté RapGenius France5</t>
+          <t>J'mettant comme la gale et j'fais mal XX Lance moi comme une pierre de Gaza face aux blindés Ma fierté qu'un jour ma XX XX Eva Mendes J'ai cramé la philosophie qu'on nous injecte La vie n'est qu'un XX que défie XX Fais pas le mec qui tangue XX J'prends le micro 10 secondes, j'te choc la France pendant 10 ans Fuck De Gaulle, et que les States le ressuscite s'ils sont XX élégant Si tu veux me toucher dans mon amour propre Pour la fierté de nos proches qui provoquent l'embrouille entre potes Dans l'7.8 ton sport de combat te servira pas XX J'ai vu des ceintures noir s'faire niquer par des ceintures G-Star XX Comme les sunnites, pour fumer du schit, jamais trop tard Nos fierté craint que la paix XX XX mais c'est c'que dise les putes et les travelos Oh pire on vendra lorsque ton marché XX, on a pas finit d'kebla Développer nos pecs, nos bras C'est la raison pour laquelle on s'tape Pour un regard qui se croisent Et croit pas que parce qu'on a les mêmes origines on est frère Elle se fou pas mal d'aller au paradis ou en enfer Du moment qu'elle y va en Porch Carrera Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur Le H vient d'sortir d'ses gonds Et j'vois que la conqu s'dégonfle Commencer le décompte La bête a quitté les décombres Sont halal comme le bacon J'fais des pompes en touchant les tétons Oui j't'étonne, le son je le découpe Dans les 2 sens j'te laisse la dépouille Question d'honneur, jhonore les mecs du sud au nord T'inquiète la hess m'a nourrit Je n'aurais que ce que j'mérite Mes frères n'ont plu le moral, veulent mourir comme Jack Mesrine Les jaloux jactent mais dans leurs têtes je sais qu'ils XX mes rimes J'avance dans un désir de 10 ans, pour les reufs en prison XX le business est devenu bizarre Ça s'vante d'avoir des joujous Ça s'prend pour Steven XX Ton pote qui t'fais des bisous Que d'sortir un désert Eagle J'marche pas avec des poulets, ni XX Mais des mecs solides, toujours là quand ça doit s'bouger Qu'on pas peur d'voir le sang couler Regarde moi dans les yeux quand tu m'sert la main enculé On n'fait pas d'omelette s'en sortir les ufs du cul d'un poulet Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur On rêve de mourir martyr Calibré dans une Aston Martin Mélange pas le rap et le deal Tu salis notre honneur Nos ego préfèrent se fournir à Nanterre qu'au Resto du Cur Confond pas fierté, orgueil Ou t'étonnes pas de te faire niquer ta gueule On met tout le peu qu'on a sur l'apparence pour cacher le reste Tu peux pas test Ils tiennent que les murs, je tiens les promesses Question d'honneur C'est calibré que nos fiertés discutent pour une question d'honneur Une question d'honneur Juste une question d'honneur Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur XX à la prod Sabry Mjnoon H Magnum</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Elle avait son djo</t>
+          <t>Entre nous c’est mort</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Jwles - Ticket Gagnant Freestyle - 0101 San-Nom - Les plus beaux - 0201 BEN plg - Freestyle Bateau dans le ciel - 0301 Kalash Criminel - Une bonne santé et grave des lards - 0401 Dany Dan Kyo Itachi - Mon territoire - 0401 thaHomey - Grove - 0401 T.I.S - Action Man - 0501 ADVM - .olala. - 0501 Bavaz - Jeunes Beaux - 0501 Bob Marlich - Apaise ton cur - 0501 D. Ace - Nostalgique - 0501 Dexter HMC - Vendeur de stup IGTV 8 - 0501 Kaza - CONNEXION - 0501 Kerchak - 2006 Opps qui court - 0501 Larry - BATMAN - 0501 Liim's - Gobelet ft. Ibrak - 0501 Roméo Elvis - Tadumal ft. dreamcastmoe - 0501 Sheu - Pascal OP - 0501 V2 Almz - 10G - 0501 VVES - Fin de vie - 1001 2C Tali - Bank Acc - 1001 8ruki - OK LETs go!! - 1001 Kepler - T'es fou ou quoi ? ft. Frsh laDouille - 1001 Saïf - Instanonymat 5 - 1001 Sokuu - MORTELLE - 1001 YL - Larlar 10 Pardon - 1001 Yvnnis - LE PIÈGE - 1101 Benjamin Epps - RESTE DANS TA MERDE - 1101 BEN plg - Colorier ds HLM ft .Georgio - 1101 DosPunto - POISON ft. SCH - 1101 Ry's - Téléphérique - 1101 Spider ZED - En légende - 1101 Uzibinski - Hoodtsar - 1101 Yassine Stein - taj mahal - 1101 Zamdane - Mélancolie criminelle ft. Sofiane Pamart - 1101 Zkr - Freestyle 5min 13 - 1201 ADÉS THE PLANET - BI - 1201 Benab - Motaz Azaiza - 1201 Cheval Blanc - JERSEY NOIRE - 1201 Demi Portion - Gangstarr ft. Souffrance - 1201 Féfé - Baladeur ft. Akhenaton - 1201 Gama Boonta - AFRICAN HUULIGAN - 1201 Kima - BBL - 1201 KLM - ADN - 1201 Kofs - XADV - 1201 KPoint - Solide - 1201 La Crapule - Sa passe en i ft. Zitoune 1201 Lamatrix - MODE RACE - 1201 Meryl - Ton ami ft. Josman - 1201 MC Solaar - Pierre-feuille - 1201 Misa - Facettes - 1201 Obia le Chef - Oseille des françs-maçons ft. Rowjay - 1201 Skefre - TRAPULEUX 2 - 1201 Slimka - Mystico - 1201 Uzi - CITÉS DE FRANCE - 1201 Zola Koba LaD - Temps en temps - 1501 Teklam - Roadtrip - 1601 S-Tee - THERAPY - 1701 404Billy - PINOCCHIO EPEMBIA - 1701 Amine D1 - Dans le vide ft. Many Santana - 1701 Jaymee - 3K - 1701 Le Juiice - Gospel - 1701 Papi Teddy Bear Pense - Qishui - 1701 sean - FEUILLE SHIT CLOPE - 1701 Yovo DIOGENES - Clara M. - 1801 Badrito - Nether - 1801 Dau - MOSHPIT - 1801 Jäde - Tranquille - 1801 Lesram - Question 1801 Nyda - C'est pas comme ça ! ft. Cinco 1901 Andos - Ensemble - 1901 Doria - Déter ft. Soolking - 1901 Emkal - Pépita - 1901 Espiiem - ROI DU SILENCE 1901 Fresh - PROBLEM - 1901 Fresh laDouille - Ganté - 1901 Gambino La MG - 91 - 1901 Gips - Prototype - 1901 Hayce Lemsi - Quinte Flush 1901 KR Malsain - Cómo te llamas - 1901 Lala ce - Jalouse - 1901 Lazzio - BIRKIN - 1901 Le Juiice - Gospel - 1901 Loud - Prime ft. EDGE - 1901 Mac Tyer - Dope Boyz - 1901 Naza - Lamborghini 1901 N'seven7 - Racaille - 1901 Reda - En interne ft. Sadek - 1901 Roshi Shaz - Black Pearl - 1901 Ruff - AIGRI DOUX - 1901 CO - DE L'AUTRE COTÉ ft. AAMO Moe DAmour - 1901 Sokra - GTA - 1901 S.Pri Noir - Kawasaki ft. Laylow - 1901 TH - OVNI - 1901 Zaky - ELEMENT - 2001 Saïf - Instanonymat 6 Hors-Série - 2101 Drosan - ZIN1 XAVIER - 2101 Vîrus - Mouton Cadet - 2201 Sherifflazone - AMIRI - 2301 L2B - Hors la loi ft. La Mano 1.9 - 2301 Lucio Bukowski Mani Deïz - Grande Vie - 2301 Pato - LFP 3 Brigade Fantôme ft. Saïf - 2401 Batbat - Dopé - 2401 Celestino, Damlif Toboë - g perdu - 2401 Farloski - NORMAL - 2401 Good Bana - Encore - 2401 LEVELSANTANA - 0 flash - 2401 menace Santana - Adrenalean - 2401 Pato - LFP 4 Tentations - 2401 Rounhaa - LOVE DEATH ROBOTS - 2401 slump. - P.I.L.M. - 2501 Cheval Blanc - CARTE POSTALE 2501 F.L.O - SPACE CAKE - 2501 Hotel Paradisio - CULEBRA PEAK - 2501 J2LASTEU - Grenata - 2501 Le Règlement - Stadium ft. Kerchak 2601 2 Mètres - Hwasong 17 - 2601 Cellulaire - BELLE BRUNE - 2601 Gambino - Picoler - 2601 GIMS - LOCO ft. LOSSA - 2601 Heuss L'enfoiré - Souvenir ft. DYSTINCT Unleaded - 2601 Jeune Morty - Souljah - 2601 JKSN - Seine-Saint-Denis - 2601 KESPAR - Massai ft. L'apprenti - 2601 Keuchei - Position d'attente - 2601 Lamatrix - VDM ft. Leto - 2601 Lester - messes basses - 2601 Livaï Cosmo - la torche - 2601 Luciano Niska - Blue Porsche - 2601 Nusky - Ciment - 2601 PURP - Minimat - 2601 Roshi Shaz - CODE 9 - 2601 Sirap - Princess - 2601 Stavo - ETC - 2601 Steban - Hazi Life - 2701 Livaï Cosmo - La torche - 2801 Beeby - HIVER 2020 4 - 2801 Lp2.0 - Mentale 2 Batard 4 - 2901 Yovo DIOGENES - CODE BRZ - 3101 Folie's - Nymphomaniac - 3101 GEMEN - GoneSouth 1 - BIENVENUE À LYON - 3101 Henri Bleu - 2 Corbeaux ft. M le Maudit - 3101 JYEUHAIR - ÇA VA ALLER - 3101 Ninho - 3 MAI 2025 - 3101 Rim'K - Jour de pluie - 3101 S-TEE - JEEP Février - 0102 AnNie .Adaa - SATURÉ - 0102 Liim's - Shatta 0102 Triplego - Huracán - 0102 Vin's - Météores - 0102 Zamdane - Printemps - 0202 Booba - 6G - 0202 CHAM rapper - Scénario ft. Tedax Max Akhenaton - 0202 Doria - Porte Maillot - 0202 Fresh laDouille - Indigent - 0202 Genesys MOB - Dernière fois - 0202 GLK - OK - 0202 Hatik - JUNGLE - 0202 Jungeli - T'étais où ? ft. Vegendream, Alonzo Zaho - 0202 Lapostroz - GRAVVITE - 0202 Misa - ZOOM X4 - 0202 Rafal - ROMEO - 0202 Soleil Noir - La Moisson - 0202 Soolking - Tiki Taka ft. SCH - 0202 Venom Cz - ETHER - 0202 SOPA - TOUT SEUL DANS LE NEANT - 0302 La Hasba22 - Freestyle COPS - 0302 Sheng - DIS-MOI PK ?! - 0502 Luther - ROUGE GORON - 0702 GEMEN - GoneSouth 2 - UBER FUME - 0702 Nobodylikesbirdie - RX Birdie - 0702 sean - LÈVE TON DOIGT - 0702 Theodora - FNG - 0702 Werenoi - 16.02.2024 - 0702 YL - Dommage ft. Anas 0802 AM La Scampia - Comme en 2007 - 0802 BKRBABYBOY - DREAM - 0802 Elyon - Ouverture 0802 GR OMEGA - CYCLOPE 0802 J2LASTEU - King - 0802 Sto - BERLIN DriftMusic2 - 0902 34murphy - 2424 - 0902 arøne - en - 0902 Benab - Potentiel 0902 Brav - Reste au lit - 0902 Chany Z - FAM - 0902 Cheval Blanc - PAS D'ACCORD - 0902 Deadi - Courave ft. L'uZine 0902 Dofla - A RISQUE ft. Lyre - 0902 Elh Kmer - Police Tue - 0902 Fresh - FUMAR MATA ft. Gotti Maras - 0902 H.LA DROGUE - Seklenland - Pt.9 - 0902 Infinit' - 888 FREESTYLE - 0902 Kalash Criminel - VIENS QUE J'TE FRAPPE 0902 Kima - SALACE - 0902 kobzx2z - dans tes bras ft. mikeeysmind 0902 KPoint - PLT 0902 KR Malsain - Remontada - 0902 La F - Appel masqué 11 - 0902 La Mano 1.9 - GRAAH ! - 0902 La Plaie - En Méchant - 0902 Sasso - Livraisons ft. Mig - 0902 WarEnd - Froid - 1002 Furlax - .Libre. vide ft. Advm - 1302 Chanceko - ILY - 1302 Eline - Si demain je t'aime - 1302 FEDALL - SPIRIT OF - 1302 Sameer Ahmad - Vivarium - 1402 Amine D1 - Temps que je perds ft. Abou Tall - 1402 Daej Phantom - Joel Gwadada - 1402 Gemen - GoneSouth 3 - FEEL GOOD - 1402 Grems - Vie Compte - 1402 Infinit' - Mc Gregor ft. Alpha Wann Rim'K 1402 Ymer - Porte-bonheur - 1502 Elyon - Ne m'aimez pas - 1502 Heykel - Participer - 1502 KLM - À fond - 1502 RK - 38 Freestyle - 1602 Big Ben - Changement - 1602 Davodka - S au S - 1602 FXLL - OHx3 ft. Cashmire - 1602 Gen - Polaire - 1602 Jaïa Rose - Poster - 1602 Kamas Skuh - J'disparais dans l'noir ft. Lamatrix - 1602 Kofs - Désolé ft. Miami Yacine Stef Becker - 1602 Leys - Jeudi FTC - 1602 Mac Tyer - DERRIÈRE TOUT ÇA - 1602 Misa - 2 Épaules 1 Tête 1602 Mortalla - Can-Am ft. Mougli - 1602 MVSHY - Si il fallait faire ft. Arso911 - 1602 Sazamyzy - Boss Life ft. Enima - 1602 Skefre - TRAPULEUX 3 1602 Skima - MVP - 1602 Soala - Premier - 1802 NDO Runway - Rocky - 2002 nelick - POLAIRE - 2102 3arbi - La Zip La Zik ft. Diddi Trix - 2102 Gemen - GoneSouth 4 - LES YEUX QUI BRILLENT - 2102 Keuchei - Crapuleux ft. Fresh laDouille - 2102 Malo - PAS DE SEMBLANT - 2102 Sherifflazone - TRAPMONEYBIGGIE - 2102 Squall P - LYN TO SOHO - 2202 ADÉS THE PLANET - PIRATE 2202 AM la Scampia - Vatos - 2202 Buhi - What We Doing!? Qu'est-ce qu'on fait!? ft. Quavo - 2202 Enima - Noise ft. ASHE 22 - 2202 Luther - MOSSY COBBLESTONE - 2202 Malty 2BZ - Boombap - 2202 Prime - Fame 2202 PURP - BAG - 2202 Rsko - BOOM BOOM ft. IDS - 2202 Toam - Les Vitres et Les Plafonds - 2202 Vin's - Little Boy - 2302 Absolem - hors de moi ft. JeanJass - 2302 Bekar - Plus fort - 2302 Cheval Blanc - RAT RACE - 2302 Farloski - LA MÈCHE 2302 FAYV - YAMAHA ft. Kofs - 2302 Gambino - Street - 2302 GIMS - MA DOUCE ft. Baby Gang - 2302 Gros Mo - Prédatrice - 2302 H Magnum - Afro binks - 2302 Kery James - JE NE PLAISANTE PAS - 2302 Lamatrix - MAUVAIS PROFIL ft. Ninho - 2302 Légendes Industries - Boussa ft. Nayra - 2302 MC Solaar - Ils dansent - 2302 Mitch - STAYA - 2302 Sokra - Roska - 2302 Steban - Skimask - 2302 Suzuya - Mort-vivant - 2302 Tyranik - La Cause - 2402 Black Jack - Stratagème ft. Madrane - 2402 Josman - My love ft. Tayc - 2502 Mandyspie - COOL KID 2602 HoussBad - Gas ft. Take A Mic - 2602 Teklam - Ost ft. AAMO - 2702 Jeune Lion - Molly Dolly - 2702 Zamdane - Monstres - 2802 AAMO - DANS L'TRAP - 2802 Batbat - Voyou 2802 Fresh laDouille - ADN - 2802 Gemen - GoneSouth 5 - PAS UN MOT D'ANGLAIS - 2802 Jayel - Habiba - 2802 Many Santana - Paname c'est tragique - 2802 Sabuu - toxique - 2802 TVMO - Tiger Woods - 2902 Daej Phantom - Baby Boy 2902 Elso - Nerveux - 2902 Josué - Fils de 2902 JRK 19 - SUBMVRINER - 2902 Leys - Je suis - 2902 Maes - 4MOTION ft. PLK 2902 Nessbeal - Ecchymose - 2902 Shien - Obsession - 2902 Smeels - GOLDIE Mars - 0103 34murphy - gunz 0103 Andos - Mal luné 7 - 0103 AYMCE - PROBLEMS 0103 Dima - pas présentable - 0103 Hatik - LE FOND ft. Zokush - 0103 Leys - Je suis - 0103 Liim's - P.A.M.P ft. La Mano 1.9 - 0103 Lyele - ft. La Fève - 0103 OSO - L.A - 0103 Pex - ASTRONAUTE - 0103 Rafal - ONE ONE - 0103 Raplume - Bois-Colombes ft. Kerchak, Jolagreen23, Mitch, Kabbsky, Buû Ydasevic - 0103 Rim'K - Tant pis ft. TIF Sofiane Pamart 0103 Rouge Carmin - ROUGE TAGADA - 0103 Sameer Ahmad - LVBF ft. okis 0103 The Free - 3-4 sa mère - 0403 Peet - Aquemini - 0503 Drosan - ZIN2 CAGE - 0603 Falcko - Yeux rouges - 0603 Gemen - GoneSouth 6 - SCHOOL SHOOTER ft. okis - 0603 Henri Bleu - Vagues - 0603 Iss - Salvatore - 0603 Lacrim - CORLEONE II - 0603 Yassine Stein - bouskoura - 0603 Zitoune - La mentale ft. Mecra - 0603 zonmai - Boom Boom - 0703 AnNie .Adaa - GLACÉ 0703 Dadinho - Coeur Nwar - 0703 gapman - Step ft. ASHE 22 - 0703 Josas - Insuline - 0703 La Hasba22 - IMPACT ft. KLS - 0703 Nobodylikesbirdie - Ariel Helwani - 0703 Ratu - LARMÉE DES RATS - 0703 Stavo - Mallette - 0703 Venti - makila - 0803 CAPUH - J'VOULAIS DES NIKES - 0803 DA Uzi - Michael Jordan - 0803 DIL - DEATH ROW ft. Chakir - 0803 Dr. Yaro La Folie - Bizari 0803 Ekloz - 7Shit 0803 Gambino La MG - Nord-Kivu - 0803 Kaaris - Clique - 0803 KPoint - Stone ft. L2B - 0803 Kpri - L.C.E - 0803 La F - Plata ft. Jozii - 0803 MadeInParis - No cap ft. Draco Dans Ta Face - 0803 Mola - Ice Spice - 0803 Naza - J'ai mal - 0803 Nono La Grinta - 6AM 0803 Skefre - TRAPULEUX 4 ft. Oldpee 0803 Slkrack - Rentrée d'argent - 0803 Tedax Max - BBL - 0803 Vacra - Yoga ft. Josman 1003 Andos - Malsain - 1003 Sheu - BTC - 1003 Yorssy - Pop mok - 1303 Jäde - Get out ft. Zamdane - 1303 Keroué JeanJass - Okocha - 1303 Meryl - Dernière Escale - 1303 Rowjay - ROWZIN 2 ft. Jwles - 1403 Ibepds - deadline ft. BUHI Mussy - 1403 Keeqaid - Pics - 1403 Sadandsolo - KODAK - 1403 Soprano - C24 - 1503 Absolem - abso skit part 2 - 1503 Cheval Blanc - TÉLÉPHONE PIÉGÉ - 1503 Davodka - Arc en ciel - 1503 Deadi - Repeat - 1503 Djibso - Zombie - 1503 Hotel Paradisio - ALCHIMISTE ft. Ashh - 1503 Jok'Air - Cramer - 1503 La Famax - Autour de moi - 1503 LEVELSANTANA - MI AMOR ft. Bianca Costa - 1503 Saiba - JET ! - 1503 Spider ZED - Prends le bien - 1503 Strano - YTP FLOW - 1703 La Mano 1.9 - La Mano dans la mallette ft. DVGZ 1803 Kima - Survivre - 2003 Coton Blanc - Selfmade - 2003 Farloski - MODE SPORT - 2003 Jeune Observateur - G LA N - 2003 Jey Brownie - Mélodie céleste - 2003 Sherifflazone - WHITE - 2003 Theodora - Blues d'hiver - 2103 AAMO - CHARBONNER OU PRIER - 2103 BEN plg - Guerres de pissenlits - 2103 Dau - JE N'SAIS PAS - 2103 Green Montana - phileas fogg - 2103 Loud - C'est pas ce que tu penses ft. Lary Kidd Ajust - 2103 Peet - Toucher du bois - 2103 Shien - Flou - 2203 Cellulaire - VISION CLAIRE - 2203 Malty 2BZ - Détail - 2203 Nakry - Dans le Réseau - 2203 Prinzly - OBSCENE - 2203 RESELL - BIG JOUJOU - 2203 Rouge Carmin - NOUVEAU HENDRIX - 2603 Bob Marlich - Kiwi 2703 Coyote Jo Bastard - FIER - 2803 AYMCE - P!NK - 2803 Green Montana - ishtar - 2803 Gros Mo - L.A - 2803 V3RTIGO - 21 21 - 2803 Vîrus - La Cour - 2903 GRËJ - Pas mal pour un immigré - 2903 HD La Relève - Mauve - 2903 Hugo TSR - La Pluie 2903 Jwles - J'ai ça - 2903 LUMJR - BAG - 2903 Michel - Jeudi minuit - 2903 Surprise - Pas différente - 2903 Tedax Max - Dernier prêche - 2903 Vegedream - Matata ft. Kaaris Kerchak Avril - 0204 Elyon - L'autre toi - 0304 Henri Bleu - Si il caille - 0304 HIBA Lyes Kaci - plantes grasses - 0304 Zoomy - BRIGANTÉ - 0404 AnNie .Adaa - DOGMAN - 0404 Sadandsolo - SI JE PARS - 0504 Bolémvn - C'est toi ft. Wareen Saada - 0504 Linton - 2019 - 0504 Max D. Carter - Si Sexy - 0504 Momsii - YSL Polo - 0504 paulvitesse! - anyway - 0504 Rafal - ELLES M'AIMENT - 0704 Beeby - Le Cycle Eternel - 1004 Kahra - NAPOLÉON III - 1004 Realo - BORDERLINE ft. Deelee S - 1104 Enima - Go Mode - 1104 gapman - B.A.B - 1104 Guy2Bezbar - TAPIE - 1104 Jaywill - OCARINA FOREST - 1104 Kima - En Balade ft. Kalash 1104 Le Lij - 9 sur 10 ft. Jwles - 1104 Ratu - DEMAIN - 1104 Zequin - Bora Bora - 1204 Akkai - LVNFPDC - 1204 Big Ben - Besoin - 1204 Chily - Radio au tarmi - 1204 GAZY MP - Money Fast - 1204 Hooss - L'épreuve du feu - 1204 Keeqaid - Chose 1204 K.S.A - Intercite - 1204 LATATPA1.3 - DFB - 1204 LY - Eden - 1204 Misa - Go! 1204 Rouge Carmin - APPEL MANQUÉ - 1204 SOPA - J'CONNAIS PAS LE SOLEIL - 1404 Stavo - Bipolarité - 1504 Deadi - 78 - 1504 Drosan - ZIN3 TRAP2ZIN - 1504 Zitoune - Ce jeune part. 3 ft. Iyad - 1604 Myth Syzer - 19 FÉVRIER NYC - 1704 8ruki - JEFF BEZOS!! - 1704 Baby Neelou - Copernic - 1704 Batbat - Les vitesses ft. La Honda 19 - 1704 Jaymee - Bright - 1704 Jey Brownie - J'en ai pas - 1704 La F - Colère ft. Shelby 1704 SIMONY - Silex - 1704 your.nash - demain - 1704 Zed - ZEDEUDÉ 60 - 1704 Zuukou Mayzie - Sanni McCandless vers 19h19 1804 Cacahouete - Banlieue Parisienne 4 - 1804 Iss - Favori - 1804 Many Santana - Méchant - 1804 Teklam - Par où on passe - 1804 Zinée - MEZZEL - 1904 Baksooz - 10k FREESTYLE - 1904 Djibso - SMOG 1904 JaySoCold - COLDEST IN THE WORLD - 1904 Jok'air - Dans la Benz - 1904 Lacrim - 7 VIES ft. Sofiane Pamart - 1904 Légendes Industries - Mauvais Garçons ft. Tuerie - 1904 Naps - RSQ3 - 1904 Naza - Kulule - 1904 Osirus Jack - Kyrie Irving - 1904 RK - COFFIO - 1904 Saïf - Le taf du loup - 1904 Vacra - Agent Secret - 2104 Wit. - OBSESSION - 2404 Advm - .DEMAIN C'EST MIEUX. - 2404 Chanceko - Le déhanché assassin - 2404 J9ueve - SHE LIT ft. Green Montana - 2404 La F - Life - 2404 Le Juiice - Money Dance - 2404 Lord Esperanza - Différent 2404 Raous Gang - Terrain miné 12 ft. Mola - 2404 Sherifflazone - FUTURAMA - 2504 A2H - Honey - 2504 Deemax - JPARS DE LÀ - 2504 KeBlack - Boucan - 2504 Lesram - Rebellion - 2504 Niro - Polémique 2504 PURP - Actif ft. Savage Toddy - 2604 AMOON - LUDACRIS - 2604 Davodka - Libre comme l'art - 2604 GIMS - JOE PESCI ft. Inso Le Véritable - 2604 Harley - Ça va pour nous ft. MadeInParis - 2604 KLM - Parapluie - 2604 L2B - Touché Coulé - 2604 La Hasba22 - Extinction 3 - 2604 La Mano 1.9 - J'coupe tout ft. Musto 2604 Leith - FOCUS ft. Smeels - 2604 Loko Martin Gal - À la carte ft. Alkpote Deadi - 2604 Magnim - Blanc et Bleu - 2604 Mig - La ligne - 2604 Mola - Freestyle 2 mi-temps - 2604 Mosty - En tas ft. Lala ce - 2604 Prinzly - NIGHT HIFT ft. YG Pablo - 2604 Rohff - Fraude ft. Intouchable AP du 113 - 2604 SAF - JE QUITTE LA ZONE - 2604 Slim C - ADN - 2604 Stony Stone - Himalaya - 2604 Surprise - Méchant dans les films - 2604 Timal - RR Phantom - 2704 Black Jack - La Mentale ft. Evil P - 2804 Yaya D - 0.xo - 2904 JohnFckingNada - Winning - 2904 T.I.S - Dans la ville - 2904 Zeu - ALEX KID Mai - 0105 Genezio - ROYAL PALACE - 0105 LUMJR - NEW CHOPPA - 0105 Saturn Citizen - EXPORT 1 - 0105 Zokush - Lebara - 0205 Mapess - Zéro Battle - 0205 Rsko - 12 coups - 0305 63OG Skuna - ZUSHI REMIX ft. Jolagreen23, thaHomey, Sherifflazone 8ruki - 0305 Benab - Sakina - 0305 Carbonne - Imagine - 0305 Douze Déluge - MAUVAIS SANG - 0305 F430 - Comme tout le monde - 0305 Heuss L'enfoiré - Mélanine ft. Werenoi - 0305 iTo - Émotif5 - Coupé Cabriolet - 0305 La Kadrilla - Tomar ft. Osirus Jack - 0305 Laskiiz - VACARME - 0305 Rim'K - Demain - 0305 Rim'K - Trap house ft. Alpha Wann - 0305 Rsko - PCC ft. Franglish - 0305 Soolking - Otra - 0305 Soprano - Facile à danser - 0305 Take A Mic - Le film - 0305 Yuzmv - Illusion - 0305 Zed - Celle ci - 0305 zonmai - Birthday Zouh - 0705 JRK 19 - BOOYAKASHA - 0705 RK - MOUSSA PART.1 - 0705 Vilk - Soleil - 0705 Yzu - NOEUD - 0805 Deemax - SHOW - 0805 Folie's - Nosleeve - 0805 Genezio - NIA - 0805 JuL - J'ai pris le mic - 0805 Keeqaid - OffWhite 0805 K.S.A - Motion ft. thaHomey - 0805 Mandyspie - Shadow - 0905 Le Risque - Go 2 - 0905 Leto - Enlève tes pes-sa ft. Kaaris, La Mano 1.9 JKSN - 0905 Slkrack - Maman pleure pas - 0905 TIF - Nothing Personal - 0905 Voleur2Voleur - POUR CEUX ft. Mola Keuchei - 1005 Benjamin Epps - JOHN Q - 1005 Di-Meh - Ténébreux - 1005 GIMS - SPIDER ft. DYSTINCT - 1005 Huntrill Hologram Lo' - Le biff et moi - 1005 La F - Vie d'artiste - 1005 Loveni - MOODSWING - 1005 Malty 2BZ - Giltos - 1005 Mitch - C'EST PAS MES POTES ft. Mougli - 1005 Naza - Quillé ft. Ninho - 1005 Rafal - LA FEMME EN ROUGE - 1005 Soso Maness - DLB13014 - 1005 Vacra - Confidences ft. PLK - 1005 Zakaria Springer - Caméléon - 1105 MVSHY - Feel lucky - 1205 Kerchak - HOODTRAP 1 CAM 1305 Ben.C - CAH BENNY - 1305 TK - Hakim ft. YL 1405 Seth Gueko - Barrio ft. Kanoé Kyzi - 1505 Batbat - Chromer ft. Saamou - 1505 Genezio - DOULEURS - 1505 Good Bana - Habitué - 1505 Izar - Kasparov - 1505 Pbl - À la Hauteur ft. Jewel Usain - 1505 Rowjay - ORIGINAL FINESSEUR - 1605 Myth Syzer - PLAZA - 1605 DMS - BELLES CHOSES - 1605 RK - TACHE DE SANG - 1605 SCH - Cannelloni - 1605 Sheng - KIT-KAT - 1605 VEN1 - Bougie - 1705 arone - garder le sourire - 1705 Elias B4C - Attireur De Foudre - 1705 Gaulois - Sens interdit ft. Ninho - 1705 Gemen - MAISON DE CAMPAGNE - 1705 Gemen - SMS - 1705 HMZ - Pas fiable - 1705 Hornet La Frappe - Malaga ft. Dwen La Plaie - 1705 JKSN - Drogba - 1705 Kaneki - Mentalité - 1705 Lacrim - Colisée ft. SDM - 1705 Landy - G8 - 1705 Maydo - Noubti - 1705 Moha MMZ - Agoraphobe - 1705 Teklam - Questionnement - 1705 thaHomey - HORS JEU - 1705 Zequin - FLEX - 1705 Spider ZED - Cinq du mat - 2005 Advm - .QLQCHOSE. - 2005 Bluume Triple Nine - CUSTOMS DETECTOR DOG - 2005 Ibé - Regrets ft. Koba LaD Sno - 2005 Jwles - ahhhh 2005 TK - à l'écart - 2105 8ruki - Methadone - 2105 Toam - LINER 2205 Chily - Calculer x2 - 2205 Dexter HMC - Freestyle GramTélé 1 - 2205 Genezio - GÉ SAIT PAS - 2205 JEUNESAINT - Amy Berry ft. Pacho Diño - 2205 Norsacce - No Diddy - 2205 Papi Teddy Bear Pense - BOOBA EN 99 - 2305 Famille Nombreuse Slime Castro- Intéressant - 2305 Folie's - BAD! - 2305 Maes - SURVIE ft. Ninho - 2305 S-Pion - SOUROUGUAP - 2305 TH - ABKA 2305 TiBab - Hot ft. gapman 2305 Wood - GUTEN TAG - 2405 6rano - la BM La Bohème - Street Parody - 2405 Anas - Napoli - 2405 GS - À quoi ça sert - 2405 H Magnum - Mauvais djo 2405 Houari - Dis khamsa ft. Morad - 2405 Josas - Vanille - 2405 Kerchak - HOODTRAP 2 TOUCHÉ - 2405 Kore - Lalla ft. Hamza 2405 KR Malsain - Akkari City ft. W - 2405 La Famax - Jenny - 2405 Le Juiice - PAPILLON 2405 LEVELSANTANA - DAEMON5 - 2405 Nusky - Soké - 2405 OSO - Heart Beat - 2405 Princesse - Fifty Fifty - 2405 Raplume - 2 Cartouches ft. 410 - 2405 Soalo - Bubble up - 2405 Sokra - Ghetto Youth - 2405 Soprano - Freedom - 2405 Warren Saada - Déjà - 2605 MVSHY - STEP 2705 Doulkha - Météo - 2705 La Mano 1.9 - 51 Block - 2805 La Fouine - Chalgoumi - 2805 Toam - VIE PRECIEUSE - 2905 Genezio - DANS MON MONDE - 2905 Hippocampe Fou - Demi-Vieux - 2905 Jeune Morty - HORSE BLACK YOUNG NIGGA - 2905 Izar - 10 000 PORTES - 2905 Jaymee - TOUT LE MONDE AUTOUR - 2905 JRK 19 - BALADE - 2905 La Kadrilla - Machine A Production - 2905 Selug - X100 - SOS FREESTYLE - 3005 BRKBABYBOY - 529 - 3005 Gris Anthracite - Après l'hiver II ft. Ekloz - 3005 Saamou - Terrain d'herbe 1 - 3005 wasting shit - les fourmis - 3105 33mello - les livres que j'ai lus ft. Lester - 3105 abel31 - Impala - 3105 Diddi Trix - BAH OUAIS FREESTYLE - 3105 DIL - POUR EUX - 3105 HVmanyy - Ephémère - 3105 iTo - La fabuleuse histoire d'un rêve décadent - 3105 Kerchak - Sentiments - 3105 KLM - Sang - 3105 La Plaie - Je m'isole - 3105 Légendes Industries - Tribal King ft. Di-Meh - 3105 Leto - Tout gâché - 3105 Meryl - Mauvaise Élève - 3105 Poupy - Goyard - 3105 Zeu - WAGNER Juin - 0306 NDO Runway - Parler Pour Rien Dire - 0506 Alonzo - HASTA LA VISTA - 0506 Genezio - CHANGER LES IDÉES - 0506 Malo - PORSCHE 0506 Many Santana - Petit frère - 0506 Osmoz - Bonnes manières - 0506 Wallace Cleaver - plus rien n'est grave - 0606 A2H - Message pour son ex - 0606 Heuss L'enfoiré - La Raclure - 0606 MAPESS - Plans - 0606 Myth Syzer - SHAGGY - 0606 paulvitesse! - spaceship - 0606 SCH - Booska Prequel - 0606 Slkrack - Cristaline - 0606 TH - ISUZU ft. Alpha Wann - 0606 TripleGo - Ocean - 0606 winnterzuko - NORTH2 0706 Andos - Mannschaft ft. Mous-K - 0706 Caballero - Rose orangé - 0706 Davodka - Avec des mots ft. Sinik 0706 Elh Kmer - OKOCHA - 0706 ISK - Vérité 7 - 0706 Koba LaD - Freestyle BMF 1 - 0706 Krody - Frozen Jacquemus ft. Leto Kepler - 0706 Malko - Aaliyah - 0706 Malty 2BZ - Scammers ft. KLM - 0706 Mecra - Cendrillon - 0706 Niaks - Cagoulé ft. Maes - 0706 Nosnow - Dolo Introduction - 0706 Rohff - Fitna - 0706 Take A Mic - DRIVE 0806 Guizmo - Attention quand tu causes ! - 0906 Jeune Morty - MOTO - 0906 Neskoo - UHQ - 1006 808NOCHE - Gala - 1006 Strano - TRAMADOL - 1106 DOC OVG - Vendre - 1106 Mougli - Freestyle Hors-série 4 - 1206 Genezio - OFÉLÉ PÉLÉLÉ - 1206 HD La Relève - C'est un délire - 1206 Kebe Hyma - Wazz 3 1206 KR Malsain - Gueliz 1206 LUMJR - WALK - 1206 Selug - CERCLE FERMÉ - SOS FREESTYLE - 1206 Sherifflazone - JUGGIN 1206 Youssef Swatt's - Ancienne Belgique 1206 Zokush - Dès l'matin - 1306 Chanje - MERRICK - 1306 La Mano 1.9 - Canon ft. Niska 1306 Tovaritch - Fedor - 1306 TVMO - Abel Cain - 1306 Wallace Cleaver - le bus 1406 2R - 2ème Dose - 1406 404Billy - NAZI IS REAL! 1406 Bruni - SHOPPING - 1406 Danyl - Ti amo ft. Stony Stone 1406 FAYV - AMULETTE - 1406 Futur Bandit - Donjons 1406 Gambino la MG - Pass Secur' - 1406 Gradur - TI TI TI ft. SDM Rsko - 1406 HALO - Tour du Monde - 1406 Hornet la Frappe - Samira - 1406 Jeune Austin - SANS RETOUR - 1406 K2S - Dougie - 1406 La Famax - La vie de généraux - 1406 Laylow - DOGZ In the Studio - 1406 Liim's - Business Man - 1406 Lyonzon - Arah 4 - 1406 Maydo - 925 1406 MC Solaar - Okay ft. Marie-Flore - 1406 Moji x Sboy - 1, 2, 3 - 1406 Nahir - OTOMOTO - 1406 Naps - CUR DE ICE ft. Gazo - 1406 Rohff - Cardio - 1406 Rowjay - YOUNG JEEZY EN 2005 - 1406 Sasso - Ça traine la night - 1406 Spider ZED - Pansement 1406 Timal - Près du binks - 1406 Todiefor - kiss ft. Luv Resval 1506 Beeby - BITCH A - 1706 Yovo - ZIGOUILLE RACISME - 1906 7ETH - Bulletproof - 1906 7ETH - München - 1906 BKRBABYBOY - NONEWFRIEND - 1906 Connaisseur Ticaso - Rap Life 1906 Dadi - 4X Filtré - 1906 Genezio - NO LIMIT - 1906 Jwles - Redescend - 1906 Maes - MAGIE - 1906 Prototype - ENVIE - 1906 Souffrance - Death Metal 1906 Zequin - BANDO - 2006 Jeebs - 747 2006 Hache-P - Vanessa - 2006 La Hasba22 - MAYBACH - 2006 Nono La Grinta - Kelly freestyle - 2006 Sadandsolo - W - 2106 Beendo Z - BEENDO Z FREESTYLE SPONGE - 2106 Djadja Dinaz - Miss France 2106 Doums - Makaveli - 2106 GLK - Xavi Simons - 2106 Gotti Maras - La Vérité - 2106 Kaaris - QUÉ LO QUE ft. ElGrandeToto - 2106 La Famax - Sombrero ft. Biwaï - 2106 LauCarré - Merci la vie pour les douleurs 2106 Leto - Remontada ft. Mister You - 2106 Ponko - Mes Lovés ft. Hamza - 2106 RK - LIAES ft. La Fouine 2106 So' - EN BAS - 2106 The Strangers - Radiant Future ft. KT-Gorique - 2106 Zeg P - Juste une minute ft. SCH, Alonzo Josman 2206 Koorama Kamö - Compter ft. thaHomey - 2406 1D1R - Mona Lisa - 2406 Dexter HMC - Brandão - 2506 Max D. Carter - Pantoufles aux pommes - 2606 Deelee S - J'aurais dû naître à LA - 2606 Giuseppe - DOPEMAN - 2606 Good Bana - Ma Gang - 2606 ISK - BRAV-M ft. KLM Mola - 2606 Koba LaD - Freestyle BMF 2 - 2606 LUMJR - OFFICIAL - 2606 Sherifflazone - Abeille - 2706 HOUDI - RAP CONSCIENT - 2706 Theodora - JTM 1 PEU - 2706 Theodora - MON CASQUE - 2806 34murphy - la tour - 2806 Asdek - J'te Kiffe ft. Mara Sto - 2806 Beendo Z - INSPIRÉ DE FAITS RÉELS 7 2806 Bramsito - I Love You - 2806 Djadja Dinaz - Continents 2806 Elh Kmer - MILLA 2806 Fresh laDouille - La calle - 2806 Gambino - GTA 6 2806 Gemen - CERTIFIED HOOD CLASSIC - 2806 GRËJ - Les adlibs de Gunn Interlude - 2806 Hornet La Frappe - Ballon d'or - 2806 Jolagreen23 - 4BULLDOG - 2806 Kerchak - Play - 2806 KLM - NICKI - 2806 Landy - Changer ft. Guy2Bezbar - 2806 Lester - pierre lune - 2806 Moha MMZ - Ivre - 2806 MVSHY - MAGIE - 2806 Saïf - L'avalanche - 2806 Souldia - Fausse note ft. A2H - 2906 63OG - cé pour les ft. 63KLUF - 2906 Gazo Tiakola - NOTRE DAME ft. Angèle - 2906 Zitoune - Pour les sous Juillet - 0107 Artistes divers - NO PASARÁN - 0107 Zola - CSL EP. 1 - 0307 Hippocampe Fou - J'ai fini le taf - 0307 H Magnum - Knysna - 0307 Sheu - Petit ou grand - 0307 YUNG POOR ALO - La paume - 0407 Hotel Blue - Collé à lAmour - 0407 Draviss - Leroy Sané - 0407 LEVELSANTANA - ENCORE - 0407 Swing - Mérite - 0507 Brav - Un jour de plus au paradis - 0507 Gambi - HÉHÉ HÉ - 0507 GIMS - MAMACITA ft. Sfera Ebbasta - 0507 GRËJ - J'le mets pas sur lalbum gl0rilla - 0507 IDS - 3 X 1 - 0507 ihatemed Dofla - NPMV - 0507 Jayel - 3h du mat - 0507 Koba LaD - Un peu d'amour - 0507 L'Algérino - Roméo ft. Soolking - 0507 Le Dé - Cervôlan ft. Rhum One - 0507 Loko Martin Gal - Emoji - 0507 Mandyspie - Pretty Betty ft. Jaymee - 0507 Nakry - Premier pas - 0507 Rémy - Galérer - 0507 Savage Toddy - Vision floutée - 0507 Sheng - FCK SCHOOL - 0507 Sokra - Santa Monica - 0607 Allebou - TRANQUILO DE QUOI - 0907 Deelee S - Restaurant chic ft. Realo - 1007 Dalí - Détestable - 1007 Donkey - DOJA ft. Yona - 1007 Giuseppe - TOUT MISER 1007 Liim's - PROBLÈMES 1007 Owen - FREESTYLE LA PIECE - 1007 Serane - Dis moi - 1107 1PLIKÉ140 - CALMEZ-VOUS - 1107 Deelay - Chirurgie quantique ft. Adjectif - 1107 Guy2Bezbar - Monaco - 1207 A2H - La nuit où 1207 Amsi - Sans toi - 1207 Dadi - Dvm Freestyle - 1207 Hatik - Choré - 1207 La Hasba22 - CROSS - 1207 Loki Gonzales - WEEZY - 1207 Ninho Niska - Coco - 1207 OBOY - Tout y est ft. Jozii La Mano 1.9 - 1207 Rafal - L'ENFER C'EST MOI - 1207 Soso Maness - Allez ft. PLK Naps - 1207 Steban - Motown 1 - 1407 Anton Serra, Lucio Bukowski Oster Lapwass - Écriture automatique - 1407 LUMJR - NO HOOK 1 - 1507 Cheu-B - Gava - 1507 James Loup - 3 DÉFAUTS - 1707 Booska-P - Nouvelle École - Booska Freestyle - 1707 Jeune Morty - We Alive - 1707 Kai du M - Black On Black - 1707 Seth Gueko - Le marginal - 1810 FXLL Tonio 8cho - Omotunde - 1807 GLK - CARTEL DZ - 1807 Leto - J'ai l'impression - 1807 Lovarran - Morning Routine - 1907 Djadja Dinaz - La même histoire - 1907 GIMS - SOIS PAS TIMIDE - 1907 Jayel - Tatiana - 1907 Malty 2BZ - Nanas - 1907 Mécra - NO LOVE - 1907 OldPee - ANAKIN - 1907 SDM - MERCI - 1907 VEN1 - SD Night - 2107 LUMJR - NO HOOK 2 - 2207 DADI - Bah Ouais - 2207 JYEUHAIR - Misaotra - 2207 Youssef Swatt's - Générique de fin - 2307 HOUDI - TOTALLY SPIES - 2407 Lucci - Ten - 2407 Rounhaa - killa ft. Stormy - 2407 Sto - LAPTOP - 2507 Niaks - Darement - 2507 Tiakola - T.I.A - 2607 Didi B - 2025 - 2607 Gros Mo - Napoli ft. Alkpote - 2607 MadeInParis - las vegas 2607 Madrane - La valise ft. Stavo - 2807 1D1R - Caroline - 2807 H.E.M - Zinzin - 2907 TK - La trace - 3107 Afro S - LM - 3107 Genezio - EL GEMANO ft. La Mano 1.9 - 3107 Serane - Petit à petit Août - 0108 AMK - Règle No. 1 - 0108 Damys - Accélère - 0108 slump. - def jam. - 0108 TIF - Maylin - 0208 Dajak - Rayons ft. Swing 0208 Elh Kmer - WEAH 0208 Franglish - SHAKE - 0208 Maureen - TOC ft. JYEUHAIR - 0208 MHD - Full - 0208 Misa - Liens Cubains - 0208 Saamou - Jr Vini - 0408 daklaoma - petit navire - 0808 A2H - Jamais - 0808 Jwles - Bollywood ft. Slimesito - 0908 Baby Neelou - Rapporteur Vert - 0908 BLOODYSANJI - L.R. DEFENDER - 0908 Elias B4C - Cole Palmer - 0908 Lester - Faille Mystique ft. 33mello 0908 Malty 2BZ - En attendant Solitaire - 0908 Yonidas - Donne - 0908 ZKR - X-ADV 1008 Mahdi Ba - BDP ft. Norsacce Criminls - 1108 Futur Bandit - La Planète Sauvage - 1208 Chavi - BYN - 1208 Cheu-B - Block 67 - 1208 Norsacce - Trapistan - 1408 Godson Anybxdy - C'EST MZI - 1508 Lovarran - I Wanna See The Beach - 1608 13 Organisé - Bande organisée 2 ft. SCH, Kofs, JuL, Alonzo, Naps, Soso Maness, Elams, Solda Houari - 1608 D2 - Salaire de Zidane - 1608 GIMS - Terminal 2F ft. Dadju - 1608 GRËJ - Cage - 1708 Teklam - Face ID - 2008 Jeune Morty - King Troup - 2208 Deemax - UNIVERS SONS - 2208 Deemax - VILLAGE NATAL ft. Lyre - 2208 Lost - 20 Benz ft. Kekra - 2308 410 - Barbie ft. Mitch Ladrogua - 2308 Furlax - Maybach - 2308 Gambi - Tentation ft. Hamza - 2308 JYEUHAIR - VAULT - 2308 Moha MMZ - Only you - 2308 Saïf - Le bonheur est triste - 2308 T.I.S Lando - City Hope - 2308 XXXXMLZ - La ashe - 2608 Norsacce - Mirmillon - 2808 Folie's - Instinct Animal - 2808 Giuseppe - EYES ft. Twinsmatic - 2908 Advm - .SNEP. - 2908 Hotel Blue - KAIDO - 2908 Ratu - Décathlon - 3008 Ajna - MYTIME! - 3008 Brav - Liverpool ft. Youssef Swatt's - 3008 Coyote Jo Bastard - Website - 3008 Django - t'appelles ça vivre ? - 3008 Jester SHF - Centre du ring - 3008 Kaki Santana - Money Boy II - 3008 PRIME - Pourquoi - 3008 RD - Plaie ft. Mécra - 3008 Says'z - CALAPA - 3008 Tiakola - MANON B ft. Ryflo Oskoow - 3008 Trankil Trankil - Comment on surf ft. thaHomey Skuna - 3008 your.nash - leurs yeux ternis - 3008 VEN1 - Vanilla - 3108 ANTHA Jeune Ras - Pataugeoire Septembre - 0209 Diddi Trix - Les affaires - 0209 Jwles - Mon Bol - 0309 Dirlo - 140 kmh - 0309 Lucio Bukowski Tcheep - Des Siècles Des Poussières - 0309 The Strangers - Rise Together - 0409 8ruki - SWAG - 0409 Good Bana - Chez toi - 0409 Lucio Bukowski Tcheep - Les Songes que nous pouvons - 0409 Mécra - Moovie - 0409 Savage Toddy - Wife - 0509 joysad - Enfers - 0609 13 Organisé - Sous le soleil ft. JuL, LAlgérino, Alonzo, Fahar, Menzo, Le Rat Luciano, Don Choa, A.S., Vincenzo, Soprano Sat - 0609 AKISSI - PQ TU QUÉMANDES?? - 0609 babyxi - MAISON BLANCHE - 0609 B.B. Jacques - BITCHES RYADS - 0609 GIMS - Vent du Nord - 0609 James Loup - ROCKSTAROUIGO - 0609 JYEUHAIR - QUOIPOURQUOI - 0609 N3MS - LE BRUIT DES VAGUES - 0609 Ninho Niska - 911 ft. Koba LaD - 0609 Saïf - La bohème. - 0609 Spider ZED - 30 secondes - 0609 Trankil Trankil - Philosophe ft. Nicholas Craven - 0609 Zbig - Zanekkk - 0809 Farloski - Trading - 0809 Nobodylikesbirdie - Missed In Action - 0909 Triple Nine - Le Béton Le Ciel - 0909 Yovo - TROUBADOUR EN DURAG ROUGE - 1009 Khali - FREE - 1009 LEDOUBLE - MTP ANTHEM ft. OgLounis - 1109 2C - MENTALE ft. Lucci - 1109 Heloïm - ROMANCE - 1109 HOUDI - CONTRE LA GALERE - 1209 Chanje - SANG DE GREC - 1209 EDGE - Pas pour rien - 1209 Giuseppe - NCAA - 1209 Jolagreen23 - 360TrickShot - 1209 Lovarran - M. Yamamoto - 1309 Davodka - Héritage ft. Deadi Cenza 1309 Didi B - Aladji toutouya - 1309 Dosseh - Yezzir - 1309 FEDALL - CE RISQUE - 1309 Gemen - LA MAIN SUR LE COEUR - 1309 Gringe - Confession d'un hypersensible - 1309 Jeune Lion - Rozin - 1309 Josué - Raison 1309 La Famax - Ma poupée - 1309 Légendes Industries - Primo Piatto ft. JeanJass - 1309 Le Lij - Monkey 47 1309 MHD - Kata - 1309 OBOY - Un peu - 1309 Rowjay - GENERAL FINESSE FREESTYLE - 1309 Scylla - Répondez-moi 2024 Humains - 1309 SDM - TOKA ft. Hamza - 1309 Slkrack - Putain de mood ft. IDS - 1309 Tedax Max Ismayyyel - POUR LA VIE 1309 thaHomey - ALL NIGHT ft. Sonny Rave - 1309 Tri Minh - Dernier Domino - 1309 USKY - Hades - 1309 Youv Dee - 2017 - 1309 Zkr - Cur lourd ft. Massine - 1509 Khali - KHALI IL SAIT - 1609 Tiakola - FORMIDABLE - 1809 Dexter HMC - Wilder 1809 Tisma - MONOPODIUM - 1909 Dooz Kawa - Sisyphe 1909 Mola - 80 zedou - 1909 Niaks - 'Ndrangheta ft. Maes 1909 Zek - Localisable 2009 Bramsito - My Baby - 2009 Chily - Je la connais Na Yébi Yo - 2009 Gambino - Dans ta fête - 2009 Itsyaboykp - Sans Moi ft. Ashh - 2009 La F - ROCKET LEAGUE - 2009 Timal - La 17 - 2309 Khali - FOREVER 2509 77 Degrés - 77 degrés ft. RK, ISK, Negrito, Timal, UZI SenSey' - 2509 Ajna - 20 - 2509 err walou - FROZEN - 2509 gapman - B.A.B Remix ft. Enima VT - 2509 Hippocampe Fou - Respire - 2509 Implaccable - BOSS l'argent n'est rien pour moi ft. O</t>
+          <t>H Magnum Rentrez chez vous Big Black M Rentrez chez vous Fin de Dream Big Black M, H Magnum TPP T'as trop de swag Black M Arrête de bire poto Comment tu fais ? Arrête D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt J'ai fais des gosses à la Critique, je les ai appelé Disques d'Or Ferme ta gueule akhi parce que mon fils dort Gotham City, H Magnum a buté Batman C'est pas une punch'... C'est une blackline ! Attends, attends, rimes aiguisées, flow c'est qui ça ? Peggy déguisée, heu non c'est trop bizarre ! Inimitable, j'me limite pas aux MCs Mais ché-la ton idole, tu l'imites mal J'vais sponsoriser ta mif', ton clan, ta te-tan T'as le seum, t'aimerais ne pas bouger, mais le son fait que t'es dedans One shot, here we go ! Appelle moi Black Luigi C'que j'vois c'est trop gros, personne n'a le budget T'es pas prêt, sur le beat je slalome Chacun pour sa peau, en 2013, akhi c'est ça l'Homme Les cles-on au foyer, faut pas les renvoyer La vie c'est pas nos clips, ça se passe pas comme vous le voyez Problèmes, loyers, j'veux arrêter de vouvoyer T'es pas prêt Black M est malade, personne pour le soigner T'es pas prêt M'sieur l'agent, tu m'fais mal au poignet T'es pas prêt Je l'ai d'ja roulé, c'est entre moi et le douanier Laissez-moi dans mon délire, j'suis atteint j'ai pas le temps J'ai v'là le flow j'ai déjà bossé, explosé l'Apogée Attend j'vais te décomplexer, à tout jamais Tu vas ger-bou ta te-tê sur mon texte les mains en l'air Maudis Game, ils finiront tous intérimaires Oh dis-moi, mais tu n'as pas la gueule du winner ! Qu'est-ce tu racontes ? Ferme ta gueule TeddyRiner Le but c'est de taper les ventes de celui qui chantait Thriller Ça bosse, ça fait des lustres Portes et fenêtres scellées, oui la famille j'ai dû m'incruster ! D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Si tout le monde arrête de courir, vouloir être riche Je me dis qu'on pourrait profiter de nos êtres chers Le monde appartient aux gens qui ont la meilleure literie Mais qui n'ont pas plus de sentiments que Dexter Très cher, passe-moi le cro-mi qu'on en finisse, que je les punisse Tellement génie, j'peux faire rimer Dream, Nutella et Pénis Oups ! T'es pas prêt, efface mon num, retrouve moi sur la Lune BOOM je suis là ! Girl what you gonna do ? Toi qui connait tout, je vois qu't'es dans le doute Et ma douce on a vu ton boule LaureManaudou Désolé, c'est vrai que mon cerveau m'écoute peu J'ai remarqué ce truc depuis que j'suis tit-pe Issu du petit-peuple, non j'suis pas un people J'suis banal comme un renoi qui meurt d'un coup d'feu J'rappe trop bien, pas besoin d'être validé Vous m'avez négligé, j'viens vous faire valiser MC fais le tour, la prod' est balisée L'album attendu comme la mort de Johnny Hallyday C'est pas une punchline... mais c'est une bourde Donc je me désavoue mademoiselle, après vous Paris c'est fini, y a de la folie, viens me follow Petite souris, moi je serai Tom, et toi tu seras Jerry Appelle-moi H-Smith Wesson J.M Weston, j'kick sur WhatsApp T'es pas prêt, j'massacre, j'suis en mission J'ai tranché le son FleuryMichon Oups Trop de bâtons dans les roues, donc j'ai décidé de marcher MC y a du flow ici, viens faire ton marché J'suis un vrai tueur un vrai de vrai Si t'as les crocs, quand tu croquais, moi je mâchais J'tiens ma rage sous les jupons d'une meute yeah M.C.'s j'vous fais rapper mieux qu'hier D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bella ciao</t>
+          <t>Naïf</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>De Marseille à Paris</t>
+          <t>Tu me l’avais promis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
+          <t>Intro Discussion en arabe Drobt minou joj Tad a3li Papa Tad a3li Papa zid yak Wach oudi gouli a3di yal hmar Ana sidi lkher ta3dak ma3 el fstish Chkoun hada Li 7wak ya weld el 9a7ba Ta3la oujdi amouk Yallah Tfarga3 daba a zamal Wahed el Zero ya weld el 9a7ba La maille me motive une meilleure vie comme motif Sort pas d'chez toi sans y laisser c'que t'as d'plus émotif Ils veulent jouer dans notre div' sur ma mère c'est qu'des pitres Pour calmer tous ces nerfs j'dois en fumer des litres A-L Bandit gros scar-la, j'veux qu'des carats Faut que je sois parer à m'barrer d'ici, et bon débarras Sans gêne dans les escaliers, ça découpe des 100g Si ton pote d'enfance te parle plus c'est peut-être toi qui as changé Les grands de la cité sont rangés, y'en a au placard Egoïste j'vais voir ma sale gueule sur ma Blackcard Les p'tits d'chez moi bah ils te séquestrent pour ta gold Quand tu sèmes le vent c'est des bastos que tu récoltes Pour les gens pieux la vie est moche mais la mort est si belle Des fois j'aimerais être une mouche pour ressentir les décibels J'représente ville-Belle comme Halimoush et Bebel J'resterais vrais, frais et prêt jusqu'à ce que le Seigneur m'appelle Quand on s'y met tu peux faire une croix, on vient pas pacifier Demande à tonton Bruler, j'taille vif et l'compte est pillé On vient pas pactiser mais putain qu'est ce qu'on va tiser Tu m'allumes, j'te rallumes avant d'avoir cicatriser Au bled le prix du visa il coûte les yeux d'la Mona Lisa C'est Yougataga on m'commande pas j'suis pas une pizza J'rap français, je l'ai froissé j'en ai fait de la rfissa La cavale, le hebs, la gloire c'est pas arriver fissa-fissa J'suis comme l'eau qui dort, j'ai les dent qui poussent Il m'faut mes kilos d'or avant que je les liquides tous Qu'il m'avance un mètre carré j'ai envie d'me barrer J'ai vingt ans on dirait que j'en ai pris 5 cette année Tout est carré, pour la mama faire des sous fallait Sur l'terrain armé quand ça risque de rafallé Paris 5 sur le pavé, y'a des chose que t'as pas vu Toxicomane j'avoue, j'pète un garde à vue Au bistrot on m'ressert un cocktail de rue J'sais m'tenir même face à une gazelle en p'tite tenue On veut l'plein comme Phillip, rouler en 6 litres 3 On fume le game comme une tulipe, on y est tant qu'on s'y crois Woogataga, j'ai c'qui faut dans la cabeza J'pourrais acheter un Lamborghini si j'vendais l'tiers de ma pe-sa Doigt sur la gâchette, la main dans que-sa Les 3aineurs j'les prend par qu-cin niquer des mères je n'demande que ça No Times Records, j'ai à peine le temps d'niquer des 9a7' tranchant, masteriser j'suis blinder d'équerres T'allumes ta mère, j'viens à tes obsèques et j'fais semblant d'rer-pleu Comme dit XXX des mecs comme lui darwa il en reste très peu Decorticant mon seize y'a d'quoi prendre 5-6 années Crois moi qu'on va t'perdre et qu'personne ne va gagner Où est-ce que t'as planqué ton tos-ma ? m'a demandé l'douanier J'lui ai dis j'ai tout mis dans l'crâne j'avais trop besoin d'me soigner Et ouai la rue c'est paro, ma poto elle m'a rendu fou Les keufs nous prennent en photo, ces schmeta s'prennent pour fifou Paranoïaque, j'arrive une heure avant chaque rendez-vous Si t'es un brave j'allume pour oit, gratuitement j'me dévoue Entre contrôle incessant et actes insensés Tu deviens plus sain une fois blesser ou t'es mort arrosé Sous whisky coca-cola on passe du coq à l'âne On voit la coka khoya toute notre vie c'est une cavale On a du seum's et du caviar, on a d'la pers et de l'écaille Si t'as un plan laisses nous l'temps juste qu'on déniche les faille Souvent éméché tous de sacré buveur Aucun d'mes potes à la cité pourra t'raconter c'que j'ai pu faire Rien qu'ça blablate na-na-ni-na-na-nère Moi c'est Al Bandit j'baise leur mères et leur grand-mères Celui qui s'en sort Al hamdoulillah après la pluie y'a l'tonnerre Cinq dans les veujs une dans les molaires fallait pas nous mettre en colère STA-IVE Music, on va tout refroidir dans ce système solaire On va faire du biff' et puis finir dans l'rif actionnaire Investit dans une goule-ca, poushka, une bécane XXX Laisse du wari pour l'avocat dahwa en cas d'caution Khey j'suis cramé comme un keuf sur un varadero A croire qu'à mon âge j'suis devenu un parain de l'héro Ok on a pas les mêmes buts quand t'oses y aller on n'y allait plus Quand ils sont arrivés, ils leurs ont tous dis qu'on leurs a baisé leurs mères les putes T'es charmante, t'es sexy, t'es marrante suis moi Khabta j'vais t'ken comme un taulard sorti d'46 mois Woogataga rhum-pom-pom-pom-pomme J'te dis te méfier de Eve car le vice naquit par la pomme Mais ou est passer ton oseille, sérieux tu te rappelles pas En te-boi avec dix bouteilles, en train d'frotter deux p'tites kahba Aie-aie-aie, on agit avec extravagance C'est vrais qu'des fois même en prison on a l'impression d'être en vacance Ils veulent causer avec moi mais moi j'cause pas avec des brêles Tout les p'tits reufs du rap game moi j'leur remonte les bretelles L'enquêteur il m'sort une vie que j'cache à ma meuf Un kilo d'weed si tu veux qu'avec les reufs on s'plait à ta teuf T'inquiètes pas on va t'atteindre si tu joue la folle Les 3aineurs comme les groupies bah y jouissent à la demi-molle Si t'as un plan ro-ro mon soce passe au quartier Avec You on gère que des bombes appelle nous les bombardiers B-r-r-r-a-a-a le cauchemar du rectorat Si tu fais l'malin ahah ! une rafale direct aux reins Vendredi 9 Aôut reprise du championnat J'suis déréglé moi ouai j'suis tout l'contraire de ma Daytona C'est l'anniversaire à XXXX, soir-ce on nique le 7okoma Les suceurs sont dans l'coma Ils avaient trop d'sperme dans l'estomac J'vous l'avais promis bande de schmeta J'pète le million et j'quitte la France Nique l'état vive le bled, j'ai la nostalgie d'mon enfance Discussion Outro Al Bandit Raaah You faut prendre des pépètes, faut s'barrer Mister You Aaahh ! tu connais Eh! Eh! Al Bandit J'connais la banlieue d'Bériz Toutes ses avarices Quand j'ai besoin d'tendresse j'passe une nuit avec mon khalis Mister You Ahahah ! Oh le con! Woogataga, Al Bandit B-r-r-r-r-r-a-a-a-a-h !</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Malheur, malheur</t>
+          <t>Lo Mismo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Tú, tú, tú, tú tú, tú, tú, tú Quizá fue un error confiar en ti Solo me quieres cuando estás mal La última opción en tu lista Me cuesta creerte que por fin Luego de tanto, me quiere' Y ahora no creo en mujere' Viene' y va' cada ve' que sale mal Tú sabe' quién te va a ayudar Oh Ya yo no sé si lo pueda tolerar No te conozco nada como ante' Teníamo' una excusa Me quería y ahora, solo me usa Respóndeme bien Esta vez, quién s que eres tú? Tú, tú, tú, tú No soy tu muñco voodoo Tú, tú, tú, tú Pa' que hagas lo que quiera' a tu antojo A tu antojo Un día, verde después otro, rojo Rojo Sé que algo malo esconden tus ojos Tus ojos Quiere' hacer lo que quiere', pero no puede' Eh, eh, eh, eh No, baby, no lie Y aprovecha que me tiene loco to' ese style Wuh Junto', tenemo' una connection y es size Pero luego, algo te pasa y se pierde el Wi-Fi Así que, dime, mami, qué es lo que vamo' a hacer? Si nadie gana, si todo se llega a perder No to' se arregla con sexo luego de beber Cambia, si tú quiere', pero aquí no va a ser Porque no soy santo pa' que tú me pida' Pero luego de hacerme daño, mi vida Si hay problema, le buscamo' la salida Si no quiere', entonce', sigue con tu vida, mami Porque no voy a seguir jugando Ajá Con esto, que no' está matando Nah-nah Y que no haces nada pa' arreglar Esta vez, quién es que eres tú? Tú, tú, tú, tú No soy tu muñeco voodoo Tú, tú, tú, tú Pa' que hagas lo que quiera' a tu antojo A tu antojo Un día, verde después otro, rojo Rojo Sé que algo malo esconden tus ojos Tus ojos Quiere' hacer lo que quiere', pero no puede' Eh, eh, eh, eh Viene' y va' cada ve' que sale mal Tú sabe' quién te va a ayudar Oh Ya yo no sé si lo pueda tolerar No te conozco nada como ante' Teníamo' una excusa Me quería y ahora, solo me usa Respóndeme bien Esta vez, quién es que eres tú? Tú, tú, tú, tú yo no sé! No soy tu muñeco voodoo Oh, no tú, tú, tú, tú muñeco voodoo Pa' que hagas lo que quiera' a tu antojo Lo que quiera' a tu antojo Un día, verde después otro, rojo Rojo, oh Sé que algo malo esconden tus ojos En tus ojos Quiere' hacer lo que quiere', pero no puede' N-O-R-E-H Noreh, ah Kid Fresh Kid Fresco Mangus IVDA IVDA El Chico de la Mafia, ah Lo' mismo' bandido' Yo' que le gustan a tu chica</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sans rétro (Pilule Bleue)</t>
+          <t>Fin de Dream</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice Maître Gims s'en va, très loin quelque part Si tu jactes sur moi, je n'serai qu'à quelques pas Tu n'existes pas... krr, paw ! Ne me teste pas, casquette, lunettes, be-bar J'ai grandi sur l'ciment, entouré d'caïmans Dans l'noir, quasiment une balle avec des sentiments J'sais rien faire correctement, j'peux pas faire autrement Sept-Cinq-Double-Zéro-Neuf EmpireOttoman Dans l'hall on fumait, mal de crâne, trop d'fumée Tout ça pour oublier qu'chez moi c'est p'tit comme un comprimé Malgré ça, pas d'remède, les flics à quelques mètres Quand tu seras maître, j'serai sûrement à des kilomètres Dans l'noir on s'camoufle, plus d'deux mètres, on t'cafouille Fuck la hiérarchie je suis le champion de Capou Le chanteur de ta douce femme qui met son flouze à la Fnac Pour écouter du meu-Gui sous sa douche Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice On n'demande pas l'avis d'un mort, ni son chemin à un aveugle J'vis dans l'noir tu veux m'voir ? Fais un vu J'suis difficile à comprendre comme Hamdoulah chez les envieux Tu capteras mes punch' du mois d'mars au mois d'janvier Bande de cons, que des grandes enjambées J'suis dans l'coin, ressentez-vous l'danger ? J'vous bande les yeux vous verrez qu'j'ai pas changé J'fume pas d'shit, dans mon crâne j'ai un 100G J'fais du rap satirique, sur tes ondes satellites Et je sais qu'ça t'irrite, une gâterie ça mérite Laisse-moi juste cinq minutes, préviens ceux qui m'imitent Style, flow sans limite, pour le feat 200.000 eu' Pas d'swag Kamini, 20ème hood, Hara Kiri Quartiers Est Germanie, Wanted ChebMami Appelle-moi loi de gravité j'vais t'faire tomber Putain d'rap game moins d'salaire qu'un plombier Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anakin</t>
+          <t>10/10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A B C D E F G H I J K L M N O P Q R S T U V W X Y Z Graduated Last updated October 30, 2024 Feel free to add any VTubers that aren't on this list using this format! Agency or groupGraduating Soon as far as active contributors know of Give them some support before they're gone by clicking on their names! - 2 8 Hachiya Eito A - 145Abyss DIVA AesopDu Aether Crescentia African Penguin -Cape- KemoV Agato Yo Ageha Kocho DRAMATICAL RECORDS Aia Amare Nijisanji Aibare Hinata Masquerade Aimi Hada Sedai One Aira ANiDoLL Airani Iofifteen hololive ID Airi Viridis V-Dere Aisha Polygon Aishii Ai Aisu Kurimu Yume Girls! Aitsuki Nakuru Aitzu Arashi Aizawa Ema VSPO! Aizawa Momo VOICE-ORE Aizono Manami Nijisanji Aka Tin Noname Production Akabane Youko Nijisanji Akai Haato hololive Akaki Akira Akama Azato Airy Production Akami Chiyo Yume Girls! Akane Canna Nanashiinku Akari Cleo Akatsuki Clara Palette Project Akatsuki Mikado LiLYPSE Akatsuki Oboro LiLYPSE Akemi Arlin Pixela Project Akesa Akito Aki Rosenthal hololive Akie Akino Akira Ray Nijisanji KR Akiz Lica Akugaki Koa idol-ES Akuma Miko Alban Knox Nijisanji EN Alden Ryouken SNOWDROP ID Alia Adelia MAHA5 Alias Anono V4Mirai Alicegawa Iwori Alicja Da Lontano Globie Alma Vivi Yorumachi Project Alulu Lia Amagami Su Sinsogumi Amaha Ari Amahane Miran StarRing Amahane Yotsuha Amai Mipu Light Up Amakawa Hano ReAcT Amaki Okome KAWAII MUSIC Amaki Pururu REJECT AmaLee Amama Nia Amami Kotono propro production Amamiya Kokoro Nijisanji Amane Kanata hololive Amanohoshi Chiroru propro production Amaochi Suu Amashiro Hatsuka aMatsuka Live Union Amatsuka Uto Amatsuki Amau Meiko Amaui Nanashiinku Amekaze Virtunix Amemachi Hanabi Amemochi Nina Varium Amemori Sayo Nijisanji Amenawa Yae VEE Ameno Haru Ami Yamato Amicia Michella Nijisanji ID Amiya Aranha AMOKA Amon Yuuku Noname Production Anastasia White Sedai One And Uge Nanashiinku Andou Inari VirtuaReal Link Andrea Oswald H.Live Anew Uparu VEE Ange Katrina Nijisanji Angelica H.Live Annin Miru Anon Non PRISM Project Anya Agartha Marshall Polygon Anya Melfissa hololive ID Aohanemi KAHO-FAMI Aoi Crescent Algorhythm Project Aoi Hinamori KAHO-FAMI Aoi Nabi Aoi Neno Aokami Koneko Aomi Hikaru AiceClass Aomiya Yozuri VEE Aono Nemo Sedai One Aosora Popo Algorhythm Project Aphrodi Vainilla Yume Girls! APOKI VV ENTERTAINMENT Aragami Oga HOLOSTARS Araka Luto PRISM Project Aranis Elvene Pixela Project Ardalita Lilibelle Pixela Project Arisa Light Up Ark Algorhythm Project Ars Almal Nijisanji Artemis of the Blue Artoria Mikan ARU Sinsekai City Project Aruka Arurandeisu HOLOSTARS ASA-sensei ASA Asagi Saki VOICE-ORE Asagiri Asahina Akane Nijisanji Asakura Mashiro Asakura Yukai Asano Akane Asano Sisters Project Asano Ruri Asano Sisters Project Ashino Ashizawa Saki RIOT Music Astel Leda HOLOSTARS Aster Arcadia Nijisanji EN Asteroth Algorhythm Project ASU Sinsekai City Project Asuka Hina Nijisanji Asumi Sena VSPO! Athena Nightingale AkioAIR Atlanteia Sireen Pixela Project Audrey Mina VEE Axel Syrios HOLOSTARS EN Aya Anny Ave Kanehoshii AKA Virtual ayamy Ayna Algorhythm Project Ayunda Risu hololive ID Aza VirtuaReal AZKi hololiveInonaka Music Azukizawa Azuki Azusa VirtuaReal Link Azusawa Maron B - 18Baabel Algorhythm Project Baacharu .LIVE Babel Zerlegen MIIRHAKI Babu Baku Algorhythm Project Ban Hada Nijisanji KR Banzoin Hakka HOLOSTARS EN Bao Batkiz VOICEMITH Beamori Yurumo Belmond Banderas Nijisanji Benikaba Sakura VOICE-ORE Bretta Crossrain Bianca Algorhythm Project BobSappAim Bonnie Barkswell Globie Bonnivier Panaja Nijisanji ID Byakko T. KenshiroC - 37Cago Yorumachi Project Calista Algorhythm Project Camomi Camomi Carro Pino .LIVE Cecilia Immergreen hololive EN Cerafine Mikael Pixela Project Ceres Fauna hololive EN Cersea Soulstorm idol-EN ChaAYM Chae Ara Nijisanji KR Chaos VirtuaReal Charles Lupus Charlotte Suzu production kawaii Charlotte Sylvilia SNOWDROP ID CheukCat Chiaki Katsumi PixelLink Chigusa Maru KAHO-FAMI Chiharu VirtuaReal Chika Kameria Virtunix Chikafuji Lisa idol-EN Chilla Behemos SquareLive CHINO VALIS Chisaka Airi Phase Connect Chitose Moe VOICE-ORE Chiyuu VirtuaReal Chloe Pawapua ReMemories Chrono Lock ViViD Ciel KAMITSUBAKI STUDIO Ciel Tacitly CLOHAN Coffee Milu RefAce Coni Confetti idol-EN Cotonoha VEE Coyote KemoV Crimson Ruze HOLOSTARS EN Cyan Cygnus Xtreme Deep Field ProjectD - 19Dacapo Algorhythm Project Daimonji Ryugon VOMS Project Daisy Dandelion idol-EN Debidebi Debiru Nijisanji DeepWebUnderground Sinsogumi Delutaya Denkeki Onegai Dennou Shojo Siro .LIVE Derem Kado Nijisanji ID Dire Wolf KemoV Ditxiz Senpai Dokibird Dola Nijisanji Domyoji Cocoa RIOT Music Dosei Virtunix Dr.NOVAe V4Mirai Draki Konae Pixela Project dtto. REJECT DUSTCELL KAMITSUBAKI STUDIOE - 28Earendel Xtreme Deep Field Project Eba Kyouka Palette Project Edo Lena Effy Algorhythm Project Eileennoir Algorhythm Project Eine VirtuaReal Elaine KoMETA Eleki Anatares Eli VirtuaReal Link Eli Conifer Nijisanji Elia Stellaria V-Dere Elira Pendora Nijisanji EN Elizabeth Rose Bloodflame hololive EN Else Project BLUE Else with Poki the shark Project BLUE Elu Nijisanji Emberlith EmmaAugust Nijisanji Enma Ruri Live Union Enna Alouette Nijisanji EN Enomiya Milk NoriPro Enya Ignis idol-EN Erai Amae VEE Etna Crimson Nijisanji ID Eurus AK McQuinn MIIRHAKI Evalia Algorhythm Project Evelyn ReMemories Ex Albio NijisanjiF - 24Fairys BANs Fallenshadow Faminé Algorhythm Project Finana Ryugu Nijisanji EN Flare Rune Fox Daya KAHO-FAMI Froot VShojo Fubuki Susanoo Airy Production Fuji Aoi Fujikura Uruka Phase-Connect Fujimiya Kotoha Palette Project Fukumaki Yuka Bushiroad Creative Fumi Nijisanji Fumi Hausu Polygon Fumino Tamaki Nijisanji Furen E Lustario E Nijisanji Fushimi Gaku Nijisanji Futakuchi Mana Futami Lux StarRing Futami Toru StarRing Fuwa Minato Nijisanji Fuwamochi Anko ViViD FUWAMOCO hololive EN Fuyo Cloverfield idol-ENG - 18Gaon Nijisanji KR Gavis Bettel HOLOSTARS EN Gawr Gura hololive EN GAWRU Stargazer GEEGA VShojo Gekkou Tsukuyomi Airy Production Geppaku Lui VEE Gema Gathika AKA Virtual Gentiana Helix SNOWDROP ID Genzuki Tojiro Nijisanji Gigi Murin hololive EN Gilzaren III Nijisanji Gojyo Mizuki Airy Production Goldbullet HOLOSTARS EN Grimoire Gudetama Gwelu Os Gar Nijisanji GX AuraH - 92HØRI 07 MyHolo TV Ha Yun Nijisanji KR HACHI Live Union Hachiya Nia 88.nia Haimiya Kei Sleep Monster Hakari Kanna Hakase Fuyuki Nijisanji Hakos Baelz hololive EN Hakui Koyori hololive Hakuja VirtuaReal Hakushika Iori Phase-Connect Hal Rayon Vert propro production Hana Macchia Nijisanji ID Hanaarare AiceClass Hanabasami Kyo ReAcT Hanabatake Chaika Nijisanji Hanabi Lafy Pixela Project Hanabusa Lisa VSPO! Hanagumo Kuyuri Hanaizumi Joa Hanamiya Ciel Light Up Hanamori Healthy Hanasaki Miyabi HOLOSTARS Hanatan Haneuzu Miuneru VOMS PRoject Hanon AiceClass hanser VirtuaReal Star Haruka Karibu VShojo Harusaki Air Nijisanji Harusaruhi KAMITSUBAKI STUDIO Hayama Marin Nijisanji Hayanagi Chigusa RefAce project Little Lindo Hayase Sou Nijisanji Healing Hebiyoi Tier Nanashiinku Hell-sama Sleep Monster Henya the Genius VShojo Hibasa Akari Airy Production Hibiki Yui Hibiya Tsubasa ANiDoLL Hideaki Haru Hiei Hasta Airy Production Higuchi Kaede Nijisanji Hijirime Laeria Hikasa Tomoshika VOMS Project Hime Hajime VShojo HIMEHINA Himekuma Ribon ReAct Himemori Luna hololive Himesaki Yuzuru NoriPro Himitsu Kano Live Union Himukai Kogane VOICE-ORE Hinabe HongFei Pixela Project Hinahoshi Airu VEE Hinata Mashu Nanashiinku Hinata Nayu Noname Production Hino Akane Light Up Hinokami Hikone Hinokuma Ran Nanashiinku Hinotori Mera propro production Hiodoshi Ao hololive DEVIS Hitsugi Miya Light Up Hitsujimusume Meme Hira Hikari Nanashiinku Hiyori Chihiyo VEE Hizaki Gamma HOLOSTARS Hizuki Miu WACTOR Hoku Polygon hololive IDOL PROJECT Honma Himawari Nijisanji Hoozuki Warabe NoriPro Hosaki Menma Hoshifuri Iku PRISM Project Hoshifuru Ameru Hoshii Mikuri UniVIRTUAL Hoshikage Lapis Hoshikage Lapis Mare, the familiar spirit Hoshikawa Sara Nijisanji Hoshimachi Suisei hololive Hoshimi VirtuaReal Hoshina Rulia Hoshino Charlotte Hoshino Runa Yume Girls! Hoshino Supika Masquerade Hoshino Tamami Polygon Hotaru Hourei Tenten Houshou Marine hololive Humboldt Penguin -Hululu- KemoV Hunger VirtuaReal HyougaAlpha Algorhythm Project Hyouma Kohaku GlobieI - 36Ibara Hiyori Ibaraki Prefecture TV Ibrahim Nijisanji Ibuki Meno PRISM Project Ichijou Ririka hololive DEVIS Ichinose Uruha VSPO! Ienaga Mugi Nijisanji Ieiri Popo Nanashiinku Iida Pochi Ike Eveland Nijisanji EN Ikinone Tomeru Sinsogumi Ikoi Momoa propro production Imi VirtuaReal Ina Uruu Nanashiinku Inaba Haneru Nanashiinku Inari Iroha NoriPro Inuchiyo Kokona Stellar Cycle Campus Inugami Korone hololive Inui Toko Nijisanji Inukai Purin Inuki Matoi ReAcT Inumiya Sayuru StarRing Inuyama Tamaki NoriPro Inuyuki Rion CHIMARU Io Project A.I.D Iori Nemea Stellar Cycle Campus Ion Kurumi Iris Lucen Light Up Iruna Usui Ironmouse VShojo IRyS hololive EN Isabella VirtuaReal Link Isekaijoucho KAMITSUBAKI STUDIO Isla Coleman production kawaii Island Fox -Shimahai- KemoV it's hi Algorhythm Project Ivy Algorhythm ProjectJ - 9Jezen Ijen Virtunix Jinxy VirtuaReal Link Joe Rikiichi Nijsanji Joi VirtuaReal Link Jolly Estaa Pixela Project Josuiji Shinri HOLOSTARS EN Juna Unagi idol-EN Jurard T Rexford HOLOSTARS EN Juufuutei Raden hololive DEVISK - 134Kaduki Mikuru propro production Kaela Kovalskia Hololive ID KAF KAMITSUBAKI STUDIO Kaga Nazuna VSPO! Kaga Sumire VSPO! Kagami Hayato Nijisanji Kagami Mira project Little Lindo Kagetsu Airy Kageyama Shien HOLOSTARS Kagimiya Ciel Kagura Mea Kagura Nana Kagura Suzu .LIVE Kai Saikota idol-EN Kaida Haru Nijisanji Kakyoin Chieri .LIVE Kakyoin Papiko AiceClass Kamba Kihaya StarRing Kamioka Chiroru Kamiko Kana Kamina Kohane Palette Project Kaminari Qpi VSPO! Kamino Hikari Stellar Cycle Campus Kamise Yowa Light Up Kamishiro Natsume Kamishiro Rita PRISM Project Kamito KAMITSUBAKI STUDIO Kamiya Juu Kamiyu Reirin Pixela Project Kamizuki Naki PRISM Project Kamuri Amuru Kanade Izuru HOLOSTARS Kanade Kanon Nanashiinku Kanade MiMi Kanae Nijisanji Kanaru Hanon Palette Project Kanase Ito Sleep Monster Kanda Shoichi Nijisanji Kanna Tamachi Kannagi Kurama Kano Mahoro KARA project Little Lindo Karon VirtuaReal Link Karu VirtuaReal Kashiko Mari ReAcT Kasuka VESPERBELL Kasukabe Tsukushi Kataribe Tsumugu Nijisanji Katena Chio GuildCQ Kattarina Qutie idol-EN Kazama Iroha hololive Kazami Kuku Nanashiinku Kazami Mikan ReAcT Kazuuchi Ataru Sinsogumi Kefilia Neil H.Live Keke VirtuaReal Kemono Friends V Project V Kenmochi Toya Nijisanji Keressa Zoulfia Pixela Project Kero VirtuaReal Link Kikyou Himeno AiceClass Kiri Kilovolt Globie Kirispica V-Dere Kisaki Anko Nanashiinku Kisaragi Ren VSPO! Kishido Temma HOLOSTARS Kitakoji Hisui Nijisanji Kitami Ayumu Palette Project Kitashirakawa Kakapo VEE Kiti VirtuaReal Kitsui Akira KitsuneDJ DJ Kitsuneko Mewten Pixela Project Kiyora VirtuaReal Kizuna AI KMNZ Kobo Kanaeru Hololive ID Koboshi Kiora StarRing Kogara Toto VSPO! Kogetsu Maru ShikiHouse Kohaku Nuino UniVIRTUAL Kohaku Yuri Nanashiinku Koinoya Mai propro production Kojo Anna Nanashiinku KOKO KAMITSUBAKI STUDIO Kokone Coco Kokoro Chiu Kokuyou Lira VEE Kokuyou Niggurath Airy Production Komai Tora Komai Ume Varium Komiyama Ambros Globie Komori Met VSPO! Konan Mia Nanashiinku Konoka Sakuya Airy Production Kosakura Kohaku ANiDoLL Koseki Bijou hololive EN Kotoha AiceClass Kou Mariya V4Mirai Kouen Izanami Airy Production Kouichi VirtuaReal Koxia VirtuaReal Koyami Aloa Koyoi RefAce Kozumi Mermaid RefAce Kson VShojo Kuga Tsubaki Airy Production Kujo Ringo Kulaku Lie ReAcT Kumagaya Takuma NoriPro Kumama Mayu Light Up Kumanui Miel Globie Kumi-5 Virtunix Kuramochi Kyoko Stellar Cycle Campus Kureiji Ollie hololive ID Kurenagi Eri GuildCQ Kurita Riku Noname Production Kuriyama Yanmi Kuro Kurenai VShojo Kuroi Shiba Nijisanji Kuroki Natsume 96neko 96 Kuroki Yua KAHO-FAMI Kurokiri Aria Kurumi Noah VSPO! Kurumizawa Momo NoriPro Kurune Kokuri Kurusu Natsume Nijsanji Kuuki Tsuki Virtunix Kuzirano Aika Kuzuha Nijisanji Kye Hart Virtunix Kyoka Shino Live Union Kyomei Alice Airy ProductionL - 49L1MOU Algorhythm Project La Darknesss hololive La prière lack Laguna JuJu Pixela Project Lain Paterson Nijisanji Lalabell Lullaby idol-ES Lapine Polygon Latta Algorhythm Project Lauren Iroas Nijisanji Layla Alstroemeria Nijisanji ID LazuLight Nijisanji EN Lecya Tokino Virtunix Lee Roha Nijisanji KR Lemuel Ragna X' X'Frontier Leone Halcon SNOWDROP ID Leos Vincent Nijisanji Levi Elipha Nijisanji Lilia Tacitly Liliana Vampaia MyHolo TV Lily LilySyu ProjectBLUE Lily Ifeta ReMemories Lily Mone LilySyu LiLYPSE AVALON Lime Wright Flyer Live Entertainment LING CLOHAN Ling Yuan Yousa yousa VirtuaReal Star Linlin Tacitly Listen Algorhythm Project Lita KMNZ Liz KMNZ Lize Helesta Nijisanji Lottie Shinju PixelLink Louise Khikume SNOWDROP ID Lua Asuka production kawaii Luca Kaneshiro Nijisanji EN Lucene Polygon Lucifer Poi Airy Production Luis Cammy Nijisanji LuKia Abyss DIVA Luminous Sweet VEE Luna Neige H.Live Luna Rurine WACTOR Lunaris Urufi MyHolo TV Lutralutra SquareLive Luxia Polygon Lyko Lianna V4Mirai Lynn VirtuaReal LinkM - 96Machina X Flayon HOLOSTARS EN Machita Chima Nijisanji Macoto mafumafu Magnum Algorhythm Project MahiLu Abyss DIVA Mahiru VirtuaReal Maimoto Keisuke Nijisanji MaiR Maisaki Berry Makaino Ririmu Nijisanji Malstrøm RefAce project Little Lindo Mamiya Mao RefAce Mana Project A.I.D Marcia STARDUST VIRTUAL STUDIO Yuuhei Satellite Mari VirtuaReal Marone Aisu Marpril Iwamotochou Geinousha Marumochi Tsukimi ReAcT Mashiro Nijisanji Matara Kan VShojo Matsukai Mao Nijisanji Matsunaga Iori RIOT Music Matsuro Meru Maylyn Algorhythm Project Mayumi VirtuaReal Meguta Naru GuildCQ Melita X Pixela Project Melvlam Menil Riche Cocon papillon Mera Ara Inisu StarRing Meraki Keimii Pixela Project Merry Milk .LIVE Mew Garcia VEE Michi Mochievee VShojo Michimata Batoya VOMS Project MiCosmiCbaby Midnight Algorhythm Project Mikado Stellar Cycle Campus Mikami Kon REJECT Mikazuki Chiyuru UniVIRTUAL Miki VirtuaReal Mikoshiba Goma Miku Pinku Yume Girls! Millie Parfait Nijisanji EN Min Suha Nijisanji KR Mina Kawaii Minai Aruma GuildCQ Minakaze Ame Minami Cera Polygon Minami Nami Minase Nagi Live Union Minase Rio HOLOSTARS Minerva Rosaline Miniel project Little Lindo Miori Celesta MIPMIP Flora Vtuber Project Mira Fridayanti Virtunix Miria KoMETA Mirutani Nia NoriPro Misumi 323 Mitsuki Kuroyuki Virtunix Mitsusa VirtuaReal Link Mitsuzaki Aya Miuna Usako PixelLink Miyazono Rin VirtuaReal Link Miyoshino Shiki PRISM Project Miyu VirtuaReal Mizugame Mia ReAcT Mochi Sakura Stellar Cycle Campus Mochi Komame Moira Nijisanji Mokota Mememe .LIVE Momo Otako idol-EN Momohina Nano Momosuzu Nene hololive Momotsuki Hagu UniVIRTUAL Momozono Nemu Light Up Momozono Rieru Noname Production Mono Monet V4Mirai Mononobe Alice Nijisanji Moona Hoshinova hololive ID Mori VirtuaReal Link Mori Calliope hololive EN Mori Mashiro ANiDoLL Morinaka Kazaki Nijisanji Mozumi Pichi V-Dere Mu-tyo Murasaki Shion hololive Muri VirtuaReal Muse VirtuaReal Link Muzirushi Yogu Airy Production Mycara Melony Pixela Project Mysta Rias Nijisanji EN Mythia Batford MYU VALISN - 68N-ko N Netflix Anime Na Sera Nijisanji KR Nagao Kei Nijisanji Nagare Sara PRISM Project Nagase Yuka RIOT Music Nagihara Suzuna RIOT Music Nagisa Arcinia Nijisanji ID Naito Meari GuildCQ Nakiri Ayame hololive Namahoshi-chan Sinsogumi Namiji Freesia production kawaii nanahira Nanahoshi Milily .LIVE Nanako VirtuaReal Star Nanami VirtuaReal Nanami Rona Palette Project Nanase Eru Varium Nanashi Mumei hololive EN NanohaStarry Wink Nara Aprilia Naraka Nijisanji Naruse Naru Nijisanji Natori Sana Natsuiro Matsuri hololive Natsume Itsuki nayuta Nebasei Cocoro Rohto Pharmaceutical Nebi Nebu PixelLink Neena Makurano production kawaii NEFFY VALIS Nekoda Pepero Masquerade Nekomata Okayu hololive Nekomiya Ayume Nekomiya Fuyu propro production Nekono Yukino ReAcT Nekonogi Bell ViViD Nekozeno Shin NoriPro Nekoyo Chloe Nemesis Xtreme Deep Field Project Nemui Riiko Nene Amano production kawaii Nenemaru Sinsogumi Nenokami Moka Nerissa Ravencroft hololive EN Nero X'Fire X'Frontier Nezumi Elza Pixela Project Night Mare Sleep Monster Nijino Airi Nijisanji Nikki Rei idol-EN Nimu NINA VALIS Nini Yuuna Ninomae Ina'nis hololive EN Ninomiya Sho SNOWDROP ID Nishizono Chigusa Nijisanji Nixie Waverly SNOWDROP ID NoA Project A.I.D Noa Polaris Nocturnaz Naar Pixela Project Noi VirtuaReal Link NoiR NoWorld Nori Nox VirtuaReal Link Nui Sociere Nijisanji Nyatasha Nyanners Mythic Talent Nyatsuki VirtuaReal nymphaaeaO - 32Obear SquareLive Octavio HOLOSTARS EN Ogiya Milk Sinsogumi Oguri Mel Stellar Cycle Campus Oh Jiyu Nijisanji KR Ohga Ruki UniVIRTUAL Oinomori May Nanashiinku Olda SquareLive Oliver Evans Nijisanji Omaru Polka hololive Onemu Ui Yorumachi Project Onomachi Haruka Nijisanji Ookami Mio hololive Ookami Xino Oozora Subaru hololive Orla Gan Ceann Oshino Chiyu Varium Otokado Ruki VEE Otonashi Muon Otonomiya La-la Noname Production Oma Kirara NoriPro Omega Sister Ray Omega Sister Rio Omega Sisters Onitsuka Rei Osaki Cherry Oshiro Ito VEE Otohime Tuduri MOKUROKU Otonose Kanade hololive DEVIS Oumua Xtreme Deep Field Project Oura Rukako Nanashiinku Ouro Kronii hololive ENP - 17Padko SquareLive Pangea Kuarsa Virtunix Pavolia Reine hololive ID Pengin Pina PRISM Project Petra Gurin Nijisanji EN Phoebe Chan Pipkin Pippa Phase-Connect Pippa Pebblesworth Globie Plus VirtuaReal Poki the shark Project BLUE Poko Rakun idol-EN Poma Pon V4Mirai Prime Star Princess Zelina Pixela Project Project A.I.D Projekt Melody VShojoQ - 2Qilou VirtuaReal QuonTama GuildCQR - 49Rai Galilei Nijisanji ID Raki Kazuki PixelLink Raora Panthera hololive EN RARA VALIS Rara Rocora V4Mirai Ratio Yuires ProjectYuiRes Ratna Petit Nijisanji Regis Altare HOLOSTARS EN Regrush Lionheart NoriPro Reimu Endou Nijisanji EN Reina Ronronea Globie Reina Sun production kawaii Reira Flora Vtuber Project Reiya Miri MOKUROKU REM Kanashibari V4Mirai Remi VirtuaReal Rena Bestia H.Live Reve VirtuaReal Reynard Blanc ReMemories Rhea VirtuaReal Ricotta Algorhythm Project riguruma Rhubarb N. Kustard Globie Riki Poppet idol-EN Rikka HOLOSTARS Rikudou Yura PRISM Project Rikumu .LIVE RIM KAMITSUBAKI STUDIO Rindou Mikoto Nijisanji Rin Hanakaze Rin Penrose idol-EN Rinkou Ashelia Phase-Connect Ririsya Roboco hololive Roca Rourin idol-EN Roi VirtuaReal RongChuhan KAHO-FAMI Roselia de Magentia Pixela Project Rosemi Lovelock Nijisanji EN rpr SCARZ eSports Ruby Runeheart idol-ES Ruki VirtuaReal Ruru rurudo Rurun Rururica .LIVE Ruruna VirtuaReal Link Ryoki Chaki propro production Ryugasaki Rene Nanashiinku Ryu Hari Nijisanji KR Ryushen NijisanjiS - 111S1R Algorhythm Project Saegusa Akina Nijisanji Saionji Mary Nanashiinku Saito 310 Sakamata Chloe hololive Sakura Aoi Sakura Haruka VirtuaReal Star Sakura Miko hololive Sakura Ritsuki Nijisanji Sakuya Azusa propro production Sakuya Tobari Sano Chlori Sarugaku Leon Jr. Globie Sasaki Saku Nijisanji Sashisugi Aisu Sinsogumi Sato Qui 310-91 Saya VirtuaReal Sayori Rei Schneider Algorhythm Project Scylla Brantley SNOWDROP ID Seffyna Nijisanji KR Seika Michi Sleep Monster Seiya VirtuaReal Sekishiro Mico Nanashiinku Selene Algorhythm Project Serena Maiko V4Mirai Serenade Oxblood Varium Seshima Rui Nanashiinku Seto Miyako Nijisanji Setono Toto Live Union Seven VirtuaReal Link Shaun VirtuaReal Shabel Tonya idol-EN Shee Icho production kawaii Shellin Burgundy Nijisanji SHI CLOHAN Shibuya Hajime Nijisanji Shibuya Hal Neo-Porte Shichifuku Akane SEVEN'S TV Shiduki Sena propro production Shigure Ui Shiina Yuika Nijisanji Shikai Yue Shimamura Charlotte Nanashiinku Shindo Shirube MOKUROKU SHiNO Shinomiya Runa VSPO! Shion Lee Shiori Noname Production Shiori Novella hololive EN Shirakami Fubuki hololive Shiranui Flare hololive Shiratama Utano UniVIRTUAL Shiratori Rena VOICE-ORE Shirayuki Mila Airy Production Shirayuki Mishiro NoriPro Shirayuki Reid Shirayuki Tomoe Nijisanji Shirayuri Lily ViViD Shirogane Noel hololive Shirose Aoi propro production Shishigami Leona ReAcT Shishio Chris Nanashiinku Shishiro Botan hololive Shisui Kiki Nanashiinku Shisui Michiru Phase-Connect Shitagai Nora Sinsogumi Shizuka Rin Nijisanji Shoufuku Nyako shoyun Shu Yamino Nijisanji EN SiamNeko Algorhythm Project Sifar Sigmunda Riona Polygon Silvervale Sirahoshi Awawa Varium Sirius VirtuaReal Sister Cleaire Nijisanji So Nagi Nijisanji KR Solar Algorhythm Project somunia Sonakii Sorahane Nyanmi Sorahoshi Kirame Nijisanji Sorahoshi Paru Soraru Sorimachi Mashiro Airy Production Souya Ichika Nanashiinku Srta. Catana Sugarrrglider LilySyu Sukoya Kana Nijisanji Sumeragi Rose ReAcT sumeshiii a.k.a.virtual osushi sumeshiii a.k.a. Sumire Hina VirtuaReal Link Sumirezaki Rin VOICE-ORE Suo Sango Nijisanji Suou Patra Surai Mumu Susam VirtuaReal Link Suu Usuwa SKYCOLOR Project Suwie Suzuka Utako Nijisanji Suzuki Hina HIMEHINA Suzuki Masaru Nijisanji Suzumi Nemo Nanashiinku Suzune Nia PRISM Project Suzutuki Sui Varium Suzuya Aki Nijisanji Synthion Syo VirtuaReal Link Syusetu Kohaku VEET - 59Tabibito VirtuaReal Tachibana Hinano VSPO! Tachibana Rin Marpril Tacitly Taiga Toragami idol-ES Takamiya Rion Nijisanji Takanashi Kiara hololive EN Takane Lui hololive TAKOPERO Pixela Project Tammy Tanaka Hime HIMEHINA Tanoshiba VirtuaReal Taring Hu Globie Tatsuki Sifa VMaison Tatsunoha Snow VMaison Tatsunuma Dia VMaison Tenjin Kotone Tenma Maemi Phase-Connect Tenpi Terasu Airy Production Tenshi Nano Masquerade Tequila Algorhythm Project Terra 404 V4Mirai Tetsuya Kazune Tetura Kiiru Cocon papillon Tiara Rexa Polygon TobaRana AinoMori Tobari Koko Light Up Toboso Kuroi Tocci VirtuaReal Todo Kohaku Nijisanji Todoroki Hajime hololive DEVIS Todoroki Kyoko Nijisanji Tohsaka Yura Tojou Linca VASE Tokimori Aoi PRISM Project Tokina Echigoya Tokino Sora hololive Tokiwa Kaname Palette Project Tokoyami Towa hololive Tomari Tomoko Tonde Pyokora Sinsogumi Tosaki Mimi VSPO! Touka AiceClass Touka Chiya ShikiHouse Touri Sei Nanashiinku Towa Kiseki Pictoria Tsukaima Mare Tsukinami Nato Tsukino Mito Nijisanji Tsukinoki Tirol Nanashiinku Tsukishiro Cecil Tsukiyoi Avi Varium Tsukumo Ori VirtuaReal Tsukushi Aria ReAcT Tsunomaki Watame hololive Tsurugi Ren Tukuyomi Leo Noname Production Tulsi-Nightmare Madness IV 4 VEEU - 22Uemine Noruju VOMS Project Uka VirtuaReal Umano Popuri StarRing Umibe Cnano Noname Production Umino Ciala Pixela Project Umituki Yuru propro production Uniwii Algorhythm Project Uriyone VEE Uruca Crazy Raccoon Urushizaka Esu MOKUROKU Usada Pekora hololive Usami Yuno ReAcT Ushimi Ichigo Nijisanji Utakata Memory ViViD Utakawa Maru Utatane Nasa Phase-Connect Utayo Pome Uten Hiyori Utsugi Uyu HOLOSTARS Utsutsu Yomi ZETA DIVISON Uzuki Kou Nijisanji Uzuki Tomoya V - 15VALIS Sinsekai City Project Vance Van Creed Globie Varny Yuires ProjectYuiRes Vav AiceClass Veibae VESPERBELL Vestia Zeta Hololive ID ViANKiE Vienna Cloud9 Vilhelm Vanderbos Globie Virgil KoMETA Virion Kisei MyHolo TV Virtual Gorilla VEEMusic VITTE VALIS Vox Akuma Nijisanji ENW - 5Wakarase Choro Sinsogumi Waku VirtuaReal Wasrena Miyu AiceClass Watamiya Ahiru Varium Witch Dali Sweet KAWAII MUSICX - 1Xi TacitlyY - 62Yae Yugiri V4Mirai Yagi VirtuaReal Yaguruma Rine Nijisanji Yakumo Beni VSPO! Yamagami Karuta Nijisanji Yamane Nemu Yamato Iori .LIVE Yamino Abyss Noname Production Yang Nari Nijisanji KR Yashima Momizi Airy Production Yashiro Kizuku Nijisanji Yata Touka Marpril Yatogami Fuma HOLOSTARS Yazaki Kallin Yena Youngblood idol-EN Yog VirtuaReal Yoiyami Nyaru Airy Production Yoiyume Mil Light Up Yomi VESPERBELL Yomiya VirtuaReal Yorumi AiYU KAHO-FAMI Yorumi Rena Nijisanji Yoruno Suyari Yotsuki Kurona Noname Production Yua VirtuaReal Yuduki Uru Light Up Yue Caelum Yume Girls! Yuhi Riri Nijisanji Yuigon Aruka LIVE Yuires Hisame ProjectYuiRes Yuki Michiru Yukie VirtuaReal Yukihana Lamy hololive Yukikami Leo Yukimi Nako ShikiHouse Yukishiro Mahiro Nijisanji Yukito Chau Yukoku Roberu HOLOSTARS Yumeba Ku Yumekawa Kanau ReAcT Yumemi Cocochi Yumemi Tobira Yumemi Yurame Pictoria Yumemiya Alice Masquerade Yumeno Akari VSPO! Yumeno Shiori Yumeoi Kakeru Nijisanji Yumeri Mery Yumesaki Mia propro production Yumi the Witch V4Mirai Yunagi Elena ViViD Yunohara Izumi Nanashiinku Yupsilon Yurikawa Yun VEE Yuudutsu Tear RefAce project Little Lindo Yuugasaki Umi Yuuki Sakuna Yuumu Rumune Light Up Yuzuha épeler Yuzuki Choco hololive Yuzuki Risa Yuzuriha Honami Z - 9Zashiki Warabi AiceClass Zekai Algorhythm Project Zengaku Sanparo VOMS Project Zenith Algorhythm Project Zentreya VShojo Zephyrianna Zona Polygon Zue Callaise Virtunix Zuya Naxi VirtuaReal StarGraduatedInactive A tribute for those who have moved on Thank you 2018 2019 2020 2021 2022 2023 20242018 - 10Kaminari Poaro Nijisanji Kurohane Kuroto Nijisanji Kurama Tsumugi ReAcT Moarin Nijisanji KR Saotome Poemu ReAcT Inari Kuromu AniMare Hoshikuzu Len ReAcT Mikage Lux ReAct Naruto Kogane Nijisanji Orio Koya ReAcT 2019 - 20Aihonya Shiori Shindo Raito Nijisanji Asano Hikari Asano Sisters Project Nakao Azuma Nijisanji Umiyashano Kami Nijisanji Hassaku Yuzu Nijisanji Sougetsu Eli HoneyStrap Yamiyono Moruru Nijisanji Kudo Chitose Nijisanji Ushio Tia ReAcT Futari Mai ReAcT Tenbin Hakari ReAcT Yagiri Mei ReAcT Tadase Ciel ReAcT Uni Unico ReAcT Umori Hinako AniMare Setsuna Nijisanji Tokage Meu VGaming Nekonoki Mochi .LIVE Yozakura Tama .LIVE 2020 - 37Tsukimi Shizuku Nijisanji Chikuwa VEEMusic Mama Mara VirtuaReal Link Yakushiji Suzaku HOLOSTARS Hatano Charo VGaming Kuma Kumaeru the 3rd 3 VGaming Mayoi Sakyu VGaming Yoruno Yui VGaming Achikita Chinami Nijisanji Otomata Ruka Takigami Rito ReAcT Oda Nobuhime upd8 Mimoi VirtuaReal Haibara Akane AniMare Hakuren Nijisanji KR Kaen Nijisanji KR Lorou Nijisanji KR Yu Ruri Nijisanji KR Tsukishita Kaoru HOLOSTARS Kaguya Luna VIC inc. Hanon VirtuaReal Mano Aloe hololive Pax VirtuaReal Suzukaze Suzuka VirtuaReal Link Kingyozaka Meiro Nijisanji Yuzuki Roa Nijisanji Ichigo VirtuaReal Ally Project Ally Izumo Kasumi Nijisanji Wiffy Nijisanji KR Civia hololive CN Artia hololive CN Spade Echo hololive CN Kagami Kira HOLOSTARS Doris hololive CN Yogiri hololive CN Rosalyn hololive CN 2021 - 68Pinky Pop Hepburn VIC inc. Yukine Miiya Kurone Yomi ReAcT Jitomi Monoe VOMS Project GALDE'rLa Yoshi Nanami Otogibara Era Nijisanji Manaka Umio MyHolo TV Marica Bellerose MyHolo TV KINGSK VirtuaReal Link Kogami Yukari Sugar Stella Kirihime Ria Tsunderia Kiso Azuki .LIVE Ushimaki Riko .LIVE Kohaku Yaezawa Natori .LIVE Kitakami Futaba .LIVE Kongou Iroha .LIVE Aadya Nijisanji IN Noor Nijisanji IN Vihaan Nijisanji IN namirin Shimizu Discordia H.Live Saki H.Live Shin Yuya Nijisanji KR Izumo Meguru ReAcT Kirahoshi Uta ReAcT Suzuhara Lulu Nijisanji Kiryu Coco hololive Lolo Samael VirtuaReal Shiki VirtuaReal Kumano Poemi ZERO Project 210RI Nitori HAJITABI Hana Flores production kawaii Hashiba Natsumi AniMare Aoi Mizuki VOICE-ORE Maaru Iwakka Ozuka Roki Hioki Yachi Stellar Cycle Campus Lyrica Fugami Nanana Stellar Cycle Campus Ion IONKANON Kanon IONKANON IONKANON project Little Lindo Kimino Miya XR Entertainment Ah Puch Light Up Kannba Asuka Code Zodiac Ushimiya Nina Code Zodiac Nanami Yuna Yumeoi Gakuen Kiminami Ena Koto Miyuri ReAcT Fukugakuencho Stellar Cycle Campus Lamuril project Little Lindo Kuzuryu Io Atelier Live Mizukara Canal Axel-V Sakura Isumi propro production Tokonatsu Aimi Masquerade Cazzie K. Monie Pixela Project Kendou VirtuaReal Kogure Piyoko WACTOR Eve H.Live Nun Bora Nijisanji KR Sukotte Momose Meru Masquerade Senjyo Aria Shirane Yuki ReAcT Hekina Ail ReAcT 2022 - 65Hoshihime Kirara Yumeno Lilith NoriPro Habara Yutori Ushio Sumi PRISM Project Ushio Bell Uruha Rushia hololive Ko Yami Nijisanji KR Shiromiya Mimi AniMare Shino Laila WACTOR Aruru Gray production kawaii Boushiya Elle Masquerade Swima Clala ZERO Project Hien Madoka Megalight Lee Siu Nijisanji KR Lee On Nijisanji KR Enishi Uka Avatar2.0 Project Qualia Qu ReAcT Serena Shinju Inumoti Tirol ReAcT Shin Kiru Nijisanji KR Suzuka Stella Megalight Umiushi Urara Tsunderia Asahina Meiro Emoechi Athelia Hiroyuki MyHolo TV Han Chiho NIJISANJI KR Moroboshi Tsukina Anemone Project Sakuraba Aria Warabeda Meiji NIJISANJI Song Mia NIJISANJI KR Milfia H.Live Whitefield H.Live Suzushiro Cocone CocoTsuki Melissa Kinrenka Nijisanji Noujiru Tagiru Masquerade Momoka Mocha Masquerade Harano Oni Yoguma Syuno StarRing Hoshina Suzu WACTOR Mayuzumi Kai Nijisanji Tsukumo Sana hololive EN Aozora Kurumi Project Kavvaii Shindouji Ako VEE Ichiya Uru ZERO Project Kinohoshi Tsukuri ZERO Project Sylphy Flora Vtuber Project Akuma Saki Axel-V Suimitsu Momo Axel-V Moon Jelly Chika Flora Vtuber Project Tsumugine Rei ZERO Project Akesato Yachoukaku Kumagai Chisato Kaidou Anone propro production Mizuhane Sora propro production Meguri Yomena MOKUROKU Miyu Ottavia Nijisanji ID Axia Krone Nijisanji Kurou Satsuki ZERO Project RuiF Infy ZERO Project Sion Piyo ZERO Project Rekui Emly GuildCQ Momoi Chiyo Tamaki Ukon Sazanami Toa VEE nyekocat 2023 - 63Itoshino Tesla Masquerade b Nimone Flora Vtuber Project AiRAN Flora Vtuber Project Umimachi Crema Light Up Oceane Otoishi production kawaii Kanaha Chino Casino Usagi Masquerade BOOGEY VOXX Himena Myu StarRing Mitsurugi Lia Yoshina 447 Records HaiZ SquareLive Amano Pikamee VOMS Project Kukoro Setsu Sinsogumi Ikikae Rururu Sinsogumi Itou Yuna GuildCQ Nonoa Buromu H.Live Toguro Mumu EMOVE Hanakumo Rin propro production Huma Wat Nanashiinku Aletta Sky production kawaii Miryu Kotofuji production kawaii Peony Aeria production kawaii Sava Safari production kawaii Imari Ciuri StarRing Arikita Rifa GuildCQ Aineko Yamato Amano Tsurugi Light Up Matori Kakeru Guild CQ Shiramasa Hanri Light Up Sinofuchi Mitama LIVE SeiRAN Flora Vtuber Project ZEA Cornelia Nijisanji ID Hanachi Yachoukaku Asahina Akane Nijisanji Amrzs SquareLive Taka Radjiman Nijisanji ID Ebisu Touka Masquerade Aono Yuuki 447 Records Uyu Hitori StarRing Siska Leontyne Nijisanji ID Gundo Mirei Nijisanji LeRou Beryl StarRing Mazika Ruri GuildCQ No.Fifteen SquareLive Azuse Yue MOKUROKU Nina Kosaka Nijisanji EN Amicia Michella Nijisanji ID Obear SquareLive Padko SquareLive Reiya Miri MOKUROKU Ada M. Azura Cecillia Nijisanji ID Magni Dezmond HOLOSTARS EN Noir Vesper HOLOSTARS EN Nara Haramaung Nijisanji ID Reza Avanluna Nijisanji ID Hyona Elatiora Nijisanji ID Xia Ekavira Nijisanji ID Riro Ron idol-EN Mika Melatika Nijisanji ID Aiba Uiha Nijisanji Amemiya Nazuna VShojo Idea 2024 - 21Riksa Dhirendra Nijisanji ID Yozora Mel hololive Pomu Rainpuff Nijisanji EN Kusabuki Warabi Airy Production Alia Dove GuildCQ Azuchi Momo Nijisanji Tsukimi Kaguya Airy Production Yuki Chihiro Nijisanji Selen Tatsuki Nijisanji EN Biscotti V4Mirai Louise Priere Varium Pochi Wanmaru idol-EN Airi Gwynevere Project Kavvaii Aineko Hiyori Sweets From Valentine Aineko Yamato Valentine Family Mirai Akari ZIZAI Inc. Ibuki Björn Globie Yuko Yurei idol-EN Abi Kadabura V4Mirai Minato Aqua hololive Obari Luca Globie Amelia Watson hololive EN</t>
+          <t>Juste marcher sur les chemins de la dignité Les thugs et les caille-ra sont les plus faciles à imiter Les frères et surs pensent que leur avenir est limité Que juste le crime paie qu'ils n'auront jamais ce qu'ils auraient mérité Alors on se détruit en enflammant nos propres ruelles Brulons nos propres voitures, incendions nos propres poubelles On sort les armes face à des frères issus de quartier similaire Aux nôtres, G.A.V, fourgon cellulaire et autres Nos idoles Zinedine Zidane, Henry ou Barthez Tony Parker, Joey, Nino Brown ou Scarface J'avoue que c'est dur pour tout le monde d'Evry à Barbès Trop de gâchis de génie et de potentiel par tèce Plus facile de fuck la bac que d'avoir le bac Mon père me disait si Vincent taffe jusqu'à 10h, taffe jusqu'à 2h du mat Tellement d'espoir et tellement de jeunes au périmètre Hey ! Scar-la relève la tête comme le dirait Kery James Scar-la lève la tête, la honte n'est pas que sur toi C'est dur mon salaud, nos père se sont battus pour quoi ? Pour les jeunes du ghetto fleur du béton Frères tous bé-tom ou partis partis Y a 10 tit-pe sur la place Sur les 10 y'en a 5 qui sont 100 street life Et 5 qui squattent toujours en classe 4 qui fument mais les 6 autres vont pas tarder Tous sont intelligents mais parlent comme des attardés Tous rêvent de cash et sont indécis sur leur avenir Tous adorent leur cité, y'en a aucun qui rêve de partir Tous les 10 ont les capacités de devenir grand mais Dans le hood les jeunes ne flashent que sur les chant-mé Ça devient un style, les boulettes et l'haleine alcoolisé Motivés à aller à l'encontre du non-autorisé Préfèrent la street life que la parentale autorité C'est trop niqué si t'es pas gangsta, t'es pas o.p connerie Les embrouilles, le cash, le bloc, les magnums C'est pas dans le mauvais, la vraie définition d'un homme Plusieurs fois perdu en solo dans ma merde Je me suis relevé pour honorer le vécu de mon père Scar-la lève la tête, la honte n'est pas que sur toi C'est dur mon salaud, nos père se sont battus pour quoi ? Pour les jeunes du ghetto fleur du béton Frères tous bé-tom ou partis partis Tu fais quoi papa ? Je travaille, j'écris des textes, des nouvelles chansons Enfin des trucs que tu comprendras plus tard C'est pour les grandes personnes ? Pas vraiment mais pour beaucoup de jeunes dans la street Qui errent et qui se réveillent trop tard C'est pour les petites filles et petits garçons dans la street ? Ou c'est pour chez nous au pays et tous les ghettos de la terre Quand je serais grand c'est comme toi que je veux faire J'sais pas, tu choisiras en tout cas faudra honorer ton père</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tant pis</t>
+          <t>Terrain</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Verse 1 H Magnum Elle se balade dans la ville rouge à lèvres et faux cils Louboutins pour mieux toucher le ciel Ya dellali Tu la veux dans ta vie, elle demande l'impossible Casse-toi si tu roules en 107 Ya dellali Les chics type qui veulent épouser l'ennuie Tant pis elle préfère les you-voi Ya dellali En dix secondes elle tue tes économies Elle kiffe sur les hommes de pouvoir Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 2 Youcef Raifi Elle aime les magasins, les boutiques de shopping Tout pour que bébé se sente belle Encore un sac à main, jalouse entre copines Manipulatrice et sensuelle Elle kiffe les clubs et le monde de la nuit Elle danse, elle n'a jamais sommeil Tu cliques sur ses photos, sur ses selfies Quand elle tape la pose au soleil Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm yu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyaux du monde Verse 3 H Magnum Elle n'est pas timide, non elle n'est pas timide Elle sait se faire désirer Elle veut une vie clean Pas faire de lèche vitrine On la regarde défiler T'as pas bien compris Si t'as pas d'oseille, si t'as pas fait de son-pri Elle va pas te calculer, pour elle t'est comme un zombie Pan lui a tout dit, tout essayé tant pis Elle a serré son footeux Refrein H magnum Youcef Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or C'est simple, elle dit qu'elle veut de l'or Hummm tu vas te faire torturer Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Elle dit qu'elle veut de l'or Hummm et tous les joyeux du monde</t>
+          <t>Les magnums sont juste derrière les ceintures H Skurt Fouiny Yeah yeah, yeah yeah Yeah, jai fait un rêve jles shootais tous, pas d'Fervex quand les guns toussent Ouais, renoi les temps sont bizarres, bicrave la dure oublie la drogue douce Ouais baise les Brunes, les Blondes et les Rousses, des barrettes de shit dans la trousse En tournée aux quatre coins du monde, ces renois s'sont tournés les pouces Jai fais du biff mesdames et messieurs, ma carrière nest pas de tout repos Jai tourné jai mangé chez eux au 5 bis Alexandre Turpault Et ouais reubeu jsuis pas de leur monde et ça gros ne loublie jamais Mes blessures sont à lintérieur, ouais juste derrière mon polo Chanel Élevé au tajine, au sombi, attieké, kefta et bissap Nan, nan, cest pas moi quai changé, ces bâtards sont devenus bizarres Tfaçon un jour tout se payera, on sdéfouraille pour un terrain Yesterday les keufs mont soulevé, javais limpression dêtre un R1 Ouais pas dmandat, très peu dcourrier, quun parloir le long de ma peine Aujourdhui sur mon répertoire, jai sûrement lnumber dta chienne Nan renoi sois pas goûte-dé, ouais que Dieu soit loué Ma voiture nest pas louée, mon pare-balles nest pas troué Paraît qutas bicrave quelques barrettes, ouais tu tes trouvé en zonz' Donc tu prépares ta maquette, mais sur lterrain tes pas dans les onze Et puis jvois pas pourquoi ils sla pètent, ils nont pas la médaille de bronze Les balances appellent le 17 et moi jme barre en 911 Parler pour parler à quoi ça sert reufré ? Et pourtant quand venait le moment dallumer Les bâtards engrainaient, les voitures ont freiné, les ratatatata, les daronnes affolées Rafale énervée, les balances ont craqué, confidences avouées, les condés défilaient Le terrain est miné les petits ont filé, enlevez vos sapes et venez les écrouer Chacun son rôle chacun sa merde, que Dieu soit loué Si on a lmonopole, cest quon est pas troués Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain Yeah, ils disent que jsuis Illuminati, ils ont tord mais bon jles comprends Plus javance plus ma monnaie grandit, Dieu pardonne mais Fouiny Babe nan Jai fait un rêve comme Martin Luther, banque de France jétais duper À cquil paraît tu mas pas vu, cest normal jétais ché-per Envoie les sous, fils de pute, arrête de tweeter, renoi, agis Mon son tourne dans toutes les prisons, comme les Kub Or Maggi Comme en Ukraine, le terrain brûle, madame la juge, on t'encule Brûle les draps les chauffes les PQ, CDC 4 dans ta cellule Ceinture H avec mon pote H, on pose les magnums sur les bles-ta Jcrois quta meuf est sur mes genoux, à en croire la gueule que tas Dans mon allemande jmangeais kefta, dans la boîte à gants jai dla peufra Et si les keufs me contrôlent, jcrois qujleur signerai un autographe Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain3</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>En terrasse</t>
+          <t>T’es partie</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Le Dream est là Un petit dream avant Gotham City H Magnum Dream Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Tu m'as vu à une terrasse sur les Champs man Tu voudrais bien avoir mon numéro de chambre et J'suis dans ta ville oukhty t'as trop de chance Comme un virement qui efface ton découvert Dream Tes libérable, tu passes le dernier maton Dream Ta meuf tattend pour rattraper le temps Dream Dream tendresse, fini les pâtes au thon Dans ta caisse, sur les ondes, cest mon son Dream Viens ma go sûre, ce soir on va à Galsen Non non tas pas grossis, tas lallure dune gazelle Appelle-moi Dhalsim, jtouche mes pieds en dansant Ce quil y a en dessous, bébé faudra que tassumes Cauche ! Ce soir cest le classico Real-Barça Ramène ta meuf quelle prépare les pizzas Dream Quand la zermi te dit hasta la vista Tchutchu Y a un deublé-man qui vient davoir son visa Dream Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? TchuTchu Dream Jsuis gênant gênant Jvais les traumât Ils sont pas prêts 12 du mat jme réveil, pompes, douche, gym Tablettes de chocolat, ptit jean Dream Paire de baskets, jhésite, jen ai mille Dream Jenfile les JoJo DreamSwagg Tas pris ton vol pour nous rejoindre en Thaïlande Dream Tas pas doseille, tinquiète mon pote on sarrange Dream Transat sur la plage on sallonge DreamVacances Capte une meuf dans tes bails DreamRencontre Rendez-vous dans sa chambre DreamMassage Elle est sérieuse, avec elle plus de mensonge De retour sur Bérize DreamMariage Ça cest un gros dream ça Mais la vie est un dream Dites aux MCs que jsuis leur dream Jsuis gênant Jvais les traumât Ils sont pas prêt Jsuis gênant Jvais les traumât Ils sont pas prêt Du matin jusqu'au soir ça vend du dream Sur scène, tout le monde répète après moi Dream Tous mes, tous mes, tous mes followers sont là Dream J'suis là Dream, tchutchu Dream Du matin jusqu'au soir ça bire du Dream Sur scène trop de swagg appelle moi Dream Nouveau nouveau nouveau clip, nouveau son Dream Qu'est-ce t'en dis ? Dream, tchutchu Dream Tchutchu Dream Tchutchu Dream Tchutchu Dream Dream Dream Dream Dream Jsuis gênant Jvais les traumât Ils sont pas prêts Jsuis gênant Jvais les traumât Tchutchu Dream</t>
+          <t>50. Booba A.C. MilanIl s'agit du premier morceau clash-réponse de Booba à ses deux adversaires Rohff et La Fouine, sorti en janvier 2013. Sa sortie fut une grande surprise pour tous puisque le principal intéressé confirmait lors des interviews de sa promo qu'il ne perdrait pas son temps à répondre aux attaques dont il était victime.49. Dinos Punchliovic Bouchées triples feat. Nekfeu48. Black M Ailleurs47. H Magnum Fin de dream46. Zekwe Ramos Ibizarre feat. Infinit45. Seth Gueko Dodo la saumure44. Psy 4 de la Rime Le visage de la honte43. Hayce Lemsi Och Bad 2 Bourbier feat. XV Barbar42. Abdallah - Chéper41. Lucio Bukowski Impopulaire40. La Fouine Donne-moi39. Sadek Pay Me feat. Meek Mill38. Hayce Lemsi Électron Libre37. Médine Protest Song36. Maître Gims VQ2PQ35. Kery James 94 c'est le BarçaStan-E Music offre une de ses plus belles prods pour cette chanson inédite de Kery James. Un mix entre music de soirées, trap et égotrip Kery James sort complètement de son registre et de l'ambiance de son album Dernier MC pour relâcher l'ambiance 94 c'est le Barça, WOOP !34. Joke Miley feat. DossehLa connexion Orlinz-MTP s'est faite dans les derniers jours de l'année. Une semaine après son annonce, le titre retentit sur le net et provoque l'impatience des fans. Pour beaucoup, ce morceau banger est une preuve de plus qu'il faudra compter sur les deux jeunes togolais en 2014. Affaire à suivre...33. L'Indis Avec un grand G32. Espiiem Kilimandjaro31. Médine Blokkk identitaire feat. Youssoupha Médine et Youssoupha offre, sur l'album de Médine Protest song, une chanson qui, après avoir feinté en créant une sorte de clash entre les deux, comme ils ont pu le faire avec Kery James dans Contre nous, livre un unique message L'amour des uns, c'est pas la haine des autres. Mais autant voire plus que la chanson elle-même, c'est son clip réalisé par Jean-Luc Huberlot et qui conte l'histoire croisée de 4 jeunes extrémistes de différents courants qui a marqué les esprits. Encore une preuve que ces connexions fonctionnent, et une bonne augure pour La Ligue...30. S-Crew Du vécu29. Leck Langage de vie28. Vald Autiste27. Hayce Lemsi One-One26. Rohff ZlatanaConsidéré comme une suite de Starfuckeuze, ce que raconte le morceau se veut, selon les dires de Rohff lui-même, plus... crapuleux. Après en mode, dans ma werss et bien d'autres expressions, Rohff ajoute à son dictionnaire zlatana terme qui aura vite fait d'être repris et réutilisé par ses auditeurs.25. Casseurs Flowters 15h02 - Regarde comme il fait beau dehors24. Tito Prince Hôpital De La Fontaine23. Mysa Le sale boulot22. Niro Fiers de nous21. Joke Harajuku20. Sofiane Lettre à un jeune rappeur19. Maître Gims Meurtre par strangulationMPS est l'un des morceaux les plus sombres de Subliminal. Avec son clip, Gims attire l'attention, il prévient ses fans des messages subliminaux y sont cachés. Une chasse aux indices débute alors. Que symbolise le lion ? Où est-ce que le clip a été tourné ? D'innombrables questions auxquelles Gims finira en partie par répondre à l'occasion de la sortie de la réédition de l'album.18. IAM Sombres manuvres17. Mac Tyer Pas de solution feat. Alonzo16. Niro Les mains sales15. Scylla Répondez-moi14. La Ligue Contre nous13. Vîrus Des Fins...12. Kery James Post Scriptum11. VA La MarcheRéunissant plusieurs rappeurs de la nouvelle comme de l'ancienne génération, cette chanson, extraite de la bande originale du film La Marche de Nabil Ben Yadir sorti le 27 novembre, dénonce le racisme, la discrimination et les inégalités en France.10. Fayçal Requiem pour encre fine feat. Mysa L'Indis9. Kaaris Paradis ou Enfer8. Nekfeu U.B.7. Kaaris Bouchon de liège6. Booba Parlons peu5. Disiz Transe-Lucide4. Booba RTCBooba, encore une fois, adopte des initiales pour le titre de son morceau. Une manière sans doute d'entretenir le suspense et de créer de l'impatience autour. Pour RTC, soit Riche Tristement Célèbre, Kopp s'entoure d'un des meilleurs jeunes beatmakers américain du moment Young Chop.3. Kery James Constat AmerKery James livre dans cette chanson une description péjorative des milieux pauvres de France, soumis aux oppresseurs mais ce qui fait la particularité de cette chanson, c'est qu'ici Kery James ne dénonce pas ce dernier, mais au contraire, dénonce les oppressés. En effet, il fait un constat amer des relations entre anciens immigrés principalement entre arabes et noirs, mais il évoque à peu près toutes les minorités et l'individualisme à outrance qui sévit dans les banlieues.2. Rohff DouniaAlors qu'en 2010, l'absence de morceau hors-format dans l'album de Rohff La Cuenta avait été très remarquée, et expliquait d'ailleurs selon certains l'échec commercial de l'opus, Rohff revint en 2013 à cet exercice qui a fait sa carrière. La plupart d'eux sont des classiques, y compris pour les plus jeunes auditeurs Génération Sacrifiée date de 1999 !, et Testament, dernière piste du Code de l'horreur, ne déroge pas à la régle. En juin 2013, Rohff dévoile le deuxième extrait de P.D.R.G., plus de sept mois après K-sos Musik. Les critiques ne sont pas aussi unanimes qu'à l'accoutumée, cependant le morceau reste très bien accueilli par le public. Dounia est l'occasion pour Rohff d'exprimer ses incertitudes et comportements paradoxaux, entre piété et consumérisme notamment.1. Kaaris ZooZoo est le premier extrait de Or Noir. Il sort en janvier 2013 en exclusivité à la radio dans un premier temps puis quelques jours plus tard sur Youtube avec un clip réalisé par Chris Macari. Kaaris rebondit et profite de l'exposition que son précédent featuring avec Booba, Kalash, lui a offert. Très vite, les vues se multiplient atteignant le million. Le morceau a son lot de phases cultes de Kaaris telles que la première Je n'ai aucune peine, je te nique ta race ou encore Je trempe mes cookies dans tes larmes . Le flow de Kaaris, avec des longs espaces entre chaque phrase, est tout nouveau pour le rap français. Il surprend et plaît. Zoo devient inévitablement le morceau le plus connu de Kaaris et le rappeur se place en leader du rap hardcore français.9</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Number one (Pilule Bleue)</t>
+          <t>Aucun mytho</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi J'te fais tourner la tête autant qu'un bon spliff J'ai connu la hess, igo, j'suis invincible Quand ça parle en milliers d'euros, aucune panne d'inspi H Dream, Warano, encore un bon feat Elle me dit que tous ses frères veulent me brutaliser Malgré ma politesse, j'suis pas le fils d'Hallyday Je connais la fin du film, j'suis déjà triste à l'idée Quand elle verra ma SACEM, elle va m'officialiser Tu connais l'écurie, laisse les sous tomber Fais pas semblant, c'est d'la tuerie que t'écoutes, te-bê J'suis un enfant de Gotham City, j'connais l'système D J'suis avec mon frère du Congo, dis-leur que, nous, on compte Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi Dans ce monde, rien n'est gratos À six du, les keufs te ver-le Tu connais la procédure Dénonce ou reste à l'ombre un moment Elle cherchait ce genre de mec à la fois gentil et comique Il lui dit Ok, mais promets-moi d'être jolie et soumise Affirmatif, elle bouge la tête comme dans les concerts d'Raggasonic Comme 80 des garçons, il lui dit qu'il est célib' Elle cherchait ce genre de mec à la fois gentil et comique Il lui dit Ok, mais promets-moi d'être jolie et soumise Affirmatif, elle bouge la tête comme dans les concerts d'Raggasonic Comme 80 des garçons, il lui dit qu'il est célib' Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi Millionnaire, j'dormirai pas sans mon 9 millimètres J'aurai des meilleurs amis par milliers Mais j'n'oublierai pas les vrais qui m'ont aimé Quand j'avais rien Millionnaire, j'dormirai pas sans mon 9 millimètres J'aurai des meilleurs amis par milliers Mais j'n'oublierai pas les vrais qui m'ont aimé Quand j'avais rien Ici, on ramasse des cerises, là-bas, des grosses bastos Les chefs d'État français dans des maisons closes Elle m'a pris dans ses bras, ça m'a rendu claustro' J'ai négocié la taxe, on m'a dit j'cause trop Ici, on ramasse des cerises, là-bas, des grosses bastos Les chefs d'État français dans des maisons closes Elle m'a pris dans ses bras, ça m'a rendu claustro' J'ai négocié la taxe, on m'a dit j'cause trop Inonder les ondes J'avais pas prévu d'y laisser mes os L'argent t'a fait dire Mon Dieu, qu'il est beau ! Quand j'éternue, tout l'monde se dit Qu'il est drôle ! Y'a rien à ger-man et même le frigo pue d'la gueule Suis-moi, pour un coup d'épaule, ils t'sortent le gun A1, j'suis toujours le number one C'est moi, oui, c'est moi9</t>
+          <t>Re-fré c'est la guerre, guerre Tu peux me retrouver à l'after J'm'en bats les reins du game, game J'suis plus doué que ses amateurs Comment se fait-il qu'il soit aussi bon ? Va-t-il prendre la fève ? Tu crois m'connaître, tu me connais pas donc, ne m'prend pas la tête J'vais t'faire planer même sans pilon enfoiré Pas la même planète, pas le même filon enfoiré Aucun mytho, dis leur que chez nous y'a aucun mytho Aucun mytho, dis leur que chez nous y'a aucun mytho Petit millésime, te fait pas d'illusion Ne m'compare pas aux autres ils sont nullissimes Que des inédits, ne fait pas d'allusion Ne parle pas dans mon dos j'vais te fermer les cils J'fais mes propres mélodies bon j'avoue c'est pas Billie Jean Petit si mon album était une go ce serait Lady Di Les vrais me félicitent et pour ceux qui me sollicitent J'vous l'ai écris sur ma page je ne fais plus de feats Guette la folie, j'ai des fans dans la police Guette la folie, elle veut qu'on joue aux cartes dans son lit Tu connais l'usine, mate la finition Je ne ferais pas d'cadeaux à part à ma fille J'suis un érudit, j'ai des munitions Ici c'est de l'inspi pure aucun mimétisme Le rap c'est politique, ils veulent étouffer mon équipe et monétiser mon étique L'album est d'humeur olympique J'manie les mots, les filles oui venez toucher mon épée J'vous l'ai écris sur la page Je vis sur un fil Tu te demandes pourquoi j'suis si différent ? Aucun mytho, va leur dire que chez nous y'a aucun mytho Aucun mytho, va leur dire que chez nous y'a aucun mytho Je suis bien le fils de mon padre, j'suis un vrai nombo J'me suis libéré d'mes chaines comme mon poto Django Mon son fait le tour de l'Afrique de Conakry au Congo En remontant par l'Espagne chez les danseurs de Tango Mais tu peux m'voir au tieks en caisse ou à iep' Malgré mes centaines de millions de vues sur le net Quand le soleil frappe le t-shirt, les lunettes Va dire aux serveurs du Fouquet's maintenant j'peux les yape3</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Où aller</t>
+          <t>Gunshot</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>J'mettant comme la gale et j'fais mal XX Lance moi comme une pierre de Gaza face aux blindés Ma fierté qu'un jour ma XX XX Eva Mendes J'ai cramé la philosophie qu'on nous injecte La vie n'est qu'un XX que défie XX Fais pas le mec qui tangue XX J'prends le micro 10 secondes, j'te choc la France pendant 10 ans Fuck De Gaulle, et que les States le ressuscite s'ils sont XX élégant Si tu veux me toucher dans mon amour propre Pour la fierté de nos proches qui provoquent l'embrouille entre potes Dans l'7.8 ton sport de combat te servira pas XX J'ai vu des ceintures noir s'faire niquer par des ceintures G-Star XX Comme les sunnites, pour fumer du schit, jamais trop tard Nos fierté craint que la paix XX XX mais c'est c'que dise les putes et les travelos Oh pire on vendra lorsque ton marché XX, on a pas finit d'kebla Développer nos pecs, nos bras C'est la raison pour laquelle on s'tape Pour un regard qui se croisent Et croit pas que parce qu'on a les mêmes origines on est frère Elle se fou pas mal d'aller au paradis ou en enfer Du moment qu'elle y va en Porch Carrera Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur Le H vient d'sortir d'ses gonds Et j'vois que la conqu s'dégonfle Commencer le décompte La bête a quitté les décombres Sont halal comme le bacon J'fais des pompes en touchant les tétons Oui j't'étonne, le son je le découpe Dans les 2 sens j'te laisse la dépouille Question d'honneur, jhonore les mecs du sud au nord T'inquiète la hess m'a nourrit Je n'aurais que ce que j'mérite Mes frères n'ont plu le moral, veulent mourir comme Jack Mesrine Les jaloux jactent mais dans leurs têtes je sais qu'ils XX mes rimes J'avance dans un désir de 10 ans, pour les reufs en prison XX le business est devenu bizarre Ça s'vante d'avoir des joujous Ça s'prend pour Steven XX Ton pote qui t'fais des bisous Que d'sortir un désert Eagle J'marche pas avec des poulets, ni XX Mais des mecs solides, toujours là quand ça doit s'bouger Qu'on pas peur d'voir le sang couler Regarde moi dans les yeux quand tu m'sert la main enculé On n'fait pas d'omelette s'en sortir les ufs du cul d'un poulet Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur On rêve de mourir martyr Calibré dans une Aston Martin Mélange pas le rap et le deal Tu salis notre honneur Nos ego préfèrent se fournir à Nanterre qu'au Resto du Cur Confond pas fierté, orgueil Ou t'étonnes pas de te faire niquer ta gueule On met tout le peu qu'on a sur l'apparence pour cacher le reste Tu peux pas test Ils tiennent que les murs, je tiens les promesses Question d'honneur C'est calibré que nos fiertés discutent pour une question d'honneur Une question d'honneur Juste une question d'honneur Balayette Dans ta tête Dans tes côtes, c'est une question d'honneur Ils m'ont boycotte soit disant trop hardcore Pour la peine j'reviens encore plus hardcore Question d'honneur Tu m'verras jamais dans leurs soirées C'est une question d'honneur Mon style est cru et le flow pu la street C'est une question d'honneur 7.5, 7.8 C'est une question d'honneur C'est une question d'honneur Une question d'honneur XX à la prod Sabry Mjnoon H Magnum</t>
+          <t>3582 1159 100 Proof 100s 2 Chainz 2 Kannon 2 Sides 2 The Top 215 Asasinz 2Mex 2ndNature 2Pac 3 Deep 3 Shades Of Rhythm 4th Quarter 50 Cent 5cent 8Ball MJG A A Tribe Called Quest AAP Ferg AAP Rocky A.L Absent Minded Ab-Soul Abstract Rude Abstract Tribe Unique Abstract Vandl's Abzorbr Ace Hood Aceyalone Action Bronson Adeem Aesop Rock Afroman Against The Grain Aj Suede Akbar Akinyele Akrobatik Aladdin Alexander Spit Alias All Creatures Alps Cru AlterEgo Andy Mineo ANTHM Antipop Consortium Antwon Apani B-Fly Emcee Apathy Aphillyation Armand Hammer Army of The Pharaohs Artifacts ASAP Asher Roth Aspects Astronautalis Atmosphere Atoms Family Audible Mainframe AW1 AWOL One Axis Ayentee AZ Azealia Banks Azeem DJ Zeph B B Dolan B Flatt Tyranny B Real B.o.B Baby Bash Baby Chill Bakers Of The Holy Bread Balli The Fat Daddy Basement Khemist Beans Bee Why Beggas Big Daddy Kane Big K.R.I.T Big L Big Lurch Big Pun Big Sean Big Squig Big Tymers Bigg Jus Billy Woods Binary Star Bishop Nehru Bitter Rhythm Biz Markie Bizz-ee Black Moon Black Rob Black Sheep Black Thornz Blackalicious Blackmarkit Blackstar Blade Blahzay Blahzay Blame One Blaq Poet Blast Holiday Bleek Blind Mice Bliss N Eso Blu Exile Blue Scholars Blueprint Bodega Bamz Bone Thugs-N-Harmony Boogi Mann Boogiemonsters Boom Bip Bored Stiff Boyz N Da Hood Brainsick Enterprize Braintax Brand Nubian Brass Tackz Breaking The Illusion Breez Evahflowin Brew Ha Crew Brick City Kids Briggs Brooklyn Academy Brotha Lynch Hung Brothaz Bent Brother Ali Brother Arthur Brothers 4 the Struggle Buck 65 Bun B Busdriver Busta Rhymes Buttas C Cage Call O' Da Wild Camp Lo Cam'Ron Camu Tao Canibus Cannibal Ox Capital STEEZ Captain Murphy Casey Veggies CassteDaro Casual Cause 'N' Effect Cauzndefx Caxton Press Cecil Otter Central Zone Ceschi Chamillionaire Chance the Rapper Charles Hamilton Chase Phoenix Chiddy Bang Chief Keef Childish Gambino Chill Will Chingo Bling Chingy Chink Chino XL Chosen Few Chris Webby Chrome Chubb Rock Chuuwee Citizen Kane Classified Clear Soul Forces Clipping Clipse Clyde Carson Cmb mafia CMF C-Murder Cold Heat Collective Efforts Common Common Market Company Flow Compton's Most Wanted Consequence Cool Calm Pete Coolio Copywrite Cormega CPO C-Rayz Walz Craz Crazy Rak Crazy Town Crescent Moon Is In Big Touble Critical Masz Crooked I Cunninlynguists Curly Castro Curreny Curtis Williams Cyne CZARFACE D D 2 Tha S D 2 The K D.Evilman Paranorm D4L Da Bullpen Da Bush Babees Da Champ Da Grassroots DA HANGMAN F.I.G.A.'S Da Nuthouse Damani Danger Doom Dangerous Minded Clik Danny Brown Danny! Dark Craftsmen Dark Time Sunshine Das EFX Das Racist Dashiell Datbu Dave Dub Daysmen Empire Dayze De La Soul Dead Poets Society Dead Prez Deadpan Darling Deaf 2 U Death Grips Debaser Deep Puddle Dynamics Deeskee Die Young Def 3 and Factor Def Defiance Def Wish Cast Defari Definite Vakashun 4 Suckas Del The Funky Homosapien Dela Delinquent Habits Deliverance Deltron 3030 Demigodz Demon Boyz Denizen Kane Denzel Curry Despot Dessa Devin The Dude Devour Dez Nobs Diabolic Diamond D The Psychotic Neurotics Digable Planets Diggaz With Attitude Dilated Peoples Dillon Cooper Divine ScienZe Dizzee Rascal DJ Quik DJ Shark DKat DL Incognito DMX Dmyze Dom Kennedy Domo Genesis Don Gargeyone Doomzday Dopa Than Dope Doseone Down 2 Earth Down From Upstairs Dr. Dre Dr. Octagon Drake Drama Klub Dub FX DumbFounDead Dungeon boyz Dutchmassive D-WHY Dynametrix E E.R.C E-40 Earl Sweatshirt East Flatbush Project East Of The Rock Eazy-E Ecid Edan Eddie Ill D.L Ednigmatik Edo G EL C El Da Sensei El Uno Eligh Amp Live El-P El-Rock Elzhi Emilio Rojas Eminem Encona Coarse Encore Endangered Species Endlessness In Machinery Eric B. Rakim Ethel Cee Everlast Evidence Ex Vandalz Example Exit 9 EXP Express Eyedea F F.O.R.C.E F9 Faba Van Exel Fabolous FallenRise Fashawn Fat Club FatKidsBrotha FD's Felt Finsta Bundy First Down First Offense First Sons First World Five Deez Fixed Penalty Flatbush Zombies Flips 7Life Flipsyde Flobots Ford The Coalition Forefathers Foreign Legion Forever FC Fort Minor Forward Intense Foul Play Freddie Gibbs Fredo Santana Freeway Funeral Games FUNKYTOWN PROS G Gang Starr Gauge The Mental Murderah Gavlyn G-Eazy Gee Rock Gene The Southern Child Gensu Dean Gershwin BLX Ghetto Chilldren Ghostface Killah Gift Of Gab Gliffics Glue Gnarls Barkley Godfather Don Godfellaz Goodie Mob Gorilla L Gorillaz Grand Agent Graphik Gravediggaz Grayskul Greenhouse Greenthink Grieves Ground Up Group Home Guante Big Cats! Gucci Mane G-Unit Gunshot Guru Gypcees GZA H H.D.M Hail Mary Mallon Hangar 18 Hardrock Soul Movement Hardway Has-Lo Headnodic Hearts of Darkness Heiruspecs Heltah Skeltah Herb Mcgruff Hieroglyphics High Authority Hijack Hilltop Hoods Hip Hop Culture Hodge Podge Homeboy Sandman Homeliss Derelix Honors English Hopsin Horseshoe G.A.N.G Hundredth Monkey Hurricane Chris Hyenas In The Desert I I Smooth 7 I.C.3 Ice Cube Ice-T ICF Iggy Azalea II Tone Committee IIID Ikee ILL BILL ILL Biskits Illegal Illogic Illuminous 3 Imaginations Treetrunk Immortal Technique Infinite Description INI Innernational Innersoul Inspectah Deck Intelligent Hoodlum Intrepid Stylez Isaiah G Izm Da Mad Soul J J. Cole Ja Rule Jack Mushroom Mike G Jam DKC Jamal Jay Electronica Jay Rock Jay Z Jean Grae Jermaine Dupri Jeru The Damaja Jesse Abraham Jesse James Rutherford Jibbs Jigmastas Jim Jones Jimmy Kelso JJ DOOM J-Kwon J-Live JNaturaL Joe Budden Joe Cyrus Joe Dub Joell Ortiz Joey Bada Johnny M.C. Johnny Polygon Jon Connor J-Treads Juggaknots Juice Juicy J Julius Myth Jurassic 5 Juvenile J-Zone K K Squad K.a.o.s K7 Ka Kankick Kanye West Kaos Mekanikz Kash Da' Masta Katch 22 Keith Murray Kendrick Lamar Kess Kid Cudi Kid Ink Kill the Vultures Killah Priest Killarmy Killer Mike King Koncepts Project Ambershine King Los King Ra-sean Kirby Dominant K'naan KnowMads Knowself Moves Kokane Konfidential Kool A.D Kool G Rap Kool Keith Kooley High K-os K-Otix Krack Free Media Krispy 3 Kristoff Krane KRS One Kulture Skool Kunga 219 Kurupt L L Swift L The Head Toucha L. r.o.c.k La Coka Nostra Labtekwon Large Professor Latyrx Lecrae Lee Scratch Perry Lewis Parker Life Rexall Lifer's Group Lighter Shade Lightsleepers Lil B Lil Boosie Lil Durk Lil Jon The East Side Boyz Lil' Kim Lil Mama Lil Reese Lil Troy Lil Wayne Lil Wil Limp Bizkit Living Legends LL Cool J LMFAO Locksmith Logic LoopTroop Lootpack Lord Finesse Lords Of Rap Lords of the Underground Lost Boyz Louis Logic Louis Rose LOWKEY Ludacris Luniz Lupe Fiasco Lute Lyrical E M M.C. Delirious M.C. Loon-e-Tune Dj Battery Brain M.E.T.H.O.D. MAN M.I.A M.I.C M.K.F Mac Dre Mac Lethal Mac Miller Macklemore Mad Mission Mad Vibes Madvillain Mahony the Chainsaw Massacre Main Source Manhunt Manslaughter 666 Marky Mark And The Funky Bunch Masai Masai Bey Mass Hysteria Masta Ace Mavado Mc Breed Mc E Rock MC Eiht MC Eric MC Pooh MC Rapia Mc Red Meek Mill Megabusive Melanin 9 Mellowhype Metaphor Shadow Metermaids MF DOOM MHz Mic Geronimo Micka Mex Mickey Factz Micranots Microphone Terrorists Migos Mike Jones Mike Ladd Mike Mictlan Mike Stud Millenium Milo MIMS Mind Bomb Mind Drift Mind Space Minds In Transit MindsOne Missy Elliott Mista Websta Mister Slick the Cool Johnski Mobb Deep Moe Green Moe Pope Rain Molemen Mood Moodie Black Mos Def Mourad Kill Ben Label Mr Complex Mr. Lif Mr. MFN eXquire Mr. Skurge Murder Squad Murs Musab Mystik Journeymen Mystikal N N2Deep Narcotik Nas Native Bastards Natural Elements Naughty By Nature Necro Nelly New Flesh New Wave Poets Nextraterrestrials Nicki Minaj Nickodemus Nine Ninjaz Nipsey Hussle Nitebreed No Bird Sing Noah23 Nocando Noise and DJ Fingers Non Phixion Nonchalant Non-Prophets North East Swat Team Nuffrespect Numskullz NWA NYRU O O.C Obie Trice OCD ODB Oddisee Oddities Oddjobs Ofaafo Oh No O'hene Savant Oliver Hart Omniscence One Be Lo ONYX Open Mike Eagle Organized Konfusion Outfit Reps OutKast Outlaw Overdoz Overlord X P P Money P. Diddy P.O.S P.Trot D.j. Ezt Pac Div Palestine Papa J. Ruiz Parallel Thought Paris Parlour Talk Paul Thompson Paul Wall Pauly Yams DJ Jazz PD Three People Under the Stairs Perrion Persevere Pete Philly Pete Rock C. L. Smooth Petey Pablo Pharoahe Monch Phats Phesto Dee Phoenix Da Icefire PHONTE Phora Pigeon Hole Pigeon John Abstract Rude Pittsburgh Slim Plado Planet Asia Plies Poetik Points Proven POISON Prince Paul Probable Cause Procryptix Project Pat Prolyphic Reanimator Propo'88 BlabberMouf PSY Psyonik Public Enemy Punk Barbarians Puppets Of Chaos Pure Rudeness Productions Pusha T Q Q-Tip Quasimoto Que Billah Quelle Chris Quest Q-Unique Qwazaar Qwel R R Rated R.A. The Rugged Man Raashan Ahmad Radioinactive Raekwon RAJADMINISTER Rakim RAMPAGE THE LAST BOYSCOUT Randy Acosta Ras G Ras Kass Rashad Confidence Raw 16 Reaching Quiet Red Pill Hir-O Redman Reese Reflection Eternal Reks Revolutionary Ink R-Evolv-Ing Doorz Rhyme Asylum Rhyme Cut Core Rich Boy Rich Homie Quan Rick Ross Rics Rumble Rizzle Kicks Rob Sonic Robb Bank Robust Roc Marciano Roc Roo Rockie Fresh Rola Roots Manuva Roscoe Royal Flush Royce Da 5'9 Rubberoom Rude Boy Business Rufmouth Run The Jewels RUN-DMC S S.K.U.N.K. Militia S.L. Troopers S.U.N Sab The Artist Sach Sadat X Sadistik Sage Francis Sandpeople Saturday Morning Soundtrack Saul Williams Scallops hotel Scarface Scarub School of Culture Schoolboy Q Scientifik Scorp Scott Lark Da Sensei Scrilla Scroobius Pip Seagram Sean Price Sector 7-G Sef The X Severe Carnage Shabazz the Disciple Shad Shadez Of Brooklyn Shaggy ShapeShifters ShinSight Trio Sho Baraka Sho Nuff Showbiz A.G Shut Up And Dance Shyheim Shyne Siah and Yeshua DapoED SIFU HOTMAN Silas Blak Silent Eclipse Silent Ones Silvah Bullet Simon Sed Sims Sindecuts Kickin' 2 Sinthesis Sir Michael Rocks Sir Mix A Lot Sirus Skillz Skyzoo Slaughterhouse Slick Rick Slim Thug SLOT-A Slow Suicide Stimulus Slum Village Smif-N-Wessun Smoke DZA Smoke Shoppers Snak The Ripper Sniper Cheez Snoop Dogg Snow Snowgoons So Called Artists Sole The Skyrider Band SoleSides Solid'N'Mind Son of Noise Sonic Sum Souls Of Mischief SpaceGhost Purrp Spalaney's Spice 1 Spontaneous Spose Stalley Standing Ovation Stedy Serv Steve Austin Storm Davis Street Souls Strict Flow Styles P SubContents Subtitle Suffa M.C. Vents Sunshine Power Sunspot Jonz Sunz Of Man Surreal Sound Providers Sweatshop Union Systems DMC T T.I Tab Anitek Talib Kweli Makeba Mooncycle Tame One Tap, Ghost And Phobia Tasc 4orce Tech N9ne Ten Thieves Terror Green Terror Squad TES Tha B.I.G. East Tha Fam Thawfor The 1628 Factor The Almighty Arrogant The B.U.M.S The Beastie Boys The Brotherhood The Brown James The Cool Kids The Coup The CREST The Cuf The Dereliks The Figure The Force The Game The Gigantics The Goods The Grim Reaper King K The Grimm Reaper The Grouch The Inevitable Sage The Ironfist The Jealous Guys The Kartel The Kraken The L.O.X The Last Emperor The Last Kind The Left The Literates The Nemesis Two The Nonce The Notorious B.I.G The Orphanage The Outlaws The Painsinner The Pedestrian The Pharcyde The Powerlords The Procussions The Proov The Realest The Rebelz The Roots The Saints The Shinin The Sindecuts The Streets The Twin Towers The Uncluded The Undefined The Underachievers The Wild Bunch The X Vandals The Zone Themselves Third Eye Militia Three 6 Mafia Tim Dog Tinie Tempah Toddy Tee Toki Wright Tone Loc Tonedeff Kno Top Billin' Torae Total Fiasco Trademark Da Skydiver Transcript Carriers Trillville Trinidad James Triple Crown Troopa Deal Trouble Tru Understanding Tuff Crew Twista Tyga Tyler, The Creator Typical Cats U UBAD UGK Ugly Duckling Ugly Heroes U-GOD UMaNg Unanimous Decision Uncle G Undivided Attention UNK Unknown Artist Unknown Prophets Unsung Heroes Uptown XO V V.Chae V.I.N.C Vado Vakill Vast Aire Versis Vinnie Paz Virtuoso Visionaries Von Love W Waka Flocka Wale Wanderers Warcry Warren G Wax Weathermen We Be I Middle Eastern Thought Westside Connection Wiki Will Smith Wingspan Wise Eyez Wiz Khalifa Wu Tang Clan Wyld Bunch X X2 XV Xzibit Y Y Society Yak Ballz YC the Cynic Yelawolf YG Ying Yang Twins Yo Gotti Young Gully Young Jeezy Young MC Young Roddy YU Yung Lean Z Zilla Rocca The Shadowboxers Zion I The Grouch Zoën11</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Entre nous c’est mort</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>H Magnum Rentrez chez vous Big Black M Rentrez chez vous Fin de Dream Big Black M, H Magnum TPP T'as trop de swag Black M Arrête de bire poto Comment tu fais ? Arrête D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt J'ai fais des gosses à la Critique, je les ai appelé Disques d'Or Ferme ta gueule akhi parce que mon fils dort Gotham City, H Magnum a buté Batman C'est pas une punch'... C'est une blackline ! Attends, attends, rimes aiguisées, flow c'est qui ça ? Peggy déguisée, heu non c'est trop bizarre ! Inimitable, j'me limite pas aux MCs Mais ché-la ton idole, tu l'imites mal J'vais sponsoriser ta mif', ton clan, ta te-tan T'as le seum, t'aimerais ne pas bouger, mais le son fait que t'es dedans One shot, here we go ! Appelle moi Black Luigi C'que j'vois c'est trop gros, personne n'a le budget T'es pas prêt, sur le beat je slalome Chacun pour sa peau, en 2013, akhi c'est ça l'Homme Les cles-on au foyer, faut pas les renvoyer La vie c'est pas nos clips, ça se passe pas comme vous le voyez Problèmes, loyers, j'veux arrêter de vouvoyer T'es pas prêt Black M est malade, personne pour le soigner T'es pas prêt M'sieur l'agent, tu m'fais mal au poignet T'es pas prêt Je l'ai d'ja roulé, c'est entre moi et le douanier Laissez-moi dans mon délire, j'suis atteint j'ai pas le temps J'ai v'là le flow j'ai déjà bossé, explosé l'Apogée Attend j'vais te décomplexer, à tout jamais Tu vas ger-bou ta te-tê sur mon texte les mains en l'air Maudis Game, ils finiront tous intérimaires Oh dis-moi, mais tu n'as pas la gueule du winner ! Qu'est-ce tu racontes ? Ferme ta gueule TeddyRiner Le but c'est de taper les ventes de celui qui chantait Thriller Ça bosse, ça fait des lustres Portes et fenêtres scellées, oui la famille j'ai dû m'incruster ! D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Si tout le monde arrête de courir, vouloir être riche Je me dis qu'on pourrait profiter de nos êtres chers Le monde appartient aux gens qui ont la meilleure literie Mais qui n'ont pas plus de sentiments que Dexter Très cher, passe-moi le cro-mi qu'on en finisse, que je les punisse Tellement génie, j'peux faire rimer Dream, Nutella et Pénis Oups ! T'es pas prêt, efface mon num, retrouve moi sur la Lune BOOM je suis là ! Girl what you gonna do ? Toi qui connait tout, je vois qu't'es dans le doute Et ma douce on a vu ton boule LaureManaudou Désolé, c'est vrai que mon cerveau m'écoute peu J'ai remarqué ce truc depuis que j'suis tit-pe Issu du petit-peuple, non j'suis pas un people J'suis banal comme un renoi qui meurt d'un coup d'feu J'rappe trop bien, pas besoin d'être validé Vous m'avez négligé, j'viens vous faire valiser MC fais le tour, la prod' est balisée L'album attendu comme la mort de Johnny Hallyday C'est pas une punchline... mais c'est une bourde Donc je me désavoue mademoiselle, après vous Paris c'est fini, y a de la folie, viens me follow Petite souris, moi je serai Tom, et toi tu seras Jerry Appelle-moi H-Smith Wesson J.M Weston, j'kick sur WhatsApp T'es pas prêt, j'massacre, j'suis en mission J'ai tranché le son FleuryMichon Oups Trop de bâtons dans les roues, donc j'ai décidé de marcher MC y a du flow ici, viens faire ton marché J'suis un vrai tueur un vrai de vrai Si t'as les crocs, quand tu croquais, moi je mâchais J'tiens ma rage sous les jupons d'une meute yeah M.C.'s j'vous fais rapper mieux qu'hier D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Paroles rédigées et expliquées par la communauté RapGenius France2</t>
+          <t>Hey, boucle-la, t'es pas mon père Yeah Excellent flow, excellent H, excellent Excellent flow, excellent H, excellent Excellent flow, excellent H, excellent Excellent flow, excellent H, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh ! Qui veut me caner, me saigner, me voir dévaler ? Rafale de plomb dans leur palais et les jaloux ne pourront plus parler Yes Chialer, c't'année sera salée Dans c'game trop d'salopes, quand j'rappe ça sent l'homme Quand tu m'vois, akhi passe-moi l'salam Reste pas là c'est plus chaud que le hammam Paname, le trône s'trouve par là A.D. passe-moi ta lame que j'les rende tous hallal Ma vérité sort de ta che-bou comme une glace Tu veux un feat' ? Va prendre ta che-dou, rien n'est gratos J'vais vous faire avorter Rhaap... Tfou ! Hassoul, poussez vous j'arrive en char d'assaut J'suis trop haut bouffon, comment m'suriner ? Ceux qui nous crachent dessus reçoivent les gouttes sur le nez J'côtoie des haramistes, des mecs sans limite Qui t'serrent la main et juste après t'éliminent Excellent flow, excellent Fall, excellent Excellent flow, excellent Fall, excellent Excellent flow, excellent Fall, excellent Excellent flow, excellent Fall, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh ! J'vais pas faire l'orgueilleux mais franchement tester qui peut ? Quand y'en a un qui s'rate derrière y'a l'reste de l'équipe Les mecs ils s'croient trop forts mais wesh c'est tous des tits-pe Ils parlent, ils parlent mais s'barrent en douce dès qu'ils peuvent Me compare à ceux qui faisaient la teuf' pendant qu'on taffait À côté de mon parcours akhi leurs bluffs c'est des contes de fée On s'place en tête des charts, en fait c'est pour ça qu'ils nous détestent Mais si le rap était un diplôme tout le monde devrait repasser des tests Yes, I speak English motherfucker Pas d'soucis j'comprends si tu iè-ch dans ton froc Wouah, bah dis donc j'ai du swag Pour les autres candidats, disons que ça dissuade Faut pas qu'j'me la raconte, on va m'jeter l'il Mais si sur un skeud' y'a mon nom achetez-le Han Wati B, excellent Excellent flow, excellent, excellent Excellent flow, excellent Gims, excellent Excellent flow, excellent Gims, excellent Excellent flow, excellent Gims, excellent Excellent flow, excellent Gims, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh ! Tu veux des sons caliente, des tas d'featurings, demande au Wati Boss Ici rien qu'ça bosse, t'es tombé sur un os, fuck tes fêtes de noces Voilà l'monstre du Loch Ness, où sont passé vos loc' ? Pour mon zin-cou Noko on a la vida loca J'suis sur la voie d'bus, me parle pas de piste cyclable T'inquiète pas la mif, j'suis encore à faire des ssique-cla Ils se demandent tous Maître Gims mais qu'est-ce qui se passe ? J'deviens impoli comme les Simpsons ou South Park Ouais les gens j'vais vous crever, rafale chavaud dans les cavus Qu'est-ce qui se passe ? Ambiancé que si là c'est Me-gi, l'perso stique-my Ambiance canicule, j'viens vous péter la clavicule Ça va grave vite j'vais tout gravir comme c't'enfoiré d'Mister Kravitz Ose me dire qu'on a pas percé, puis faire du sale c'est la vocation Bande d'enfoirés, retenez bien, y'a pas que Bruel qu'a la voix cassée D'un côté t'as Maître Gims, la rivière, les rivaux Tu m'as vu, pleins phares, voie d'bus, rue Rivo Excellent flow, excellent Wa, excellent Excellent flow, excellent Wa, excellent Excellent flow, excellent Wa, excellent Excellent flow, excellent Wa, excellent Rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien, rien à foutre des compliments, donne-moi le détecteur de loves Rien, rien à foutre des compliments, donne-moi le dédédédédédédédé Et ça fait bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Bang bang bang bang bang bang Breh !3</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Naïf</t>
+          <t>Ça marche en équipe</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter J'veux me propulser Ne mentez pas sur les effets néfastes de trop du succès Et puis merde au fond c'est que du son Passe un BIC pas question que j'signe avec du sang Pou-pousse toi reste dans le décor Mange-toi les punchlines, re-re-reste dans les cordes Impossible d'arrêter, j'ai déjà fait fait tant d'effort J'suis pas dans le game, aurais-je tort ? Est-ce que tu m'aimerais autant si j't'ai claqué ? J'suis pas dans le game Est-ce que tu sauterais pour moi si j't'ai plaqué ? J'suis pas dans le game Est-ce que tu m'aurais soutenu jusqu'au parquet ? J'suis pas dans le game Et si ce texte j'l'avais jamais gratté ? Et si j'avais jamais rappé ? Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets de chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Est-ce que tu me flaires ? J'tourne autour de l'osmose trop terre à terre Mais sous ma casquette j'ai le cosmos, côtoie la gifle qui n'a pas de main Mets pas tes seufs sur le magma 4 du mat, j'commence, fonce prendre l'air, passe le mic et j'installe ma sphère Boosté par la puissance WA, c'est un délit d'science, il faut l'voir sur scène Rien d'autre que l'illicite, j'plains ceux que le 36 cerne et... J'plains ceux que le 666 charme et puis percute un d'plein fouet Pas l'temps, j'guette le monde les autres me prennent pour un Shakespeare fonce-dé L'arbitre est d'mon coté, j'baise le game sans meme le toucher Louché, coup d'pioche de boucher Passe un coup d'fil en 2-4-6 le ceau-mor est bouclé Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Oui je sais, j'suis incompris, excusez-moi très chers Français Mais fuck le rêve Américain, laisse moi mon cauchemar Africain Laissez moi dans mes galères, j'suis bien tant qu'il y a ma famille Oui, je ne joue pas, j'suis pas dans l'game, akhi, j'ai d'autres soucis Et si... un beau jour tu ne me vois plus dans le son C'est que je ne l'ai plus dans le coeur, ouais ce n'est pas plus mal dans le fond Et si... j'étais dans l'game sans me rendre compte Peu importe j'vais en rendre des comptes, mais ce n'est pas le thème, bandes de cons De toute façon je n'ai plus de force, avec vous c'est la même chose Même si je viens j'kick One shot, sale, vous allez dire C'est la même daube Venez pas me parler de hip-hop, pé-ra depuis l'époque du Beat box Ils s'branlent sur les soi-disant Big Boss, dédicace à mon ga-va Big Tox Je n'aurai jamais la force d'un X-Men, donc je sors des mixtapes J'suis ce gosse en manque d'affection qu'on voit souvent dans les films de science-fiction We-We-Wesh enfoiré pourquoi t'insistes, j't'ai déjà dit que je déborde d'inspi Si je vendais du shit, j'aurais mis la marchandise dans des paquets d'chips J'suis pas dans le game Enfoiré, j'suis pas dans le game J'suis pas dans le game On se voit sur Mars ou Jupiter Si j'avais la patate d'un X-Men, est-ce que mes sons feraient l'même effet ? Qu'est-ce que j'ferais sur scène ? Jamais j'le saurai J'suis pas dans le game, j'suis dans le... Wa wa wa, wa wa wa D.R.Y. est dans le... Wa wa wa, wa wa wa H Magnum est dans le... Wa wa wa, wa wa wa L'Institut est dans le... Wa wa wa, wa wa wa Yeah, L.I.O est dans le... Wa wa wa, wa wa wa Ha ! Harouna est dans le... Wa wa wa, wa wa wa HCue est dans le... Wa wa wa, wa wa wa Wati Boss Wa wa wa, wa wa wa Welcome to the... Wa wa wa, wa wa wa Wa wa wa, wa wa wa...2</t>
+          <t>75, Capitale du rap ! H Magnum, Sexion dAssaut on t'tue dans luf Cest encore nous bâtard Sexion dAssaut a.k.a léquipe qui tfout le cafard Fais pas lfou ça part deuss un coup d'sabate Tu veux savoir quand est-ce quon a formé l'groupe, ça date Jpratique des techniques interdites Jpéra pour le palace au bled, pas pour une baraque en terre cuite Demande à Barack Adama, gros ça kick lourd sur tous les titres Rassures-moi, tu rigoles quand tu dis quon est quittes ? J'te présente plus mon équipe, cest des dingues pour qui céder Est impossible, jveux pas vendre mille mais un llion-mi dCD Ya H-Magnum, donc ça kicke façon sale Explique-moi c'que vont faire des couteaux suisses face aux sabres akhi Moi jpé-fra dans les points vitaux Jsuis l'désert quest-ce tu vas faire avec ta teille dun litre deau ? akhi On va pas s'mytho tas pas létoffe Cette fois-ci j'te l'dis les élèves rattraperont pas les profs Une blessure bénigne, tout dabord que Dieu nous bénisse J'suis sur une péniche élabore ainsi le périple Jme barre à Tunis v'nez à bord que je vous bénisse J'suis pas net aux manettes, 75 une autre planète ! Ça plus que jamais, nous tester ne venez jamais J'ramène un flow très amer pour les vrais pas pour les zamel Ceux qui trahissent leurs amis pour le seille-o se font saigner Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo J'suis pas dans mon assiette, me raconte pas trop d'salades Parlons comme à lépoque où ça chantait sous haya Oui, sous haya f-faya, ça parlait de playa De stars et du catch et des flyers de la gente féminine en tailleur Ça cest lépoque où jétais fou Et p't-être lépoque où j'voyais flou Jfréquente des gens qui prennent des décisions sous rabta Malgré tout mes acolytes sont aptes à Mettre des coups avec le flow la tech' le fond la forme quoi tout y est Tous les coups sont permis, guette comment jmempare de Facebook Que Dieu nous préserve de tomber dans le gouffre H Magnum, faut pas tomber dans le gouffre On vise le front la tête la ferme on compte bien toublier Un taf de pro la fête est finie, jai dégoupillé Dans lgame ya plus déthique que des ptits cons qui louvrent Stressent quand on fait bouh ! Pas ltemps dbrailler, on est là pour mailler, grailler Mouiller le maillot ne sert à rien, cest nous les meilleurs Paris gars cest New-York, chez la concurrence cest l'néant Jles hante, viens dans les méandres puantes des MC brillants Mi-homme, mi-hyène yo, dans le ciel on rayonne Rage de lion caméléon vos rappeurs sont sous Valium Sexion que des phénomènes, on a le polo Ralph Badman Bomboclaat Ba-Badman ! Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo Cest pour mes maliens qui ont dla mala qui bouffent hallal à la maison Malheur à ceux qui parlent fort ou mal à mes oncles Jveux rouler, arpenter les rues avec ou sans hard-top Arr do afin dte montrer quon peut être hardcore Akhi regarde , y'a une équipe de chacals Dès qu'y a pas de , quand tu vois tout ça, ça tcalme Chez nous le tchouraï est à la mode plus que Ushaïa Pousse-toi ya Sexion dAssaut soyez tous loyaux En manque de ous moins ya dflouss plus cest lgouffre Noyade apnée, on sétouffe crois-moi cest brouillard secousses khouya A.D. ! Yeetodi Diallo comme Black M On fera un come-back dans les villes du bled comme Bakel Si tu mtrouves tête en lair cest p't'être que jcrois qu'largent tombe du ciel Les ptites surs sont plus saines certaines dentre elles sont plus pucelles La scène française est épuisée, pour qu'tu puisses régner faut qu'tu saignes Le succès sboit cul sec dévoile tes parties les plus zen Comme une sape qui tserre, la BAC te plaque, discerne Les putes des bons quand tous tes gars s'dispersent et te laissent en hass Le pe-ra donne son flow, faut pas quil sbaisse en dessous des fesses Tfaçon ya tout un tas de business Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo Jaurais aimé tparler damour comme tonton Petiello Mais jme sens comme si on m'devait un putain d'million deuros Serait-ce la faute dun bout-mara ou celle du petit bout marron ? Jen rigole mais cest pas marrant tout mrevient dessus comme un boomerang Nerveux avec mon petit galbe, jai Vu un tas dpetits petits petits jouer les gadjos Demande-moi quest-ce quun homme jte répondrai mon daron Touche à la famille et cest la guerre que nous déclarons Cest mon quart dheure de folie, bien sûr qu'la foule est affolée Chez nous on dit stade rempli, Black M reprise de volée LAfrique qui fait la ola, lOccident en guise de pickpocket Akhi cest mieux faut pas tmoquer ok ! Ne dis pas quon est quittes Un jour tes au top puis lautre tes fini Ça marche en équipe Et ça senracine dans des endroits sinistres À part ça jsuis un pur parigo, go parigo Pur parigo, go parigo À part ça jsuis un pur parigo, go parigo Pu-pu-pur parigo, go parigo1</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Corazón (Version Française)</t>
+          <t>Laissez-moi tranquille</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Maître Gims, Bedjik Mais qui a 'glige ? Maitre Gims, Bedjik, un feat en famille Trop deus tu t'demandes si j'tape dans la farine Here We Go ! Tu vois bien que les flows varient C'est l'zbeul un peu comme dans Tex Avery Ça fait des mois et des mois et des mois que je ne dors pas Les MCs me veulent en featuring mais j'en prends très peu Qui assumera pas sans avoir enfilé un joint de beuh Vous êtes tous piégés dans le Vortex... Mais j'compte t'enterrer après t'avoir humilié sur la voie ferrée Demande à Ferris à quoi bon sert de faire l'inspecteur Derrick ? Ça m'fait dahek Sors ton béret, puis ton pe-pom, si t'es paré, ben c'est bavon C'est moi l'premier à l'avoir kické donc je n'sais pas à la base qui t'es L'heure est venue de t'liquider, Bedjik le psy, c'est la qualité Ceinture noire chrome sur le bas-côté, fallait méditer J'vais pas te le répéter au cas où t'aurais pas tilté Et puis j'm'lèb' sur la prod' sans déc' Il faut qu'j'te la mette pour que tu captes ma tech' Mais moi j'fais du lourd, même si t'es par terre j'te lève Bsahtek pour ton feat mais il t'en reste sur les lèvres J'suis dans mon délire, j'suis pas pressé, j'vais les fumer sans m'reposer La dégaine de l'homme amoché donc japparais souvent stressé Disons qu'la vie est dure, et qu'les pe-stu nous cassent les couilles À cause d'une dégaine de taré, j'suis pas carré mais j'sens la douille Alors j'me pose, ma couronne sur les questions qu'j'me pose La daronne cogne, crie sur le gosse qui compose Et dès qu'j'suis dehors, Berisque de perdre le contrôle Rien à foutre de ce que vous pensez, toutes vos attitudes de shour J'suis déboussolé, déboule solo ma passion j'vais déboutonner Correctionné mise de côté si t'as zappé là tu connais Genre connu mais débit volé, tu vas prendre une demi-volée Mais t'as rien à m'dire, t'inquiète J'avais une barre pour toi mais tu tentais de m'chourave les miettes J'ai tort de... toi t'es condamné à te gratter les fesses Et roule sur ce fils de... change de tier-quar Mon espèce est protégée, les enfoirés sont mis à part J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis grave énervant, tu es trop décevant J'kicke depuis mes 9 ans, pour ça qu'j'plie du de-mon AAAAAAAAAAAAAAAAH Guette le niveau froid comme Sub-Zéro D'mande à Jerry R., un flow sans précédent S'faire fumer devant des javons Ambiance chavaud-bavon, craint comme un Deceptycons Ton cul sur le trident, là c'est mon côté dit-ban Laisse moi les dé-fler-gon, me-Gi fucke Poséidon Ferme là, si t'es pas con, j'défouraille depuis l'balcon Glauque comme les rues d'Patong, danse dans la gueule du dragon Viens m'voir à Kin' au Congo, ou dans la forêt d'Ngorongoro Au corps à corps avec un taureau dans l'océan d'vant les coraux Violent comme de décevoir ou l'désaccord avec les parents C'est paro car tôt ou tard t'es forcé d'payer plein pot l'tarot J'suis avec Sop-pra-no Bedjik, Beriz, H, Dream Oh no, tu vis un instant hors norme J'suis bizarre, je sais, je ne suis pas aux normes Énorme ? I don't know Dream Chérie, questionne tes hormones J'lance une bombe, j'vous donne cinq secondes Les gars, cassez-vous, j'ai tué Cupidon Ta go me trouve intriguant Dis-lui qu'j'ai du goût comme du bon taga J'suis dans le sas, j'ai quatre tass', aux pattes des tas d'passes S'échappe ta carcasse, craque ne canne aps Le taff ton futur, mon passé s'noie Et t'es calme, me parle aps, j'sais aps les poukaves Écarte de cracher, se cache Confie tout aux tasses-pé, rafale de face Yeah, ne me faites pas chier, j'fais plus confiance même au chien Une belle paire à tes pieds même ton poto peut t'les cirer J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails J'ai fait le tour du Monde passant de Marseille à Paris Depuis Nineteen Ninety-Nine tu constates que mon flow varie J'ai l'axe du mal devant moi c'est d'la folie Mais c'est mes bails, bails, bails, bails Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Je suis à mon Apogée, po, po, po A mon Apogée po, po, po... Reste tranquille, mais-mais reste tranquille Voilà Sopra' M'Baba et Maitre Gims Comme lui, j'ai fait le tour du monde de Marseille à Paris Tu connais déjà le gabarit, donc donc reste tranquille Un big up au Wati-B, pour les 700 000 Que des mecs costauds, que des mecs solides, là j'atterris comme à Smallvile Oh oui ce feat c'est de la-la folie, mes rimes défilent comme un gros bolide J'vois des MCs prendre la fuite comme des vaches d'Interville Dream, mon flow assassine À la fin de ce couplet tes gars ont le visage à Seal Je les braque avec le magnum de l'Institut Le game n'est pas un trottoir pourquoi tu te prostitues ? Dédicace à Bedjik et à Shin Sekaï Avec un putain de flow qui découpe comme San ku kai Rien qu'jpars en live, faut qu'je fly Donc je vous dis bye bye bye bye bye-bye bye !4</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>Miami Vice</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Département 01 AinGex - ChillaDépartement 02 AisneMarly-Gomont - KaminiDépartement 03 AllierDépartement 04 Alpes-de-Haute-ProvenceDépartement 05 Hautes-AlpesDépartement 06 Alpes-MaritimesAntibes - Infinit' - Jason Voriz - Quincy Cannes - Chiens de Paille - Sako - Jason Voriz Menton - Dostan Malicia Mc Nice - GAK - C2k - Fanny Polly - Infinit' - Kaotik747 - Mr Agaz - Millionaire - Jason Voriz Vallauris - Veust - Jason Voriz - Le Mic RaziDépartement 07 ArdèchePrivas - ShedarDépartement 08 ArdennesDépartement 09 AriègeDépartement 10 AubeRomilly-sur-Seine - NoldystyleDépartement 11 AudeDépartement 12 AveyronRodez - LombreDépartement 13 Bouches-du-RhôneAix-en-Provence - Ladea Arles - Kamikaz Aubagne - Sch Berre-l'Étang - Kalash l'Afro Marignane - NOR Marseille - 100 Blaze - 3e il - Akhenaton - Le A - L'Algérino - Alonzo - AM La Scampia - Boss One - Bouga - Dadinho - Elams - El Matador - Faf Larage - Fonky Family - Freeman - Ghetto Phénomène - Graya - Guirri Mafia - IAM - JMK - Jo Popo - JuL - K-Rhyme Le Roi - Keny Arkana - Kofs - La Coza - Lebeey - Le Rat Luciano - Menzo - MOH - Moubarak - Naps - Prodige Namor - Psy4 de la Rime - Sat l'Artificier - Soprano - Soso Maness - TK - R.E.D.K. - Thabiti - YL - Zamdane Miramas - Shurik'n - L'antidote la familleDépartement 14 CalvadosAlençon - OrelSan Caen - OrelSan - GringeDépartement 15 CantalDépartement 16 CharenteAngoulême - RESDépartement 17 Charente-MaritimeDépartement 18 CherVierzon - JosmanDépartement 19 CorrèzeDépartement 2A Corse-du-SudDépartement 2B Haute-CorseDépartement 21 Côte-d'OrDépartement 22 Côtes-d'ArmorDinan - Tristvn 9 - NégrouxDépartement 23 CreuseDépartement 24 DordognePérigueux - TTDépartement 25 DoubsBesançon - Butter Bullets - RadmoDépartement 26 DrômeMontélimar - Saminem Romans-sur-Isère - La Bavure - Lil Primo - Makis'Art - Max D. Carter Valence - 2Taf - Djado Mado - Djelow Stylez - Marshall'OmbreDépartement 27 EureEvreux - Yong-C Verneuil-sur-Avre - Hash24Département 28 Eure-et-LoirChartres - Bakar Dreux - Mehf WestDépartement 29 FinistèreBrest - Reynz Douarnenez - Vidji Fixpen Sill Quimper - Kéroué Fixpen SillDépartement 30 GardNîmes - Aysko - Devogvng - Meiiyuki - Ouss - RO2C - VSODépartement 31 Haute-GaronneToulouse - Babarr - BigFlo Oli - D1ST1 - Denfima - Don Choa - Furax Barbarossa - KDD - La Buze - Laylow - Petit Buz - TLZ ClanDépartement 32 GersDépartement 33 GirondeBordeaux - Black Kent - Boulcy - Denza - Fello - Fleyo - Fayçal - Joey Larsé - La Prune - Odezenne - Sam's - Smeels - Todd - VII - Yaska - Yudimah Floirac - Sam's La Teste-de-Buch - BuchWood FamilyDépartement 34 HéraultMontpellier - Ateyaba - Bip's - Lacraps - Titan - Sameer Ahmad - Set Match - Vin's - Wit. Sète - Demi Portion - SprinterDépartement 35 Ille-et-VilaineRennes - ABD - Columbine - Diez - Ideal Jim - Joubs - Kenyon - La Meute - Lorenzo - Makiavelich - Micronologie - RetaDépartement 36 IndreDépartement 37 Indre-et-LoireDépartement 38 IsèreGrenoble - Bash - Hassad - H-LO - Jeff le Nerf - Juice - Tortoz Veurey-Voroize - Mister VDépartement 39 JuraDépartement 40 LandesMont-de-Marsan - BapDépartement 41 Loir-et-CherBlois - Nino B - NiroDépartement 42 LoireSaint-Étienne - Zed Yun PavarottiDépartement 43 Haute-LoireMonistrol-sur-Loire - KurdennDépartement 44 Loire-AtlantiqueNantes - 20syl - Buzzy Hood - Coelho - Don Max - FK - Hicham Ali - Hunam - RatepiDépartement 45 LoiretOrléans - Biwaï - Dosseh - Ppros - VegedreamDépartement 46 LotDépartement 47 Lot-et-GaronneDépartement 48 LozèreDépartement 49 Maine-et-LoireCholet 49300 - BoosteeDépartement 50 MancheDépartement 51 MarneReims - 6rano - Créance de Son - thaHomeyDépartement 52 Haute-MarneDépartement 53 MayenneDépartement 54 Meurthe-et-MoselleNancy - Kikesa Thil - TaipanDépartement 55 MeuseDépartement 56 MorbihanDépartement 57 MoselleMetz - Aparzite - Mysa Sarrebourg - 7 JawsDépartement 58 NièvreDépartement 59 NordCondé-sur-l'Escaut - Michel Dunkerque - Sausco - Veerus Lille 59000 - Axiom - Bekar - Krilino - Pollux Roubaix - Gradur - JNR - Lam'k - N.I.M. - Rohn Noir - ZKR Valenciennes - Heuss l'Enfoiré - K5Département 60 OiseBeauvais - Sianna Nogent-sur-Oise - Keblack - KuRt 2020 Creil - Alliance Ethnik - Blaxo Réseaux - Naza - Tango Point HotelDépartement 61 OrneAlençon - OrelsanDépartement 62 Pas-de-CalaisDépartement 63 Puy-de-DômeClermont-Ferrand - Joe Natt - Pasteur H - VincenzDépartement 64 Pyrénées-AtlantiquesPau - Le DésordreDépartement 65 Hautes-PyrénéesDépartement 66 Pyrénées-OrientalesPerpignan - Gros Mo - Hassan Monkey - Nemir - Sinya - YUZMVDépartement 67 Bas-RhinStrasbourg - Abd al Malik - Ash Kidd - Dooz Kawa - Larry - Lycos - Matteo Falkone - MRCDépartement 68 Haut-RhinMulhouse - Siboy - I2HDépartement 69 RhôneLyon - Anton Serra - Barbiok - Casus Belli - Cidji - Cleim Haring - Cyrious - Deux Lyricists - Dico - Double Å - Ethor Skull - Gouap - Hakan le Grand - Ilénazz - Jorrdee - Kacem Wapalek - Kalams - Lala ce - La Microfaune - L'Animalerie - Lucio Bukowski - Lyonzon - Marius B - Mazoo - Mini - Missak - Nadir - Noma - Richi - Robse - Sethemsi - Smok - So Sama - Tedax Max - ZeGuerre Saint-Laurent-de-Mure - ArcanesDépartement 70 Haute-SaôneDépartement 71 Saône-et-LoireDépartement 72 SartheLe Mans - NKPDépartement 73 SavoieDépartement 74 Haute-SavoieAnnecy - Beny - Lucas OPRV - Luni SacksDépartement 75 ParisParis 3ème - Espiiem Paris 9ème - Barack Adama - Black M - Doums - Maître Gims - Maska Paris 12ème - Joe Lucazz - USKY Paris 13ème - Aladin 135 - Awax - Dante Sito - Dehmo - Hache-P - Jok'Air - Lomepal - Mothas la Mascarade - MZ - RC x ING - Youri Paris 14ème - Alpha Wann - L'Animal - Darryl Zeuja - Dinor Rdt - Fonky Flav - Népal - PLK - Syen Paris 15ème - Framal - Hippocampe Fou - Mekra - Nekfeu - Teki Latex Paris 16ème - Aïchakim Paris 17ème - Hayce Lemsi - Kranmax - Leto - PSO Thug - Volts Face - XV Barbar Paris 18ème - Aki la Machine - C.Sen - Davodka - Doc Gyneco - Dino - Georgio - Fabe - Flynt - Hugo TSR - Koma - JP Manova - Junior Bvndo - Lefa - Mokless - Omry - Sanka - Say - Sidi Omar - Sopico - Vesti - Vin7 Paris 19ème - Abis - Adès - Brulux - Eff Gee - Jarod - Jazzy Bazz - Les Frères Scotch - Lord Esperanza - MC Jean Gab'1 - MHD - Mister You - M le Maudit - Nelick - Oxmo Puccino - Pit Baccardi - S-Cap - Tino - Yzla Paris 20ème - 2zer - Cassidy - Franglish - H Magnum - Hi-Fi - Ill - Moha La Squale - S.Pri Noir - sean - Seven - Still FreshDépartement 76 Seine-MaritimeLe Havre - Alivor - Brav - Médine - Ness Cité - Oumar - Tiers Monde Rouen - Lalcko - Leone - Marouan Bigy - YounèsDépartement 77 Seine-et-MarneAvon 77210 - Leonis Champs-sur-Marne 77420 - Badjer - Boumso - J-Mi Sissoko - Timal Chelles 77500 - 2Bal Combs-la-Ville 77380 - Monsieur R - Y du V - P2 La Ferté-sous-Jouarre 77260 - ISK Le Mée-sur-Seine 77350 - A2H Meaux 77100 - Djadja Dinaz - Douma Kalash - Josué - Mystik - RK Melun 77000 - Retro X Mitry-Mory 77290 - Pins Dimeh Nemours 77140 - Gianni - Ninho - Viez Noisiel 77186 - Uzi Roissy-en-Brie 77680 - Qrono FuturistiqDépartement 78 YvelinesBailly - 47ter Élancourt 78990 - La Rumeur Guyancourt 78280 - Hatik - Kwistof Mantes-la-Jolie 78200 - Expression Direkt - Poison - VF Gang Montigny-le-Bretonneux - Keurta - SKG Les Clayes-sous-Bois - Garlou Les Mureaux 78130 - C4 Clan Plaisir - Bosh - Rapsonic Poissy 78300 - Gys Saint-Cyr-l'École 78210 - Azuul Smith - L'Skadrille Trappes 78190 - 3010 - Canardo - Green Money - Jazz Malone - La Fouine - M.A.S - MLC - Skreally Boy - S-Kro Vélizy-Villacoublay 78140 - Chanje Versailles 78000 - Fuzati Sartrouville 78500 - Koadur Fourqueux 78112 - KoadurDépartement 79 Deux-SèvresDépartement 80 SommeDépartement 81 TarnDépartement 82 Tarn-et-GaronneDépartement 83 VarSaint-Raphaël - Hooss La Crau - Gowaz Music Mamiz, La Nace'me La Seyne-sur-Mer - F.O.B. - MalakIronik - Germinal Soldats - Baba Le Luc - Hooss Toulon - Dialectic Pimp LePierrack - Saigne J - R'Mili - La Résistance Jsayan, 100s, rimk - Poupa Claudio - Sekel - Djalskov Le Pradet - Deen Burbigo - JehkylDépartement 84 VaucluseValréas - AlrimaDépartement 85 VendéeLa Roche-sur-Yon - MC CirculaireDépartement 86 VienneDépartement 87 Haute-VienneDépartement 88 VosgesDépartement 89 YonneDépartement 90 Territoire de BelfortDépartement 91 EssonneCorbeil-Essonnes 91100 - Black Brut - F430 - GDZ - IGD Gang - MMZ - PNL - S-Pion Chilly-Mazarin 91380 - Smoker Courcouronnes 91080 - Ol Kainry Draveil 91210 - Nubi Grigny 91350 - Al Péco - Cokein - Dalsim - Dems - Denzo - Douma - Gizo Evoracci - La Comera - LMC Click - Juicy P - Madox - Mozo du Zoo Épinay-sous-Sénart 91860 - Aronstrong - Danik Évry 91000 - Alkpote - Bolémvn - Desko - Disiz - Éloquence - Katana - Koba LaD - Kodes - Lestin - Luv Resval - Niska - Rabakar - Savage Toddy - Shotas - Unité 2 Feu - Zekwé Ramos - Zola Massy 91300 - Aladoum Ris-Orangis 91130 - Alrima - Cifack - KPoint Saint-Geneviève 91700 - Huntrill Savigny-sur-Orge 91600 - Jango Jack Les Ulis 91940 - Diam's - Grödash - Fiks et P-Kaer - Reeno - Scar Logan - Sinik Vigneux-sur-Seine 91270 - Tito Prince Yerres 91330 - Ninho - YaroDépartement 92 Hauts-de-SeineBagneux 92220 - Sultan Boulogne-Billancourt 92100 - Alox - Benash - Booba - Boulox - Bram's - Braki - Dany Dan - Darki - Djé - EXS - Elh Kmer - Les Rieurs - LIM - Mala - Melopheelo - Mo'vez Lang - Nysay - Sages Poètes de la Rue - Salif - Sir Doum's - Vesti - Zoxea Clamart 92140 - PLK - SDM Courbevoie 92400 - Kekra Montrouge 92120 - Nusky Nanterre 92000 - Bassirou - Bresom Gang - Brvmsoo - LMB Issy-les-Moulineaux 92130 - Ali - Kozi Suresnes 92150 - Ormaz Vanves 92170 - Movezu Villeneuve-la-Garenne 92390 - Guizmo - Heuss l'Enfoiré - SoolkingDépartement 93 Seine-Saint-DenisAubervilliers 93300 - Beeby - Deen Burbigo - Mac Kregor - Mac Tyer - Rémy - Tandem Aulnay-sous-Bois 93600 - C.O.R - Limsa - Sefyu - Suik'on Blaze AD - Topas - Vald Le Blanc-Mesnil 93150 - Bakhaw - Casey - Sofiane Bobigny 93000 - GLK - Kohndo - L'Indis - Lavokato - Nakk Mendosa - Worms T Bondy 93140 - Diddi Trix - James Izmad - Lartiste - Zikxo La Courneuve 93120 - Alibi Montana - Alino - Dinos - HoussBad - K.S.A - Tony Karino - TonyToxik - 4Keus - 4Keus Gang Clichy-sous-Bois 93390 - BFBC Dugny 93440 - Dixon Épinay-sur-Seine 93800 - Alpha 5.20 - Blaxo Réseaux - Busta Flex - Hornet la Frappe Les Lilas 93260 - Lasco Neuilly-Plaisance 93360 - Biffty - Sadek Noisy-le-Grand 93160 - Fababy - Mansly - Nick Conrad Noisy-le-Sec 93130 - Féfé - La Caution Montreuil 93100 - Cenza - Le Club - Fiasko Proximo - Ichon - Issaba - Loveni - Max Paro - MLR - Prince Waly - Swift Guad - TonyToxik - TripleGo Montfermeil 93370 - BFBC - Démocrates D - Louis Aoda - Reciprok Pantin 93500 - B-NØM - Freeze Corleone Pavillons-sous-Bois 93320 - Majster Le Pré-Saint-Gervais 93310 - Lesram Romainville 93230 - Dadju Saint-Denis 93200 - FMC Gang - Grand Corps Malade - JoeyStarr - Kool Shen - Landy - Psykopat - Q.E Favelas Saint-Ouen-sur-Seine 93400 - Rvzmo Sevran 93270 - 13 Block - Benab - Dabs - Da Uzi - Kaaris - Kalash Criminel - Ixzo - Maes - Solo Le Mythe - Walid Stains 93240 - Bakyl - Meiday Villetaneuse 93430 - Escobar MacsonDépartement 94 Val-de-MarneAlfortville 94140 - S-Pi Boissy-Saint-Léger 94470 - Le Juiice Champigny-sur-Marne 94500 - 25G - 400 Hyènes - K-Push - La Hyène - Luni - Marv Favelas - TDB - Wilkin Chevilly-Larue 94550 - Chily - Lacrim Choisy-le-Roi 94600 - Amy - Cinco - Demon One - Missak Créteil 94000 - Pejmaxx - Tirgo Fontenay-sous-Bois 94120 - Enfantdepauvres - Gambi - Kaza Le Kremlin-Bicêtre 94270 - Kamelancien Ivry-sur-Seine 94200 - Am1 O Mic - Daddy Mory - DTF Joinville-le-Pont 94340 - Aelpéacha - Kino - Selim du 94 Limeil-Brévannes 94450 - Baka - Delka - T2R Orly 94310 - Dry - Karlito - Kery James - Manu Key - Mista Flo - Take A Mic - Teddy Corona Saint-Maur-des-Fossés - Tengo John Thiais 94320 - Iron Sy Villejuif 94800 - 2Neg Villeneuve-le-Roi 94290 - Kennedy - P-dro Villeneuve-Saint-Georges 94190 - Captaine Roshi - MC Solaar - OBOY Villiers-sur-Marne 94350 - Dicidens - Houssein - Koryas Dicidens - Nessbeal Vitry-sur-Seine 94400 - 113 - Alain 2 L'Ombre A2L - AP - Doudou Masta - Duo2son - Gravité Zéro - Ikbal - L.E.C.K - Lionel D - Mike Lucazz - Mokobé - OGB - Phénomène Bizness - Rim'k - Rohff - Six Coups MC - ZesauDépartement 95 Val-d'OiseArgentueil 95100 - Jewel Usain Cergy 95000 95800 - Blackapar - Gaïden - Gringe - Lun1k - Wojtek Deuil-la-Barre 95170 - Aketo - Tunisiano Garges-lès-Gonesse 95140 - Key Largo - Nèg'Marrons Montmagny 95360 - D. Ace Osny 95520 - Youssoupha Sarcelles 95200 - Driver - Passi - Sëar Lui-Même - Sir Samuel - Stomy Bugsy - Youv Dee Saint-Ouen-l'Aumône 95310 - Seth Gueko Villiers-le-Bel 95400 - 404Billy - Calbo - Lino - Luidji - MorsayDépartement 971 Guadeloupe- Admiral T - Bridjahting - LuterDépartement 972 Martinique- KalashDépartement 973 GuyaneDépartement 974 RéunionSaint-Denis - Futur CrewDépartement 975 Saint-Pierre-et-MiquelonDépartement 976 Mayotte7</t>
+          <t>Jungle Beats, Holla at me I don't like the look of it Ich spitte crazy Shit Magnum in der Hand, thats my Lady Bitch Ich und MBeezy driven im Merzedes Benz Und wenn du Whack-MC mich noch nicht erkennst Muss ich mich erstmal Vorstellen, Ladys and Gentlemen Hello World, mein Name ist Tejay Der Codein-sippende, Blunt-spiffende Trizzy Ich bin die Revolution, ich bin New School Stirling meine Uhr, wie ein Spieler aus Liverpool Money over Bitches Mich interessiert nur Moola Das ich sowieso Ausgebe bei Jacob Da Jewla Man, ich trag die Snapback Von meinem Hals hängen mehr als nur Two Chains Ich hab mehr Eis um meinem hals als dieser Yu-Gi-Oh Mir fehlt die Whacknes, wer sie findet kriegt nen guten Finderlohn Ich ficke Pussys in der Sorte von Karmen Electra Die Bitch war genau so juicy wie Orangennektar Für mein Talent bedank ich mich bei Gott Ich kenn keiner der Dope ist, die Ausnahme ist mein Bra Ich mache was ich will, nenn mich Beatkiller Ich flowe cooler als ne Pittsburgh-Nacht, Mac Miller Ich bin Higher wie die Schreie von Karatemeistern Meine Gs gibts nicht zu kaufen, die sind maßgeschneidert Du machst auf überkrassen G in den Streets Doch deine Klamotten sind wie Kükenlaute, ziemlich Cheep Ich und Flirt sind ein Team wie Miami Vice Fliegen mit dem Koks nach Miami und machen Miami weiß Ey warte ich muss kurz an meinem Blunt ziehen Back to the future, die Zukuft ist am Mic In diesem Raum sind alle wie Bodybuilder, überkrass breit Und in der Innentasche der Jeansjacke von Zara befinden sich 300 die so draufgehen wie Sparta Ich bin so Dope, mein Dopingtest war positiv Ich bin kein Mörder, aber kille den Beat von Jungle Beats Ich kandidiere für die nächste Präsidentenwahl Tejay und Money Boy die Macs wie im Fernsehkanal Ich bin back auf meinem Grizzly Und ich stacke meine Jipsy Kartenspieler im Casino Money älter als ein Vino Guck mal mein leben ist ein Movie so wie Spielfilme im Kino Und mein Video sieht aus als wäre es von Quentin Tarantino Guck ich chille jetzt in Philli und esse dort bei Ginos Chilly chease steaks und mach Drogen im Ghetto mit Latinos Ich erschieß dich wie Young Vito Mache Party, sippe Kiko Und das Koka was ich ziehe ist mucho bien Ey ich zahl sieben für ein Kilo, hol es ab in Puerto Rico Fliege weiter nach Jamaica und kauf Weed dort in Montego Ich rock Jeans von Valentino und trag T-Shirts von Marc Und die Chikas lutschen meinen Schwanz in Bad wie ein Cornetto Ich wuchs auf in einem Ghetto Musste klauen wie bei Netto Heute zahl ich meinen Jet Bar Mein Haus mit hundert Hektar Hab ein Indoorpool im Haus drin Einen Autopool und Knete Einen Basketball und Tennisballplatz Den ich niemals betrete Ich bin auf der Jagd nach Mäusen Und zwar ähnlich so wie Katzen, Partner Und mache mehr Umsatz als das Dänische Matratzenlager Rapper legen die Karriere jetzt auf Eis wie Wayne Denn wenn nicht dann bringe ich sie um wie in Itchy und Scratchy Wenn ich sage ich hab Chips und Cheese Dann meine ich nicht Doritos Homeboy, Ich bin cooler als die Fischstäbchen des Captain Iglos Hater sind am haten, was erwartest du von Haters Player Ich hingegen mache jetzt mein Paper als ein Lakers Player Kobe Was du siehst in meinem Mund sind Grills und kein Zahnersatz Und mein Schwanz ist lang und zwar ähnlich wie ein Fahnenmast Sheesh Ich fick geile Modelbitches, so wie die Irina Shayk Und will ne Million für die Buchstaben im Alphabet A, B, C, D, E, F, G, H, I , J, K, L, M, N, O, P, Q, R, S, T, U, V, W, X, Y, Z Fly wie ein Zeppelin Fly wie ein Schmetterling Es gibt keinen Zweifel Mister Money ist Swagger King Yessur</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tu reviendras</t>
+          <t>La nuit c’est fait pour dormir</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10 Comme là on est où est on est on là. De tomtittot à titoutomtotalitarien. Té té tou ou. UNDE ET UBI. Avec sa large et velue face, pour lIrlande une disgrâce Que viencra. Qui cheffera mais. Et commautrement fichons notre viche nous pour trouver cette pinte de place portère ? Suis cuit dit le haut garde.1 SIC. Hommièrement sur les champs pierres. Trèche pas la viande gras sel lard sombre zone. Doù ce. Déjeuner rapide à notre gauche, roùe, vers où. Layon Long Livius, à mi Mail Mezzofanti, diagonisant le Square Lavatery, en haut du Croissant Tycho Brahe2, épaulant lAllée Berkeley, trafixant le Carrefou Gainsebrou, sous la voie-gade Guido dArezzo, par le Layon du New Livius jusquoù nous installâmes à linstant de notre venoù. Rond-Point du Vioc Vico. Mais va fahr ailleurs ! Et naturel, simple, servile, filial. Le mariage de Montan atermouillant sa bémolle quon connaît, tel quonque entheusyasse poulettant une sauvageonne3 dans son rougy ITINERAIRE IMAGINABLE À TRAVERS LUNIVERSELPARTICULIER 1 Rot mache, chitée the sa langaaillique. Si le vieil Hérode avec leczéma de Cormoelle devait me chercher comme il fait Renufleur au couac ce soit de ses canaris bleus, je frais neuf mois pour sa barbe bièvreuse . 2 Mater Marie Mercericordiale des Tétons Gouttants, lait' un arrangement queerieux 3 La vraie vie derrière les flots lumieurs telle que montrée par les meilleurs exposants dun divorce royal. Tod Cochonou, té Daimon Barbar! Pige le dans le redur ! Indivin vieil Ard-rey, Cronwall cirant dabeille la boîte à convulsion. à la gitane loutrée tiremainjupyjade et sa petsyblouse empontée de voylettes1. Quand qui quest craint quest cru. En elv, et fjael. Et le ronron des ajoncs nous vrhummenant howement. Son humé. Donc prenant le flot maréant nous revenons très theureux, à la trompette des crevettes et à lensigne des crambes de mer, pour nous atrouver au moment ù zest tout dit en un coup et le faiseur se fait la faite O maille !, ayant conesidéré les cônes et médité sur le mur et pondéré les pensiles et oculé lolympe et eu délice en le dianaphe cacchiné delle derrière les culosses à lui, devant un mosolée. Longueur Songe La rugeure, de lui, un chiampion des aevums nuiment, résulte de pique-nique ou stupeur issue de sopor, Cave de Gosses ou Glattstoneburg Hymanien, doyenaire, doniéré, pédantière, domm, qui, entièremment comme il continue hautement fictionnel, tumuleux sous son extérieur chthonique mais le vrai M. Tumulty dans sa vie muftiple2, dans ses antisipiences comme dans ses recognisances, est, Dominus Directus un maintefeste munificent poplus commun quhomme. Ainsoph,3 çun dressé, avec cette nullasse là son flanche-le zéroïne. Voir en sa coupe dhorreur quil est mehrkurios que seltz de sulphure. Terreur du frappé par midi le jour, cryptogame de chaque nocturne épousable. Mais pour employer des bribes de parler céleste, est-il ? Qui est-il ? A qui est-il ? Pourquoi est-il ? Combien est-il ? Duquel est-il ? Quand est-il ? Où est-il ?4 Comment est-il ? Et quest les décans là pour lui CONSTITU-TION DU CONSTITUTIONNABLE EN CONSTITU TIONNEL. 1 Quand nous jouons dà dress grandi au alla ludo poker tu sras heureurisé de sentir combien je peux paraître attrayant dans les cramponnades. 2 VicKelly, Loges Longfellow, Chambre des Communtaires III, Cake Walk, Amusing Avenue, Colline du Sel, Cie. Acajou, Izalonde, Terra Firma. 3 Nom de groupe pour jus de grappe 4 Bhing, dit sa tête de cambrugleur, soto poce. au fait, lhomme décemt ? Mets-toi à laise, calme ta hâte ! Approche-toi nous mener le passage ! Ce pont te met haut. Croise le. Et vienne-ten au château. Toque 1 Un mot de passe, merci. Ouil te pairse. Ça alors, que le sois étamné ! O riellement ? 2 PROLÉGOMÈNES PROB POSSIBLES A LIDÉARÉELLE HISTOIRE. Swing le banjo, boids coq, rbonde- le-ballier blouffe à fouque Hue sy grotte soliterre Au furscht kracht du tonnerre. 3 Quand lala, son yallipon, A été prise au filet et nommée. 4 Lavue proche Laissa myeux quan Je la vu mettre lonce dothé danlpot Erdnacrusha, requiestresse, éveille les ! Et laisse luie que se puresplatouillale lucie à laise ! 5 A la maison telle que pousée rusée par les fous des âges. Un scie soie truie. 6 Vrsl Quartand. Tickets pour la Tombola des chiots Terrier battant de la queue . Agrafosant à la laisse à, marchepierre où monter, comme chez la Boote à Ville Picard. Et ce destrier lécrémé là toujours dans le ventile grenier du sol. Comme par dessus. Ou que soient ces ailures inclinés sur les murs extérieurs, trophées de peaux de bêtes emboozés de Baws de blaques de baumes ? 7 Quaux bsèques brillent les balivernhisses ! Quainsi Bacchus passe même ! Inn inntrez ! Inn inntrez ! Où. Les babilleurs plaient la plume. Les bibineurs traient la piaule. Du lieu papplicommun, le patronde pubblicain fait ferraille avant fermetheure. Des GNOSE DE DÉTERMINATION PRÉCRÉÉE. AGNOSE DEDÉTERMINISME POSTCRÉÉ. 1 Yussive smirte et te mermon réponde de sa place abugise sous la marque raide, Gotahelv! 2 O Ruoma, iotrim en la salg et iov kom Dozi charc ce quel tom. 3 Un cor beau dérassé dieu dans un tub en tynnel. 4 Apis amat aram. Luna legit librum. Pulla petit pascua. 5 Et après dinn tirer les ombrets. 6 Dit Mary Achinhead lampoulouée au beautifié Tummy Tullbutt. 7 Begge. Allègue à Begge. Allègue à Begge et être sûr de demeumorer Begge. Goodbeg, baisesy Begge. Mars à lappareil Febvre, dédomicilié. Non quod sed quiat Hérécite au paradox éperdu parfoireurs qui le fréquentent le plus. Cette même hure de méru ex crâneur qui sous le nom supposé de Ignotus Loquor, dun passé brumeux, haranguait des saouls poissons hululants du ventre sur leur terrain favori de piétinement, dun frein père théo-baudissant.1 Et Egyptus, érobé dencens, tel que Cyrus la entendu dire de lui ? Et Major A. Shaw après quil a attrapé la mineure virole ? Et le vieux Whiteman même, le barbouilleux boutonneux, ôte là des baies, espoir des convertisseurs à la foi ostrogothique ottomaniaque, désespoir des chirurgiens plastiques post-wartem de Pandémia ? Mais était tout si y a longtemps. Hispano-Cathayen-Euxine, Castillan - Emératique - Hébridien, Espagnol - Cymric- Helleniky ? Rolf le Gangueur, Louf le Gangster, pas une figure pareille et la face semblable.2 Les temps passés sont des passe-temps. Maintenant que le passé swate Vatze. Saaleddies er il en ce warken werden, mine boerne, et il vild need zezit oldernativement depuis que fait primal alter au jardin dIdem. Les tâches den haut sont comme les flâches den bas, dict le cantique démeraude dHermès et tout est détestation et agitation du plaisir, nous dit-on, sur lautorité dune excellente bouteille à lencre, systèmesolarisée, sériol-cosmiquement, dans un univers de plus en plus puissamment expansif sous un, il y a raison sans rhyme de le croire, phote originel. Sécurement juge lorbe terrestrielle4. Haud certo ergo. Mais O féliciteuse culpabilité, le doux mauvais te cesse pour un archétypte ! 1 Alphapet animal de Chasselier et Puma, le premier au monde de aab à zoo. 2 Nous nentendrons pas les diagonistes gronder, nous ne craindrons pas les fletches du combat de la foudre de guerre, nous voguerons les méditarénies et débasqueront sur lisle que nous aimons en épice. Punt. 3 Et cette abeille dor de naguère est un cimadoro 4 Et il était un gay Luthaire de toutes façons, Sinobiled. On le voit à leurs habits extraordinaires. Basques. Balles Honneur commercio sénergie y aide la ligalisse phiéraude, la plurable avec tout le monde et ech avec pal, cet honernstième halliday dAllsap sale au mois ruissant avec ses deux éclipses lunaires et ses trois couchers saturnins ! Horne de Heaïens, à hrowse tête ! Livrière de Vie, rétro folâtre ! Amnios amnium, fluminiculum flaminulinorum ! Nous cherchons lUn Béni, le Havreur cum Enhéritance. Encor Canaan le Haïssable. Toujours à aller, toujours à venir. Entre un sidère et un soughpir. Fossilisation, toutes branches. 1 Par où donc Petra juria sur Ulma Par le gel des mortels ! Et Ulma juria sur Petra Sur ma vie veinue ! ZÉLOTYPIE ARCHAÏC ET LODIUM TELEOLOGICUM Remuve toi Mackinerny! Fais place pour Muckinurney! En ces lieux sojournemus, où leau dEblinn, lisiée de carre et de magères, laissant en amont ses récifs et ses fronts salmoneux, que son inrive rebrise des amours de fraichettes, sévente sur ses largeurs. Une cité phantôme, pheinte dun pholk philim, archetée et vendue pour une quarte de centaines du manhité dans leur trois et trois-vingt fylkres pour un prix partitionnel de vingt-six et six. Sur ce bord de rivière, sur notre banquette au soleil, 2 comme est buona la vista, par Santa Rosa ! Un champ de Mai, le vrai vallon de Printemps. Les vergers sont logés ici des lawriels pleins de sainteurs toujours embayés. Tu as une eau de vue celle au cendre, une ravine de marrons et dépines. Gleannaulinn, Ardeevin purti reflet dune plisante hauteur. Cette cour normande aux limites de la ville, au delà la tour grimpante dune église dErelande, réunit de vrais saints dans un cultuel assemblage, 3 avec la maison de pierre de notre roi LA LOCALISATION DE LA LÉGENDE MENANT À LA LÉGALISATION DU LATIFUNDISME. 1 Complencement nu et raide ossué. Nou vivi salo. Ra semble idule. 2 Quand tu révais que tu te richerais dans larc en marbre as tu jamais pensé à la souille du pool beg. 3 Prophyrieuse Olbion, menteur en habit rouge, nous avons toujours été totalement rose marines de notre côté à chaque fois En chute de neige, trou-de-dentelle, chair et héliotrope. Voici notre douzaine de cousins de la panne niaise tripoilée belgrovée de mûreyés, le quill était trancor moulin et Klostre qui était terre de Yeobereau, la forme tombale à affrefroide du vite passé, lorme Léfanunien au grenier feuillu sur-mansionné, chacun, tout un, le tout est pour le rétrospectionnaire. Skole ! Agus skole igen ! 1 Douce sorte dauburn, samène comme une fleur qui séfrige, avec cette fragolance des banquettes fraisées le phoenix, son pyre, flamme toujours au loin dans un esprit serré de vraie prat le roitelet son nid est niedelig comme les tourrises des sabines sont télévisibles. Voici le cottage et le bungalow pour le décornier et le bourgeois tout neuf 2 mais Izolde, ses jardins chapelet, an letits plads af liefest pose, achevauche les réveilleuses merveilles dehors, les réveilleuses merfilleuses dérivailles dehors, avec des haies dunivyrsélites et de houx livoude et arceau de gui, sont, ci ça cemble ainci et oui cil vous plaice, 4 pour la fille aux cheveux allègres de lAngoisse. Le tout sot de deux vieux périssiens stérilés, Mains Titony et Cheveus Outrachic, un kilolitre en métromyriams. Présépéprosapie, la parente boule. Tabard de von, tapine de vin, taverne vive et, par développement du ruban, de pont de contact à lécart loué, seules deux millium deux descents et eightante thausig neuf descents et soixante radiolumines salignent aux wustworts dun bureau de poète généreux à Finneville. Mirage distordu, le plus sur ses gardes de la plaine, où dans la 1 Maintenant ondrat laver la petite face 2 Une expression vernaculaire viking encore utilisée dans le district de Summerhill pour un homme coiffé dun pot de chambre de quarante ans qui met deux doigts dans son assiette de soupe bouillante et les suce tour à tour pour trouver sil y a assez de catsup au champignon dans le potage au mouton. 3 Mchr'dk'ts'w 4 Glouglou ploufplouf. 5 Tomley. Lhomme fait. Un boucher lui a szewchi les blonges et braies. Jsu décholé de voir P. Shuter boxomité des bédélias 1 rend heureux le fatral à bascule dans son trou. 2 Le store et la charte, le Château dArbreville sous la Lynne. Riva-pool ? Hotte-s-y une brique ! Mais ses empiercadères sont effieeriants, son empan spooktral, sa douane nest quune dune, ses parapets tout péripatétants. DOblong passe par sa passe. Quon passe tous. Des tonnes. Dans notre zroupil. Zronfle. Tandis que nous vers le bourré le plus fourré. Schein. Schore. Ce qui nous assurge contre lobmurcité du mythe-ulé dans le barrablousier, bevedere chambellé autour de la table, passant la nécessité de Morningtop et linvention de Harington, à la clairiance de la lumière denfante dans les arrivitres du studiorium. Ici demeurerons nous sous les plus joyers arceauciaux, amour à la clé avec nic et nac de novices. Le chur les principaux. Pour la rifocillation de leur inclination pour la manifestation dirritation garçons purpupins et poupée. 3 Après son, lumière et chaleur, mémoire, volonté et compréhension. Te parie cinsous, anythésieux, y a pas de pug-atoire, tes dans le jeu ? Ici les mémoires cadrées des murs y sont attentives jusquà ce que les chamajeurs au chahut rocade choient voyoués, F , au regaze, respectement, quator zixième de petit baron, rencontre, altertantième bancorot, blague et ère que commence commencement catalaunique quand Aetius fait échec par choc voulu au gambit dAttil, ce rembourré plein de bleus, quon lui donne du balèze ! quon dut y nous survoir, O juin des èvées les plus jânesses, toi qui fuis en faseyant le frondeur fectionné fervide pour tattacher épaissement à ton ensuiveur en aise de triton, 4 tiroir sur notre inconscionable, délurant alluré devant notre unter- LHOMME PRÉAUSTÉRIQUE ET SA POURSUITE DE LA FEMME PAN-HYSTÉRIQUE 1 Je crois en Dublin et au Sultan de Turquie 2 Jai entendu ce mot usé par Martin Halpin, vieux jardinier des Glens dAntrim qui fusait des travaux impairs pour mon parrin, le Rév. B.B. Brophée des Epée-Logues. 3 Les corbeaux peuvent sécorber si que la colombe sen diliche. 4 Question poussée. Il y avait un doux espérant appelé Cis. drogué,1 quon dut y nous survoir, quon nous lote voir, quon nous luise trouver, quon ne manque pas Maidadate, Mimosa Multimimetica, la maimimine du maimonmeining ! Elpis, toi fontaine des grêces, tout spirera vers toi,2 du kongen dans sa canteenhus aux files de louteries derrière le tertre. Ausonius Audacior et gaël, gillie, gall.3 Chansonnette panette. Storiella telle quelle Se Syung. Doù lassuite avec des yestes pour note pas finir de parler, pursuant plutoniquement le plus bref des coups dil de joyeux ragots, jolir Proserpronette dont la fente du fourre-tout faicoule des pis. La Grande Ourse morce au Voilageur son seul trouble, trouble, trouble. Forening Unge Kristlike Kvinne Balise Belisha, balise brillant ! Ouvreuse, démaille nous ! Ce rayon vère de rong doreille nous onde à lau-delà comme le rouge, bleu et jaune rabache du temps sur le domisole,4 avec un bloc bloui et un vent digo. Quand léclair devient mot et les silences lourdeux-mêmes. Pour bracier les congeniers, bondenés de trible façon et asservagé twainière jumelle. Adamman,5 Emhe, Issossianuchine et par fous Yggely ogs Weib. Uwayoei ! 6 So mag dise sybilette fût notre shibboleth quon lui fît bien la syllable ! Vetus peut être occlus derrière le mou dans Veto mais Nova se rapprochera comme leur radient parmi les Néréides. Lune des charmeuses, et même, Una Unica des charmeuses, qui , sous les branches des ormes, dans des chausses encore en sienne par pierreté, vaque, va, vaque sa voie de miel myrrhe et rosiers grimpants embrun de musc tandis quencore le peut-être mantelle la meiblume ou toujours sà elle URGENCES ET WIDERURGENCES EN SEPT NE PRIMITIVE. 1 Pour Pointe de la Rose voir Inishmacsaint 2 Mannequins' Pose. 3 Leur sainte présumption et la sienne sinfle desprit. 4 Anama anamaba anamabapa. 5 Seulement par loi fasse que sombre opère jai pu lobliquer cette vieille et sortir la barbouiller dans bien du temps mais je pense plus à mes pouilloires et mes bots. 6 Tous aux voiles pour Tarararat! Aie lair plus toufle, tête molle, on a un roupillon dans le garde-manger. Didicte moi tout sur les annaryllies. toujours sà elle sol a fadé le fleur,1 leurs bras étreints, sonssonnent le carillon du sexe appel tandis querrent les conchitas aux sentas,2 sonnées !, tous en pensant tout de ça, le Ça qui gratte, le Tout à chaque pouce, le plaisir pour lequel chacun va la pomponner, le business par lequel chacun a été bisé pour bosser.3 Porteras-tu ma boîte et combattras les fées ? Toute Alma Matière, Priseur Un vieil Espèce de marteau lAdjoueur et il est aussi mul que tes prime tif. Bientôt des jemmijeans vont bastonner partout quelqua rhythmatik ou lautre sur les tables divisionnelles de Browne ou Nolan tandis quelle, de la novence dun minion être chariment cupide, pour se dégonfier de la chope, le graillonnage du groosiste, ailavarice deformie et la grande gaffe de la grossigale, avec son tootpettypoute de jemenfichue fera sissit et triknit sur le sofa solfa.4 Ragout du soir, beauquin ragout. Et un brasse-lacet est boss au Théâtre du Dé thimple. Mais tout est dans linborne à elle. Fais intention. De la grammaire de gramma elle tient que sil y a une troisième personne, mascarine, phélinine ou nudre, comme on en parle dabad ça mode prosode dune personne parlant à sa seconde qui est lobjet direct à, envers et avec quoi il a été parlé. Prends le datif avec son oblatif5 car, même sil est obsolète, il a toujours de lintérêt, ainsi perla gramma de limpétus de son impératif, prends seulement soin de ton gendre vers ses réflexifs telle que jétais pour ton grappa pantamille de Bott, ouf utain dun homme ! quand lui métait hédon6 et mien, que le dict obscène, son sautillement de pygmée analectuel7. Il y a du confortisme dans la NOTIONS PRÉCOCES DE DROITS ACQUIS ET LINFLUENCE DE LA TRADITION COLLECTIVE SUR LINDIVIDU. 1 Quelquun doit le vendre à quelquun, le nom sacré de lamour. 2 Se le faire pendant que nous va son chemin. 3 La loi de la jungerle. 4 Jen rougisse de penser à tous ces pullovers mihissés. 5 Jaimerais bien sa joue rose. 6 Diable frechais harengé en rouge ! Alors cest pour ça que vous êtes partie en courant voirs la mer, Mme Clapoty. Clarte moi, Locklaun, car tu indu sens ! 7 Une poupée lavable aimable flottable. Undante umoroso.M. 50-50. connaissance qui hait souvent à première écoute vient à lamour à seconde vue. Aie pêché tes petites scènes taxiques dans la trempette aux subjonctions, dual au duel et prude avec le pruriel, mais même le chapron très aoristo quelque ait été le plaudi parfait cerne anent les prégâtites et haec genua omnia pourraient peut-être avoir une chance daboutir à être en position de devenir un pâle pierrivé en dépit de tous tes temps accusatifs tandiment que tu giroufles tapisserie1 comme tes gérandiums pour la meilleure moitié dun langui ou dun sanglo. Cest un chaton du sauvage, machérie qui peut diretinguer un fait cocheur dun verrat véru. Car tu peux bien être aussi pratique quil est prédicable mais tu dois avoir le genre daccident propre à ce que tu rencontres cette sorte dêtre avec une différence.2 Flamme ses fouilletons mais frigère son foing.3 Chaque lettre est un don des dieux, ardent Arès, brusque Boreas et golubile Ganymede comme zèlous Zeus, lO'Meghisthest de tout. Mêtre ou me pas nêtre. Satis ta queste jeune. Werbungsap ! Ig am, vos fute un gentilman, thu arr, je suis un rincesse. A y un jeu fini ? Le jeu continue. Cookcook ! Cherche moi. Plus la femme est lhic plus celle se fêle mutile. Et plus le patrarc est grand plus le piçon est grave. Voilà ce que sait votre docteur. O amour cest la chosesue la plus commune comme ça dépache le pluteux et le paupe. 4 Pop ! Et quelle uf soit active ou cuillère soit passive, elles toutes les clauses fines chez Lindley et chez Murrey nont jamais aumené le participle du présent à une hortatrixie déponente, je le dis vindicativement, 1 Avec son caniche qui feinte dêtre déchargé et se sentant mort en elle-même. Est-ce que lamour vaut le pire dêtre vécu ? 2 Si elle ne peut plus suivre le procès des choses, Renée va au ballot. 3 Les frictions impropres est malédictions et la mens uration me rend fou 4 Primeur Llong et Cortts de Sorpucellerie Noire et Blanche. Jvais chercher cette petite polly suce tu te colles tes lebbens-quatsch. O'Mara Farrell. Verschwindibus de son futur postconditionnel.1 Fort faible est qui pait forfait. La quantité compte bien que les accents chancèlent. Blagoug à part et les obliques du discours parties dun côté, un môme, alanna, peut choisir parmi tant, quil soit appendix dun avoué, un clerc pipeau ou une tapette fonctionniste libre, ce petit lureau parfait, des langueurs et faiblesse dune lassihude aux lembres lestes jusquà la tête, au dos et aux maux de cur sur le féminage ciré et tas sur tas dautres choses aussi. Noter les Respectables Ladies Irlandaises Destressées et les Joyeux Souffleurs de Mousse de Moutarde des Associations dHumphreysville. Atac dabord, les couennes coin coin après. Prends garde en çhiste subtuile quesclangre de vipère2 fosse liaison à titiller les oreilles ! Au coup vert embîmé met propre penchant. Mais apprend de cette langue ancienne à être médiéviold moderne au minute. Un cracheur quon puisse sy fier. Bien que le Paillis des Merveilles nous ait perdu pour toujours. Alis, alas, elle a brisé la glace ! Liddle luqueur à travers la feuillagerie, il est nôtre le mystère de la peine3. Tu peux vriller sur la bikane luée de jeunesse et multiplaire tes Mike et Nike avec tes shoessures à botter sur les algébriers mais, volve la page virgile et la vue, lO fomanin est long alors quà lourdaude peine ces deux muètres la séquente voici que de Nebob4 on ne distray jamais qui te sera nimm au poil et ta nehmi le jour. Ulstria, On ha juste été alire, haton pas, ya, ya, dans les mémoiriés de guerres nuniques dHirelante, et finsi, und tout, ga, ga, de LOBrien, CONCOMITTANCE DE COURAGE, 1 Les gaggles sont de soutie 2 Il a que des noillets de buques sur une camanatte blanche mais il na pas les daints ni les grisses pour marchouer et cest ce qui va pas chez Lang Wang Wurm, vieille grose eylle worbolante. 3 Chéri et moi fie en toute frivolité que je puisse être pardonné pour mintrusant mais je pense pouvoir addouter enfer. 4 Il est tout mon genre humen de chaque desception. Monastir, Leninstar et Connecticut. Cliopatria, thayne histoire tuyhoseuse. Le Eroico Furioso rend le valet souriant. Peluche impense le vison bosquette plue taupe tu vois làpour lamou rodieux, chaali ! LO'Connor, Le Mac Loughlin et Le Mac Namara ave que fait le summe de leur appondage, da, da, de Sire Jalious Saisard, ce vénégamle torkmestre,1 avec son duo de druidesses en rompières dargent facile2 et le tryonforit dOctenave, Lapide et Malt Anthème. Tu faillis peut-être à voir le composé de cet exposé, Suetonia,3 mais les réflections qui me recurrent sont aussi longuissantes que la vie de la beauté est amour du corps4 et aussi brillantes que Mutua de ton miroir tient la chandelle à ton chaudal, lunique lévomane limisaire, sombrant Autum de ton Sprintant, soucie toi pas dun sprit de quoique ce sème que trigemelimen se bichonne le bourrichon ou nompe. Elle en fera confesse sur la figure et elle te le déniera à la face. Si celle-là ne te détruine pas elle ne te fera aucun caprice. Et alors ? Quoi laprèse ? Cruff Gunne peut bien slouffer, Gam Gonna flotter, les gossons yeuter les jeannantes faire yai. Des buttes de Heber et Heremon, nolens volens, couvée nos pansies, brune en brume. Il y a que ça se casse dans linfinitif davoir à avoir été et à sera. Ainsi ils entétaient au gros entrement, aise-t-il à présent et ne seurons-nous à tout jamais. Embouque eurhbonnement des épatapples. Caxole Cobra jusquaux chacasses. Hail, Heva, wïons nous ! Voici le planeur qui plaisait à la perle qui liste le vent qui lifte les foilles 5 qui ont plissé le fruit qui pendait sur larbre qui grewassait dans le gardin où Gough y grave. Vaste hisse, vire vissant. CONSEIL ET CONSTANCE. ORDINATION DOMEN, ONUS ET OBIT. DISTRIBUTION DE DANGER, DEVOIR ET DESTIN. PRINCIPES POLAIRES. 1 Toutes ses dents revenues sur le front, puis la lune, et puis la lune avec un trou derrière. 2 Saute un, claque quatre avant, jeannies dans les chous. 3 Pas de ton anglais obligarnitoire ici ! 4 Substudie mes subpréhensions, Sostituda, et faisble tien complinement, gymnufleshée. 5 Quo' que jen ai quun comme ça pour la maison, brun feuille morte avec des appliques vif-argent, japplissirais totaplètement une jolie soie moyeuse et brillante tirée de cette muissante charmeuse serpent Pige pas. Huées frommes, vir globons. Pourquoi hides tu hindre ton mari son nom ? Leda, Lada, avlotta-afraida, ainsi growa ton girlandinet ! Ternevoulu sans malice, tournivers sans abutice. Pappapassos, Mammamanet, voirmouettesoite et oùêtessoye. 1 Mais cest piles offaces et nénés ononos et viennent buquettes viennent roussettes jusquà puint du jur. 2 Powthre Seidlitz por grassoillors de slogan. Hoploits et atthems. Les âges sombres étreignent les racines des marguerites, Stop, si vous êtes saillie des allies, des guerres Minuvretaures déchauffées et des actiums navales, des engagements délite et les bancs de galéroses. Arrête-toi sil te plait si tu te ré mi avant le mi si, fais do. Mais préfèrerais-tu la ré de lair comme une pas te plaise. Et si tu mèses une aventure cela te sert gai fillement bien. Mais, au nom de Janus, jallais oublier les Blitzenkopfs ! Voici, Hengegst et Horsesauce, sortez vous la tête 3 de ce conttonneau ! Et laissez vos hânessehénisseharrièrevous ! Cest hanté. La chambre. Des érrengs. Whun, toue, trace, étrille ! On comprend distinctement bégrayé que, puis sens que tes trois mains de haut mettent tes gabarithmes de deux pieds de large dans ce mort lavis du Lough Murph et jusquà un tel pas un de temps et les mêmes Messherrn les hommes dEtat sougriants, Brock et Léon, ont shunté les décondés grommelants, Starline et Ser Artur Ghinis. La foameuse brewsée dhomestique, embataillée à la bouteille, gageure de guegerre 4. Bouf vaingien bours et puis bourse regain bouffigant. Gringrin gringrin. Staffs varsus hardes et boucs vursus braques. POURVUE PANOPTIQUEDU PROGRES POLITIQUE ET LA PRESENTATION FUTURE DU PASSE. 1 Quest-ce que cest ma'am ? dis-je. 2 Comme tu dis toi-même. 3 Ça léthé du tourlesol mais ça part au lavage. 4 Là où il a combattu le soc cellebral de sa stimmstammer et nous avons pris les pépettes de nos vies damour. Curragh machrie, mophàist onfiente. Femilles braissez en aux antres! Tout que souffrîmes sous ces Fourchiées Crodignes et comme notre ramassage de plaine panier nous a rejoyé. Chère à Chair du Vieux Kaine. Fliflie pour les jellies et un bombambum pour le nappotondus. Par les murs du vieux Grumbledum. Bosses, beugle et brailles1 Opprimor à bas, hop hop Opima! Rentes et rates et dîmes et taxes, gages, épargnes et épenses. Heil, heptarché empan de paix ! 2 Vive, ligue de lex, nex et les plus mores! Fas est dass et foù erres tu. Impouvernement du boulible par la blabiole pour le beau boulot. Emballe donc tes emberdes dans ton emmoi ambramtam ! et désecoue la pelle mêle au jet. Car il ny a quune mère ope 3 pour la chute ned dans. Comme Hanah Levy, rusée voleuse ràsétalage, et la nièvre au nore déskinille avec ses dépouillées. 4 Pour addir des touches gay. Pour hugh et gâ et goy et jui. De fossettes limbé et dacné trimpé et simplé et guimpé. Un pire chat dans une poche et un porché dans une puie.5 Elle les gagne par gaines, un haul hectoendécate, pour mangay mumbo jumbjubes tak mutts et jeffs muchas bracelonettes gracies barcelonas.6 O quel charmant frais speech ça été tep 7 à gar huwasilyvant hinter- gronding ! Tip. Tels les lalas des alouettes pour un crocodile chargé, 8 ou la laube ricochante à ce souffle rauque de vieux sac à paroles, Blaveboss, se gonflant de tout ce quil navait pas fait. Sale eue ta troupe ! Clu y ait winker aux bouies sages de veuillesliègle ni y ait enclin de tête pour lambrueur napollyon et delas poor un choersevaleureux pie être et blond. Huirse. Son heaumhauberk 1 Remue léternité et lèche la création. 2 Quelle pénidiction si je peux voir. 3 Hoppitu Huhn cigru, loosh le hen. Jaime les glousseurs, tu aimes les nèfles clink deye. 4 Doux, moyen et sec comme du vin dautel. 5 Qui va macheter des bébés dun sou ? 6 Bien, Maggy, jai eu ton démon rejeté comme il faut et il me va comme un charme. Et jen suis vaguement pleine de grâce titude. Maggy mercis. 7 Mon six nest pas un secret, monsir, dit elle. 8 Oui, là, Tad, merci, donne, de, tathair, ça à voir maintenow Murdoch. Pas d'action, peu de sauce. Des sept tentes de Joseph jusquaux calendes de Marie Marianne, on se sent être éreintoux. Comme Shakeforge le poudrait contelancer. covrechaf emblème tricuspidal mis. Pour lhomme qui a rompu les rangs au Monte Sinjon. Egale déjade ? Que ça nous approuge là, en avance sur le programme, qui en est déjà plan accompli depuisyne Dathy Dadais des Cinq Positions le rayon de la mort puisse larrêter ! est encore, comme Paulus le reproche, sur le Madderhorn et, entre chats et papots,1 hardie Teste de buch à se chivrer les timbres et Hannibal mac Hamiltan lHégérite2 quil prenne de live de coude ! se buildisant du ministère, comme le reprèche Timothée, dans le Saint Barmabrac.3 Numéro Trente deux Onzième raie Ouest regarde vers cet puisse tout dans le tocomende du spil semperéternel sen pryouetter ! arbre à date dolorifère qui plus quau rejamais feuille plus tôt que chaque croissance et, au coup delf, têtebat, les nerfs effilochés se demandant jusquà ce quil se sentent solés comme nimporte quelle femme qui a été âme née pour toute éventualité au purdah et pour la combientième et commecestbientième fois à ce que les démons dans cette jà case quart on a pâti pour Massa et Missise et hijo de puta, le fermament semé de létincelle du starryk fildgosonguingon où souffle une némone à chaque clignot de toufin à vent 4 ils se lissaient tout du long et se neigillaient à lécart et scoutaient à lentour et stiraillaient partout. Pendant que tout ça ou sur ces entreballons durant de bonnes années vantées Dagobert est dans la clean ville natale de Clane faisant sa prépa de prépuératoire et apprenant à afficher un large visage bronzé à travers un méataeriel brisé à braies chez 1 Lève vite, reste si long, descend dowslowment! 2 Si je gnose mon gnougnobe le chaque de lui est gnatif de Genuas. 3 Un verre de pelure et pépin pour M. Potter du Texas, sil vous plait. 4 Dans le monde entier on aime de la grosse gelée luisante. Puzzi, puzzi, Je sens le chat Bryan Awlène, Erin a son hircovelu culotier.1 Deux fait ni une aile telluscrute au macroscope Du Buffalo Times des jours bysonés. Quick quac quote le perroquet des dates. Et comme, ces choses-ci étant ainsi ou jadis ces choses-là ayant fait, tout au bout du chemin de retour à Pacata Auburnia,2 jusquement inarable sainte gammel Eire un monde creux dit sur lautre, si tu mas saisi, voisin, en quelques gros morceaux, geek ? taon saisi pas le plus fort Standfest, notre sagon héros topiocal, ou tout ottre macottre, donc signe camant sur le dos de bastille aux ventrembleux, seaux hissés en plénitude, taon argenté à son jubilé,3 bouleau effeuilles sa jointure, notre lavy de compavide, visage plein de chair tant gras quun coq sul front, Airyanne taon Blousiharde sirnebullé, ce couple royal en son palais de hauteur à branches rapidées De Bouc taon Compasse numéro de bigo 1769, si tu veux savoir4, son bras de mer fortour delle, son eyne vélivole ennaufragé, a discut leurs choses du passé, crime et fable avec honte, tonte et profit,5 pourquoi lui mentit lei et hun tenta tuer ham, scribouille de boitille, dans les veines de qui court une mixture de, sont enclins à la chaleur et durs là dessus. Que rillon me jette leçon du sort. Cest des contes tout recomptés.6 Aujourdhui est bien tien mais doù pourrait demain être. Mais, bénie soit sa tête boucquelée et banni son chapeau fouloqué, ce qui nuit au monde est DE LA DICHOTOMIE CÉNO-GÉNÉTIQUE PAR LA CONCILIANCE DIAGONISTIQUE Á LA CONTINUITÉ DYNASTIQUE 1 A savavafou pour ton furavatal. 2 Mon globe va bagaddynauder au gloussiggle géographique pendant quel moment où je cherchais ma chaussure à travers toute lArabie. 3 Ça doit être quelque bête noire dans le gendre spécialement quand il est vieux quils arrivent tous bientôt à voir. 4 Après moi à consulter le plan dans la Justice de Pièce de Humphrey cest dit de voir les chapes qui précident. 5 O boyjones et hyerredites ! Seulement que passanne a dit à missus le comportement de ses massas elle aurait ri si flacide çaprès ça elle avait plongé sur son curbe flasque ils shaikeraient jusquaux shoukettes. 6 Tradurci en janglage jinglé pour les nusances des greniés dauphins. Il y en a qui cherche des dulcarnons à deux têtes mais plus pulfère les navets. Omnitudes enkn autre échedelle. lennui de chacun pour lautre à attendre de faire clown liste de ses proprieures erreurs, la main heureuse qui en retourne une, 1 libre de son floride futur et de lautre similitude chantante, faichant funèbre passé dautels sanglants, gaël avec un bong accent pour lui, colombe sans gale. Et elle, du nid de jilldaw 2 qui déchire les lettrines sur lesquelles elle na jamais apposé la plume. 3 Pourtant chantée damour du monstre jumain. Ho quet Hécube pour leux ou elle pour</t>
+          <t>La mode, ça tourne en rond, j'suis en Fila T'inquiète pas, j'connais très bien ces filles-là Elle va t'pomper le sang, comme Dracula Dégagez-moi l'passage, j'vais vous ver-la Tu viens d'voir Warano, petit veinard Toujours à 160 dans les virages Tu mourras si tu as vu mon vrai visage Un survivant pour faire passer le message La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Un café pimenté, j'suis en terrasse Tu voulais piloter, oui, mais hélas Tu t'es fait siroter dans un bel axe Tu cries au coup monté mais c'est tenace Tu kiffes l'Avenue Montaigne et les villas Les gros bonnets, oh, la vilaine Sans commentaire ma che bella Y'a pas de romancier à Marbella Les tits-pe ne connaissent pas Mandela Ils préfèrent le dernier Panamera Je chanterai pour ton umbrella Mwen ké fend' tchou aw Angela Mon cur est si monté, j'ai le dos large Dès que j'ai pris mon pied, je tire deux lattes Belek, les îlotiers parlent au barman J'suis plus proche de Guy Môquet que d'Obama La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Me laissez pas sortir, oh Pour moi, c'est toujours la pleine lune, oh J'suis dans tous les endroits sordides, oh La nuit, j'cherche des problèmes, la journée, des excuses Dites à vos agents d'arrêter d'm'appeler T'as cru qu'j'rappais pour jouer dans ton navet ? Ma mère se demande si j'suis toujours en vie J'ai dû lui faire croire que j'étais Banksy Tellement déchiré, faut m'sous-titrer Sapé comme jamais, personne devrait s'habiller À mon meilleur, comme ta meuf avant la soirée J'fais ça salement, comme ta meuf après la soirée ok Si tu m'vois près d'un distributeur à billets Après vingt-deux heures, c'est pas pour faire un truc bien En fait, la nuit, c'est seulement pour me fatiguer Cernes sous les yeux tellement grosses que j'y vois plus rien La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir La nuit, c'est fait pour dormir la nuit, c'est fait pour dormir J'ai dit La nuit, c'est fait pour dormir On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée On sait très bien qu'elle est pas maquée Elle fait tout pour se faire remarquer Forcément, tout l'monde l'a regardé Mais madame est compliquée Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game Et tout Paris a vu ta tête Tout Paris a vu ta tête Ça t'apprendra à trop snapper Maintenant, tu sais c'que c'est qu'le game3</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tu me l’avais promis</t>
+          <t>Komodo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Intro Discussion en arabe Drobt minou joj Tad a3li Papa Tad a3li Papa zid yak Wach oudi gouli a3di yal hmar Ana sidi lkher ta3dak ma3 el fstish Chkoun hada Li 7wak ya weld el 9a7ba Ta3la oujdi amouk Yallah Tfarga3 daba a zamal Wahed el Zero ya weld el 9a7ba La maille me motive une meilleure vie comme motif Sort pas d'chez toi sans y laisser c'que t'as d'plus émotif Ils veulent jouer dans notre div' sur ma mère c'est qu'des pitres Pour calmer tous ces nerfs j'dois en fumer des litres A-L Bandit gros scar-la, j'veux qu'des carats Faut que je sois parer à m'barrer d'ici, et bon débarras Sans gêne dans les escaliers, ça découpe des 100g Si ton pote d'enfance te parle plus c'est peut-être toi qui as changé Les grands de la cité sont rangés, y'en a au placard Egoïste j'vais voir ma sale gueule sur ma Blackcard Les p'tits d'chez moi bah ils te séquestrent pour ta gold Quand tu sèmes le vent c'est des bastos que tu récoltes Pour les gens pieux la vie est moche mais la mort est si belle Des fois j'aimerais être une mouche pour ressentir les décibels J'représente ville-Belle comme Halimoush et Bebel J'resterais vrais, frais et prêt jusqu'à ce que le Seigneur m'appelle Quand on s'y met tu peux faire une croix, on vient pas pacifier Demande à tonton Bruler, j'taille vif et l'compte est pillé On vient pas pactiser mais putain qu'est ce qu'on va tiser Tu m'allumes, j'te rallumes avant d'avoir cicatriser Au bled le prix du visa il coûte les yeux d'la Mona Lisa C'est Yougataga on m'commande pas j'suis pas une pizza J'rap français, je l'ai froissé j'en ai fait de la rfissa La cavale, le hebs, la gloire c'est pas arriver fissa-fissa J'suis comme l'eau qui dort, j'ai les dent qui poussent Il m'faut mes kilos d'or avant que je les liquides tous Qu'il m'avance un mètre carré j'ai envie d'me barrer J'ai vingt ans on dirait que j'en ai pris 5 cette année Tout est carré, pour la mama faire des sous fallait Sur l'terrain armé quand ça risque de rafallé Paris 5 sur le pavé, y'a des chose que t'as pas vu Toxicomane j'avoue, j'pète un garde à vue Au bistrot on m'ressert un cocktail de rue J'sais m'tenir même face à une gazelle en p'tite tenue On veut l'plein comme Phillip, rouler en 6 litres 3 On fume le game comme une tulipe, on y est tant qu'on s'y crois Woogataga, j'ai c'qui faut dans la cabeza J'pourrais acheter un Lamborghini si j'vendais l'tiers de ma pe-sa Doigt sur la gâchette, la main dans que-sa Les 3aineurs j'les prend par qu-cin niquer des mères je n'demande que ça No Times Records, j'ai à peine le temps d'niquer des 9a7' tranchant, masteriser j'suis blinder d'équerres T'allumes ta mère, j'viens à tes obsèques et j'fais semblant d'rer-pleu Comme dit XXX des mecs comme lui darwa il en reste très peu Decorticant mon seize y'a d'quoi prendre 5-6 années Crois moi qu'on va t'perdre et qu'personne ne va gagner Où est-ce que t'as planqué ton tos-ma ? m'a demandé l'douanier J'lui ai dis j'ai tout mis dans l'crâne j'avais trop besoin d'me soigner Et ouai la rue c'est paro, ma poto elle m'a rendu fou Les keufs nous prennent en photo, ces schmeta s'prennent pour fifou Paranoïaque, j'arrive une heure avant chaque rendez-vous Si t'es un brave j'allume pour oit, gratuitement j'me dévoue Entre contrôle incessant et actes insensés Tu deviens plus sain une fois blesser ou t'es mort arrosé Sous whisky coca-cola on passe du coq à l'âne On voit la coka khoya toute notre vie c'est une cavale On a du seum's et du caviar, on a d'la pers et de l'écaille Si t'as un plan laisses nous l'temps juste qu'on déniche les faille Souvent éméché tous de sacré buveur Aucun d'mes potes à la cité pourra t'raconter c'que j'ai pu faire Rien qu'ça blablate na-na-ni-na-na-nère Moi c'est Al Bandit j'baise leur mères et leur grand-mères Celui qui s'en sort Al hamdoulillah après la pluie y'a l'tonnerre Cinq dans les veujs une dans les molaires fallait pas nous mettre en colère STA-IVE Music, on va tout refroidir dans ce système solaire On va faire du biff' et puis finir dans l'rif actionnaire Investit dans une goule-ca, poushka, une bécane XXX Laisse du wari pour l'avocat dahwa en cas d'caution Khey j'suis cramé comme un keuf sur un varadero A croire qu'à mon âge j'suis devenu un parain de l'héro Ok on a pas les mêmes buts quand t'oses y aller on n'y allait plus Quand ils sont arrivés, ils leurs ont tous dis qu'on leurs a baisé leurs mères les putes T'es charmante, t'es sexy, t'es marrante suis moi Khabta j'vais t'ken comme un taulard sorti d'46 mois Woogataga rhum-pom-pom-pom-pomme J'te dis te méfier de Eve car le vice naquit par la pomme Mais ou est passer ton oseille, sérieux tu te rappelles pas En te-boi avec dix bouteilles, en train d'frotter deux p'tites kahba Aie-aie-aie, on agit avec extravagance C'est vrais qu'des fois même en prison on a l'impression d'être en vacance Ils veulent causer avec moi mais moi j'cause pas avec des brêles Tout les p'tits reufs du rap game moi j'leur remonte les bretelles L'enquêteur il m'sort une vie que j'cache à ma meuf Un kilo d'weed si tu veux qu'avec les reufs on s'plait à ta teuf T'inquiètes pas on va t'atteindre si tu joue la folle Les 3aineurs comme les groupies bah y jouissent à la demi-molle Si t'as un plan ro-ro mon soce passe au quartier Avec You on gère que des bombes appelle nous les bombardiers B-r-r-r-a-a-a le cauchemar du rectorat Si tu fais l'malin ahah ! une rafale direct aux reins Vendredi 9 Aôut reprise du championnat J'suis déréglé moi ouai j'suis tout l'contraire de ma Daytona C'est l'anniversaire à XXXX, soir-ce on nique le 7okoma Les suceurs sont dans l'coma Ils avaient trop d'sperme dans l'estomac J'vous l'avais promis bande de schmeta J'pète le million et j'quitte la France Nique l'état vive le bled, j'ai la nostalgie d'mon enfance Discussion Outro Al Bandit Raaah You faut prendre des pépètes, faut s'barrer Mister You Aaahh ! tu connais Eh! Eh! Al Bandit J'connais la banlieue d'Bériz Toutes ses avarices Quand j'ai besoin d'tendresse j'passe une nuit avec mon khalis Mister You Ahahah ! Oh le con! Woogataga, Al Bandit B-r-r-r-r-r-a-a-a-a-h !</t>
+          <t>Une balle dans le crâne parce que tu n'en fais qu'à ta tête Intouchable comme le mari d'Bernadette Trop d'écart qui nous sépare grosso modo T'as échoué sur l'île de Komodo ! What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man J'vis sur le fil du rasoir, tu sais ça donc fais pas zerma Proche de l'état du dass et des liasses que les tasses amassent Oui c'est bien moi khouya, j'cascade toujours de squat en squat Le mic là-bas là, passe le moi que j'en place une petite pour Gassama Dans le Jeu trop t'agacent, faut que je sois le premier de la classe T'as pris du level, mash'Allah, c'est grâce à eux ou grâce à moi ? Tu m'as vu en guest ce mois, les groupies veulent me cker-sma Qu'on fasse un tour à Châtelet pour que j'leur pé-cho des keuss à mains Dingue j'le suis quasiment, surtout quand ça parle Casamance Chauffe nous encore un peu si tu veux vraiment qu'on s'amorce Rien qu'on s'clashe, rien qu'on stagne Putain rien qu'on se cane et rien qu'on s'tape Mon flow parle toutes les langues Mboté na yo Sayonara, Hello puis Guten tag Et des sons comme ça, j'en tente un tas J'suis dans tes contacts et qu't'appelles dès que t'as le time Pas de beats flingués, j'veux m'distinguer, couz' t'inquiète Pas de clip de... J'ai bonne dégaine, bien fringué Minute, quoi minute ? Mais trop de gens t'imitent Marlich j'suis sinistre, sinistre tah l'sinus ! Des gueush qui si-niff hum hum Subissez ma rage ça sévit c'est la merde ça simmisce Dans le rap trop de pénis, salope tu simules J'innove, dis ci-mer j'suis le Samsung, t'es l'Siemens What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man Pas de chance mon frère, ce soir y'a pas de démineurs Messieurs, enchanté, j'vous ai ramené des minerves 'Tain j'plains ton père de pas pouvoir coker Demi Moore Douleurs abdominales, t'es comme ton rap, t'es minable Allez, tous en selle j'vous emmène dans le Nouveau Monde On est tous sincère jusqu'au partage du million On te saucissone si tu donnes un de nos noms Les flics me passent les menottes, un gars trépasse à minuit C'est miné car j'innove avoue le à demi-mot T'es grillé, tu minaudes, Paris-Est, la minette Petit, passe la manette, j'te mets une baffe dans la lèvre Si tu tapes sur ma reus' tu te manges une balle à ailette À deux, une infanterie j'ai coupé le robinet Sois pas infantile comme Titi et Gros minet T'as braqué un Franprix et tu t'prends pour un gros bonnet Mais tu craches ton binôme, t'as juste, de l'âne, le bonnet Ça kicke un cran au dessus, tiens qu'on suce Tu rappes bien concis, consciencieux J'rappe pour les incompris, les bonnes compil' Les zup assombries, les zincs au trou Et si les astres brillent, c'est pour qu'on troue Pas là pour t'attendrir, fuck tout ton crew J'hésite à m'accomplir dans l'art d'écrire Ou bien le kiff d'un premier rôle dans un Gondry Dream What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's-what's your name man ? What's your name man, what's-what's your name man ? Meu-gi What's your name man, what's your name man ? Say my name man, say my say my name man H Say my name man, say my say my name man Say my name man, say my say my name man H Say my name man, say my name man</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lo Mismo</t>
+          <t>Everytime</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tú, tú, tú, tú tú, tú, tú, tú Quizá fue un error confiar en ti Solo me quieres cuando estás mal La última opción en tu lista Me cuesta creerte que por fin Luego de tanto, me quiere' Y ahora no creo en mujere' Viene' y va' cada ve' que sale mal Tú sabe' quién te va a ayudar Oh Ya yo no sé si lo pueda tolerar No te conozco nada como ante' Teníamo' una excusa Me quería y ahora, solo me usa Respóndeme bien Esta vez, quién s que eres tú? Tú, tú, tú, tú No soy tu muñco voodoo Tú, tú, tú, tú Pa' que hagas lo que quiera' a tu antojo A tu antojo Un día, verde después otro, rojo Rojo Sé que algo malo esconden tus ojos Tus ojos Quiere' hacer lo que quiere', pero no puede' Eh, eh, eh, eh No, baby, no lie Y aprovecha que me tiene loco to' ese style Wuh Junto', tenemo' una connection y es size Pero luego, algo te pasa y se pierde el Wi-Fi Así que, dime, mami, qué es lo que vamo' a hacer? Si nadie gana, si todo se llega a perder No to' se arregla con sexo luego de beber Cambia, si tú quiere', pero aquí no va a ser Porque no soy santo pa' que tú me pida' Pero luego de hacerme daño, mi vida Si hay problema, le buscamo' la salida Si no quiere', entonce', sigue con tu vida, mami Porque no voy a seguir jugando Ajá Con esto, que no' está matando Nah-nah Y que no haces nada pa' arreglar Esta vez, quién es que eres tú? Tú, tú, tú, tú No soy tu muñeco voodoo Tú, tú, tú, tú Pa' que hagas lo que quiera' a tu antojo A tu antojo Un día, verde después otro, rojo Rojo Sé que algo malo esconden tus ojos Tus ojos Quiere' hacer lo que quiere', pero no puede' Eh, eh, eh, eh Viene' y va' cada ve' que sale mal Tú sabe' quién te va a ayudar Oh Ya yo no sé si lo pueda tolerar No te conozco nada como ante' Teníamo' una excusa Me quería y ahora, solo me usa Respóndeme bien Esta vez, quién es que eres tú? Tú, tú, tú, tú yo no sé! No soy tu muñeco voodoo Oh, no tú, tú, tú, tú muñeco voodoo Pa' que hagas lo que quiera' a tu antojo Lo que quiera' a tu antojo Un día, verde después otro, rojo Rojo, oh Sé que algo malo esconden tus ojos En tus ojos Quiere' hacer lo que quiere', pero no puede' N-O-R-E-H Noreh, ah Kid Fresh Kid Fresco Mangus IVDA IVDA El Chico de la Mafia, ah Lo' mismo' bandido' Yo' que le gustan a tu chica</t>
+          <t>A nigga really went and turned a quid into a Q-M Now I've more than doubled it, it's like they're wishing that I knew them So they could miss me with their two pents No new friends Only thing new here's the coupe Benz Every L I took a bounce back Most these cappers gonna be brass when it's time to pay their bounce back My Arab baddie got a round back Hella sexy when she say my name, mad when she pronounce that I rally came up from the bottom Nah, a nigga really cam up off of bottoms Mazza with the crawler every time it hit the bottom Now I'm buying all these kettles, got me feeling spot rotten I'm a dough stacker, known trapper, I'm no slacker Really cut from different cloths than known cappers Try come with chatter then doing up Mo Farah If the convo ain't paper I told them it don't matter I swear them man there just talk loads Only time they've seen six figures' on their sort code There's no comparison, I'm colder than the North Pole I've really spent over a oner on my wardrobe I played a fool to almost everyone, nah, fuck that, everyone Came up doing both like Headie One Ask about me, I made the line fire, fire I did a mazza with the grease like H Maguire They're talking paper but trust me they don't see bills Ask the hood I did a mazza off of C bills Remember when the tops used to be 26 Now I'm flying Brum to check my bros in B26 I've seen all different kind of stamps on the coke Now it's different Monclers and Diors for the coat Getting busy down in Oxford and busy up in Sloan Put a monkey on my neck, that's Clive Christian cologne I can wear a different kettle every day From my whips to the wrist, you can tell I'm getting paid So it's obvious why they hate Lunch with their missus only time them niggas day date You see me changing up the whips like car, wow So you wonder why your bitch got her guard down Tk butch come with black dots, hit it like jackpots Now she won't ride me like The Ascot</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fin de Dream</t>
+          <t>Appelez la police</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice Maître Gims s'en va, très loin quelque part Si tu jactes sur moi, je n'serai qu'à quelques pas Tu n'existes pas... krr, paw ! Ne me teste pas, casquette, lunettes, be-bar J'ai grandi sur l'ciment, entouré d'caïmans Dans l'noir, quasiment une balle avec des sentiments J'sais rien faire correctement, j'peux pas faire autrement Sept-Cinq-Double-Zéro-Neuf EmpireOttoman Dans l'hall on fumait, mal de crâne, trop d'fumée Tout ça pour oublier qu'chez moi c'est p'tit comme un comprimé Malgré ça, pas d'remède, les flics à quelques mètres Quand tu seras maître, j'serai sûrement à des kilomètres Dans l'noir on s'camoufle, plus d'deux mètres, on t'cafouille Fuck la hiérarchie je suis le champion de Capou Le chanteur de ta douce femme qui met son flouze à la Fnac Pour écouter du meu-Gui sous sa douche Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice On n'demande pas l'avis d'un mort, ni son chemin à un aveugle J'vis dans l'noir tu veux m'voir ? Fais un vu J'suis difficile à comprendre comme Hamdoulah chez les envieux Tu capteras mes punch' du mois d'mars au mois d'janvier Bande de cons, que des grandes enjambées J'suis dans l'coin, ressentez-vous l'danger ? J'vous bande les yeux vous verrez qu'j'ai pas changé J'fume pas d'shit, dans mon crâne j'ai un 100G J'fais du rap satirique, sur tes ondes satellites Et je sais qu'ça t'irrite, une gâterie ça mérite Laisse-moi juste cinq minutes, préviens ceux qui m'imitent Style, flow sans limite, pour le feat 200.000 eu' Pas d'swag Kamini, 20ème hood, Hara Kiri Quartiers Est Germanie, Wanted ChebMami Appelle-moi loi de gravité j'vais t'faire tomber Putain d'rap game moins d'salaire qu'un plombier Passe le crom', j'aimerais dire un truc à ceux qui jactent trop J'vous avais prévenus qu'on n'est pas ex-aequo Si j'm'appuie sur toi, je te casse l'épaule Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Si tu m'suis d'trop près, je te casse les côtes T'as pas d'chance, t'es tombé sur les garde-côtes Ce soir j'les agace, alors bloque le trom' Y'a mon gars à té-cô, là, c'est du Watch the Throne ! Fin d'Dream, fin d'Dream Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream, fin d'Dream C'est un couvre-feu, rentrez chez vous ! Fin d'Dream Oui, ça fait des années qu'on subit 75 Ça fait des années qu'on respire Street life Cette odeur de pisse Street life Cette odeur de vice</t>
+          <t>Avant toute chose, la foule, j'fais tout pour la faire crier, bars et flow rapide comme un lévrier Fuck mon image de raciste, RAF de la couleur, sauf quand on parle de mes billets Ouais, pas d'raciste, là, on est au dit ROAR, donc j'sors mon plus gros calibre de mon tiroir Parce que, ce soir, j'viens m'faire votre Blanc comme si j'sortais d'l'isoloir Après Esope et Bramzo, on m'envoie encore un gros morceau, mais j'vais esquiver un autre coup dur J'vais m'appliquer sur mes lignes comme si j'pratiquais de la haute couture Donc, crois-moi, j'te parle pas d'mon cachet quand j'te dis que j'viens faire des grosses coupures Bah ouais, pour t'attaquer, des mots, j'en ai plus d'un dans mon lexique Malheureusement, tu rejettes rien, t'es tout fade, il faut que quelqu'un t'explique Le fait que tous tes adversaires parlent de ta taille t'a pas rendu sceptique ? Parce que c'est la seule chose marquante chez toi Donc, pour te clash, on n'a pas trop l'Ochoa, et j'suis pas en train d'copier Cheef Jdis qu'on n'a pas trop l'Ochoa, comme le gardien du Mexique J'suis venu débusquer le gros gibier comme si j'menais la battue Si, ce soir, il fait preuve de sang-froid, c'est juste que j'l'ai abattu Parce qu'il va finir derrière mes bars, comme dans une putain d'garde à vue Parce que, ouais, j'suis assez costaud mais, face à lui, j'suis une allumette Donc j'vais t'foutre le feu, comme quand l'sniper a sa cible dans sa lunette Mais, en vérité, N'Joy, t'as aucun big skill T'es qu'un putain d'miskine Tu vas où l'vent te mène comme un pistil Moi, j'envoie des missiles sur tous les gens d'la pièce, comme au mariage de Kill Bill Mais, ma mission, aujourdhui, c'est d'éclater N'Joy J'vais tellement lui mettre de cartouches, on va croire qu'c'est ma Game Boy Paw, une cartouche dans l'oreille, comme quand t'as découvert Temps mort Et, vu qu'tu mendors, tu vas finir le coffre plein de cartouches, comme une caisse qui rentre d'Andorre Te retrouver contre moi, c'est comme foncer contre un platane dans une caisse sans airbag Car j'vais dire tout haut c'que tout le monde pense, fuck les messes basses J'suis venu t'prouver qu'on n'a pas les mêmes tracks Qu'on marchera pas dans les mêmes traces Car t'arriveras jamais à ma cheville, comme mes Air Max J'fais plus d'erreur, j'reste dans le contrôle, comme Zidane dans le mid J'me retrouve face à lui, forcément, mon Magnum je vide Là, j'te parle de gun, pas des bouteilles qu'tu peux voir dans l'VIP Face au Zite, tu t'es vexé de ses phases, mais t'as aucune couille, on a vu ton regard dans le vide Ça prouve que t'es qu'un bourgeois qui s'engraisse, on n'a pas le temps d'se vexer pour des jokes quand on n'a rien dans le bide J'prouve que j'ai pas besoin de jeter mon ancre pour te faire chavirer Parce que tout le monde commence à sfaire à lidée que t'es peut-être un grand homme, mais t'auras toujours une p'tite mentalité Respire, essaye d'éviter l'drame, quoi Quand je leur ai dit Les gars, j'affronte qui après Taïpan et Aparzite ?, ils m'ont dit Calme-toi Ton match up va pas pas tarder Deux jours plus tard, je suis dans ma caisse J'ai fini l'taf, j'vais bientôt m'aérer Quand je reçois un coup d'fil de Buenos Aires On m'annonce Rotka Je dis Rotka, pourquoi pas ? Et puis j'me dis Rotka, c'est pour ça qu'ils ont pas voulu m'le dire, l'autre fois Tu t'appelles Rotka, pourquoi, gars ? Genre c'est la classe Pourquoi Rotka et pas Potka ou Vodka Glace ? J'veux dire, à quel moment tu te dis J'vais faire du battle rap, mon blaze, c'est Carotte, ça passe ? Heureusement qu'on est à Lisbonne car T'es pas une raison suffisante pour que j'quitte mon canapé Paraît qu'ici la bouffe est bonne, j'te jure que personne n'est venu pour entendre Carotte rapper Pour les nôtres, tu n'es pas un pair T'as commis des impairs Mais t'es pas plus pertinent Moitié mythomane, moitié affligeant T'es visiblement le fruit d'une mère nymphomane et d'un père til-gen' C'est pas parce qu'ils défoncent le cul de ta frangine que tu peux les appeler mes frères gitans Mon succès est assuré, le tien n'est qu'éventuel Ce battle, c'est sûr, je l'ai Sachez-le, mes efforts sont continuels T'es un p'tit poids et, affronter Carotte Je trouve pas que c'est un bon duel Ton parcours est underground T'es sorti d'ta grotte Pour traverser un long tunnel Mais, le plus bizarre, c'est pas qu'avec un blaze comme ça, tu penses faire un carton Non, concrètement, moi, ce qui m'inquiète, garçon, c'est qu'tu trouves La Guêpe canon Cheef, parle-lui de vraies femmes, non ? Au lieu de chercher la merde, tu devrais demander pardon Tu manquais de motiv' quand t'as choisi c'blaze T'hésitais entre La Carotte et L'Bâton La Carotte ? C'est parce que t'as les cheveux oranges ? Pour un boulet, t'es rapide Non, tu t'appelles Carotte parce que j'vais t'faire bouffer tes racines Tu vomis dans l'cro-mi' mais t'apportes rien de neuf, Carotte J'm'introduis dans ton logis avec une boîte de neuf capotes J'te vois comme le plus poli des thos-my' T'as une tête d'uf, Carotte Je rectifie ton écriture, comme la police des polices ça, c't un buf, Carotte On va rien miser sur toi, t'es pas assez stable Redescends, arrête de crier, on t'a crée, t'es malléable J'te remercie d'avance pour ce moment, tu vas voir, ça va être très agréable Je suis vulgaire, hein ? Mais, si je te bouffe, Carotte, p't-être que ça m'rendra aimable Je suis venu chercher mon dû, même si c'battle n'est pas l'plus attendu Profites-en, mon grand, en temps normal, j't'aurais même pas répondu N'aie pas l'seum si je suis le meilleur toutes catégories confondues Une carotte et une flaque sur le sol tout ce que t'avais d'un vrai bonhomme a fondu Tout est dit, ce soir, tu vas prendre cher Je garde espoir, j'espère que t'es prêt à croiser l'fer Je te jure, c'est naze, il faut qu'tu changes de blaze Parce que, frère Des carottes, que t'en aies pris ou que t'en aies mise, dans les deux cas, il y a pas de quoi être fier Après mon ROAR 003 où j'ai sorti la tête de l'eau, on m'dit Rotka, t'affrontes ce grand penaud Pas de problème, parce qu'on m'a toujours dit que, plus c'est grand, plus ça tombe de haut T'es grand et c'est pas un problème pour moi, j'ai toujours visé haut J'suis venu briser ton p'tit ego pour la moitié d'un billet mauve J'ai l'dix à la Diego, et j'vais en sortir vingt-trois balles comme si j'payais l'Vimeo Puis, ta taille, c'est ta carapace, en vrai, t'es friable Et on a vu, face à Yessouf, ta personne véritable Quand tu t'essouffles, t'as un comportement méprisable Parler des parents morts ne sera jamais quelque chose d'excusable T'as des failles, tu coules vite sous la pression exercée On t'parle un peu dans la bouche, tu chokes et tu dérapes, vu que t'es vexé Quand t'étais en milieu hostile au RC On a capté que tu tournais vite en rond comme les chevaux du tiercé Parce que t'es pas plus talentueux qu'un autre Tu manques d'humilité et tu reconnais pas tes fautes T'as manqué d'respect à un mort, et t'es reparti la tête haute On devrait y balancer ton corps depuis que t'as parlé d'la Mer Morte Mais on comprend que tu sois rappelé partout, toi, t'es toujours d'accord lorsque Cheef parle Puis t'as dû passer cinquante soirées chez Maadou, moi zéro, on peut dire qu'les chiffres parlent Ouais, contrairement à toi, j'me suis fait seul avec ma team Mais j'ai bien capté qu'au ROAR, plus tu suces, plus on t'aligne Et, cet acte, on le banalise pour certains, c'en est maladif Paraît que, pour être intègre au ROAR, faut tout dire comme Lamanif En plus, chez P-H, tu dis qu't'as roulé sur tous tes adversaires Mais, si tu passais pas tes rées-s' chez Maadou, tu traînerais dans les ligues secondaires Et, ça, c'est vrai Tu te diriges toujours vers là où t'es en lumière, comme un tournesol Mais tu vas un peu vite en besogne, tu devrais t'entraîner à spit des bars alone Parce que, malgré qu'tu sois dans l'jeu depuis longtemps T'es toujours en construction, comme la cathédrale de Barcelone Parce que, ouais, on va parler des sujets qui fâchent J'sais pourquoi il est pas sorti, ton clash contre Baboukas Ils avaient prévu de te faire monter au RC à l'issu d'ce match Mais tu t'es fait péter les seufs, donc t'as demandé au cameraman de supprimer les rushs Alors, ce soir, j'vais p't-être pas gagner Mais j'vais t'apprendre un truc qu'on appelle l'humilité Toi, tu l'as pas, c'est flagrant Pourtant, tu fais deux mètres de haut, et c'est la marque des plus grands Espèce de sale wack, j'ai très vite capté que t'étais un MC qu'on surestimait Parce qu'avant le ROAR et les battles non jugés, les gros matchups, tu les as toujours esquivés Tu te plains de Slider qui a pas eu les couilles de t'affronter Mais tu les as jamais eu pour affronter Espiway Et, ça, c'est fucking vrai, tu choisis tes matchs quand t'es sûr de la win T'as tellement peur des grosses têtes que tu les découpes que quand t'es sur d'la weed Tu t'prends pour le roi du nord Je sais pas c'que tes potes t'ont dit Mais t'es pas l'roi du nord, bolosse, tu ressembles au Justin Timberlake de Basse-Normandie Alors écoute-moi bien, Fifi Brindacier Sérieux, tu devrais t'méfier Parce qu'en attendant qu'Luc Besson t'appelle pour faire Tintin Il va falloir que tu t'trouves un vrai métier Parce que, là, pour faire du buzz, faudrait qu'tu viennes avec des boots en croco' C'est pas avec ton blaze sur la carte qu'on va s'étendre en promo Pourquoi tu cries alors qu'nous on s'moque tant ? C'est tendre en propos T'auras des bras d'homme, mon pote, quand t'arrêteras de les prendre en photo Je suis allé à Lille, Paris, Marseille, Lyon, déjà remporté une bonne dizaine d'oppositions Apprends d'abord à tenir ta langue, je t'apprendrai à faire taire les suppositions Et, si tu veux savoir pourquoi, depuis l'ROAR, t'as pas eu plus de propositions C'est parce que, tes rounds, c'est comme tes selfies toujours le même angle, toujours la même position Entre racisme, foot et gun bars, tu suis continuellement la tendance Voila ce qu'il se passe quand on crée des MC de rien, qu'on en fait des expériences T'as réussi à t'relever d'une bataille, ça t'donne de l'espérance Tellement de charisme, quand tu dis Time, Maadou, il t'dit Non, pas time, tu recommences Mais, quand on voit le résultat, on peut douter d'l'expertise Ce que vous voyez là, c'est la tête d'un cobaye lorsque l'expert tise Rotka, c'est l'genre de mec qui, même entouré d'femmes, aurait une vie sexuelle de prêtre C'est l'genre d'MC qui envoie à bloc d'énergie mais dans une gestuelle de merde C'est sombre mais, l'départ de c'duel, j'te pète C'est l'comble pour un gars qui fait des gun bars de n'avoir aucune cartouche textuelle de prête Hostie d'roux Ta première sortie, c'était une sortie d'route Pas étonnant qu'on s'foute d'ta gueule La prochaine fois, chard-clo', inch'Allah, tu battles Marco roux battle, trou d'balle C'est grâce à moi que t'es dans la lumière, alors mets-la en veilleuse Arrête de flatter ton ego même si ton pote Crapaud a l'air de faire des pipes merveilleuses Parce que, oui, ça vire au Walt Disney quand vous vous gobez les couilles Rotka et Crapaud, en deux éditions, c'est devenu la princesse et la grenouille Pussy, tes histoires de flingues, ça l'ferait si tu venais disons de Russie Mais, tout c'que t'as, mon gars, c'est du sang d'pigeon, et j'parle pas de ruby J'humilie Taïpan au basket et, toi, face à moi, t'es rien en battle, comme sur un terrain d'rugby À ce stade de ta vie, t'as l'honneur de m'affronter Mes rimes sont en or massif, les tiennes sont en or plaqué J'deviens un pilier de ce truc si je décide de m'en mêler Dès la deuxième ou troisième ligne, tu vas prendre une pénalité Ta ligne de défense recule, tu subis l'raffut, ta ligne d'en-but est à portée C'est vrai, on t'a crée dans un seul but, bouffon, ça fait quatre éditions que t'étais censé transformer l'essai Ta ligne d'en-but est à portée, écoute, il y a que si je ramène la coupe qu'on pourra transformer les C De toutes façons, on a bien capté qu'c'est pas ta taille mais ton ego qui rentre pas dans le grand plan Selon lui, c'est un requin, j'en ai eu des échos, moi, j'suis un pêcheur irlandais venu tuer le grand blanc Non, j'te jure, t'as rien d'une squale et, ça, c'est clair, bitch Toi, juste personne dit que tu clashes mal, donc tu persistes Mais c'est fini, sans qu'il s'passe rien, j'suis venu t'faire mal ça, c'est Blair Witch T'as rien d'un requin, car j'ai vu l'interview chez P-H Grâce à ça, j'peux t'monter en l'air comme une barrière de péage Non, t'as rien d'un requin, parce que t'avoues recycler tes phases Donc descends ton étage, normalement, c'est pas le rookie qui doit t'expliquer les bases Non, sérieux, reprendre ses phases, c'est wack Est-ce que tu sais que, le seul à faire ça, c'est oi-t' ? T'as rien d'un requin car, quand tu m'as jugé au LC, j't'ai mis sur un piédestal Mais j'ai capté qu't'es juste un être détestable Tu dis avoir installé un siège sur le battle rap Mon gars, le siège dont tu parles est un siège éjectable Non, sérieux, check-moi Est-ce que j'ai repris mes phases du LC qui t'ont fait tant crier ? Non, car j'ai toujours de l'inspi quand j'trempe ma plume dans son encrier Sans crier, j'suis venu faire une croix sur toi, comme sur le torse d'un templier Entre toi et moi, y a clairement une diff' sur l'papier Tu fais que des lignes de mères, mais les gens disent que tu fais que surclasser Tes phases de mères, sérieux, N'Joy, j'en ai plus qu'assez J'suis venu briser ta carapace, frérot, t'es mon crustacé Contrairement à ce qu'on peut croire, j'suis pas venu m'battre J'en ai pas besoin car, moi, les Requins, j'les traîne à mes pattes dans le hall du bât' Les Requins est-ce que, là, tas capté qu'j'te parle de pompes ? Quand j'te dis qu'j'vais mettre tes yeux en face des trous, est-ce que t'as capté que j'te parle de pompe ? Non, j'déc', si j'dis que j'sors les pompes 45, j'parle juste de mes Asics Là, je vais parler d'ta zik' j'ai écouté, c'est vraiment du bullshit J'vais t'faire écouter la mienne pour que t'aies plus des goûts d'shit J'suis pas sûr que ça marche mais, au moins, j'essaie, comme le logo Gucci En plus, les gens nous comparent et, ça, ça m'rend fou Parce que, contrairement à toi, j'veux être respecté en posant mes couilles sur la table, pas en passant dessous T'as rien d'un requin parce qu'au ROAR 001, tu dis être un pêcheur chinois, RAF, c'est moi qui décide quand est-ce qu'il canne J'vais mettre le Chinois à genoux, appelle-moi Gengis Khan Non, t'as rien d'un requin, t'es même pas proche d'la carpe P't-être un long poisson parce qu'à cinquante mètres de l'objectif, on voit ta tête en gros comme si t'étais proche d'la cam' C'est vrai que t'es un grand du BR, t'es sorti de face à Taïpan en étant intact Au ROAR 003, t'hochais la tête à toutes mes phases comme si j'mettais un jab Mais, là, c'est fini J'suis venu soulever l'poids lourd comme si j'étais un diable Au ROAR 001, on t'a mis contre Ésope, mais ça a pas marché Au ROAR 002, c'était mieux, vu qu'on t'avait pas matché Pour le reste, on a du mal à suivre la Rotka dance À Marseille, c'était l'édition 003, t'en étais déjà à ta deuxième chance Contre Ésope, c'est chaud, on a tous cru que t'étais dé-p' Quand t'as commencé avec ton Ok, yo, moi, j'ai su que t'étais dead Ésope MVP, c'est légit' mais, toi, tu casses pas d'brique, Ésope nous fait un match classique Dommage qu'en face de lui, il y ait rien d'plus qu'une conasse d'asmatique T'as voulu jouer les loubards Ce coup-là, j'te loupe pas T'as dit J'te roule dessus avec une caisse sans essieux Formidable, sauf qu'une caisse sans essieux, ça roule pas Cheef était triste, pire, Lamanif a dit Qu'on vire ce pitre La meuf à côté d'moi m'a dit C'est rigolo, hein ? Il y a pas qu'en battle qu'il a du mal à suivre le rythme Pourquoi tu t'accroches ? Ça me fascine Poto, si tu t'approches, j'te calcine Dès qu'ça devient chaud, tu vacilles T'étais bon en battle face cam' Parce que, les battles face cam', c'est facile Ton heure a sonné, l'animal, c'est l'heure de la tonte Quand le ROAR a connu le succès, t'as connu que le frisson d'la honte Alors tu peux m'sucer ou retourner forcer la fonte Ton cur de glace, poto, j'viens d'en amorcer la fonte Il y a que pendant tes exercices de muscu' que tu restes bien droit Bramzo a attendu ses frères, tu serais rien sans les tiens, t'aurais mieux fait d'respecter ça Tu manques d'éducation, miskine, elle est un peu fine, ton estime de soi Tu peux soulever toutes les barres du monde, tu seras jamais carré comme moi Quand je rentre, le soir, ta daronne m'attend à la fenêtre Elle me fait beaucoup rire quand elle se déshabille, j'trouve ses bourrelets burlesques Elle est chaude comme le soleil quand l'horizon est sombre, funeste Ta mère, elle me suce jusqu'à la mort, c'est une vraie pompe funèbre Quand t'es venu au monde, c'était un moment plein de tendresse Sauf pour ta mère, la pauvre, elle cherchait ton daron dans toute la tess' Le soir venu, personne ne l'a revue, elle était un peu en détresse Le médecin est arrivé, elle a lui a dit Laissez tomber, j'crois qu'ce bâtard fait un déni de grossesse Ironiquement, vingt ans plus tard, toi aussi, t'as eu du mal à tenir ses promesses Enlève tes mains de ton caleçon lâche du mou Rotka, à chaque battle, c'est un carton pas du tout Tu vas encore demander pardon, marre du roux Ce soir, j'ai enterré la vie d'ce jeune garçon Marc Dutroux</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10/10</t>
+          <t>Efface mon num’</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Juste marcher sur les chemins de la dignité Les thugs et les caille-ra sont les plus faciles à imiter Les frères et surs pensent que leur avenir est limité Que juste le crime paie qu'ils n'auront jamais ce qu'ils auraient mérité Alors on se détruit en enflammant nos propres ruelles Brulons nos propres voitures, incendions nos propres poubelles On sort les armes face à des frères issus de quartier similaire Aux nôtres, G.A.V, fourgon cellulaire et autres Nos idoles Zinedine Zidane, Henry ou Barthez Tony Parker, Joey, Nino Brown ou Scarface J'avoue que c'est dur pour tout le monde d'Evry à Barbès Trop de gâchis de génie et de potentiel par tèce Plus facile de fuck la bac que d'avoir le bac Mon père me disait si Vincent taffe jusqu'à 10h, taffe jusqu'à 2h du mat Tellement d'espoir et tellement de jeunes au périmètre Hey ! Scar-la relève la tête comme le dirait Kery James Scar-la lève la tête, la honte n'est pas que sur toi C'est dur mon salaud, nos père se sont battus pour quoi ? Pour les jeunes du ghetto fleur du béton Frères tous bé-tom ou partis partis Y a 10 tit-pe sur la place Sur les 10 y'en a 5 qui sont 100 street life Et 5 qui squattent toujours en classe 4 qui fument mais les 6 autres vont pas tarder Tous sont intelligents mais parlent comme des attardés Tous rêvent de cash et sont indécis sur leur avenir Tous adorent leur cité, y'en a aucun qui rêve de partir Tous les 10 ont les capacités de devenir grand mais Dans le hood les jeunes ne flashent que sur les chant-mé Ça devient un style, les boulettes et l'haleine alcoolisé Motivés à aller à l'encontre du non-autorisé Préfèrent la street life que la parentale autorité C'est trop niqué si t'es pas gangsta, t'es pas o.p connerie Les embrouilles, le cash, le bloc, les magnums C'est pas dans le mauvais, la vraie définition d'un homme Plusieurs fois perdu en solo dans ma merde Je me suis relevé pour honorer le vécu de mon père Scar-la lève la tête, la honte n'est pas que sur toi C'est dur mon salaud, nos père se sont battus pour quoi ? Pour les jeunes du ghetto fleur du béton Frères tous bé-tom ou partis partis Tu fais quoi papa ? Je travaille, j'écris des textes, des nouvelles chansons Enfin des trucs que tu comprendras plus tard C'est pour les grandes personnes ? Pas vraiment mais pour beaucoup de jeunes dans la street Qui errent et qui se réveillent trop tard C'est pour les petites filles et petits garçons dans la street ? Ou c'est pour chez nous au pays et tous les ghettos de la terre Quand je serais grand c'est comme toi que je veux faire J'sais pas, tu choisiras en tout cas faudra honorer ton père</t>
+          <t>H Magnum Rentrez chez vous Big Black M Rentrez chez vous Fin de Dream Big Black M, H Magnum TPP T'as trop de swag Black M Arrête de bire poto Comment tu fais ? Arrête D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt J'ai fais des gosses à la Critique, je les ai appelé Disques d'Or Ferme ta gueule akhi parce que mon fils dort Gotham City, H Magnum a buté Batman C'est pas une punch'... C'est une blackline ! Attends, attends, rimes aiguisées, flow c'est qui ça ? Peggy déguisée, heu non c'est trop bizarre ! Inimitable, j'me limite pas aux MCs Mais ché-la ton idole, tu l'imites mal J'vais sponsoriser ta mif', ton clan, ta te-tan T'as le seum, t'aimerais ne pas bouger, mais le son fait que t'es dedans One shot, here we go ! Appelle moi Black Luigi C'que j'vois c'est trop gros, personne n'a le budget T'es pas prêt, sur le beat je slalome Chacun pour sa peau, en 2013, akhi c'est ça l'Homme Les cles-on au foyer, faut pas les renvoyer La vie c'est pas nos clips, ça se passe pas comme vous le voyez Problèmes, loyers, j'veux arrêter de vouvoyer T'es pas prêt Black M est malade, personne pour le soigner T'es pas prêt M'sieur l'agent, tu m'fais mal au poignet T'es pas prêt Je l'ai d'ja roulé, c'est entre moi et le douanier Laissez-moi dans mon délire, j'suis atteint j'ai pas le temps J'ai v'là le flow j'ai déjà bossé, explosé l'Apogée Attend j'vais te décomplexer, à tout jamais Tu vas ger-bou ta te-tê sur mon texte les mains en l'air Maudis Game, ils finiront tous intérimaires Oh dis-moi, mais tu n'as pas la gueule du winner ! Qu'est-ce tu racontes ? Ferme ta gueule TeddyRiner Le but c'est de taper les ventes de celui qui chantait Thriller Ça bosse, ça fait des lustres Portes et fenêtres scellées, oui la famille j'ai dû m'incruster ! D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Si tout le monde arrête de courir, vouloir être riche Je me dis qu'on pourrait profiter de nos êtres chers Le monde appartient aux gens qui ont la meilleure literie Mais qui n'ont pas plus de sentiments que Dexter Très cher, passe-moi le cro-mi qu'on en finisse, que je les punisse Tellement génie, j'peux faire rimer Dream, Nutella et Pénis Oups ! T'es pas prêt, efface mon num, retrouve moi sur la Lune BOOM je suis là ! Girl what you gonna do ? Toi qui connait tout, je vois qu't'es dans le doute Et ma douce on a vu ton boule LaureManaudou Désolé, c'est vrai que mon cerveau m'écoute peu J'ai remarqué ce truc depuis que j'suis tit-pe Issu du petit-peuple, non j'suis pas un people J'suis banal comme un renoi qui meurt d'un coup d'feu J'rappe trop bien, pas besoin d'être validé Vous m'avez négligé, j'viens vous faire valiser MC fais le tour, la prod' est balisée L'album attendu comme la mort de Johnny Hallyday C'est pas une punchline... mais c'est une bourde Donc je me désavoue mademoiselle, après vous Paris c'est fini, y a de la folie, viens me follow Petite souris, moi je serai Tom, et toi tu seras Jerry Appelle-moi H-Smith Wesson J.M Weston, j'kick sur WhatsApp T'es pas prêt, j'massacre, j'suis en mission J'ai tranché le son FleuryMichon Oups Trop de bâtons dans les roues, donc j'ai décidé de marcher MC y a du flow ici, viens faire ton marché J'suis un vrai tueur un vrai de vrai Si t'as les crocs, quand tu croquais, moi je mâchais J'tiens ma rage sous les jupons d'une meute yeah M.C.'s j'vous fais rapper mieux qu'hier D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt D'où je suis, je te vois, je t'observe J'te conseille, la famille, je te jure tu n'es pas prêt Qui je suis, tu le sais, tu m'as vu Et tes yeux m'ont tout dit, laisse tomber, tu n'es pas prêt Gotham arrive sur la planète MC, tous tes freestyles, bordel, p't-être faut que t'arrêtes ! Le son c'est nous, on le fait vivre Toi t'es mort dans le film et dans le feat, la famille, tu n'es pas prêt T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Efface mon num T'es pas prêt oh t'es pas prêt Efface mon num T'es pas prêt renoi, t'es pas prêt Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Terrain</t>
+          <t>Tout casser</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Les magnums sont juste derrière les ceintures H Skurt Fouiny Yeah yeah, yeah yeah Yeah, jai fait un rêve jles shootais tous, pas d'Fervex quand les guns toussent Ouais, renoi les temps sont bizarres, bicrave la dure oublie la drogue douce Ouais baise les Brunes, les Blondes et les Rousses, des barrettes de shit dans la trousse En tournée aux quatre coins du monde, ces renois s'sont tournés les pouces Jai fais du biff mesdames et messieurs, ma carrière nest pas de tout repos Jai tourné jai mangé chez eux au 5 bis Alexandre Turpault Et ouais reubeu jsuis pas de leur monde et ça gros ne loublie jamais Mes blessures sont à lintérieur, ouais juste derrière mon polo Chanel Élevé au tajine, au sombi, attieké, kefta et bissap Nan, nan, cest pas moi quai changé, ces bâtards sont devenus bizarres Tfaçon un jour tout se payera, on sdéfouraille pour un terrain Yesterday les keufs mont soulevé, javais limpression dêtre un R1 Ouais pas dmandat, très peu dcourrier, quun parloir le long de ma peine Aujourdhui sur mon répertoire, jai sûrement lnumber dta chienne Nan renoi sois pas goûte-dé, ouais que Dieu soit loué Ma voiture nest pas louée, mon pare-balles nest pas troué Paraît qutas bicrave quelques barrettes, ouais tu tes trouvé en zonz' Donc tu prépares ta maquette, mais sur lterrain tes pas dans les onze Et puis jvois pas pourquoi ils sla pètent, ils nont pas la médaille de bronze Les balances appellent le 17 et moi jme barre en 911 Parler pour parler à quoi ça sert reufré ? Et pourtant quand venait le moment dallumer Les bâtards engrainaient, les voitures ont freiné, les ratatatata, les daronnes affolées Rafale énervée, les balances ont craqué, confidences avouées, les condés défilaient Le terrain est miné les petits ont filé, enlevez vos sapes et venez les écrouer Chacun son rôle chacun sa merde, que Dieu soit loué Si on a lmonopole, cest quon est pas troués Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain Yeah, ils disent que jsuis Illuminati, ils ont tord mais bon jles comprends Plus javance plus ma monnaie grandit, Dieu pardonne mais Fouiny Babe nan Jai fait un rêve comme Martin Luther, banque de France jétais duper À cquil paraît tu mas pas vu, cest normal jétais ché-per Envoie les sous, fils de pute, arrête de tweeter, renoi, agis Mon son tourne dans toutes les prisons, comme les Kub Or Maggi Comme en Ukraine, le terrain brûle, madame la juge, on t'encule Brûle les draps les chauffes les PQ, CDC 4 dans ta cellule Ceinture H avec mon pote H, on pose les magnums sur les bles-ta Jcrois quta meuf est sur mes genoux, à en croire la gueule que tas Dans mon allemande jmangeais kefta, dans la boîte à gants jai dla peufra Et si les keufs me contrôlent, jcrois qujleur signerai un autographe Le juge est sans pitié, la daronne implorait Menotté, transféré, cest dans ses larmes que je pleurais Jai vu du sang gicler quand la bastos ma efleuré Un glock sous loreiller, enrayé, comment trouver lsommeil ? Mes ennemis gisent six pieds sous terre six pieds sous terre Les ptits frères perdent leur temps sur lterrain Ça bicrave, rafale, na3l sheytan, jgarde mon calme car jlai fait mais jperds mon temps sur lterrain Le temps cest dlargent mais jperds mon temps sur lterrain Jfais des gros sous mais jperds mon temps sur lterrain Rafale en tête-à-tête on peut sfaire fumer pour un terrain Combien six pieds sous terre nont pas tenu pour un terrain ? Nont pas tenu pour un terrain On va sfumer pour un terrain Assumer pour un pour un terrain3</t>
+          <t>H Magnum m'a dit ne fait confiance à personne, Vegedream Ils sont là juste parce que tu t'appelles Vegedream Ne te laisse pas le temps de gagner du temps, Vegedream Car le temps c'est de l'argent, n'oublie jamais d'où tu viens, Vegedream Donc pour ça j'dois niquer des mères Pour me faire respecter je vais tout casser eh eh eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je sais d'où tu viens on est tous fière de toi, Vegedream Tu t'es beaucoup battu pour devenir une re, Vegedream Tu connais mon histoire fait trés attention, Vegedream Les gens sont mauvais ils n'attendent que ta chute, Vegedream Oh Vegedream, on va tout casser eh dream eh eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh Je vais tout casser eh2</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>T’es partie</t>
+          <t>Bonita</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>50. Booba A.C. MilanIl s'agit du premier morceau clash-réponse de Booba à ses deux adversaires Rohff et La Fouine, sorti en janvier 2013. Sa sortie fut une grande surprise pour tous puisque le principal intéressé confirmait lors des interviews de sa promo qu'il ne perdrait pas son temps à répondre aux attaques dont il était victime.49. Dinos Punchliovic Bouchées triples feat. Nekfeu48. Black M Ailleurs47. H Magnum Fin de dream46. Zekwe Ramos Ibizarre feat. Infinit45. Seth Gueko Dodo la saumure44. Psy 4 de la Rime Le visage de la honte43. Hayce Lemsi Och Bad 2 Bourbier feat. XV Barbar42. Abdallah - Chéper41. Lucio Bukowski Impopulaire40. La Fouine Donne-moi39. Sadek Pay Me feat. Meek Mill38. Hayce Lemsi Électron Libre37. Médine Protest Song36. Maître Gims VQ2PQ35. Kery James 94 c'est le BarçaStan-E Music offre une de ses plus belles prods pour cette chanson inédite de Kery James. Un mix entre music de soirées, trap et égotrip Kery James sort complètement de son registre et de l'ambiance de son album Dernier MC pour relâcher l'ambiance 94 c'est le Barça, WOOP !34. Joke Miley feat. DossehLa connexion Orlinz-MTP s'est faite dans les derniers jours de l'année. Une semaine après son annonce, le titre retentit sur le net et provoque l'impatience des fans. Pour beaucoup, ce morceau banger est une preuve de plus qu'il faudra compter sur les deux jeunes togolais en 2014. Affaire à suivre...33. L'Indis Avec un grand G32. Espiiem Kilimandjaro31. Médine Blokkk identitaire feat. Youssoupha Médine et Youssoupha offre, sur l'album de Médine Protest song, une chanson qui, après avoir feinté en créant une sorte de clash entre les deux, comme ils ont pu le faire avec Kery James dans Contre nous, livre un unique message L'amour des uns, c'est pas la haine des autres. Mais autant voire plus que la chanson elle-même, c'est son clip réalisé par Jean-Luc Huberlot et qui conte l'histoire croisée de 4 jeunes extrémistes de différents courants qui a marqué les esprits. Encore une preuve que ces connexions fonctionnent, et une bonne augure pour La Ligue...30. S-Crew Du vécu29. Leck Langage de vie28. Vald Autiste27. Hayce Lemsi One-One26. Rohff ZlatanaConsidéré comme une suite de Starfuckeuze, ce que raconte le morceau se veut, selon les dires de Rohff lui-même, plus... crapuleux. Après en mode, dans ma werss et bien d'autres expressions, Rohff ajoute à son dictionnaire zlatana terme qui aura vite fait d'être repris et réutilisé par ses auditeurs.25. Casseurs Flowters 15h02 - Regarde comme il fait beau dehors24. Tito Prince Hôpital De La Fontaine23. Mysa Le sale boulot22. Niro Fiers de nous21. Joke Harajuku20. Sofiane Lettre à un jeune rappeur19. Maître Gims Meurtre par strangulationMPS est l'un des morceaux les plus sombres de Subliminal. Avec son clip, Gims attire l'attention, il prévient ses fans des messages subliminaux y sont cachés. Une chasse aux indices débute alors. Que symbolise le lion ? Où est-ce que le clip a été tourné ? D'innombrables questions auxquelles Gims finira en partie par répondre à l'occasion de la sortie de la réédition de l'album.18. IAM Sombres manuvres17. Mac Tyer Pas de solution feat. Alonzo16. Niro Les mains sales15. Scylla Répondez-moi14. La Ligue Contre nous13. Vîrus Des Fins...12. Kery James Post Scriptum11. VA La MarcheRéunissant plusieurs rappeurs de la nouvelle comme de l'ancienne génération, cette chanson, extraite de la bande originale du film La Marche de Nabil Ben Yadir sorti le 27 novembre, dénonce le racisme, la discrimination et les inégalités en France.10. Fayçal Requiem pour encre fine feat. Mysa L'Indis9. Kaaris Paradis ou Enfer8. Nekfeu U.B.7. Kaaris Bouchon de liège6. Booba Parlons peu5. Disiz Transe-Lucide4. Booba RTCBooba, encore une fois, adopte des initiales pour le titre de son morceau. Une manière sans doute d'entretenir le suspense et de créer de l'impatience autour. Pour RTC, soit Riche Tristement Célèbre, Kopp s'entoure d'un des meilleurs jeunes beatmakers américain du moment Young Chop.3. Kery James Constat AmerKery James livre dans cette chanson une description péjorative des milieux pauvres de France, soumis aux oppresseurs mais ce qui fait la particularité de cette chanson, c'est qu'ici Kery James ne dénonce pas ce dernier, mais au contraire, dénonce les oppressés. En effet, il fait un constat amer des relations entre anciens immigrés principalement entre arabes et noirs, mais il évoque à peu près toutes les minorités et l'individualisme à outrance qui sévit dans les banlieues.2. Rohff DouniaAlors qu'en 2010, l'absence de morceau hors-format dans l'album de Rohff La Cuenta avait été très remarquée, et expliquait d'ailleurs selon certains l'échec commercial de l'opus, Rohff revint en 2013 à cet exercice qui a fait sa carrière. La plupart d'eux sont des classiques, y compris pour les plus jeunes auditeurs Génération Sacrifiée date de 1999 !, et Testament, dernière piste du Code de l'horreur, ne déroge pas à la régle. En juin 2013, Rohff dévoile le deuxième extrait de P.D.R.G., plus de sept mois après K-sos Musik. Les critiques ne sont pas aussi unanimes qu'à l'accoutumée, cependant le morceau reste très bien accueilli par le public. Dounia est l'occasion pour Rohff d'exprimer ses incertitudes et comportements paradoxaux, entre piété et consumérisme notamment.1. Kaaris ZooZoo est le premier extrait de Or Noir. Il sort en janvier 2013 en exclusivité à la radio dans un premier temps puis quelques jours plus tard sur Youtube avec un clip réalisé par Chris Macari. Kaaris rebondit et profite de l'exposition que son précédent featuring avec Booba, Kalash, lui a offert. Très vite, les vues se multiplient atteignant le million. Le morceau a son lot de phases cultes de Kaaris telles que la première Je n'ai aucune peine, je te nique ta race ou encore Je trempe mes cookies dans tes larmes . Le flow de Kaaris, avec des longs espaces entre chaque phrase, est tout nouveau pour le rap français. Il surprend et plaît. Zoo devient inévitablement le morceau le plus connu de Kaaris et le rappeur se place en leader du rap hardcore français.9</t>
+          <t>Submariner sur le poignet Chute de reins sous les palmiers Ouais le diamant il est taillé Tout a coulé dans l'sablier J'ai eu c'que j'voulais, j't'unfollow Parle en dirhams, parle en euros Si j'dois te faire, j'le fais solo solo Le jour se lèvera avec ou sans toi poto Échec et mat tu ne restes qu'un roi Tous les jours moi je priais pour toi J'ai déjà tout dis, moi j'ai besoin de quoi? Eh eh, la vie qu'on mène Eh eh, c'est pas la tienne Eh eh, tu veux la paie Eh eh, on veut la monnaie Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito L'inspi vient du benks, tu vas te faire rafaler J'ai de quoi te faire crier, de quoi te faire cavaler Si tu sais pas qui j'suis, tu n'as qu'à me Shazamer Si quelqu'un l'a piner, frérot dis-lui A jamais Poto, poto, poto, 60 chevaux, j'suis dans l'auto Loco, loco, loco, verre de Chivas ? potos Ghetto, ghetto, ghetto, ride de cheval sur le capot Coco, coco Chanel, faire des sous comme Samuel Eto'o - Refrain Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito J'voulais juste briller Et là d'où je viens, poto j'ai rien oublié Mais à qui s'fier? J'voulais juste briller Mais là d'où je viens, poto j'ai rien oublié Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito Maillé, maillé, maillé Maillé, maillé, maillé Maillé, maillé, maillé Joga Bonito, Joga Bonito</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aucun mytho</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Re-fré c'est la guerre, guerre Tu peux me retrouver à l'after J'm'en bats les reins du game, game J'suis plus doué que ses amateurs Comment se fait-il qu'il soit aussi bon ? Va-t-il prendre la fève ? Tu crois m'connaître, tu me connais pas donc, ne m'prend pas la tête J'vais t'faire planer même sans pilon enfoiré Pas la même planète, pas le même filon enfoiré Aucun mytho, dis leur que chez nous y'a aucun mytho Aucun mytho, dis leur que chez nous y'a aucun mytho Petit millésime, te fait pas d'illusion Ne m'compare pas aux autres ils sont nullissimes Que des inédits, ne fait pas d'allusion Ne parle pas dans mon dos j'vais te fermer les cils J'fais mes propres mélodies bon j'avoue c'est pas Billie Jean Petit si mon album était une go ce serait Lady Di Les vrais me félicitent et pour ceux qui me sollicitent J'vous l'ai écris sur ma page je ne fais plus de feats Guette la folie, j'ai des fans dans la police Guette la folie, elle veut qu'on joue aux cartes dans son lit Tu connais l'usine, mate la finition Je ne ferais pas d'cadeaux à part à ma fille J'suis un érudit, j'ai des munitions Ici c'est de l'inspi pure aucun mimétisme Le rap c'est politique, ils veulent étouffer mon équipe et monétiser mon étique L'album est d'humeur olympique J'manie les mots, les filles oui venez toucher mon épée J'vous l'ai écris sur la page Je vis sur un fil Tu te demandes pourquoi j'suis si différent ? Aucun mytho, va leur dire que chez nous y'a aucun mytho Aucun mytho, va leur dire que chez nous y'a aucun mytho Je suis bien le fils de mon padre, j'suis un vrai nombo J'me suis libéré d'mes chaines comme mon poto Django Mon son fait le tour de l'Afrique de Conakry au Congo En remontant par l'Espagne chez les danseurs de Tango Mais tu peux m'voir au tieks en caisse ou à iep' Malgré mes centaines de millions de vues sur le net Quand le soleil frappe le t-shirt, les lunettes Va dire aux serveurs du Fouquet's maintenant j'peux les yape3</t>
+          <t>The new version of Songs of the Same Title can be seen here. Please refer to the new version when creating annotations.Click on the letters to jump to the terms under the selected letterA B C D E F G H I J K L M N O P Q R S T U V W X Y Z Adrenaline Adrenaline Rush Aeroplane After School After the Flood Again Against All Odds Ain't I All I Ever Wanted All I Really Want All In My Mind All My Life All My Love All Night All Night Long All or Nothing All That All The Way All Through The Night All We Do Almost Famous Alone Already ''Already Dead'' Alright Always Am I Wrong Amanda Amazing Amen America American Boy American Girl American Greed Amnesia Amsterdam Angel Angel Dust Angel Eyes Angel of Death Angels Angelina Animal ''Another Day'' ''Another Life'' Another Way To Die Anthem ''Antichrist'' ''Antidote'' Anxiety Any Day Now Anything Anything Can Happen Anything Goes Anywhere Anywhere But Here Apologize Apple Pie Are You Ready ''Arise'' Army Around Me Around My Way Around The World The Art Of Letting Go The Art of Losing Art of War ''Ascension'' Ask The Lonely Assassins As Long As You Love Me As The World Turns Astronaut Attention Attitudes Authority Song Automatic Ave Maria Awesome Awkward AyoBarbershop Barcelona Basquiat Bastards ''Bathe in Blood'' Battlefield ''Bay of Pigs'' Be Here Now ''Beast'' Be Alright Be The One Beat It Beautiful Beautiful Girls Because of You Beacon ''Bed of Nails'' ''Behind Enemy Lines'' ''Behind the Sun'' Belief Believe Believer Belly of the Beast ''Beneath'' ''Beneath the Skin'' ''Beneath the Surface'' ''Bereavement'' ''Berzerker'' Best Friend Best of Both Worlds Best of My Love Better Man ''Better Off Dead'' ''Betrayal'' ''Betrayer'' Beware ''Beyond'' ''Beyond Cremation'' ''Beyond Good and Evil'' ''Beyond Redemption'' ''Beyond Salvation'' ''Beyond the Gates'' ''Beyond the Pale'' Big Brother Birth Bitch Bitch Better Have My Money Bite the Bullet ''Bite the Hand'' ''Bitter End'' ''Bitter Pill'' ''Bitter Truth'' Blood ''Blood and Thunder'' ''Bloodbath'' Blood Brothers ''Blood Diamond'' ''Blood Eagle'' ''Bloodfeast'' ''Blood for Blood'' ''Blood in the Water'' ''Blood Is Thicker Than Water'' ''Bloodletting'' Bloodline Bloodlust ''Blood Money'' ''Blood Oath'' ''Blood of Heroes'' ''Blood on My Hands'' ''Blood Red'' ''Bloodshed'' ''Bloodshot'' Bloodstream ''Bloodsuckers'' ''Bloodwork'' Bloody Mary ''Blunt Force Trauma'' Blur Bob Bodies Body Language Body On Me ''Boiling Point'' ''Bond of Blood'' ''Bonesaw'' ''Boneyards'' Bonfire Boom Boom Boom Boom Boomerang Bop Borderlines Bored ''Born Again'' ''Born Dead'' ''Born Dead, Buried Alive'' ''Born in Blood'' ''Born Strong'' ''Born To Die'' ''Born to Lose'' Born to Run Boss ''Bottomfeeders'' Boulevard of Broken Dreams Bounce Bounce Back ''Bow Down'' Boyfriend Brain Damage ''Brain Dead'' ''Brain Death'' ''Brainstorm'' ''Brainwashed'' ''Branded''Carry On Castaway Champagne Problems Change Changes ''Choke'' Closure Cold As You The Cure Curtain CallD Song Damage Damnation ''Dance with the Devil'' Dancing In The Moonlight Dandelion Dangerous ''Danger Zone'' ''Darkest Days'' ''Dawn'' Day After Day ''Daybreak'' Daydreaming Day Drinking Daylight Daylight Robbery ''Day of Mourning'' Dazed and Confused Desire Dead ''Dead Again'' ''Dead And Buried'' ''Dead and Gone'' ''Dead but Dreaming'' ''Dead by Dawn'' ''Dead End'' ''Dead Eyes'' Dead Flowers ''Dead Inside'' ''Deadline'' ''Deadlock'' ''Dead Man Walking'' ''Dead March'' Dead Oceans ''Dead Planet'' Dead Rose ''Dead Silence'' ''Dead Sun'' ''Dead to Me'' ''Deadweight'' Dear Mr. President Dear John ''Death'' ''Death Before Dishonor'' ''Death Dealer'' ''Death from Above'' ''Deathless'' ''Deathmarch'' ''Deathmask'' ''Death or Glory'' ''Death Row'' Death Sentence ''Death Trap'' ''Deathwish'' ''Decadence'' ''Decapitated'' ''Decay'' ''Decayer'' ''Deceit'' ''Deceiver'' ''Deception'' ''Decimated'' ''Declaration'' ''Decline'' ''Deconstruction'' ''Dedication'' ''Deep Inside'' ''Deep Red'' ''Defeated'' ''Defender'' ''Defenders of the Faith'' ''Defiance'' ''Deflower'' ''Dehumanization'' Déjà Vu ''Delirium'' Deliverance ''Deliver Me'' ''Deliver Us'' ''Deliver Us to Evil'' ''Delusion'' ''Dementia'' ''Democide'' Demons Denial ''Deny the Cross'' Departure Depression Depths ''Derelict'' ''Descent'' ''Desecrate'' ''Desecration'' ''Desecrator'' Desolation Descending ''Desperate Times'' ''Despise'' ''Destroy'' ''Destroyer'' ''Destruction'' ''Detestation'' ''Dethroned'' ''Detonation'' ''Devastation'' ''Devastator'' ''Devil's Advocate'' ''Devil's Island'' ''Devil's Night'' ''Devour'' Diamonds ''Die'' ''Die Alone'' ''Die by the Sword'' ''Dies Irae'' Dirty Little Secret Disappear Disco Disconnect Disconnected ''Disdain'' ''Disfigured'' ''Disillusion'' ''Displaced'' ''Dispossession'' ''Dissolve'' ''Dissonance'' Diva ''Divide and Conquer'' ''Divided'' ''Divine'' ''Divinity'' D.N.A. Do Not Resuscitate DOA ''Doctrine'' ''Dogbite'' ''Dogma'' Dogs of War Doin' Fine Doin' It Right Dollhouse ''Dominate'' ''Dominator'' ''Dominion'' Don't Stop Donald Trump Do It Do It Again Done Don't Approach Me ''Don't Belong'' Don't Call Me Baby Don't Forget Don't Let Me Down Don't Go Breaking My Heart Don't Play Don't Shut Me Out Don't Talk To Strangers ''Do or Die'' Do Ya Like ''Doomed'' ''Doomsday'' Dope Dope Boy Magic Dope Boys Dope Man ''Doubt'' Down Downfall ''Downsides'' ''Down to the Bone'' Downtown ''Dragonfly'' ''Drained'' ''Drawn and Quartered'' Dreams ''Dreamscape'' Dreamer ''Drifter'' Drive Drone ''Drop Dead'' ''Drown'' ''Drowning'' Dumb Dumb Blonde ''Dust to Dust'' ''Dying World'' ''Dystopia''The End End GameEndgame End Up Here ''Epiphany'' ''Eraser'' Eternally YoursFancy ''Floating'' Forever Forever Young For Whom The Bell Tolls Fragile Freedom Fuck YouGet Low Getaway Car ''Ghost in the Mirror'' Gimme That Girlfriend Golden ''Grief'' ''Grimoire'' ''Grinder'' ''Grinding Teeth'' ''Grotesque'' Grow Up Grown Woman GTA Guerilla ''Guillotine'' ''Guilt'' Guilty Guns and Roses ''Gutted'' Gypsy Gypsy Soul''Hades'' ''Hail Mary'' Hair ''Halcyon'' Halftime Hallelujah ''Hallowed Be Thy Name'' Halloween ''Halo'' ''Hammerhead'' ''Hand Over Fist'' Hands All Over Hands Up ''Hanging by a Thread'' Happy Happier Happiness ''Harbinger'' Hard Hard Times Harder Than You Think ''Harm'' ''Harvest'' Hashtag Hate Hate It or Love It ''Hatred'' Haunted Haunt Me Havoc Havin My Way Head Down ''Headhunter'' Headlights ''Healer'' Heart Attack Heartbreakers Heartbreak Hotel ''Heartless'' ''Heart of Stone'' Heat Heaven ''Heaven Can Wait'' Heavenly Heavy ''Heavy Heart'' ''Heavy Lies the Crown'' ''Heavy Metal'' ''Hecatomb'' ''Hegemony'' Helicopter ''Hell'' ''Hell Below'' ''Hellbent'' Hellbound ''Hellfire'' Hello ''Hell on Earth'' Hello Neighbor ''Hellraiser'' ''Hellrider'' ''Hell to Pay'' Help Me ''Here Comes the Pain'' ''Heresy'' ''Heretic'' Hero Heroes Hey Joe Hey Ma Hey You Hex Hey Mama High Higher High and Dry High Hopes Highway To Hell Highwayman The Hills Have Eyes Hip Hop History ''History Repeats Itself'' Hit Em Up Hold On Hold Up Hollow ''Hollow Ground'' Home Homecoming Homicide Honey I'm Home ''Hopeless'' House of Cards How Come How High Holiday Holla At Me Hollywood Hollywood Whore Holy Ghost ''Holy Hell'' ''Holy War'' ''Homecoming'' Homecoming Queen Honest ''Honour'' Hope Hopeless Romantic ''Horrorscope'' ''Hostage'' Hourglass Hours How Many Times Human Human Love ''Human Target'' ''Human Waste'' Hummingbird ''Hunger'' Hungry Hunt